--- a/2026_멀티.xlsx
+++ b/2026_멀티.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyejinha/Desktop/Workspace/Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959A0A91-F4AE-264E-A2A6-9157D7ADFD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4640EDA-0BFD-FB45-AC50-CAEF6DFB27BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
       <selection activeCell="A170" sqref="A170:AF186"/>
     </sheetView>
   </sheetViews>

--- a/2026_멀티.xlsx
+++ b/2026_멀티.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyejinha/Desktop/Workspace/Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4640EDA-0BFD-FB45-AC50-CAEF6DFB27BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D61DA59-81A7-FD41-BB33-70A55DA85EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="87">
   <si>
     <t>기준일자</t>
   </si>
@@ -271,6 +271,21 @@
   </si>
   <si>
     <t>애플</t>
+  </si>
+  <si>
+    <t>YOFC</t>
+  </si>
+  <si>
+    <t>WUXIAPPTEC</t>
+  </si>
+  <si>
+    <t>LAOPUGOLD</t>
+  </si>
+  <si>
+    <t>BIRENTECH</t>
+  </si>
+  <si>
+    <t>BABA-W</t>
   </si>
 </sst>
 </file>
@@ -16515,56 +16530,56 @@
         <v>46044</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C170" s="10"/>
-      <c r="D170" s="9">
-        <v>6869</v>
+      <c r="D170" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E170" s="9">
         <v>0</v>
       </c>
-      <c r="F170" s="9">
-        <v>0</v>
+      <c r="F170" s="11">
+        <v>10000</v>
       </c>
       <c r="G170" s="9">
-        <v>0</v>
-      </c>
-      <c r="H170" s="9">
-        <v>0</v>
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H170" s="11">
+        <v>482030</v>
       </c>
       <c r="I170" s="9">
-        <v>51.6</v>
-      </c>
-      <c r="J170" s="9">
-        <v>0</v>
-      </c>
-      <c r="K170" s="9">
-        <v>0</v>
-      </c>
-      <c r="L170" s="9">
-        <v>0</v>
+        <v>51.54</v>
+      </c>
+      <c r="J170" s="11">
+        <v>515400</v>
+      </c>
+      <c r="K170" s="11">
+        <v>33370</v>
+      </c>
+      <c r="L170" s="12">
+        <v>57390049</v>
       </c>
       <c r="M170" s="9">
         <v>0</v>
       </c>
-      <c r="N170" s="11">
-        <v>349976</v>
-      </c>
-      <c r="O170" s="11">
-        <v>349976</v>
+      <c r="N170" s="9">
+        <v>0</v>
+      </c>
+      <c r="O170" s="9">
+        <v>0</v>
       </c>
       <c r="P170" s="9">
         <v>0</v>
       </c>
       <c r="Q170" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R170" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S170" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T170" s="10"/>
       <c r="U170" s="9">
@@ -16573,32 +16588,32 @@
       <c r="V170" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W170" s="9">
-        <v>0</v>
-      </c>
-      <c r="X170" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y170" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z170" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA170" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB170" s="9">
-        <v>0</v>
+      <c r="W170" s="11">
+        <v>1455.7</v>
+      </c>
+      <c r="X170" s="12">
+        <v>701691071</v>
+      </c>
+      <c r="Y170" s="11">
+        <v>1472.8</v>
+      </c>
+      <c r="Z170" s="12">
+        <v>759081120</v>
+      </c>
+      <c r="AA170" s="12">
+        <v>49147336</v>
+      </c>
+      <c r="AB170" s="12">
+        <v>8242713</v>
       </c>
       <c r="AC170" s="9">
         <v>0</v>
       </c>
-      <c r="AD170" s="12">
-        <v>72042766</v>
-      </c>
-      <c r="AE170" s="12">
-        <v>72042766</v>
+      <c r="AD170" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE170" s="9">
+        <v>0</v>
       </c>
       <c r="AF170" s="9">
         <v>0</v>
@@ -16609,35 +16624,35 @@
         <v>46044</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C171" s="10"/>
-      <c r="D171" s="9">
-        <v>2359</v>
+      <c r="D171" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E171" s="9">
         <v>0</v>
       </c>
       <c r="F171" s="11">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="G171" s="9">
-        <v>118.559</v>
+        <v>34.24</v>
       </c>
       <c r="H171" s="11">
-        <v>2963990</v>
+        <v>684800</v>
       </c>
       <c r="I171" s="9">
-        <v>112.8</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="J171" s="11">
-        <v>2820000</v>
+        <v>687600</v>
       </c>
       <c r="K171" s="11">
-        <v>-143990</v>
+        <v>2800</v>
       </c>
       <c r="L171" s="12">
-        <v>-27405750</v>
+        <v>1247680</v>
       </c>
       <c r="M171" s="9">
         <v>0</v>
@@ -16652,13 +16667,13 @@
         <v>0</v>
       </c>
       <c r="Q171" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R171" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S171" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T171" s="10"/>
       <c r="U171" s="9">
@@ -16667,23 +16682,23 @@
       <c r="V171" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W171" s="9">
-        <v>188.95</v>
+      <c r="W171" s="11">
+        <v>1477</v>
       </c>
       <c r="X171" s="12">
-        <v>560075550</v>
-      </c>
-      <c r="Y171" s="9">
-        <v>188.89</v>
+        <v>1011449600</v>
+      </c>
+      <c r="Y171" s="11">
+        <v>1472.8</v>
       </c>
       <c r="Z171" s="12">
-        <v>532669800</v>
+        <v>1012697280</v>
       </c>
       <c r="AA171" s="12">
-        <v>-27198271</v>
+        <v>4123840</v>
       </c>
       <c r="AB171" s="12">
-        <v>-207479</v>
+        <v>-2876160</v>
       </c>
       <c r="AC171" s="9">
         <v>0</v>
@@ -16703,56 +16718,56 @@
         <v>46044</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C172" s="10"/>
-      <c r="D172" s="9">
-        <v>6181</v>
+      <c r="D172" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E172" s="9">
         <v>0</v>
       </c>
-      <c r="F172" s="9">
-        <v>0</v>
+      <c r="F172" s="11">
+        <v>3000</v>
       </c>
       <c r="G172" s="9">
-        <v>0</v>
-      </c>
-      <c r="H172" s="9">
-        <v>0</v>
+        <v>247.65</v>
+      </c>
+      <c r="H172" s="11">
+        <v>742950</v>
       </c>
       <c r="I172" s="9">
-        <v>717.5</v>
-      </c>
-      <c r="J172" s="9">
-        <v>0</v>
-      </c>
-      <c r="K172" s="9">
-        <v>0</v>
-      </c>
-      <c r="L172" s="9">
-        <v>0</v>
+        <v>248.35</v>
+      </c>
+      <c r="J172" s="11">
+        <v>745050</v>
+      </c>
+      <c r="K172" s="11">
+        <v>2100</v>
+      </c>
+      <c r="L172" s="12">
+        <v>-27510</v>
       </c>
       <c r="M172" s="9">
         <v>0</v>
       </c>
-      <c r="N172" s="11">
-        <v>-6374.88</v>
+      <c r="N172" s="9">
+        <v>0</v>
       </c>
       <c r="O172" s="9">
         <v>0</v>
       </c>
-      <c r="P172" s="11">
-        <v>6374.88</v>
+      <c r="P172" s="9">
+        <v>0</v>
       </c>
       <c r="Q172" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R172" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S172" s="9" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="T172" s="10"/>
       <c r="U172" s="9">
@@ -16761,32 +16776,32 @@
       <c r="V172" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W172" s="9">
-        <v>0</v>
-      </c>
-      <c r="X172" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y172" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z172" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA172" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB172" s="9">
-        <v>0</v>
+      <c r="W172" s="11">
+        <v>1477</v>
+      </c>
+      <c r="X172" s="12">
+        <v>1097337150</v>
+      </c>
+      <c r="Y172" s="11">
+        <v>1472.8</v>
+      </c>
+      <c r="Z172" s="12">
+        <v>1097309640</v>
+      </c>
+      <c r="AA172" s="12">
+        <v>3092880</v>
+      </c>
+      <c r="AB172" s="12">
+        <v>-3120390</v>
       </c>
       <c r="AC172" s="9">
         <v>0</v>
       </c>
-      <c r="AD172" s="12">
-        <v>1362525</v>
-      </c>
-      <c r="AE172" s="12">
-        <v>1362525</v>
+      <c r="AD172" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE172" s="9">
+        <v>0</v>
       </c>
       <c r="AF172" s="9">
         <v>0</v>
@@ -16797,56 +16812,56 @@
         <v>46044</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C173" s="10"/>
-      <c r="D173" s="9">
-        <v>6082</v>
+      <c r="D173" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="E173" s="9">
         <v>0</v>
       </c>
-      <c r="F173" s="9">
-        <v>0</v>
+      <c r="F173" s="11">
+        <v>83000</v>
       </c>
       <c r="G173" s="9">
-        <v>0</v>
-      </c>
-      <c r="H173" s="9">
-        <v>0</v>
+        <v>12.374000000000001</v>
+      </c>
+      <c r="H173" s="11">
+        <v>1027042</v>
       </c>
       <c r="I173" s="9">
-        <v>36.92</v>
-      </c>
-      <c r="J173" s="9">
-        <v>0</v>
-      </c>
-      <c r="K173" s="9">
-        <v>0</v>
-      </c>
-      <c r="L173" s="9">
-        <v>0</v>
+        <v>10.51</v>
+      </c>
+      <c r="J173" s="11">
+        <v>872330</v>
+      </c>
+      <c r="K173" s="11">
+        <v>-154712</v>
+      </c>
+      <c r="L173" s="12">
+        <v>-200026995</v>
       </c>
       <c r="M173" s="9">
         <v>0</v>
       </c>
-      <c r="N173" s="11">
-        <v>205980</v>
-      </c>
-      <c r="O173" s="11">
-        <v>205980</v>
+      <c r="N173" s="9">
+        <v>0</v>
+      </c>
+      <c r="O173" s="9">
+        <v>0</v>
       </c>
       <c r="P173" s="9">
         <v>0</v>
       </c>
       <c r="Q173" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R173" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S173" s="9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="T173" s="10"/>
       <c r="U173" s="9">
@@ -16855,32 +16870,32 @@
       <c r="V173" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W173" s="9">
-        <v>0</v>
-      </c>
-      <c r="X173" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y173" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z173" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA173" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB173" s="9">
-        <v>0</v>
+      <c r="W173" s="11">
+        <v>1445.69</v>
+      </c>
+      <c r="X173" s="12">
+        <v>1484794619</v>
+      </c>
+      <c r="Y173" s="11">
+        <v>1472.8</v>
+      </c>
+      <c r="Z173" s="12">
+        <v>1284767624</v>
+      </c>
+      <c r="AA173" s="12">
+        <v>-227859833</v>
+      </c>
+      <c r="AB173" s="12">
+        <v>27832838</v>
       </c>
       <c r="AC173" s="9">
         <v>0</v>
       </c>
-      <c r="AD173" s="12">
-        <v>49395681</v>
-      </c>
-      <c r="AE173" s="12">
-        <v>49395681</v>
+      <c r="AD173" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE173" s="9">
+        <v>0</v>
       </c>
       <c r="AF173" s="9">
         <v>0</v>
@@ -16891,90 +16906,90 @@
         <v>46044</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C174" s="10"/>
-      <c r="D174" s="9">
-        <v>9988</v>
+      <c r="D174" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E174" s="9">
         <v>0</v>
       </c>
       <c r="F174" s="11">
-        <v>70500</v>
+        <v>2500</v>
       </c>
       <c r="G174" s="9">
-        <v>147.79</v>
+        <v>681.92</v>
       </c>
       <c r="H174" s="11">
-        <v>10419200</v>
+        <v>1704800</v>
       </c>
       <c r="I174" s="9">
-        <v>163.30000000000001</v>
+        <v>688.98</v>
       </c>
       <c r="J174" s="11">
-        <v>11512650</v>
+        <v>1722450</v>
       </c>
       <c r="K174" s="11">
-        <v>1093450</v>
+        <v>17650</v>
       </c>
       <c r="L174" s="12">
-        <v>239825858</v>
-      </c>
-      <c r="M174" s="9">
-        <v>0</v>
-      </c>
-      <c r="N174" s="9">
-        <v>0</v>
-      </c>
-      <c r="O174" s="9">
-        <v>0</v>
+        <v>90606840</v>
+      </c>
+      <c r="M174" s="11">
+        <v>8700</v>
+      </c>
+      <c r="N174" s="11">
+        <v>8700</v>
+      </c>
+      <c r="O174" s="11">
+        <v>8700</v>
       </c>
       <c r="P174" s="9">
         <v>0</v>
       </c>
       <c r="Q174" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R174" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S174" s="9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="T174" s="10"/>
       <c r="U174" s="9">
         <v>0</v>
       </c>
       <c r="V174" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="W174" s="9">
-        <v>185.69</v>
+        <v>42</v>
+      </c>
+      <c r="W174" s="11">
+        <v>1434.9</v>
       </c>
       <c r="X174" s="12">
-        <v>1934798600</v>
-      </c>
-      <c r="Y174" s="9">
-        <v>188.89</v>
+        <v>2446217520</v>
+      </c>
+      <c r="Y174" s="11">
+        <v>1472.8</v>
       </c>
       <c r="Z174" s="12">
-        <v>2174624458</v>
+        <v>2536824360</v>
       </c>
       <c r="AA174" s="12">
-        <v>206541770</v>
+        <v>25994920</v>
       </c>
       <c r="AB174" s="12">
-        <v>33284088</v>
-      </c>
-      <c r="AC174" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD174" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE174" s="9">
-        <v>0</v>
+        <v>64611920</v>
+      </c>
+      <c r="AC174" s="12">
+        <v>84621980</v>
+      </c>
+      <c r="AD174" s="12">
+        <v>84621980</v>
+      </c>
+      <c r="AE174" s="12">
+        <v>84621980</v>
       </c>
       <c r="AF174" s="9">
         <v>0</v>
@@ -16985,35 +17000,35 @@
         <v>46044</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C175" s="10"/>
-      <c r="D175" s="9">
-        <v>6861</v>
+      <c r="D175" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E175" s="9">
         <v>0</v>
       </c>
       <c r="F175" s="11">
-        <v>1900</v>
-      </c>
-      <c r="G175" s="11">
-        <v>55916.79</v>
+        <v>4200</v>
+      </c>
+      <c r="G175" s="9">
+        <v>396.31</v>
       </c>
       <c r="H175" s="11">
-        <v>106241900</v>
-      </c>
-      <c r="I175" s="11">
-        <v>59590</v>
+        <v>1664502</v>
+      </c>
+      <c r="I175" s="9">
+        <v>451.79</v>
       </c>
       <c r="J175" s="11">
-        <v>113221000</v>
+        <v>1897518</v>
       </c>
       <c r="K175" s="11">
-        <v>6979100</v>
+        <v>233016</v>
       </c>
       <c r="L175" s="12">
-        <v>71255638</v>
+        <v>406270591</v>
       </c>
       <c r="M175" s="9">
         <v>0</v>
@@ -17028,38 +17043,38 @@
         <v>0</v>
       </c>
       <c r="Q175" s="9" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="R175" s="9" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="S175" s="9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="T175" s="10"/>
       <c r="U175" s="9">
         <v>0</v>
       </c>
       <c r="V175" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="W175" s="9">
-        <v>924.45</v>
+        <v>42</v>
+      </c>
+      <c r="W175" s="11">
+        <v>1434.89</v>
       </c>
       <c r="X175" s="12">
-        <v>982163868</v>
-      </c>
-      <c r="Y175" s="9">
-        <v>930.41</v>
+        <v>2388393919</v>
+      </c>
+      <c r="Y175" s="11">
+        <v>1472.8</v>
       </c>
       <c r="Z175" s="12">
-        <v>1053419506</v>
+        <v>2794664510</v>
       </c>
       <c r="AA175" s="12">
-        <v>64934244</v>
+        <v>343185964</v>
       </c>
       <c r="AB175" s="12">
-        <v>6321393</v>
+        <v>63084626</v>
       </c>
       <c r="AC175" s="9">
         <v>0</v>
@@ -17079,56 +17094,56 @@
         <v>46044</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E176" s="9">
         <v>0</v>
       </c>
-      <c r="F176" s="9">
-        <v>0</v>
+      <c r="F176" s="11">
+        <v>24000</v>
       </c>
       <c r="G176" s="9">
-        <v>0</v>
-      </c>
-      <c r="H176" s="9">
-        <v>0</v>
-      </c>
-      <c r="I176" s="11">
-        <v>17990</v>
-      </c>
-      <c r="J176" s="9">
-        <v>0</v>
-      </c>
-      <c r="K176" s="9">
-        <v>0</v>
-      </c>
-      <c r="L176" s="9">
-        <v>0</v>
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H176" s="11">
+        <v>423736.8</v>
+      </c>
+      <c r="I176" s="9">
+        <v>16.04</v>
+      </c>
+      <c r="J176" s="11">
+        <v>384960</v>
+      </c>
+      <c r="K176" s="11">
+        <v>-38776.800000000003</v>
+      </c>
+      <c r="L176" s="12">
+        <v>-53423960</v>
       </c>
       <c r="M176" s="9">
         <v>0</v>
       </c>
-      <c r="N176" s="11">
-        <v>4480700</v>
-      </c>
-      <c r="O176" s="11">
-        <v>4480700</v>
+      <c r="N176" s="9">
+        <v>0</v>
+      </c>
+      <c r="O176" s="9">
+        <v>0</v>
       </c>
       <c r="P176" s="9">
         <v>0</v>
       </c>
       <c r="Q176" s="9" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="R176" s="9" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="S176" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T176" s="10"/>
       <c r="U176" s="9">
@@ -17137,32 +17152,32 @@
       <c r="V176" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W176" s="9">
-        <v>0</v>
-      </c>
-      <c r="X176" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y176" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z176" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA176" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB176" s="9">
-        <v>0</v>
+      <c r="W176" s="11">
+        <v>1464.09</v>
+      </c>
+      <c r="X176" s="12">
+        <v>620393048</v>
+      </c>
+      <c r="Y176" s="11">
+        <v>1472.8</v>
+      </c>
+      <c r="Z176" s="12">
+        <v>566969088</v>
+      </c>
+      <c r="AA176" s="12">
+        <v>-57110471</v>
+      </c>
+      <c r="AB176" s="12">
+        <v>3686511</v>
       </c>
       <c r="AC176" s="9">
         <v>0</v>
       </c>
-      <c r="AD176" s="12">
-        <v>37760160</v>
-      </c>
-      <c r="AE176" s="12">
-        <v>37760160</v>
+      <c r="AD176" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE176" s="9">
+        <v>0</v>
       </c>
       <c r="AF176" s="9">
         <v>0</v>
@@ -17173,35 +17188,35 @@
         <v>46044</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C177" s="10"/>
-      <c r="D177" s="9">
-        <v>9984</v>
+      <c r="D177" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E177" s="9">
         <v>0</v>
       </c>
       <c r="F177" s="11">
-        <v>23000</v>
-      </c>
-      <c r="G177" s="11">
-        <v>4066.73</v>
+        <v>1400</v>
+      </c>
+      <c r="G177" s="9">
+        <v>432.53800000000001</v>
       </c>
       <c r="H177" s="11">
-        <v>93534900</v>
-      </c>
-      <c r="I177" s="11">
-        <v>4326</v>
+        <v>605554.04</v>
+      </c>
+      <c r="I177" s="9">
+        <v>449.36</v>
       </c>
       <c r="J177" s="11">
-        <v>99498000</v>
+        <v>629104</v>
       </c>
       <c r="K177" s="11">
-        <v>5963100</v>
+        <v>23549.96</v>
       </c>
       <c r="L177" s="12">
-        <v>59119786</v>
+        <v>50428786</v>
       </c>
       <c r="M177" s="9">
         <v>0</v>
@@ -17216,13 +17231,13 @@
         <v>0</v>
       </c>
       <c r="Q177" s="9" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="R177" s="9" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="S177" s="9" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="T177" s="10"/>
       <c r="U177" s="9">
@@ -17231,23 +17246,23 @@
       <c r="V177" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W177" s="9">
-        <v>926.51</v>
+      <c r="W177" s="11">
+        <v>1446.79</v>
       </c>
       <c r="X177" s="12">
-        <v>866619555</v>
-      </c>
-      <c r="Y177" s="9">
-        <v>930.41</v>
+        <v>876115585</v>
+      </c>
+      <c r="Y177" s="11">
+        <v>1472.8</v>
       </c>
       <c r="Z177" s="12">
-        <v>925739341</v>
+        <v>926544371</v>
       </c>
       <c r="AA177" s="12">
-        <v>55481278</v>
+        <v>34684381</v>
       </c>
       <c r="AB177" s="12">
-        <v>3638508</v>
+        <v>15744405</v>
       </c>
       <c r="AC177" s="9">
         <v>0</v>
@@ -17267,35 +17282,35 @@
         <v>46044</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="9" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E178" s="9">
         <v>0</v>
       </c>
       <c r="F178" s="11">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="G178" s="9">
-        <v>48.203000000000003</v>
+        <v>169.042</v>
       </c>
       <c r="H178" s="11">
-        <v>482030</v>
+        <v>591649.80000000005</v>
       </c>
       <c r="I178" s="9">
-        <v>52</v>
+        <v>160.36000000000001</v>
       </c>
       <c r="J178" s="11">
-        <v>520000</v>
+        <v>561260</v>
       </c>
       <c r="K178" s="11">
-        <v>37970</v>
+        <v>-30389.8</v>
       </c>
       <c r="L178" s="12">
-        <v>64164929</v>
+        <v>-29375202</v>
       </c>
       <c r="M178" s="9">
         <v>0</v>
@@ -17316,7 +17331,7 @@
         <v>40</v>
       </c>
       <c r="S178" s="9" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="T178" s="10"/>
       <c r="U178" s="9">
@@ -17326,22 +17341,22 @@
         <v>34</v>
       </c>
       <c r="W178" s="11">
-        <v>1455.7</v>
+        <v>1446.79</v>
       </c>
       <c r="X178" s="12">
-        <v>701691071</v>
+        <v>855998930</v>
       </c>
       <c r="Y178" s="11">
         <v>1472.8</v>
       </c>
       <c r="Z178" s="12">
-        <v>765856000</v>
+        <v>826623728</v>
       </c>
       <c r="AA178" s="12">
-        <v>55922216</v>
+        <v>-44758097</v>
       </c>
       <c r="AB178" s="12">
-        <v>8242713</v>
+        <v>15382895</v>
       </c>
       <c r="AC178" s="9">
         <v>0</v>
@@ -17361,56 +17376,54 @@
         <v>46044</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C179" s="10"/>
-      <c r="D179" s="9" t="s">
-        <v>77</v>
+      <c r="D179" s="9">
+        <v>6869</v>
       </c>
       <c r="E179" s="9">
         <v>0</v>
       </c>
-      <c r="F179" s="11">
-        <v>20000</v>
+      <c r="F179" s="9">
+        <v>0</v>
       </c>
       <c r="G179" s="9">
-        <v>34.24</v>
-      </c>
-      <c r="H179" s="11">
-        <v>684800</v>
-      </c>
-      <c r="I179" s="9">
-        <v>34.74</v>
-      </c>
-      <c r="J179" s="11">
-        <v>694800</v>
-      </c>
-      <c r="K179" s="11">
-        <v>10000</v>
-      </c>
-      <c r="L179" s="12">
-        <v>11851840</v>
+        <v>0</v>
+      </c>
+      <c r="H179" s="9">
+        <v>0</v>
+      </c>
+      <c r="I179" s="10"/>
+      <c r="J179" s="9">
+        <v>0</v>
+      </c>
+      <c r="K179" s="9">
+        <v>0</v>
+      </c>
+      <c r="L179" s="9">
+        <v>0</v>
       </c>
       <c r="M179" s="9">
         <v>0</v>
       </c>
-      <c r="N179" s="9">
-        <v>0</v>
-      </c>
-      <c r="O179" s="9">
-        <v>0</v>
+      <c r="N179" s="11">
+        <v>349976</v>
+      </c>
+      <c r="O179" s="11">
+        <v>349976</v>
       </c>
       <c r="P179" s="9">
         <v>0</v>
       </c>
       <c r="Q179" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R179" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S179" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T179" s="10"/>
       <c r="U179" s="9">
@@ -17419,32 +17432,32 @@
       <c r="V179" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W179" s="11">
-        <v>1477</v>
-      </c>
-      <c r="X179" s="12">
-        <v>1011449600</v>
-      </c>
-      <c r="Y179" s="11">
-        <v>1472.8</v>
-      </c>
-      <c r="Z179" s="12">
-        <v>1023301440</v>
-      </c>
-      <c r="AA179" s="12">
-        <v>14728000</v>
-      </c>
-      <c r="AB179" s="12">
-        <v>-2876160</v>
+      <c r="W179" s="9">
+        <v>0</v>
+      </c>
+      <c r="X179" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y179" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z179" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA179" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB179" s="9">
+        <v>0</v>
       </c>
       <c r="AC179" s="9">
         <v>0</v>
       </c>
-      <c r="AD179" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE179" s="9">
-        <v>0</v>
+      <c r="AD179" s="12">
+        <v>72042766</v>
+      </c>
+      <c r="AE179" s="12">
+        <v>72042766</v>
       </c>
       <c r="AF179" s="9">
         <v>0</v>
@@ -17455,35 +17468,35 @@
         <v>46044</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C180" s="10"/>
-      <c r="D180" s="9" t="s">
-        <v>80</v>
+      <c r="D180" s="9">
+        <v>2359</v>
       </c>
       <c r="E180" s="9">
         <v>0</v>
       </c>
       <c r="F180" s="11">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="G180" s="9">
-        <v>247.65</v>
+        <v>118.559</v>
       </c>
       <c r="H180" s="11">
-        <v>742950</v>
+        <v>2963990</v>
       </c>
       <c r="I180" s="9">
-        <v>248.21</v>
+        <v>113.2</v>
       </c>
       <c r="J180" s="11">
-        <v>744630</v>
+        <v>2830000</v>
       </c>
       <c r="K180" s="11">
-        <v>1680</v>
+        <v>-133990</v>
       </c>
       <c r="L180" s="12">
-        <v>-646086</v>
+        <v>-25516850</v>
       </c>
       <c r="M180" s="9">
         <v>0</v>
@@ -17498,13 +17511,13 @@
         <v>0</v>
       </c>
       <c r="Q180" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R180" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S180" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T180" s="10"/>
       <c r="U180" s="9">
@@ -17513,23 +17526,23 @@
       <c r="V180" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W180" s="11">
-        <v>1477</v>
+      <c r="W180" s="9">
+        <v>188.95</v>
       </c>
       <c r="X180" s="12">
-        <v>1097337150</v>
-      </c>
-      <c r="Y180" s="11">
-        <v>1472.8</v>
+        <v>560075550</v>
+      </c>
+      <c r="Y180" s="9">
+        <v>188.89</v>
       </c>
       <c r="Z180" s="12">
-        <v>1096691064</v>
+        <v>534558700</v>
       </c>
       <c r="AA180" s="12">
-        <v>2474304</v>
+        <v>-25309371</v>
       </c>
       <c r="AB180" s="12">
-        <v>-3120390</v>
+        <v>-207479</v>
       </c>
       <c r="AC180" s="9">
         <v>0</v>
@@ -17549,56 +17562,54 @@
         <v>46044</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C181" s="10"/>
-      <c r="D181" s="9" t="s">
-        <v>55</v>
+      <c r="D181" s="9">
+        <v>6181</v>
       </c>
       <c r="E181" s="9">
         <v>0</v>
       </c>
-      <c r="F181" s="11">
-        <v>83000</v>
+      <c r="F181" s="9">
+        <v>0</v>
       </c>
       <c r="G181" s="9">
-        <v>12.374000000000001</v>
-      </c>
-      <c r="H181" s="11">
-        <v>1027042</v>
-      </c>
-      <c r="I181" s="9">
-        <v>11.1</v>
-      </c>
-      <c r="J181" s="11">
-        <v>921300</v>
-      </c>
-      <c r="K181" s="11">
-        <v>-105742</v>
-      </c>
-      <c r="L181" s="12">
-        <v>-127903979</v>
+        <v>0</v>
+      </c>
+      <c r="H181" s="9">
+        <v>0</v>
+      </c>
+      <c r="I181" s="10"/>
+      <c r="J181" s="9">
+        <v>0</v>
+      </c>
+      <c r="K181" s="9">
+        <v>0</v>
+      </c>
+      <c r="L181" s="9">
+        <v>0</v>
       </c>
       <c r="M181" s="9">
         <v>0</v>
       </c>
-      <c r="N181" s="9">
-        <v>0</v>
+      <c r="N181" s="11">
+        <v>-6374.88</v>
       </c>
       <c r="O181" s="9">
         <v>0</v>
       </c>
-      <c r="P181" s="9">
-        <v>0</v>
+      <c r="P181" s="11">
+        <v>6374.88</v>
       </c>
       <c r="Q181" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R181" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S181" s="9" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="T181" s="10"/>
       <c r="U181" s="9">
@@ -17607,32 +17618,32 @@
       <c r="V181" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W181" s="11">
-        <v>1445.69</v>
-      </c>
-      <c r="X181" s="12">
-        <v>1484794619</v>
-      </c>
-      <c r="Y181" s="11">
-        <v>1472.8</v>
-      </c>
-      <c r="Z181" s="12">
-        <v>1356890640</v>
-      </c>
-      <c r="AA181" s="12">
-        <v>-155736817</v>
-      </c>
-      <c r="AB181" s="12">
-        <v>27832838</v>
+      <c r="W181" s="9">
+        <v>0</v>
+      </c>
+      <c r="X181" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y181" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z181" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA181" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB181" s="9">
+        <v>0</v>
       </c>
       <c r="AC181" s="9">
         <v>0</v>
       </c>
-      <c r="AD181" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE181" s="9">
-        <v>0</v>
+      <c r="AD181" s="12">
+        <v>1362525</v>
+      </c>
+      <c r="AE181" s="12">
+        <v>1362525</v>
       </c>
       <c r="AF181" s="9">
         <v>0</v>
@@ -17643,90 +17654,88 @@
         <v>46044</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C182" s="10"/>
-      <c r="D182" s="9" t="s">
-        <v>44</v>
+      <c r="D182" s="9">
+        <v>6082</v>
       </c>
       <c r="E182" s="9">
         <v>0</v>
       </c>
-      <c r="F182" s="11">
-        <v>2500</v>
+      <c r="F182" s="9">
+        <v>0</v>
       </c>
       <c r="G182" s="9">
-        <v>681.92</v>
-      </c>
-      <c r="H182" s="11">
-        <v>1704800</v>
-      </c>
-      <c r="I182" s="9">
-        <v>686.64</v>
-      </c>
-      <c r="J182" s="11">
-        <v>1716600</v>
-      </c>
-      <c r="K182" s="11">
-        <v>11800</v>
-      </c>
-      <c r="L182" s="12">
-        <v>81990960</v>
-      </c>
-      <c r="M182" s="11">
-        <v>8700</v>
+        <v>0</v>
+      </c>
+      <c r="H182" s="9">
+        <v>0</v>
+      </c>
+      <c r="I182" s="10"/>
+      <c r="J182" s="9">
+        <v>0</v>
+      </c>
+      <c r="K182" s="9">
+        <v>0</v>
+      </c>
+      <c r="L182" s="9">
+        <v>0</v>
+      </c>
+      <c r="M182" s="9">
+        <v>0</v>
       </c>
       <c r="N182" s="11">
-        <v>8700</v>
+        <v>205980</v>
       </c>
       <c r="O182" s="11">
-        <v>8700</v>
+        <v>205980</v>
       </c>
       <c r="P182" s="9">
         <v>0</v>
       </c>
       <c r="Q182" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R182" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S182" s="9" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="T182" s="10"/>
       <c r="U182" s="9">
         <v>0</v>
       </c>
       <c r="V182" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="W182" s="11">
-        <v>1434.9</v>
-      </c>
-      <c r="X182" s="12">
-        <v>2446217520</v>
-      </c>
-      <c r="Y182" s="11">
-        <v>1472.8</v>
-      </c>
-      <c r="Z182" s="12">
-        <v>2528208480</v>
-      </c>
-      <c r="AA182" s="12">
-        <v>17379040</v>
-      </c>
-      <c r="AB182" s="12">
-        <v>64611920</v>
-      </c>
-      <c r="AC182" s="12">
-        <v>84621980</v>
+        <v>34</v>
+      </c>
+      <c r="W182" s="9">
+        <v>0</v>
+      </c>
+      <c r="X182" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y182" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z182" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA182" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB182" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC182" s="9">
+        <v>0</v>
       </c>
       <c r="AD182" s="12">
-        <v>84621980</v>
+        <v>49395681</v>
       </c>
       <c r="AE182" s="12">
-        <v>84621980</v>
+        <v>49395681</v>
       </c>
       <c r="AF182" s="9">
         <v>0</v>
@@ -17737,35 +17746,35 @@
         <v>46044</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C183" s="10"/>
-      <c r="D183" s="9" t="s">
-        <v>38</v>
+      <c r="D183" s="9">
+        <v>9988</v>
       </c>
       <c r="E183" s="9">
         <v>0</v>
       </c>
       <c r="F183" s="11">
-        <v>4200</v>
+        <v>70500</v>
       </c>
       <c r="G183" s="9">
-        <v>396.31</v>
+        <v>147.79</v>
       </c>
       <c r="H183" s="11">
-        <v>1664502</v>
+        <v>10419200</v>
       </c>
       <c r="I183" s="9">
-        <v>441.25</v>
+        <v>164.8</v>
       </c>
       <c r="J183" s="11">
-        <v>1853250</v>
+        <v>11618400</v>
       </c>
       <c r="K183" s="11">
-        <v>188748</v>
+        <v>1199200</v>
       </c>
       <c r="L183" s="12">
-        <v>341072681</v>
+        <v>259800976</v>
       </c>
       <c r="M183" s="9">
         <v>0</v>
@@ -17780,38 +17789,38 @@
         <v>0</v>
       </c>
       <c r="Q183" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R183" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S183" s="9" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="T183" s="10"/>
       <c r="U183" s="9">
         <v>0</v>
       </c>
       <c r="V183" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="W183" s="11">
-        <v>1434.89</v>
+        <v>34</v>
+      </c>
+      <c r="W183" s="9">
+        <v>185.69</v>
       </c>
       <c r="X183" s="12">
-        <v>2388393919</v>
-      </c>
-      <c r="Y183" s="11">
-        <v>1472.8</v>
+        <v>1934798600</v>
+      </c>
+      <c r="Y183" s="9">
+        <v>188.89</v>
       </c>
       <c r="Z183" s="12">
-        <v>2729466600</v>
+        <v>2194599576</v>
       </c>
       <c r="AA183" s="12">
-        <v>277988054</v>
+        <v>226516888</v>
       </c>
       <c r="AB183" s="12">
-        <v>63084626</v>
+        <v>33284088</v>
       </c>
       <c r="AC183" s="9">
         <v>0</v>
@@ -17831,35 +17840,35 @@
         <v>46044</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C184" s="10"/>
-      <c r="D184" s="9" t="s">
-        <v>67</v>
+      <c r="D184" s="9">
+        <v>6861</v>
       </c>
       <c r="E184" s="9">
         <v>0</v>
       </c>
       <c r="F184" s="11">
-        <v>24000</v>
-      </c>
-      <c r="G184" s="9">
-        <v>17.655000000000001</v>
+        <v>1900</v>
+      </c>
+      <c r="G184" s="11">
+        <v>55916.79</v>
       </c>
       <c r="H184" s="11">
-        <v>423736.8</v>
-      </c>
-      <c r="I184" s="9">
-        <v>15.99</v>
+        <v>106241900</v>
+      </c>
+      <c r="I184" s="11">
+        <v>59310</v>
       </c>
       <c r="J184" s="11">
-        <v>383760</v>
+        <v>112689000</v>
       </c>
       <c r="K184" s="11">
-        <v>-39976.800000000003</v>
+        <v>6447100</v>
       </c>
       <c r="L184" s="12">
-        <v>-55191320</v>
+        <v>66305856</v>
       </c>
       <c r="M184" s="9">
         <v>0</v>
@@ -17874,13 +17883,13 @@
         <v>0</v>
       </c>
       <c r="Q184" s="9" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="R184" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="S184" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="T184" s="10"/>
       <c r="U184" s="9">
@@ -17889,23 +17898,23 @@
       <c r="V184" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W184" s="11">
-        <v>1464.09</v>
+      <c r="W184" s="9">
+        <v>924.45</v>
       </c>
       <c r="X184" s="12">
-        <v>620393048</v>
-      </c>
-      <c r="Y184" s="11">
-        <v>1472.8</v>
+        <v>982163868</v>
+      </c>
+      <c r="Y184" s="9">
+        <v>930.41</v>
       </c>
       <c r="Z184" s="12">
-        <v>565201728</v>
+        <v>1048469724</v>
       </c>
       <c r="AA184" s="12">
-        <v>-58877831</v>
+        <v>59984463</v>
       </c>
       <c r="AB184" s="12">
-        <v>3686511</v>
+        <v>6321393</v>
       </c>
       <c r="AC184" s="9">
         <v>0</v>
@@ -17925,56 +17934,54 @@
         <v>46044</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="9" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E185" s="9">
         <v>0</v>
       </c>
-      <c r="F185" s="11">
-        <v>1400</v>
+      <c r="F185" s="9">
+        <v>0</v>
       </c>
       <c r="G185" s="9">
-        <v>432.53800000000001</v>
-      </c>
-      <c r="H185" s="11">
-        <v>605554.04</v>
-      </c>
-      <c r="I185" s="9">
-        <v>433.75</v>
-      </c>
-      <c r="J185" s="11">
-        <v>607250</v>
-      </c>
-      <c r="K185" s="11">
-        <v>1695.96</v>
-      </c>
-      <c r="L185" s="12">
-        <v>18242215</v>
+        <v>0</v>
+      </c>
+      <c r="H185" s="9">
+        <v>0</v>
+      </c>
+      <c r="I185" s="10"/>
+      <c r="J185" s="9">
+        <v>0</v>
+      </c>
+      <c r="K185" s="9">
+        <v>0</v>
+      </c>
+      <c r="L185" s="9">
+        <v>0</v>
       </c>
       <c r="M185" s="9">
         <v>0</v>
       </c>
-      <c r="N185" s="9">
-        <v>0</v>
-      </c>
-      <c r="O185" s="9">
-        <v>0</v>
+      <c r="N185" s="11">
+        <v>4480700</v>
+      </c>
+      <c r="O185" s="11">
+        <v>4480700</v>
       </c>
       <c r="P185" s="9">
         <v>0</v>
       </c>
       <c r="Q185" s="9" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="R185" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="S185" s="9" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="T185" s="10"/>
       <c r="U185" s="9">
@@ -17983,32 +17990,32 @@
       <c r="V185" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W185" s="11">
-        <v>1446.79</v>
-      </c>
-      <c r="X185" s="12">
-        <v>876115585</v>
-      </c>
-      <c r="Y185" s="11">
-        <v>1472.8</v>
-      </c>
-      <c r="Z185" s="12">
-        <v>894357800</v>
-      </c>
-      <c r="AA185" s="12">
-        <v>2497809</v>
-      </c>
-      <c r="AB185" s="12">
-        <v>15744405</v>
+      <c r="W185" s="9">
+        <v>0</v>
+      </c>
+      <c r="X185" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y185" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z185" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA185" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB185" s="9">
+        <v>0</v>
       </c>
       <c r="AC185" s="9">
         <v>0</v>
       </c>
-      <c r="AD185" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE185" s="9">
-        <v>0</v>
+      <c r="AD185" s="12">
+        <v>37760160</v>
+      </c>
+      <c r="AE185" s="12">
+        <v>37760160</v>
       </c>
       <c r="AF185" s="9">
         <v>0</v>
@@ -18019,35 +18026,35 @@
         <v>46044</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C186" s="10"/>
-      <c r="D186" s="9" t="s">
-        <v>52</v>
+      <c r="D186" s="9">
+        <v>9984</v>
       </c>
       <c r="E186" s="9">
         <v>0</v>
       </c>
       <c r="F186" s="11">
-        <v>3500</v>
-      </c>
-      <c r="G186" s="9">
-        <v>169.042</v>
+        <v>23000</v>
+      </c>
+      <c r="G186" s="11">
+        <v>4066.73</v>
       </c>
       <c r="H186" s="11">
-        <v>591649.80000000005</v>
-      </c>
-      <c r="I186" s="9">
-        <v>161.18</v>
+        <v>93534900</v>
+      </c>
+      <c r="I186" s="11">
+        <v>4325</v>
       </c>
       <c r="J186" s="11">
-        <v>564130</v>
+        <v>99475000</v>
       </c>
       <c r="K186" s="11">
-        <v>-27519.8</v>
+        <v>5940100</v>
       </c>
       <c r="L186" s="12">
-        <v>-25148266</v>
+        <v>58905792</v>
       </c>
       <c r="M186" s="9">
         <v>0</v>
@@ -18062,13 +18069,13 @@
         <v>0</v>
       </c>
       <c r="Q186" s="9" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="R186" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="S186" s="9" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="T186" s="10"/>
       <c r="U186" s="9">
@@ -18077,23 +18084,23 @@
       <c r="V186" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W186" s="11">
-        <v>1446.79</v>
+      <c r="W186" s="9">
+        <v>926.51</v>
       </c>
       <c r="X186" s="12">
-        <v>855998930</v>
-      </c>
-      <c r="Y186" s="11">
-        <v>1472.8</v>
+        <v>866619555</v>
+      </c>
+      <c r="Y186" s="9">
+        <v>930.41</v>
       </c>
       <c r="Z186" s="12">
-        <v>830850664</v>
+        <v>925525347</v>
       </c>
       <c r="AA186" s="12">
-        <v>-40531161</v>
+        <v>55267284</v>
       </c>
       <c r="AB186" s="12">
-        <v>15382895</v>
+        <v>3638508</v>
       </c>
       <c r="AC186" s="9">
         <v>0</v>

--- a/2026_멀티.xlsx
+++ b/2026_멀티.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyejinha/Desktop/Workspace/Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D61DA59-81A7-FD41-BB33-70A55DA85EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAFBA28-31D3-774C-AAB7-BC0727DA8A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29000" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="89">
   <si>
     <t>기준일자</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>BABA-W</t>
+  </si>
+  <si>
+    <t>CNE1000055Y4</t>
+  </si>
+  <si>
+    <t>JLMAG</t>
   </si>
 </sst>
 </file>
@@ -666,7 +672,7 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170:AF186"/>
+      <selection activeCell="A187" sqref="A187:AF204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -18021,7 +18027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:32" ht="18" thickBot="1">
+    <row r="186" spans="1:32">
       <c r="A186" s="8">
         <v>46044</v>
       </c>
@@ -18115,617 +18121,1697 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:32" ht="18" thickBot="1">
-      <c r="A187" s="3"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="6"/>
-      <c r="K187" s="6"/>
-      <c r="L187" s="7"/>
-      <c r="M187" s="5"/>
-      <c r="N187" s="5"/>
-      <c r="O187" s="5"/>
-      <c r="P187" s="5"/>
-      <c r="Q187" s="1"/>
-      <c r="R187" s="1"/>
-      <c r="S187" s="4"/>
-      <c r="T187" s="2"/>
-      <c r="U187" s="5"/>
-      <c r="V187" s="1"/>
-      <c r="W187" s="6"/>
-      <c r="X187" s="7"/>
-      <c r="Y187" s="6"/>
-      <c r="Z187" s="7"/>
-      <c r="AA187" s="7"/>
-      <c r="AB187" s="7"/>
-      <c r="AC187" s="5"/>
-      <c r="AD187" s="5"/>
-      <c r="AE187" s="5"/>
-      <c r="AF187" s="5"/>
-    </row>
-    <row r="188" spans="1:32" ht="18" thickBot="1">
-      <c r="A188" s="3"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="6"/>
-      <c r="I188" s="5"/>
-      <c r="J188" s="6"/>
-      <c r="K188" s="6"/>
-      <c r="L188" s="7"/>
-      <c r="M188" s="5"/>
-      <c r="N188" s="5"/>
-      <c r="O188" s="5"/>
-      <c r="P188" s="5"/>
-      <c r="Q188" s="1"/>
-      <c r="R188" s="1"/>
-      <c r="S188" s="1"/>
-      <c r="T188" s="2"/>
-      <c r="U188" s="5"/>
-      <c r="V188" s="1"/>
-      <c r="W188" s="5"/>
-      <c r="X188" s="7"/>
-      <c r="Y188" s="5"/>
-      <c r="Z188" s="7"/>
-      <c r="AA188" s="7"/>
-      <c r="AB188" s="7"/>
-      <c r="AC188" s="5"/>
-      <c r="AD188" s="5"/>
-      <c r="AE188" s="5"/>
-      <c r="AF188" s="5"/>
-    </row>
-    <row r="189" spans="1:32" ht="18" thickBot="1">
-      <c r="A189" s="3"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="6"/>
-      <c r="K189" s="6"/>
-      <c r="L189" s="7"/>
-      <c r="M189" s="5"/>
-      <c r="N189" s="5"/>
-      <c r="O189" s="5"/>
-      <c r="P189" s="5"/>
-      <c r="Q189" s="1"/>
-      <c r="R189" s="1"/>
-      <c r="S189" s="4"/>
-      <c r="T189" s="2"/>
-      <c r="U189" s="5"/>
-      <c r="V189" s="1"/>
-      <c r="W189" s="5"/>
-      <c r="X189" s="7"/>
-      <c r="Y189" s="5"/>
-      <c r="Z189" s="7"/>
-      <c r="AA189" s="7"/>
-      <c r="AB189" s="7"/>
-      <c r="AC189" s="5"/>
-      <c r="AD189" s="5"/>
-      <c r="AE189" s="5"/>
-      <c r="AF189" s="5"/>
-    </row>
-    <row r="190" spans="1:32" ht="18" thickBot="1">
-      <c r="A190" s="3"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="6"/>
-      <c r="K190" s="6"/>
-      <c r="L190" s="7"/>
-      <c r="M190" s="5"/>
-      <c r="N190" s="5"/>
-      <c r="O190" s="5"/>
-      <c r="P190" s="5"/>
-      <c r="Q190" s="1"/>
-      <c r="R190" s="1"/>
-      <c r="S190" s="1"/>
-      <c r="T190" s="2"/>
-      <c r="U190" s="5"/>
-      <c r="V190" s="1"/>
-      <c r="W190" s="5"/>
-      <c r="X190" s="7"/>
-      <c r="Y190" s="5"/>
-      <c r="Z190" s="7"/>
-      <c r="AA190" s="7"/>
-      <c r="AB190" s="7"/>
-      <c r="AC190" s="5"/>
-      <c r="AD190" s="5"/>
-      <c r="AE190" s="5"/>
-      <c r="AF190" s="5"/>
-    </row>
-    <row r="191" spans="1:32" ht="18" thickBot="1">
-      <c r="A191" s="3"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
-      <c r="K191" s="6"/>
-      <c r="L191" s="7"/>
-      <c r="M191" s="5"/>
-      <c r="N191" s="5"/>
-      <c r="O191" s="5"/>
-      <c r="P191" s="5"/>
-      <c r="Q191" s="1"/>
-      <c r="R191" s="1"/>
-      <c r="S191" s="1"/>
-      <c r="T191" s="2"/>
-      <c r="U191" s="5"/>
-      <c r="V191" s="1"/>
-      <c r="W191" s="5"/>
-      <c r="X191" s="7"/>
-      <c r="Y191" s="5"/>
-      <c r="Z191" s="7"/>
-      <c r="AA191" s="7"/>
-      <c r="AB191" s="7"/>
-      <c r="AC191" s="5"/>
-      <c r="AD191" s="5"/>
-      <c r="AE191" s="5"/>
-      <c r="AF191" s="5"/>
-    </row>
-    <row r="192" spans="1:32" ht="18" thickBot="1">
-      <c r="A192" s="3"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="6"/>
-      <c r="J192" s="6"/>
-      <c r="K192" s="6"/>
-      <c r="L192" s="7"/>
-      <c r="M192" s="5"/>
-      <c r="N192" s="5"/>
-      <c r="O192" s="5"/>
-      <c r="P192" s="5"/>
-      <c r="Q192" s="1"/>
-      <c r="R192" s="1"/>
-      <c r="S192" s="1"/>
-      <c r="T192" s="2"/>
-      <c r="U192" s="5"/>
-      <c r="V192" s="1"/>
-      <c r="W192" s="5"/>
-      <c r="X192" s="7"/>
-      <c r="Y192" s="5"/>
-      <c r="Z192" s="7"/>
-      <c r="AA192" s="7"/>
-      <c r="AB192" s="7"/>
-      <c r="AC192" s="5"/>
-      <c r="AD192" s="5"/>
-      <c r="AE192" s="5"/>
-      <c r="AF192" s="5"/>
-    </row>
-    <row r="193" spans="1:32" ht="18" thickBot="1">
-      <c r="A193" s="3"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="6"/>
-      <c r="K193" s="6"/>
-      <c r="L193" s="7"/>
-      <c r="M193" s="5"/>
-      <c r="N193" s="5"/>
-      <c r="O193" s="5"/>
-      <c r="P193" s="5"/>
-      <c r="Q193" s="1"/>
-      <c r="R193" s="1"/>
-      <c r="S193" s="4"/>
-      <c r="T193" s="2"/>
-      <c r="U193" s="5"/>
-      <c r="V193" s="1"/>
-      <c r="W193" s="6"/>
-      <c r="X193" s="7"/>
-      <c r="Y193" s="6"/>
-      <c r="Z193" s="7"/>
-      <c r="AA193" s="7"/>
-      <c r="AB193" s="7"/>
-      <c r="AC193" s="5"/>
-      <c r="AD193" s="5"/>
-      <c r="AE193" s="5"/>
-      <c r="AF193" s="5"/>
-    </row>
-    <row r="194" spans="1:32" ht="18" thickBot="1">
-      <c r="A194" s="3"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="5"/>
-      <c r="J194" s="6"/>
-      <c r="K194" s="6"/>
-      <c r="L194" s="7"/>
-      <c r="M194" s="5"/>
-      <c r="N194" s="5"/>
-      <c r="O194" s="5"/>
-      <c r="P194" s="5"/>
-      <c r="Q194" s="1"/>
-      <c r="R194" s="1"/>
-      <c r="S194" s="1"/>
-      <c r="T194" s="2"/>
-      <c r="U194" s="5"/>
-      <c r="V194" s="1"/>
-      <c r="W194" s="6"/>
-      <c r="X194" s="7"/>
-      <c r="Y194" s="6"/>
-      <c r="Z194" s="7"/>
-      <c r="AA194" s="7"/>
-      <c r="AB194" s="7"/>
-      <c r="AC194" s="5"/>
-      <c r="AD194" s="5"/>
-      <c r="AE194" s="5"/>
-      <c r="AF194" s="5"/>
-    </row>
-    <row r="195" spans="1:32" ht="18" thickBot="1">
-      <c r="A195" s="3"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="6"/>
-      <c r="K195" s="6"/>
-      <c r="L195" s="7"/>
-      <c r="M195" s="5"/>
-      <c r="N195" s="5"/>
-      <c r="O195" s="5"/>
-      <c r="P195" s="5"/>
-      <c r="Q195" s="1"/>
-      <c r="R195" s="1"/>
-      <c r="S195" s="1"/>
-      <c r="T195" s="2"/>
-      <c r="U195" s="5"/>
-      <c r="V195" s="1"/>
-      <c r="W195" s="6"/>
-      <c r="X195" s="7"/>
-      <c r="Y195" s="6"/>
-      <c r="Z195" s="7"/>
-      <c r="AA195" s="7"/>
-      <c r="AB195" s="7"/>
-      <c r="AC195" s="5"/>
-      <c r="AD195" s="5"/>
-      <c r="AE195" s="5"/>
-      <c r="AF195" s="5"/>
-    </row>
-    <row r="196" spans="1:32" ht="18" thickBot="1">
-      <c r="A196" s="3"/>
-      <c r="B196" s="4"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="6"/>
-      <c r="K196" s="6"/>
-      <c r="L196" s="7"/>
-      <c r="M196" s="5"/>
-      <c r="N196" s="5"/>
-      <c r="O196" s="5"/>
-      <c r="P196" s="5"/>
-      <c r="Q196" s="1"/>
-      <c r="R196" s="1"/>
-      <c r="S196" s="1"/>
-      <c r="T196" s="2"/>
-      <c r="U196" s="5"/>
-      <c r="V196" s="1"/>
-      <c r="W196" s="6"/>
-      <c r="X196" s="7"/>
-      <c r="Y196" s="6"/>
-      <c r="Z196" s="7"/>
-      <c r="AA196" s="7"/>
-      <c r="AB196" s="7"/>
-      <c r="AC196" s="5"/>
-      <c r="AD196" s="5"/>
-      <c r="AE196" s="5"/>
-      <c r="AF196" s="5"/>
-    </row>
-    <row r="197" spans="1:32" ht="18" thickBot="1">
-      <c r="A197" s="3"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="6"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="6"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="6"/>
-      <c r="K197" s="6"/>
-      <c r="L197" s="7"/>
-      <c r="M197" s="5"/>
-      <c r="N197" s="5"/>
-      <c r="O197" s="5"/>
-      <c r="P197" s="5"/>
-      <c r="Q197" s="1"/>
-      <c r="R197" s="1"/>
-      <c r="S197" s="4"/>
-      <c r="T197" s="2"/>
-      <c r="U197" s="5"/>
-      <c r="V197" s="1"/>
-      <c r="W197" s="6"/>
-      <c r="X197" s="7"/>
-      <c r="Y197" s="6"/>
-      <c r="Z197" s="7"/>
-      <c r="AA197" s="7"/>
-      <c r="AB197" s="7"/>
-      <c r="AC197" s="5"/>
-      <c r="AD197" s="5"/>
-      <c r="AE197" s="5"/>
-      <c r="AF197" s="5"/>
-    </row>
-    <row r="198" spans="1:32" ht="18" thickBot="1">
-      <c r="A198" s="3"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="5"/>
-      <c r="H198" s="6"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="6"/>
-      <c r="K198" s="6"/>
-      <c r="L198" s="7"/>
-      <c r="M198" s="5"/>
-      <c r="N198" s="5"/>
-      <c r="O198" s="5"/>
-      <c r="P198" s="5"/>
-      <c r="Q198" s="1"/>
-      <c r="R198" s="1"/>
-      <c r="S198" s="4"/>
-      <c r="T198" s="2"/>
-      <c r="U198" s="5"/>
-      <c r="V198" s="1"/>
-      <c r="W198" s="6"/>
-      <c r="X198" s="7"/>
-      <c r="Y198" s="6"/>
-      <c r="Z198" s="7"/>
-      <c r="AA198" s="7"/>
-      <c r="AB198" s="7"/>
-      <c r="AC198" s="5"/>
-      <c r="AD198" s="5"/>
-      <c r="AE198" s="5"/>
-      <c r="AF198" s="5"/>
-    </row>
-    <row r="199" spans="1:32" ht="18" thickBot="1">
-      <c r="A199" s="3"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="6"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="6"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="6"/>
-      <c r="K199" s="6"/>
-      <c r="L199" s="7"/>
-      <c r="M199" s="5"/>
-      <c r="N199" s="5"/>
-      <c r="O199" s="5"/>
-      <c r="P199" s="5"/>
-      <c r="Q199" s="1"/>
-      <c r="R199" s="1"/>
-      <c r="S199" s="4"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="5"/>
-      <c r="V199" s="1"/>
-      <c r="W199" s="6"/>
-      <c r="X199" s="7"/>
-      <c r="Y199" s="6"/>
-      <c r="Z199" s="7"/>
-      <c r="AA199" s="7"/>
-      <c r="AB199" s="7"/>
-      <c r="AC199" s="5"/>
-      <c r="AD199" s="5"/>
-      <c r="AE199" s="5"/>
-      <c r="AF199" s="5"/>
-    </row>
-    <row r="200" spans="1:32" ht="18" thickBot="1">
-      <c r="A200" s="3"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="6"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="6"/>
-      <c r="K200" s="6"/>
-      <c r="L200" s="7"/>
-      <c r="M200" s="5"/>
-      <c r="N200" s="5"/>
-      <c r="O200" s="5"/>
-      <c r="P200" s="5"/>
-      <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-      <c r="S200" s="4"/>
-      <c r="T200" s="2"/>
-      <c r="U200" s="5"/>
-      <c r="V200" s="1"/>
-      <c r="W200" s="6"/>
-      <c r="X200" s="7"/>
-      <c r="Y200" s="6"/>
-      <c r="Z200" s="7"/>
-      <c r="AA200" s="7"/>
-      <c r="AB200" s="7"/>
-      <c r="AC200" s="5"/>
-      <c r="AD200" s="5"/>
-      <c r="AE200" s="5"/>
-      <c r="AF200" s="5"/>
-    </row>
-    <row r="201" spans="1:32" ht="18" thickBot="1">
-      <c r="A201" s="3"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="6"/>
-      <c r="G201" s="5"/>
-      <c r="H201" s="6"/>
-      <c r="I201" s="5"/>
-      <c r="J201" s="6"/>
-      <c r="K201" s="6"/>
-      <c r="L201" s="7"/>
-      <c r="M201" s="5"/>
-      <c r="N201" s="5"/>
-      <c r="O201" s="5"/>
-      <c r="P201" s="5"/>
-      <c r="Q201" s="1"/>
-      <c r="R201" s="1"/>
-      <c r="S201" s="4"/>
-      <c r="T201" s="2"/>
-      <c r="U201" s="5"/>
-      <c r="V201" s="1"/>
-      <c r="W201" s="6"/>
-      <c r="X201" s="7"/>
-      <c r="Y201" s="6"/>
-      <c r="Z201" s="7"/>
-      <c r="AA201" s="7"/>
-      <c r="AB201" s="7"/>
-      <c r="AC201" s="5"/>
-      <c r="AD201" s="5"/>
-      <c r="AE201" s="5"/>
-      <c r="AF201" s="5"/>
-    </row>
-    <row r="202" spans="1:32" ht="18" thickBot="1">
-      <c r="A202" s="3"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
-      <c r="I202" s="6"/>
-      <c r="J202" s="6"/>
-      <c r="K202" s="6"/>
-      <c r="L202" s="7"/>
-      <c r="M202" s="5"/>
-      <c r="N202" s="5"/>
-      <c r="O202" s="5"/>
-      <c r="P202" s="5"/>
-      <c r="Q202" s="1"/>
-      <c r="R202" s="1"/>
-      <c r="S202" s="1"/>
-      <c r="T202" s="2"/>
-      <c r="U202" s="5"/>
-      <c r="V202" s="1"/>
-      <c r="W202" s="6"/>
-      <c r="X202" s="7"/>
-      <c r="Y202" s="6"/>
-      <c r="Z202" s="7"/>
-      <c r="AA202" s="7"/>
-      <c r="AB202" s="7"/>
-      <c r="AC202" s="5"/>
-      <c r="AD202" s="5"/>
-      <c r="AE202" s="5"/>
-      <c r="AF202" s="5"/>
-    </row>
-    <row r="203" spans="1:32" ht="18" thickBot="1">
-      <c r="A203" s="3"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="6"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="6"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="6"/>
-      <c r="K203" s="6"/>
-      <c r="L203" s="7"/>
-      <c r="M203" s="5"/>
-      <c r="N203" s="5"/>
-      <c r="O203" s="5"/>
-      <c r="P203" s="5"/>
-      <c r="Q203" s="1"/>
-      <c r="R203" s="1"/>
-      <c r="S203" s="1"/>
-      <c r="T203" s="2"/>
-      <c r="U203" s="5"/>
-      <c r="V203" s="1"/>
-      <c r="W203" s="6"/>
-      <c r="X203" s="7"/>
-      <c r="Y203" s="6"/>
-      <c r="Z203" s="7"/>
-      <c r="AA203" s="7"/>
-      <c r="AB203" s="7"/>
-      <c r="AC203" s="5"/>
-      <c r="AD203" s="5"/>
-      <c r="AE203" s="5"/>
-      <c r="AF203" s="5"/>
+    <row r="187" spans="1:32">
+      <c r="A187" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C187" s="10"/>
+      <c r="D187" s="9">
+        <v>6869</v>
+      </c>
+      <c r="E187" s="9">
+        <v>0</v>
+      </c>
+      <c r="F187" s="9">
+        <v>0</v>
+      </c>
+      <c r="G187" s="9">
+        <v>0</v>
+      </c>
+      <c r="H187" s="9">
+        <v>0</v>
+      </c>
+      <c r="I187" s="9">
+        <v>54.1</v>
+      </c>
+      <c r="J187" s="9">
+        <v>0</v>
+      </c>
+      <c r="K187" s="9">
+        <v>0</v>
+      </c>
+      <c r="L187" s="9">
+        <v>0</v>
+      </c>
+      <c r="M187" s="9">
+        <v>0</v>
+      </c>
+      <c r="N187" s="11">
+        <v>349976</v>
+      </c>
+      <c r="O187" s="11">
+        <v>349976</v>
+      </c>
+      <c r="P187" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R187" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S187" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T187" s="10"/>
+      <c r="U187" s="9">
+        <v>0</v>
+      </c>
+      <c r="V187" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W187" s="9">
+        <v>0</v>
+      </c>
+      <c r="X187" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y187" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z187" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA187" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB187" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC187" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD187" s="12">
+        <v>72042766</v>
+      </c>
+      <c r="AE187" s="12">
+        <v>72042766</v>
+      </c>
+      <c r="AF187" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:32">
+      <c r="A188" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C188" s="10"/>
+      <c r="D188" s="9">
+        <v>2359</v>
+      </c>
+      <c r="E188" s="9">
+        <v>0</v>
+      </c>
+      <c r="F188" s="11">
+        <v>25000</v>
+      </c>
+      <c r="G188" s="9">
+        <v>118.559</v>
+      </c>
+      <c r="H188" s="11">
+        <v>2963990</v>
+      </c>
+      <c r="I188" s="9">
+        <v>113.7</v>
+      </c>
+      <c r="J188" s="11">
+        <v>2842500</v>
+      </c>
+      <c r="K188" s="11">
+        <v>-121490</v>
+      </c>
+      <c r="L188" s="12">
+        <v>-24719100</v>
+      </c>
+      <c r="M188" s="9">
+        <v>0</v>
+      </c>
+      <c r="N188" s="9">
+        <v>0</v>
+      </c>
+      <c r="O188" s="9">
+        <v>0</v>
+      </c>
+      <c r="P188" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R188" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S188" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T188" s="10"/>
+      <c r="U188" s="9">
+        <v>0</v>
+      </c>
+      <c r="V188" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W188" s="9">
+        <v>188.95</v>
+      </c>
+      <c r="X188" s="12">
+        <v>560075550</v>
+      </c>
+      <c r="Y188" s="9">
+        <v>188.34</v>
+      </c>
+      <c r="Z188" s="12">
+        <v>535356450</v>
+      </c>
+      <c r="AA188" s="12">
+        <v>-22881426</v>
+      </c>
+      <c r="AB188" s="12">
+        <v>-1837674</v>
+      </c>
+      <c r="AC188" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD188" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE188" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF188" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:32">
+      <c r="A189" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C189" s="10"/>
+      <c r="D189" s="9">
+        <v>6680</v>
+      </c>
+      <c r="E189" s="9">
+        <v>0</v>
+      </c>
+      <c r="F189" s="11">
+        <v>130000</v>
+      </c>
+      <c r="G189" s="9">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H189" s="11">
+        <v>2921022</v>
+      </c>
+      <c r="I189" s="9">
+        <v>23.82</v>
+      </c>
+      <c r="J189" s="11">
+        <v>3096600</v>
+      </c>
+      <c r="K189" s="11">
+        <v>175578</v>
+      </c>
+      <c r="L189" s="12">
+        <v>31461799</v>
+      </c>
+      <c r="M189" s="9">
+        <v>0</v>
+      </c>
+      <c r="N189" s="9">
+        <v>0</v>
+      </c>
+      <c r="O189" s="9">
+        <v>0</v>
+      </c>
+      <c r="P189" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R189" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S189" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="T189" s="10"/>
+      <c r="U189" s="9">
+        <v>0</v>
+      </c>
+      <c r="V189" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W189" s="9">
+        <v>188.88</v>
+      </c>
+      <c r="X189" s="12">
+        <v>551751845</v>
+      </c>
+      <c r="Y189" s="9">
+        <v>188.34</v>
+      </c>
+      <c r="Z189" s="12">
+        <v>583213644</v>
+      </c>
+      <c r="AA189" s="12">
+        <v>33068360</v>
+      </c>
+      <c r="AB189" s="12">
+        <v>-1606562</v>
+      </c>
+      <c r="AC189" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD189" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE189" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF189" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:32">
+      <c r="A190" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" s="10"/>
+      <c r="D190" s="9">
+        <v>6181</v>
+      </c>
+      <c r="E190" s="9">
+        <v>0</v>
+      </c>
+      <c r="F190" s="9">
+        <v>0</v>
+      </c>
+      <c r="G190" s="9">
+        <v>0</v>
+      </c>
+      <c r="H190" s="9">
+        <v>0</v>
+      </c>
+      <c r="I190" s="9">
+        <v>788.5</v>
+      </c>
+      <c r="J190" s="9">
+        <v>0</v>
+      </c>
+      <c r="K190" s="9">
+        <v>0</v>
+      </c>
+      <c r="L190" s="9">
+        <v>0</v>
+      </c>
+      <c r="M190" s="9">
+        <v>0</v>
+      </c>
+      <c r="N190" s="11">
+        <v>-6374.88</v>
+      </c>
+      <c r="O190" s="9">
+        <v>0</v>
+      </c>
+      <c r="P190" s="11">
+        <v>6374.88</v>
+      </c>
+      <c r="Q190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R190" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S190" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T190" s="10"/>
+      <c r="U190" s="9">
+        <v>0</v>
+      </c>
+      <c r="V190" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W190" s="9">
+        <v>0</v>
+      </c>
+      <c r="X190" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y190" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z190" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA190" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB190" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC190" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD190" s="12">
+        <v>1362525</v>
+      </c>
+      <c r="AE190" s="12">
+        <v>1362525</v>
+      </c>
+      <c r="AF190" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:32">
+      <c r="A191" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C191" s="10"/>
+      <c r="D191" s="9">
+        <v>6082</v>
+      </c>
+      <c r="E191" s="9">
+        <v>0</v>
+      </c>
+      <c r="F191" s="9">
+        <v>0</v>
+      </c>
+      <c r="G191" s="9">
+        <v>0</v>
+      </c>
+      <c r="H191" s="9">
+        <v>0</v>
+      </c>
+      <c r="I191" s="9">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="J191" s="9">
+        <v>0</v>
+      </c>
+      <c r="K191" s="9">
+        <v>0</v>
+      </c>
+      <c r="L191" s="9">
+        <v>0</v>
+      </c>
+      <c r="M191" s="9">
+        <v>0</v>
+      </c>
+      <c r="N191" s="11">
+        <v>205980</v>
+      </c>
+      <c r="O191" s="11">
+        <v>205980</v>
+      </c>
+      <c r="P191" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R191" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S191" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T191" s="10"/>
+      <c r="U191" s="9">
+        <v>0</v>
+      </c>
+      <c r="V191" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W191" s="9">
+        <v>0</v>
+      </c>
+      <c r="X191" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y191" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD191" s="12">
+        <v>49395681</v>
+      </c>
+      <c r="AE191" s="12">
+        <v>49395681</v>
+      </c>
+      <c r="AF191" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:32">
+      <c r="A192" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C192" s="10"/>
+      <c r="D192" s="9">
+        <v>9988</v>
+      </c>
+      <c r="E192" s="9">
+        <v>0</v>
+      </c>
+      <c r="F192" s="11">
+        <v>70500</v>
+      </c>
+      <c r="G192" s="9">
+        <v>147.79</v>
+      </c>
+      <c r="H192" s="11">
+        <v>10419200</v>
+      </c>
+      <c r="I192" s="9">
+        <v>169.2</v>
+      </c>
+      <c r="J192" s="11">
+        <v>11928600</v>
+      </c>
+      <c r="K192" s="11">
+        <v>1509400</v>
+      </c>
+      <c r="L192" s="12">
+        <v>311833924</v>
+      </c>
+      <c r="M192" s="9">
+        <v>0</v>
+      </c>
+      <c r="N192" s="9">
+        <v>0</v>
+      </c>
+      <c r="O192" s="9">
+        <v>0</v>
+      </c>
+      <c r="P192" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q192" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R192" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S192" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T192" s="10"/>
+      <c r="U192" s="9">
+        <v>0</v>
+      </c>
+      <c r="V192" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W192" s="9">
+        <v>185.69</v>
+      </c>
+      <c r="X192" s="12">
+        <v>1934798600</v>
+      </c>
+      <c r="Y192" s="9">
+        <v>188.34</v>
+      </c>
+      <c r="Z192" s="12">
+        <v>2246632524</v>
+      </c>
+      <c r="AA192" s="12">
+        <v>284280396</v>
+      </c>
+      <c r="AB192" s="12">
+        <v>27553528</v>
+      </c>
+      <c r="AC192" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD192" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE192" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF192" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:32">
+      <c r="A193" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C193" s="10"/>
+      <c r="D193" s="9">
+        <v>6861</v>
+      </c>
+      <c r="E193" s="9">
+        <v>0</v>
+      </c>
+      <c r="F193" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G193" s="11">
+        <v>55916.79</v>
+      </c>
+      <c r="H193" s="11">
+        <v>106241900</v>
+      </c>
+      <c r="I193" s="11">
+        <v>59970</v>
+      </c>
+      <c r="J193" s="11">
+        <v>113943000</v>
+      </c>
+      <c r="K193" s="11">
+        <v>7701100</v>
+      </c>
+      <c r="L193" s="12">
+        <v>74110530</v>
+      </c>
+      <c r="M193" s="9">
+        <v>0</v>
+      </c>
+      <c r="N193" s="9">
+        <v>0</v>
+      </c>
+      <c r="O193" s="9">
+        <v>0</v>
+      </c>
+      <c r="P193" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q193" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R193" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S193" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T193" s="10"/>
+      <c r="U193" s="9">
+        <v>0</v>
+      </c>
+      <c r="V193" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W193" s="9">
+        <v>924.45</v>
+      </c>
+      <c r="X193" s="12">
+        <v>982163868</v>
+      </c>
+      <c r="Y193" s="9">
+        <v>927.02</v>
+      </c>
+      <c r="Z193" s="12">
+        <v>1056274398</v>
+      </c>
+      <c r="AA193" s="12">
+        <v>71390737</v>
+      </c>
+      <c r="AB193" s="12">
+        <v>2719793</v>
+      </c>
+      <c r="AC193" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD193" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE193" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF193" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:32">
+      <c r="A194" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C194" s="10"/>
+      <c r="D194" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E194" s="9">
+        <v>0</v>
+      </c>
+      <c r="F194" s="9">
+        <v>0</v>
+      </c>
+      <c r="G194" s="9">
+        <v>0</v>
+      </c>
+      <c r="H194" s="9">
+        <v>0</v>
+      </c>
+      <c r="I194" s="11">
+        <v>17305</v>
+      </c>
+      <c r="J194" s="9">
+        <v>0</v>
+      </c>
+      <c r="K194" s="9">
+        <v>0</v>
+      </c>
+      <c r="L194" s="9">
+        <v>0</v>
+      </c>
+      <c r="M194" s="9">
+        <v>0</v>
+      </c>
+      <c r="N194" s="11">
+        <v>4480700</v>
+      </c>
+      <c r="O194" s="11">
+        <v>4480700</v>
+      </c>
+      <c r="P194" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q194" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R194" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S194" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="T194" s="10"/>
+      <c r="U194" s="9">
+        <v>0</v>
+      </c>
+      <c r="V194" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W194" s="9">
+        <v>0</v>
+      </c>
+      <c r="X194" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y194" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z194" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA194" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB194" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC194" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD194" s="12">
+        <v>37760160</v>
+      </c>
+      <c r="AE194" s="12">
+        <v>37760160</v>
+      </c>
+      <c r="AF194" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:32">
+      <c r="A195" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C195" s="10"/>
+      <c r="D195" s="9">
+        <v>9984</v>
+      </c>
+      <c r="E195" s="9">
+        <v>0</v>
+      </c>
+      <c r="F195" s="11">
+        <v>23000</v>
+      </c>
+      <c r="G195" s="11">
+        <v>4066.73</v>
+      </c>
+      <c r="H195" s="11">
+        <v>93534900</v>
+      </c>
+      <c r="I195" s="11">
+        <v>4206</v>
+      </c>
+      <c r="J195" s="11">
+        <v>96738000</v>
+      </c>
+      <c r="K195" s="11">
+        <v>3203100</v>
+      </c>
+      <c r="L195" s="12">
+        <v>30161052</v>
+      </c>
+      <c r="M195" s="9">
+        <v>0</v>
+      </c>
+      <c r="N195" s="9">
+        <v>0</v>
+      </c>
+      <c r="O195" s="9">
+        <v>0</v>
+      </c>
+      <c r="P195" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R195" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S195" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T195" s="10"/>
+      <c r="U195" s="9">
+        <v>0</v>
+      </c>
+      <c r="V195" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W195" s="9">
+        <v>926.51</v>
+      </c>
+      <c r="X195" s="12">
+        <v>866619555</v>
+      </c>
+      <c r="Y195" s="9">
+        <v>927.02</v>
+      </c>
+      <c r="Z195" s="12">
+        <v>896780607</v>
+      </c>
+      <c r="AA195" s="12">
+        <v>29693377</v>
+      </c>
+      <c r="AB195" s="12">
+        <v>467674</v>
+      </c>
+      <c r="AC195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF195" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:32">
+      <c r="A196" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C196" s="10"/>
+      <c r="D196" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="9">
+        <v>0</v>
+      </c>
+      <c r="F196" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G196" s="9">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H196" s="11">
+        <v>482030</v>
+      </c>
+      <c r="I196" s="9">
+        <v>52.46</v>
+      </c>
+      <c r="J196" s="11">
+        <v>524600</v>
+      </c>
+      <c r="K196" s="11">
+        <v>42570</v>
+      </c>
+      <c r="L196" s="12">
+        <v>68631569</v>
+      </c>
+      <c r="M196" s="9">
+        <v>0</v>
+      </c>
+      <c r="N196" s="9">
+        <v>0</v>
+      </c>
+      <c r="O196" s="9">
+        <v>0</v>
+      </c>
+      <c r="P196" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q196" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R196" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S196" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="T196" s="10"/>
+      <c r="U196" s="9">
+        <v>0</v>
+      </c>
+      <c r="V196" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W196" s="11">
+        <v>1455.7</v>
+      </c>
+      <c r="X196" s="12">
+        <v>701691071</v>
+      </c>
+      <c r="Y196" s="11">
+        <v>1468.4</v>
+      </c>
+      <c r="Z196" s="12">
+        <v>770322640</v>
+      </c>
+      <c r="AA196" s="12">
+        <v>62509788</v>
+      </c>
+      <c r="AB196" s="12">
+        <v>6121781</v>
+      </c>
+      <c r="AC196" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD196" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE196" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF196" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:32">
+      <c r="A197" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C197" s="10"/>
+      <c r="D197" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E197" s="9">
+        <v>0</v>
+      </c>
+      <c r="F197" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G197" s="9">
+        <v>34.24</v>
+      </c>
+      <c r="H197" s="11">
+        <v>684800</v>
+      </c>
+      <c r="I197" s="9">
+        <v>34.46</v>
+      </c>
+      <c r="J197" s="11">
+        <v>689200</v>
+      </c>
+      <c r="K197" s="11">
+        <v>4400</v>
+      </c>
+      <c r="L197" s="12">
+        <v>571680</v>
+      </c>
+      <c r="M197" s="9">
+        <v>0</v>
+      </c>
+      <c r="N197" s="9">
+        <v>0</v>
+      </c>
+      <c r="O197" s="9">
+        <v>0</v>
+      </c>
+      <c r="P197" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q197" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R197" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S197" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="T197" s="10"/>
+      <c r="U197" s="9">
+        <v>0</v>
+      </c>
+      <c r="V197" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W197" s="11">
+        <v>1477</v>
+      </c>
+      <c r="X197" s="12">
+        <v>1011449600</v>
+      </c>
+      <c r="Y197" s="11">
+        <v>1468.4</v>
+      </c>
+      <c r="Z197" s="12">
+        <v>1012021280</v>
+      </c>
+      <c r="AA197" s="12">
+        <v>6460960</v>
+      </c>
+      <c r="AB197" s="12">
+        <v>-5889280</v>
+      </c>
+      <c r="AC197" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD197" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE197" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF197" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:32">
+      <c r="A198" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" s="10"/>
+      <c r="D198" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E198" s="9">
+        <v>0</v>
+      </c>
+      <c r="F198" s="11">
+        <v>3000</v>
+      </c>
+      <c r="G198" s="9">
+        <v>247.65</v>
+      </c>
+      <c r="H198" s="11">
+        <v>742950</v>
+      </c>
+      <c r="I198" s="9">
+        <v>249.56</v>
+      </c>
+      <c r="J198" s="11">
+        <v>748680</v>
+      </c>
+      <c r="K198" s="11">
+        <v>5730</v>
+      </c>
+      <c r="L198" s="12">
+        <v>2024562</v>
+      </c>
+      <c r="M198" s="9">
+        <v>0</v>
+      </c>
+      <c r="N198" s="9">
+        <v>0</v>
+      </c>
+      <c r="O198" s="9">
+        <v>0</v>
+      </c>
+      <c r="P198" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q198" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R198" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S198" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="T198" s="10"/>
+      <c r="U198" s="9">
+        <v>0</v>
+      </c>
+      <c r="V198" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W198" s="11">
+        <v>1477</v>
+      </c>
+      <c r="X198" s="12">
+        <v>1097337150</v>
+      </c>
+      <c r="Y198" s="11">
+        <v>1468.4</v>
+      </c>
+      <c r="Z198" s="12">
+        <v>1099361712</v>
+      </c>
+      <c r="AA198" s="12">
+        <v>8413932</v>
+      </c>
+      <c r="AB198" s="12">
+        <v>-6389370</v>
+      </c>
+      <c r="AC198" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD198" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE198" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF198" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:32">
+      <c r="A199" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C199" s="10"/>
+      <c r="D199" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E199" s="9">
+        <v>0</v>
+      </c>
+      <c r="F199" s="11">
+        <v>83000</v>
+      </c>
+      <c r="G199" s="9">
+        <v>12.374000000000001</v>
+      </c>
+      <c r="H199" s="11">
+        <v>1027042</v>
+      </c>
+      <c r="I199" s="9">
+        <v>10.59</v>
+      </c>
+      <c r="J199" s="11">
+        <v>878970</v>
+      </c>
+      <c r="K199" s="11">
+        <v>-148072</v>
+      </c>
+      <c r="L199" s="12">
+        <v>-194115071</v>
+      </c>
+      <c r="M199" s="9">
+        <v>0</v>
+      </c>
+      <c r="N199" s="9">
+        <v>0</v>
+      </c>
+      <c r="O199" s="9">
+        <v>0</v>
+      </c>
+      <c r="P199" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q199" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R199" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S199" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T199" s="10"/>
+      <c r="U199" s="9">
+        <v>0</v>
+      </c>
+      <c r="V199" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W199" s="11">
+        <v>1445.69</v>
+      </c>
+      <c r="X199" s="12">
+        <v>1484794619</v>
+      </c>
+      <c r="Y199" s="11">
+        <v>1468.4</v>
+      </c>
+      <c r="Z199" s="12">
+        <v>1290679548</v>
+      </c>
+      <c r="AA199" s="12">
+        <v>-217428924</v>
+      </c>
+      <c r="AB199" s="12">
+        <v>23313853</v>
+      </c>
+      <c r="AC199" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD199" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE199" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF199" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:32">
+      <c r="A200" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C200" s="10"/>
+      <c r="D200" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E200" s="9">
+        <v>0</v>
+      </c>
+      <c r="F200" s="11">
+        <v>2500</v>
+      </c>
+      <c r="G200" s="9">
+        <v>681.92</v>
+      </c>
+      <c r="H200" s="11">
+        <v>1704800</v>
+      </c>
+      <c r="I200" s="9">
+        <v>690.46</v>
+      </c>
+      <c r="J200" s="11">
+        <v>1726150</v>
+      </c>
+      <c r="K200" s="11">
+        <v>21350</v>
+      </c>
+      <c r="L200" s="12">
+        <v>88461140</v>
+      </c>
+      <c r="M200" s="9">
+        <v>0</v>
+      </c>
+      <c r="N200" s="11">
+        <v>8700</v>
+      </c>
+      <c r="O200" s="11">
+        <v>8700</v>
+      </c>
+      <c r="P200" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q200" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R200" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S200" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T200" s="10"/>
+      <c r="U200" s="9">
+        <v>0</v>
+      </c>
+      <c r="V200" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W200" s="11">
+        <v>1434.9</v>
+      </c>
+      <c r="X200" s="12">
+        <v>2446217520</v>
+      </c>
+      <c r="Y200" s="11">
+        <v>1468.4</v>
+      </c>
+      <c r="Z200" s="12">
+        <v>2534678660</v>
+      </c>
+      <c r="AA200" s="12">
+        <v>31350340</v>
+      </c>
+      <c r="AB200" s="12">
+        <v>57110800</v>
+      </c>
+      <c r="AC200" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD200" s="12">
+        <v>84621980</v>
+      </c>
+      <c r="AE200" s="12">
+        <v>84621980</v>
+      </c>
+      <c r="AF200" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:32">
+      <c r="A201" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C201" s="10"/>
+      <c r="D201" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E201" s="9">
+        <v>0</v>
+      </c>
+      <c r="F201" s="11">
+        <v>4200</v>
+      </c>
+      <c r="G201" s="9">
+        <v>396.31</v>
+      </c>
+      <c r="H201" s="11">
+        <v>1664502</v>
+      </c>
+      <c r="I201" s="9">
+        <v>455.9</v>
+      </c>
+      <c r="J201" s="11">
+        <v>1914780</v>
+      </c>
+      <c r="K201" s="11">
+        <v>250278</v>
+      </c>
+      <c r="L201" s="12">
+        <v>423269033</v>
+      </c>
+      <c r="M201" s="9">
+        <v>0</v>
+      </c>
+      <c r="N201" s="9">
+        <v>0</v>
+      </c>
+      <c r="O201" s="9">
+        <v>0</v>
+      </c>
+      <c r="P201" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q201" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R201" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S201" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T201" s="10"/>
+      <c r="U201" s="9">
+        <v>0</v>
+      </c>
+      <c r="V201" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W201" s="11">
+        <v>1434.89</v>
+      </c>
+      <c r="X201" s="12">
+        <v>2388393919</v>
+      </c>
+      <c r="Y201" s="11">
+        <v>1468.4</v>
+      </c>
+      <c r="Z201" s="12">
+        <v>2811662952</v>
+      </c>
+      <c r="AA201" s="12">
+        <v>367508215</v>
+      </c>
+      <c r="AB201" s="12">
+        <v>55760817</v>
+      </c>
+      <c r="AC201" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD201" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE201" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF201" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:32">
+      <c r="A202" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C202" s="10"/>
+      <c r="D202" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E202" s="9">
+        <v>0</v>
+      </c>
+      <c r="F202" s="11">
+        <v>24000</v>
+      </c>
+      <c r="G202" s="9">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H202" s="11">
+        <v>423736.8</v>
+      </c>
+      <c r="I202" s="9">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="J202" s="11">
+        <v>389760</v>
+      </c>
+      <c r="K202" s="11">
+        <v>-33976.800000000003</v>
+      </c>
+      <c r="L202" s="12">
+        <v>-48069464</v>
+      </c>
+      <c r="M202" s="9">
+        <v>0</v>
+      </c>
+      <c r="N202" s="9">
+        <v>0</v>
+      </c>
+      <c r="O202" s="9">
+        <v>0</v>
+      </c>
+      <c r="P202" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q202" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R202" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S202" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T202" s="10"/>
+      <c r="U202" s="9">
+        <v>0</v>
+      </c>
+      <c r="V202" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W202" s="11">
+        <v>1464.09</v>
+      </c>
+      <c r="X202" s="12">
+        <v>620393048</v>
+      </c>
+      <c r="Y202" s="11">
+        <v>1468.4</v>
+      </c>
+      <c r="Z202" s="12">
+        <v>572323584</v>
+      </c>
+      <c r="AA202" s="12">
+        <v>-49891533</v>
+      </c>
+      <c r="AB202" s="12">
+        <v>1822069</v>
+      </c>
+      <c r="AC202" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD202" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE202" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF202" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:32">
+      <c r="A203" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C203" s="10"/>
+      <c r="D203" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E203" s="9">
+        <v>0</v>
+      </c>
+      <c r="F203" s="11">
+        <v>1400</v>
+      </c>
+      <c r="G203" s="9">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H203" s="11">
+        <v>605554.04</v>
+      </c>
+      <c r="I203" s="9">
+        <v>451.86</v>
+      </c>
+      <c r="J203" s="11">
+        <v>632604</v>
+      </c>
+      <c r="K203" s="11">
+        <v>27049.96</v>
+      </c>
+      <c r="L203" s="12">
+        <v>52800128</v>
+      </c>
+      <c r="M203" s="9">
+        <v>0</v>
+      </c>
+      <c r="N203" s="9">
+        <v>0</v>
+      </c>
+      <c r="O203" s="9">
+        <v>0</v>
+      </c>
+      <c r="P203" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q203" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R203" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S203" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T203" s="10"/>
+      <c r="U203" s="9">
+        <v>0</v>
+      </c>
+      <c r="V203" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W203" s="11">
+        <v>1446.79</v>
+      </c>
+      <c r="X203" s="12">
+        <v>876115585</v>
+      </c>
+      <c r="Y203" s="11">
+        <v>1468.4</v>
+      </c>
+      <c r="Z203" s="12">
+        <v>928915713</v>
+      </c>
+      <c r="AA203" s="12">
+        <v>39720161</v>
+      </c>
+      <c r="AB203" s="12">
+        <v>13079967</v>
+      </c>
+      <c r="AC203" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD203" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE203" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF203" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:32" ht="18" thickBot="1">
-      <c r="A204" s="3"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="6"/>
-      <c r="G204" s="5"/>
-      <c r="H204" s="6"/>
-      <c r="I204" s="5"/>
-      <c r="J204" s="6"/>
-      <c r="K204" s="6"/>
-      <c r="L204" s="7"/>
-      <c r="M204" s="5"/>
-      <c r="N204" s="5"/>
-      <c r="O204" s="5"/>
-      <c r="P204" s="5"/>
-      <c r="Q204" s="1"/>
-      <c r="R204" s="1"/>
-      <c r="S204" s="1"/>
-      <c r="T204" s="2"/>
-      <c r="U204" s="5"/>
-      <c r="V204" s="1"/>
-      <c r="W204" s="6"/>
-      <c r="X204" s="7"/>
-      <c r="Y204" s="6"/>
-      <c r="Z204" s="7"/>
-      <c r="AA204" s="7"/>
-      <c r="AB204" s="7"/>
-      <c r="AC204" s="5"/>
-      <c r="AD204" s="5"/>
-      <c r="AE204" s="5"/>
-      <c r="AF204" s="5"/>
+      <c r="A204" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C204" s="10"/>
+      <c r="D204" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E204" s="9">
+        <v>0</v>
+      </c>
+      <c r="F204" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G204" s="9">
+        <v>169.042</v>
+      </c>
+      <c r="H204" s="11">
+        <v>591649.80000000005</v>
+      </c>
+      <c r="I204" s="9">
+        <v>161.88</v>
+      </c>
+      <c r="J204" s="11">
+        <v>566580</v>
+      </c>
+      <c r="K204" s="11">
+        <v>-25069.8</v>
+      </c>
+      <c r="L204" s="12">
+        <v>-24032858</v>
+      </c>
+      <c r="M204" s="9">
+        <v>0</v>
+      </c>
+      <c r="N204" s="9">
+        <v>0</v>
+      </c>
+      <c r="O204" s="9">
+        <v>0</v>
+      </c>
+      <c r="P204" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R204" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S204" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T204" s="10"/>
+      <c r="U204" s="9">
+        <v>0</v>
+      </c>
+      <c r="V204" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W204" s="11">
+        <v>1446.79</v>
+      </c>
+      <c r="X204" s="12">
+        <v>855998930</v>
+      </c>
+      <c r="Y204" s="11">
+        <v>1468.4</v>
+      </c>
+      <c r="Z204" s="12">
+        <v>831966072</v>
+      </c>
+      <c r="AA204" s="12">
+        <v>-36812494</v>
+      </c>
+      <c r="AB204" s="12">
+        <v>12779636</v>
+      </c>
+      <c r="AC204" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD204" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE204" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF204" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:32" ht="18" thickBot="1">
       <c r="A205" s="3"/>

--- a/2026_멀티.xlsx
+++ b/2026_멀티.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyejinha/Desktop/Workspace/Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAFBA28-31D3-774C-AAB7-BC0727DA8A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C44EF6-A360-6045-A77B-40D51964A994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29000" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="97">
   <si>
     <t>기준일자</t>
   </si>
@@ -292,6 +292,30 @@
   </si>
   <si>
     <t>JLMAG</t>
+  </si>
+  <si>
+    <t>JP3802400006</t>
+  </si>
+  <si>
+    <t>화낙</t>
+  </si>
+  <si>
+    <t>CA65340P1062</t>
+  </si>
+  <si>
+    <t>NXE</t>
+  </si>
+  <si>
+    <t>넥스젠 에너지</t>
+  </si>
+  <si>
+    <t>US6745991058</t>
+  </si>
+  <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>옥시덴털 페트롤리엄</t>
   </si>
 </sst>
 </file>
@@ -671,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187:AF204"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205:AF225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -19719,7 +19743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:32" ht="18" thickBot="1">
+    <row r="204" spans="1:32">
       <c r="A204" s="8">
         <v>46045</v>
       </c>
@@ -19813,719 +19837,1979 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:32" ht="18" thickBot="1">
-      <c r="A205" s="3"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="6"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="6"/>
-      <c r="I205" s="5"/>
-      <c r="J205" s="6"/>
-      <c r="K205" s="6"/>
-      <c r="L205" s="7"/>
-      <c r="M205" s="5"/>
-      <c r="N205" s="5"/>
-      <c r="O205" s="5"/>
-      <c r="P205" s="5"/>
-      <c r="Q205" s="1"/>
-      <c r="R205" s="1"/>
-      <c r="S205" s="4"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="5"/>
-      <c r="V205" s="1"/>
-      <c r="W205" s="6"/>
-      <c r="X205" s="7"/>
-      <c r="Y205" s="6"/>
-      <c r="Z205" s="7"/>
-      <c r="AA205" s="7"/>
-      <c r="AB205" s="7"/>
-      <c r="AC205" s="5"/>
-      <c r="AD205" s="5"/>
-      <c r="AE205" s="5"/>
-      <c r="AF205" s="5"/>
-    </row>
-    <row r="206" spans="1:32" ht="18" thickBot="1">
-      <c r="A206" s="3"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="6"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="6"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="6"/>
-      <c r="K206" s="6"/>
-      <c r="L206" s="7"/>
-      <c r="M206" s="5"/>
-      <c r="N206" s="5"/>
-      <c r="O206" s="5"/>
-      <c r="P206" s="5"/>
-      <c r="Q206" s="1"/>
-      <c r="R206" s="1"/>
-      <c r="S206" s="1"/>
-      <c r="T206" s="2"/>
-      <c r="U206" s="5"/>
-      <c r="V206" s="1"/>
-      <c r="W206" s="6"/>
-      <c r="X206" s="7"/>
-      <c r="Y206" s="6"/>
-      <c r="Z206" s="7"/>
-      <c r="AA206" s="7"/>
-      <c r="AB206" s="7"/>
-      <c r="AC206" s="5"/>
-      <c r="AD206" s="5"/>
-      <c r="AE206" s="5"/>
-      <c r="AF206" s="5"/>
-    </row>
-    <row r="207" spans="1:32" ht="18" thickBot="1">
-      <c r="A207" s="3"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="6"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="6"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="6"/>
-      <c r="K207" s="6"/>
-      <c r="L207" s="7"/>
-      <c r="M207" s="5"/>
-      <c r="N207" s="5"/>
-      <c r="O207" s="5"/>
-      <c r="P207" s="5"/>
-      <c r="Q207" s="1"/>
-      <c r="R207" s="1"/>
-      <c r="S207" s="1"/>
-      <c r="T207" s="2"/>
-      <c r="U207" s="5"/>
-      <c r="V207" s="1"/>
-      <c r="W207" s="6"/>
-      <c r="X207" s="7"/>
-      <c r="Y207" s="6"/>
-      <c r="Z207" s="7"/>
-      <c r="AA207" s="7"/>
-      <c r="AB207" s="7"/>
-      <c r="AC207" s="5"/>
-      <c r="AD207" s="5"/>
-      <c r="AE207" s="5"/>
-      <c r="AF207" s="5"/>
-    </row>
-    <row r="208" spans="1:32" ht="18" thickBot="1">
-      <c r="A208" s="3"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="6"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="6"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="6"/>
-      <c r="K208" s="6"/>
-      <c r="L208" s="7"/>
-      <c r="M208" s="5"/>
-      <c r="N208" s="5"/>
-      <c r="O208" s="5"/>
-      <c r="P208" s="5"/>
-      <c r="Q208" s="1"/>
-      <c r="R208" s="1"/>
-      <c r="S208" s="1"/>
-      <c r="T208" s="2"/>
-      <c r="U208" s="5"/>
-      <c r="V208" s="1"/>
-      <c r="W208" s="6"/>
-      <c r="X208" s="7"/>
-      <c r="Y208" s="6"/>
-      <c r="Z208" s="7"/>
-      <c r="AA208" s="7"/>
-      <c r="AB208" s="7"/>
-      <c r="AC208" s="5"/>
-      <c r="AD208" s="5"/>
-      <c r="AE208" s="5"/>
-      <c r="AF208" s="5"/>
-    </row>
-    <row r="209" spans="1:32" ht="18" thickBot="1">
-      <c r="A209" s="3"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="6"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="6"/>
-      <c r="I209" s="5"/>
-      <c r="J209" s="6"/>
-      <c r="K209" s="6"/>
-      <c r="L209" s="7"/>
-      <c r="M209" s="5"/>
-      <c r="N209" s="5"/>
-      <c r="O209" s="5"/>
-      <c r="P209" s="5"/>
-      <c r="Q209" s="1"/>
-      <c r="R209" s="1"/>
-      <c r="S209" s="4"/>
-      <c r="T209" s="2"/>
-      <c r="U209" s="5"/>
-      <c r="V209" s="1"/>
-      <c r="W209" s="6"/>
-      <c r="X209" s="7"/>
-      <c r="Y209" s="6"/>
-      <c r="Z209" s="7"/>
-      <c r="AA209" s="7"/>
-      <c r="AB209" s="7"/>
-      <c r="AC209" s="5"/>
-      <c r="AD209" s="5"/>
-      <c r="AE209" s="5"/>
-      <c r="AF209" s="5"/>
-    </row>
-    <row r="210" spans="1:32" ht="18" thickBot="1">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
-      <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2"/>
-      <c r="V210" s="2"/>
-      <c r="W210" s="2"/>
-      <c r="X210" s="2"/>
-      <c r="Y210" s="2"/>
-      <c r="Z210" s="2"/>
-      <c r="AA210" s="2"/>
-      <c r="AB210" s="2"/>
-      <c r="AC210" s="2"/>
-      <c r="AD210" s="2"/>
-      <c r="AE210" s="2"/>
-      <c r="AF210" s="2"/>
-    </row>
-    <row r="211" spans="1:32" ht="18" thickBot="1">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
-      <c r="Q211" s="2"/>
-      <c r="R211" s="2"/>
-      <c r="S211" s="2"/>
-      <c r="T211" s="2"/>
-      <c r="U211" s="2"/>
-      <c r="V211" s="2"/>
-      <c r="W211" s="2"/>
-      <c r="X211" s="2"/>
-      <c r="Y211" s="2"/>
-      <c r="Z211" s="2"/>
-      <c r="AA211" s="2"/>
-      <c r="AB211" s="2"/>
-      <c r="AC211" s="2"/>
-      <c r="AD211" s="2"/>
-      <c r="AE211" s="2"/>
-      <c r="AF211" s="2"/>
-    </row>
-    <row r="212" spans="1:32" ht="18" thickBot="1">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
-      <c r="P212" s="2"/>
-      <c r="Q212" s="2"/>
-      <c r="R212" s="2"/>
-      <c r="S212" s="2"/>
-      <c r="T212" s="2"/>
-      <c r="U212" s="2"/>
-      <c r="V212" s="2"/>
-      <c r="W212" s="2"/>
-      <c r="X212" s="2"/>
-      <c r="Y212" s="2"/>
-      <c r="Z212" s="2"/>
-      <c r="AA212" s="2"/>
-      <c r="AB212" s="2"/>
-      <c r="AC212" s="2"/>
-      <c r="AD212" s="2"/>
-      <c r="AE212" s="2"/>
-      <c r="AF212" s="2"/>
-    </row>
-    <row r="213" spans="1:32" ht="18" thickBot="1">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="2"/>
-      <c r="S213" s="2"/>
-      <c r="T213" s="2"/>
-      <c r="U213" s="2"/>
-      <c r="V213" s="2"/>
-      <c r="W213" s="2"/>
-      <c r="X213" s="2"/>
-      <c r="Y213" s="2"/>
-      <c r="Z213" s="2"/>
-      <c r="AA213" s="2"/>
-      <c r="AB213" s="2"/>
-      <c r="AC213" s="2"/>
-      <c r="AD213" s="2"/>
-      <c r="AE213" s="2"/>
-      <c r="AF213" s="2"/>
-    </row>
-    <row r="214" spans="1:32" ht="18" thickBot="1">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
-      <c r="P214" s="2"/>
-      <c r="Q214" s="2"/>
-      <c r="R214" s="2"/>
-      <c r="S214" s="2"/>
-      <c r="T214" s="2"/>
-      <c r="U214" s="2"/>
-      <c r="V214" s="2"/>
-      <c r="W214" s="2"/>
-      <c r="X214" s="2"/>
-      <c r="Y214" s="2"/>
-      <c r="Z214" s="2"/>
-      <c r="AA214" s="2"/>
-      <c r="AB214" s="2"/>
-      <c r="AC214" s="2"/>
-      <c r="AD214" s="2"/>
-      <c r="AE214" s="2"/>
-      <c r="AF214" s="2"/>
-    </row>
-    <row r="215" spans="1:32" ht="18" thickBot="1">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
-      <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
-      <c r="O215" s="2"/>
-      <c r="P215" s="2"/>
-      <c r="Q215" s="2"/>
-      <c r="R215" s="2"/>
-      <c r="S215" s="2"/>
-      <c r="T215" s="2"/>
-      <c r="U215" s="2"/>
-      <c r="V215" s="2"/>
-      <c r="W215" s="2"/>
-      <c r="X215" s="2"/>
-      <c r="Y215" s="2"/>
-      <c r="Z215" s="2"/>
-      <c r="AA215" s="2"/>
-      <c r="AB215" s="2"/>
-      <c r="AC215" s="2"/>
-      <c r="AD215" s="2"/>
-      <c r="AE215" s="2"/>
-      <c r="AF215" s="2"/>
-    </row>
-    <row r="216" spans="1:32" ht="18" thickBot="1">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
-      <c r="P216" s="2"/>
-      <c r="Q216" s="2"/>
-      <c r="R216" s="2"/>
-      <c r="S216" s="2"/>
-      <c r="T216" s="2"/>
-      <c r="U216" s="2"/>
-      <c r="V216" s="2"/>
-      <c r="W216" s="2"/>
-      <c r="X216" s="2"/>
-      <c r="Y216" s="2"/>
-      <c r="Z216" s="2"/>
-      <c r="AA216" s="2"/>
-      <c r="AB216" s="2"/>
-      <c r="AC216" s="2"/>
-      <c r="AD216" s="2"/>
-      <c r="AE216" s="2"/>
-      <c r="AF216" s="2"/>
-    </row>
-    <row r="217" spans="1:32" ht="18" thickBot="1">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
-      <c r="Q217" s="2"/>
-      <c r="R217" s="2"/>
-      <c r="S217" s="2"/>
-      <c r="T217" s="2"/>
-      <c r="U217" s="2"/>
-      <c r="V217" s="2"/>
-      <c r="W217" s="2"/>
-      <c r="X217" s="2"/>
-      <c r="Y217" s="2"/>
-      <c r="Z217" s="2"/>
-      <c r="AA217" s="2"/>
-      <c r="AB217" s="2"/>
-      <c r="AC217" s="2"/>
-      <c r="AD217" s="2"/>
-      <c r="AE217" s="2"/>
-      <c r="AF217" s="2"/>
-    </row>
-    <row r="218" spans="1:32" ht="18" thickBot="1">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
-      <c r="O218" s="2"/>
-      <c r="P218" s="2"/>
-      <c r="Q218" s="2"/>
-      <c r="R218" s="2"/>
-      <c r="S218" s="2"/>
-      <c r="T218" s="2"/>
-      <c r="U218" s="2"/>
-      <c r="V218" s="2"/>
-      <c r="W218" s="2"/>
-      <c r="X218" s="2"/>
-      <c r="Y218" s="2"/>
-      <c r="Z218" s="2"/>
-      <c r="AA218" s="2"/>
-      <c r="AB218" s="2"/>
-      <c r="AC218" s="2"/>
-      <c r="AD218" s="2"/>
-      <c r="AE218" s="2"/>
-      <c r="AF218" s="2"/>
-    </row>
-    <row r="219" spans="1:32" ht="18" thickBot="1">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2"/>
-      <c r="N219" s="2"/>
-      <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
-      <c r="Q219" s="2"/>
-      <c r="R219" s="2"/>
-      <c r="S219" s="2"/>
-      <c r="T219" s="2"/>
-      <c r="U219" s="2"/>
-      <c r="V219" s="2"/>
-      <c r="W219" s="2"/>
-      <c r="X219" s="2"/>
-      <c r="Y219" s="2"/>
-      <c r="Z219" s="2"/>
-      <c r="AA219" s="2"/>
-      <c r="AB219" s="2"/>
-      <c r="AC219" s="2"/>
-      <c r="AD219" s="2"/>
-      <c r="AE219" s="2"/>
-      <c r="AF219" s="2"/>
-    </row>
-    <row r="220" spans="1:32" ht="18" thickBot="1">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
-      <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
-      <c r="Q220" s="2"/>
-      <c r="R220" s="2"/>
-      <c r="S220" s="2"/>
-      <c r="T220" s="2"/>
-      <c r="U220" s="2"/>
-      <c r="V220" s="2"/>
-      <c r="W220" s="2"/>
-      <c r="X220" s="2"/>
-      <c r="Y220" s="2"/>
-      <c r="Z220" s="2"/>
-      <c r="AA220" s="2"/>
-      <c r="AB220" s="2"/>
-      <c r="AC220" s="2"/>
-      <c r="AD220" s="2"/>
-      <c r="AE220" s="2"/>
-      <c r="AF220" s="2"/>
-    </row>
-    <row r="221" spans="1:32" ht="18" thickBot="1">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
-      <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
-      <c r="Q221" s="2"/>
-      <c r="R221" s="2"/>
-      <c r="S221" s="2"/>
-      <c r="T221" s="2"/>
-      <c r="U221" s="2"/>
-      <c r="V221" s="2"/>
-      <c r="W221" s="2"/>
-      <c r="X221" s="2"/>
-      <c r="Y221" s="2"/>
-      <c r="Z221" s="2"/>
-      <c r="AA221" s="2"/>
-      <c r="AB221" s="2"/>
-      <c r="AC221" s="2"/>
-      <c r="AD221" s="2"/>
-      <c r="AE221" s="2"/>
-      <c r="AF221" s="2"/>
-    </row>
-    <row r="222" spans="1:32" ht="18" thickBot="1">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
-      <c r="M222" s="2"/>
-      <c r="N222" s="2"/>
-      <c r="O222" s="2"/>
-      <c r="P222" s="2"/>
-      <c r="Q222" s="2"/>
-      <c r="R222" s="2"/>
-      <c r="S222" s="2"/>
-      <c r="T222" s="2"/>
-      <c r="U222" s="2"/>
-      <c r="V222" s="2"/>
-      <c r="W222" s="2"/>
-      <c r="X222" s="2"/>
-      <c r="Y222" s="2"/>
-      <c r="Z222" s="2"/>
-      <c r="AA222" s="2"/>
-      <c r="AB222" s="2"/>
-      <c r="AC222" s="2"/>
-      <c r="AD222" s="2"/>
-      <c r="AE222" s="2"/>
-      <c r="AF222" s="2"/>
-    </row>
-    <row r="223" spans="1:32" ht="18" thickBot="1">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
-      <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
-      <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
-      <c r="O223" s="2"/>
-      <c r="P223" s="2"/>
-      <c r="Q223" s="2"/>
-      <c r="R223" s="2"/>
-      <c r="S223" s="2"/>
-      <c r="T223" s="2"/>
-      <c r="U223" s="2"/>
-      <c r="V223" s="2"/>
-      <c r="W223" s="2"/>
-      <c r="X223" s="2"/>
-      <c r="Y223" s="2"/>
-      <c r="Z223" s="2"/>
-      <c r="AA223" s="2"/>
-      <c r="AB223" s="2"/>
-      <c r="AC223" s="2"/>
-      <c r="AD223" s="2"/>
-      <c r="AE223" s="2"/>
-      <c r="AF223" s="2"/>
-    </row>
-    <row r="224" spans="1:32" ht="18" thickBot="1">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
-      <c r="P224" s="2"/>
-      <c r="Q224" s="2"/>
-      <c r="R224" s="2"/>
-      <c r="S224" s="2"/>
-      <c r="T224" s="2"/>
-      <c r="U224" s="2"/>
-      <c r="V224" s="2"/>
-      <c r="W224" s="2"/>
-      <c r="X224" s="2"/>
-      <c r="Y224" s="2"/>
-      <c r="Z224" s="2"/>
-      <c r="AA224" s="2"/>
-      <c r="AB224" s="2"/>
-      <c r="AC224" s="2"/>
-      <c r="AD224" s="2"/>
-      <c r="AE224" s="2"/>
-      <c r="AF224" s="2"/>
+    <row r="205" spans="1:32">
+      <c r="A205" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C205" s="10"/>
+      <c r="D205" s="9">
+        <v>6869</v>
+      </c>
+      <c r="E205" s="9">
+        <v>0</v>
+      </c>
+      <c r="F205" s="9">
+        <v>0</v>
+      </c>
+      <c r="G205" s="9">
+        <v>0</v>
+      </c>
+      <c r="H205" s="9">
+        <v>0</v>
+      </c>
+      <c r="I205" s="9">
+        <v>62.55</v>
+      </c>
+      <c r="J205" s="9">
+        <v>0</v>
+      </c>
+      <c r="K205" s="9">
+        <v>0</v>
+      </c>
+      <c r="L205" s="9">
+        <v>0</v>
+      </c>
+      <c r="M205" s="9">
+        <v>0</v>
+      </c>
+      <c r="N205" s="11">
+        <v>349976</v>
+      </c>
+      <c r="O205" s="11">
+        <v>349976</v>
+      </c>
+      <c r="P205" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q205" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R205" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S205" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T205" s="10"/>
+      <c r="U205" s="9">
+        <v>0</v>
+      </c>
+      <c r="V205" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W205" s="9">
+        <v>0</v>
+      </c>
+      <c r="X205" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y205" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z205" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA205" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB205" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC205" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD205" s="12">
+        <v>72042766</v>
+      </c>
+      <c r="AE205" s="12">
+        <v>72042766</v>
+      </c>
+      <c r="AF205" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:32">
+      <c r="A206" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C206" s="10"/>
+      <c r="D206" s="9">
+        <v>2359</v>
+      </c>
+      <c r="E206" s="9">
+        <v>0</v>
+      </c>
+      <c r="F206" s="11">
+        <v>25000</v>
+      </c>
+      <c r="G206" s="9">
+        <v>118.559</v>
+      </c>
+      <c r="H206" s="11">
+        <v>2963990</v>
+      </c>
+      <c r="I206" s="9">
+        <v>113.5</v>
+      </c>
+      <c r="J206" s="11">
+        <v>2837500</v>
+      </c>
+      <c r="K206" s="11">
+        <v>-126490</v>
+      </c>
+      <c r="L206" s="12">
+        <v>-26086425</v>
+      </c>
+      <c r="M206" s="9">
+        <v>0</v>
+      </c>
+      <c r="N206" s="9">
+        <v>0</v>
+      </c>
+      <c r="O206" s="9">
+        <v>0</v>
+      </c>
+      <c r="P206" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q206" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R206" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S206" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T206" s="10"/>
+      <c r="U206" s="9">
+        <v>0</v>
+      </c>
+      <c r="V206" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W206" s="9">
+        <v>188.95</v>
+      </c>
+      <c r="X206" s="12">
+        <v>560075550</v>
+      </c>
+      <c r="Y206" s="9">
+        <v>188.19</v>
+      </c>
+      <c r="Z206" s="12">
+        <v>533989125</v>
+      </c>
+      <c r="AA206" s="12">
+        <v>-23804153</v>
+      </c>
+      <c r="AB206" s="12">
+        <v>-2282272</v>
+      </c>
+      <c r="AC206" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD206" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE206" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF206" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:32">
+      <c r="A207" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C207" s="10"/>
+      <c r="D207" s="9">
+        <v>6680</v>
+      </c>
+      <c r="E207" s="9">
+        <v>0</v>
+      </c>
+      <c r="F207" s="11">
+        <v>130000</v>
+      </c>
+      <c r="G207" s="9">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H207" s="11">
+        <v>2921022</v>
+      </c>
+      <c r="I207" s="9">
+        <v>23.06</v>
+      </c>
+      <c r="J207" s="11">
+        <v>2997800</v>
+      </c>
+      <c r="K207" s="11">
+        <v>76778</v>
+      </c>
+      <c r="L207" s="12">
+        <v>12404137</v>
+      </c>
+      <c r="M207" s="9">
+        <v>0</v>
+      </c>
+      <c r="N207" s="9">
+        <v>0</v>
+      </c>
+      <c r="O207" s="9">
+        <v>0</v>
+      </c>
+      <c r="P207" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q207" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R207" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S207" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="T207" s="10"/>
+      <c r="U207" s="9">
+        <v>0</v>
+      </c>
+      <c r="V207" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W207" s="9">
+        <v>188.88</v>
+      </c>
+      <c r="X207" s="12">
+        <v>551751845</v>
+      </c>
+      <c r="Y207" s="9">
+        <v>188.19</v>
+      </c>
+      <c r="Z207" s="12">
+        <v>564155982</v>
+      </c>
+      <c r="AA207" s="12">
+        <v>14448851</v>
+      </c>
+      <c r="AB207" s="12">
+        <v>-2044715</v>
+      </c>
+      <c r="AC207" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD207" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE207" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF207" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:32">
+      <c r="A208" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C208" s="10"/>
+      <c r="D208" s="9">
+        <v>6181</v>
+      </c>
+      <c r="E208" s="9">
+        <v>0</v>
+      </c>
+      <c r="F208" s="9">
+        <v>0</v>
+      </c>
+      <c r="G208" s="9">
+        <v>0</v>
+      </c>
+      <c r="H208" s="9">
+        <v>0</v>
+      </c>
+      <c r="I208" s="9">
+        <v>846.5</v>
+      </c>
+      <c r="J208" s="9">
+        <v>0</v>
+      </c>
+      <c r="K208" s="9">
+        <v>0</v>
+      </c>
+      <c r="L208" s="9">
+        <v>0</v>
+      </c>
+      <c r="M208" s="9">
+        <v>0</v>
+      </c>
+      <c r="N208" s="11">
+        <v>-6374.88</v>
+      </c>
+      <c r="O208" s="9">
+        <v>0</v>
+      </c>
+      <c r="P208" s="11">
+        <v>6374.88</v>
+      </c>
+      <c r="Q208" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R208" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S208" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T208" s="10"/>
+      <c r="U208" s="9">
+        <v>0</v>
+      </c>
+      <c r="V208" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W208" s="9">
+        <v>0</v>
+      </c>
+      <c r="X208" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z208" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA208" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB208" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC208" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD208" s="12">
+        <v>1362525</v>
+      </c>
+      <c r="AE208" s="12">
+        <v>1362525</v>
+      </c>
+      <c r="AF208" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:32">
+      <c r="A209" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C209" s="10"/>
+      <c r="D209" s="9">
+        <v>6082</v>
+      </c>
+      <c r="E209" s="9">
+        <v>0</v>
+      </c>
+      <c r="F209" s="9">
+        <v>0</v>
+      </c>
+      <c r="G209" s="9">
+        <v>0</v>
+      </c>
+      <c r="H209" s="9">
+        <v>0</v>
+      </c>
+      <c r="I209" s="9">
+        <v>34.46</v>
+      </c>
+      <c r="J209" s="9">
+        <v>0</v>
+      </c>
+      <c r="K209" s="9">
+        <v>0</v>
+      </c>
+      <c r="L209" s="9">
+        <v>0</v>
+      </c>
+      <c r="M209" s="9">
+        <v>0</v>
+      </c>
+      <c r="N209" s="11">
+        <v>205980</v>
+      </c>
+      <c r="O209" s="11">
+        <v>205980</v>
+      </c>
+      <c r="P209" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q209" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R209" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S209" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T209" s="10"/>
+      <c r="U209" s="9">
+        <v>0</v>
+      </c>
+      <c r="V209" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W209" s="9">
+        <v>0</v>
+      </c>
+      <c r="X209" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y209" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z209" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA209" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB209" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC209" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD209" s="12">
+        <v>49395681</v>
+      </c>
+      <c r="AE209" s="12">
+        <v>49395681</v>
+      </c>
+      <c r="AF209" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:32">
+      <c r="A210" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C210" s="10"/>
+      <c r="D210" s="9">
+        <v>9988</v>
+      </c>
+      <c r="E210" s="9">
+        <v>0</v>
+      </c>
+      <c r="F210" s="11">
+        <v>70500</v>
+      </c>
+      <c r="G210" s="9">
+        <v>147.79</v>
+      </c>
+      <c r="H210" s="11">
+        <v>10419200</v>
+      </c>
+      <c r="I210" s="9">
+        <v>165</v>
+      </c>
+      <c r="J210" s="11">
+        <v>11632500</v>
+      </c>
+      <c r="K210" s="11">
+        <v>1213300</v>
+      </c>
+      <c r="L210" s="12">
+        <v>254321575</v>
+      </c>
+      <c r="M210" s="9">
+        <v>0</v>
+      </c>
+      <c r="N210" s="9">
+        <v>0</v>
+      </c>
+      <c r="O210" s="9">
+        <v>0</v>
+      </c>
+      <c r="P210" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q210" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R210" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S210" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T210" s="10"/>
+      <c r="U210" s="9">
+        <v>0</v>
+      </c>
+      <c r="V210" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W210" s="9">
+        <v>185.69</v>
+      </c>
+      <c r="X210" s="12">
+        <v>1934798600</v>
+      </c>
+      <c r="Y210" s="9">
+        <v>188.19</v>
+      </c>
+      <c r="Z210" s="12">
+        <v>2189120175</v>
+      </c>
+      <c r="AA210" s="12">
+        <v>228330927</v>
+      </c>
+      <c r="AB210" s="12">
+        <v>25990648</v>
+      </c>
+      <c r="AC210" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD210" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE210" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF210" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:32">
+      <c r="A211" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C211" s="10"/>
+      <c r="D211" s="9">
+        <v>6861</v>
+      </c>
+      <c r="E211" s="9">
+        <v>0</v>
+      </c>
+      <c r="F211" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G211" s="11">
+        <v>55916.79</v>
+      </c>
+      <c r="H211" s="11">
+        <v>106241900</v>
+      </c>
+      <c r="I211" s="11">
+        <v>58390</v>
+      </c>
+      <c r="J211" s="11">
+        <v>110941000</v>
+      </c>
+      <c r="K211" s="11">
+        <v>4699100</v>
+      </c>
+      <c r="L211" s="12">
+        <v>70533092</v>
+      </c>
+      <c r="M211" s="9">
+        <v>0</v>
+      </c>
+      <c r="N211" s="9">
+        <v>0</v>
+      </c>
+      <c r="O211" s="9">
+        <v>0</v>
+      </c>
+      <c r="P211" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q211" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R211" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S211" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T211" s="10"/>
+      <c r="U211" s="9">
+        <v>0</v>
+      </c>
+      <c r="V211" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W211" s="9">
+        <v>924.45</v>
+      </c>
+      <c r="X211" s="12">
+        <v>982163868</v>
+      </c>
+      <c r="Y211" s="9">
+        <v>948.88</v>
+      </c>
+      <c r="Z211" s="12">
+        <v>1052696960</v>
+      </c>
+      <c r="AA211" s="12">
+        <v>44588820</v>
+      </c>
+      <c r="AB211" s="12">
+        <v>25944272</v>
+      </c>
+      <c r="AC211" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD211" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE211" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF211" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:32">
+      <c r="A212" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C212" s="10"/>
+      <c r="D212" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E212" s="9">
+        <v>0</v>
+      </c>
+      <c r="F212" s="9">
+        <v>0</v>
+      </c>
+      <c r="G212" s="9">
+        <v>0</v>
+      </c>
+      <c r="H212" s="9">
+        <v>0</v>
+      </c>
+      <c r="I212" s="11">
+        <v>17450</v>
+      </c>
+      <c r="J212" s="9">
+        <v>0</v>
+      </c>
+      <c r="K212" s="9">
+        <v>0</v>
+      </c>
+      <c r="L212" s="9">
+        <v>0</v>
+      </c>
+      <c r="M212" s="9">
+        <v>0</v>
+      </c>
+      <c r="N212" s="11">
+        <v>4480700</v>
+      </c>
+      <c r="O212" s="11">
+        <v>4480700</v>
+      </c>
+      <c r="P212" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q212" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R212" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S212" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="T212" s="10"/>
+      <c r="U212" s="9">
+        <v>0</v>
+      </c>
+      <c r="V212" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W212" s="9">
+        <v>0</v>
+      </c>
+      <c r="X212" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y212" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z212" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA212" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB212" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC212" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD212" s="12">
+        <v>37760160</v>
+      </c>
+      <c r="AE212" s="12">
+        <v>37760160</v>
+      </c>
+      <c r="AF212" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:32">
+      <c r="A213" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C213" s="10"/>
+      <c r="D213" s="9">
+        <v>9984</v>
+      </c>
+      <c r="E213" s="9">
+        <v>0</v>
+      </c>
+      <c r="F213" s="11">
+        <v>23000</v>
+      </c>
+      <c r="G213" s="11">
+        <v>4066.73</v>
+      </c>
+      <c r="H213" s="11">
+        <v>93534900</v>
+      </c>
+      <c r="I213" s="11">
+        <v>4065</v>
+      </c>
+      <c r="J213" s="11">
+        <v>93495000</v>
+      </c>
+      <c r="K213" s="11">
+        <v>-39900</v>
+      </c>
+      <c r="L213" s="12">
+        <v>20535801</v>
+      </c>
+      <c r="M213" s="9">
+        <v>0</v>
+      </c>
+      <c r="N213" s="9">
+        <v>0</v>
+      </c>
+      <c r="O213" s="9">
+        <v>0</v>
+      </c>
+      <c r="P213" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q213" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R213" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S213" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T213" s="10"/>
+      <c r="U213" s="9">
+        <v>0</v>
+      </c>
+      <c r="V213" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W213" s="9">
+        <v>926.51</v>
+      </c>
+      <c r="X213" s="12">
+        <v>866619555</v>
+      </c>
+      <c r="Y213" s="9">
+        <v>948.88</v>
+      </c>
+      <c r="Z213" s="12">
+        <v>887155356</v>
+      </c>
+      <c r="AA213" s="12">
+        <v>-378603</v>
+      </c>
+      <c r="AB213" s="12">
+        <v>20914404</v>
+      </c>
+      <c r="AC213" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD213" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE213" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF213" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:32">
+      <c r="A214" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C214" s="10"/>
+      <c r="D214" s="9">
+        <v>6954</v>
+      </c>
+      <c r="E214" s="9">
+        <v>0</v>
+      </c>
+      <c r="F214" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G214" s="11">
+        <v>6568.27</v>
+      </c>
+      <c r="H214" s="11">
+        <v>65682650</v>
+      </c>
+      <c r="I214" s="11">
+        <v>6394</v>
+      </c>
+      <c r="J214" s="11">
+        <v>63940000</v>
+      </c>
+      <c r="K214" s="11">
+        <v>-1742650</v>
+      </c>
+      <c r="L214" s="12">
+        <v>-2177430</v>
+      </c>
+      <c r="M214" s="9">
+        <v>0</v>
+      </c>
+      <c r="N214" s="9">
+        <v>0</v>
+      </c>
+      <c r="O214" s="9">
+        <v>0</v>
+      </c>
+      <c r="P214" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q214" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R214" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S214" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T214" s="10"/>
+      <c r="U214" s="9">
+        <v>0</v>
+      </c>
+      <c r="V214" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W214" s="9">
+        <v>927.01</v>
+      </c>
+      <c r="X214" s="12">
+        <v>608891302</v>
+      </c>
+      <c r="Y214" s="9">
+        <v>948.88</v>
+      </c>
+      <c r="Z214" s="12">
+        <v>606713872</v>
+      </c>
+      <c r="AA214" s="12">
+        <v>-16535657</v>
+      </c>
+      <c r="AB214" s="12">
+        <v>14358227</v>
+      </c>
+      <c r="AC214" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD214" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE214" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF214" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:32">
+      <c r="A215" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C215" s="10"/>
+      <c r="D215" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E215" s="9">
+        <v>0</v>
+      </c>
+      <c r="F215" s="11">
+        <v>38000</v>
+      </c>
+      <c r="G215" s="9">
+        <v>12.58</v>
+      </c>
+      <c r="H215" s="11">
+        <v>478066.6</v>
+      </c>
+      <c r="I215" s="9">
+        <v>12.71</v>
+      </c>
+      <c r="J215" s="11">
+        <v>482980</v>
+      </c>
+      <c r="K215" s="11">
+        <v>4913.3999999999996</v>
+      </c>
+      <c r="L215" s="12">
+        <v>6635261</v>
+      </c>
+      <c r="M215" s="9">
+        <v>0</v>
+      </c>
+      <c r="N215" s="9">
+        <v>0</v>
+      </c>
+      <c r="O215" s="9">
+        <v>0</v>
+      </c>
+      <c r="P215" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q215" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R215" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S215" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="T215" s="10"/>
+      <c r="U215" s="9">
+        <v>0</v>
+      </c>
+      <c r="V215" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W215" s="11">
+        <v>1468.39</v>
+      </c>
+      <c r="X215" s="12">
+        <v>701992995</v>
+      </c>
+      <c r="Y215" s="11">
+        <v>1467.2</v>
+      </c>
+      <c r="Z215" s="12">
+        <v>708628256</v>
+      </c>
+      <c r="AA215" s="12">
+        <v>7208940</v>
+      </c>
+      <c r="AB215" s="12">
+        <v>-573680</v>
+      </c>
+      <c r="AC215" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD215" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE215" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF215" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:32">
+      <c r="A216" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C216" s="10"/>
+      <c r="D216" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="9">
+        <v>0</v>
+      </c>
+      <c r="F216" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G216" s="9">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H216" s="11">
+        <v>482030</v>
+      </c>
+      <c r="I216" s="9">
+        <v>51.06</v>
+      </c>
+      <c r="J216" s="11">
+        <v>510600</v>
+      </c>
+      <c r="K216" s="11">
+        <v>28570</v>
+      </c>
+      <c r="L216" s="12">
+        <v>47461249</v>
+      </c>
+      <c r="M216" s="9">
+        <v>0</v>
+      </c>
+      <c r="N216" s="9">
+        <v>0</v>
+      </c>
+      <c r="O216" s="9">
+        <v>0</v>
+      </c>
+      <c r="P216" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q216" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R216" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S216" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="T216" s="10"/>
+      <c r="U216" s="9">
+        <v>0</v>
+      </c>
+      <c r="V216" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W216" s="11">
+        <v>1455.7</v>
+      </c>
+      <c r="X216" s="12">
+        <v>701691071</v>
+      </c>
+      <c r="Y216" s="11">
+        <v>1467.2</v>
+      </c>
+      <c r="Z216" s="12">
+        <v>749152320</v>
+      </c>
+      <c r="AA216" s="12">
+        <v>41917904</v>
+      </c>
+      <c r="AB216" s="12">
+        <v>5543345</v>
+      </c>
+      <c r="AC216" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD216" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE216" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF216" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:32">
+      <c r="A217" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C217" s="10"/>
+      <c r="D217" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E217" s="9">
+        <v>0</v>
+      </c>
+      <c r="F217" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G217" s="9">
+        <v>34.24</v>
+      </c>
+      <c r="H217" s="11">
+        <v>684800</v>
+      </c>
+      <c r="I217" s="9">
+        <v>34.75</v>
+      </c>
+      <c r="J217" s="11">
+        <v>695000</v>
+      </c>
+      <c r="K217" s="11">
+        <v>10200</v>
+      </c>
+      <c r="L217" s="12">
+        <v>8254400</v>
+      </c>
+      <c r="M217" s="9">
+        <v>0</v>
+      </c>
+      <c r="N217" s="9">
+        <v>0</v>
+      </c>
+      <c r="O217" s="9">
+        <v>0</v>
+      </c>
+      <c r="P217" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q217" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R217" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S217" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="T217" s="10"/>
+      <c r="U217" s="9">
+        <v>0</v>
+      </c>
+      <c r="V217" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W217" s="11">
+        <v>1477</v>
+      </c>
+      <c r="X217" s="12">
+        <v>1011449600</v>
+      </c>
+      <c r="Y217" s="11">
+        <v>1467.2</v>
+      </c>
+      <c r="Z217" s="12">
+        <v>1019704000</v>
+      </c>
+      <c r="AA217" s="12">
+        <v>14965440</v>
+      </c>
+      <c r="AB217" s="12">
+        <v>-6711040</v>
+      </c>
+      <c r="AC217" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD217" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE217" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF217" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:32">
+      <c r="A218" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C218" s="10"/>
+      <c r="D218" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E218" s="9">
+        <v>0</v>
+      </c>
+      <c r="F218" s="11">
+        <v>3000</v>
+      </c>
+      <c r="G218" s="9">
+        <v>247.65</v>
+      </c>
+      <c r="H218" s="11">
+        <v>742950</v>
+      </c>
+      <c r="I218" s="9">
+        <v>248.18</v>
+      </c>
+      <c r="J218" s="11">
+        <v>744540</v>
+      </c>
+      <c r="K218" s="11">
+        <v>1590</v>
+      </c>
+      <c r="L218" s="12">
+        <v>-4948062</v>
+      </c>
+      <c r="M218" s="9">
+        <v>0</v>
+      </c>
+      <c r="N218" s="9">
+        <v>0</v>
+      </c>
+      <c r="O218" s="9">
+        <v>0</v>
+      </c>
+      <c r="P218" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q218" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R218" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S218" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="T218" s="10"/>
+      <c r="U218" s="9">
+        <v>0</v>
+      </c>
+      <c r="V218" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W218" s="11">
+        <v>1477</v>
+      </c>
+      <c r="X218" s="12">
+        <v>1097337150</v>
+      </c>
+      <c r="Y218" s="11">
+        <v>1467.2</v>
+      </c>
+      <c r="Z218" s="12">
+        <v>1092389088</v>
+      </c>
+      <c r="AA218" s="12">
+        <v>2332848</v>
+      </c>
+      <c r="AB218" s="12">
+        <v>-7280910</v>
+      </c>
+      <c r="AC218" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD218" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE218" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF218" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:32">
+      <c r="A219" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C219" s="10"/>
+      <c r="D219" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E219" s="9">
+        <v>0</v>
+      </c>
+      <c r="F219" s="11">
+        <v>83000</v>
+      </c>
+      <c r="G219" s="9">
+        <v>12.374000000000001</v>
+      </c>
+      <c r="H219" s="11">
+        <v>1027042</v>
+      </c>
+      <c r="I219" s="9">
+        <v>9.83</v>
+      </c>
+      <c r="J219" s="11">
+        <v>815890</v>
+      </c>
+      <c r="K219" s="11">
+        <v>-211152</v>
+      </c>
+      <c r="L219" s="12">
+        <v>-287720811</v>
+      </c>
+      <c r="M219" s="9">
+        <v>0</v>
+      </c>
+      <c r="N219" s="9">
+        <v>0</v>
+      </c>
+      <c r="O219" s="9">
+        <v>0</v>
+      </c>
+      <c r="P219" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q219" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R219" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S219" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T219" s="10"/>
+      <c r="U219" s="9">
+        <v>0</v>
+      </c>
+      <c r="V219" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W219" s="11">
+        <v>1445.69</v>
+      </c>
+      <c r="X219" s="12">
+        <v>1484794619</v>
+      </c>
+      <c r="Y219" s="11">
+        <v>1467.2</v>
+      </c>
+      <c r="Z219" s="12">
+        <v>1197073808</v>
+      </c>
+      <c r="AA219" s="12">
+        <v>-309802214</v>
+      </c>
+      <c r="AB219" s="12">
+        <v>22081403</v>
+      </c>
+      <c r="AC219" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD219" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE219" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF219" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:32">
+      <c r="A220" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C220" s="10"/>
+      <c r="D220" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E220" s="9">
+        <v>0</v>
+      </c>
+      <c r="F220" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G220" s="9">
+        <v>44.158999999999999</v>
+      </c>
+      <c r="H220" s="11">
+        <v>441591</v>
+      </c>
+      <c r="I220" s="9">
+        <v>44.63</v>
+      </c>
+      <c r="J220" s="11">
+        <v>446300</v>
+      </c>
+      <c r="K220" s="11">
+        <v>4709</v>
+      </c>
+      <c r="L220" s="12">
+        <v>6379136</v>
+      </c>
+      <c r="M220" s="9">
+        <v>0</v>
+      </c>
+      <c r="N220" s="9">
+        <v>0</v>
+      </c>
+      <c r="O220" s="9">
+        <v>0</v>
+      </c>
+      <c r="P220" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q220" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R220" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S220" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T220" s="10"/>
+      <c r="U220" s="9">
+        <v>0</v>
+      </c>
+      <c r="V220" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W220" s="11">
+        <v>1468.39</v>
+      </c>
+      <c r="X220" s="12">
+        <v>648432224</v>
+      </c>
+      <c r="Y220" s="11">
+        <v>1467.2</v>
+      </c>
+      <c r="Z220" s="12">
+        <v>654811360</v>
+      </c>
+      <c r="AA220" s="12">
+        <v>6909044</v>
+      </c>
+      <c r="AB220" s="12">
+        <v>-529909</v>
+      </c>
+      <c r="AC220" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD220" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE220" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF220" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:32">
+      <c r="A221" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C221" s="10"/>
+      <c r="D221" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E221" s="9">
+        <v>0</v>
+      </c>
+      <c r="F221" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G221" s="9">
+        <v>681.92</v>
+      </c>
+      <c r="H221" s="11">
+        <v>681920</v>
+      </c>
+      <c r="I221" s="9">
+        <v>688.32</v>
+      </c>
+      <c r="J221" s="11">
+        <v>688320</v>
+      </c>
+      <c r="K221" s="11">
+        <v>6400</v>
+      </c>
+      <c r="L221" s="12">
+        <v>31416096</v>
+      </c>
+      <c r="M221" s="11">
+        <v>11310.3</v>
+      </c>
+      <c r="N221" s="11">
+        <v>20010.3</v>
+      </c>
+      <c r="O221" s="11">
+        <v>20010.3</v>
+      </c>
+      <c r="P221" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q221" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R221" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S221" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T221" s="10"/>
+      <c r="U221" s="9">
+        <v>0</v>
+      </c>
+      <c r="V221" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W221" s="11">
+        <v>1434.9</v>
+      </c>
+      <c r="X221" s="12">
+        <v>978487008</v>
+      </c>
+      <c r="Y221" s="11">
+        <v>1467.2</v>
+      </c>
+      <c r="Z221" s="12">
+        <v>1009903104</v>
+      </c>
+      <c r="AA221" s="12">
+        <v>9390080</v>
+      </c>
+      <c r="AB221" s="12">
+        <v>22026016</v>
+      </c>
+      <c r="AC221" s="12">
+        <v>50874524</v>
+      </c>
+      <c r="AD221" s="12">
+        <v>135496504</v>
+      </c>
+      <c r="AE221" s="12">
+        <v>135496504</v>
+      </c>
+      <c r="AF221" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:32">
+      <c r="A222" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C222" s="10"/>
+      <c r="D222" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E222" s="9">
+        <v>0</v>
+      </c>
+      <c r="F222" s="11">
+        <v>4200</v>
+      </c>
+      <c r="G222" s="9">
+        <v>396.31</v>
+      </c>
+      <c r="H222" s="11">
+        <v>1664502</v>
+      </c>
+      <c r="I222" s="9">
+        <v>468.18</v>
+      </c>
+      <c r="J222" s="11">
+        <v>1966356</v>
+      </c>
+      <c r="K222" s="11">
+        <v>301854</v>
+      </c>
+      <c r="L222" s="12">
+        <v>496643604</v>
+      </c>
+      <c r="M222" s="9">
+        <v>0</v>
+      </c>
+      <c r="N222" s="9">
+        <v>0</v>
+      </c>
+      <c r="O222" s="9">
+        <v>0</v>
+      </c>
+      <c r="P222" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q222" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R222" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S222" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T222" s="10"/>
+      <c r="U222" s="9">
+        <v>0</v>
+      </c>
+      <c r="V222" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W222" s="11">
+        <v>1434.89</v>
+      </c>
+      <c r="X222" s="12">
+        <v>2388393919</v>
+      </c>
+      <c r="Y222" s="11">
+        <v>1467.2</v>
+      </c>
+      <c r="Z222" s="12">
+        <v>2885037523</v>
+      </c>
+      <c r="AA222" s="12">
+        <v>442880188</v>
+      </c>
+      <c r="AB222" s="12">
+        <v>53763415</v>
+      </c>
+      <c r="AC222" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD222" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE222" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF222" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:32">
+      <c r="A223" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C223" s="10"/>
+      <c r="D223" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E223" s="9">
+        <v>0</v>
+      </c>
+      <c r="F223" s="11">
+        <v>24000</v>
+      </c>
+      <c r="G223" s="9">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H223" s="11">
+        <v>423736.8</v>
+      </c>
+      <c r="I223" s="9">
+        <v>17.27</v>
+      </c>
+      <c r="J223" s="11">
+        <v>414480</v>
+      </c>
+      <c r="K223" s="11">
+        <v>-9256.7999999999993</v>
+      </c>
+      <c r="L223" s="12">
+        <v>-12267992</v>
+      </c>
+      <c r="M223" s="9">
+        <v>0</v>
+      </c>
+      <c r="N223" s="9">
+        <v>0</v>
+      </c>
+      <c r="O223" s="9">
+        <v>0</v>
+      </c>
+      <c r="P223" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q223" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R223" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S223" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T223" s="10"/>
+      <c r="U223" s="9">
+        <v>0</v>
+      </c>
+      <c r="V223" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W223" s="11">
+        <v>1464.09</v>
+      </c>
+      <c r="X223" s="12">
+        <v>620393048</v>
+      </c>
+      <c r="Y223" s="11">
+        <v>1467.2</v>
+      </c>
+      <c r="Z223" s="12">
+        <v>608125056</v>
+      </c>
+      <c r="AA223" s="12">
+        <v>-13581576</v>
+      </c>
+      <c r="AB223" s="12">
+        <v>1313584</v>
+      </c>
+      <c r="AC223" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD223" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE223" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF223" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:32">
+      <c r="A224" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C224" s="10"/>
+      <c r="D224" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E224" s="9">
+        <v>0</v>
+      </c>
+      <c r="F224" s="11">
+        <v>1400</v>
+      </c>
+      <c r="G224" s="9">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H224" s="11">
+        <v>605554.04</v>
+      </c>
+      <c r="I224" s="9">
+        <v>444.48</v>
+      </c>
+      <c r="J224" s="11">
+        <v>622272</v>
+      </c>
+      <c r="K224" s="11">
+        <v>16717.96</v>
+      </c>
+      <c r="L224" s="12">
+        <v>36881893</v>
+      </c>
+      <c r="M224" s="9">
+        <v>0</v>
+      </c>
+      <c r="N224" s="9">
+        <v>0</v>
+      </c>
+      <c r="O224" s="9">
+        <v>0</v>
+      </c>
+      <c r="P224" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q224" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R224" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S224" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T224" s="10"/>
+      <c r="U224" s="9">
+        <v>0</v>
+      </c>
+      <c r="V224" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W224" s="11">
+        <v>1446.79</v>
+      </c>
+      <c r="X224" s="12">
+        <v>876115585</v>
+      </c>
+      <c r="Y224" s="11">
+        <v>1467.2</v>
+      </c>
+      <c r="Z224" s="12">
+        <v>912997478</v>
+      </c>
+      <c r="AA224" s="12">
+        <v>24528590</v>
+      </c>
+      <c r="AB224" s="12">
+        <v>12353302</v>
+      </c>
+      <c r="AC224" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD224" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE224" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF224" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="225" spans="1:32" ht="18" thickBot="1">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
-      <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
-      <c r="Q225" s="2"/>
-      <c r="R225" s="2"/>
-      <c r="S225" s="2"/>
-      <c r="T225" s="2"/>
-      <c r="U225" s="2"/>
-      <c r="V225" s="2"/>
-      <c r="W225" s="2"/>
-      <c r="X225" s="2"/>
-      <c r="Y225" s="2"/>
-      <c r="Z225" s="2"/>
-      <c r="AA225" s="2"/>
-      <c r="AB225" s="2"/>
-      <c r="AC225" s="2"/>
-      <c r="AD225" s="2"/>
-      <c r="AE225" s="2"/>
-      <c r="AF225" s="2"/>
+      <c r="A225" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C225" s="10"/>
+      <c r="D225" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E225" s="9">
+        <v>0</v>
+      </c>
+      <c r="F225" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G225" s="9">
+        <v>169.042</v>
+      </c>
+      <c r="H225" s="11">
+        <v>591649.80000000005</v>
+      </c>
+      <c r="I225" s="9">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="J225" s="11">
+        <v>557200</v>
+      </c>
+      <c r="K225" s="11">
+        <v>-34449.800000000003</v>
+      </c>
+      <c r="L225" s="12">
+        <v>-38475090</v>
+      </c>
+      <c r="M225" s="9">
+        <v>0</v>
+      </c>
+      <c r="N225" s="9">
+        <v>0</v>
+      </c>
+      <c r="O225" s="9">
+        <v>0</v>
+      </c>
+      <c r="P225" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q225" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R225" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S225" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T225" s="10"/>
+      <c r="U225" s="9">
+        <v>0</v>
+      </c>
+      <c r="V225" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W225" s="11">
+        <v>1446.79</v>
+      </c>
+      <c r="X225" s="12">
+        <v>855998930</v>
+      </c>
+      <c r="Y225" s="11">
+        <v>1467.2</v>
+      </c>
+      <c r="Z225" s="12">
+        <v>817523840</v>
+      </c>
+      <c r="AA225" s="12">
+        <v>-50544746</v>
+      </c>
+      <c r="AB225" s="12">
+        <v>12069656</v>
+      </c>
+      <c r="AC225" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD225" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE225" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF225" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="226" spans="1:32" ht="18" thickBot="1">
       <c r="A226" s="2"/>

--- a/2026_멀티.xlsx
+++ b/2026_멀티.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyejinha/Desktop/Workspace/Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C44EF6-A360-6045-A77B-40D51964A994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7732EA8E-3EA6-8D4A-9E0D-9434C7820681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="97">
   <si>
     <t>기준일자</t>
   </si>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205:AF225"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -21717,7 +21717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:32" ht="18" thickBot="1">
+    <row r="225" spans="1:32">
       <c r="A225" s="8">
         <v>46048</v>
       </c>
@@ -21811,1433 +21811,3945 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:32" ht="18" thickBot="1">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="2"/>
-      <c r="M226" s="2"/>
-      <c r="N226" s="2"/>
-      <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
-      <c r="Q226" s="2"/>
-      <c r="R226" s="2"/>
-      <c r="S226" s="2"/>
-      <c r="T226" s="2"/>
-      <c r="U226" s="2"/>
-      <c r="V226" s="2"/>
-      <c r="W226" s="2"/>
-      <c r="X226" s="2"/>
-      <c r="Y226" s="2"/>
-      <c r="Z226" s="2"/>
-      <c r="AA226" s="2"/>
-      <c r="AB226" s="2"/>
-      <c r="AC226" s="2"/>
-      <c r="AD226" s="2"/>
-      <c r="AE226" s="2"/>
-      <c r="AF226" s="2"/>
-    </row>
-    <row r="227" spans="1:32" ht="18" thickBot="1">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
-      <c r="O227" s="2"/>
-      <c r="P227" s="2"/>
-      <c r="Q227" s="2"/>
-      <c r="R227" s="2"/>
-      <c r="S227" s="2"/>
-      <c r="T227" s="2"/>
-      <c r="U227" s="2"/>
-      <c r="V227" s="2"/>
-      <c r="W227" s="2"/>
-      <c r="X227" s="2"/>
-      <c r="Y227" s="2"/>
-      <c r="Z227" s="2"/>
-      <c r="AA227" s="2"/>
-      <c r="AB227" s="2"/>
-      <c r="AC227" s="2"/>
-      <c r="AD227" s="2"/>
-      <c r="AE227" s="2"/>
-      <c r="AF227" s="2"/>
-    </row>
-    <row r="228" spans="1:32" ht="18" thickBot="1">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
-      <c r="M228" s="2"/>
-      <c r="N228" s="2"/>
-      <c r="O228" s="2"/>
-      <c r="P228" s="2"/>
-      <c r="Q228" s="2"/>
-      <c r="R228" s="2"/>
-      <c r="S228" s="2"/>
-      <c r="T228" s="2"/>
-      <c r="U228" s="2"/>
-      <c r="V228" s="2"/>
-      <c r="W228" s="2"/>
-      <c r="X228" s="2"/>
-      <c r="Y228" s="2"/>
-      <c r="Z228" s="2"/>
-      <c r="AA228" s="2"/>
-      <c r="AB228" s="2"/>
-      <c r="AC228" s="2"/>
-      <c r="AD228" s="2"/>
-      <c r="AE228" s="2"/>
-      <c r="AF228" s="2"/>
-    </row>
-    <row r="229" spans="1:32" ht="18" thickBot="1">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="2"/>
-      <c r="M229" s="2"/>
-      <c r="N229" s="2"/>
-      <c r="O229" s="2"/>
-      <c r="P229" s="2"/>
-      <c r="Q229" s="2"/>
-      <c r="R229" s="2"/>
-      <c r="S229" s="2"/>
-      <c r="T229" s="2"/>
-      <c r="U229" s="2"/>
-      <c r="V229" s="2"/>
-      <c r="W229" s="2"/>
-      <c r="X229" s="2"/>
-      <c r="Y229" s="2"/>
-      <c r="Z229" s="2"/>
-      <c r="AA229" s="2"/>
-      <c r="AB229" s="2"/>
-      <c r="AC229" s="2"/>
-      <c r="AD229" s="2"/>
-      <c r="AE229" s="2"/>
-      <c r="AF229" s="2"/>
-    </row>
-    <row r="230" spans="1:32" ht="18" thickBot="1">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-      <c r="M230" s="2"/>
-      <c r="N230" s="2"/>
-      <c r="O230" s="2"/>
-      <c r="P230" s="2"/>
-      <c r="Q230" s="2"/>
-      <c r="R230" s="2"/>
-      <c r="S230" s="2"/>
-      <c r="T230" s="2"/>
-      <c r="U230" s="2"/>
-      <c r="V230" s="2"/>
-      <c r="W230" s="2"/>
-      <c r="X230" s="2"/>
-      <c r="Y230" s="2"/>
-      <c r="Z230" s="2"/>
-      <c r="AA230" s="2"/>
-      <c r="AB230" s="2"/>
-      <c r="AC230" s="2"/>
-      <c r="AD230" s="2"/>
-      <c r="AE230" s="2"/>
-      <c r="AF230" s="2"/>
-    </row>
-    <row r="231" spans="1:32" ht="18" thickBot="1">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
-      <c r="M231" s="2"/>
-      <c r="N231" s="2"/>
-      <c r="O231" s="2"/>
-      <c r="P231" s="2"/>
-      <c r="Q231" s="2"/>
-      <c r="R231" s="2"/>
-      <c r="S231" s="2"/>
-      <c r="T231" s="2"/>
-      <c r="U231" s="2"/>
-      <c r="V231" s="2"/>
-      <c r="W231" s="2"/>
-      <c r="X231" s="2"/>
-      <c r="Y231" s="2"/>
-      <c r="Z231" s="2"/>
-      <c r="AA231" s="2"/>
-      <c r="AB231" s="2"/>
-      <c r="AC231" s="2"/>
-      <c r="AD231" s="2"/>
-      <c r="AE231" s="2"/>
-      <c r="AF231" s="2"/>
-    </row>
-    <row r="232" spans="1:32" ht="18" thickBot="1">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
-      <c r="N232" s="2"/>
-      <c r="O232" s="2"/>
-      <c r="P232" s="2"/>
-      <c r="Q232" s="2"/>
-      <c r="R232" s="2"/>
-      <c r="S232" s="2"/>
-      <c r="T232" s="2"/>
-      <c r="U232" s="2"/>
-      <c r="V232" s="2"/>
-      <c r="W232" s="2"/>
-      <c r="X232" s="2"/>
-      <c r="Y232" s="2"/>
-      <c r="Z232" s="2"/>
-      <c r="AA232" s="2"/>
-      <c r="AB232" s="2"/>
-      <c r="AC232" s="2"/>
-      <c r="AD232" s="2"/>
-      <c r="AE232" s="2"/>
-      <c r="AF232" s="2"/>
-    </row>
-    <row r="233" spans="1:32" ht="18" thickBot="1">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="M233" s="2"/>
-      <c r="N233" s="2"/>
-      <c r="O233" s="2"/>
-      <c r="P233" s="2"/>
-      <c r="Q233" s="2"/>
-      <c r="R233" s="2"/>
-      <c r="S233" s="2"/>
-      <c r="T233" s="2"/>
-      <c r="U233" s="2"/>
-      <c r="V233" s="2"/>
-      <c r="W233" s="2"/>
-      <c r="X233" s="2"/>
-      <c r="Y233" s="2"/>
-      <c r="Z233" s="2"/>
-      <c r="AA233" s="2"/>
-      <c r="AB233" s="2"/>
-      <c r="AC233" s="2"/>
-      <c r="AD233" s="2"/>
-      <c r="AE233" s="2"/>
-      <c r="AF233" s="2"/>
-    </row>
-    <row r="234" spans="1:32" ht="18" thickBot="1">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
-      <c r="M234" s="2"/>
-      <c r="N234" s="2"/>
-      <c r="O234" s="2"/>
-      <c r="P234" s="2"/>
-      <c r="Q234" s="2"/>
-      <c r="R234" s="2"/>
-      <c r="S234" s="2"/>
-      <c r="T234" s="2"/>
-      <c r="U234" s="2"/>
-      <c r="V234" s="2"/>
-      <c r="W234" s="2"/>
-      <c r="X234" s="2"/>
-      <c r="Y234" s="2"/>
-      <c r="Z234" s="2"/>
-      <c r="AA234" s="2"/>
-      <c r="AB234" s="2"/>
-      <c r="AC234" s="2"/>
-      <c r="AD234" s="2"/>
-      <c r="AE234" s="2"/>
-      <c r="AF234" s="2"/>
-    </row>
-    <row r="235" spans="1:32" ht="18" thickBot="1">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
-      <c r="M235" s="2"/>
-      <c r="N235" s="2"/>
-      <c r="O235" s="2"/>
-      <c r="P235" s="2"/>
-      <c r="Q235" s="2"/>
-      <c r="R235" s="2"/>
-      <c r="S235" s="2"/>
-      <c r="T235" s="2"/>
-      <c r="U235" s="2"/>
-      <c r="V235" s="2"/>
-      <c r="W235" s="2"/>
-      <c r="X235" s="2"/>
-      <c r="Y235" s="2"/>
-      <c r="Z235" s="2"/>
-      <c r="AA235" s="2"/>
-      <c r="AB235" s="2"/>
-      <c r="AC235" s="2"/>
-      <c r="AD235" s="2"/>
-      <c r="AE235" s="2"/>
-      <c r="AF235" s="2"/>
-    </row>
-    <row r="236" spans="1:32" ht="18" thickBot="1">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="2"/>
-      <c r="J236" s="2"/>
-      <c r="K236" s="2"/>
-      <c r="L236" s="2"/>
-      <c r="M236" s="2"/>
-      <c r="N236" s="2"/>
-      <c r="O236" s="2"/>
-      <c r="P236" s="2"/>
-      <c r="Q236" s="2"/>
-      <c r="R236" s="2"/>
-      <c r="S236" s="2"/>
-      <c r="T236" s="2"/>
-      <c r="U236" s="2"/>
-      <c r="V236" s="2"/>
-      <c r="W236" s="2"/>
-      <c r="X236" s="2"/>
-      <c r="Y236" s="2"/>
-      <c r="Z236" s="2"/>
-      <c r="AA236" s="2"/>
-      <c r="AB236" s="2"/>
-      <c r="AC236" s="2"/>
-      <c r="AD236" s="2"/>
-      <c r="AE236" s="2"/>
-      <c r="AF236" s="2"/>
-    </row>
-    <row r="237" spans="1:32" ht="18" thickBot="1">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="2"/>
-      <c r="K237" s="2"/>
-      <c r="L237" s="2"/>
-      <c r="M237" s="2"/>
-      <c r="N237" s="2"/>
-      <c r="O237" s="2"/>
-      <c r="P237" s="2"/>
-      <c r="Q237" s="2"/>
-      <c r="R237" s="2"/>
-      <c r="S237" s="2"/>
-      <c r="T237" s="2"/>
-      <c r="U237" s="2"/>
-      <c r="V237" s="2"/>
-      <c r="W237" s="2"/>
-      <c r="X237" s="2"/>
-      <c r="Y237" s="2"/>
-      <c r="Z237" s="2"/>
-      <c r="AA237" s="2"/>
-      <c r="AB237" s="2"/>
-      <c r="AC237" s="2"/>
-      <c r="AD237" s="2"/>
-      <c r="AE237" s="2"/>
-      <c r="AF237" s="2"/>
-    </row>
-    <row r="238" spans="1:32" ht="18" thickBot="1">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
-      <c r="J238" s="2"/>
-      <c r="K238" s="2"/>
-      <c r="L238" s="2"/>
-      <c r="M238" s="2"/>
-      <c r="N238" s="2"/>
-      <c r="O238" s="2"/>
-      <c r="P238" s="2"/>
-      <c r="Q238" s="2"/>
-      <c r="R238" s="2"/>
-      <c r="S238" s="2"/>
-      <c r="T238" s="2"/>
-      <c r="U238" s="2"/>
-      <c r="V238" s="2"/>
-      <c r="W238" s="2"/>
-      <c r="X238" s="2"/>
-      <c r="Y238" s="2"/>
-      <c r="Z238" s="2"/>
-      <c r="AA238" s="2"/>
-      <c r="AB238" s="2"/>
-      <c r="AC238" s="2"/>
-      <c r="AD238" s="2"/>
-      <c r="AE238" s="2"/>
-      <c r="AF238" s="2"/>
-    </row>
-    <row r="239" spans="1:32" ht="18" thickBot="1">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2"/>
-      <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
-      <c r="M239" s="2"/>
-      <c r="N239" s="2"/>
-      <c r="O239" s="2"/>
-      <c r="P239" s="2"/>
-      <c r="Q239" s="2"/>
-      <c r="R239" s="2"/>
-      <c r="S239" s="2"/>
-      <c r="T239" s="2"/>
-      <c r="U239" s="2"/>
-      <c r="V239" s="2"/>
-      <c r="W239" s="2"/>
-      <c r="X239" s="2"/>
-      <c r="Y239" s="2"/>
-      <c r="Z239" s="2"/>
-      <c r="AA239" s="2"/>
-      <c r="AB239" s="2"/>
-      <c r="AC239" s="2"/>
-      <c r="AD239" s="2"/>
-      <c r="AE239" s="2"/>
-      <c r="AF239" s="2"/>
-    </row>
-    <row r="240" spans="1:32" ht="18" thickBot="1">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2"/>
-      <c r="K240" s="2"/>
-      <c r="L240" s="2"/>
-      <c r="M240" s="2"/>
-      <c r="N240" s="2"/>
-      <c r="O240" s="2"/>
-      <c r="P240" s="2"/>
-      <c r="Q240" s="2"/>
-      <c r="R240" s="2"/>
-      <c r="S240" s="2"/>
-      <c r="T240" s="2"/>
-      <c r="U240" s="2"/>
-      <c r="V240" s="2"/>
-      <c r="W240" s="2"/>
-      <c r="X240" s="2"/>
-      <c r="Y240" s="2"/>
-      <c r="Z240" s="2"/>
-      <c r="AA240" s="2"/>
-      <c r="AB240" s="2"/>
-      <c r="AC240" s="2"/>
-      <c r="AD240" s="2"/>
-      <c r="AE240" s="2"/>
-      <c r="AF240" s="2"/>
-    </row>
-    <row r="241" spans="1:32" ht="18" thickBot="1">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="2"/>
-      <c r="K241" s="2"/>
-      <c r="L241" s="2"/>
-      <c r="M241" s="2"/>
-      <c r="N241" s="2"/>
-      <c r="O241" s="2"/>
-      <c r="P241" s="2"/>
-      <c r="Q241" s="2"/>
-      <c r="R241" s="2"/>
-      <c r="S241" s="2"/>
-      <c r="T241" s="2"/>
-      <c r="U241" s="2"/>
-      <c r="V241" s="2"/>
-      <c r="W241" s="2"/>
-      <c r="X241" s="2"/>
-      <c r="Y241" s="2"/>
-      <c r="Z241" s="2"/>
-      <c r="AA241" s="2"/>
-      <c r="AB241" s="2"/>
-      <c r="AC241" s="2"/>
-      <c r="AD241" s="2"/>
-      <c r="AE241" s="2"/>
-      <c r="AF241" s="2"/>
-    </row>
-    <row r="242" spans="1:32" ht="18" thickBot="1">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="2"/>
-      <c r="K242" s="2"/>
-      <c r="L242" s="2"/>
-      <c r="M242" s="2"/>
-      <c r="N242" s="2"/>
-      <c r="O242" s="2"/>
-      <c r="P242" s="2"/>
-      <c r="Q242" s="2"/>
-      <c r="R242" s="2"/>
-      <c r="S242" s="2"/>
-      <c r="T242" s="2"/>
-      <c r="U242" s="2"/>
-      <c r="V242" s="2"/>
-      <c r="W242" s="2"/>
-      <c r="X242" s="2"/>
-      <c r="Y242" s="2"/>
-      <c r="Z242" s="2"/>
-      <c r="AA242" s="2"/>
-      <c r="AB242" s="2"/>
-      <c r="AC242" s="2"/>
-      <c r="AD242" s="2"/>
-      <c r="AE242" s="2"/>
-      <c r="AF242" s="2"/>
-    </row>
-    <row r="243" spans="1:32" ht="18" thickBot="1">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
-      <c r="J243" s="2"/>
-      <c r="K243" s="2"/>
-      <c r="L243" s="2"/>
-      <c r="M243" s="2"/>
-      <c r="N243" s="2"/>
-      <c r="O243" s="2"/>
-      <c r="P243" s="2"/>
-      <c r="Q243" s="2"/>
-      <c r="R243" s="2"/>
-      <c r="S243" s="2"/>
-      <c r="T243" s="2"/>
-      <c r="U243" s="2"/>
-      <c r="V243" s="2"/>
-      <c r="W243" s="2"/>
-      <c r="X243" s="2"/>
-      <c r="Y243" s="2"/>
-      <c r="Z243" s="2"/>
-      <c r="AA243" s="2"/>
-      <c r="AB243" s="2"/>
-      <c r="AC243" s="2"/>
-      <c r="AD243" s="2"/>
-      <c r="AE243" s="2"/>
-      <c r="AF243" s="2"/>
-    </row>
-    <row r="244" spans="1:32" ht="18" thickBot="1">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="2"/>
-      <c r="J244" s="2"/>
-      <c r="K244" s="2"/>
-      <c r="L244" s="2"/>
-      <c r="M244" s="2"/>
-      <c r="N244" s="2"/>
-      <c r="O244" s="2"/>
-      <c r="P244" s="2"/>
-      <c r="Q244" s="2"/>
-      <c r="R244" s="2"/>
-      <c r="S244" s="2"/>
-      <c r="T244" s="2"/>
-      <c r="U244" s="2"/>
-      <c r="V244" s="2"/>
-      <c r="W244" s="2"/>
-      <c r="X244" s="2"/>
-      <c r="Y244" s="2"/>
-      <c r="Z244" s="2"/>
-      <c r="AA244" s="2"/>
-      <c r="AB244" s="2"/>
-      <c r="AC244" s="2"/>
-      <c r="AD244" s="2"/>
-      <c r="AE244" s="2"/>
-      <c r="AF244" s="2"/>
-    </row>
-    <row r="245" spans="1:32" ht="18" thickBot="1">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="2"/>
-      <c r="J245" s="2"/>
-      <c r="K245" s="2"/>
-      <c r="L245" s="2"/>
-      <c r="M245" s="2"/>
-      <c r="N245" s="2"/>
-      <c r="O245" s="2"/>
-      <c r="P245" s="2"/>
-      <c r="Q245" s="2"/>
-      <c r="R245" s="2"/>
-      <c r="S245" s="2"/>
-      <c r="T245" s="2"/>
-      <c r="U245" s="2"/>
-      <c r="V245" s="2"/>
-      <c r="W245" s="2"/>
-      <c r="X245" s="2"/>
-      <c r="Y245" s="2"/>
-      <c r="Z245" s="2"/>
-      <c r="AA245" s="2"/>
-      <c r="AB245" s="2"/>
-      <c r="AC245" s="2"/>
-      <c r="AD245" s="2"/>
-      <c r="AE245" s="2"/>
-      <c r="AF245" s="2"/>
-    </row>
-    <row r="246" spans="1:32" ht="18" thickBot="1">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2"/>
-      <c r="L246" s="2"/>
-      <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
-      <c r="O246" s="2"/>
-      <c r="P246" s="2"/>
-      <c r="Q246" s="2"/>
-      <c r="R246" s="2"/>
-      <c r="S246" s="2"/>
-      <c r="T246" s="2"/>
-      <c r="U246" s="2"/>
-      <c r="V246" s="2"/>
-      <c r="W246" s="2"/>
-      <c r="X246" s="2"/>
-      <c r="Y246" s="2"/>
-      <c r="Z246" s="2"/>
-      <c r="AA246" s="2"/>
-      <c r="AB246" s="2"/>
-      <c r="AC246" s="2"/>
-      <c r="AD246" s="2"/>
-      <c r="AE246" s="2"/>
-      <c r="AF246" s="2"/>
-    </row>
-    <row r="247" spans="1:32" ht="18" thickBot="1">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="2"/>
-      <c r="J247" s="2"/>
-      <c r="K247" s="2"/>
-      <c r="L247" s="2"/>
-      <c r="M247" s="2"/>
-      <c r="N247" s="2"/>
-      <c r="O247" s="2"/>
-      <c r="P247" s="2"/>
-      <c r="Q247" s="2"/>
-      <c r="R247" s="2"/>
-      <c r="S247" s="2"/>
-      <c r="T247" s="2"/>
-      <c r="U247" s="2"/>
-      <c r="V247" s="2"/>
-      <c r="W247" s="2"/>
-      <c r="X247" s="2"/>
-      <c r="Y247" s="2"/>
-      <c r="Z247" s="2"/>
-      <c r="AA247" s="2"/>
-      <c r="AB247" s="2"/>
-      <c r="AC247" s="2"/>
-      <c r="AD247" s="2"/>
-      <c r="AE247" s="2"/>
-      <c r="AF247" s="2"/>
-    </row>
-    <row r="248" spans="1:32" ht="18" thickBot="1">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2"/>
-      <c r="I248" s="2"/>
-      <c r="J248" s="2"/>
-      <c r="K248" s="2"/>
-      <c r="L248" s="2"/>
-      <c r="M248" s="2"/>
-      <c r="N248" s="2"/>
-      <c r="O248" s="2"/>
-      <c r="P248" s="2"/>
-      <c r="Q248" s="2"/>
-      <c r="R248" s="2"/>
-      <c r="S248" s="2"/>
-      <c r="T248" s="2"/>
-      <c r="U248" s="2"/>
-      <c r="V248" s="2"/>
-      <c r="W248" s="2"/>
-      <c r="X248" s="2"/>
-      <c r="Y248" s="2"/>
-      <c r="Z248" s="2"/>
-      <c r="AA248" s="2"/>
-      <c r="AB248" s="2"/>
-      <c r="AC248" s="2"/>
-      <c r="AD248" s="2"/>
-      <c r="AE248" s="2"/>
-      <c r="AF248" s="2"/>
-    </row>
-    <row r="249" spans="1:32" ht="18" thickBot="1">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2"/>
-      <c r="I249" s="2"/>
-      <c r="J249" s="2"/>
-      <c r="K249" s="2"/>
-      <c r="L249" s="2"/>
-      <c r="M249" s="2"/>
-      <c r="N249" s="2"/>
-      <c r="O249" s="2"/>
-      <c r="P249" s="2"/>
-      <c r="Q249" s="2"/>
-      <c r="R249" s="2"/>
-      <c r="S249" s="2"/>
-      <c r="T249" s="2"/>
-      <c r="U249" s="2"/>
-      <c r="V249" s="2"/>
-      <c r="W249" s="2"/>
-      <c r="X249" s="2"/>
-      <c r="Y249" s="2"/>
-      <c r="Z249" s="2"/>
-      <c r="AA249" s="2"/>
-      <c r="AB249" s="2"/>
-      <c r="AC249" s="2"/>
-      <c r="AD249" s="2"/>
-      <c r="AE249" s="2"/>
-      <c r="AF249" s="2"/>
-    </row>
-    <row r="250" spans="1:32" ht="18" thickBot="1">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
-      <c r="J250" s="2"/>
-      <c r="K250" s="2"/>
-      <c r="L250" s="2"/>
-      <c r="M250" s="2"/>
-      <c r="N250" s="2"/>
-      <c r="O250" s="2"/>
-      <c r="P250" s="2"/>
-      <c r="Q250" s="2"/>
-      <c r="R250" s="2"/>
-      <c r="S250" s="2"/>
-      <c r="T250" s="2"/>
-      <c r="U250" s="2"/>
-      <c r="V250" s="2"/>
-      <c r="W250" s="2"/>
-      <c r="X250" s="2"/>
-      <c r="Y250" s="2"/>
-      <c r="Z250" s="2"/>
-      <c r="AA250" s="2"/>
-      <c r="AB250" s="2"/>
-      <c r="AC250" s="2"/>
-      <c r="AD250" s="2"/>
-      <c r="AE250" s="2"/>
-      <c r="AF250" s="2"/>
-    </row>
-    <row r="251" spans="1:32" ht="18" thickBot="1">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2"/>
-      <c r="K251" s="2"/>
-      <c r="L251" s="2"/>
-      <c r="M251" s="2"/>
-      <c r="N251" s="2"/>
-      <c r="O251" s="2"/>
-      <c r="P251" s="2"/>
-      <c r="Q251" s="2"/>
-      <c r="R251" s="2"/>
-      <c r="S251" s="2"/>
-      <c r="T251" s="2"/>
-      <c r="U251" s="2"/>
-      <c r="V251" s="2"/>
-      <c r="W251" s="2"/>
-      <c r="X251" s="2"/>
-      <c r="Y251" s="2"/>
-      <c r="Z251" s="2"/>
-      <c r="AA251" s="2"/>
-      <c r="AB251" s="2"/>
-      <c r="AC251" s="2"/>
-      <c r="AD251" s="2"/>
-      <c r="AE251" s="2"/>
-      <c r="AF251" s="2"/>
-    </row>
-    <row r="252" spans="1:32" ht="18" thickBot="1">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="2"/>
-      <c r="J252" s="2"/>
-      <c r="K252" s="2"/>
-      <c r="L252" s="2"/>
-      <c r="M252" s="2"/>
-      <c r="N252" s="2"/>
-      <c r="O252" s="2"/>
-      <c r="P252" s="2"/>
-      <c r="Q252" s="2"/>
-      <c r="R252" s="2"/>
-      <c r="S252" s="2"/>
-      <c r="T252" s="2"/>
-      <c r="U252" s="2"/>
-      <c r="V252" s="2"/>
-      <c r="W252" s="2"/>
-      <c r="X252" s="2"/>
-      <c r="Y252" s="2"/>
-      <c r="Z252" s="2"/>
-      <c r="AA252" s="2"/>
-      <c r="AB252" s="2"/>
-      <c r="AC252" s="2"/>
-      <c r="AD252" s="2"/>
-      <c r="AE252" s="2"/>
-      <c r="AF252" s="2"/>
-    </row>
-    <row r="253" spans="1:32" ht="18" thickBot="1">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="2"/>
-      <c r="J253" s="2"/>
-      <c r="K253" s="2"/>
-      <c r="L253" s="2"/>
-      <c r="M253" s="2"/>
-      <c r="N253" s="2"/>
-      <c r="O253" s="2"/>
-      <c r="P253" s="2"/>
-      <c r="Q253" s="2"/>
-      <c r="R253" s="2"/>
-      <c r="S253" s="2"/>
-      <c r="T253" s="2"/>
-      <c r="U253" s="2"/>
-      <c r="V253" s="2"/>
-      <c r="W253" s="2"/>
-      <c r="X253" s="2"/>
-      <c r="Y253" s="2"/>
-      <c r="Z253" s="2"/>
-      <c r="AA253" s="2"/>
-      <c r="AB253" s="2"/>
-      <c r="AC253" s="2"/>
-      <c r="AD253" s="2"/>
-      <c r="AE253" s="2"/>
-      <c r="AF253" s="2"/>
-    </row>
-    <row r="254" spans="1:32" ht="18" thickBot="1">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
-      <c r="J254" s="2"/>
-      <c r="K254" s="2"/>
-      <c r="L254" s="2"/>
-      <c r="M254" s="2"/>
-      <c r="N254" s="2"/>
-      <c r="O254" s="2"/>
-      <c r="P254" s="2"/>
-      <c r="Q254" s="2"/>
-      <c r="R254" s="2"/>
-      <c r="S254" s="2"/>
-      <c r="T254" s="2"/>
-      <c r="U254" s="2"/>
-      <c r="V254" s="2"/>
-      <c r="W254" s="2"/>
-      <c r="X254" s="2"/>
-      <c r="Y254" s="2"/>
-      <c r="Z254" s="2"/>
-      <c r="AA254" s="2"/>
-      <c r="AB254" s="2"/>
-      <c r="AC254" s="2"/>
-      <c r="AD254" s="2"/>
-      <c r="AE254" s="2"/>
-      <c r="AF254" s="2"/>
-    </row>
-    <row r="255" spans="1:32" ht="18" thickBot="1">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
-      <c r="J255" s="2"/>
-      <c r="K255" s="2"/>
-      <c r="L255" s="2"/>
-      <c r="M255" s="2"/>
-      <c r="N255" s="2"/>
-      <c r="O255" s="2"/>
-      <c r="P255" s="2"/>
-      <c r="Q255" s="2"/>
-      <c r="R255" s="2"/>
-      <c r="S255" s="2"/>
-      <c r="T255" s="2"/>
-      <c r="U255" s="2"/>
-      <c r="V255" s="2"/>
-      <c r="W255" s="2"/>
-      <c r="X255" s="2"/>
-      <c r="Y255" s="2"/>
-      <c r="Z255" s="2"/>
-      <c r="AA255" s="2"/>
-      <c r="AB255" s="2"/>
-      <c r="AC255" s="2"/>
-      <c r="AD255" s="2"/>
-      <c r="AE255" s="2"/>
-      <c r="AF255" s="2"/>
-    </row>
-    <row r="256" spans="1:32" ht="18" thickBot="1">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
-      <c r="J256" s="2"/>
-      <c r="K256" s="2"/>
-      <c r="L256" s="2"/>
-      <c r="M256" s="2"/>
-      <c r="N256" s="2"/>
-      <c r="O256" s="2"/>
-      <c r="P256" s="2"/>
-      <c r="Q256" s="2"/>
-      <c r="R256" s="2"/>
-      <c r="S256" s="2"/>
-      <c r="T256" s="2"/>
-      <c r="U256" s="2"/>
-      <c r="V256" s="2"/>
-      <c r="W256" s="2"/>
-      <c r="X256" s="2"/>
-      <c r="Y256" s="2"/>
-      <c r="Z256" s="2"/>
-      <c r="AA256" s="2"/>
-      <c r="AB256" s="2"/>
-      <c r="AC256" s="2"/>
-      <c r="AD256" s="2"/>
-      <c r="AE256" s="2"/>
-      <c r="AF256" s="2"/>
-    </row>
-    <row r="257" spans="1:32" ht="18" thickBot="1">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-      <c r="I257" s="2"/>
-      <c r="J257" s="2"/>
-      <c r="K257" s="2"/>
-      <c r="L257" s="2"/>
-      <c r="M257" s="2"/>
-      <c r="N257" s="2"/>
-      <c r="O257" s="2"/>
-      <c r="P257" s="2"/>
-      <c r="Q257" s="2"/>
-      <c r="R257" s="2"/>
-      <c r="S257" s="2"/>
-      <c r="T257" s="2"/>
-      <c r="U257" s="2"/>
-      <c r="V257" s="2"/>
-      <c r="W257" s="2"/>
-      <c r="X257" s="2"/>
-      <c r="Y257" s="2"/>
-      <c r="Z257" s="2"/>
-      <c r="AA257" s="2"/>
-      <c r="AB257" s="2"/>
-      <c r="AC257" s="2"/>
-      <c r="AD257" s="2"/>
-      <c r="AE257" s="2"/>
-      <c r="AF257" s="2"/>
-    </row>
-    <row r="258" spans="1:32" ht="18" thickBot="1">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2"/>
-      <c r="I258" s="2"/>
-      <c r="J258" s="2"/>
-      <c r="K258" s="2"/>
-      <c r="L258" s="2"/>
-      <c r="M258" s="2"/>
-      <c r="N258" s="2"/>
-      <c r="O258" s="2"/>
-      <c r="P258" s="2"/>
-      <c r="Q258" s="2"/>
-      <c r="R258" s="2"/>
-      <c r="S258" s="2"/>
-      <c r="T258" s="2"/>
-      <c r="U258" s="2"/>
-      <c r="V258" s="2"/>
-      <c r="W258" s="2"/>
-      <c r="X258" s="2"/>
-      <c r="Y258" s="2"/>
-      <c r="Z258" s="2"/>
-      <c r="AA258" s="2"/>
-      <c r="AB258" s="2"/>
-      <c r="AC258" s="2"/>
-      <c r="AD258" s="2"/>
-      <c r="AE258" s="2"/>
-      <c r="AF258" s="2"/>
-    </row>
-    <row r="259" spans="1:32" ht="18" thickBot="1">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
-      <c r="G259" s="2"/>
-      <c r="H259" s="2"/>
-      <c r="I259" s="2"/>
-      <c r="J259" s="2"/>
-      <c r="K259" s="2"/>
-      <c r="L259" s="2"/>
-      <c r="M259" s="2"/>
-      <c r="N259" s="2"/>
-      <c r="O259" s="2"/>
-      <c r="P259" s="2"/>
-      <c r="Q259" s="2"/>
-      <c r="R259" s="2"/>
-      <c r="S259" s="2"/>
-      <c r="T259" s="2"/>
-      <c r="U259" s="2"/>
-      <c r="V259" s="2"/>
-      <c r="W259" s="2"/>
-      <c r="X259" s="2"/>
-      <c r="Y259" s="2"/>
-      <c r="Z259" s="2"/>
-      <c r="AA259" s="2"/>
-      <c r="AB259" s="2"/>
-      <c r="AC259" s="2"/>
-      <c r="AD259" s="2"/>
-      <c r="AE259" s="2"/>
-      <c r="AF259" s="2"/>
-    </row>
-    <row r="260" spans="1:32" ht="18" thickBot="1">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2"/>
-      <c r="I260" s="2"/>
-      <c r="J260" s="2"/>
-      <c r="K260" s="2"/>
-      <c r="L260" s="2"/>
-      <c r="M260" s="2"/>
-      <c r="N260" s="2"/>
-      <c r="O260" s="2"/>
-      <c r="P260" s="2"/>
-      <c r="Q260" s="2"/>
-      <c r="R260" s="2"/>
-      <c r="S260" s="2"/>
-      <c r="T260" s="2"/>
-      <c r="U260" s="2"/>
-      <c r="V260" s="2"/>
-      <c r="W260" s="2"/>
-      <c r="X260" s="2"/>
-      <c r="Y260" s="2"/>
-      <c r="Z260" s="2"/>
-      <c r="AA260" s="2"/>
-      <c r="AB260" s="2"/>
-      <c r="AC260" s="2"/>
-      <c r="AD260" s="2"/>
-      <c r="AE260" s="2"/>
-      <c r="AF260" s="2"/>
-    </row>
-    <row r="261" spans="1:32" ht="18" thickBot="1">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
-      <c r="G261" s="2"/>
-      <c r="H261" s="2"/>
-      <c r="I261" s="2"/>
-      <c r="J261" s="2"/>
-      <c r="K261" s="2"/>
-      <c r="L261" s="2"/>
-      <c r="M261" s="2"/>
-      <c r="N261" s="2"/>
-      <c r="O261" s="2"/>
-      <c r="P261" s="2"/>
-      <c r="Q261" s="2"/>
-      <c r="R261" s="2"/>
-      <c r="S261" s="2"/>
-      <c r="T261" s="2"/>
-      <c r="U261" s="2"/>
-      <c r="V261" s="2"/>
-      <c r="W261" s="2"/>
-      <c r="X261" s="2"/>
-      <c r="Y261" s="2"/>
-      <c r="Z261" s="2"/>
-      <c r="AA261" s="2"/>
-      <c r="AB261" s="2"/>
-      <c r="AC261" s="2"/>
-      <c r="AD261" s="2"/>
-      <c r="AE261" s="2"/>
-      <c r="AF261" s="2"/>
-    </row>
-    <row r="262" spans="1:32" ht="18" thickBot="1">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
-      <c r="J262" s="2"/>
-      <c r="K262" s="2"/>
-      <c r="L262" s="2"/>
-      <c r="M262" s="2"/>
-      <c r="N262" s="2"/>
-      <c r="O262" s="2"/>
-      <c r="P262" s="2"/>
-      <c r="Q262" s="2"/>
-      <c r="R262" s="2"/>
-      <c r="S262" s="2"/>
-      <c r="T262" s="2"/>
-      <c r="U262" s="2"/>
-      <c r="V262" s="2"/>
-      <c r="W262" s="2"/>
-      <c r="X262" s="2"/>
-      <c r="Y262" s="2"/>
-      <c r="Z262" s="2"/>
-      <c r="AA262" s="2"/>
-      <c r="AB262" s="2"/>
-      <c r="AC262" s="2"/>
-      <c r="AD262" s="2"/>
-      <c r="AE262" s="2"/>
-      <c r="AF262" s="2"/>
-    </row>
-    <row r="263" spans="1:32" ht="18" thickBot="1">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2"/>
-      <c r="K263" s="2"/>
-      <c r="L263" s="2"/>
-      <c r="M263" s="2"/>
-      <c r="N263" s="2"/>
-      <c r="O263" s="2"/>
-      <c r="P263" s="2"/>
-      <c r="Q263" s="2"/>
-      <c r="R263" s="2"/>
-      <c r="S263" s="2"/>
-      <c r="T263" s="2"/>
-      <c r="U263" s="2"/>
-      <c r="V263" s="2"/>
-      <c r="W263" s="2"/>
-      <c r="X263" s="2"/>
-      <c r="Y263" s="2"/>
-      <c r="Z263" s="2"/>
-      <c r="AA263" s="2"/>
-      <c r="AB263" s="2"/>
-      <c r="AC263" s="2"/>
-      <c r="AD263" s="2"/>
-      <c r="AE263" s="2"/>
-      <c r="AF263" s="2"/>
-    </row>
-    <row r="264" spans="1:32" ht="18" thickBot="1">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2"/>
-      <c r="K264" s="2"/>
-      <c r="L264" s="2"/>
-      <c r="M264" s="2"/>
-      <c r="N264" s="2"/>
-      <c r="O264" s="2"/>
-      <c r="P264" s="2"/>
-      <c r="Q264" s="2"/>
-      <c r="R264" s="2"/>
-      <c r="S264" s="2"/>
-      <c r="T264" s="2"/>
-      <c r="U264" s="2"/>
-      <c r="V264" s="2"/>
-      <c r="W264" s="2"/>
-      <c r="X264" s="2"/>
-      <c r="Y264" s="2"/>
-      <c r="Z264" s="2"/>
-      <c r="AA264" s="2"/>
-      <c r="AB264" s="2"/>
-      <c r="AC264" s="2"/>
-      <c r="AD264" s="2"/>
-      <c r="AE264" s="2"/>
-      <c r="AF264" s="2"/>
-    </row>
-    <row r="265" spans="1:32" ht="18" thickBot="1">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
-      <c r="J265" s="2"/>
-      <c r="K265" s="2"/>
-      <c r="L265" s="2"/>
-      <c r="M265" s="2"/>
-      <c r="N265" s="2"/>
-      <c r="O265" s="2"/>
-      <c r="P265" s="2"/>
-      <c r="Q265" s="2"/>
-      <c r="R265" s="2"/>
-      <c r="S265" s="2"/>
-      <c r="T265" s="2"/>
-      <c r="U265" s="2"/>
-      <c r="V265" s="2"/>
-      <c r="W265" s="2"/>
-      <c r="X265" s="2"/>
-      <c r="Y265" s="2"/>
-      <c r="Z265" s="2"/>
-      <c r="AA265" s="2"/>
-      <c r="AB265" s="2"/>
-      <c r="AC265" s="2"/>
-      <c r="AD265" s="2"/>
-      <c r="AE265" s="2"/>
-      <c r="AF265" s="2"/>
-    </row>
-    <row r="266" spans="1:32" ht="18" thickBot="1">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
-      <c r="J266" s="2"/>
-      <c r="K266" s="2"/>
-      <c r="L266" s="2"/>
-      <c r="M266" s="2"/>
-      <c r="N266" s="2"/>
-      <c r="O266" s="2"/>
-      <c r="P266" s="2"/>
-      <c r="Q266" s="2"/>
-      <c r="R266" s="2"/>
-      <c r="S266" s="2"/>
-      <c r="T266" s="2"/>
-      <c r="U266" s="2"/>
-      <c r="V266" s="2"/>
-      <c r="W266" s="2"/>
-      <c r="X266" s="2"/>
-      <c r="Y266" s="2"/>
-      <c r="Z266" s="2"/>
-      <c r="AA266" s="2"/>
-      <c r="AB266" s="2"/>
-      <c r="AC266" s="2"/>
-      <c r="AD266" s="2"/>
-      <c r="AE266" s="2"/>
-      <c r="AF266" s="2"/>
+    <row r="226" spans="1:32">
+      <c r="A226" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C226" s="10"/>
+      <c r="D226" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E226" s="9">
+        <v>0</v>
+      </c>
+      <c r="F226" s="11">
+        <v>38000</v>
+      </c>
+      <c r="G226" s="9">
+        <v>12.58</v>
+      </c>
+      <c r="H226" s="11">
+        <v>478066.6</v>
+      </c>
+      <c r="I226" s="9">
+        <v>12.78</v>
+      </c>
+      <c r="J226" s="11">
+        <v>485640</v>
+      </c>
+      <c r="K226" s="11">
+        <v>7573.4</v>
+      </c>
+      <c r="L226" s="12">
+        <v>-1311603</v>
+      </c>
+      <c r="M226" s="9">
+        <v>0</v>
+      </c>
+      <c r="N226" s="9">
+        <v>0</v>
+      </c>
+      <c r="O226" s="9">
+        <v>0</v>
+      </c>
+      <c r="P226" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q226" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R226" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S226" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="T226" s="10"/>
+      <c r="U226" s="9">
+        <v>0</v>
+      </c>
+      <c r="V226" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W226" s="11">
+        <v>1468.39</v>
+      </c>
+      <c r="X226" s="12">
+        <v>701992995</v>
+      </c>
+      <c r="Y226" s="11">
+        <v>1442.8</v>
+      </c>
+      <c r="Z226" s="12">
+        <v>700681392</v>
+      </c>
+      <c r="AA226" s="12">
+        <v>10926901</v>
+      </c>
+      <c r="AB226" s="12">
+        <v>-12238505</v>
+      </c>
+      <c r="AC226" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD226" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE226" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF226" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:32">
+      <c r="A227" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C227" s="10"/>
+      <c r="D227" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="9">
+        <v>0</v>
+      </c>
+      <c r="F227" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G227" s="9">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H227" s="11">
+        <v>482030</v>
+      </c>
+      <c r="I227" s="9">
+        <v>50.43</v>
+      </c>
+      <c r="J227" s="11">
+        <v>504300</v>
+      </c>
+      <c r="K227" s="11">
+        <v>22270</v>
+      </c>
+      <c r="L227" s="12">
+        <v>25912969</v>
+      </c>
+      <c r="M227" s="9">
+        <v>0</v>
+      </c>
+      <c r="N227" s="9">
+        <v>0</v>
+      </c>
+      <c r="O227" s="9">
+        <v>0</v>
+      </c>
+      <c r="P227" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q227" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R227" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S227" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="T227" s="10"/>
+      <c r="U227" s="9">
+        <v>0</v>
+      </c>
+      <c r="V227" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W227" s="11">
+        <v>1455.7</v>
+      </c>
+      <c r="X227" s="12">
+        <v>701691071</v>
+      </c>
+      <c r="Y227" s="11">
+        <v>1442.8</v>
+      </c>
+      <c r="Z227" s="12">
+        <v>727604040</v>
+      </c>
+      <c r="AA227" s="12">
+        <v>32131156</v>
+      </c>
+      <c r="AB227" s="12">
+        <v>-6218187</v>
+      </c>
+      <c r="AC227" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD227" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE227" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF227" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:32">
+      <c r="A228" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C228" s="10"/>
+      <c r="D228" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E228" s="9">
+        <v>0</v>
+      </c>
+      <c r="F228" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G228" s="9">
+        <v>34.24</v>
+      </c>
+      <c r="H228" s="11">
+        <v>684800</v>
+      </c>
+      <c r="I228" s="9">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="J228" s="11">
+        <v>687600</v>
+      </c>
+      <c r="K228" s="11">
+        <v>2800</v>
+      </c>
+      <c r="L228" s="12">
+        <v>-19380320</v>
+      </c>
+      <c r="M228" s="9">
+        <v>0</v>
+      </c>
+      <c r="N228" s="9">
+        <v>0</v>
+      </c>
+      <c r="O228" s="9">
+        <v>0</v>
+      </c>
+      <c r="P228" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q228" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R228" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S228" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="T228" s="10"/>
+      <c r="U228" s="9">
+        <v>0</v>
+      </c>
+      <c r="V228" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W228" s="11">
+        <v>1477</v>
+      </c>
+      <c r="X228" s="12">
+        <v>1011449600</v>
+      </c>
+      <c r="Y228" s="11">
+        <v>1442.8</v>
+      </c>
+      <c r="Z228" s="12">
+        <v>992069280</v>
+      </c>
+      <c r="AA228" s="12">
+        <v>4039840</v>
+      </c>
+      <c r="AB228" s="12">
+        <v>-23420160</v>
+      </c>
+      <c r="AC228" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD228" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE228" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF228" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:32">
+      <c r="A229" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C229" s="10"/>
+      <c r="D229" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E229" s="9">
+        <v>0</v>
+      </c>
+      <c r="F229" s="11">
+        <v>3000</v>
+      </c>
+      <c r="G229" s="9">
+        <v>247.65</v>
+      </c>
+      <c r="H229" s="11">
+        <v>742950</v>
+      </c>
+      <c r="I229" s="9">
+        <v>258.27</v>
+      </c>
+      <c r="J229" s="11">
+        <v>774810</v>
+      </c>
+      <c r="K229" s="11">
+        <v>31860</v>
+      </c>
+      <c r="L229" s="12">
+        <v>20558718</v>
+      </c>
+      <c r="M229" s="9">
+        <v>0</v>
+      </c>
+      <c r="N229" s="9">
+        <v>0</v>
+      </c>
+      <c r="O229" s="9">
+        <v>0</v>
+      </c>
+      <c r="P229" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q229" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R229" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S229" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="T229" s="10"/>
+      <c r="U229" s="9">
+        <v>0</v>
+      </c>
+      <c r="V229" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W229" s="11">
+        <v>1477</v>
+      </c>
+      <c r="X229" s="12">
+        <v>1097337150</v>
+      </c>
+      <c r="Y229" s="11">
+        <v>1442.8</v>
+      </c>
+      <c r="Z229" s="12">
+        <v>1117895868</v>
+      </c>
+      <c r="AA229" s="12">
+        <v>45967608</v>
+      </c>
+      <c r="AB229" s="12">
+        <v>-25408890</v>
+      </c>
+      <c r="AC229" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD229" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE229" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF229" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:32">
+      <c r="A230" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C230" s="10"/>
+      <c r="D230" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E230" s="9">
+        <v>0</v>
+      </c>
+      <c r="F230" s="11">
+        <v>83000</v>
+      </c>
+      <c r="G230" s="9">
+        <v>12.374000000000001</v>
+      </c>
+      <c r="H230" s="11">
+        <v>1027042</v>
+      </c>
+      <c r="I230" s="9">
+        <v>10.08</v>
+      </c>
+      <c r="J230" s="11">
+        <v>836640</v>
+      </c>
+      <c r="K230" s="11">
+        <v>-190402</v>
+      </c>
+      <c r="L230" s="12">
+        <v>-277690427</v>
+      </c>
+      <c r="M230" s="9">
+        <v>0</v>
+      </c>
+      <c r="N230" s="9">
+        <v>0</v>
+      </c>
+      <c r="O230" s="9">
+        <v>0</v>
+      </c>
+      <c r="P230" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q230" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R230" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S230" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T230" s="10"/>
+      <c r="U230" s="9">
+        <v>0</v>
+      </c>
+      <c r="V230" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W230" s="11">
+        <v>1445.69</v>
+      </c>
+      <c r="X230" s="12">
+        <v>1484794619</v>
+      </c>
+      <c r="Y230" s="11">
+        <v>1442.8</v>
+      </c>
+      <c r="Z230" s="12">
+        <v>1207104192</v>
+      </c>
+      <c r="AA230" s="12">
+        <v>-274712005</v>
+      </c>
+      <c r="AB230" s="12">
+        <v>-2978422</v>
+      </c>
+      <c r="AC230" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD230" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE230" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF230" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:32">
+      <c r="A231" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C231" s="10"/>
+      <c r="D231" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E231" s="9">
+        <v>0</v>
+      </c>
+      <c r="F231" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G231" s="9">
+        <v>44.158999999999999</v>
+      </c>
+      <c r="H231" s="11">
+        <v>441591</v>
+      </c>
+      <c r="I231" s="9">
+        <v>44.55</v>
+      </c>
+      <c r="J231" s="11">
+        <v>445500</v>
+      </c>
+      <c r="K231" s="11">
+        <v>3909</v>
+      </c>
+      <c r="L231" s="12">
+        <v>-5664824</v>
+      </c>
+      <c r="M231" s="9">
+        <v>0</v>
+      </c>
+      <c r="N231" s="9">
+        <v>0</v>
+      </c>
+      <c r="O231" s="9">
+        <v>0</v>
+      </c>
+      <c r="P231" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q231" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R231" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S231" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T231" s="10"/>
+      <c r="U231" s="9">
+        <v>0</v>
+      </c>
+      <c r="V231" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W231" s="11">
+        <v>1468.39</v>
+      </c>
+      <c r="X231" s="12">
+        <v>648432224</v>
+      </c>
+      <c r="Y231" s="11">
+        <v>1442.8</v>
+      </c>
+      <c r="Z231" s="12">
+        <v>642767400</v>
+      </c>
+      <c r="AA231" s="12">
+        <v>5639905</v>
+      </c>
+      <c r="AB231" s="12">
+        <v>-11304730</v>
+      </c>
+      <c r="AC231" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD231" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE231" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF231" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:32">
+      <c r="A232" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C232" s="10"/>
+      <c r="D232" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E232" s="9">
+        <v>0</v>
+      </c>
+      <c r="F232" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G232" s="9">
+        <v>681.92</v>
+      </c>
+      <c r="H232" s="11">
+        <v>681920</v>
+      </c>
+      <c r="I232" s="9">
+        <v>695.49</v>
+      </c>
+      <c r="J232" s="11">
+        <v>695490</v>
+      </c>
+      <c r="K232" s="11">
+        <v>13570</v>
+      </c>
+      <c r="L232" s="12">
+        <v>24965964</v>
+      </c>
+      <c r="M232" s="9">
+        <v>0</v>
+      </c>
+      <c r="N232" s="11">
+        <v>20010.3</v>
+      </c>
+      <c r="O232" s="11">
+        <v>20010.3</v>
+      </c>
+      <c r="P232" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q232" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R232" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S232" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T232" s="10"/>
+      <c r="U232" s="9">
+        <v>0</v>
+      </c>
+      <c r="V232" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W232" s="11">
+        <v>1434.9</v>
+      </c>
+      <c r="X232" s="12">
+        <v>978487008</v>
+      </c>
+      <c r="Y232" s="11">
+        <v>1442.8</v>
+      </c>
+      <c r="Z232" s="12">
+        <v>1003452972</v>
+      </c>
+      <c r="AA232" s="12">
+        <v>19578796</v>
+      </c>
+      <c r="AB232" s="12">
+        <v>5387168</v>
+      </c>
+      <c r="AC232" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD232" s="12">
+        <v>135496504</v>
+      </c>
+      <c r="AE232" s="12">
+        <v>135496504</v>
+      </c>
+      <c r="AF232" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:32">
+      <c r="A233" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C233" s="10"/>
+      <c r="D233" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E233" s="9">
+        <v>0</v>
+      </c>
+      <c r="F233" s="11">
+        <v>4200</v>
+      </c>
+      <c r="G233" s="9">
+        <v>396.31</v>
+      </c>
+      <c r="H233" s="11">
+        <v>1664502</v>
+      </c>
+      <c r="I233" s="9">
+        <v>476.1</v>
+      </c>
+      <c r="J233" s="11">
+        <v>1999620</v>
+      </c>
+      <c r="K233" s="11">
+        <v>335118</v>
+      </c>
+      <c r="L233" s="12">
+        <v>496657817</v>
+      </c>
+      <c r="M233" s="9">
+        <v>0</v>
+      </c>
+      <c r="N233" s="9">
+        <v>0</v>
+      </c>
+      <c r="O233" s="9">
+        <v>0</v>
+      </c>
+      <c r="P233" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q233" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R233" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S233" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T233" s="10"/>
+      <c r="U233" s="9">
+        <v>0</v>
+      </c>
+      <c r="V233" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W233" s="11">
+        <v>1434.89</v>
+      </c>
+      <c r="X233" s="12">
+        <v>2388393919</v>
+      </c>
+      <c r="Y233" s="11">
+        <v>1442.8</v>
+      </c>
+      <c r="Z233" s="12">
+        <v>2885051736</v>
+      </c>
+      <c r="AA233" s="12">
+        <v>483508250</v>
+      </c>
+      <c r="AB233" s="12">
+        <v>13149566</v>
+      </c>
+      <c r="AC233" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD233" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE233" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF233" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:32">
+      <c r="A234" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C234" s="10"/>
+      <c r="D234" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E234" s="9">
+        <v>0</v>
+      </c>
+      <c r="F234" s="11">
+        <v>24000</v>
+      </c>
+      <c r="G234" s="9">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H234" s="11">
+        <v>423736.8</v>
+      </c>
+      <c r="I234" s="9">
+        <v>16.95</v>
+      </c>
+      <c r="J234" s="11">
+        <v>406800</v>
+      </c>
+      <c r="K234" s="11">
+        <v>-16936.8</v>
+      </c>
+      <c r="L234" s="12">
+        <v>-33462008</v>
+      </c>
+      <c r="M234" s="9">
+        <v>0</v>
+      </c>
+      <c r="N234" s="9">
+        <v>0</v>
+      </c>
+      <c r="O234" s="9">
+        <v>0</v>
+      </c>
+      <c r="P234" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q234" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R234" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S234" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T234" s="10"/>
+      <c r="U234" s="9">
+        <v>0</v>
+      </c>
+      <c r="V234" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W234" s="11">
+        <v>1464.09</v>
+      </c>
+      <c r="X234" s="12">
+        <v>620393048</v>
+      </c>
+      <c r="Y234" s="11">
+        <v>1442.8</v>
+      </c>
+      <c r="Z234" s="12">
+        <v>586931040</v>
+      </c>
+      <c r="AA234" s="12">
+        <v>-24436415</v>
+      </c>
+      <c r="AB234" s="12">
+        <v>-9025593</v>
+      </c>
+      <c r="AC234" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD234" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE234" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF234" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:32">
+      <c r="A235" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C235" s="10"/>
+      <c r="D235" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E235" s="9">
+        <v>0</v>
+      </c>
+      <c r="F235" s="11">
+        <v>1400</v>
+      </c>
+      <c r="G235" s="9">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H235" s="11">
+        <v>605554.04</v>
+      </c>
+      <c r="I235" s="9">
+        <v>430.9</v>
+      </c>
+      <c r="J235" s="11">
+        <v>603260</v>
+      </c>
+      <c r="K235" s="11">
+        <v>-2294.04</v>
+      </c>
+      <c r="L235" s="12">
+        <v>-5732057</v>
+      </c>
+      <c r="M235" s="9">
+        <v>0</v>
+      </c>
+      <c r="N235" s="9">
+        <v>0</v>
+      </c>
+      <c r="O235" s="9">
+        <v>0</v>
+      </c>
+      <c r="P235" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q235" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R235" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S235" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T235" s="10"/>
+      <c r="U235" s="9">
+        <v>0</v>
+      </c>
+      <c r="V235" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W235" s="11">
+        <v>1446.79</v>
+      </c>
+      <c r="X235" s="12">
+        <v>876115585</v>
+      </c>
+      <c r="Y235" s="11">
+        <v>1442.8</v>
+      </c>
+      <c r="Z235" s="12">
+        <v>870383528</v>
+      </c>
+      <c r="AA235" s="12">
+        <v>-3309840</v>
+      </c>
+      <c r="AB235" s="12">
+        <v>-2422217</v>
+      </c>
+      <c r="AC235" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD235" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE235" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF235" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:32">
+      <c r="A236" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C236" s="10"/>
+      <c r="D236" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E236" s="9">
+        <v>0</v>
+      </c>
+      <c r="F236" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G236" s="9">
+        <v>169.042</v>
+      </c>
+      <c r="H236" s="11">
+        <v>591649.80000000005</v>
+      </c>
+      <c r="I236" s="9">
+        <v>164.26</v>
+      </c>
+      <c r="J236" s="11">
+        <v>574910</v>
+      </c>
+      <c r="K236" s="11">
+        <v>-16739.8</v>
+      </c>
+      <c r="L236" s="12">
+        <v>-26518782</v>
+      </c>
+      <c r="M236" s="9">
+        <v>0</v>
+      </c>
+      <c r="N236" s="9">
+        <v>0</v>
+      </c>
+      <c r="O236" s="9">
+        <v>0</v>
+      </c>
+      <c r="P236" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q236" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R236" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S236" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T236" s="10"/>
+      <c r="U236" s="9">
+        <v>0</v>
+      </c>
+      <c r="V236" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W236" s="11">
+        <v>1446.79</v>
+      </c>
+      <c r="X236" s="12">
+        <v>855998930</v>
+      </c>
+      <c r="Y236" s="11">
+        <v>1442.8</v>
+      </c>
+      <c r="Z236" s="12">
+        <v>829480148</v>
+      </c>
+      <c r="AA236" s="12">
+        <v>-24152183</v>
+      </c>
+      <c r="AB236" s="12">
+        <v>-2366599</v>
+      </c>
+      <c r="AC236" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD236" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE236" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF236" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:32">
+      <c r="A237" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C237" s="10"/>
+      <c r="D237" s="9">
+        <v>6869</v>
+      </c>
+      <c r="E237" s="9">
+        <v>0</v>
+      </c>
+      <c r="F237" s="9">
+        <v>0</v>
+      </c>
+      <c r="G237" s="9">
+        <v>0</v>
+      </c>
+      <c r="H237" s="9">
+        <v>0</v>
+      </c>
+      <c r="I237" s="10"/>
+      <c r="J237" s="9">
+        <v>0</v>
+      </c>
+      <c r="K237" s="9">
+        <v>0</v>
+      </c>
+      <c r="L237" s="9">
+        <v>0</v>
+      </c>
+      <c r="M237" s="9">
+        <v>0</v>
+      </c>
+      <c r="N237" s="11">
+        <v>349976</v>
+      </c>
+      <c r="O237" s="11">
+        <v>349976</v>
+      </c>
+      <c r="P237" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q237" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R237" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S237" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T237" s="10"/>
+      <c r="U237" s="9">
+        <v>0</v>
+      </c>
+      <c r="V237" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W237" s="9">
+        <v>0</v>
+      </c>
+      <c r="X237" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y237" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z237" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA237" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB237" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC237" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD237" s="12">
+        <v>72042766</v>
+      </c>
+      <c r="AE237" s="12">
+        <v>72042766</v>
+      </c>
+      <c r="AF237" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:32">
+      <c r="A238" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C238" s="10"/>
+      <c r="D238" s="9">
+        <v>2359</v>
+      </c>
+      <c r="E238" s="9">
+        <v>0</v>
+      </c>
+      <c r="F238" s="11">
+        <v>25000</v>
+      </c>
+      <c r="G238" s="9">
+        <v>118.559</v>
+      </c>
+      <c r="H238" s="11">
+        <v>2963990</v>
+      </c>
+      <c r="I238" s="9">
+        <v>113.6</v>
+      </c>
+      <c r="J238" s="11">
+        <v>2840000</v>
+      </c>
+      <c r="K238" s="11">
+        <v>-123990</v>
+      </c>
+      <c r="L238" s="12">
+        <v>-34561950</v>
+      </c>
+      <c r="M238" s="9">
+        <v>0</v>
+      </c>
+      <c r="N238" s="9">
+        <v>0</v>
+      </c>
+      <c r="O238" s="9">
+        <v>0</v>
+      </c>
+      <c r="P238" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q238" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R238" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S238" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T238" s="10"/>
+      <c r="U238" s="9">
+        <v>0</v>
+      </c>
+      <c r="V238" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W238" s="9">
+        <v>188.95</v>
+      </c>
+      <c r="X238" s="12">
+        <v>560075550</v>
+      </c>
+      <c r="Y238" s="9">
+        <v>185.04</v>
+      </c>
+      <c r="Z238" s="12">
+        <v>525513600</v>
+      </c>
+      <c r="AA238" s="12">
+        <v>-22943109</v>
+      </c>
+      <c r="AB238" s="12">
+        <v>-11618841</v>
+      </c>
+      <c r="AC238" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD238" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE238" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF238" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:32">
+      <c r="A239" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C239" s="10"/>
+      <c r="D239" s="9">
+        <v>6680</v>
+      </c>
+      <c r="E239" s="9">
+        <v>0</v>
+      </c>
+      <c r="F239" s="11">
+        <v>130000</v>
+      </c>
+      <c r="G239" s="9">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H239" s="11">
+        <v>2921022</v>
+      </c>
+      <c r="I239" s="9">
+        <v>22.44</v>
+      </c>
+      <c r="J239" s="11">
+        <v>2917200</v>
+      </c>
+      <c r="K239" s="11">
+        <v>-3822</v>
+      </c>
+      <c r="L239" s="12">
+        <v>-11953157</v>
+      </c>
+      <c r="M239" s="9">
+        <v>0</v>
+      </c>
+      <c r="N239" s="9">
+        <v>0</v>
+      </c>
+      <c r="O239" s="9">
+        <v>0</v>
+      </c>
+      <c r="P239" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q239" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R239" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S239" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="T239" s="10"/>
+      <c r="U239" s="9">
+        <v>0</v>
+      </c>
+      <c r="V239" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W239" s="9">
+        <v>188.88</v>
+      </c>
+      <c r="X239" s="12">
+        <v>551751845</v>
+      </c>
+      <c r="Y239" s="9">
+        <v>185.04</v>
+      </c>
+      <c r="Z239" s="12">
+        <v>539798688</v>
+      </c>
+      <c r="AA239" s="12">
+        <v>-707222</v>
+      </c>
+      <c r="AB239" s="12">
+        <v>-11245935</v>
+      </c>
+      <c r="AC239" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD239" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE239" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF239" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:32">
+      <c r="A240" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C240" s="10"/>
+      <c r="D240" s="9">
+        <v>6181</v>
+      </c>
+      <c r="E240" s="9">
+        <v>0</v>
+      </c>
+      <c r="F240" s="9">
+        <v>0</v>
+      </c>
+      <c r="G240" s="9">
+        <v>0</v>
+      </c>
+      <c r="H240" s="9">
+        <v>0</v>
+      </c>
+      <c r="I240" s="10"/>
+      <c r="J240" s="9">
+        <v>0</v>
+      </c>
+      <c r="K240" s="9">
+        <v>0</v>
+      </c>
+      <c r="L240" s="9">
+        <v>0</v>
+      </c>
+      <c r="M240" s="9">
+        <v>0</v>
+      </c>
+      <c r="N240" s="11">
+        <v>-6374.88</v>
+      </c>
+      <c r="O240" s="9">
+        <v>0</v>
+      </c>
+      <c r="P240" s="11">
+        <v>6374.88</v>
+      </c>
+      <c r="Q240" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R240" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S240" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T240" s="10"/>
+      <c r="U240" s="9">
+        <v>0</v>
+      </c>
+      <c r="V240" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W240" s="9">
+        <v>0</v>
+      </c>
+      <c r="X240" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y240" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z240" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA240" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB240" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC240" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD240" s="12">
+        <v>1362525</v>
+      </c>
+      <c r="AE240" s="12">
+        <v>1362525</v>
+      </c>
+      <c r="AF240" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:32">
+      <c r="A241" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C241" s="10"/>
+      <c r="D241" s="9">
+        <v>6082</v>
+      </c>
+      <c r="E241" s="9">
+        <v>0</v>
+      </c>
+      <c r="F241" s="9">
+        <v>0</v>
+      </c>
+      <c r="G241" s="9">
+        <v>0</v>
+      </c>
+      <c r="H241" s="9">
+        <v>0</v>
+      </c>
+      <c r="I241" s="10"/>
+      <c r="J241" s="9">
+        <v>0</v>
+      </c>
+      <c r="K241" s="9">
+        <v>0</v>
+      </c>
+      <c r="L241" s="9">
+        <v>0</v>
+      </c>
+      <c r="M241" s="9">
+        <v>0</v>
+      </c>
+      <c r="N241" s="11">
+        <v>205980</v>
+      </c>
+      <c r="O241" s="11">
+        <v>205980</v>
+      </c>
+      <c r="P241" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q241" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R241" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S241" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T241" s="10"/>
+      <c r="U241" s="9">
+        <v>0</v>
+      </c>
+      <c r="V241" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W241" s="9">
+        <v>0</v>
+      </c>
+      <c r="X241" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y241" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z241" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA241" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB241" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC241" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD241" s="12">
+        <v>49395681</v>
+      </c>
+      <c r="AE241" s="12">
+        <v>49395681</v>
+      </c>
+      <c r="AF241" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:32">
+      <c r="A242" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C242" s="10"/>
+      <c r="D242" s="9">
+        <v>9988</v>
+      </c>
+      <c r="E242" s="9">
+        <v>0</v>
+      </c>
+      <c r="F242" s="11">
+        <v>70500</v>
+      </c>
+      <c r="G242" s="9">
+        <v>147.79</v>
+      </c>
+      <c r="H242" s="11">
+        <v>10419200</v>
+      </c>
+      <c r="I242" s="9">
+        <v>169.9</v>
+      </c>
+      <c r="J242" s="11">
+        <v>11977950</v>
+      </c>
+      <c r="K242" s="11">
+        <v>1558750</v>
+      </c>
+      <c r="L242" s="12">
+        <v>281601268</v>
+      </c>
+      <c r="M242" s="9">
+        <v>0</v>
+      </c>
+      <c r="N242" s="9">
+        <v>0</v>
+      </c>
+      <c r="O242" s="9">
+        <v>0</v>
+      </c>
+      <c r="P242" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q242" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R242" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S242" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T242" s="10"/>
+      <c r="U242" s="9">
+        <v>0</v>
+      </c>
+      <c r="V242" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W242" s="9">
+        <v>185.69</v>
+      </c>
+      <c r="X242" s="12">
+        <v>1934798600</v>
+      </c>
+      <c r="Y242" s="9">
+        <v>185.04</v>
+      </c>
+      <c r="Z242" s="12">
+        <v>2216399868</v>
+      </c>
+      <c r="AA242" s="12">
+        <v>288431100</v>
+      </c>
+      <c r="AB242" s="12">
+        <v>-6829832</v>
+      </c>
+      <c r="AC242" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD242" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE242" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF242" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:32">
+      <c r="A243" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C243" s="10"/>
+      <c r="D243" s="9">
+        <v>6861</v>
+      </c>
+      <c r="E243" s="9">
+        <v>0</v>
+      </c>
+      <c r="F243" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G243" s="11">
+        <v>55916.79</v>
+      </c>
+      <c r="H243" s="11">
+        <v>106241900</v>
+      </c>
+      <c r="I243" s="11">
+        <v>58890</v>
+      </c>
+      <c r="J243" s="11">
+        <v>111891000</v>
+      </c>
+      <c r="K243" s="11">
+        <v>5649100</v>
+      </c>
+      <c r="L243" s="12">
+        <v>64800219</v>
+      </c>
+      <c r="M243" s="9">
+        <v>0</v>
+      </c>
+      <c r="N243" s="9">
+        <v>0</v>
+      </c>
+      <c r="O243" s="9">
+        <v>0</v>
+      </c>
+      <c r="P243" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q243" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R243" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S243" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T243" s="10"/>
+      <c r="U243" s="9">
+        <v>0</v>
+      </c>
+      <c r="V243" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W243" s="9">
+        <v>924.45</v>
+      </c>
+      <c r="X243" s="12">
+        <v>982163868</v>
+      </c>
+      <c r="Y243" s="9">
+        <v>935.7</v>
+      </c>
+      <c r="Z243" s="12">
+        <v>1046964087</v>
+      </c>
+      <c r="AA243" s="12">
+        <v>52858628</v>
+      </c>
+      <c r="AB243" s="12">
+        <v>11941590</v>
+      </c>
+      <c r="AC243" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD243" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE243" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF243" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:32">
+      <c r="A244" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C244" s="10"/>
+      <c r="D244" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E244" s="9">
+        <v>0</v>
+      </c>
+      <c r="F244" s="9">
+        <v>0</v>
+      </c>
+      <c r="G244" s="9">
+        <v>0</v>
+      </c>
+      <c r="H244" s="9">
+        <v>0</v>
+      </c>
+      <c r="I244" s="10"/>
+      <c r="J244" s="9">
+        <v>0</v>
+      </c>
+      <c r="K244" s="9">
+        <v>0</v>
+      </c>
+      <c r="L244" s="9">
+        <v>0</v>
+      </c>
+      <c r="M244" s="9">
+        <v>0</v>
+      </c>
+      <c r="N244" s="11">
+        <v>4480700</v>
+      </c>
+      <c r="O244" s="11">
+        <v>4480700</v>
+      </c>
+      <c r="P244" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q244" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R244" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S244" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="T244" s="10"/>
+      <c r="U244" s="9">
+        <v>0</v>
+      </c>
+      <c r="V244" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W244" s="9">
+        <v>0</v>
+      </c>
+      <c r="X244" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y244" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z244" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA244" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB244" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC244" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD244" s="12">
+        <v>37760160</v>
+      </c>
+      <c r="AE244" s="12">
+        <v>37760160</v>
+      </c>
+      <c r="AF244" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:32">
+      <c r="A245" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C245" s="10"/>
+      <c r="D245" s="9">
+        <v>9984</v>
+      </c>
+      <c r="E245" s="9">
+        <v>0</v>
+      </c>
+      <c r="F245" s="11">
+        <v>23000</v>
+      </c>
+      <c r="G245" s="11">
+        <v>4066.73</v>
+      </c>
+      <c r="H245" s="11">
+        <v>93534900</v>
+      </c>
+      <c r="I245" s="11">
+        <v>4051</v>
+      </c>
+      <c r="J245" s="11">
+        <v>93173000</v>
+      </c>
+      <c r="K245" s="11">
+        <v>-361900</v>
+      </c>
+      <c r="L245" s="12">
+        <v>5200206</v>
+      </c>
+      <c r="M245" s="9">
+        <v>0</v>
+      </c>
+      <c r="N245" s="9">
+        <v>0</v>
+      </c>
+      <c r="O245" s="9">
+        <v>0</v>
+      </c>
+      <c r="P245" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q245" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R245" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S245" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T245" s="10"/>
+      <c r="U245" s="9">
+        <v>0</v>
+      </c>
+      <c r="V245" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W245" s="9">
+        <v>926.51</v>
+      </c>
+      <c r="X245" s="12">
+        <v>866619555</v>
+      </c>
+      <c r="Y245" s="9">
+        <v>935.7</v>
+      </c>
+      <c r="Z245" s="12">
+        <v>871819761</v>
+      </c>
+      <c r="AA245" s="12">
+        <v>-3386298</v>
+      </c>
+      <c r="AB245" s="12">
+        <v>8586504</v>
+      </c>
+      <c r="AC245" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD245" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE245" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF245" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:32">
+      <c r="A246" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C246" s="10"/>
+      <c r="D246" s="9">
+        <v>6954</v>
+      </c>
+      <c r="E246" s="9">
+        <v>0</v>
+      </c>
+      <c r="F246" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G246" s="11">
+        <v>6568.27</v>
+      </c>
+      <c r="H246" s="11">
+        <v>65682650</v>
+      </c>
+      <c r="I246" s="11">
+        <v>6342</v>
+      </c>
+      <c r="J246" s="11">
+        <v>63420000</v>
+      </c>
+      <c r="K246" s="11">
+        <v>-2262650</v>
+      </c>
+      <c r="L246" s="12">
+        <v>-15470362</v>
+      </c>
+      <c r="M246" s="9">
+        <v>0</v>
+      </c>
+      <c r="N246" s="9">
+        <v>0</v>
+      </c>
+      <c r="O246" s="9">
+        <v>0</v>
+      </c>
+      <c r="P246" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q246" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R246" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S246" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T246" s="10"/>
+      <c r="U246" s="9">
+        <v>0</v>
+      </c>
+      <c r="V246" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W246" s="9">
+        <v>927.01</v>
+      </c>
+      <c r="X246" s="12">
+        <v>608891302</v>
+      </c>
+      <c r="Y246" s="9">
+        <v>935.7</v>
+      </c>
+      <c r="Z246" s="12">
+        <v>593420940</v>
+      </c>
+      <c r="AA246" s="12">
+        <v>-21171616</v>
+      </c>
+      <c r="AB246" s="12">
+        <v>5701254</v>
+      </c>
+      <c r="AC246" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD246" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE246" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF246" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:32">
+      <c r="A247" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C247" s="10"/>
+      <c r="D247" s="9">
+        <v>6869</v>
+      </c>
+      <c r="E247" s="9">
+        <v>0</v>
+      </c>
+      <c r="F247" s="9">
+        <v>0</v>
+      </c>
+      <c r="G247" s="9">
+        <v>0</v>
+      </c>
+      <c r="H247" s="9">
+        <v>0</v>
+      </c>
+      <c r="I247" s="9">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="J247" s="9">
+        <v>0</v>
+      </c>
+      <c r="K247" s="9">
+        <v>0</v>
+      </c>
+      <c r="L247" s="9">
+        <v>0</v>
+      </c>
+      <c r="M247" s="9">
+        <v>0</v>
+      </c>
+      <c r="N247" s="11">
+        <v>349976</v>
+      </c>
+      <c r="O247" s="11">
+        <v>349976</v>
+      </c>
+      <c r="P247" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q247" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R247" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S247" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T247" s="10"/>
+      <c r="U247" s="9">
+        <v>0</v>
+      </c>
+      <c r="V247" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W247" s="9">
+        <v>0</v>
+      </c>
+      <c r="X247" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y247" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z247" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA247" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB247" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC247" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD247" s="12">
+        <v>72042766</v>
+      </c>
+      <c r="AE247" s="12">
+        <v>72042766</v>
+      </c>
+      <c r="AF247" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:32">
+      <c r="A248" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C248" s="10"/>
+      <c r="D248" s="9">
+        <v>2359</v>
+      </c>
+      <c r="E248" s="9">
+        <v>0</v>
+      </c>
+      <c r="F248" s="11">
+        <v>25000</v>
+      </c>
+      <c r="G248" s="9">
+        <v>118.559</v>
+      </c>
+      <c r="H248" s="11">
+        <v>2963990</v>
+      </c>
+      <c r="I248" s="9">
+        <v>115.7</v>
+      </c>
+      <c r="J248" s="11">
+        <v>2892500</v>
+      </c>
+      <c r="K248" s="11">
+        <v>-71490</v>
+      </c>
+      <c r="L248" s="12">
+        <v>-30429875</v>
+      </c>
+      <c r="M248" s="9">
+        <v>0</v>
+      </c>
+      <c r="N248" s="9">
+        <v>0</v>
+      </c>
+      <c r="O248" s="9">
+        <v>0</v>
+      </c>
+      <c r="P248" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q248" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R248" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S248" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T248" s="10"/>
+      <c r="U248" s="9">
+        <v>0</v>
+      </c>
+      <c r="V248" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W248" s="9">
+        <v>188.95</v>
+      </c>
+      <c r="X248" s="12">
+        <v>560075550</v>
+      </c>
+      <c r="Y248" s="9">
+        <v>183.11</v>
+      </c>
+      <c r="Z248" s="12">
+        <v>529645675</v>
+      </c>
+      <c r="AA248" s="12">
+        <v>-13090533</v>
+      </c>
+      <c r="AB248" s="12">
+        <v>-17339342</v>
+      </c>
+      <c r="AC248" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD248" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE248" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF248" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:32">
+      <c r="A249" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C249" s="10"/>
+      <c r="D249" s="9">
+        <v>6680</v>
+      </c>
+      <c r="E249" s="9">
+        <v>0</v>
+      </c>
+      <c r="F249" s="11">
+        <v>130000</v>
+      </c>
+      <c r="G249" s="9">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H249" s="11">
+        <v>2921022</v>
+      </c>
+      <c r="I249" s="9">
+        <v>23.86</v>
+      </c>
+      <c r="J249" s="11">
+        <v>3101800</v>
+      </c>
+      <c r="K249" s="11">
+        <v>180778</v>
+      </c>
+      <c r="L249" s="12">
+        <v>16218753</v>
+      </c>
+      <c r="M249" s="9">
+        <v>0</v>
+      </c>
+      <c r="N249" s="9">
+        <v>0</v>
+      </c>
+      <c r="O249" s="9">
+        <v>0</v>
+      </c>
+      <c r="P249" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q249" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R249" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S249" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="T249" s="10"/>
+      <c r="U249" s="9">
+        <v>0</v>
+      </c>
+      <c r="V249" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W249" s="9">
+        <v>188.88</v>
+      </c>
+      <c r="X249" s="12">
+        <v>551751845</v>
+      </c>
+      <c r="Y249" s="9">
+        <v>183.11</v>
+      </c>
+      <c r="Z249" s="12">
+        <v>567970598</v>
+      </c>
+      <c r="AA249" s="12">
+        <v>33102259</v>
+      </c>
+      <c r="AB249" s="12">
+        <v>-16883507</v>
+      </c>
+      <c r="AC249" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD249" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE249" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF249" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:32">
+      <c r="A250" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C250" s="10"/>
+      <c r="D250" s="9">
+        <v>6181</v>
+      </c>
+      <c r="E250" s="9">
+        <v>0</v>
+      </c>
+      <c r="F250" s="9">
+        <v>0</v>
+      </c>
+      <c r="G250" s="9">
+        <v>0</v>
+      </c>
+      <c r="H250" s="9">
+        <v>0</v>
+      </c>
+      <c r="I250" s="9">
+        <v>779</v>
+      </c>
+      <c r="J250" s="9">
+        <v>0</v>
+      </c>
+      <c r="K250" s="9">
+        <v>0</v>
+      </c>
+      <c r="L250" s="9">
+        <v>0</v>
+      </c>
+      <c r="M250" s="9">
+        <v>0</v>
+      </c>
+      <c r="N250" s="11">
+        <v>-6374.88</v>
+      </c>
+      <c r="O250" s="9">
+        <v>0</v>
+      </c>
+      <c r="P250" s="11">
+        <v>6374.88</v>
+      </c>
+      <c r="Q250" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R250" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S250" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T250" s="10"/>
+      <c r="U250" s="9">
+        <v>0</v>
+      </c>
+      <c r="V250" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W250" s="9">
+        <v>0</v>
+      </c>
+      <c r="X250" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y250" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z250" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA250" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB250" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC250" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD250" s="12">
+        <v>1362525</v>
+      </c>
+      <c r="AE250" s="12">
+        <v>1362525</v>
+      </c>
+      <c r="AF250" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:32">
+      <c r="A251" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C251" s="10"/>
+      <c r="D251" s="9">
+        <v>6082</v>
+      </c>
+      <c r="E251" s="9">
+        <v>0</v>
+      </c>
+      <c r="F251" s="9">
+        <v>0</v>
+      </c>
+      <c r="G251" s="9">
+        <v>0</v>
+      </c>
+      <c r="H251" s="9">
+        <v>0</v>
+      </c>
+      <c r="I251" s="9">
+        <v>34.96</v>
+      </c>
+      <c r="J251" s="9">
+        <v>0</v>
+      </c>
+      <c r="K251" s="9">
+        <v>0</v>
+      </c>
+      <c r="L251" s="9">
+        <v>0</v>
+      </c>
+      <c r="M251" s="9">
+        <v>0</v>
+      </c>
+      <c r="N251" s="11">
+        <v>205980</v>
+      </c>
+      <c r="O251" s="11">
+        <v>205980</v>
+      </c>
+      <c r="P251" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q251" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R251" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S251" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T251" s="10"/>
+      <c r="U251" s="9">
+        <v>0</v>
+      </c>
+      <c r="V251" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W251" s="9">
+        <v>0</v>
+      </c>
+      <c r="X251" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y251" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z251" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA251" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB251" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC251" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD251" s="12">
+        <v>49395681</v>
+      </c>
+      <c r="AE251" s="12">
+        <v>49395681</v>
+      </c>
+      <c r="AF251" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:32">
+      <c r="A252" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C252" s="10"/>
+      <c r="D252" s="9">
+        <v>9988</v>
+      </c>
+      <c r="E252" s="9">
+        <v>0</v>
+      </c>
+      <c r="F252" s="11">
+        <v>70500</v>
+      </c>
+      <c r="G252" s="9">
+        <v>147.79</v>
+      </c>
+      <c r="H252" s="11">
+        <v>10419200</v>
+      </c>
+      <c r="I252" s="9">
+        <v>172.5</v>
+      </c>
+      <c r="J252" s="11">
+        <v>12161250</v>
+      </c>
+      <c r="K252" s="11">
+        <v>1742050</v>
+      </c>
+      <c r="L252" s="12">
+        <v>292047887</v>
+      </c>
+      <c r="M252" s="9">
+        <v>0</v>
+      </c>
+      <c r="N252" s="9">
+        <v>0</v>
+      </c>
+      <c r="O252" s="9">
+        <v>0</v>
+      </c>
+      <c r="P252" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q252" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R252" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S252" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T252" s="10"/>
+      <c r="U252" s="9">
+        <v>0</v>
+      </c>
+      <c r="V252" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W252" s="9">
+        <v>185.69</v>
+      </c>
+      <c r="X252" s="12">
+        <v>1934798600</v>
+      </c>
+      <c r="Y252" s="9">
+        <v>183.11</v>
+      </c>
+      <c r="Z252" s="12">
+        <v>2226846487</v>
+      </c>
+      <c r="AA252" s="12">
+        <v>318986775</v>
+      </c>
+      <c r="AB252" s="12">
+        <v>-26938888</v>
+      </c>
+      <c r="AC252" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD252" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE252" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF252" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:32">
+      <c r="A253" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C253" s="10"/>
+      <c r="D253" s="9">
+        <v>6861</v>
+      </c>
+      <c r="E253" s="9">
+        <v>0</v>
+      </c>
+      <c r="F253" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G253" s="11">
+        <v>55916.79</v>
+      </c>
+      <c r="H253" s="11">
+        <v>106241900</v>
+      </c>
+      <c r="I253" s="11">
+        <v>58820</v>
+      </c>
+      <c r="J253" s="11">
+        <v>111758000</v>
+      </c>
+      <c r="K253" s="11">
+        <v>5516100</v>
+      </c>
+      <c r="L253" s="12">
+        <v>58660737</v>
+      </c>
+      <c r="M253" s="9">
+        <v>0</v>
+      </c>
+      <c r="N253" s="9">
+        <v>0</v>
+      </c>
+      <c r="O253" s="9">
+        <v>0</v>
+      </c>
+      <c r="P253" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q253" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R253" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S253" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T253" s="10"/>
+      <c r="U253" s="9">
+        <v>0</v>
+      </c>
+      <c r="V253" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W253" s="9">
+        <v>924.45</v>
+      </c>
+      <c r="X253" s="12">
+        <v>982163868</v>
+      </c>
+      <c r="Y253" s="9">
+        <v>931.32</v>
+      </c>
+      <c r="Z253" s="12">
+        <v>1040824605</v>
+      </c>
+      <c r="AA253" s="12">
+        <v>51372542</v>
+      </c>
+      <c r="AB253" s="12">
+        <v>7288195</v>
+      </c>
+      <c r="AC253" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD253" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE253" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF253" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:32">
+      <c r="A254" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C254" s="10"/>
+      <c r="D254" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E254" s="9">
+        <v>0</v>
+      </c>
+      <c r="F254" s="9">
+        <v>0</v>
+      </c>
+      <c r="G254" s="9">
+        <v>0</v>
+      </c>
+      <c r="H254" s="9">
+        <v>0</v>
+      </c>
+      <c r="I254" s="11">
+        <v>19450</v>
+      </c>
+      <c r="J254" s="9">
+        <v>0</v>
+      </c>
+      <c r="K254" s="9">
+        <v>0</v>
+      </c>
+      <c r="L254" s="9">
+        <v>0</v>
+      </c>
+      <c r="M254" s="9">
+        <v>0</v>
+      </c>
+      <c r="N254" s="11">
+        <v>4480700</v>
+      </c>
+      <c r="O254" s="11">
+        <v>4480700</v>
+      </c>
+      <c r="P254" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q254" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R254" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S254" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="T254" s="10"/>
+      <c r="U254" s="9">
+        <v>0</v>
+      </c>
+      <c r="V254" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W254" s="9">
+        <v>0</v>
+      </c>
+      <c r="X254" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y254" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z254" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA254" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB254" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC254" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD254" s="12">
+        <v>37760160</v>
+      </c>
+      <c r="AE254" s="12">
+        <v>37760160</v>
+      </c>
+      <c r="AF254" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:32">
+      <c r="A255" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C255" s="10"/>
+      <c r="D255" s="9">
+        <v>9984</v>
+      </c>
+      <c r="E255" s="9">
+        <v>0</v>
+      </c>
+      <c r="F255" s="11">
+        <v>23000</v>
+      </c>
+      <c r="G255" s="11">
+        <v>4066.73</v>
+      </c>
+      <c r="H255" s="11">
+        <v>93534900</v>
+      </c>
+      <c r="I255" s="11">
+        <v>4273</v>
+      </c>
+      <c r="J255" s="11">
+        <v>98279000</v>
+      </c>
+      <c r="K255" s="11">
+        <v>4744100</v>
+      </c>
+      <c r="L255" s="12">
+        <v>48672427</v>
+      </c>
+      <c r="M255" s="9">
+        <v>0</v>
+      </c>
+      <c r="N255" s="9">
+        <v>0</v>
+      </c>
+      <c r="O255" s="9">
+        <v>0</v>
+      </c>
+      <c r="P255" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q255" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R255" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S255" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T255" s="10"/>
+      <c r="U255" s="9">
+        <v>0</v>
+      </c>
+      <c r="V255" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W255" s="9">
+        <v>926.51</v>
+      </c>
+      <c r="X255" s="12">
+        <v>866619555</v>
+      </c>
+      <c r="Y255" s="9">
+        <v>931.32</v>
+      </c>
+      <c r="Z255" s="12">
+        <v>915291982</v>
+      </c>
+      <c r="AA255" s="12">
+        <v>44182752</v>
+      </c>
+      <c r="AB255" s="12">
+        <v>4489675</v>
+      </c>
+      <c r="AC255" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD255" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE255" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF255" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:32">
+      <c r="A256" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C256" s="10"/>
+      <c r="D256" s="9">
+        <v>6954</v>
+      </c>
+      <c r="E256" s="9">
+        <v>0</v>
+      </c>
+      <c r="F256" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G256" s="11">
+        <v>6568.27</v>
+      </c>
+      <c r="H256" s="11">
+        <v>65682650</v>
+      </c>
+      <c r="I256" s="11">
+        <v>6155</v>
+      </c>
+      <c r="J256" s="11">
+        <v>61550000</v>
+      </c>
+      <c r="K256" s="11">
+        <v>-4132650</v>
+      </c>
+      <c r="L256" s="12">
+        <v>-35663842</v>
+      </c>
+      <c r="M256" s="9">
+        <v>0</v>
+      </c>
+      <c r="N256" s="9">
+        <v>0</v>
+      </c>
+      <c r="O256" s="9">
+        <v>0</v>
+      </c>
+      <c r="P256" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q256" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R256" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S256" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T256" s="10"/>
+      <c r="U256" s="9">
+        <v>0</v>
+      </c>
+      <c r="V256" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W256" s="9">
+        <v>927.01</v>
+      </c>
+      <c r="X256" s="12">
+        <v>608891302</v>
+      </c>
+      <c r="Y256" s="9">
+        <v>931.32</v>
+      </c>
+      <c r="Z256" s="12">
+        <v>573227460</v>
+      </c>
+      <c r="AA256" s="12">
+        <v>-38488195</v>
+      </c>
+      <c r="AB256" s="12">
+        <v>2824353</v>
+      </c>
+      <c r="AC256" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD256" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE256" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF256" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:32">
+      <c r="A257" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C257" s="10"/>
+      <c r="D257" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E257" s="9">
+        <v>0</v>
+      </c>
+      <c r="F257" s="11">
+        <v>38000</v>
+      </c>
+      <c r="G257" s="9">
+        <v>12.58</v>
+      </c>
+      <c r="H257" s="11">
+        <v>478066.6</v>
+      </c>
+      <c r="I257" s="9">
+        <v>13.82</v>
+      </c>
+      <c r="J257" s="11">
+        <v>525160</v>
+      </c>
+      <c r="K257" s="11">
+        <v>47093.4</v>
+      </c>
+      <c r="L257" s="12">
+        <v>48250581</v>
+      </c>
+      <c r="M257" s="9">
+        <v>0</v>
+      </c>
+      <c r="N257" s="9">
+        <v>0</v>
+      </c>
+      <c r="O257" s="9">
+        <v>0</v>
+      </c>
+      <c r="P257" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q257" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R257" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S257" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="T257" s="10"/>
+      <c r="U257" s="9">
+        <v>0</v>
+      </c>
+      <c r="V257" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W257" s="11">
+        <v>1468.39</v>
+      </c>
+      <c r="X257" s="12">
+        <v>701992995</v>
+      </c>
+      <c r="Y257" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z257" s="12">
+        <v>750243576</v>
+      </c>
+      <c r="AA257" s="12">
+        <v>67277631</v>
+      </c>
+      <c r="AB257" s="12">
+        <v>-19027051</v>
+      </c>
+      <c r="AC257" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD257" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE257" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF257" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:32">
+      <c r="A258" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C258" s="10"/>
+      <c r="D258" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E258" s="9">
+        <v>0</v>
+      </c>
+      <c r="F258" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G258" s="9">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H258" s="11">
+        <v>482030</v>
+      </c>
+      <c r="I258" s="9">
+        <v>50.78</v>
+      </c>
+      <c r="J258" s="11">
+        <v>507800</v>
+      </c>
+      <c r="K258" s="11">
+        <v>25770</v>
+      </c>
+      <c r="L258" s="12">
+        <v>23752009</v>
+      </c>
+      <c r="M258" s="9">
+        <v>0</v>
+      </c>
+      <c r="N258" s="9">
+        <v>0</v>
+      </c>
+      <c r="O258" s="9">
+        <v>0</v>
+      </c>
+      <c r="P258" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q258" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R258" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S258" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="T258" s="10"/>
+      <c r="U258" s="9">
+        <v>0</v>
+      </c>
+      <c r="V258" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W258" s="11">
+        <v>1455.7</v>
+      </c>
+      <c r="X258" s="12">
+        <v>701691071</v>
+      </c>
+      <c r="Y258" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z258" s="12">
+        <v>725443080</v>
+      </c>
+      <c r="AA258" s="12">
+        <v>36815022</v>
+      </c>
+      <c r="AB258" s="12">
+        <v>-13063013</v>
+      </c>
+      <c r="AC258" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD258" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE258" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF258" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:32">
+      <c r="A259" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C259" s="10"/>
+      <c r="D259" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E259" s="9">
+        <v>0</v>
+      </c>
+      <c r="F259" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G259" s="9">
+        <v>34.24</v>
+      </c>
+      <c r="H259" s="11">
+        <v>684800</v>
+      </c>
+      <c r="I259" s="9">
+        <v>34.46</v>
+      </c>
+      <c r="J259" s="11">
+        <v>689200</v>
+      </c>
+      <c r="K259" s="11">
+        <v>4400</v>
+      </c>
+      <c r="L259" s="12">
+        <v>-26858480</v>
+      </c>
+      <c r="M259" s="9">
+        <v>0</v>
+      </c>
+      <c r="N259" s="9">
+        <v>0</v>
+      </c>
+      <c r="O259" s="9">
+        <v>0</v>
+      </c>
+      <c r="P259" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q259" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R259" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S259" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="T259" s="10"/>
+      <c r="U259" s="9">
+        <v>0</v>
+      </c>
+      <c r="V259" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W259" s="11">
+        <v>1477</v>
+      </c>
+      <c r="X259" s="12">
+        <v>1011449600</v>
+      </c>
+      <c r="Y259" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z259" s="12">
+        <v>984591120</v>
+      </c>
+      <c r="AA259" s="12">
+        <v>6285840</v>
+      </c>
+      <c r="AB259" s="12">
+        <v>-33144320</v>
+      </c>
+      <c r="AC259" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD259" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE259" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF259" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:32">
+      <c r="A260" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C260" s="10"/>
+      <c r="D260" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E260" s="9">
+        <v>0</v>
+      </c>
+      <c r="F260" s="11">
+        <v>5000</v>
+      </c>
+      <c r="G260" s="9">
+        <v>251.01</v>
+      </c>
+      <c r="H260" s="11">
+        <v>1255051.8</v>
+      </c>
+      <c r="I260" s="9">
+        <v>257.38</v>
+      </c>
+      <c r="J260" s="11">
+        <v>1286900</v>
+      </c>
+      <c r="K260" s="11">
+        <v>31848.2</v>
+      </c>
+      <c r="L260" s="12">
+        <v>-804897</v>
+      </c>
+      <c r="M260" s="9">
+        <v>0</v>
+      </c>
+      <c r="N260" s="9">
+        <v>0</v>
+      </c>
+      <c r="O260" s="9">
+        <v>0</v>
+      </c>
+      <c r="P260" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q260" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R260" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S260" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="T260" s="10"/>
+      <c r="U260" s="9">
+        <v>0</v>
+      </c>
+      <c r="V260" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W260" s="11">
+        <v>1465.49</v>
+      </c>
+      <c r="X260" s="12">
+        <v>1839270237</v>
+      </c>
+      <c r="Y260" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z260" s="12">
+        <v>1838465340</v>
+      </c>
+      <c r="AA260" s="12">
+        <v>45498338</v>
+      </c>
+      <c r="AB260" s="12">
+        <v>-46303236</v>
+      </c>
+      <c r="AC260" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD260" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE260" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF260" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:32">
+      <c r="A261" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C261" s="10"/>
+      <c r="D261" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E261" s="9">
+        <v>0</v>
+      </c>
+      <c r="F261" s="11">
+        <v>83000</v>
+      </c>
+      <c r="G261" s="9">
+        <v>12.374000000000001</v>
+      </c>
+      <c r="H261" s="11">
+        <v>1027042</v>
+      </c>
+      <c r="I261" s="9">
+        <v>9.61</v>
+      </c>
+      <c r="J261" s="11">
+        <v>797630</v>
+      </c>
+      <c r="K261" s="11">
+        <v>-229412</v>
+      </c>
+      <c r="L261" s="12">
+        <v>-345300401</v>
+      </c>
+      <c r="M261" s="9">
+        <v>0</v>
+      </c>
+      <c r="N261" s="9">
+        <v>0</v>
+      </c>
+      <c r="O261" s="9">
+        <v>0</v>
+      </c>
+      <c r="P261" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q261" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R261" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S261" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T261" s="10"/>
+      <c r="U261" s="9">
+        <v>0</v>
+      </c>
+      <c r="V261" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W261" s="11">
+        <v>1445.69</v>
+      </c>
+      <c r="X261" s="12">
+        <v>1484794619</v>
+      </c>
+      <c r="Y261" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z261" s="12">
+        <v>1139494218</v>
+      </c>
+      <c r="AA261" s="12">
+        <v>-327737983</v>
+      </c>
+      <c r="AB261" s="12">
+        <v>-17562418</v>
+      </c>
+      <c r="AC261" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD261" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE261" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF261" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:32">
+      <c r="A262" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C262" s="10"/>
+      <c r="D262" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E262" s="9">
+        <v>0</v>
+      </c>
+      <c r="F262" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G262" s="9">
+        <v>44.158999999999999</v>
+      </c>
+      <c r="H262" s="11">
+        <v>441591</v>
+      </c>
+      <c r="I262" s="9">
+        <v>45.27</v>
+      </c>
+      <c r="J262" s="11">
+        <v>452700</v>
+      </c>
+      <c r="K262" s="11">
+        <v>11109</v>
+      </c>
+      <c r="L262" s="12">
+        <v>-1705004</v>
+      </c>
+      <c r="M262" s="9">
+        <v>0</v>
+      </c>
+      <c r="N262" s="9">
+        <v>0</v>
+      </c>
+      <c r="O262" s="9">
+        <v>0</v>
+      </c>
+      <c r="P262" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q262" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R262" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S262" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T262" s="10"/>
+      <c r="U262" s="9">
+        <v>0</v>
+      </c>
+      <c r="V262" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W262" s="11">
+        <v>1468.39</v>
+      </c>
+      <c r="X262" s="12">
+        <v>648432224</v>
+      </c>
+      <c r="Y262" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z262" s="12">
+        <v>646727220</v>
+      </c>
+      <c r="AA262" s="12">
+        <v>15870317</v>
+      </c>
+      <c r="AB262" s="12">
+        <v>-17575322</v>
+      </c>
+      <c r="AC262" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD262" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE262" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF262" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:32">
+      <c r="A263" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C263" s="10"/>
+      <c r="D263" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E263" s="9">
+        <v>0</v>
+      </c>
+      <c r="F263" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G263" s="9">
+        <v>681.92</v>
+      </c>
+      <c r="H263" s="11">
+        <v>681920</v>
+      </c>
+      <c r="I263" s="9">
+        <v>697.07</v>
+      </c>
+      <c r="J263" s="11">
+        <v>697070</v>
+      </c>
+      <c r="K263" s="11">
+        <v>15150</v>
+      </c>
+      <c r="L263" s="12">
+        <v>17347194</v>
+      </c>
+      <c r="M263" s="9">
+        <v>0</v>
+      </c>
+      <c r="N263" s="11">
+        <v>20010.3</v>
+      </c>
+      <c r="O263" s="11">
+        <v>20010.3</v>
+      </c>
+      <c r="P263" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q263" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R263" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S263" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T263" s="10"/>
+      <c r="U263" s="9">
+        <v>0</v>
+      </c>
+      <c r="V263" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W263" s="11">
+        <v>1434.9</v>
+      </c>
+      <c r="X263" s="12">
+        <v>978487008</v>
+      </c>
+      <c r="Y263" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z263" s="12">
+        <v>995834202</v>
+      </c>
+      <c r="AA263" s="12">
+        <v>21643290</v>
+      </c>
+      <c r="AB263" s="12">
+        <v>-4296096</v>
+      </c>
+      <c r="AC263" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD263" s="12">
+        <v>135496504</v>
+      </c>
+      <c r="AE263" s="12">
+        <v>135496504</v>
+      </c>
+      <c r="AF263" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:32">
+      <c r="A264" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C264" s="10"/>
+      <c r="D264" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E264" s="9">
+        <v>0</v>
+      </c>
+      <c r="F264" s="11">
+        <v>4200</v>
+      </c>
+      <c r="G264" s="9">
+        <v>396.31</v>
+      </c>
+      <c r="H264" s="11">
+        <v>1664502</v>
+      </c>
+      <c r="I264" s="9">
+        <v>513.14</v>
+      </c>
+      <c r="J264" s="11">
+        <v>2155188</v>
+      </c>
+      <c r="K264" s="11">
+        <v>490686</v>
+      </c>
+      <c r="L264" s="12">
+        <v>690507657</v>
+      </c>
+      <c r="M264" s="9">
+        <v>0</v>
+      </c>
+      <c r="N264" s="9">
+        <v>0</v>
+      </c>
+      <c r="O264" s="9">
+        <v>0</v>
+      </c>
+      <c r="P264" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q264" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R264" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S264" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T264" s="10"/>
+      <c r="U264" s="9">
+        <v>0</v>
+      </c>
+      <c r="V264" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W264" s="11">
+        <v>1434.89</v>
+      </c>
+      <c r="X264" s="12">
+        <v>2388393919</v>
+      </c>
+      <c r="Y264" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z264" s="12">
+        <v>3078901576</v>
+      </c>
+      <c r="AA264" s="12">
+        <v>700994019</v>
+      </c>
+      <c r="AB264" s="12">
+        <v>-10486362</v>
+      </c>
+      <c r="AC264" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD264" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE264" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF264" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:32">
+      <c r="A265" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C265" s="10"/>
+      <c r="D265" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E265" s="9">
+        <v>0</v>
+      </c>
+      <c r="F265" s="11">
+        <v>24000</v>
+      </c>
+      <c r="G265" s="9">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H265" s="11">
+        <v>423736.8</v>
+      </c>
+      <c r="I265" s="9">
+        <v>17.05</v>
+      </c>
+      <c r="J265" s="11">
+        <v>409200</v>
+      </c>
+      <c r="K265" s="11">
+        <v>-14536.8</v>
+      </c>
+      <c r="L265" s="12">
+        <v>-35809928</v>
+      </c>
+      <c r="M265" s="9">
+        <v>0</v>
+      </c>
+      <c r="N265" s="9">
+        <v>0</v>
+      </c>
+      <c r="O265" s="9">
+        <v>0</v>
+      </c>
+      <c r="P265" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q265" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R265" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S265" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T265" s="10"/>
+      <c r="U265" s="9">
+        <v>0</v>
+      </c>
+      <c r="V265" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W265" s="11">
+        <v>1464.09</v>
+      </c>
+      <c r="X265" s="12">
+        <v>620393048</v>
+      </c>
+      <c r="Y265" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z265" s="12">
+        <v>584583120</v>
+      </c>
+      <c r="AA265" s="12">
+        <v>-20767272</v>
+      </c>
+      <c r="AB265" s="12">
+        <v>-15042656</v>
+      </c>
+      <c r="AC265" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD265" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE265" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF265" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:32">
+      <c r="A266" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C266" s="10"/>
+      <c r="D266" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E266" s="9">
+        <v>0</v>
+      </c>
+      <c r="F266" s="11">
+        <v>1400</v>
+      </c>
+      <c r="G266" s="9">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H266" s="11">
+        <v>605554.04</v>
+      </c>
+      <c r="I266" s="9">
+        <v>440.83</v>
+      </c>
+      <c r="J266" s="11">
+        <v>617162</v>
+      </c>
+      <c r="K266" s="11">
+        <v>11607.96</v>
+      </c>
+      <c r="L266" s="12">
+        <v>5562048</v>
+      </c>
+      <c r="M266" s="9">
+        <v>0</v>
+      </c>
+      <c r="N266" s="9">
+        <v>0</v>
+      </c>
+      <c r="O266" s="9">
+        <v>0</v>
+      </c>
+      <c r="P266" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q266" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R266" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S266" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T266" s="10"/>
+      <c r="U266" s="9">
+        <v>0</v>
+      </c>
+      <c r="V266" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W266" s="11">
+        <v>1446.79</v>
+      </c>
+      <c r="X266" s="12">
+        <v>876115585</v>
+      </c>
+      <c r="Y266" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z266" s="12">
+        <v>881677633</v>
+      </c>
+      <c r="AA266" s="12">
+        <v>16583131</v>
+      </c>
+      <c r="AB266" s="12">
+        <v>-11021084</v>
+      </c>
+      <c r="AC266" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD266" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE266" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF266" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:32" ht="18" thickBot="1">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2"/>
-      <c r="K267" s="2"/>
-      <c r="L267" s="2"/>
-      <c r="M267" s="2"/>
-      <c r="N267" s="2"/>
-      <c r="O267" s="2"/>
-      <c r="P267" s="2"/>
-      <c r="Q267" s="2"/>
-      <c r="R267" s="2"/>
-      <c r="S267" s="2"/>
-      <c r="T267" s="2"/>
-      <c r="U267" s="2"/>
-      <c r="V267" s="2"/>
-      <c r="W267" s="2"/>
-      <c r="X267" s="2"/>
-      <c r="Y267" s="2"/>
-      <c r="Z267" s="2"/>
-      <c r="AA267" s="2"/>
-      <c r="AB267" s="2"/>
-      <c r="AC267" s="2"/>
-      <c r="AD267" s="2"/>
-      <c r="AE267" s="2"/>
-      <c r="AF267" s="2"/>
+      <c r="A267" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C267" s="10"/>
+      <c r="D267" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E267" s="9">
+        <v>0</v>
+      </c>
+      <c r="F267" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G267" s="9">
+        <v>169.042</v>
+      </c>
+      <c r="H267" s="11">
+        <v>591649.80000000005</v>
+      </c>
+      <c r="I267" s="9">
+        <v>166.19</v>
+      </c>
+      <c r="J267" s="11">
+        <v>581665</v>
+      </c>
+      <c r="K267" s="11">
+        <v>-9984.7999999999993</v>
+      </c>
+      <c r="L267" s="12">
+        <v>-25032311</v>
+      </c>
+      <c r="M267" s="9">
+        <v>0</v>
+      </c>
+      <c r="N267" s="9">
+        <v>0</v>
+      </c>
+      <c r="O267" s="9">
+        <v>0</v>
+      </c>
+      <c r="P267" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q267" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R267" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S267" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T267" s="10"/>
+      <c r="U267" s="9">
+        <v>0</v>
+      </c>
+      <c r="V267" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W267" s="11">
+        <v>1446.79</v>
+      </c>
+      <c r="X267" s="12">
+        <v>855998930</v>
+      </c>
+      <c r="Y267" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z267" s="12">
+        <v>830966619</v>
+      </c>
+      <c r="AA267" s="12">
+        <v>-14264285</v>
+      </c>
+      <c r="AB267" s="12">
+        <v>-10768026</v>
+      </c>
+      <c r="AC267" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD267" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE267" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF267" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" spans="1:32" ht="18" thickBot="1">
       <c r="A268" s="2"/>

--- a/2026_멀티.xlsx
+++ b/2026_멀티.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyejinha/Desktop/Workspace/Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7732EA8E-3EA6-8D4A-9E0D-9434C7820681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3F3C77-BB96-A54B-A54B-283757F272A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="97">
   <si>
     <t>기준일자</t>
   </si>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="A268" sqref="A268:AF288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -23779,59 +23779,59 @@
     </row>
     <row r="247" spans="1:32">
       <c r="A247" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C247" s="10"/>
-      <c r="D247" s="9">
-        <v>6869</v>
+      <c r="D247" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="E247" s="9">
         <v>0</v>
       </c>
-      <c r="F247" s="9">
-        <v>0</v>
+      <c r="F247" s="11">
+        <v>38000</v>
       </c>
       <c r="G247" s="9">
-        <v>0</v>
-      </c>
-      <c r="H247" s="9">
-        <v>0</v>
+        <v>12.58</v>
+      </c>
+      <c r="H247" s="11">
+        <v>478066.6</v>
       </c>
       <c r="I247" s="9">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="J247" s="9">
-        <v>0</v>
-      </c>
-      <c r="K247" s="9">
-        <v>0</v>
-      </c>
-      <c r="L247" s="9">
-        <v>0</v>
+        <v>13.92</v>
+      </c>
+      <c r="J247" s="11">
+        <v>528960</v>
+      </c>
+      <c r="K247" s="11">
+        <v>50893.4</v>
+      </c>
+      <c r="L247" s="12">
+        <v>64364253</v>
       </c>
       <c r="M247" s="9">
         <v>0</v>
       </c>
-      <c r="N247" s="11">
-        <v>349976</v>
-      </c>
-      <c r="O247" s="11">
-        <v>349976</v>
+      <c r="N247" s="9">
+        <v>0</v>
+      </c>
+      <c r="O247" s="9">
+        <v>0</v>
       </c>
       <c r="P247" s="9">
         <v>0</v>
       </c>
       <c r="Q247" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R247" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S247" s="9" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="T247" s="10"/>
       <c r="U247" s="9">
@@ -23840,32 +23840,32 @@
       <c r="V247" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W247" s="9">
-        <v>0</v>
-      </c>
-      <c r="X247" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y247" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z247" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA247" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB247" s="9">
-        <v>0</v>
+      <c r="W247" s="11">
+        <v>1468.39</v>
+      </c>
+      <c r="X247" s="12">
+        <v>701992995</v>
+      </c>
+      <c r="Y247" s="11">
+        <v>1448.8</v>
+      </c>
+      <c r="Z247" s="12">
+        <v>766357248</v>
+      </c>
+      <c r="AA247" s="12">
+        <v>73734357</v>
+      </c>
+      <c r="AB247" s="12">
+        <v>-9370105</v>
       </c>
       <c r="AC247" s="9">
         <v>0</v>
       </c>
-      <c r="AD247" s="12">
-        <v>72042766</v>
-      </c>
-      <c r="AE247" s="12">
-        <v>72042766</v>
+      <c r="AD247" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE247" s="9">
+        <v>0</v>
       </c>
       <c r="AF247" s="9">
         <v>0</v>
@@ -23873,38 +23873,38 @@
     </row>
     <row r="248" spans="1:32">
       <c r="A248" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C248" s="10"/>
-      <c r="D248" s="9">
-        <v>2359</v>
+      <c r="D248" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E248" s="9">
         <v>0</v>
       </c>
       <c r="F248" s="11">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G248" s="9">
-        <v>118.559</v>
+        <v>48.203000000000003</v>
       </c>
       <c r="H248" s="11">
-        <v>2963990</v>
+        <v>482030</v>
       </c>
       <c r="I248" s="9">
-        <v>115.7</v>
+        <v>50.47</v>
       </c>
       <c r="J248" s="11">
-        <v>2892500</v>
+        <v>504700</v>
       </c>
       <c r="K248" s="11">
-        <v>-71490</v>
+        <v>22670</v>
       </c>
       <c r="L248" s="12">
-        <v>-30429875</v>
+        <v>29518289</v>
       </c>
       <c r="M248" s="9">
         <v>0</v>
@@ -23919,13 +23919,13 @@
         <v>0</v>
       </c>
       <c r="Q248" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R248" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S248" s="9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="T248" s="10"/>
       <c r="U248" s="9">
@@ -23934,23 +23934,23 @@
       <c r="V248" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W248" s="9">
-        <v>188.95</v>
+      <c r="W248" s="11">
+        <v>1455.7</v>
       </c>
       <c r="X248" s="12">
-        <v>560075550</v>
-      </c>
-      <c r="Y248" s="9">
-        <v>183.11</v>
+        <v>701691071</v>
+      </c>
+      <c r="Y248" s="11">
+        <v>1448.8</v>
       </c>
       <c r="Z248" s="12">
-        <v>529645675</v>
+        <v>731209360</v>
       </c>
       <c r="AA248" s="12">
-        <v>-13090533</v>
+        <v>32844296</v>
       </c>
       <c r="AB248" s="12">
-        <v>-17339342</v>
+        <v>-3326007</v>
       </c>
       <c r="AC248" s="9">
         <v>0</v>
@@ -23967,38 +23967,38 @@
     </row>
     <row r="249" spans="1:32">
       <c r="A249" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C249" s="10"/>
-      <c r="D249" s="9">
-        <v>6680</v>
+      <c r="D249" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E249" s="9">
         <v>0</v>
       </c>
       <c r="F249" s="11">
-        <v>130000</v>
+        <v>20000</v>
       </c>
       <c r="G249" s="9">
-        <v>22.469000000000001</v>
+        <v>34.24</v>
       </c>
       <c r="H249" s="11">
-        <v>2921022</v>
+        <v>684800</v>
       </c>
       <c r="I249" s="9">
-        <v>23.86</v>
+        <v>34.46</v>
       </c>
       <c r="J249" s="11">
-        <v>3101800</v>
+        <v>689200</v>
       </c>
       <c r="K249" s="11">
-        <v>180778</v>
+        <v>4400</v>
       </c>
       <c r="L249" s="12">
-        <v>16218753</v>
+        <v>-12936640</v>
       </c>
       <c r="M249" s="9">
         <v>0</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q249" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R249" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S249" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="T249" s="10"/>
       <c r="U249" s="9">
@@ -24028,23 +24028,23 @@
       <c r="V249" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W249" s="9">
-        <v>188.88</v>
+      <c r="W249" s="11">
+        <v>1477</v>
       </c>
       <c r="X249" s="12">
-        <v>551751845</v>
-      </c>
-      <c r="Y249" s="9">
-        <v>183.11</v>
+        <v>1011449600</v>
+      </c>
+      <c r="Y249" s="11">
+        <v>1448.8</v>
       </c>
       <c r="Z249" s="12">
-        <v>567970598</v>
+        <v>998512960</v>
       </c>
       <c r="AA249" s="12">
-        <v>33102259</v>
+        <v>6374720</v>
       </c>
       <c r="AB249" s="12">
-        <v>-16883507</v>
+        <v>-19311360</v>
       </c>
       <c r="AC249" s="9">
         <v>0</v>
@@ -24061,59 +24061,59 @@
     </row>
     <row r="250" spans="1:32">
       <c r="A250" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C250" s="10"/>
-      <c r="D250" s="9">
-        <v>6181</v>
+      <c r="D250" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E250" s="9">
         <v>0</v>
       </c>
-      <c r="F250" s="9">
-        <v>0</v>
+      <c r="F250" s="11">
+        <v>3000</v>
       </c>
       <c r="G250" s="9">
-        <v>0</v>
-      </c>
-      <c r="H250" s="9">
-        <v>0</v>
+        <v>247.65</v>
+      </c>
+      <c r="H250" s="11">
+        <v>742950</v>
       </c>
       <c r="I250" s="9">
-        <v>779</v>
-      </c>
-      <c r="J250" s="9">
-        <v>0</v>
-      </c>
-      <c r="K250" s="9">
-        <v>0</v>
-      </c>
-      <c r="L250" s="9">
-        <v>0</v>
+        <v>256.44</v>
+      </c>
+      <c r="J250" s="11">
+        <v>769320</v>
+      </c>
+      <c r="K250" s="11">
+        <v>26370</v>
+      </c>
+      <c r="L250" s="12">
+        <v>17253666</v>
       </c>
       <c r="M250" s="9">
         <v>0</v>
       </c>
-      <c r="N250" s="11">
-        <v>-6374.88</v>
+      <c r="N250" s="9">
+        <v>0</v>
       </c>
       <c r="O250" s="9">
         <v>0</v>
       </c>
-      <c r="P250" s="11">
-        <v>6374.88</v>
+      <c r="P250" s="9">
+        <v>0</v>
       </c>
       <c r="Q250" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R250" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S250" s="9" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="T250" s="10"/>
       <c r="U250" s="9">
@@ -24122,32 +24122,32 @@
       <c r="V250" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W250" s="9">
-        <v>0</v>
-      </c>
-      <c r="X250" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y250" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z250" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA250" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB250" s="9">
-        <v>0</v>
+      <c r="W250" s="11">
+        <v>1477</v>
+      </c>
+      <c r="X250" s="12">
+        <v>1097337150</v>
+      </c>
+      <c r="Y250" s="11">
+        <v>1448.8</v>
+      </c>
+      <c r="Z250" s="12">
+        <v>1114590816</v>
+      </c>
+      <c r="AA250" s="12">
+        <v>38204856</v>
+      </c>
+      <c r="AB250" s="12">
+        <v>-20951190</v>
       </c>
       <c r="AC250" s="9">
         <v>0</v>
       </c>
-      <c r="AD250" s="12">
-        <v>1362525</v>
-      </c>
-      <c r="AE250" s="12">
-        <v>1362525</v>
+      <c r="AD250" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE250" s="9">
+        <v>0</v>
       </c>
       <c r="AF250" s="9">
         <v>0</v>
@@ -24155,59 +24155,59 @@
     </row>
     <row r="251" spans="1:32">
       <c r="A251" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C251" s="10"/>
-      <c r="D251" s="9">
-        <v>6082</v>
+      <c r="D251" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="E251" s="9">
         <v>0</v>
       </c>
-      <c r="F251" s="9">
-        <v>0</v>
+      <c r="F251" s="11">
+        <v>83000</v>
       </c>
       <c r="G251" s="9">
-        <v>0</v>
-      </c>
-      <c r="H251" s="9">
-        <v>0</v>
+        <v>12.374000000000001</v>
+      </c>
+      <c r="H251" s="11">
+        <v>1027042</v>
       </c>
       <c r="I251" s="9">
-        <v>34.96</v>
-      </c>
-      <c r="J251" s="9">
-        <v>0</v>
-      </c>
-      <c r="K251" s="9">
-        <v>0</v>
-      </c>
-      <c r="L251" s="9">
-        <v>0</v>
+        <v>9.51</v>
+      </c>
+      <c r="J251" s="11">
+        <v>789330</v>
+      </c>
+      <c r="K251" s="11">
+        <v>-237712</v>
+      </c>
+      <c r="L251" s="12">
+        <v>-341213315</v>
       </c>
       <c r="M251" s="9">
         <v>0</v>
       </c>
-      <c r="N251" s="11">
-        <v>205980</v>
-      </c>
-      <c r="O251" s="11">
-        <v>205980</v>
+      <c r="N251" s="9">
+        <v>0</v>
+      </c>
+      <c r="O251" s="9">
+        <v>0</v>
       </c>
       <c r="P251" s="9">
         <v>0</v>
       </c>
       <c r="Q251" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R251" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S251" s="9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="T251" s="10"/>
       <c r="U251" s="9">
@@ -24216,32 +24216,32 @@
       <c r="V251" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W251" s="9">
-        <v>0</v>
-      </c>
-      <c r="X251" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y251" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z251" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA251" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB251" s="9">
-        <v>0</v>
+      <c r="W251" s="11">
+        <v>1445.69</v>
+      </c>
+      <c r="X251" s="12">
+        <v>1484794619</v>
+      </c>
+      <c r="Y251" s="11">
+        <v>1448.8</v>
+      </c>
+      <c r="Z251" s="12">
+        <v>1143581304</v>
+      </c>
+      <c r="AA251" s="12">
+        <v>-344397145</v>
+      </c>
+      <c r="AB251" s="12">
+        <v>3183830</v>
       </c>
       <c r="AC251" s="9">
         <v>0</v>
       </c>
-      <c r="AD251" s="12">
-        <v>49395681</v>
-      </c>
-      <c r="AE251" s="12">
-        <v>49395681</v>
+      <c r="AD251" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE251" s="9">
+        <v>0</v>
       </c>
       <c r="AF251" s="9">
         <v>0</v>
@@ -24249,38 +24249,38 @@
     </row>
     <row r="252" spans="1:32">
       <c r="A252" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="C252" s="10"/>
-      <c r="D252" s="9">
-        <v>9988</v>
+      <c r="D252" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="E252" s="9">
         <v>0</v>
       </c>
       <c r="F252" s="11">
-        <v>70500</v>
+        <v>10000</v>
       </c>
       <c r="G252" s="9">
-        <v>147.79</v>
+        <v>44.158999999999999</v>
       </c>
       <c r="H252" s="11">
-        <v>10419200</v>
+        <v>441591</v>
       </c>
       <c r="I252" s="9">
-        <v>172.5</v>
+        <v>44.83</v>
       </c>
       <c r="J252" s="11">
-        <v>12161250</v>
+        <v>448300</v>
       </c>
       <c r="K252" s="11">
-        <v>1742050</v>
+        <v>6709</v>
       </c>
       <c r="L252" s="12">
-        <v>292047887</v>
+        <v>1064816</v>
       </c>
       <c r="M252" s="9">
         <v>0</v>
@@ -24295,13 +24295,13 @@
         <v>0</v>
       </c>
       <c r="Q252" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R252" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S252" s="9" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="T252" s="10"/>
       <c r="U252" s="9">
@@ -24310,23 +24310,23 @@
       <c r="V252" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W252" s="9">
-        <v>185.69</v>
+      <c r="W252" s="11">
+        <v>1468.39</v>
       </c>
       <c r="X252" s="12">
-        <v>1934798600</v>
-      </c>
-      <c r="Y252" s="9">
-        <v>183.11</v>
+        <v>648432224</v>
+      </c>
+      <c r="Y252" s="11">
+        <v>1448.8</v>
       </c>
       <c r="Z252" s="12">
-        <v>2226846487</v>
+        <v>649497040</v>
       </c>
       <c r="AA252" s="12">
-        <v>318986775</v>
+        <v>9719999</v>
       </c>
       <c r="AB252" s="12">
-        <v>-26938888</v>
+        <v>-8655184</v>
       </c>
       <c r="AC252" s="9">
         <v>0</v>
@@ -24343,93 +24343,93 @@
     </row>
     <row r="253" spans="1:32">
       <c r="A253" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C253" s="10"/>
-      <c r="D253" s="9">
-        <v>6861</v>
+      <c r="D253" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E253" s="9">
         <v>0</v>
       </c>
       <c r="F253" s="11">
-        <v>1900</v>
-      </c>
-      <c r="G253" s="11">
-        <v>55916.79</v>
+        <v>1000</v>
+      </c>
+      <c r="G253" s="9">
+        <v>681.92</v>
       </c>
       <c r="H253" s="11">
-        <v>106241900</v>
-      </c>
-      <c r="I253" s="11">
-        <v>58820</v>
+        <v>681920</v>
+      </c>
+      <c r="I253" s="9">
+        <v>695.42</v>
       </c>
       <c r="J253" s="11">
-        <v>111758000</v>
+        <v>695420</v>
       </c>
       <c r="K253" s="11">
-        <v>5516100</v>
+        <v>13500</v>
       </c>
       <c r="L253" s="12">
-        <v>58660737</v>
+        <v>29037488</v>
       </c>
       <c r="M253" s="9">
         <v>0</v>
       </c>
-      <c r="N253" s="9">
-        <v>0</v>
-      </c>
-      <c r="O253" s="9">
-        <v>0</v>
+      <c r="N253" s="11">
+        <v>20010.3</v>
+      </c>
+      <c r="O253" s="11">
+        <v>20010.3</v>
       </c>
       <c r="P253" s="9">
         <v>0</v>
       </c>
       <c r="Q253" s="9" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="R253" s="9" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="S253" s="9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="T253" s="10"/>
       <c r="U253" s="9">
         <v>0</v>
       </c>
       <c r="V253" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="W253" s="9">
-        <v>924.45</v>
+        <v>42</v>
+      </c>
+      <c r="W253" s="11">
+        <v>1434.9</v>
       </c>
       <c r="X253" s="12">
-        <v>982163868</v>
-      </c>
-      <c r="Y253" s="9">
-        <v>931.32</v>
+        <v>978487008</v>
+      </c>
+      <c r="Y253" s="11">
+        <v>1448.8</v>
       </c>
       <c r="Z253" s="12">
-        <v>1040824605</v>
+        <v>1007524496</v>
       </c>
       <c r="AA253" s="12">
-        <v>51372542</v>
+        <v>19558800</v>
       </c>
       <c r="AB253" s="12">
-        <v>7288195</v>
+        <v>9478688</v>
       </c>
       <c r="AC253" s="9">
         <v>0</v>
       </c>
-      <c r="AD253" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE253" s="9">
-        <v>0</v>
+      <c r="AD253" s="12">
+        <v>135496504</v>
+      </c>
+      <c r="AE253" s="12">
+        <v>135496504</v>
       </c>
       <c r="AF253" s="9">
         <v>0</v>
@@ -24437,93 +24437,93 @@
     </row>
     <row r="254" spans="1:32">
       <c r="A254" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="9" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E254" s="9">
         <v>0</v>
       </c>
-      <c r="F254" s="9">
-        <v>0</v>
+      <c r="F254" s="11">
+        <v>4200</v>
       </c>
       <c r="G254" s="9">
-        <v>0</v>
-      </c>
-      <c r="H254" s="9">
-        <v>0</v>
-      </c>
-      <c r="I254" s="11">
-        <v>19450</v>
-      </c>
-      <c r="J254" s="9">
-        <v>0</v>
-      </c>
-      <c r="K254" s="9">
-        <v>0</v>
-      </c>
-      <c r="L254" s="9">
-        <v>0</v>
+        <v>396.31</v>
+      </c>
+      <c r="H254" s="11">
+        <v>1664502</v>
+      </c>
+      <c r="I254" s="9">
+        <v>494.56</v>
+      </c>
+      <c r="J254" s="11">
+        <v>2077152</v>
+      </c>
+      <c r="K254" s="11">
+        <v>412650</v>
+      </c>
+      <c r="L254" s="12">
+        <v>620983898</v>
       </c>
       <c r="M254" s="9">
         <v>0</v>
       </c>
-      <c r="N254" s="11">
-        <v>4480700</v>
-      </c>
-      <c r="O254" s="11">
-        <v>4480700</v>
+      <c r="N254" s="9">
+        <v>0</v>
+      </c>
+      <c r="O254" s="9">
+        <v>0</v>
       </c>
       <c r="P254" s="9">
         <v>0</v>
       </c>
       <c r="Q254" s="9" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="R254" s="9" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="S254" s="9" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="T254" s="10"/>
       <c r="U254" s="9">
         <v>0</v>
       </c>
       <c r="V254" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="W254" s="9">
-        <v>0</v>
-      </c>
-      <c r="X254" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y254" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z254" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA254" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB254" s="9">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="W254" s="11">
+        <v>1434.89</v>
+      </c>
+      <c r="X254" s="12">
+        <v>2388393919</v>
+      </c>
+      <c r="Y254" s="11">
+        <v>1448.8</v>
+      </c>
+      <c r="Z254" s="12">
+        <v>3009377817</v>
+      </c>
+      <c r="AA254" s="12">
+        <v>597847320</v>
+      </c>
+      <c r="AB254" s="12">
+        <v>23136578</v>
       </c>
       <c r="AC254" s="9">
         <v>0</v>
       </c>
-      <c r="AD254" s="12">
-        <v>37760160</v>
-      </c>
-      <c r="AE254" s="12">
-        <v>37760160</v>
+      <c r="AD254" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE254" s="9">
+        <v>0</v>
       </c>
       <c r="AF254" s="9">
         <v>0</v>
@@ -24531,38 +24531,38 @@
     </row>
     <row r="255" spans="1:32">
       <c r="A255" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C255" s="10"/>
-      <c r="D255" s="9">
-        <v>9984</v>
+      <c r="D255" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="E255" s="9">
         <v>0</v>
       </c>
       <c r="F255" s="11">
-        <v>23000</v>
-      </c>
-      <c r="G255" s="11">
-        <v>4066.73</v>
+        <v>24000</v>
+      </c>
+      <c r="G255" s="9">
+        <v>17.655000000000001</v>
       </c>
       <c r="H255" s="11">
-        <v>93534900</v>
-      </c>
-      <c r="I255" s="11">
-        <v>4273</v>
+        <v>423736.8</v>
+      </c>
+      <c r="I255" s="9">
+        <v>17.23</v>
       </c>
       <c r="J255" s="11">
-        <v>98279000</v>
+        <v>413520</v>
       </c>
       <c r="K255" s="11">
-        <v>4744100</v>
+        <v>-10216.799999999999</v>
       </c>
       <c r="L255" s="12">
-        <v>48672427</v>
+        <v>-21285272</v>
       </c>
       <c r="M255" s="9">
         <v>0</v>
@@ -24577,13 +24577,13 @@
         <v>0</v>
       </c>
       <c r="Q255" s="9" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="R255" s="9" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="S255" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="T255" s="10"/>
       <c r="U255" s="9">
@@ -24592,23 +24592,23 @@
       <c r="V255" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W255" s="9">
-        <v>926.51</v>
+      <c r="W255" s="11">
+        <v>1464.09</v>
       </c>
       <c r="X255" s="12">
-        <v>866619555</v>
-      </c>
-      <c r="Y255" s="9">
-        <v>931.32</v>
+        <v>620393048</v>
+      </c>
+      <c r="Y255" s="11">
+        <v>1448.8</v>
       </c>
       <c r="Z255" s="12">
-        <v>915291982</v>
+        <v>599107776</v>
       </c>
       <c r="AA255" s="12">
-        <v>44182752</v>
+        <v>-14802099</v>
       </c>
       <c r="AB255" s="12">
-        <v>4489675</v>
+        <v>-6483173</v>
       </c>
       <c r="AC255" s="9">
         <v>0</v>
@@ -24625,38 +24625,38 @@
     </row>
     <row r="256" spans="1:32">
       <c r="A256" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C256" s="10"/>
-      <c r="D256" s="9">
-        <v>6954</v>
+      <c r="D256" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E256" s="9">
         <v>0</v>
       </c>
       <c r="F256" s="11">
-        <v>10000</v>
-      </c>
-      <c r="G256" s="11">
-        <v>6568.27</v>
+        <v>1400</v>
+      </c>
+      <c r="G256" s="9">
+        <v>432.53800000000001</v>
       </c>
       <c r="H256" s="11">
-        <v>65682650</v>
-      </c>
-      <c r="I256" s="11">
-        <v>6155</v>
+        <v>605554.04</v>
+      </c>
+      <c r="I256" s="9">
+        <v>431.46</v>
       </c>
       <c r="J256" s="11">
-        <v>61550000</v>
+        <v>604044</v>
       </c>
       <c r="K256" s="11">
-        <v>-4132650</v>
+        <v>-1510.04</v>
       </c>
       <c r="L256" s="12">
-        <v>-35663842</v>
+        <v>-976638</v>
       </c>
       <c r="M256" s="9">
         <v>0</v>
@@ -24671,13 +24671,13 @@
         <v>0</v>
       </c>
       <c r="Q256" s="9" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="R256" s="9" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="S256" s="9" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="T256" s="10"/>
       <c r="U256" s="9">
@@ -24686,23 +24686,23 @@
       <c r="V256" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W256" s="9">
-        <v>927.01</v>
+      <c r="W256" s="11">
+        <v>1446.79</v>
       </c>
       <c r="X256" s="12">
-        <v>608891302</v>
-      </c>
-      <c r="Y256" s="9">
-        <v>931.32</v>
+        <v>876115585</v>
+      </c>
+      <c r="Y256" s="11">
+        <v>1448.8</v>
       </c>
       <c r="Z256" s="12">
-        <v>573227460</v>
+        <v>875138947</v>
       </c>
       <c r="AA256" s="12">
-        <v>-38488195</v>
+        <v>-2187745</v>
       </c>
       <c r="AB256" s="12">
-        <v>2824353</v>
+        <v>1211108</v>
       </c>
       <c r="AC256" s="9">
         <v>0</v>
@@ -24719,38 +24719,38 @@
     </row>
     <row r="257" spans="1:32">
       <c r="A257" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C257" s="10"/>
       <c r="D257" s="9" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E257" s="9">
         <v>0</v>
       </c>
       <c r="F257" s="11">
-        <v>38000</v>
+        <v>3500</v>
       </c>
       <c r="G257" s="9">
-        <v>12.58</v>
+        <v>169.042</v>
       </c>
       <c r="H257" s="11">
-        <v>478066.6</v>
+        <v>591649.80000000005</v>
       </c>
       <c r="I257" s="9">
-        <v>13.82</v>
+        <v>165.64</v>
       </c>
       <c r="J257" s="11">
-        <v>525160</v>
+        <v>579740</v>
       </c>
       <c r="K257" s="11">
-        <v>47093.4</v>
+        <v>-11909.8</v>
       </c>
       <c r="L257" s="12">
-        <v>48250581</v>
+        <v>-16071618</v>
       </c>
       <c r="M257" s="9">
         <v>0</v>
@@ -24771,7 +24771,7 @@
         <v>40</v>
       </c>
       <c r="S257" s="9" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="T257" s="10"/>
       <c r="U257" s="9">
@@ -24781,22 +24781,22 @@
         <v>34</v>
       </c>
       <c r="W257" s="11">
-        <v>1468.39</v>
+        <v>1446.79</v>
       </c>
       <c r="X257" s="12">
-        <v>701992995</v>
+        <v>855998930</v>
       </c>
       <c r="Y257" s="11">
-        <v>1428.6</v>
+        <v>1448.8</v>
       </c>
       <c r="Z257" s="12">
-        <v>750243576</v>
+        <v>839927312</v>
       </c>
       <c r="AA257" s="12">
-        <v>67277631</v>
+        <v>-17254918</v>
       </c>
       <c r="AB257" s="12">
-        <v>-19027051</v>
+        <v>1183300</v>
       </c>
       <c r="AC257" s="9">
         <v>0</v>
@@ -24813,59 +24813,57 @@
     </row>
     <row r="258" spans="1:32">
       <c r="A258" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C258" s="10"/>
-      <c r="D258" s="9" t="s">
-        <v>64</v>
+      <c r="D258" s="9">
+        <v>6869</v>
       </c>
       <c r="E258" s="9">
         <v>0</v>
       </c>
-      <c r="F258" s="11">
-        <v>10000</v>
+      <c r="F258" s="9">
+        <v>0</v>
       </c>
       <c r="G258" s="9">
-        <v>48.203000000000003</v>
-      </c>
-      <c r="H258" s="11">
-        <v>482030</v>
-      </c>
-      <c r="I258" s="9">
-        <v>50.78</v>
-      </c>
-      <c r="J258" s="11">
-        <v>507800</v>
-      </c>
-      <c r="K258" s="11">
-        <v>25770</v>
-      </c>
-      <c r="L258" s="12">
-        <v>23752009</v>
+        <v>0</v>
+      </c>
+      <c r="H258" s="9">
+        <v>0</v>
+      </c>
+      <c r="I258" s="10"/>
+      <c r="J258" s="9">
+        <v>0</v>
+      </c>
+      <c r="K258" s="9">
+        <v>0</v>
+      </c>
+      <c r="L258" s="9">
+        <v>0</v>
       </c>
       <c r="M258" s="9">
         <v>0</v>
       </c>
-      <c r="N258" s="9">
-        <v>0</v>
-      </c>
-      <c r="O258" s="9">
-        <v>0</v>
+      <c r="N258" s="11">
+        <v>349976</v>
+      </c>
+      <c r="O258" s="11">
+        <v>349976</v>
       </c>
       <c r="P258" s="9">
         <v>0</v>
       </c>
       <c r="Q258" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R258" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S258" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T258" s="10"/>
       <c r="U258" s="9">
@@ -24874,32 +24872,32 @@
       <c r="V258" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W258" s="11">
-        <v>1455.7</v>
-      </c>
-      <c r="X258" s="12">
-        <v>701691071</v>
-      </c>
-      <c r="Y258" s="11">
-        <v>1428.6</v>
-      </c>
-      <c r="Z258" s="12">
-        <v>725443080</v>
-      </c>
-      <c r="AA258" s="12">
-        <v>36815022</v>
-      </c>
-      <c r="AB258" s="12">
-        <v>-13063013</v>
+      <c r="W258" s="9">
+        <v>0</v>
+      </c>
+      <c r="X258" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y258" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z258" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA258" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB258" s="9">
+        <v>0</v>
       </c>
       <c r="AC258" s="9">
         <v>0</v>
       </c>
-      <c r="AD258" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE258" s="9">
-        <v>0</v>
+      <c r="AD258" s="12">
+        <v>72042766</v>
+      </c>
+      <c r="AE258" s="12">
+        <v>72042766</v>
       </c>
       <c r="AF258" s="9">
         <v>0</v>
@@ -24907,38 +24905,38 @@
     </row>
     <row r="259" spans="1:32">
       <c r="A259" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C259" s="10"/>
-      <c r="D259" s="9" t="s">
-        <v>77</v>
+      <c r="D259" s="9">
+        <v>2359</v>
       </c>
       <c r="E259" s="9">
         <v>0</v>
       </c>
       <c r="F259" s="11">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G259" s="9">
-        <v>34.24</v>
+        <v>118.559</v>
       </c>
       <c r="H259" s="11">
-        <v>684800</v>
+        <v>2963990</v>
       </c>
       <c r="I259" s="9">
-        <v>34.46</v>
+        <v>113.6</v>
       </c>
       <c r="J259" s="11">
-        <v>689200</v>
+        <v>2840000</v>
       </c>
       <c r="K259" s="11">
-        <v>4400</v>
+        <v>-123990</v>
       </c>
       <c r="L259" s="12">
-        <v>-26858480</v>
+        <v>-32517150</v>
       </c>
       <c r="M259" s="9">
         <v>0</v>
@@ -24953,13 +24951,13 @@
         <v>0</v>
       </c>
       <c r="Q259" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R259" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S259" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="T259" s="10"/>
       <c r="U259" s="9">
@@ -24968,23 +24966,23 @@
       <c r="V259" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W259" s="11">
-        <v>1477</v>
+      <c r="W259" s="9">
+        <v>188.95</v>
       </c>
       <c r="X259" s="12">
-        <v>1011449600</v>
-      </c>
-      <c r="Y259" s="11">
-        <v>1428.6</v>
+        <v>560075550</v>
+      </c>
+      <c r="Y259" s="9">
+        <v>185.76</v>
       </c>
       <c r="Z259" s="12">
-        <v>984591120</v>
+        <v>527558400</v>
       </c>
       <c r="AA259" s="12">
-        <v>6285840</v>
+        <v>-23032382</v>
       </c>
       <c r="AB259" s="12">
-        <v>-33144320</v>
+        <v>-9484768</v>
       </c>
       <c r="AC259" s="9">
         <v>0</v>
@@ -25001,38 +24999,38 @@
     </row>
     <row r="260" spans="1:32">
       <c r="A260" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C260" s="10"/>
-      <c r="D260" s="9" t="s">
-        <v>80</v>
+      <c r="D260" s="9">
+        <v>6680</v>
       </c>
       <c r="E260" s="9">
         <v>0</v>
       </c>
       <c r="F260" s="11">
-        <v>5000</v>
+        <v>130000</v>
       </c>
       <c r="G260" s="9">
-        <v>251.01</v>
+        <v>22.469000000000001</v>
       </c>
       <c r="H260" s="11">
-        <v>1255051.8</v>
+        <v>2921022</v>
       </c>
       <c r="I260" s="9">
-        <v>257.38</v>
+        <v>22.82</v>
       </c>
       <c r="J260" s="11">
-        <v>1286900</v>
+        <v>2966600</v>
       </c>
       <c r="K260" s="11">
-        <v>31848.2</v>
+        <v>45578</v>
       </c>
       <c r="L260" s="12">
-        <v>-804897</v>
+        <v>-676229</v>
       </c>
       <c r="M260" s="9">
         <v>0</v>
@@ -25047,13 +25045,13 @@
         <v>0</v>
       </c>
       <c r="Q260" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R260" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S260" s="9" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="T260" s="10"/>
       <c r="U260" s="9">
@@ -25062,23 +25060,23 @@
       <c r="V260" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W260" s="11">
-        <v>1465.49</v>
+      <c r="W260" s="9">
+        <v>188.88</v>
       </c>
       <c r="X260" s="12">
-        <v>1839270237</v>
-      </c>
-      <c r="Y260" s="11">
-        <v>1428.6</v>
+        <v>551751845</v>
+      </c>
+      <c r="Y260" s="9">
+        <v>185.76</v>
       </c>
       <c r="Z260" s="12">
-        <v>1838465340</v>
+        <v>551075616</v>
       </c>
       <c r="AA260" s="12">
-        <v>45498338</v>
+        <v>8466569</v>
       </c>
       <c r="AB260" s="12">
-        <v>-46303236</v>
+        <v>-9142799</v>
       </c>
       <c r="AC260" s="9">
         <v>0</v>
@@ -25095,59 +25093,57 @@
     </row>
     <row r="261" spans="1:32">
       <c r="A261" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C261" s="10"/>
-      <c r="D261" s="9" t="s">
-        <v>55</v>
+      <c r="D261" s="9">
+        <v>6181</v>
       </c>
       <c r="E261" s="9">
         <v>0</v>
       </c>
-      <c r="F261" s="11">
-        <v>83000</v>
+      <c r="F261" s="9">
+        <v>0</v>
       </c>
       <c r="G261" s="9">
-        <v>12.374000000000001</v>
-      </c>
-      <c r="H261" s="11">
-        <v>1027042</v>
-      </c>
-      <c r="I261" s="9">
-        <v>9.61</v>
-      </c>
-      <c r="J261" s="11">
-        <v>797630</v>
-      </c>
-      <c r="K261" s="11">
-        <v>-229412</v>
-      </c>
-      <c r="L261" s="12">
-        <v>-345300401</v>
+        <v>0</v>
+      </c>
+      <c r="H261" s="9">
+        <v>0</v>
+      </c>
+      <c r="I261" s="10"/>
+      <c r="J261" s="9">
+        <v>0</v>
+      </c>
+      <c r="K261" s="9">
+        <v>0</v>
+      </c>
+      <c r="L261" s="9">
+        <v>0</v>
       </c>
       <c r="M261" s="9">
         <v>0</v>
       </c>
-      <c r="N261" s="9">
-        <v>0</v>
+      <c r="N261" s="11">
+        <v>-6374.88</v>
       </c>
       <c r="O261" s="9">
         <v>0</v>
       </c>
-      <c r="P261" s="9">
-        <v>0</v>
+      <c r="P261" s="11">
+        <v>6374.88</v>
       </c>
       <c r="Q261" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R261" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S261" s="9" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="T261" s="10"/>
       <c r="U261" s="9">
@@ -25156,32 +25152,32 @@
       <c r="V261" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W261" s="11">
-        <v>1445.69</v>
-      </c>
-      <c r="X261" s="12">
-        <v>1484794619</v>
-      </c>
-      <c r="Y261" s="11">
-        <v>1428.6</v>
-      </c>
-      <c r="Z261" s="12">
-        <v>1139494218</v>
-      </c>
-      <c r="AA261" s="12">
-        <v>-327737983</v>
-      </c>
-      <c r="AB261" s="12">
-        <v>-17562418</v>
+      <c r="W261" s="9">
+        <v>0</v>
+      </c>
+      <c r="X261" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y261" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z261" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA261" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB261" s="9">
+        <v>0</v>
       </c>
       <c r="AC261" s="9">
         <v>0</v>
       </c>
-      <c r="AD261" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE261" s="9">
-        <v>0</v>
+      <c r="AD261" s="12">
+        <v>1362525</v>
+      </c>
+      <c r="AE261" s="12">
+        <v>1362525</v>
       </c>
       <c r="AF261" s="9">
         <v>0</v>
@@ -25189,59 +25185,57 @@
     </row>
     <row r="262" spans="1:32">
       <c r="A262" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C262" s="10"/>
-      <c r="D262" s="9" t="s">
-        <v>95</v>
+      <c r="D262" s="9">
+        <v>6082</v>
       </c>
       <c r="E262" s="9">
         <v>0</v>
       </c>
-      <c r="F262" s="11">
-        <v>10000</v>
+      <c r="F262" s="9">
+        <v>0</v>
       </c>
       <c r="G262" s="9">
-        <v>44.158999999999999</v>
-      </c>
-      <c r="H262" s="11">
-        <v>441591</v>
-      </c>
-      <c r="I262" s="9">
-        <v>45.27</v>
-      </c>
-      <c r="J262" s="11">
-        <v>452700</v>
-      </c>
-      <c r="K262" s="11">
-        <v>11109</v>
-      </c>
-      <c r="L262" s="12">
-        <v>-1705004</v>
+        <v>0</v>
+      </c>
+      <c r="H262" s="9">
+        <v>0</v>
+      </c>
+      <c r="I262" s="10"/>
+      <c r="J262" s="9">
+        <v>0</v>
+      </c>
+      <c r="K262" s="9">
+        <v>0</v>
+      </c>
+      <c r="L262" s="9">
+        <v>0</v>
       </c>
       <c r="M262" s="9">
         <v>0</v>
       </c>
-      <c r="N262" s="9">
-        <v>0</v>
-      </c>
-      <c r="O262" s="9">
-        <v>0</v>
+      <c r="N262" s="11">
+        <v>205980</v>
+      </c>
+      <c r="O262" s="11">
+        <v>205980</v>
       </c>
       <c r="P262" s="9">
         <v>0</v>
       </c>
       <c r="Q262" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R262" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S262" s="9" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="T262" s="10"/>
       <c r="U262" s="9">
@@ -25250,32 +25244,32 @@
       <c r="V262" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W262" s="11">
-        <v>1468.39</v>
-      </c>
-      <c r="X262" s="12">
-        <v>648432224</v>
-      </c>
-      <c r="Y262" s="11">
-        <v>1428.6</v>
-      </c>
-      <c r="Z262" s="12">
-        <v>646727220</v>
-      </c>
-      <c r="AA262" s="12">
-        <v>15870317</v>
-      </c>
-      <c r="AB262" s="12">
-        <v>-17575322</v>
+      <c r="W262" s="9">
+        <v>0</v>
+      </c>
+      <c r="X262" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y262" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z262" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA262" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB262" s="9">
+        <v>0</v>
       </c>
       <c r="AC262" s="9">
         <v>0</v>
       </c>
-      <c r="AD262" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE262" s="9">
-        <v>0</v>
+      <c r="AD262" s="12">
+        <v>49395681</v>
+      </c>
+      <c r="AE262" s="12">
+        <v>49395681</v>
       </c>
       <c r="AF262" s="9">
         <v>0</v>
@@ -25283,93 +25277,93 @@
     </row>
     <row r="263" spans="1:32">
       <c r="A263" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C263" s="10"/>
-      <c r="D263" s="9" t="s">
-        <v>44</v>
+      <c r="D263" s="9">
+        <v>9988</v>
       </c>
       <c r="E263" s="9">
         <v>0</v>
       </c>
       <c r="F263" s="11">
-        <v>1000</v>
+        <v>70500</v>
       </c>
       <c r="G263" s="9">
-        <v>681.92</v>
+        <v>147.79</v>
       </c>
       <c r="H263" s="11">
-        <v>681920</v>
+        <v>10419200</v>
       </c>
       <c r="I263" s="9">
-        <v>697.07</v>
+        <v>173.5</v>
       </c>
       <c r="J263" s="11">
-        <v>697070</v>
+        <v>12231750</v>
       </c>
       <c r="K263" s="11">
-        <v>15150</v>
+        <v>1812550</v>
       </c>
       <c r="L263" s="12">
-        <v>17347194</v>
+        <v>337371280</v>
       </c>
       <c r="M263" s="9">
         <v>0</v>
       </c>
-      <c r="N263" s="11">
-        <v>20010.3</v>
-      </c>
-      <c r="O263" s="11">
-        <v>20010.3</v>
+      <c r="N263" s="9">
+        <v>0</v>
+      </c>
+      <c r="O263" s="9">
+        <v>0</v>
       </c>
       <c r="P263" s="9">
         <v>0</v>
       </c>
       <c r="Q263" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R263" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S263" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="T263" s="10"/>
       <c r="U263" s="9">
         <v>0</v>
       </c>
       <c r="V263" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="W263" s="11">
-        <v>1434.9</v>
+        <v>34</v>
+      </c>
+      <c r="W263" s="9">
+        <v>185.69</v>
       </c>
       <c r="X263" s="12">
-        <v>978487008</v>
-      </c>
-      <c r="Y263" s="11">
-        <v>1428.6</v>
+        <v>1934798600</v>
+      </c>
+      <c r="Y263" s="9">
+        <v>185.76</v>
       </c>
       <c r="Z263" s="12">
-        <v>995834202</v>
+        <v>2272169880</v>
       </c>
       <c r="AA263" s="12">
-        <v>21643290</v>
+        <v>336699288</v>
       </c>
       <c r="AB263" s="12">
-        <v>-4296096</v>
+        <v>671992</v>
       </c>
       <c r="AC263" s="9">
         <v>0</v>
       </c>
-      <c r="AD263" s="12">
-        <v>135496504</v>
-      </c>
-      <c r="AE263" s="12">
-        <v>135496504</v>
+      <c r="AD263" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE263" s="9">
+        <v>0</v>
       </c>
       <c r="AF263" s="9">
         <v>0</v>
@@ -25377,38 +25371,38 @@
     </row>
     <row r="264" spans="1:32">
       <c r="A264" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C264" s="10"/>
-      <c r="D264" s="9" t="s">
-        <v>38</v>
+      <c r="D264" s="9">
+        <v>6861</v>
       </c>
       <c r="E264" s="9">
         <v>0</v>
       </c>
       <c r="F264" s="11">
-        <v>4200</v>
-      </c>
-      <c r="G264" s="9">
-        <v>396.31</v>
+        <v>1900</v>
+      </c>
+      <c r="G264" s="11">
+        <v>55916.79</v>
       </c>
       <c r="H264" s="11">
-        <v>1664502</v>
-      </c>
-      <c r="I264" s="9">
-        <v>513.14</v>
+        <v>106241900</v>
+      </c>
+      <c r="I264" s="11">
+        <v>58300</v>
       </c>
       <c r="J264" s="11">
-        <v>2155188</v>
+        <v>110770000</v>
       </c>
       <c r="K264" s="11">
-        <v>490686</v>
+        <v>4528100</v>
       </c>
       <c r="L264" s="12">
-        <v>690507657</v>
+        <v>71048369</v>
       </c>
       <c r="M264" s="9">
         <v>0</v>
@@ -25423,38 +25417,38 @@
         <v>0</v>
       </c>
       <c r="Q264" s="9" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="R264" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="S264" s="9" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="T264" s="10"/>
       <c r="U264" s="9">
         <v>0</v>
       </c>
       <c r="V264" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="W264" s="11">
-        <v>1434.89</v>
+        <v>34</v>
+      </c>
+      <c r="W264" s="9">
+        <v>924.45</v>
       </c>
       <c r="X264" s="12">
-        <v>2388393919</v>
-      </c>
-      <c r="Y264" s="11">
-        <v>1428.6</v>
+        <v>982163868</v>
+      </c>
+      <c r="Y264" s="9">
+        <v>950.81</v>
       </c>
       <c r="Z264" s="12">
-        <v>3078901576</v>
+        <v>1053212237</v>
       </c>
       <c r="AA264" s="12">
-        <v>700994019</v>
+        <v>43053627</v>
       </c>
       <c r="AB264" s="12">
-        <v>-10486362</v>
+        <v>27994741</v>
       </c>
       <c r="AC264" s="9">
         <v>0</v>
@@ -25471,59 +25465,57 @@
     </row>
     <row r="265" spans="1:32">
       <c r="A265" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C265" s="10"/>
       <c r="D265" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E265" s="9">
         <v>0</v>
       </c>
-      <c r="F265" s="11">
-        <v>24000</v>
+      <c r="F265" s="9">
+        <v>0</v>
       </c>
       <c r="G265" s="9">
-        <v>17.655000000000001</v>
-      </c>
-      <c r="H265" s="11">
-        <v>423736.8</v>
-      </c>
-      <c r="I265" s="9">
-        <v>17.05</v>
-      </c>
-      <c r="J265" s="11">
-        <v>409200</v>
-      </c>
-      <c r="K265" s="11">
-        <v>-14536.8</v>
-      </c>
-      <c r="L265" s="12">
-        <v>-35809928</v>
+        <v>0</v>
+      </c>
+      <c r="H265" s="9">
+        <v>0</v>
+      </c>
+      <c r="I265" s="10"/>
+      <c r="J265" s="9">
+        <v>0</v>
+      </c>
+      <c r="K265" s="9">
+        <v>0</v>
+      </c>
+      <c r="L265" s="9">
+        <v>0</v>
       </c>
       <c r="M265" s="9">
         <v>0</v>
       </c>
-      <c r="N265" s="9">
-        <v>0</v>
-      </c>
-      <c r="O265" s="9">
-        <v>0</v>
+      <c r="N265" s="11">
+        <v>4480700</v>
+      </c>
+      <c r="O265" s="11">
+        <v>4480700</v>
       </c>
       <c r="P265" s="9">
         <v>0</v>
       </c>
       <c r="Q265" s="9" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="R265" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="S265" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="T265" s="10"/>
       <c r="U265" s="9">
@@ -25532,32 +25524,32 @@
       <c r="V265" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W265" s="11">
-        <v>1464.09</v>
-      </c>
-      <c r="X265" s="12">
-        <v>620393048</v>
-      </c>
-      <c r="Y265" s="11">
-        <v>1428.6</v>
-      </c>
-      <c r="Z265" s="12">
-        <v>584583120</v>
-      </c>
-      <c r="AA265" s="12">
-        <v>-20767272</v>
-      </c>
-      <c r="AB265" s="12">
-        <v>-15042656</v>
+      <c r="W265" s="9">
+        <v>0</v>
+      </c>
+      <c r="X265" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y265" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z265" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA265" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB265" s="9">
+        <v>0</v>
       </c>
       <c r="AC265" s="9">
         <v>0</v>
       </c>
-      <c r="AD265" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE265" s="9">
-        <v>0</v>
+      <c r="AD265" s="12">
+        <v>37760160</v>
+      </c>
+      <c r="AE265" s="12">
+        <v>37760160</v>
       </c>
       <c r="AF265" s="9">
         <v>0</v>
@@ -25565,38 +25557,38 @@
     </row>
     <row r="266" spans="1:32">
       <c r="A266" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C266" s="10"/>
-      <c r="D266" s="9" t="s">
-        <v>49</v>
+      <c r="D266" s="9">
+        <v>9984</v>
       </c>
       <c r="E266" s="9">
         <v>0</v>
       </c>
       <c r="F266" s="11">
-        <v>1400</v>
-      </c>
-      <c r="G266" s="9">
-        <v>432.53800000000001</v>
+        <v>23000</v>
+      </c>
+      <c r="G266" s="11">
+        <v>4066.73</v>
       </c>
       <c r="H266" s="11">
-        <v>605554.04</v>
-      </c>
-      <c r="I266" s="9">
-        <v>440.83</v>
+        <v>93534900</v>
+      </c>
+      <c r="I266" s="11">
+        <v>4201</v>
       </c>
       <c r="J266" s="11">
-        <v>617162</v>
+        <v>96623000</v>
       </c>
       <c r="K266" s="11">
-        <v>11607.96</v>
+        <v>3088100</v>
       </c>
       <c r="L266" s="12">
-        <v>5562048</v>
+        <v>52081591</v>
       </c>
       <c r="M266" s="9">
         <v>0</v>
@@ -25611,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="Q266" s="9" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="R266" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="S266" s="9" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="T266" s="10"/>
       <c r="U266" s="9">
@@ -25626,23 +25618,23 @@
       <c r="V266" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W266" s="11">
-        <v>1446.79</v>
+      <c r="W266" s="9">
+        <v>926.51</v>
       </c>
       <c r="X266" s="12">
-        <v>876115585</v>
-      </c>
-      <c r="Y266" s="11">
-        <v>1428.6</v>
+        <v>866619555</v>
+      </c>
+      <c r="Y266" s="9">
+        <v>950.81</v>
       </c>
       <c r="Z266" s="12">
-        <v>881677633</v>
+        <v>918701146</v>
       </c>
       <c r="AA266" s="12">
-        <v>16583131</v>
+        <v>29361963</v>
       </c>
       <c r="AB266" s="12">
-        <v>-11021084</v>
+        <v>22719627</v>
       </c>
       <c r="AC266" s="9">
         <v>0</v>
@@ -25657,40 +25649,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:32" ht="18" thickBot="1">
+    <row r="267" spans="1:32">
       <c r="A267" s="8">
-        <v>46051</v>
+        <v>46050</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C267" s="10"/>
-      <c r="D267" s="9" t="s">
-        <v>52</v>
+      <c r="D267" s="9">
+        <v>6954</v>
       </c>
       <c r="E267" s="9">
         <v>0</v>
       </c>
       <c r="F267" s="11">
-        <v>3500</v>
-      </c>
-      <c r="G267" s="9">
-        <v>169.042</v>
+        <v>10000</v>
+      </c>
+      <c r="G267" s="11">
+        <v>6568.27</v>
       </c>
       <c r="H267" s="11">
-        <v>591649.80000000005</v>
-      </c>
-      <c r="I267" s="9">
-        <v>166.19</v>
+        <v>65682650</v>
+      </c>
+      <c r="I267" s="11">
+        <v>6101</v>
       </c>
       <c r="J267" s="11">
-        <v>581665</v>
+        <v>61010000</v>
       </c>
       <c r="K267" s="11">
-        <v>-9984.7999999999993</v>
+        <v>-4672650</v>
       </c>
       <c r="L267" s="12">
-        <v>-25032311</v>
+        <v>-28802121</v>
       </c>
       <c r="M267" s="9">
         <v>0</v>
@@ -25705,13 +25697,13 @@
         <v>0</v>
       </c>
       <c r="Q267" s="9" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="R267" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="S267" s="9" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="T267" s="10"/>
       <c r="U267" s="9">
@@ -25720,750 +25712,2010 @@
       <c r="V267" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W267" s="11">
+      <c r="W267" s="9">
+        <v>927.01</v>
+      </c>
+      <c r="X267" s="12">
+        <v>608891302</v>
+      </c>
+      <c r="Y267" s="9">
+        <v>950.81</v>
+      </c>
+      <c r="Z267" s="12">
+        <v>580089181</v>
+      </c>
+      <c r="AA267" s="12">
+        <v>-44428023</v>
+      </c>
+      <c r="AB267" s="12">
+        <v>15625902</v>
+      </c>
+      <c r="AC267" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD267" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE267" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF267" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:32">
+      <c r="A268" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C268" s="10"/>
+      <c r="D268" s="9">
+        <v>6869</v>
+      </c>
+      <c r="E268" s="9">
+        <v>0</v>
+      </c>
+      <c r="F268" s="9">
+        <v>0</v>
+      </c>
+      <c r="G268" s="9">
+        <v>0</v>
+      </c>
+      <c r="H268" s="9">
+        <v>0</v>
+      </c>
+      <c r="I268" s="9">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="J268" s="9">
+        <v>0</v>
+      </c>
+      <c r="K268" s="9">
+        <v>0</v>
+      </c>
+      <c r="L268" s="9">
+        <v>0</v>
+      </c>
+      <c r="M268" s="9">
+        <v>0</v>
+      </c>
+      <c r="N268" s="11">
+        <v>349976</v>
+      </c>
+      <c r="O268" s="11">
+        <v>349976</v>
+      </c>
+      <c r="P268" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q268" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R268" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S268" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T268" s="10"/>
+      <c r="U268" s="9">
+        <v>0</v>
+      </c>
+      <c r="V268" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W268" s="9">
+        <v>0</v>
+      </c>
+      <c r="X268" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y268" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z268" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA268" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB268" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC268" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD268" s="12">
+        <v>72042766</v>
+      </c>
+      <c r="AE268" s="12">
+        <v>72042766</v>
+      </c>
+      <c r="AF268" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:32">
+      <c r="A269" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C269" s="10"/>
+      <c r="D269" s="9">
+        <v>2359</v>
+      </c>
+      <c r="E269" s="9">
+        <v>0</v>
+      </c>
+      <c r="F269" s="11">
+        <v>25000</v>
+      </c>
+      <c r="G269" s="9">
+        <v>118.559</v>
+      </c>
+      <c r="H269" s="11">
+        <v>2963990</v>
+      </c>
+      <c r="I269" s="9">
+        <v>115.7</v>
+      </c>
+      <c r="J269" s="11">
+        <v>2892500</v>
+      </c>
+      <c r="K269" s="11">
+        <v>-71490</v>
+      </c>
+      <c r="L269" s="12">
+        <v>-30429875</v>
+      </c>
+      <c r="M269" s="9">
+        <v>0</v>
+      </c>
+      <c r="N269" s="9">
+        <v>0</v>
+      </c>
+      <c r="O269" s="9">
+        <v>0</v>
+      </c>
+      <c r="P269" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q269" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R269" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S269" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T269" s="10"/>
+      <c r="U269" s="9">
+        <v>0</v>
+      </c>
+      <c r="V269" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W269" s="9">
+        <v>188.95</v>
+      </c>
+      <c r="X269" s="12">
+        <v>560075550</v>
+      </c>
+      <c r="Y269" s="9">
+        <v>183.11</v>
+      </c>
+      <c r="Z269" s="12">
+        <v>529645675</v>
+      </c>
+      <c r="AA269" s="12">
+        <v>-13090533</v>
+      </c>
+      <c r="AB269" s="12">
+        <v>-17339342</v>
+      </c>
+      <c r="AC269" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD269" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE269" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF269" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:32">
+      <c r="A270" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C270" s="10"/>
+      <c r="D270" s="9">
+        <v>6680</v>
+      </c>
+      <c r="E270" s="9">
+        <v>0</v>
+      </c>
+      <c r="F270" s="11">
+        <v>130000</v>
+      </c>
+      <c r="G270" s="9">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H270" s="11">
+        <v>2921022</v>
+      </c>
+      <c r="I270" s="9">
+        <v>23.86</v>
+      </c>
+      <c r="J270" s="11">
+        <v>3101800</v>
+      </c>
+      <c r="K270" s="11">
+        <v>180778</v>
+      </c>
+      <c r="L270" s="12">
+        <v>16218753</v>
+      </c>
+      <c r="M270" s="9">
+        <v>0</v>
+      </c>
+      <c r="N270" s="9">
+        <v>0</v>
+      </c>
+      <c r="O270" s="9">
+        <v>0</v>
+      </c>
+      <c r="P270" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q270" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R270" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S270" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="T270" s="10"/>
+      <c r="U270" s="9">
+        <v>0</v>
+      </c>
+      <c r="V270" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W270" s="9">
+        <v>188.88</v>
+      </c>
+      <c r="X270" s="12">
+        <v>551751845</v>
+      </c>
+      <c r="Y270" s="9">
+        <v>183.11</v>
+      </c>
+      <c r="Z270" s="12">
+        <v>567970598</v>
+      </c>
+      <c r="AA270" s="12">
+        <v>33102259</v>
+      </c>
+      <c r="AB270" s="12">
+        <v>-16883507</v>
+      </c>
+      <c r="AC270" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD270" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE270" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF270" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:32">
+      <c r="A271" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C271" s="10"/>
+      <c r="D271" s="9">
+        <v>6181</v>
+      </c>
+      <c r="E271" s="9">
+        <v>0</v>
+      </c>
+      <c r="F271" s="9">
+        <v>0</v>
+      </c>
+      <c r="G271" s="9">
+        <v>0</v>
+      </c>
+      <c r="H271" s="9">
+        <v>0</v>
+      </c>
+      <c r="I271" s="9">
+        <v>779</v>
+      </c>
+      <c r="J271" s="9">
+        <v>0</v>
+      </c>
+      <c r="K271" s="9">
+        <v>0</v>
+      </c>
+      <c r="L271" s="9">
+        <v>0</v>
+      </c>
+      <c r="M271" s="9">
+        <v>0</v>
+      </c>
+      <c r="N271" s="11">
+        <v>-6374.88</v>
+      </c>
+      <c r="O271" s="9">
+        <v>0</v>
+      </c>
+      <c r="P271" s="11">
+        <v>6374.88</v>
+      </c>
+      <c r="Q271" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R271" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S271" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T271" s="10"/>
+      <c r="U271" s="9">
+        <v>0</v>
+      </c>
+      <c r="V271" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W271" s="9">
+        <v>0</v>
+      </c>
+      <c r="X271" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y271" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z271" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA271" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB271" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC271" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD271" s="12">
+        <v>1362525</v>
+      </c>
+      <c r="AE271" s="12">
+        <v>1362525</v>
+      </c>
+      <c r="AF271" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:32">
+      <c r="A272" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C272" s="10"/>
+      <c r="D272" s="9">
+        <v>6082</v>
+      </c>
+      <c r="E272" s="9">
+        <v>0</v>
+      </c>
+      <c r="F272" s="9">
+        <v>0</v>
+      </c>
+      <c r="G272" s="9">
+        <v>0</v>
+      </c>
+      <c r="H272" s="9">
+        <v>0</v>
+      </c>
+      <c r="I272" s="9">
+        <v>34.96</v>
+      </c>
+      <c r="J272" s="9">
+        <v>0</v>
+      </c>
+      <c r="K272" s="9">
+        <v>0</v>
+      </c>
+      <c r="L272" s="9">
+        <v>0</v>
+      </c>
+      <c r="M272" s="9">
+        <v>0</v>
+      </c>
+      <c r="N272" s="11">
+        <v>205980</v>
+      </c>
+      <c r="O272" s="11">
+        <v>205980</v>
+      </c>
+      <c r="P272" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q272" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R272" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S272" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T272" s="10"/>
+      <c r="U272" s="9">
+        <v>0</v>
+      </c>
+      <c r="V272" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W272" s="9">
+        <v>0</v>
+      </c>
+      <c r="X272" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y272" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z272" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA272" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB272" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC272" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD272" s="12">
+        <v>49395681</v>
+      </c>
+      <c r="AE272" s="12">
+        <v>49395681</v>
+      </c>
+      <c r="AF272" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:32">
+      <c r="A273" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C273" s="10"/>
+      <c r="D273" s="9">
+        <v>9988</v>
+      </c>
+      <c r="E273" s="9">
+        <v>0</v>
+      </c>
+      <c r="F273" s="11">
+        <v>70500</v>
+      </c>
+      <c r="G273" s="9">
+        <v>147.79</v>
+      </c>
+      <c r="H273" s="11">
+        <v>10419200</v>
+      </c>
+      <c r="I273" s="9">
+        <v>172.5</v>
+      </c>
+      <c r="J273" s="11">
+        <v>12161250</v>
+      </c>
+      <c r="K273" s="11">
+        <v>1742050</v>
+      </c>
+      <c r="L273" s="12">
+        <v>292047887</v>
+      </c>
+      <c r="M273" s="9">
+        <v>0</v>
+      </c>
+      <c r="N273" s="9">
+        <v>0</v>
+      </c>
+      <c r="O273" s="9">
+        <v>0</v>
+      </c>
+      <c r="P273" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q273" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R273" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S273" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T273" s="10"/>
+      <c r="U273" s="9">
+        <v>0</v>
+      </c>
+      <c r="V273" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W273" s="9">
+        <v>185.69</v>
+      </c>
+      <c r="X273" s="12">
+        <v>1934798600</v>
+      </c>
+      <c r="Y273" s="9">
+        <v>183.11</v>
+      </c>
+      <c r="Z273" s="12">
+        <v>2226846487</v>
+      </c>
+      <c r="AA273" s="12">
+        <v>318986775</v>
+      </c>
+      <c r="AB273" s="12">
+        <v>-26938888</v>
+      </c>
+      <c r="AC273" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD273" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE273" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF273" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:32">
+      <c r="A274" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C274" s="10"/>
+      <c r="D274" s="9">
+        <v>6861</v>
+      </c>
+      <c r="E274" s="9">
+        <v>0</v>
+      </c>
+      <c r="F274" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G274" s="11">
+        <v>55916.79</v>
+      </c>
+      <c r="H274" s="11">
+        <v>106241900</v>
+      </c>
+      <c r="I274" s="11">
+        <v>58820</v>
+      </c>
+      <c r="J274" s="11">
+        <v>111758000</v>
+      </c>
+      <c r="K274" s="11">
+        <v>5516100</v>
+      </c>
+      <c r="L274" s="12">
+        <v>58660737</v>
+      </c>
+      <c r="M274" s="9">
+        <v>0</v>
+      </c>
+      <c r="N274" s="9">
+        <v>0</v>
+      </c>
+      <c r="O274" s="9">
+        <v>0</v>
+      </c>
+      <c r="P274" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q274" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R274" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S274" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T274" s="10"/>
+      <c r="U274" s="9">
+        <v>0</v>
+      </c>
+      <c r="V274" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W274" s="9">
+        <v>924.45</v>
+      </c>
+      <c r="X274" s="12">
+        <v>982163868</v>
+      </c>
+      <c r="Y274" s="9">
+        <v>931.32</v>
+      </c>
+      <c r="Z274" s="12">
+        <v>1040824605</v>
+      </c>
+      <c r="AA274" s="12">
+        <v>51372542</v>
+      </c>
+      <c r="AB274" s="12">
+        <v>7288195</v>
+      </c>
+      <c r="AC274" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD274" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE274" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF274" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:32">
+      <c r="A275" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C275" s="10"/>
+      <c r="D275" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E275" s="9">
+        <v>0</v>
+      </c>
+      <c r="F275" s="9">
+        <v>0</v>
+      </c>
+      <c r="G275" s="9">
+        <v>0</v>
+      </c>
+      <c r="H275" s="9">
+        <v>0</v>
+      </c>
+      <c r="I275" s="11">
+        <v>19450</v>
+      </c>
+      <c r="J275" s="9">
+        <v>0</v>
+      </c>
+      <c r="K275" s="9">
+        <v>0</v>
+      </c>
+      <c r="L275" s="9">
+        <v>0</v>
+      </c>
+      <c r="M275" s="9">
+        <v>0</v>
+      </c>
+      <c r="N275" s="11">
+        <v>4480700</v>
+      </c>
+      <c r="O275" s="11">
+        <v>4480700</v>
+      </c>
+      <c r="P275" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q275" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R275" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S275" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="T275" s="10"/>
+      <c r="U275" s="9">
+        <v>0</v>
+      </c>
+      <c r="V275" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W275" s="9">
+        <v>0</v>
+      </c>
+      <c r="X275" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y275" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z275" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA275" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB275" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC275" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD275" s="12">
+        <v>37760160</v>
+      </c>
+      <c r="AE275" s="12">
+        <v>37760160</v>
+      </c>
+      <c r="AF275" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:32">
+      <c r="A276" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C276" s="10"/>
+      <c r="D276" s="9">
+        <v>9984</v>
+      </c>
+      <c r="E276" s="9">
+        <v>0</v>
+      </c>
+      <c r="F276" s="11">
+        <v>23000</v>
+      </c>
+      <c r="G276" s="11">
+        <v>4066.73</v>
+      </c>
+      <c r="H276" s="11">
+        <v>93534900</v>
+      </c>
+      <c r="I276" s="11">
+        <v>4273</v>
+      </c>
+      <c r="J276" s="11">
+        <v>98279000</v>
+      </c>
+      <c r="K276" s="11">
+        <v>4744100</v>
+      </c>
+      <c r="L276" s="12">
+        <v>48672427</v>
+      </c>
+      <c r="M276" s="9">
+        <v>0</v>
+      </c>
+      <c r="N276" s="9">
+        <v>0</v>
+      </c>
+      <c r="O276" s="9">
+        <v>0</v>
+      </c>
+      <c r="P276" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q276" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R276" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S276" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T276" s="10"/>
+      <c r="U276" s="9">
+        <v>0</v>
+      </c>
+      <c r="V276" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W276" s="9">
+        <v>926.51</v>
+      </c>
+      <c r="X276" s="12">
+        <v>866619555</v>
+      </c>
+      <c r="Y276" s="9">
+        <v>931.32</v>
+      </c>
+      <c r="Z276" s="12">
+        <v>915291982</v>
+      </c>
+      <c r="AA276" s="12">
+        <v>44182752</v>
+      </c>
+      <c r="AB276" s="12">
+        <v>4489675</v>
+      </c>
+      <c r="AC276" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD276" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE276" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF276" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:32">
+      <c r="A277" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C277" s="10"/>
+      <c r="D277" s="9">
+        <v>6954</v>
+      </c>
+      <c r="E277" s="9">
+        <v>0</v>
+      </c>
+      <c r="F277" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G277" s="11">
+        <v>6568.27</v>
+      </c>
+      <c r="H277" s="11">
+        <v>65682650</v>
+      </c>
+      <c r="I277" s="11">
+        <v>6155</v>
+      </c>
+      <c r="J277" s="11">
+        <v>61550000</v>
+      </c>
+      <c r="K277" s="11">
+        <v>-4132650</v>
+      </c>
+      <c r="L277" s="12">
+        <v>-35663842</v>
+      </c>
+      <c r="M277" s="9">
+        <v>0</v>
+      </c>
+      <c r="N277" s="9">
+        <v>0</v>
+      </c>
+      <c r="O277" s="9">
+        <v>0</v>
+      </c>
+      <c r="P277" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q277" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R277" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S277" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T277" s="10"/>
+      <c r="U277" s="9">
+        <v>0</v>
+      </c>
+      <c r="V277" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W277" s="9">
+        <v>927.01</v>
+      </c>
+      <c r="X277" s="12">
+        <v>608891302</v>
+      </c>
+      <c r="Y277" s="9">
+        <v>931.32</v>
+      </c>
+      <c r="Z277" s="12">
+        <v>573227460</v>
+      </c>
+      <c r="AA277" s="12">
+        <v>-38488195</v>
+      </c>
+      <c r="AB277" s="12">
+        <v>2824353</v>
+      </c>
+      <c r="AC277" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD277" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE277" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF277" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:32">
+      <c r="A278" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C278" s="10"/>
+      <c r="D278" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E278" s="9">
+        <v>0</v>
+      </c>
+      <c r="F278" s="11">
+        <v>38000</v>
+      </c>
+      <c r="G278" s="9">
+        <v>12.58</v>
+      </c>
+      <c r="H278" s="11">
+        <v>478066.6</v>
+      </c>
+      <c r="I278" s="9">
+        <v>13.82</v>
+      </c>
+      <c r="J278" s="11">
+        <v>525160</v>
+      </c>
+      <c r="K278" s="11">
+        <v>47093.4</v>
+      </c>
+      <c r="L278" s="12">
+        <v>48250581</v>
+      </c>
+      <c r="M278" s="9">
+        <v>0</v>
+      </c>
+      <c r="N278" s="9">
+        <v>0</v>
+      </c>
+      <c r="O278" s="9">
+        <v>0</v>
+      </c>
+      <c r="P278" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q278" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R278" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S278" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="T278" s="10"/>
+      <c r="U278" s="9">
+        <v>0</v>
+      </c>
+      <c r="V278" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W278" s="11">
+        <v>1468.39</v>
+      </c>
+      <c r="X278" s="12">
+        <v>701992995</v>
+      </c>
+      <c r="Y278" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z278" s="12">
+        <v>750243576</v>
+      </c>
+      <c r="AA278" s="12">
+        <v>67277631</v>
+      </c>
+      <c r="AB278" s="12">
+        <v>-19027051</v>
+      </c>
+      <c r="AC278" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD278" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE278" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF278" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:32">
+      <c r="A279" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C279" s="10"/>
+      <c r="D279" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E279" s="9">
+        <v>0</v>
+      </c>
+      <c r="F279" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G279" s="9">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H279" s="11">
+        <v>482030</v>
+      </c>
+      <c r="I279" s="9">
+        <v>50.78</v>
+      </c>
+      <c r="J279" s="11">
+        <v>507800</v>
+      </c>
+      <c r="K279" s="11">
+        <v>25770</v>
+      </c>
+      <c r="L279" s="12">
+        <v>23752009</v>
+      </c>
+      <c r="M279" s="9">
+        <v>0</v>
+      </c>
+      <c r="N279" s="9">
+        <v>0</v>
+      </c>
+      <c r="O279" s="9">
+        <v>0</v>
+      </c>
+      <c r="P279" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q279" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R279" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S279" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="T279" s="10"/>
+      <c r="U279" s="9">
+        <v>0</v>
+      </c>
+      <c r="V279" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W279" s="11">
+        <v>1455.7</v>
+      </c>
+      <c r="X279" s="12">
+        <v>701691071</v>
+      </c>
+      <c r="Y279" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z279" s="12">
+        <v>725443080</v>
+      </c>
+      <c r="AA279" s="12">
+        <v>36815022</v>
+      </c>
+      <c r="AB279" s="12">
+        <v>-13063013</v>
+      </c>
+      <c r="AC279" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD279" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE279" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF279" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:32">
+      <c r="A280" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C280" s="10"/>
+      <c r="D280" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E280" s="9">
+        <v>0</v>
+      </c>
+      <c r="F280" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G280" s="9">
+        <v>34.24</v>
+      </c>
+      <c r="H280" s="11">
+        <v>684800</v>
+      </c>
+      <c r="I280" s="9">
+        <v>34.46</v>
+      </c>
+      <c r="J280" s="11">
+        <v>689200</v>
+      </c>
+      <c r="K280" s="11">
+        <v>4400</v>
+      </c>
+      <c r="L280" s="12">
+        <v>-26858480</v>
+      </c>
+      <c r="M280" s="9">
+        <v>0</v>
+      </c>
+      <c r="N280" s="9">
+        <v>0</v>
+      </c>
+      <c r="O280" s="9">
+        <v>0</v>
+      </c>
+      <c r="P280" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q280" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R280" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S280" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="T280" s="10"/>
+      <c r="U280" s="9">
+        <v>0</v>
+      </c>
+      <c r="V280" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W280" s="11">
+        <v>1477</v>
+      </c>
+      <c r="X280" s="12">
+        <v>1011449600</v>
+      </c>
+      <c r="Y280" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z280" s="12">
+        <v>984591120</v>
+      </c>
+      <c r="AA280" s="12">
+        <v>6285840</v>
+      </c>
+      <c r="AB280" s="12">
+        <v>-33144320</v>
+      </c>
+      <c r="AC280" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD280" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE280" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF280" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:32">
+      <c r="A281" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C281" s="10"/>
+      <c r="D281" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E281" s="9">
+        <v>0</v>
+      </c>
+      <c r="F281" s="11">
+        <v>5000</v>
+      </c>
+      <c r="G281" s="9">
+        <v>251.01</v>
+      </c>
+      <c r="H281" s="11">
+        <v>1255051.8</v>
+      </c>
+      <c r="I281" s="9">
+        <v>257.38</v>
+      </c>
+      <c r="J281" s="11">
+        <v>1286900</v>
+      </c>
+      <c r="K281" s="11">
+        <v>31848.2</v>
+      </c>
+      <c r="L281" s="12">
+        <v>-804897</v>
+      </c>
+      <c r="M281" s="9">
+        <v>0</v>
+      </c>
+      <c r="N281" s="9">
+        <v>0</v>
+      </c>
+      <c r="O281" s="9">
+        <v>0</v>
+      </c>
+      <c r="P281" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q281" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R281" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S281" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="T281" s="10"/>
+      <c r="U281" s="9">
+        <v>0</v>
+      </c>
+      <c r="V281" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W281" s="11">
+        <v>1465.49</v>
+      </c>
+      <c r="X281" s="12">
+        <v>1839270237</v>
+      </c>
+      <c r="Y281" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z281" s="12">
+        <v>1838465340</v>
+      </c>
+      <c r="AA281" s="12">
+        <v>45498338</v>
+      </c>
+      <c r="AB281" s="12">
+        <v>-46303236</v>
+      </c>
+      <c r="AC281" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD281" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE281" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF281" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:32">
+      <c r="A282" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C282" s="10"/>
+      <c r="D282" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E282" s="9">
+        <v>0</v>
+      </c>
+      <c r="F282" s="11">
+        <v>83000</v>
+      </c>
+      <c r="G282" s="9">
+        <v>12.374000000000001</v>
+      </c>
+      <c r="H282" s="11">
+        <v>1027042</v>
+      </c>
+      <c r="I282" s="9">
+        <v>9.61</v>
+      </c>
+      <c r="J282" s="11">
+        <v>797630</v>
+      </c>
+      <c r="K282" s="11">
+        <v>-229412</v>
+      </c>
+      <c r="L282" s="12">
+        <v>-345300401</v>
+      </c>
+      <c r="M282" s="9">
+        <v>0</v>
+      </c>
+      <c r="N282" s="9">
+        <v>0</v>
+      </c>
+      <c r="O282" s="9">
+        <v>0</v>
+      </c>
+      <c r="P282" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q282" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R282" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S282" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T282" s="10"/>
+      <c r="U282" s="9">
+        <v>0</v>
+      </c>
+      <c r="V282" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W282" s="11">
+        <v>1445.69</v>
+      </c>
+      <c r="X282" s="12">
+        <v>1484794619</v>
+      </c>
+      <c r="Y282" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z282" s="12">
+        <v>1139494218</v>
+      </c>
+      <c r="AA282" s="12">
+        <v>-327737983</v>
+      </c>
+      <c r="AB282" s="12">
+        <v>-17562418</v>
+      </c>
+      <c r="AC282" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD282" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE282" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF282" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:32">
+      <c r="A283" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C283" s="10"/>
+      <c r="D283" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E283" s="9">
+        <v>0</v>
+      </c>
+      <c r="F283" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G283" s="9">
+        <v>44.158999999999999</v>
+      </c>
+      <c r="H283" s="11">
+        <v>441591</v>
+      </c>
+      <c r="I283" s="9">
+        <v>45.27</v>
+      </c>
+      <c r="J283" s="11">
+        <v>452700</v>
+      </c>
+      <c r="K283" s="11">
+        <v>11109</v>
+      </c>
+      <c r="L283" s="12">
+        <v>-1705004</v>
+      </c>
+      <c r="M283" s="9">
+        <v>0</v>
+      </c>
+      <c r="N283" s="9">
+        <v>0</v>
+      </c>
+      <c r="O283" s="9">
+        <v>0</v>
+      </c>
+      <c r="P283" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q283" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R283" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S283" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T283" s="10"/>
+      <c r="U283" s="9">
+        <v>0</v>
+      </c>
+      <c r="V283" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W283" s="11">
+        <v>1468.39</v>
+      </c>
+      <c r="X283" s="12">
+        <v>648432224</v>
+      </c>
+      <c r="Y283" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z283" s="12">
+        <v>646727220</v>
+      </c>
+      <c r="AA283" s="12">
+        <v>15870317</v>
+      </c>
+      <c r="AB283" s="12">
+        <v>-17575322</v>
+      </c>
+      <c r="AC283" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD283" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE283" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF283" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:32">
+      <c r="A284" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C284" s="10"/>
+      <c r="D284" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E284" s="9">
+        <v>0</v>
+      </c>
+      <c r="F284" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G284" s="9">
+        <v>681.92</v>
+      </c>
+      <c r="H284" s="11">
+        <v>681920</v>
+      </c>
+      <c r="I284" s="9">
+        <v>697.07</v>
+      </c>
+      <c r="J284" s="11">
+        <v>697070</v>
+      </c>
+      <c r="K284" s="11">
+        <v>15150</v>
+      </c>
+      <c r="L284" s="12">
+        <v>17347194</v>
+      </c>
+      <c r="M284" s="9">
+        <v>0</v>
+      </c>
+      <c r="N284" s="11">
+        <v>20010.3</v>
+      </c>
+      <c r="O284" s="11">
+        <v>20010.3</v>
+      </c>
+      <c r="P284" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q284" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R284" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S284" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T284" s="10"/>
+      <c r="U284" s="9">
+        <v>0</v>
+      </c>
+      <c r="V284" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W284" s="11">
+        <v>1434.9</v>
+      </c>
+      <c r="X284" s="12">
+        <v>978487008</v>
+      </c>
+      <c r="Y284" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z284" s="12">
+        <v>995834202</v>
+      </c>
+      <c r="AA284" s="12">
+        <v>21643290</v>
+      </c>
+      <c r="AB284" s="12">
+        <v>-4296096</v>
+      </c>
+      <c r="AC284" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD284" s="12">
+        <v>135496504</v>
+      </c>
+      <c r="AE284" s="12">
+        <v>135496504</v>
+      </c>
+      <c r="AF284" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:32">
+      <c r="A285" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C285" s="10"/>
+      <c r="D285" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E285" s="9">
+        <v>0</v>
+      </c>
+      <c r="F285" s="11">
+        <v>4200</v>
+      </c>
+      <c r="G285" s="9">
+        <v>396.31</v>
+      </c>
+      <c r="H285" s="11">
+        <v>1664502</v>
+      </c>
+      <c r="I285" s="9">
+        <v>513.14</v>
+      </c>
+      <c r="J285" s="11">
+        <v>2155188</v>
+      </c>
+      <c r="K285" s="11">
+        <v>490686</v>
+      </c>
+      <c r="L285" s="12">
+        <v>690507657</v>
+      </c>
+      <c r="M285" s="9">
+        <v>0</v>
+      </c>
+      <c r="N285" s="9">
+        <v>0</v>
+      </c>
+      <c r="O285" s="9">
+        <v>0</v>
+      </c>
+      <c r="P285" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q285" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R285" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S285" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T285" s="10"/>
+      <c r="U285" s="9">
+        <v>0</v>
+      </c>
+      <c r="V285" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W285" s="11">
+        <v>1434.89</v>
+      </c>
+      <c r="X285" s="12">
+        <v>2388393919</v>
+      </c>
+      <c r="Y285" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z285" s="12">
+        <v>3078901576</v>
+      </c>
+      <c r="AA285" s="12">
+        <v>700994019</v>
+      </c>
+      <c r="AB285" s="12">
+        <v>-10486362</v>
+      </c>
+      <c r="AC285" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD285" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE285" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF285" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:32">
+      <c r="A286" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C286" s="10"/>
+      <c r="D286" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E286" s="9">
+        <v>0</v>
+      </c>
+      <c r="F286" s="11">
+        <v>24000</v>
+      </c>
+      <c r="G286" s="9">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H286" s="11">
+        <v>423736.8</v>
+      </c>
+      <c r="I286" s="9">
+        <v>17.05</v>
+      </c>
+      <c r="J286" s="11">
+        <v>409200</v>
+      </c>
+      <c r="K286" s="11">
+        <v>-14536.8</v>
+      </c>
+      <c r="L286" s="12">
+        <v>-35809928</v>
+      </c>
+      <c r="M286" s="9">
+        <v>0</v>
+      </c>
+      <c r="N286" s="9">
+        <v>0</v>
+      </c>
+      <c r="O286" s="9">
+        <v>0</v>
+      </c>
+      <c r="P286" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q286" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R286" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S286" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T286" s="10"/>
+      <c r="U286" s="9">
+        <v>0</v>
+      </c>
+      <c r="V286" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W286" s="11">
+        <v>1464.09</v>
+      </c>
+      <c r="X286" s="12">
+        <v>620393048</v>
+      </c>
+      <c r="Y286" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z286" s="12">
+        <v>584583120</v>
+      </c>
+      <c r="AA286" s="12">
+        <v>-20767272</v>
+      </c>
+      <c r="AB286" s="12">
+        <v>-15042656</v>
+      </c>
+      <c r="AC286" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD286" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE286" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF286" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:32">
+      <c r="A287" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C287" s="10"/>
+      <c r="D287" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E287" s="9">
+        <v>0</v>
+      </c>
+      <c r="F287" s="11">
+        <v>1400</v>
+      </c>
+      <c r="G287" s="9">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H287" s="11">
+        <v>605554.04</v>
+      </c>
+      <c r="I287" s="9">
+        <v>440.83</v>
+      </c>
+      <c r="J287" s="11">
+        <v>617162</v>
+      </c>
+      <c r="K287" s="11">
+        <v>11607.96</v>
+      </c>
+      <c r="L287" s="12">
+        <v>5562048</v>
+      </c>
+      <c r="M287" s="9">
+        <v>0</v>
+      </c>
+      <c r="N287" s="9">
+        <v>0</v>
+      </c>
+      <c r="O287" s="9">
+        <v>0</v>
+      </c>
+      <c r="P287" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q287" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R287" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S287" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T287" s="10"/>
+      <c r="U287" s="9">
+        <v>0</v>
+      </c>
+      <c r="V287" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W287" s="11">
         <v>1446.79</v>
       </c>
-      <c r="X267" s="12">
+      <c r="X287" s="12">
+        <v>876115585</v>
+      </c>
+      <c r="Y287" s="11">
+        <v>1428.6</v>
+      </c>
+      <c r="Z287" s="12">
+        <v>881677633</v>
+      </c>
+      <c r="AA287" s="12">
+        <v>16583131</v>
+      </c>
+      <c r="AB287" s="12">
+        <v>-11021084</v>
+      </c>
+      <c r="AC287" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD287" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE287" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF287" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:32" ht="18" thickBot="1">
+      <c r="A288" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C288" s="10"/>
+      <c r="D288" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E288" s="9">
+        <v>0</v>
+      </c>
+      <c r="F288" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G288" s="9">
+        <v>169.042</v>
+      </c>
+      <c r="H288" s="11">
+        <v>591649.80000000005</v>
+      </c>
+      <c r="I288" s="9">
+        <v>166.19</v>
+      </c>
+      <c r="J288" s="11">
+        <v>581665</v>
+      </c>
+      <c r="K288" s="11">
+        <v>-9984.7999999999993</v>
+      </c>
+      <c r="L288" s="12">
+        <v>-25032311</v>
+      </c>
+      <c r="M288" s="9">
+        <v>0</v>
+      </c>
+      <c r="N288" s="9">
+        <v>0</v>
+      </c>
+      <c r="O288" s="9">
+        <v>0</v>
+      </c>
+      <c r="P288" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q288" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R288" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S288" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T288" s="10"/>
+      <c r="U288" s="9">
+        <v>0</v>
+      </c>
+      <c r="V288" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W288" s="11">
+        <v>1446.79</v>
+      </c>
+      <c r="X288" s="12">
         <v>855998930</v>
       </c>
-      <c r="Y267" s="11">
+      <c r="Y288" s="11">
         <v>1428.6</v>
       </c>
-      <c r="Z267" s="12">
+      <c r="Z288" s="12">
         <v>830966619</v>
       </c>
-      <c r="AA267" s="12">
+      <c r="AA288" s="12">
         <v>-14264285</v>
       </c>
-      <c r="AB267" s="12">
+      <c r="AB288" s="12">
         <v>-10768026</v>
       </c>
-      <c r="AC267" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD267" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE267" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF267" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:32" ht="18" thickBot="1">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2"/>
-      <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
-      <c r="M268" s="2"/>
-      <c r="N268" s="2"/>
-      <c r="O268" s="2"/>
-      <c r="P268" s="2"/>
-      <c r="Q268" s="2"/>
-      <c r="R268" s="2"/>
-      <c r="S268" s="2"/>
-      <c r="T268" s="2"/>
-      <c r="U268" s="2"/>
-      <c r="V268" s="2"/>
-      <c r="W268" s="2"/>
-      <c r="X268" s="2"/>
-      <c r="Y268" s="2"/>
-      <c r="Z268" s="2"/>
-      <c r="AA268" s="2"/>
-      <c r="AB268" s="2"/>
-      <c r="AC268" s="2"/>
-      <c r="AD268" s="2"/>
-      <c r="AE268" s="2"/>
-      <c r="AF268" s="2"/>
-    </row>
-    <row r="269" spans="1:32" ht="18" thickBot="1">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2"/>
-      <c r="K269" s="2"/>
-      <c r="L269" s="2"/>
-      <c r="M269" s="2"/>
-      <c r="N269" s="2"/>
-      <c r="O269" s="2"/>
-      <c r="P269" s="2"/>
-      <c r="Q269" s="2"/>
-      <c r="R269" s="2"/>
-      <c r="S269" s="2"/>
-      <c r="T269" s="2"/>
-      <c r="U269" s="2"/>
-      <c r="V269" s="2"/>
-      <c r="W269" s="2"/>
-      <c r="X269" s="2"/>
-      <c r="Y269" s="2"/>
-      <c r="Z269" s="2"/>
-      <c r="AA269" s="2"/>
-      <c r="AB269" s="2"/>
-      <c r="AC269" s="2"/>
-      <c r="AD269" s="2"/>
-      <c r="AE269" s="2"/>
-      <c r="AF269" s="2"/>
-    </row>
-    <row r="270" spans="1:32" ht="18" thickBot="1">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2"/>
-      <c r="K270" s="2"/>
-      <c r="L270" s="2"/>
-      <c r="M270" s="2"/>
-      <c r="N270" s="2"/>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
-      <c r="Q270" s="2"/>
-      <c r="R270" s="2"/>
-      <c r="S270" s="2"/>
-      <c r="T270" s="2"/>
-      <c r="U270" s="2"/>
-      <c r="V270" s="2"/>
-      <c r="W270" s="2"/>
-      <c r="X270" s="2"/>
-      <c r="Y270" s="2"/>
-      <c r="Z270" s="2"/>
-      <c r="AA270" s="2"/>
-      <c r="AB270" s="2"/>
-      <c r="AC270" s="2"/>
-      <c r="AD270" s="2"/>
-      <c r="AE270" s="2"/>
-      <c r="AF270" s="2"/>
-    </row>
-    <row r="271" spans="1:32" ht="18" thickBot="1">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2"/>
-      <c r="K271" s="2"/>
-      <c r="L271" s="2"/>
-      <c r="M271" s="2"/>
-      <c r="N271" s="2"/>
-      <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
-      <c r="Q271" s="2"/>
-      <c r="R271" s="2"/>
-      <c r="S271" s="2"/>
-      <c r="T271" s="2"/>
-      <c r="U271" s="2"/>
-      <c r="V271" s="2"/>
-      <c r="W271" s="2"/>
-      <c r="X271" s="2"/>
-      <c r="Y271" s="2"/>
-      <c r="Z271" s="2"/>
-      <c r="AA271" s="2"/>
-      <c r="AB271" s="2"/>
-      <c r="AC271" s="2"/>
-      <c r="AD271" s="2"/>
-      <c r="AE271" s="2"/>
-      <c r="AF271" s="2"/>
-    </row>
-    <row r="272" spans="1:32" ht="18" thickBot="1">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
-      <c r="J272" s="2"/>
-      <c r="K272" s="2"/>
-      <c r="L272" s="2"/>
-      <c r="M272" s="2"/>
-      <c r="N272" s="2"/>
-      <c r="O272" s="2"/>
-      <c r="P272" s="2"/>
-      <c r="Q272" s="2"/>
-      <c r="R272" s="2"/>
-      <c r="S272" s="2"/>
-      <c r="T272" s="2"/>
-      <c r="U272" s="2"/>
-      <c r="V272" s="2"/>
-      <c r="W272" s="2"/>
-      <c r="X272" s="2"/>
-      <c r="Y272" s="2"/>
-      <c r="Z272" s="2"/>
-      <c r="AA272" s="2"/>
-      <c r="AB272" s="2"/>
-      <c r="AC272" s="2"/>
-      <c r="AD272" s="2"/>
-      <c r="AE272" s="2"/>
-      <c r="AF272" s="2"/>
-    </row>
-    <row r="273" spans="1:32" ht="18" thickBot="1">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="2"/>
-      <c r="J273" s="2"/>
-      <c r="K273" s="2"/>
-      <c r="L273" s="2"/>
-      <c r="M273" s="2"/>
-      <c r="N273" s="2"/>
-      <c r="O273" s="2"/>
-      <c r="P273" s="2"/>
-      <c r="Q273" s="2"/>
-      <c r="R273" s="2"/>
-      <c r="S273" s="2"/>
-      <c r="T273" s="2"/>
-      <c r="U273" s="2"/>
-      <c r="V273" s="2"/>
-      <c r="W273" s="2"/>
-      <c r="X273" s="2"/>
-      <c r="Y273" s="2"/>
-      <c r="Z273" s="2"/>
-      <c r="AA273" s="2"/>
-      <c r="AB273" s="2"/>
-      <c r="AC273" s="2"/>
-      <c r="AD273" s="2"/>
-      <c r="AE273" s="2"/>
-      <c r="AF273" s="2"/>
-    </row>
-    <row r="274" spans="1:32" ht="18" thickBot="1">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
-      <c r="J274" s="2"/>
-      <c r="K274" s="2"/>
-      <c r="L274" s="2"/>
-      <c r="M274" s="2"/>
-      <c r="N274" s="2"/>
-      <c r="O274" s="2"/>
-      <c r="P274" s="2"/>
-      <c r="Q274" s="2"/>
-      <c r="R274" s="2"/>
-      <c r="S274" s="2"/>
-      <c r="T274" s="2"/>
-      <c r="U274" s="2"/>
-      <c r="V274" s="2"/>
-      <c r="W274" s="2"/>
-      <c r="X274" s="2"/>
-      <c r="Y274" s="2"/>
-      <c r="Z274" s="2"/>
-      <c r="AA274" s="2"/>
-      <c r="AB274" s="2"/>
-      <c r="AC274" s="2"/>
-      <c r="AD274" s="2"/>
-      <c r="AE274" s="2"/>
-      <c r="AF274" s="2"/>
-    </row>
-    <row r="275" spans="1:32" ht="18" thickBot="1">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
-      <c r="J275" s="2"/>
-      <c r="K275" s="2"/>
-      <c r="L275" s="2"/>
-      <c r="M275" s="2"/>
-      <c r="N275" s="2"/>
-      <c r="O275" s="2"/>
-      <c r="P275" s="2"/>
-      <c r="Q275" s="2"/>
-      <c r="R275" s="2"/>
-      <c r="S275" s="2"/>
-      <c r="T275" s="2"/>
-      <c r="U275" s="2"/>
-      <c r="V275" s="2"/>
-      <c r="W275" s="2"/>
-      <c r="X275" s="2"/>
-      <c r="Y275" s="2"/>
-      <c r="Z275" s="2"/>
-      <c r="AA275" s="2"/>
-      <c r="AB275" s="2"/>
-      <c r="AC275" s="2"/>
-      <c r="AD275" s="2"/>
-      <c r="AE275" s="2"/>
-      <c r="AF275" s="2"/>
-    </row>
-    <row r="276" spans="1:32" ht="18" thickBot="1">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
-      <c r="J276" s="2"/>
-      <c r="K276" s="2"/>
-      <c r="L276" s="2"/>
-      <c r="M276" s="2"/>
-      <c r="N276" s="2"/>
-      <c r="O276" s="2"/>
-      <c r="P276" s="2"/>
-      <c r="Q276" s="2"/>
-      <c r="R276" s="2"/>
-      <c r="S276" s="2"/>
-      <c r="T276" s="2"/>
-      <c r="U276" s="2"/>
-      <c r="V276" s="2"/>
-      <c r="W276" s="2"/>
-      <c r="X276" s="2"/>
-      <c r="Y276" s="2"/>
-      <c r="Z276" s="2"/>
-      <c r="AA276" s="2"/>
-      <c r="AB276" s="2"/>
-      <c r="AC276" s="2"/>
-      <c r="AD276" s="2"/>
-      <c r="AE276" s="2"/>
-      <c r="AF276" s="2"/>
-    </row>
-    <row r="277" spans="1:32" ht="18" thickBot="1">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
-      <c r="J277" s="2"/>
-      <c r="K277" s="2"/>
-      <c r="L277" s="2"/>
-      <c r="M277" s="2"/>
-      <c r="N277" s="2"/>
-      <c r="O277" s="2"/>
-      <c r="P277" s="2"/>
-      <c r="Q277" s="2"/>
-      <c r="R277" s="2"/>
-      <c r="S277" s="2"/>
-      <c r="T277" s="2"/>
-      <c r="U277" s="2"/>
-      <c r="V277" s="2"/>
-      <c r="W277" s="2"/>
-      <c r="X277" s="2"/>
-      <c r="Y277" s="2"/>
-      <c r="Z277" s="2"/>
-      <c r="AA277" s="2"/>
-      <c r="AB277" s="2"/>
-      <c r="AC277" s="2"/>
-      <c r="AD277" s="2"/>
-      <c r="AE277" s="2"/>
-      <c r="AF277" s="2"/>
-    </row>
-    <row r="278" spans="1:32" ht="18" thickBot="1">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="2"/>
-      <c r="J278" s="2"/>
-      <c r="K278" s="2"/>
-      <c r="L278" s="2"/>
-      <c r="M278" s="2"/>
-      <c r="N278" s="2"/>
-      <c r="O278" s="2"/>
-      <c r="P278" s="2"/>
-      <c r="Q278" s="2"/>
-      <c r="R278" s="2"/>
-      <c r="S278" s="2"/>
-      <c r="T278" s="2"/>
-      <c r="U278" s="2"/>
-      <c r="V278" s="2"/>
-      <c r="W278" s="2"/>
-      <c r="X278" s="2"/>
-      <c r="Y278" s="2"/>
-      <c r="Z278" s="2"/>
-      <c r="AA278" s="2"/>
-      <c r="AB278" s="2"/>
-      <c r="AC278" s="2"/>
-      <c r="AD278" s="2"/>
-      <c r="AE278" s="2"/>
-      <c r="AF278" s="2"/>
-    </row>
-    <row r="279" spans="1:32" ht="18" thickBot="1">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2"/>
-      <c r="I279" s="2"/>
-      <c r="J279" s="2"/>
-      <c r="K279" s="2"/>
-      <c r="L279" s="2"/>
-      <c r="M279" s="2"/>
-      <c r="N279" s="2"/>
-      <c r="O279" s="2"/>
-      <c r="P279" s="2"/>
-      <c r="Q279" s="2"/>
-      <c r="R279" s="2"/>
-      <c r="S279" s="2"/>
-      <c r="T279" s="2"/>
-      <c r="U279" s="2"/>
-      <c r="V279" s="2"/>
-      <c r="W279" s="2"/>
-      <c r="X279" s="2"/>
-      <c r="Y279" s="2"/>
-      <c r="Z279" s="2"/>
-      <c r="AA279" s="2"/>
-      <c r="AB279" s="2"/>
-      <c r="AC279" s="2"/>
-      <c r="AD279" s="2"/>
-      <c r="AE279" s="2"/>
-      <c r="AF279" s="2"/>
-    </row>
-    <row r="280" spans="1:32" ht="18" thickBot="1">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-      <c r="F280" s="2"/>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2"/>
-      <c r="I280" s="2"/>
-      <c r="J280" s="2"/>
-      <c r="K280" s="2"/>
-      <c r="L280" s="2"/>
-      <c r="M280" s="2"/>
-      <c r="N280" s="2"/>
-      <c r="O280" s="2"/>
-      <c r="P280" s="2"/>
-      <c r="Q280" s="2"/>
-      <c r="R280" s="2"/>
-      <c r="S280" s="2"/>
-      <c r="T280" s="2"/>
-      <c r="U280" s="2"/>
-      <c r="V280" s="2"/>
-      <c r="W280" s="2"/>
-      <c r="X280" s="2"/>
-      <c r="Y280" s="2"/>
-      <c r="Z280" s="2"/>
-      <c r="AA280" s="2"/>
-      <c r="AB280" s="2"/>
-      <c r="AC280" s="2"/>
-      <c r="AD280" s="2"/>
-      <c r="AE280" s="2"/>
-      <c r="AF280" s="2"/>
-    </row>
-    <row r="281" spans="1:32" ht="18" thickBot="1">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2"/>
-      <c r="I281" s="2"/>
-      <c r="J281" s="2"/>
-      <c r="K281" s="2"/>
-      <c r="L281" s="2"/>
-      <c r="M281" s="2"/>
-      <c r="N281" s="2"/>
-      <c r="O281" s="2"/>
-      <c r="P281" s="2"/>
-      <c r="Q281" s="2"/>
-      <c r="R281" s="2"/>
-      <c r="S281" s="2"/>
-      <c r="T281" s="2"/>
-      <c r="U281" s="2"/>
-      <c r="V281" s="2"/>
-      <c r="W281" s="2"/>
-      <c r="X281" s="2"/>
-      <c r="Y281" s="2"/>
-      <c r="Z281" s="2"/>
-      <c r="AA281" s="2"/>
-      <c r="AB281" s="2"/>
-      <c r="AC281" s="2"/>
-      <c r="AD281" s="2"/>
-      <c r="AE281" s="2"/>
-      <c r="AF281" s="2"/>
-    </row>
-    <row r="282" spans="1:32" ht="18" thickBot="1">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2"/>
-      <c r="I282" s="2"/>
-      <c r="J282" s="2"/>
-      <c r="K282" s="2"/>
-      <c r="L282" s="2"/>
-      <c r="M282" s="2"/>
-      <c r="N282" s="2"/>
-      <c r="O282" s="2"/>
-      <c r="P282" s="2"/>
-      <c r="Q282" s="2"/>
-      <c r="R282" s="2"/>
-      <c r="S282" s="2"/>
-      <c r="T282" s="2"/>
-      <c r="U282" s="2"/>
-      <c r="V282" s="2"/>
-      <c r="W282" s="2"/>
-      <c r="X282" s="2"/>
-      <c r="Y282" s="2"/>
-      <c r="Z282" s="2"/>
-      <c r="AA282" s="2"/>
-      <c r="AB282" s="2"/>
-      <c r="AC282" s="2"/>
-      <c r="AD282" s="2"/>
-      <c r="AE282" s="2"/>
-      <c r="AF282" s="2"/>
-    </row>
-    <row r="283" spans="1:32" ht="18" thickBot="1">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
-      <c r="I283" s="2"/>
-      <c r="J283" s="2"/>
-      <c r="K283" s="2"/>
-      <c r="L283" s="2"/>
-      <c r="M283" s="2"/>
-      <c r="N283" s="2"/>
-      <c r="O283" s="2"/>
-      <c r="P283" s="2"/>
-      <c r="Q283" s="2"/>
-      <c r="R283" s="2"/>
-      <c r="S283" s="2"/>
-      <c r="T283" s="2"/>
-      <c r="U283" s="2"/>
-      <c r="V283" s="2"/>
-      <c r="W283" s="2"/>
-      <c r="X283" s="2"/>
-      <c r="Y283" s="2"/>
-      <c r="Z283" s="2"/>
-      <c r="AA283" s="2"/>
-      <c r="AB283" s="2"/>
-      <c r="AC283" s="2"/>
-      <c r="AD283" s="2"/>
-      <c r="AE283" s="2"/>
-      <c r="AF283" s="2"/>
-    </row>
-    <row r="284" spans="1:32" ht="18" thickBot="1">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
-      <c r="F284" s="2"/>
-      <c r="G284" s="2"/>
-      <c r="H284" s="2"/>
-      <c r="I284" s="2"/>
-      <c r="J284" s="2"/>
-      <c r="K284" s="2"/>
-      <c r="L284" s="2"/>
-      <c r="M284" s="2"/>
-      <c r="N284" s="2"/>
-      <c r="O284" s="2"/>
-      <c r="P284" s="2"/>
-      <c r="Q284" s="2"/>
-      <c r="R284" s="2"/>
-      <c r="S284" s="2"/>
-      <c r="T284" s="2"/>
-      <c r="U284" s="2"/>
-      <c r="V284" s="2"/>
-      <c r="W284" s="2"/>
-      <c r="X284" s="2"/>
-      <c r="Y284" s="2"/>
-      <c r="Z284" s="2"/>
-      <c r="AA284" s="2"/>
-      <c r="AB284" s="2"/>
-      <c r="AC284" s="2"/>
-      <c r="AD284" s="2"/>
-      <c r="AE284" s="2"/>
-      <c r="AF284" s="2"/>
-    </row>
-    <row r="285" spans="1:32" ht="18" thickBot="1">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-      <c r="F285" s="2"/>
-      <c r="G285" s="2"/>
-      <c r="H285" s="2"/>
-      <c r="I285" s="2"/>
-      <c r="J285" s="2"/>
-      <c r="K285" s="2"/>
-      <c r="L285" s="2"/>
-      <c r="M285" s="2"/>
-      <c r="N285" s="2"/>
-      <c r="O285" s="2"/>
-      <c r="P285" s="2"/>
-      <c r="Q285" s="2"/>
-      <c r="R285" s="2"/>
-      <c r="S285" s="2"/>
-      <c r="T285" s="2"/>
-      <c r="U285" s="2"/>
-      <c r="V285" s="2"/>
-      <c r="W285" s="2"/>
-      <c r="X285" s="2"/>
-      <c r="Y285" s="2"/>
-      <c r="Z285" s="2"/>
-      <c r="AA285" s="2"/>
-      <c r="AB285" s="2"/>
-      <c r="AC285" s="2"/>
-      <c r="AD285" s="2"/>
-      <c r="AE285" s="2"/>
-      <c r="AF285" s="2"/>
-    </row>
-    <row r="286" spans="1:32" ht="18" thickBot="1">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
-      <c r="F286" s="2"/>
-      <c r="G286" s="2"/>
-      <c r="H286" s="2"/>
-      <c r="I286" s="2"/>
-      <c r="J286" s="2"/>
-      <c r="K286" s="2"/>
-      <c r="L286" s="2"/>
-      <c r="M286" s="2"/>
-      <c r="N286" s="2"/>
-      <c r="O286" s="2"/>
-      <c r="P286" s="2"/>
-      <c r="Q286" s="2"/>
-      <c r="R286" s="2"/>
-      <c r="S286" s="2"/>
-      <c r="T286" s="2"/>
-      <c r="U286" s="2"/>
-      <c r="V286" s="2"/>
-      <c r="W286" s="2"/>
-      <c r="X286" s="2"/>
-      <c r="Y286" s="2"/>
-      <c r="Z286" s="2"/>
-      <c r="AA286" s="2"/>
-      <c r="AB286" s="2"/>
-      <c r="AC286" s="2"/>
-      <c r="AD286" s="2"/>
-      <c r="AE286" s="2"/>
-      <c r="AF286" s="2"/>
-    </row>
-    <row r="287" spans="1:32" ht="18" thickBot="1">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="2"/>
-      <c r="J287" s="2"/>
-      <c r="K287" s="2"/>
-      <c r="L287" s="2"/>
-      <c r="M287" s="2"/>
-      <c r="N287" s="2"/>
-      <c r="O287" s="2"/>
-      <c r="P287" s="2"/>
-      <c r="Q287" s="2"/>
-      <c r="R287" s="2"/>
-      <c r="S287" s="2"/>
-      <c r="T287" s="2"/>
-      <c r="U287" s="2"/>
-      <c r="V287" s="2"/>
-      <c r="W287" s="2"/>
-      <c r="X287" s="2"/>
-      <c r="Y287" s="2"/>
-      <c r="Z287" s="2"/>
-      <c r="AA287" s="2"/>
-      <c r="AB287" s="2"/>
-      <c r="AC287" s="2"/>
-      <c r="AD287" s="2"/>
-      <c r="AE287" s="2"/>
-      <c r="AF287" s="2"/>
-    </row>
-    <row r="288" spans="1:32" ht="18" thickBot="1">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-      <c r="F288" s="2"/>
-      <c r="G288" s="2"/>
-      <c r="H288" s="2"/>
-      <c r="I288" s="2"/>
-      <c r="J288" s="2"/>
-      <c r="K288" s="2"/>
-      <c r="L288" s="2"/>
-      <c r="M288" s="2"/>
-      <c r="N288" s="2"/>
-      <c r="O288" s="2"/>
-      <c r="P288" s="2"/>
-      <c r="Q288" s="2"/>
-      <c r="R288" s="2"/>
-      <c r="S288" s="2"/>
-      <c r="T288" s="2"/>
-      <c r="U288" s="2"/>
-      <c r="V288" s="2"/>
-      <c r="W288" s="2"/>
-      <c r="X288" s="2"/>
-      <c r="Y288" s="2"/>
-      <c r="Z288" s="2"/>
-      <c r="AA288" s="2"/>
-      <c r="AB288" s="2"/>
-      <c r="AC288" s="2"/>
-      <c r="AD288" s="2"/>
-      <c r="AE288" s="2"/>
-      <c r="AF288" s="2"/>
+      <c r="AC288" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD288" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE288" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF288" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="289" spans="1:32" ht="18" thickBot="1">
       <c r="A289" s="2"/>

--- a/2026_멀티.xlsx
+++ b/2026_멀티.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyejinha/Desktop/Workspace/Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3F3C77-BB96-A54B-A54B-283757F272A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE413AF-2E1D-1748-AE52-2C0B66A8FB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,7 +696,7 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268:AF288"/>
+      <selection activeCell="B292" sqref="B292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>

--- a/2026_멀티.xlsx
+++ b/2026_멀티.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\다른 컴퓨터\내 Mac\Workspace\Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF69DDF-79A8-4374-AEFB-B2F036762A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4606F39-853D-4100-AB2F-38A14584068B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="103">
   <si>
     <t>기준일자</t>
   </si>
@@ -316,6 +327,24 @@
   </si>
   <si>
     <t>옥시덴털 페트롤리엄</t>
+  </si>
+  <si>
+    <t>HK0000642568</t>
+  </si>
+  <si>
+    <t>CSOP HANG SENG TECH HKD</t>
+  </si>
+  <si>
+    <t>TRUST</t>
+  </si>
+  <si>
+    <t>US67066G1040</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>엔비디아</t>
   </si>
 </sst>
 </file>
@@ -695,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="F317" sqref="F317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25743,61 +25772,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>46051</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C268" s="2"/>
-      <c r="D268" s="5">
-        <v>6869</v>
+      <c r="D268" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E268" s="5">
         <v>0</v>
       </c>
-      <c r="F268" s="5">
-        <v>0</v>
+      <c r="F268" s="6">
+        <v>38000</v>
       </c>
       <c r="G268" s="5">
-        <v>0</v>
-      </c>
-      <c r="H268" s="5">
-        <v>0</v>
+        <v>12.58</v>
+      </c>
+      <c r="H268" s="6">
+        <v>478066.6</v>
       </c>
       <c r="I268" s="5">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="J268" s="5">
-        <v>0</v>
-      </c>
-      <c r="K268" s="5">
-        <v>0</v>
-      </c>
-      <c r="L268" s="5">
-        <v>0</v>
+        <v>13.31</v>
+      </c>
+      <c r="J268" s="6">
+        <v>505780</v>
+      </c>
+      <c r="K268" s="6">
+        <v>27713.4</v>
+      </c>
+      <c r="L268" s="7">
+        <v>20564313</v>
       </c>
       <c r="M268" s="5">
         <v>0</v>
       </c>
-      <c r="N268" s="6">
-        <v>349976</v>
-      </c>
-      <c r="O268" s="6">
-        <v>349976</v>
+      <c r="N268" s="5">
+        <v>0</v>
+      </c>
+      <c r="O268" s="5">
+        <v>0</v>
       </c>
       <c r="P268" s="5">
         <v>0</v>
       </c>
       <c r="Q268" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R268" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S268" s="4" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="S268" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="T268" s="2"/>
       <c r="U268" s="5">
@@ -25806,71 +25835,71 @@
       <c r="V268" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W268" s="5">
-        <v>0</v>
-      </c>
-      <c r="X268" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y268" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z268" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA268" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB268" s="5">
-        <v>0</v>
+      <c r="W268" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X268" s="7">
+        <v>701992995</v>
+      </c>
+      <c r="Y268" s="6">
+        <v>1428.6</v>
+      </c>
+      <c r="Z268" s="7">
+        <v>722557308</v>
+      </c>
+      <c r="AA268" s="7">
+        <v>39591363</v>
+      </c>
+      <c r="AB268" s="7">
+        <v>-19027051</v>
       </c>
       <c r="AC268" s="5">
         <v>0</v>
       </c>
-      <c r="AD268" s="7">
-        <v>72042766</v>
-      </c>
-      <c r="AE268" s="7">
-        <v>72042766</v>
+      <c r="AD268" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE268" s="5">
+        <v>0</v>
       </c>
       <c r="AF268" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>46051</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C269" s="2"/>
-      <c r="D269" s="5">
-        <v>2359</v>
+      <c r="D269" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E269" s="5">
         <v>0</v>
       </c>
       <c r="F269" s="6">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G269" s="5">
-        <v>118.559</v>
+        <v>48.203000000000003</v>
       </c>
       <c r="H269" s="6">
-        <v>2963990</v>
+        <v>482030</v>
       </c>
       <c r="I269" s="5">
-        <v>115.7</v>
+        <v>49.95</v>
       </c>
       <c r="J269" s="6">
-        <v>2892500</v>
+        <v>499500</v>
       </c>
       <c r="K269" s="6">
-        <v>-71490</v>
+        <v>17470</v>
       </c>
       <c r="L269" s="7">
-        <v>-30429875</v>
+        <v>11894629</v>
       </c>
       <c r="M269" s="5">
         <v>0</v>
@@ -25885,13 +25914,13 @@
         <v>0</v>
       </c>
       <c r="Q269" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R269" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S269" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="T269" s="2"/>
       <c r="U269" s="5">
@@ -25900,23 +25929,23 @@
       <c r="V269" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W269" s="5">
-        <v>188.95</v>
+      <c r="W269" s="6">
+        <v>1455.7</v>
       </c>
       <c r="X269" s="7">
-        <v>560075550</v>
-      </c>
-      <c r="Y269" s="5">
-        <v>183.11</v>
+        <v>701691071</v>
+      </c>
+      <c r="Y269" s="6">
+        <v>1428.6</v>
       </c>
       <c r="Z269" s="7">
-        <v>529645675</v>
+        <v>713585700</v>
       </c>
       <c r="AA269" s="7">
-        <v>-13090533</v>
+        <v>24957642</v>
       </c>
       <c r="AB269" s="7">
-        <v>-17339342</v>
+        <v>-13063013</v>
       </c>
       <c r="AC269" s="5">
         <v>0</v>
@@ -25931,40 +25960,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>46051</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C270" s="2"/>
-      <c r="D270" s="5">
-        <v>6680</v>
+      <c r="D270" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E270" s="5">
         <v>0</v>
       </c>
       <c r="F270" s="6">
-        <v>130000</v>
+        <v>20000</v>
       </c>
       <c r="G270" s="5">
-        <v>22.469000000000001</v>
+        <v>34.24</v>
       </c>
       <c r="H270" s="6">
-        <v>2921022</v>
+        <v>684800</v>
       </c>
       <c r="I270" s="5">
-        <v>23.86</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="J270" s="6">
-        <v>3101800</v>
+        <v>706000</v>
       </c>
       <c r="K270" s="6">
-        <v>180778</v>
+        <v>21200</v>
       </c>
       <c r="L270" s="7">
-        <v>16218753</v>
+        <v>-2858000</v>
       </c>
       <c r="M270" s="5">
         <v>0</v>
@@ -25979,13 +26008,13 @@
         <v>0</v>
       </c>
       <c r="Q270" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R270" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S270" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="T270" s="2"/>
       <c r="U270" s="5">
@@ -25994,23 +26023,23 @@
       <c r="V270" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W270" s="5">
-        <v>188.88</v>
+      <c r="W270" s="6">
+        <v>1477</v>
       </c>
       <c r="X270" s="7">
-        <v>551751845</v>
-      </c>
-      <c r="Y270" s="5">
-        <v>183.11</v>
+        <v>1011449600</v>
+      </c>
+      <c r="Y270" s="6">
+        <v>1428.6</v>
       </c>
       <c r="Z270" s="7">
-        <v>567970598</v>
+        <v>1008591600</v>
       </c>
       <c r="AA270" s="7">
-        <v>33102259</v>
+        <v>30286320</v>
       </c>
       <c r="AB270" s="7">
-        <v>-16883507</v>
+        <v>-33144320</v>
       </c>
       <c r="AC270" s="5">
         <v>0</v>
@@ -26025,61 +26054,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>46051</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C271" s="2"/>
-      <c r="D271" s="5">
-        <v>6181</v>
+      <c r="D271" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E271" s="5">
         <v>0</v>
       </c>
-      <c r="F271" s="5">
-        <v>0</v>
+      <c r="F271" s="6">
+        <v>5000</v>
       </c>
       <c r="G271" s="5">
-        <v>0</v>
-      </c>
-      <c r="H271" s="5">
-        <v>0</v>
+        <v>251.01</v>
+      </c>
+      <c r="H271" s="6">
+        <v>1255051.8</v>
       </c>
       <c r="I271" s="5">
-        <v>779</v>
-      </c>
-      <c r="J271" s="5">
-        <v>0</v>
-      </c>
-      <c r="K271" s="5">
-        <v>0</v>
-      </c>
-      <c r="L271" s="5">
-        <v>0</v>
+        <v>258.27999999999997</v>
+      </c>
+      <c r="J271" s="6">
+        <v>1291400</v>
+      </c>
+      <c r="K271" s="6">
+        <v>36348.199999999997</v>
+      </c>
+      <c r="L271" s="7">
+        <v>5623803</v>
       </c>
       <c r="M271" s="5">
         <v>0</v>
       </c>
-      <c r="N271" s="6">
-        <v>-6374.88</v>
+      <c r="N271" s="5">
+        <v>0</v>
       </c>
       <c r="O271" s="5">
         <v>0</v>
       </c>
-      <c r="P271" s="6">
-        <v>6374.88</v>
+      <c r="P271" s="5">
+        <v>0</v>
       </c>
       <c r="Q271" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R271" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S271" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="T271" s="2"/>
       <c r="U271" s="5">
@@ -26088,92 +26117,92 @@
       <c r="V271" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W271" s="5">
-        <v>0</v>
-      </c>
-      <c r="X271" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y271" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z271" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA271" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB271" s="5">
-        <v>0</v>
+      <c r="W271" s="6">
+        <v>1465.49</v>
+      </c>
+      <c r="X271" s="7">
+        <v>1839270237</v>
+      </c>
+      <c r="Y271" s="6">
+        <v>1428.6</v>
+      </c>
+      <c r="Z271" s="7">
+        <v>1844894040</v>
+      </c>
+      <c r="AA271" s="7">
+        <v>51927038</v>
+      </c>
+      <c r="AB271" s="7">
+        <v>-46303236</v>
       </c>
       <c r="AC271" s="5">
         <v>0</v>
       </c>
-      <c r="AD271" s="7">
-        <v>1362525</v>
-      </c>
-      <c r="AE271" s="7">
-        <v>1362525</v>
+      <c r="AD271" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE271" s="5">
+        <v>0</v>
       </c>
       <c r="AF271" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>46051</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C272" s="2"/>
-      <c r="D272" s="5">
-        <v>6082</v>
+      <c r="D272" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E272" s="5">
         <v>0</v>
       </c>
-      <c r="F272" s="5">
-        <v>0</v>
+      <c r="F272" s="6">
+        <v>83000</v>
       </c>
       <c r="G272" s="5">
-        <v>0</v>
-      </c>
-      <c r="H272" s="5">
-        <v>0</v>
+        <v>12.374000000000001</v>
+      </c>
+      <c r="H272" s="6">
+        <v>1027042</v>
       </c>
       <c r="I272" s="5">
-        <v>34.96</v>
-      </c>
-      <c r="J272" s="5">
-        <v>0</v>
-      </c>
-      <c r="K272" s="5">
-        <v>0</v>
-      </c>
-      <c r="L272" s="5">
-        <v>0</v>
+        <v>9.27</v>
+      </c>
+      <c r="J272" s="6">
+        <v>769410</v>
+      </c>
+      <c r="K272" s="6">
+        <v>-257632</v>
+      </c>
+      <c r="L272" s="7">
+        <v>-385615493</v>
       </c>
       <c r="M272" s="5">
         <v>0</v>
       </c>
-      <c r="N272" s="6">
-        <v>205980</v>
-      </c>
-      <c r="O272" s="6">
-        <v>205980</v>
+      <c r="N272" s="5">
+        <v>0</v>
+      </c>
+      <c r="O272" s="5">
+        <v>0</v>
       </c>
       <c r="P272" s="5">
         <v>0</v>
       </c>
       <c r="Q272" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R272" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S272" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="T272" s="2"/>
       <c r="U272" s="5">
@@ -26182,71 +26211,71 @@
       <c r="V272" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W272" s="5">
-        <v>0</v>
-      </c>
-      <c r="X272" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y272" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z272" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA272" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB272" s="5">
-        <v>0</v>
+      <c r="W272" s="6">
+        <v>1445.69</v>
+      </c>
+      <c r="X272" s="7">
+        <v>1484794619</v>
+      </c>
+      <c r="Y272" s="6">
+        <v>1428.6</v>
+      </c>
+      <c r="Z272" s="7">
+        <v>1099179126</v>
+      </c>
+      <c r="AA272" s="7">
+        <v>-368053075</v>
+      </c>
+      <c r="AB272" s="7">
+        <v>-17562418</v>
       </c>
       <c r="AC272" s="5">
         <v>0</v>
       </c>
-      <c r="AD272" s="7">
-        <v>49395681</v>
-      </c>
-      <c r="AE272" s="7">
-        <v>49395681</v>
+      <c r="AD272" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE272" s="5">
+        <v>0</v>
       </c>
       <c r="AF272" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>46051</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="C273" s="2"/>
-      <c r="D273" s="5">
-        <v>9988</v>
+      <c r="D273" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E273" s="5">
         <v>0</v>
       </c>
       <c r="F273" s="6">
-        <v>70500</v>
+        <v>10000</v>
       </c>
       <c r="G273" s="5">
-        <v>147.79</v>
+        <v>44.158999999999999</v>
       </c>
       <c r="H273" s="6">
-        <v>10419200</v>
+        <v>441591</v>
       </c>
       <c r="I273" s="5">
-        <v>172.5</v>
+        <v>45.42</v>
       </c>
       <c r="J273" s="6">
-        <v>12161250</v>
+        <v>454200</v>
       </c>
       <c r="K273" s="6">
-        <v>1742050</v>
+        <v>12609</v>
       </c>
       <c r="L273" s="7">
-        <v>292047887</v>
+        <v>437896</v>
       </c>
       <c r="M273" s="5">
         <v>0</v>
@@ -26261,13 +26290,13 @@
         <v>0</v>
       </c>
       <c r="Q273" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R273" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S273" s="4" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="T273" s="2"/>
       <c r="U273" s="5">
@@ -26276,23 +26305,23 @@
       <c r="V273" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W273" s="5">
-        <v>185.69</v>
+      <c r="W273" s="6">
+        <v>1468.39</v>
       </c>
       <c r="X273" s="7">
-        <v>1934798600</v>
-      </c>
-      <c r="Y273" s="5">
-        <v>183.11</v>
+        <v>648432224</v>
+      </c>
+      <c r="Y273" s="6">
+        <v>1428.6</v>
       </c>
       <c r="Z273" s="7">
-        <v>2226846487</v>
+        <v>648870120</v>
       </c>
       <c r="AA273" s="7">
-        <v>318986775</v>
+        <v>18013217</v>
       </c>
       <c r="AB273" s="7">
-        <v>-26938888</v>
+        <v>-17575322</v>
       </c>
       <c r="AC273" s="5">
         <v>0</v>
@@ -26312,90 +26341,90 @@
         <v>46051</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C274" s="2"/>
-      <c r="D274" s="5">
-        <v>6861</v>
+      <c r="D274" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E274" s="5">
         <v>0</v>
       </c>
       <c r="F274" s="6">
-        <v>1900</v>
-      </c>
-      <c r="G274" s="6">
-        <v>55916.79</v>
+        <v>1000</v>
+      </c>
+      <c r="G274" s="5">
+        <v>681.92</v>
       </c>
       <c r="H274" s="6">
-        <v>106241900</v>
-      </c>
-      <c r="I274" s="6">
-        <v>58820</v>
+        <v>681920</v>
+      </c>
+      <c r="I274" s="5">
+        <v>694.04</v>
       </c>
       <c r="J274" s="6">
-        <v>111758000</v>
+        <v>694040</v>
       </c>
       <c r="K274" s="6">
-        <v>5516100</v>
+        <v>12120</v>
       </c>
       <c r="L274" s="7">
-        <v>58660737</v>
+        <v>13018536</v>
       </c>
       <c r="M274" s="5">
         <v>0</v>
       </c>
-      <c r="N274" s="5">
-        <v>0</v>
-      </c>
-      <c r="O274" s="5">
-        <v>0</v>
+      <c r="N274" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="O274" s="6">
+        <v>20010.3</v>
       </c>
       <c r="P274" s="5">
         <v>0</v>
       </c>
       <c r="Q274" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="R274" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S274" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="S274" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="T274" s="2"/>
       <c r="U274" s="5">
         <v>0</v>
       </c>
       <c r="V274" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W274" s="5">
-        <v>924.45</v>
+        <v>42</v>
+      </c>
+      <c r="W274" s="6">
+        <v>1434.9</v>
       </c>
       <c r="X274" s="7">
-        <v>982163868</v>
-      </c>
-      <c r="Y274" s="5">
-        <v>931.32</v>
+        <v>978487008</v>
+      </c>
+      <c r="Y274" s="6">
+        <v>1428.6</v>
       </c>
       <c r="Z274" s="7">
-        <v>1040824605</v>
+        <v>991505544</v>
       </c>
       <c r="AA274" s="7">
-        <v>51372542</v>
+        <v>17314632</v>
       </c>
       <c r="AB274" s="7">
-        <v>7288195</v>
+        <v>-4296096</v>
       </c>
       <c r="AC274" s="5">
         <v>0</v>
       </c>
-      <c r="AD274" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE274" s="5">
-        <v>0</v>
+      <c r="AD274" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AE274" s="7">
+        <v>135496504</v>
       </c>
       <c r="AF274" s="5">
         <v>0</v>
@@ -26406,90 +26435,90 @@
         <v>46051</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E275" s="5">
         <v>0</v>
       </c>
-      <c r="F275" s="5">
-        <v>0</v>
+      <c r="F275" s="6">
+        <v>4200</v>
       </c>
       <c r="G275" s="5">
-        <v>0</v>
-      </c>
-      <c r="H275" s="5">
-        <v>0</v>
-      </c>
-      <c r="I275" s="6">
-        <v>19450</v>
-      </c>
-      <c r="J275" s="5">
-        <v>0</v>
-      </c>
-      <c r="K275" s="5">
-        <v>0</v>
-      </c>
-      <c r="L275" s="5">
-        <v>0</v>
+        <v>396.31</v>
+      </c>
+      <c r="H275" s="6">
+        <v>1664502</v>
+      </c>
+      <c r="I275" s="5">
+        <v>495.9</v>
+      </c>
+      <c r="J275" s="6">
+        <v>2082780</v>
+      </c>
+      <c r="K275" s="6">
+        <v>418278</v>
+      </c>
+      <c r="L275" s="7">
+        <v>587065589</v>
       </c>
       <c r="M275" s="5">
         <v>0</v>
       </c>
-      <c r="N275" s="6">
-        <v>4480700</v>
-      </c>
-      <c r="O275" s="6">
-        <v>4480700</v>
+      <c r="N275" s="5">
+        <v>0</v>
+      </c>
+      <c r="O275" s="5">
+        <v>0</v>
       </c>
       <c r="P275" s="5">
         <v>0</v>
       </c>
       <c r="Q275" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="R275" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="S275" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="T275" s="2"/>
       <c r="U275" s="5">
         <v>0</v>
       </c>
       <c r="V275" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W275" s="5">
-        <v>0</v>
-      </c>
-      <c r="X275" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y275" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z275" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA275" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB275" s="5">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="W275" s="6">
+        <v>1434.89</v>
+      </c>
+      <c r="X275" s="7">
+        <v>2388393919</v>
+      </c>
+      <c r="Y275" s="6">
+        <v>1428.6</v>
+      </c>
+      <c r="Z275" s="7">
+        <v>2975459508</v>
+      </c>
+      <c r="AA275" s="7">
+        <v>597551950</v>
+      </c>
+      <c r="AB275" s="7">
+        <v>-10486362</v>
       </c>
       <c r="AC275" s="5">
         <v>0</v>
       </c>
-      <c r="AD275" s="7">
-        <v>37760160</v>
-      </c>
-      <c r="AE275" s="7">
-        <v>37760160</v>
+      <c r="AD275" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE275" s="5">
+        <v>0</v>
       </c>
       <c r="AF275" s="5">
         <v>0</v>
@@ -26500,35 +26529,35 @@
         <v>46051</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C276" s="2"/>
-      <c r="D276" s="5">
-        <v>9984</v>
+      <c r="D276" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E276" s="5">
         <v>0</v>
       </c>
       <c r="F276" s="6">
-        <v>23000</v>
-      </c>
-      <c r="G276" s="6">
-        <v>4066.73</v>
+        <v>24000</v>
+      </c>
+      <c r="G276" s="5">
+        <v>17.655000000000001</v>
       </c>
       <c r="H276" s="6">
-        <v>93534900</v>
-      </c>
-      <c r="I276" s="6">
-        <v>4273</v>
+        <v>423736.8</v>
+      </c>
+      <c r="I276" s="5">
+        <v>17.170000000000002</v>
       </c>
       <c r="J276" s="6">
-        <v>98279000</v>
+        <v>412080</v>
       </c>
       <c r="K276" s="6">
-        <v>4744100</v>
+        <v>-11656.8</v>
       </c>
       <c r="L276" s="7">
-        <v>48672427</v>
+        <v>-31695560</v>
       </c>
       <c r="M276" s="5">
         <v>0</v>
@@ -26543,13 +26572,13 @@
         <v>0</v>
       </c>
       <c r="Q276" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="R276" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S276" s="1" t="s">
-        <v>73</v>
+        <v>40</v>
+      </c>
+      <c r="S276" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="T276" s="2"/>
       <c r="U276" s="5">
@@ -26558,23 +26587,23 @@
       <c r="V276" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W276" s="5">
-        <v>926.51</v>
+      <c r="W276" s="6">
+        <v>1464.09</v>
       </c>
       <c r="X276" s="7">
-        <v>866619555</v>
-      </c>
-      <c r="Y276" s="5">
-        <v>931.32</v>
+        <v>620393048</v>
+      </c>
+      <c r="Y276" s="6">
+        <v>1428.6</v>
       </c>
       <c r="Z276" s="7">
-        <v>915291982</v>
+        <v>588697488</v>
       </c>
       <c r="AA276" s="7">
-        <v>44182752</v>
+        <v>-16652904</v>
       </c>
       <c r="AB276" s="7">
-        <v>4489675</v>
+        <v>-15042656</v>
       </c>
       <c r="AC276" s="5">
         <v>0</v>
@@ -26594,35 +26623,35 @@
         <v>46051</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C277" s="2"/>
-      <c r="D277" s="5">
-        <v>6954</v>
+      <c r="D277" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E277" s="5">
         <v>0</v>
       </c>
       <c r="F277" s="6">
-        <v>10000</v>
-      </c>
-      <c r="G277" s="6">
-        <v>6568.27</v>
+        <v>1400</v>
+      </c>
+      <c r="G277" s="5">
+        <v>432.53800000000001</v>
       </c>
       <c r="H277" s="6">
-        <v>65682650</v>
-      </c>
-      <c r="I277" s="6">
-        <v>6155</v>
+        <v>605554.04</v>
+      </c>
+      <c r="I277" s="5">
+        <v>416.56</v>
       </c>
       <c r="J277" s="6">
-        <v>61550000</v>
+        <v>583184</v>
       </c>
       <c r="K277" s="6">
-        <v>-4132650</v>
+        <v>-22370.04</v>
       </c>
       <c r="L277" s="7">
-        <v>-35663842</v>
+        <v>-42978923</v>
       </c>
       <c r="M277" s="5">
         <v>0</v>
@@ -26637,13 +26666,13 @@
         <v>0</v>
       </c>
       <c r="Q277" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="R277" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="S277" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="T277" s="2"/>
       <c r="U277" s="5">
@@ -26652,23 +26681,23 @@
       <c r="V277" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W277" s="5">
-        <v>927.01</v>
+      <c r="W277" s="6">
+        <v>1446.79</v>
       </c>
       <c r="X277" s="7">
-        <v>608891302</v>
-      </c>
-      <c r="Y277" s="5">
-        <v>931.32</v>
+        <v>876115585</v>
+      </c>
+      <c r="Y277" s="6">
+        <v>1428.6</v>
       </c>
       <c r="Z277" s="7">
-        <v>573227460</v>
+        <v>833136662</v>
       </c>
       <c r="AA277" s="7">
-        <v>-38488195</v>
+        <v>-31957839</v>
       </c>
       <c r="AB277" s="7">
-        <v>2824353</v>
+        <v>-11021084</v>
       </c>
       <c r="AC277" s="5">
         <v>0</v>
@@ -26688,35 +26717,35 @@
         <v>46051</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E278" s="5">
         <v>0</v>
       </c>
       <c r="F278" s="6">
-        <v>38000</v>
+        <v>3500</v>
       </c>
       <c r="G278" s="5">
-        <v>12.58</v>
+        <v>169.042</v>
       </c>
       <c r="H278" s="6">
-        <v>478066.6</v>
+        <v>591649.80000000005</v>
       </c>
       <c r="I278" s="5">
-        <v>13.82</v>
+        <v>162.58000000000001</v>
       </c>
       <c r="J278" s="6">
-        <v>525160</v>
+        <v>569030</v>
       </c>
       <c r="K278" s="6">
-        <v>47093.4</v>
+        <v>-22619.8</v>
       </c>
       <c r="L278" s="7">
-        <v>48250581</v>
+        <v>-43082672</v>
       </c>
       <c r="M278" s="5">
         <v>0</v>
@@ -26737,7 +26766,7 @@
         <v>40</v>
       </c>
       <c r="S278" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="T278" s="2"/>
       <c r="U278" s="5">
@@ -26747,22 +26776,22 @@
         <v>34</v>
       </c>
       <c r="W278" s="6">
-        <v>1468.39</v>
+        <v>1446.79</v>
       </c>
       <c r="X278" s="7">
-        <v>701992995</v>
+        <v>855998930</v>
       </c>
       <c r="Y278" s="6">
         <v>1428.6</v>
       </c>
       <c r="Z278" s="7">
-        <v>750243576</v>
+        <v>812916258</v>
       </c>
       <c r="AA278" s="7">
-        <v>67277631</v>
+        <v>-32314646</v>
       </c>
       <c r="AB278" s="7">
-        <v>-19027051</v>
+        <v>-10768026</v>
       </c>
       <c r="AC278" s="5">
         <v>0</v>
@@ -26777,61 +26806,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <v>46051</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C279" s="2"/>
-      <c r="D279" s="1" t="s">
-        <v>64</v>
+      <c r="D279" s="5">
+        <v>6869</v>
       </c>
       <c r="E279" s="5">
         <v>0</v>
       </c>
-      <c r="F279" s="6">
-        <v>10000</v>
+      <c r="F279" s="5">
+        <v>0</v>
       </c>
       <c r="G279" s="5">
-        <v>48.203000000000003</v>
-      </c>
-      <c r="H279" s="6">
-        <v>482030</v>
-      </c>
-      <c r="I279" s="5">
-        <v>50.78</v>
-      </c>
-      <c r="J279" s="6">
-        <v>507800</v>
-      </c>
-      <c r="K279" s="6">
-        <v>25770</v>
-      </c>
-      <c r="L279" s="7">
-        <v>23752009</v>
+        <v>0</v>
+      </c>
+      <c r="H279" s="5">
+        <v>0</v>
+      </c>
+      <c r="I279" s="2"/>
+      <c r="J279" s="5">
+        <v>0</v>
+      </c>
+      <c r="K279" s="5">
+        <v>0</v>
+      </c>
+      <c r="L279" s="5">
+        <v>0</v>
       </c>
       <c r="M279" s="5">
         <v>0</v>
       </c>
-      <c r="N279" s="5">
-        <v>0</v>
-      </c>
-      <c r="O279" s="5">
-        <v>0</v>
+      <c r="N279" s="6">
+        <v>349976</v>
+      </c>
+      <c r="O279" s="6">
+        <v>349976</v>
       </c>
       <c r="P279" s="5">
         <v>0</v>
       </c>
       <c r="Q279" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R279" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S279" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T279" s="2"/>
       <c r="U279" s="5">
@@ -26840,71 +26867,71 @@
       <c r="V279" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W279" s="6">
-        <v>1455.7</v>
-      </c>
-      <c r="X279" s="7">
-        <v>701691071</v>
-      </c>
-      <c r="Y279" s="6">
-        <v>1428.6</v>
-      </c>
-      <c r="Z279" s="7">
-        <v>725443080</v>
-      </c>
-      <c r="AA279" s="7">
-        <v>36815022</v>
-      </c>
-      <c r="AB279" s="7">
-        <v>-13063013</v>
+      <c r="W279" s="5">
+        <v>0</v>
+      </c>
+      <c r="X279" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y279" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z279" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA279" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB279" s="5">
+        <v>0</v>
       </c>
       <c r="AC279" s="5">
         <v>0</v>
       </c>
-      <c r="AD279" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE279" s="5">
-        <v>0</v>
+      <c r="AD279" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AE279" s="7">
+        <v>72042766</v>
       </c>
       <c r="AF279" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
         <v>46051</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C280" s="2"/>
-      <c r="D280" s="1" t="s">
-        <v>77</v>
+      <c r="D280" s="5">
+        <v>2359</v>
       </c>
       <c r="E280" s="5">
         <v>0</v>
       </c>
       <c r="F280" s="6">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G280" s="5">
-        <v>34.24</v>
+        <v>118.559</v>
       </c>
       <c r="H280" s="6">
-        <v>684800</v>
+        <v>2963990</v>
       </c>
       <c r="I280" s="5">
-        <v>34.46</v>
+        <v>115.6</v>
       </c>
       <c r="J280" s="6">
-        <v>689200</v>
+        <v>2890000</v>
       </c>
       <c r="K280" s="6">
-        <v>4400</v>
+        <v>-73990</v>
       </c>
       <c r="L280" s="7">
-        <v>-26858480</v>
+        <v>-30887650</v>
       </c>
       <c r="M280" s="5">
         <v>0</v>
@@ -26919,13 +26946,13 @@
         <v>0</v>
       </c>
       <c r="Q280" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R280" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S280" s="1" t="s">
-        <v>78</v>
+        <v>32</v>
+      </c>
+      <c r="S280" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="T280" s="2"/>
       <c r="U280" s="5">
@@ -26934,23 +26961,23 @@
       <c r="V280" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W280" s="6">
-        <v>1477</v>
+      <c r="W280" s="5">
+        <v>188.95</v>
       </c>
       <c r="X280" s="7">
-        <v>1011449600</v>
-      </c>
-      <c r="Y280" s="6">
-        <v>1428.6</v>
+        <v>560075550</v>
+      </c>
+      <c r="Y280" s="5">
+        <v>183.11</v>
       </c>
       <c r="Z280" s="7">
-        <v>984591120</v>
+        <v>529187900</v>
       </c>
       <c r="AA280" s="7">
-        <v>6285840</v>
+        <v>-13548308</v>
       </c>
       <c r="AB280" s="7">
-        <v>-33144320</v>
+        <v>-17339342</v>
       </c>
       <c r="AC280" s="5">
         <v>0</v>
@@ -26965,40 +26992,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <v>46051</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C281" s="2"/>
-      <c r="D281" s="1" t="s">
-        <v>80</v>
+      <c r="D281" s="5">
+        <v>6680</v>
       </c>
       <c r="E281" s="5">
         <v>0</v>
       </c>
       <c r="F281" s="6">
-        <v>5000</v>
+        <v>130000</v>
       </c>
       <c r="G281" s="5">
-        <v>251.01</v>
+        <v>22.469000000000001</v>
       </c>
       <c r="H281" s="6">
-        <v>1255051.8</v>
+        <v>2921022</v>
       </c>
       <c r="I281" s="5">
-        <v>257.38</v>
+        <v>23.66</v>
       </c>
       <c r="J281" s="6">
-        <v>1286900</v>
+        <v>3075800</v>
       </c>
       <c r="K281" s="6">
-        <v>31848.2</v>
+        <v>154778</v>
       </c>
       <c r="L281" s="7">
-        <v>-804897</v>
+        <v>11457893</v>
       </c>
       <c r="M281" s="5">
         <v>0</v>
@@ -27013,13 +27040,13 @@
         <v>0</v>
       </c>
       <c r="Q281" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R281" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S281" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="T281" s="2"/>
       <c r="U281" s="5">
@@ -27028,23 +27055,23 @@
       <c r="V281" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W281" s="6">
-        <v>1465.49</v>
+      <c r="W281" s="5">
+        <v>188.88</v>
       </c>
       <c r="X281" s="7">
-        <v>1839270237</v>
-      </c>
-      <c r="Y281" s="6">
-        <v>1428.6</v>
+        <v>551751845</v>
+      </c>
+      <c r="Y281" s="5">
+        <v>183.11</v>
       </c>
       <c r="Z281" s="7">
-        <v>1838465340</v>
+        <v>563209738</v>
       </c>
       <c r="AA281" s="7">
-        <v>45498338</v>
+        <v>28341399</v>
       </c>
       <c r="AB281" s="7">
-        <v>-46303236</v>
+        <v>-16883507</v>
       </c>
       <c r="AC281" s="5">
         <v>0</v>
@@ -27059,61 +27086,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
         <v>46051</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C282" s="2"/>
-      <c r="D282" s="1" t="s">
-        <v>55</v>
+      <c r="D282" s="5">
+        <v>6181</v>
       </c>
       <c r="E282" s="5">
         <v>0</v>
       </c>
-      <c r="F282" s="6">
-        <v>83000</v>
+      <c r="F282" s="5">
+        <v>0</v>
       </c>
       <c r="G282" s="5">
-        <v>12.374000000000001</v>
-      </c>
-      <c r="H282" s="6">
-        <v>1027042</v>
-      </c>
-      <c r="I282" s="5">
-        <v>9.61</v>
-      </c>
-      <c r="J282" s="6">
-        <v>797630</v>
-      </c>
-      <c r="K282" s="6">
-        <v>-229412</v>
-      </c>
-      <c r="L282" s="7">
-        <v>-345300401</v>
+        <v>0</v>
+      </c>
+      <c r="H282" s="5">
+        <v>0</v>
+      </c>
+      <c r="I282" s="2"/>
+      <c r="J282" s="5">
+        <v>0</v>
+      </c>
+      <c r="K282" s="5">
+        <v>0</v>
+      </c>
+      <c r="L282" s="5">
+        <v>0</v>
       </c>
       <c r="M282" s="5">
         <v>0</v>
       </c>
-      <c r="N282" s="5">
-        <v>0</v>
+      <c r="N282" s="6">
+        <v>-6374.88</v>
       </c>
       <c r="O282" s="5">
         <v>0</v>
       </c>
-      <c r="P282" s="5">
-        <v>0</v>
+      <c r="P282" s="6">
+        <v>6374.88</v>
       </c>
       <c r="Q282" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R282" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S282" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="T282" s="2"/>
       <c r="U282" s="5">
@@ -27122,92 +27147,90 @@
       <c r="V282" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W282" s="6">
-        <v>1445.69</v>
-      </c>
-      <c r="X282" s="7">
-        <v>1484794619</v>
-      </c>
-      <c r="Y282" s="6">
-        <v>1428.6</v>
-      </c>
-      <c r="Z282" s="7">
-        <v>1139494218</v>
-      </c>
-      <c r="AA282" s="7">
-        <v>-327737983</v>
-      </c>
-      <c r="AB282" s="7">
-        <v>-17562418</v>
+      <c r="W282" s="5">
+        <v>0</v>
+      </c>
+      <c r="X282" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y282" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z282" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA282" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB282" s="5">
+        <v>0</v>
       </c>
       <c r="AC282" s="5">
         <v>0</v>
       </c>
-      <c r="AD282" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE282" s="5">
-        <v>0</v>
+      <c r="AD282" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AE282" s="7">
+        <v>1362525</v>
       </c>
       <c r="AF282" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <v>46051</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C283" s="2"/>
-      <c r="D283" s="1" t="s">
-        <v>95</v>
+      <c r="D283" s="5">
+        <v>6082</v>
       </c>
       <c r="E283" s="5">
         <v>0</v>
       </c>
-      <c r="F283" s="6">
-        <v>10000</v>
+      <c r="F283" s="5">
+        <v>0</v>
       </c>
       <c r="G283" s="5">
-        <v>44.158999999999999</v>
-      </c>
-      <c r="H283" s="6">
-        <v>441591</v>
-      </c>
-      <c r="I283" s="5">
-        <v>45.27</v>
-      </c>
-      <c r="J283" s="6">
-        <v>452700</v>
-      </c>
-      <c r="K283" s="6">
-        <v>11109</v>
-      </c>
-      <c r="L283" s="7">
-        <v>-1705004</v>
+        <v>0</v>
+      </c>
+      <c r="H283" s="5">
+        <v>0</v>
+      </c>
+      <c r="I283" s="2"/>
+      <c r="J283" s="5">
+        <v>0</v>
+      </c>
+      <c r="K283" s="5">
+        <v>0</v>
+      </c>
+      <c r="L283" s="5">
+        <v>0</v>
       </c>
       <c r="M283" s="5">
         <v>0</v>
       </c>
-      <c r="N283" s="5">
-        <v>0</v>
-      </c>
-      <c r="O283" s="5">
-        <v>0</v>
+      <c r="N283" s="6">
+        <v>205980</v>
+      </c>
+      <c r="O283" s="6">
+        <v>205980</v>
       </c>
       <c r="P283" s="5">
         <v>0</v>
       </c>
       <c r="Q283" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R283" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S283" s="4" t="s">
-        <v>96</v>
+        <v>32</v>
+      </c>
+      <c r="S283" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="T283" s="2"/>
       <c r="U283" s="5">
@@ -27216,126 +27239,126 @@
       <c r="V283" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W283" s="6">
-        <v>1468.39</v>
-      </c>
-      <c r="X283" s="7">
-        <v>648432224</v>
-      </c>
-      <c r="Y283" s="6">
-        <v>1428.6</v>
-      </c>
-      <c r="Z283" s="7">
-        <v>646727220</v>
-      </c>
-      <c r="AA283" s="7">
-        <v>15870317</v>
-      </c>
-      <c r="AB283" s="7">
-        <v>-17575322</v>
+      <c r="W283" s="5">
+        <v>0</v>
+      </c>
+      <c r="X283" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y283" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z283" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA283" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB283" s="5">
+        <v>0</v>
       </c>
       <c r="AC283" s="5">
         <v>0</v>
       </c>
-      <c r="AD283" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE283" s="5">
-        <v>0</v>
+      <c r="AD283" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AE283" s="7">
+        <v>49395681</v>
       </c>
       <c r="AF283" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
         <v>46051</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C284" s="2"/>
-      <c r="D284" s="1" t="s">
-        <v>44</v>
+      <c r="D284" s="5">
+        <v>9988</v>
       </c>
       <c r="E284" s="5">
         <v>0</v>
       </c>
       <c r="F284" s="6">
-        <v>1000</v>
+        <v>70500</v>
       </c>
       <c r="G284" s="5">
-        <v>681.92</v>
+        <v>147.79</v>
       </c>
       <c r="H284" s="6">
-        <v>681920</v>
+        <v>10419200</v>
       </c>
       <c r="I284" s="5">
-        <v>697.07</v>
+        <v>173.3</v>
       </c>
       <c r="J284" s="6">
-        <v>697070</v>
+        <v>12217650</v>
       </c>
       <c r="K284" s="6">
-        <v>15150</v>
+        <v>1798450</v>
       </c>
       <c r="L284" s="7">
-        <v>17347194</v>
+        <v>302375291</v>
       </c>
       <c r="M284" s="5">
         <v>0</v>
       </c>
-      <c r="N284" s="6">
-        <v>20010.3</v>
-      </c>
-      <c r="O284" s="6">
-        <v>20010.3</v>
+      <c r="N284" s="5">
+        <v>0</v>
+      </c>
+      <c r="O284" s="5">
+        <v>0</v>
       </c>
       <c r="P284" s="5">
         <v>0</v>
       </c>
       <c r="Q284" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R284" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S284" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="T284" s="2"/>
       <c r="U284" s="5">
         <v>0</v>
       </c>
       <c r="V284" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W284" s="6">
-        <v>1434.9</v>
+        <v>34</v>
+      </c>
+      <c r="W284" s="5">
+        <v>185.69</v>
       </c>
       <c r="X284" s="7">
-        <v>978487008</v>
-      </c>
-      <c r="Y284" s="6">
-        <v>1428.6</v>
+        <v>1934798600</v>
+      </c>
+      <c r="Y284" s="5">
+        <v>183.11</v>
       </c>
       <c r="Z284" s="7">
-        <v>995834202</v>
+        <v>2237173891</v>
       </c>
       <c r="AA284" s="7">
-        <v>21643290</v>
+        <v>329314179</v>
       </c>
       <c r="AB284" s="7">
-        <v>-4296096</v>
+        <v>-26938888</v>
       </c>
       <c r="AC284" s="5">
         <v>0</v>
       </c>
-      <c r="AD284" s="7">
-        <v>135496504</v>
-      </c>
-      <c r="AE284" s="7">
-        <v>135496504</v>
+      <c r="AD284" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE284" s="5">
+        <v>0</v>
       </c>
       <c r="AF284" s="5">
         <v>0</v>
@@ -27346,35 +27369,35 @@
         <v>46051</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C285" s="2"/>
-      <c r="D285" s="1" t="s">
-        <v>38</v>
+      <c r="D285" s="5">
+        <v>6861</v>
       </c>
       <c r="E285" s="5">
         <v>0</v>
       </c>
       <c r="F285" s="6">
-        <v>4200</v>
-      </c>
-      <c r="G285" s="5">
-        <v>396.31</v>
+        <v>1900</v>
+      </c>
+      <c r="G285" s="6">
+        <v>55916.79</v>
       </c>
       <c r="H285" s="6">
-        <v>1664502</v>
-      </c>
-      <c r="I285" s="5">
-        <v>513.14</v>
+        <v>106241900</v>
+      </c>
+      <c r="I285" s="6">
+        <v>58780</v>
       </c>
       <c r="J285" s="6">
-        <v>2155188</v>
+        <v>111682000</v>
       </c>
       <c r="K285" s="6">
-        <v>490686</v>
+        <v>5440100</v>
       </c>
       <c r="L285" s="7">
-        <v>690507657</v>
+        <v>57952934</v>
       </c>
       <c r="M285" s="5">
         <v>0</v>
@@ -27389,38 +27412,38 @@
         <v>0</v>
       </c>
       <c r="Q285" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="R285" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="S285" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="T285" s="2"/>
       <c r="U285" s="5">
         <v>0</v>
       </c>
       <c r="V285" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W285" s="6">
-        <v>1434.89</v>
+        <v>34</v>
+      </c>
+      <c r="W285" s="5">
+        <v>924.45</v>
       </c>
       <c r="X285" s="7">
-        <v>2388393919</v>
-      </c>
-      <c r="Y285" s="6">
-        <v>1428.6</v>
+        <v>982163868</v>
+      </c>
+      <c r="Y285" s="5">
+        <v>931.32</v>
       </c>
       <c r="Z285" s="7">
-        <v>3078901576</v>
+        <v>1040116802</v>
       </c>
       <c r="AA285" s="7">
-        <v>700994019</v>
+        <v>50664739</v>
       </c>
       <c r="AB285" s="7">
-        <v>-10486362</v>
+        <v>7288195</v>
       </c>
       <c r="AC285" s="5">
         <v>0</v>
@@ -27440,56 +27463,54 @@
         <v>46051</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E286" s="5">
         <v>0</v>
       </c>
-      <c r="F286" s="6">
-        <v>24000</v>
+      <c r="F286" s="5">
+        <v>0</v>
       </c>
       <c r="G286" s="5">
-        <v>17.655000000000001</v>
-      </c>
-      <c r="H286" s="6">
-        <v>423736.8</v>
-      </c>
-      <c r="I286" s="5">
-        <v>17.05</v>
-      </c>
-      <c r="J286" s="6">
-        <v>409200</v>
-      </c>
-      <c r="K286" s="6">
-        <v>-14536.8</v>
-      </c>
-      <c r="L286" s="7">
-        <v>-35809928</v>
+        <v>0</v>
+      </c>
+      <c r="H286" s="5">
+        <v>0</v>
+      </c>
+      <c r="I286" s="2"/>
+      <c r="J286" s="5">
+        <v>0</v>
+      </c>
+      <c r="K286" s="5">
+        <v>0</v>
+      </c>
+      <c r="L286" s="5">
+        <v>0</v>
       </c>
       <c r="M286" s="5">
         <v>0</v>
       </c>
-      <c r="N286" s="5">
-        <v>0</v>
-      </c>
-      <c r="O286" s="5">
-        <v>0</v>
+      <c r="N286" s="6">
+        <v>4480700</v>
+      </c>
+      <c r="O286" s="6">
+        <v>4480700</v>
       </c>
       <c r="P286" s="5">
         <v>0</v>
       </c>
       <c r="Q286" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="R286" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S286" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="S286" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="T286" s="2"/>
       <c r="U286" s="5">
@@ -27498,32 +27519,32 @@
       <c r="V286" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W286" s="6">
-        <v>1464.09</v>
-      </c>
-      <c r="X286" s="7">
-        <v>620393048</v>
-      </c>
-      <c r="Y286" s="6">
-        <v>1428.6</v>
-      </c>
-      <c r="Z286" s="7">
-        <v>584583120</v>
-      </c>
-      <c r="AA286" s="7">
-        <v>-20767272</v>
-      </c>
-      <c r="AB286" s="7">
-        <v>-15042656</v>
+      <c r="W286" s="5">
+        <v>0</v>
+      </c>
+      <c r="X286" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y286" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z286" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA286" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB286" s="5">
+        <v>0</v>
       </c>
       <c r="AC286" s="5">
         <v>0</v>
       </c>
-      <c r="AD286" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE286" s="5">
-        <v>0</v>
+      <c r="AD286" s="7">
+        <v>37760160</v>
+      </c>
+      <c r="AE286" s="7">
+        <v>37760160</v>
       </c>
       <c r="AF286" s="5">
         <v>0</v>
@@ -27534,35 +27555,35 @@
         <v>46051</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C287" s="2"/>
-      <c r="D287" s="1" t="s">
-        <v>49</v>
+      <c r="D287" s="5">
+        <v>9984</v>
       </c>
       <c r="E287" s="5">
         <v>0</v>
       </c>
       <c r="F287" s="6">
-        <v>1400</v>
-      </c>
-      <c r="G287" s="5">
-        <v>432.53800000000001</v>
+        <v>23000</v>
+      </c>
+      <c r="G287" s="6">
+        <v>4066.73</v>
       </c>
       <c r="H287" s="6">
-        <v>605554.04</v>
-      </c>
-      <c r="I287" s="5">
-        <v>440.83</v>
+        <v>93534900</v>
+      </c>
+      <c r="I287" s="6">
+        <v>4265</v>
       </c>
       <c r="J287" s="6">
-        <v>617162</v>
+        <v>98095000</v>
       </c>
       <c r="K287" s="6">
-        <v>11607.96</v>
+        <v>4560100</v>
       </c>
       <c r="L287" s="7">
-        <v>5562048</v>
+        <v>46958799</v>
       </c>
       <c r="M287" s="5">
         <v>0</v>
@@ -27577,13 +27598,13 @@
         <v>0</v>
       </c>
       <c r="Q287" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="R287" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="S287" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="T287" s="2"/>
       <c r="U287" s="5">
@@ -27592,23 +27613,23 @@
       <c r="V287" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W287" s="6">
-        <v>1446.79</v>
+      <c r="W287" s="5">
+        <v>926.51</v>
       </c>
       <c r="X287" s="7">
-        <v>876115585</v>
-      </c>
-      <c r="Y287" s="6">
-        <v>1428.6</v>
+        <v>866619555</v>
+      </c>
+      <c r="Y287" s="5">
+        <v>931.32</v>
       </c>
       <c r="Z287" s="7">
-        <v>881677633</v>
+        <v>913578354</v>
       </c>
       <c r="AA287" s="7">
-        <v>16583131</v>
+        <v>42469123</v>
       </c>
       <c r="AB287" s="7">
-        <v>-11021084</v>
+        <v>4489675</v>
       </c>
       <c r="AC287" s="5">
         <v>0</v>
@@ -27628,35 +27649,35 @@
         <v>46051</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C288" s="2"/>
-      <c r="D288" s="1" t="s">
-        <v>52</v>
+      <c r="D288" s="5">
+        <v>6954</v>
       </c>
       <c r="E288" s="5">
         <v>0</v>
       </c>
       <c r="F288" s="6">
-        <v>3500</v>
-      </c>
-      <c r="G288" s="5">
-        <v>169.042</v>
+        <v>10000</v>
+      </c>
+      <c r="G288" s="6">
+        <v>6568.27</v>
       </c>
       <c r="H288" s="6">
-        <v>591649.80000000005</v>
-      </c>
-      <c r="I288" s="5">
-        <v>166.19</v>
+        <v>65682650</v>
+      </c>
+      <c r="I288" s="6">
+        <v>6120</v>
       </c>
       <c r="J288" s="6">
-        <v>581665</v>
+        <v>61200000</v>
       </c>
       <c r="K288" s="6">
-        <v>-9984.7999999999993</v>
+        <v>-4482650</v>
       </c>
       <c r="L288" s="7">
-        <v>-25032311</v>
+        <v>-38923462</v>
       </c>
       <c r="M288" s="5">
         <v>0</v>
@@ -27671,13 +27692,13 @@
         <v>0</v>
       </c>
       <c r="Q288" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="R288" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="S288" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="T288" s="2"/>
       <c r="U288" s="5">
@@ -27686,818 +27707,2198 @@
       <c r="V288" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W288" s="6">
+      <c r="W288" s="5">
+        <v>927.01</v>
+      </c>
+      <c r="X288" s="7">
+        <v>608891302</v>
+      </c>
+      <c r="Y288" s="5">
+        <v>931.32</v>
+      </c>
+      <c r="Z288" s="7">
+        <v>569967840</v>
+      </c>
+      <c r="AA288" s="7">
+        <v>-41747815</v>
+      </c>
+      <c r="AB288" s="7">
+        <v>2824353</v>
+      </c>
+      <c r="AC288" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD288" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE288" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF288" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C289" s="2"/>
+      <c r="D289" s="5">
+        <v>6869</v>
+      </c>
+      <c r="E289" s="5">
+        <v>0</v>
+      </c>
+      <c r="F289" s="5">
+        <v>0</v>
+      </c>
+      <c r="G289" s="5">
+        <v>0</v>
+      </c>
+      <c r="H289" s="5">
+        <v>0</v>
+      </c>
+      <c r="I289" s="5">
+        <v>84.6</v>
+      </c>
+      <c r="J289" s="5">
+        <v>0</v>
+      </c>
+      <c r="K289" s="5">
+        <v>0</v>
+      </c>
+      <c r="L289" s="5">
+        <v>0</v>
+      </c>
+      <c r="M289" s="5">
+        <v>0</v>
+      </c>
+      <c r="N289" s="6">
+        <v>349976</v>
+      </c>
+      <c r="O289" s="6">
+        <v>349976</v>
+      </c>
+      <c r="P289" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q289" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R289" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S289" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="T289" s="2"/>
+      <c r="U289" s="5">
+        <v>0</v>
+      </c>
+      <c r="V289" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W289" s="5">
+        <v>0</v>
+      </c>
+      <c r="X289" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y289" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z289" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA289" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB289" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC289" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD289" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AE289" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AF289" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C290" s="2"/>
+      <c r="D290" s="5">
+        <v>2359</v>
+      </c>
+      <c r="E290" s="5">
+        <v>0</v>
+      </c>
+      <c r="F290" s="6">
+        <v>25000</v>
+      </c>
+      <c r="G290" s="5">
+        <v>118.559</v>
+      </c>
+      <c r="H290" s="6">
+        <v>2963990</v>
+      </c>
+      <c r="I290" s="5">
+        <v>109.4</v>
+      </c>
+      <c r="J290" s="6">
+        <v>2735000</v>
+      </c>
+      <c r="K290" s="6">
+        <v>-228990</v>
+      </c>
+      <c r="L290" s="7">
+        <v>-57109050</v>
+      </c>
+      <c r="M290" s="5">
+        <v>0</v>
+      </c>
+      <c r="N290" s="5">
+        <v>0</v>
+      </c>
+      <c r="O290" s="5">
+        <v>0</v>
+      </c>
+      <c r="P290" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q290" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R290" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S290" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T290" s="2"/>
+      <c r="U290" s="5">
+        <v>0</v>
+      </c>
+      <c r="V290" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W290" s="5">
+        <v>188.95</v>
+      </c>
+      <c r="X290" s="7">
+        <v>560075550</v>
+      </c>
+      <c r="Y290" s="5">
+        <v>183.9</v>
+      </c>
+      <c r="Z290" s="7">
+        <v>502966500</v>
+      </c>
+      <c r="AA290" s="7">
+        <v>-42111261</v>
+      </c>
+      <c r="AB290" s="7">
+        <v>-14997789</v>
+      </c>
+      <c r="AC290" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD290" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE290" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF290" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C291" s="2"/>
+      <c r="D291" s="5">
+        <v>6680</v>
+      </c>
+      <c r="E291" s="5">
+        <v>0</v>
+      </c>
+      <c r="F291" s="6">
+        <v>130000</v>
+      </c>
+      <c r="G291" s="5">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H291" s="6">
+        <v>2921022</v>
+      </c>
+      <c r="I291" s="5">
+        <v>20.52</v>
+      </c>
+      <c r="J291" s="6">
+        <v>2667600</v>
+      </c>
+      <c r="K291" s="6">
+        <v>-253422</v>
+      </c>
+      <c r="L291" s="7">
+        <v>-61180205</v>
+      </c>
+      <c r="M291" s="5">
+        <v>0</v>
+      </c>
+      <c r="N291" s="5">
+        <v>0</v>
+      </c>
+      <c r="O291" s="5">
+        <v>0</v>
+      </c>
+      <c r="P291" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q291" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R291" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S291" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T291" s="2"/>
+      <c r="U291" s="5">
+        <v>0</v>
+      </c>
+      <c r="V291" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W291" s="5">
+        <v>188.88</v>
+      </c>
+      <c r="X291" s="7">
+        <v>551751845</v>
+      </c>
+      <c r="Y291" s="5">
+        <v>183.9</v>
+      </c>
+      <c r="Z291" s="7">
+        <v>490571640</v>
+      </c>
+      <c r="AA291" s="7">
+        <v>-46604305</v>
+      </c>
+      <c r="AB291" s="7">
+        <v>-14575900</v>
+      </c>
+      <c r="AC291" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD291" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE291" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF291" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C292" s="2"/>
+      <c r="D292" s="5">
+        <v>6181</v>
+      </c>
+      <c r="E292" s="5">
+        <v>0</v>
+      </c>
+      <c r="F292" s="5">
+        <v>0</v>
+      </c>
+      <c r="G292" s="5">
+        <v>0</v>
+      </c>
+      <c r="H292" s="5">
+        <v>0</v>
+      </c>
+      <c r="I292" s="5">
+        <v>751</v>
+      </c>
+      <c r="J292" s="5">
+        <v>0</v>
+      </c>
+      <c r="K292" s="5">
+        <v>0</v>
+      </c>
+      <c r="L292" s="5">
+        <v>0</v>
+      </c>
+      <c r="M292" s="5">
+        <v>0</v>
+      </c>
+      <c r="N292" s="6">
+        <v>-6374.88</v>
+      </c>
+      <c r="O292" s="5">
+        <v>0</v>
+      </c>
+      <c r="P292" s="6">
+        <v>6374.88</v>
+      </c>
+      <c r="Q292" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R292" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S292" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T292" s="2"/>
+      <c r="U292" s="5">
+        <v>0</v>
+      </c>
+      <c r="V292" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W292" s="5">
+        <v>0</v>
+      </c>
+      <c r="X292" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y292" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z292" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA292" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB292" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC292" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD292" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AE292" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AF292" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C293" s="2"/>
+      <c r="D293" s="5">
+        <v>6082</v>
+      </c>
+      <c r="E293" s="5">
+        <v>0</v>
+      </c>
+      <c r="F293" s="5">
+        <v>0</v>
+      </c>
+      <c r="G293" s="5">
+        <v>0</v>
+      </c>
+      <c r="H293" s="5">
+        <v>0</v>
+      </c>
+      <c r="I293" s="5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J293" s="5">
+        <v>0</v>
+      </c>
+      <c r="K293" s="5">
+        <v>0</v>
+      </c>
+      <c r="L293" s="5">
+        <v>0</v>
+      </c>
+      <c r="M293" s="5">
+        <v>0</v>
+      </c>
+      <c r="N293" s="6">
+        <v>205980</v>
+      </c>
+      <c r="O293" s="6">
+        <v>205980</v>
+      </c>
+      <c r="P293" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q293" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R293" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S293" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T293" s="2"/>
+      <c r="U293" s="5">
+        <v>0</v>
+      </c>
+      <c r="V293" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W293" s="5">
+        <v>0</v>
+      </c>
+      <c r="X293" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y293" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z293" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA293" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB293" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC293" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD293" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AE293" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AF293" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C294" s="2"/>
+      <c r="D294" s="5">
+        <v>3033</v>
+      </c>
+      <c r="E294" s="5">
+        <v>0</v>
+      </c>
+      <c r="F294" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G294" s="5">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="H294" s="6">
+        <v>5713300</v>
+      </c>
+      <c r="I294" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="J294" s="6">
+        <v>5400000</v>
+      </c>
+      <c r="K294" s="6">
+        <v>-313300</v>
+      </c>
+      <c r="L294" s="7">
+        <v>-53102363</v>
+      </c>
+      <c r="M294" s="5">
+        <v>0</v>
+      </c>
+      <c r="N294" s="5">
+        <v>0</v>
+      </c>
+      <c r="O294" s="5">
+        <v>0</v>
+      </c>
+      <c r="P294" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q294" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R294" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S294" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T294" s="2"/>
+      <c r="U294" s="5">
+        <v>0</v>
+      </c>
+      <c r="V294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W294" s="5">
+        <v>183.11</v>
+      </c>
+      <c r="X294" s="7">
+        <v>1046162363</v>
+      </c>
+      <c r="Y294" s="5">
+        <v>183.9</v>
+      </c>
+      <c r="Z294" s="7">
+        <v>993060000</v>
+      </c>
+      <c r="AA294" s="7">
+        <v>-57615870</v>
+      </c>
+      <c r="AB294" s="7">
+        <v>4513507</v>
+      </c>
+      <c r="AC294" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD294" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE294" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF294" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C295" s="2"/>
+      <c r="D295" s="5">
+        <v>9988</v>
+      </c>
+      <c r="E295" s="5">
+        <v>0</v>
+      </c>
+      <c r="F295" s="6">
+        <v>70500</v>
+      </c>
+      <c r="G295" s="5">
+        <v>147.79</v>
+      </c>
+      <c r="H295" s="6">
+        <v>10419200</v>
+      </c>
+      <c r="I295" s="5">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="J295" s="6">
+        <v>11512650</v>
+      </c>
+      <c r="K295" s="6">
+        <v>1093450</v>
+      </c>
+      <c r="L295" s="7">
+        <v>182377735</v>
+      </c>
+      <c r="M295" s="5">
+        <v>0</v>
+      </c>
+      <c r="N295" s="5">
+        <v>0</v>
+      </c>
+      <c r="O295" s="5">
+        <v>0</v>
+      </c>
+      <c r="P295" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q295" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R295" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S295" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T295" s="2"/>
+      <c r="U295" s="5">
+        <v>0</v>
+      </c>
+      <c r="V295" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W295" s="5">
+        <v>185.69</v>
+      </c>
+      <c r="X295" s="7">
+        <v>1934798600</v>
+      </c>
+      <c r="Y295" s="5">
+        <v>183.9</v>
+      </c>
+      <c r="Z295" s="7">
+        <v>2117176335</v>
+      </c>
+      <c r="AA295" s="7">
+        <v>201085455</v>
+      </c>
+      <c r="AB295" s="7">
+        <v>-18707720</v>
+      </c>
+      <c r="AC295" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD295" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE295" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF295" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C296" s="2"/>
+      <c r="D296" s="5">
+        <v>6861</v>
+      </c>
+      <c r="E296" s="5">
+        <v>0</v>
+      </c>
+      <c r="F296" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G296" s="6">
+        <v>55916.79</v>
+      </c>
+      <c r="H296" s="6">
+        <v>106241900</v>
+      </c>
+      <c r="I296" s="6">
+        <v>55790</v>
+      </c>
+      <c r="J296" s="6">
+        <v>106001000</v>
+      </c>
+      <c r="K296" s="6">
+        <v>-240900</v>
+      </c>
+      <c r="L296" s="7">
+        <v>-2704028</v>
+      </c>
+      <c r="M296" s="5">
+        <v>0</v>
+      </c>
+      <c r="N296" s="5">
+        <v>0</v>
+      </c>
+      <c r="O296" s="5">
+        <v>0</v>
+      </c>
+      <c r="P296" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q296" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R296" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S296" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T296" s="2"/>
+      <c r="U296" s="5">
+        <v>0</v>
+      </c>
+      <c r="V296" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W296" s="5">
+        <v>924.45</v>
+      </c>
+      <c r="X296" s="7">
+        <v>982163868</v>
+      </c>
+      <c r="Y296" s="5">
+        <v>924.01</v>
+      </c>
+      <c r="Z296" s="7">
+        <v>979459840</v>
+      </c>
+      <c r="AA296" s="7">
+        <v>-2225940</v>
+      </c>
+      <c r="AB296" s="7">
+        <v>-478088</v>
+      </c>
+      <c r="AC296" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD296" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE296" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF296" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C297" s="2"/>
+      <c r="D297" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E297" s="5">
+        <v>0</v>
+      </c>
+      <c r="F297" s="5">
+        <v>0</v>
+      </c>
+      <c r="G297" s="5">
+        <v>0</v>
+      </c>
+      <c r="H297" s="5">
+        <v>0</v>
+      </c>
+      <c r="I297" s="6">
+        <v>18360</v>
+      </c>
+      <c r="J297" s="5">
+        <v>0</v>
+      </c>
+      <c r="K297" s="5">
+        <v>0</v>
+      </c>
+      <c r="L297" s="5">
+        <v>0</v>
+      </c>
+      <c r="M297" s="5">
+        <v>0</v>
+      </c>
+      <c r="N297" s="6">
+        <v>4480700</v>
+      </c>
+      <c r="O297" s="6">
+        <v>4480700</v>
+      </c>
+      <c r="P297" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q297" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R297" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S297" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T297" s="2"/>
+      <c r="U297" s="5">
+        <v>0</v>
+      </c>
+      <c r="V297" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W297" s="5">
+        <v>0</v>
+      </c>
+      <c r="X297" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y297" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z297" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA297" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB297" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC297" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD297" s="7">
+        <v>37760160</v>
+      </c>
+      <c r="AE297" s="7">
+        <v>37760160</v>
+      </c>
+      <c r="AF297" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C298" s="2"/>
+      <c r="D298" s="5">
+        <v>9984</v>
+      </c>
+      <c r="E298" s="5">
+        <v>0</v>
+      </c>
+      <c r="F298" s="6">
+        <v>23000</v>
+      </c>
+      <c r="G298" s="6">
+        <v>4066.73</v>
+      </c>
+      <c r="H298" s="6">
+        <v>93534900</v>
+      </c>
+      <c r="I298" s="6">
+        <v>4090</v>
+      </c>
+      <c r="J298" s="6">
+        <v>94070000</v>
+      </c>
+      <c r="K298" s="6">
+        <v>535100</v>
+      </c>
+      <c r="L298" s="7">
+        <v>2596652</v>
+      </c>
+      <c r="M298" s="5">
+        <v>0</v>
+      </c>
+      <c r="N298" s="5">
+        <v>0</v>
+      </c>
+      <c r="O298" s="5">
+        <v>0</v>
+      </c>
+      <c r="P298" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q298" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R298" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S298" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T298" s="2"/>
+      <c r="U298" s="5">
+        <v>0</v>
+      </c>
+      <c r="V298" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W298" s="5">
+        <v>926.51</v>
+      </c>
+      <c r="X298" s="7">
+        <v>866619555</v>
+      </c>
+      <c r="Y298" s="5">
+        <v>924.01</v>
+      </c>
+      <c r="Z298" s="7">
+        <v>869216207</v>
+      </c>
+      <c r="AA298" s="7">
+        <v>4944377</v>
+      </c>
+      <c r="AB298" s="7">
+        <v>-2347726</v>
+      </c>
+      <c r="AC298" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD298" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE298" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF298" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C299" s="2"/>
+      <c r="D299" s="5">
+        <v>6954</v>
+      </c>
+      <c r="E299" s="5">
+        <v>0</v>
+      </c>
+      <c r="F299" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G299" s="6">
+        <v>6568.27</v>
+      </c>
+      <c r="H299" s="6">
+        <v>65682650</v>
+      </c>
+      <c r="I299" s="6">
+        <v>6043</v>
+      </c>
+      <c r="J299" s="6">
+        <v>60430000</v>
+      </c>
+      <c r="K299" s="6">
+        <v>-5252650</v>
+      </c>
+      <c r="L299" s="7">
+        <v>-50512059</v>
+      </c>
+      <c r="M299" s="5">
+        <v>0</v>
+      </c>
+      <c r="N299" s="5">
+        <v>0</v>
+      </c>
+      <c r="O299" s="5">
+        <v>0</v>
+      </c>
+      <c r="P299" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q299" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R299" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S299" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T299" s="2"/>
+      <c r="U299" s="5">
+        <v>0</v>
+      </c>
+      <c r="V299" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W299" s="5">
+        <v>927.01</v>
+      </c>
+      <c r="X299" s="7">
+        <v>608891302</v>
+      </c>
+      <c r="Y299" s="5">
+        <v>924.01</v>
+      </c>
+      <c r="Z299" s="7">
+        <v>558379243</v>
+      </c>
+      <c r="AA299" s="7">
+        <v>-48535011</v>
+      </c>
+      <c r="AB299" s="7">
+        <v>-1977048</v>
+      </c>
+      <c r="AC299" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD299" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE299" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF299" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C300" s="2"/>
+      <c r="D300" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E300" s="5">
+        <v>0</v>
+      </c>
+      <c r="F300" s="6">
+        <v>38000</v>
+      </c>
+      <c r="G300" s="5">
+        <v>12.58</v>
+      </c>
+      <c r="H300" s="6">
+        <v>478066.6</v>
+      </c>
+      <c r="I300" s="5">
+        <v>11.96</v>
+      </c>
+      <c r="J300" s="6">
+        <v>454480</v>
+      </c>
+      <c r="K300" s="6">
+        <v>-23586.6</v>
+      </c>
+      <c r="L300" s="7">
+        <v>-49041579</v>
+      </c>
+      <c r="M300" s="5">
+        <v>0</v>
+      </c>
+      <c r="N300" s="5">
+        <v>0</v>
+      </c>
+      <c r="O300" s="5">
+        <v>0</v>
+      </c>
+      <c r="P300" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q300" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R300" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S300" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T300" s="2"/>
+      <c r="U300" s="5">
+        <v>0</v>
+      </c>
+      <c r="V300" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W300" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X300" s="7">
+        <v>701992995</v>
+      </c>
+      <c r="Y300" s="6">
+        <v>1436.7</v>
+      </c>
+      <c r="Z300" s="7">
+        <v>652951416</v>
+      </c>
+      <c r="AA300" s="7">
+        <v>-33886868</v>
+      </c>
+      <c r="AB300" s="7">
+        <v>-15154711</v>
+      </c>
+      <c r="AC300" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD300" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE300" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF300" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C301" s="2"/>
+      <c r="D301" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E301" s="5">
+        <v>0</v>
+      </c>
+      <c r="F301" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G301" s="5">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H301" s="6">
+        <v>482030</v>
+      </c>
+      <c r="I301" s="5">
+        <v>48.01</v>
+      </c>
+      <c r="J301" s="6">
+        <v>480100</v>
+      </c>
+      <c r="K301" s="6">
+        <v>-1930</v>
+      </c>
+      <c r="L301" s="7">
+        <v>-11931401</v>
+      </c>
+      <c r="M301" s="5">
+        <v>0</v>
+      </c>
+      <c r="N301" s="5">
+        <v>0</v>
+      </c>
+      <c r="O301" s="5">
+        <v>0</v>
+      </c>
+      <c r="P301" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q301" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R301" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S301" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T301" s="2"/>
+      <c r="U301" s="5">
+        <v>0</v>
+      </c>
+      <c r="V301" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W301" s="6">
+        <v>1455.7</v>
+      </c>
+      <c r="X301" s="7">
+        <v>701691071</v>
+      </c>
+      <c r="Y301" s="6">
+        <v>1436.7</v>
+      </c>
+      <c r="Z301" s="7">
+        <v>689759670</v>
+      </c>
+      <c r="AA301" s="7">
+        <v>-2772831</v>
+      </c>
+      <c r="AB301" s="7">
+        <v>-9158570</v>
+      </c>
+      <c r="AC301" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD301" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE301" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF301" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C302" s="2"/>
+      <c r="D302" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E302" s="5">
+        <v>0</v>
+      </c>
+      <c r="F302" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G302" s="5">
+        <v>34.24</v>
+      </c>
+      <c r="H302" s="6">
+        <v>684800</v>
+      </c>
+      <c r="I302" s="5">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="J302" s="6">
+        <v>686000</v>
+      </c>
+      <c r="K302" s="6">
+        <v>1200</v>
+      </c>
+      <c r="L302" s="7">
+        <v>-25873400</v>
+      </c>
+      <c r="M302" s="5">
+        <v>0</v>
+      </c>
+      <c r="N302" s="5">
+        <v>0</v>
+      </c>
+      <c r="O302" s="5">
+        <v>0</v>
+      </c>
+      <c r="P302" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q302" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R302" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S302" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T302" s="2"/>
+      <c r="U302" s="5">
+        <v>0</v>
+      </c>
+      <c r="V302" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W302" s="6">
+        <v>1477</v>
+      </c>
+      <c r="X302" s="7">
+        <v>1011449600</v>
+      </c>
+      <c r="Y302" s="6">
+        <v>1436.7</v>
+      </c>
+      <c r="Z302" s="7">
+        <v>985576200</v>
+      </c>
+      <c r="AA302" s="7">
+        <v>1724040</v>
+      </c>
+      <c r="AB302" s="7">
+        <v>-27597440</v>
+      </c>
+      <c r="AC302" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD302" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE302" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF302" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C303" s="2"/>
+      <c r="D303" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E303" s="5">
+        <v>0</v>
+      </c>
+      <c r="F303" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G303" s="5">
+        <v>251.01</v>
+      </c>
+      <c r="H303" s="6">
+        <v>1255051.8</v>
+      </c>
+      <c r="I303" s="5">
+        <v>257.85000000000002</v>
+      </c>
+      <c r="J303" s="6">
+        <v>1289250</v>
+      </c>
+      <c r="K303" s="6">
+        <v>34198.199999999997</v>
+      </c>
+      <c r="L303" s="7">
+        <v>12995238</v>
+      </c>
+      <c r="M303" s="5">
+        <v>0</v>
+      </c>
+      <c r="N303" s="5">
+        <v>0</v>
+      </c>
+      <c r="O303" s="5">
+        <v>0</v>
+      </c>
+      <c r="P303" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q303" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R303" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S303" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T303" s="2"/>
+      <c r="U303" s="5">
+        <v>0</v>
+      </c>
+      <c r="V303" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W303" s="6">
+        <v>1465.49</v>
+      </c>
+      <c r="X303" s="7">
+        <v>1839270237</v>
+      </c>
+      <c r="Y303" s="6">
+        <v>1436.7</v>
+      </c>
+      <c r="Z303" s="7">
+        <v>1852265475</v>
+      </c>
+      <c r="AA303" s="7">
+        <v>49132553</v>
+      </c>
+      <c r="AB303" s="7">
+        <v>-36137316</v>
+      </c>
+      <c r="AC303" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD303" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE303" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF303" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C304" s="2"/>
+      <c r="D304" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E304" s="5">
+        <v>0</v>
+      </c>
+      <c r="F304" s="5">
+        <v>0</v>
+      </c>
+      <c r="G304" s="5">
+        <v>0</v>
+      </c>
+      <c r="H304" s="5">
+        <v>0</v>
+      </c>
+      <c r="I304" s="5">
+        <v>8.83</v>
+      </c>
+      <c r="J304" s="5">
+        <v>0</v>
+      </c>
+      <c r="K304" s="5">
+        <v>0</v>
+      </c>
+      <c r="L304" s="5">
+        <v>0</v>
+      </c>
+      <c r="M304" s="6">
+        <v>-276165.90000000002</v>
+      </c>
+      <c r="N304" s="6">
+        <v>-276165.90000000002</v>
+      </c>
+      <c r="O304" s="5">
+        <v>0</v>
+      </c>
+      <c r="P304" s="6">
+        <v>276165.90000000002</v>
+      </c>
+      <c r="Q304" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R304" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S304" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T304" s="2"/>
+      <c r="U304" s="5">
+        <v>0</v>
+      </c>
+      <c r="V304" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W304" s="5">
+        <v>0</v>
+      </c>
+      <c r="X304" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y304" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z304" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA304" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB304" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC304" s="7">
+        <v>-413294425</v>
+      </c>
+      <c r="AD304" s="7">
+        <v>-413294425</v>
+      </c>
+      <c r="AE304" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF304" s="7">
+        <v>413294425</v>
+      </c>
+    </row>
+    <row r="305" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C305" s="2"/>
+      <c r="D305" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E305" s="5">
+        <v>0</v>
+      </c>
+      <c r="F305" s="6">
+        <v>5500</v>
+      </c>
+      <c r="G305" s="5">
+        <v>191.75399999999999</v>
+      </c>
+      <c r="H305" s="6">
+        <v>1054647.55</v>
+      </c>
+      <c r="I305" s="5">
+        <v>187.6</v>
+      </c>
+      <c r="J305" s="6">
+        <v>1031800</v>
+      </c>
+      <c r="K305" s="6">
+        <v>-22847.55</v>
+      </c>
+      <c r="L305" s="7">
+        <v>-22594993</v>
+      </c>
+      <c r="M305" s="5">
+        <v>0</v>
+      </c>
+      <c r="N305" s="5">
+        <v>0</v>
+      </c>
+      <c r="O305" s="5">
+        <v>0</v>
+      </c>
+      <c r="P305" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q305" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R305" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S305" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T305" s="2"/>
+      <c r="U305" s="5">
+        <v>0</v>
+      </c>
+      <c r="V305" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W305" s="6">
+        <v>1426.99</v>
+      </c>
+      <c r="X305" s="7">
+        <v>1504982053</v>
+      </c>
+      <c r="Y305" s="6">
+        <v>1436.7</v>
+      </c>
+      <c r="Z305" s="7">
+        <v>1482387060</v>
+      </c>
+      <c r="AA305" s="7">
+        <v>-32825075</v>
+      </c>
+      <c r="AB305" s="7">
+        <v>10230082</v>
+      </c>
+      <c r="AC305" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD305" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE305" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF305" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C306" s="2"/>
+      <c r="D306" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E306" s="5">
+        <v>0</v>
+      </c>
+      <c r="F306" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G306" s="5">
+        <v>44.158999999999999</v>
+      </c>
+      <c r="H306" s="6">
+        <v>441591</v>
+      </c>
+      <c r="I306" s="5">
+        <v>44.1</v>
+      </c>
+      <c r="J306" s="6">
+        <v>441000</v>
+      </c>
+      <c r="K306" s="5">
+        <v>-591</v>
+      </c>
+      <c r="L306" s="7">
+        <v>-14847524</v>
+      </c>
+      <c r="M306" s="5">
+        <v>0</v>
+      </c>
+      <c r="N306" s="5">
+        <v>0</v>
+      </c>
+      <c r="O306" s="5">
+        <v>0</v>
+      </c>
+      <c r="P306" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q306" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R306" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S306" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="T306" s="2"/>
+      <c r="U306" s="5">
+        <v>0</v>
+      </c>
+      <c r="V306" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W306" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X306" s="7">
+        <v>648432224</v>
+      </c>
+      <c r="Y306" s="6">
+        <v>1436.7</v>
+      </c>
+      <c r="Z306" s="7">
+        <v>633584700</v>
+      </c>
+      <c r="AA306" s="7">
+        <v>-849089</v>
+      </c>
+      <c r="AB306" s="7">
+        <v>-13998435</v>
+      </c>
+      <c r="AC306" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD306" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE306" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF306" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C307" s="2"/>
+      <c r="D307" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E307" s="5">
+        <v>0</v>
+      </c>
+      <c r="F307" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G307" s="5">
+        <v>681.92</v>
+      </c>
+      <c r="H307" s="6">
+        <v>681920</v>
+      </c>
+      <c r="I307" s="5">
+        <v>686.95</v>
+      </c>
+      <c r="J307" s="6">
+        <v>686950</v>
+      </c>
+      <c r="K307" s="6">
+        <v>5030</v>
+      </c>
+      <c r="L307" s="7">
+        <v>8454057</v>
+      </c>
+      <c r="M307" s="5">
+        <v>0</v>
+      </c>
+      <c r="N307" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="O307" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="P307" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q307" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R307" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S307" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T307" s="2"/>
+      <c r="U307" s="5">
+        <v>0</v>
+      </c>
+      <c r="V307" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W307" s="6">
+        <v>1434.9</v>
+      </c>
+      <c r="X307" s="7">
+        <v>978487008</v>
+      </c>
+      <c r="Y307" s="6">
+        <v>1436.7</v>
+      </c>
+      <c r="Z307" s="7">
+        <v>986941065</v>
+      </c>
+      <c r="AA307" s="7">
+        <v>7226601</v>
+      </c>
+      <c r="AB307" s="7">
+        <v>1227456</v>
+      </c>
+      <c r="AC307" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD307" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AE307" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AF307" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C308" s="2"/>
+      <c r="D308" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E308" s="5">
+        <v>0</v>
+      </c>
+      <c r="F308" s="6">
+        <v>4200</v>
+      </c>
+      <c r="G308" s="5">
+        <v>396.31</v>
+      </c>
+      <c r="H308" s="6">
+        <v>1664502</v>
+      </c>
+      <c r="I308" s="5">
+        <v>426.96</v>
+      </c>
+      <c r="J308" s="6">
+        <v>1793232</v>
+      </c>
+      <c r="K308" s="6">
+        <v>128730</v>
+      </c>
+      <c r="L308" s="7">
+        <v>187942495</v>
+      </c>
+      <c r="M308" s="5">
+        <v>0</v>
+      </c>
+      <c r="N308" s="5">
+        <v>0</v>
+      </c>
+      <c r="O308" s="5">
+        <v>0</v>
+      </c>
+      <c r="P308" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q308" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R308" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S308" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T308" s="2"/>
+      <c r="U308" s="5">
+        <v>0</v>
+      </c>
+      <c r="V308" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W308" s="6">
+        <v>1434.89</v>
+      </c>
+      <c r="X308" s="7">
+        <v>2388393919</v>
+      </c>
+      <c r="Y308" s="6">
+        <v>1436.7</v>
+      </c>
+      <c r="Z308" s="7">
+        <v>2576336414</v>
+      </c>
+      <c r="AA308" s="7">
+        <v>184946391</v>
+      </c>
+      <c r="AB308" s="7">
+        <v>2996104</v>
+      </c>
+      <c r="AC308" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD308" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE308" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF308" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C309" s="2"/>
+      <c r="D309" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E309" s="5">
+        <v>0</v>
+      </c>
+      <c r="F309" s="6">
+        <v>24000</v>
+      </c>
+      <c r="G309" s="5">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H309" s="6">
+        <v>423736.8</v>
+      </c>
+      <c r="I309" s="5">
+        <v>16.46</v>
+      </c>
+      <c r="J309" s="6">
+        <v>395040</v>
+      </c>
+      <c r="K309" s="6">
+        <v>-28696.799999999999</v>
+      </c>
+      <c r="L309" s="7">
+        <v>-52839080</v>
+      </c>
+      <c r="M309" s="5">
+        <v>0</v>
+      </c>
+      <c r="N309" s="5">
+        <v>0</v>
+      </c>
+      <c r="O309" s="5">
+        <v>0</v>
+      </c>
+      <c r="P309" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q309" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R309" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S309" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T309" s="2"/>
+      <c r="U309" s="5">
+        <v>0</v>
+      </c>
+      <c r="V309" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W309" s="6">
+        <v>1464.09</v>
+      </c>
+      <c r="X309" s="7">
+        <v>620393048</v>
+      </c>
+      <c r="Y309" s="6">
+        <v>1436.7</v>
+      </c>
+      <c r="Z309" s="7">
+        <v>567553968</v>
+      </c>
+      <c r="AA309" s="7">
+        <v>-41228692</v>
+      </c>
+      <c r="AB309" s="7">
+        <v>-11610388</v>
+      </c>
+      <c r="AC309" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD309" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE309" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF309" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C310" s="2"/>
+      <c r="D310" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E310" s="5">
+        <v>0</v>
+      </c>
+      <c r="F310" s="6">
+        <v>1400</v>
+      </c>
+      <c r="G310" s="5">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H310" s="6">
+        <v>605554.04</v>
+      </c>
+      <c r="I310" s="5">
+        <v>422.22</v>
+      </c>
+      <c r="J310" s="6">
+        <v>591108</v>
+      </c>
+      <c r="K310" s="6">
+        <v>-14446.04</v>
+      </c>
+      <c r="L310" s="7">
+        <v>-26870722</v>
+      </c>
+      <c r="M310" s="5">
+        <v>0</v>
+      </c>
+      <c r="N310" s="5">
+        <v>0</v>
+      </c>
+      <c r="O310" s="5">
+        <v>0</v>
+      </c>
+      <c r="P310" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q310" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R310" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S310" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T310" s="2"/>
+      <c r="U310" s="5">
+        <v>0</v>
+      </c>
+      <c r="V310" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W310" s="6">
         <v>1446.79</v>
       </c>
-      <c r="X288" s="7">
+      <c r="X310" s="7">
+        <v>876115585</v>
+      </c>
+      <c r="Y310" s="6">
+        <v>1436.7</v>
+      </c>
+      <c r="Z310" s="7">
+        <v>849244863</v>
+      </c>
+      <c r="AA310" s="7">
+        <v>-20754625</v>
+      </c>
+      <c r="AB310" s="7">
+        <v>-6116096</v>
+      </c>
+      <c r="AC310" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD310" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE310" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF310" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C311" s="2"/>
+      <c r="D311" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E311" s="5">
+        <v>0</v>
+      </c>
+      <c r="F311" s="6">
+        <v>3500</v>
+      </c>
+      <c r="G311" s="5">
+        <v>169.042</v>
+      </c>
+      <c r="H311" s="6">
+        <v>591649.80000000005</v>
+      </c>
+      <c r="I311" s="5">
+        <v>155.12</v>
+      </c>
+      <c r="J311" s="6">
+        <v>542920</v>
+      </c>
+      <c r="K311" s="6">
+        <v>-48729.8</v>
+      </c>
+      <c r="L311" s="7">
+        <v>-75985766</v>
+      </c>
+      <c r="M311" s="5">
+        <v>0</v>
+      </c>
+      <c r="N311" s="5">
+        <v>0</v>
+      </c>
+      <c r="O311" s="5">
+        <v>0</v>
+      </c>
+      <c r="P311" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q311" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R311" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S311" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T311" s="2"/>
+      <c r="U311" s="5">
+        <v>0</v>
+      </c>
+      <c r="V311" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W311" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X311" s="7">
         <v>855998930</v>
       </c>
-      <c r="Y288" s="6">
-        <v>1428.6</v>
-      </c>
-      <c r="Z288" s="7">
-        <v>830966619</v>
-      </c>
-      <c r="AA288" s="7">
-        <v>-14264285</v>
-      </c>
-      <c r="AB288" s="7">
-        <v>-10768026</v>
-      </c>
-      <c r="AC288" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD288" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE288" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF288" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
-      <c r="G289" s="2"/>
-      <c r="H289" s="2"/>
-      <c r="I289" s="2"/>
-      <c r="J289" s="2"/>
-      <c r="K289" s="2"/>
-      <c r="L289" s="2"/>
-      <c r="M289" s="2"/>
-      <c r="N289" s="2"/>
-      <c r="O289" s="2"/>
-      <c r="P289" s="2"/>
-      <c r="Q289" s="2"/>
-      <c r="R289" s="2"/>
-      <c r="S289" s="2"/>
-      <c r="T289" s="2"/>
-      <c r="U289" s="2"/>
-      <c r="V289" s="2"/>
-      <c r="W289" s="2"/>
-      <c r="X289" s="2"/>
-      <c r="Y289" s="2"/>
-      <c r="Z289" s="2"/>
-      <c r="AA289" s="2"/>
-      <c r="AB289" s="2"/>
-      <c r="AC289" s="2"/>
-      <c r="AD289" s="2"/>
-      <c r="AE289" s="2"/>
-      <c r="AF289" s="2"/>
-    </row>
-    <row r="290" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
-      <c r="G290" s="2"/>
-      <c r="H290" s="2"/>
-      <c r="I290" s="2"/>
-      <c r="J290" s="2"/>
-      <c r="K290" s="2"/>
-      <c r="L290" s="2"/>
-      <c r="M290" s="2"/>
-      <c r="N290" s="2"/>
-      <c r="O290" s="2"/>
-      <c r="P290" s="2"/>
-      <c r="Q290" s="2"/>
-      <c r="R290" s="2"/>
-      <c r="S290" s="2"/>
-      <c r="T290" s="2"/>
-      <c r="U290" s="2"/>
-      <c r="V290" s="2"/>
-      <c r="W290" s="2"/>
-      <c r="X290" s="2"/>
-      <c r="Y290" s="2"/>
-      <c r="Z290" s="2"/>
-      <c r="AA290" s="2"/>
-      <c r="AB290" s="2"/>
-      <c r="AC290" s="2"/>
-      <c r="AD290" s="2"/>
-      <c r="AE290" s="2"/>
-      <c r="AF290" s="2"/>
-    </row>
-    <row r="291" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="2"/>
-      <c r="J291" s="2"/>
-      <c r="K291" s="2"/>
-      <c r="L291" s="2"/>
-      <c r="M291" s="2"/>
-      <c r="N291" s="2"/>
-      <c r="O291" s="2"/>
-      <c r="P291" s="2"/>
-      <c r="Q291" s="2"/>
-      <c r="R291" s="2"/>
-      <c r="S291" s="2"/>
-      <c r="T291" s="2"/>
-      <c r="U291" s="2"/>
-      <c r="V291" s="2"/>
-      <c r="W291" s="2"/>
-      <c r="X291" s="2"/>
-      <c r="Y291" s="2"/>
-      <c r="Z291" s="2"/>
-      <c r="AA291" s="2"/>
-      <c r="AB291" s="2"/>
-      <c r="AC291" s="2"/>
-      <c r="AD291" s="2"/>
-      <c r="AE291" s="2"/>
-      <c r="AF291" s="2"/>
-    </row>
-    <row r="292" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-      <c r="F292" s="2"/>
-      <c r="G292" s="2"/>
-      <c r="H292" s="2"/>
-      <c r="I292" s="2"/>
-      <c r="J292" s="2"/>
-      <c r="K292" s="2"/>
-      <c r="L292" s="2"/>
-      <c r="M292" s="2"/>
-      <c r="N292" s="2"/>
-      <c r="O292" s="2"/>
-      <c r="P292" s="2"/>
-      <c r="Q292" s="2"/>
-      <c r="R292" s="2"/>
-      <c r="S292" s="2"/>
-      <c r="T292" s="2"/>
-      <c r="U292" s="2"/>
-      <c r="V292" s="2"/>
-      <c r="W292" s="2"/>
-      <c r="X292" s="2"/>
-      <c r="Y292" s="2"/>
-      <c r="Z292" s="2"/>
-      <c r="AA292" s="2"/>
-      <c r="AB292" s="2"/>
-      <c r="AC292" s="2"/>
-      <c r="AD292" s="2"/>
-      <c r="AE292" s="2"/>
-      <c r="AF292" s="2"/>
-    </row>
-    <row r="293" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
-      <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
-      <c r="I293" s="2"/>
-      <c r="J293" s="2"/>
-      <c r="K293" s="2"/>
-      <c r="L293" s="2"/>
-      <c r="M293" s="2"/>
-      <c r="N293" s="2"/>
-      <c r="O293" s="2"/>
-      <c r="P293" s="2"/>
-      <c r="Q293" s="2"/>
-      <c r="R293" s="2"/>
-      <c r="S293" s="2"/>
-      <c r="T293" s="2"/>
-      <c r="U293" s="2"/>
-      <c r="V293" s="2"/>
-      <c r="W293" s="2"/>
-      <c r="X293" s="2"/>
-      <c r="Y293" s="2"/>
-      <c r="Z293" s="2"/>
-      <c r="AA293" s="2"/>
-      <c r="AB293" s="2"/>
-      <c r="AC293" s="2"/>
-      <c r="AD293" s="2"/>
-      <c r="AE293" s="2"/>
-      <c r="AF293" s="2"/>
-    </row>
-    <row r="294" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="2"/>
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-      <c r="I294" s="2"/>
-      <c r="J294" s="2"/>
-      <c r="K294" s="2"/>
-      <c r="L294" s="2"/>
-      <c r="M294" s="2"/>
-      <c r="N294" s="2"/>
-      <c r="O294" s="2"/>
-      <c r="P294" s="2"/>
-      <c r="Q294" s="2"/>
-      <c r="R294" s="2"/>
-      <c r="S294" s="2"/>
-      <c r="T294" s="2"/>
-      <c r="U294" s="2"/>
-      <c r="V294" s="2"/>
-      <c r="W294" s="2"/>
-      <c r="X294" s="2"/>
-      <c r="Y294" s="2"/>
-      <c r="Z294" s="2"/>
-      <c r="AA294" s="2"/>
-      <c r="AB294" s="2"/>
-      <c r="AC294" s="2"/>
-      <c r="AD294" s="2"/>
-      <c r="AE294" s="2"/>
-      <c r="AF294" s="2"/>
-    </row>
-    <row r="295" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-      <c r="F295" s="2"/>
-      <c r="G295" s="2"/>
-      <c r="H295" s="2"/>
-      <c r="I295" s="2"/>
-      <c r="J295" s="2"/>
-      <c r="K295" s="2"/>
-      <c r="L295" s="2"/>
-      <c r="M295" s="2"/>
-      <c r="N295" s="2"/>
-      <c r="O295" s="2"/>
-      <c r="P295" s="2"/>
-      <c r="Q295" s="2"/>
-      <c r="R295" s="2"/>
-      <c r="S295" s="2"/>
-      <c r="T295" s="2"/>
-      <c r="U295" s="2"/>
-      <c r="V295" s="2"/>
-      <c r="W295" s="2"/>
-      <c r="X295" s="2"/>
-      <c r="Y295" s="2"/>
-      <c r="Z295" s="2"/>
-      <c r="AA295" s="2"/>
-      <c r="AB295" s="2"/>
-      <c r="AC295" s="2"/>
-      <c r="AD295" s="2"/>
-      <c r="AE295" s="2"/>
-      <c r="AF295" s="2"/>
-    </row>
-    <row r="296" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
-      <c r="G296" s="2"/>
-      <c r="H296" s="2"/>
-      <c r="I296" s="2"/>
-      <c r="J296" s="2"/>
-      <c r="K296" s="2"/>
-      <c r="L296" s="2"/>
-      <c r="M296" s="2"/>
-      <c r="N296" s="2"/>
-      <c r="O296" s="2"/>
-      <c r="P296" s="2"/>
-      <c r="Q296" s="2"/>
-      <c r="R296" s="2"/>
-      <c r="S296" s="2"/>
-      <c r="T296" s="2"/>
-      <c r="U296" s="2"/>
-      <c r="V296" s="2"/>
-      <c r="W296" s="2"/>
-      <c r="X296" s="2"/>
-      <c r="Y296" s="2"/>
-      <c r="Z296" s="2"/>
-      <c r="AA296" s="2"/>
-      <c r="AB296" s="2"/>
-      <c r="AC296" s="2"/>
-      <c r="AD296" s="2"/>
-      <c r="AE296" s="2"/>
-      <c r="AF296" s="2"/>
-    </row>
-    <row r="297" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="2"/>
-      <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="2"/>
-      <c r="J297" s="2"/>
-      <c r="K297" s="2"/>
-      <c r="L297" s="2"/>
-      <c r="M297" s="2"/>
-      <c r="N297" s="2"/>
-      <c r="O297" s="2"/>
-      <c r="P297" s="2"/>
-      <c r="Q297" s="2"/>
-      <c r="R297" s="2"/>
-      <c r="S297" s="2"/>
-      <c r="T297" s="2"/>
-      <c r="U297" s="2"/>
-      <c r="V297" s="2"/>
-      <c r="W297" s="2"/>
-      <c r="X297" s="2"/>
-      <c r="Y297" s="2"/>
-      <c r="Z297" s="2"/>
-      <c r="AA297" s="2"/>
-      <c r="AB297" s="2"/>
-      <c r="AC297" s="2"/>
-      <c r="AD297" s="2"/>
-      <c r="AE297" s="2"/>
-      <c r="AF297" s="2"/>
-    </row>
-    <row r="298" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="2"/>
-      <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
-      <c r="F298" s="2"/>
-      <c r="G298" s="2"/>
-      <c r="H298" s="2"/>
-      <c r="I298" s="2"/>
-      <c r="J298" s="2"/>
-      <c r="K298" s="2"/>
-      <c r="L298" s="2"/>
-      <c r="M298" s="2"/>
-      <c r="N298" s="2"/>
-      <c r="O298" s="2"/>
-      <c r="P298" s="2"/>
-      <c r="Q298" s="2"/>
-      <c r="R298" s="2"/>
-      <c r="S298" s="2"/>
-      <c r="T298" s="2"/>
-      <c r="U298" s="2"/>
-      <c r="V298" s="2"/>
-      <c r="W298" s="2"/>
-      <c r="X298" s="2"/>
-      <c r="Y298" s="2"/>
-      <c r="Z298" s="2"/>
-      <c r="AA298" s="2"/>
-      <c r="AB298" s="2"/>
-      <c r="AC298" s="2"/>
-      <c r="AD298" s="2"/>
-      <c r="AE298" s="2"/>
-      <c r="AF298" s="2"/>
-    </row>
-    <row r="299" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="2"/>
-      <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
-      <c r="I299" s="2"/>
-      <c r="J299" s="2"/>
-      <c r="K299" s="2"/>
-      <c r="L299" s="2"/>
-      <c r="M299" s="2"/>
-      <c r="N299" s="2"/>
-      <c r="O299" s="2"/>
-      <c r="P299" s="2"/>
-      <c r="Q299" s="2"/>
-      <c r="R299" s="2"/>
-      <c r="S299" s="2"/>
-      <c r="T299" s="2"/>
-      <c r="U299" s="2"/>
-      <c r="V299" s="2"/>
-      <c r="W299" s="2"/>
-      <c r="X299" s="2"/>
-      <c r="Y299" s="2"/>
-      <c r="Z299" s="2"/>
-      <c r="AA299" s="2"/>
-      <c r="AB299" s="2"/>
-      <c r="AC299" s="2"/>
-      <c r="AD299" s="2"/>
-      <c r="AE299" s="2"/>
-      <c r="AF299" s="2"/>
-    </row>
-    <row r="300" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A300" s="2"/>
-      <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
-      <c r="F300" s="2"/>
-      <c r="G300" s="2"/>
-      <c r="H300" s="2"/>
-      <c r="I300" s="2"/>
-      <c r="J300" s="2"/>
-      <c r="K300" s="2"/>
-      <c r="L300" s="2"/>
-      <c r="M300" s="2"/>
-      <c r="N300" s="2"/>
-      <c r="O300" s="2"/>
-      <c r="P300" s="2"/>
-      <c r="Q300" s="2"/>
-      <c r="R300" s="2"/>
-      <c r="S300" s="2"/>
-      <c r="T300" s="2"/>
-      <c r="U300" s="2"/>
-      <c r="V300" s="2"/>
-      <c r="W300" s="2"/>
-      <c r="X300" s="2"/>
-      <c r="Y300" s="2"/>
-      <c r="Z300" s="2"/>
-      <c r="AA300" s="2"/>
-      <c r="AB300" s="2"/>
-      <c r="AC300" s="2"/>
-      <c r="AD300" s="2"/>
-      <c r="AE300" s="2"/>
-      <c r="AF300" s="2"/>
-    </row>
-    <row r="301" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="2"/>
-      <c r="B301" s="2"/>
-      <c r="C301" s="2"/>
-      <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
-      <c r="F301" s="2"/>
-      <c r="G301" s="2"/>
-      <c r="H301" s="2"/>
-      <c r="I301" s="2"/>
-      <c r="J301" s="2"/>
-      <c r="K301" s="2"/>
-      <c r="L301" s="2"/>
-      <c r="M301" s="2"/>
-      <c r="N301" s="2"/>
-      <c r="O301" s="2"/>
-      <c r="P301" s="2"/>
-      <c r="Q301" s="2"/>
-      <c r="R301" s="2"/>
-      <c r="S301" s="2"/>
-      <c r="T301" s="2"/>
-      <c r="U301" s="2"/>
-      <c r="V301" s="2"/>
-      <c r="W301" s="2"/>
-      <c r="X301" s="2"/>
-      <c r="Y301" s="2"/>
-      <c r="Z301" s="2"/>
-      <c r="AA301" s="2"/>
-      <c r="AB301" s="2"/>
-      <c r="AC301" s="2"/>
-      <c r="AD301" s="2"/>
-      <c r="AE301" s="2"/>
-      <c r="AF301" s="2"/>
-    </row>
-    <row r="302" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
-      <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
-      <c r="E302" s="2"/>
-      <c r="F302" s="2"/>
-      <c r="G302" s="2"/>
-      <c r="H302" s="2"/>
-      <c r="I302" s="2"/>
-      <c r="J302" s="2"/>
-      <c r="K302" s="2"/>
-      <c r="L302" s="2"/>
-      <c r="M302" s="2"/>
-      <c r="N302" s="2"/>
-      <c r="O302" s="2"/>
-      <c r="P302" s="2"/>
-      <c r="Q302" s="2"/>
-      <c r="R302" s="2"/>
-      <c r="S302" s="2"/>
-      <c r="T302" s="2"/>
-      <c r="U302" s="2"/>
-      <c r="V302" s="2"/>
-      <c r="W302" s="2"/>
-      <c r="X302" s="2"/>
-      <c r="Y302" s="2"/>
-      <c r="Z302" s="2"/>
-      <c r="AA302" s="2"/>
-      <c r="AB302" s="2"/>
-      <c r="AC302" s="2"/>
-      <c r="AD302" s="2"/>
-      <c r="AE302" s="2"/>
-      <c r="AF302" s="2"/>
-    </row>
-    <row r="303" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="2"/>
-      <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
-      <c r="E303" s="2"/>
-      <c r="F303" s="2"/>
-      <c r="G303" s="2"/>
-      <c r="H303" s="2"/>
-      <c r="I303" s="2"/>
-      <c r="J303" s="2"/>
-      <c r="K303" s="2"/>
-      <c r="L303" s="2"/>
-      <c r="M303" s="2"/>
-      <c r="N303" s="2"/>
-      <c r="O303" s="2"/>
-      <c r="P303" s="2"/>
-      <c r="Q303" s="2"/>
-      <c r="R303" s="2"/>
-      <c r="S303" s="2"/>
-      <c r="T303" s="2"/>
-      <c r="U303" s="2"/>
-      <c r="V303" s="2"/>
-      <c r="W303" s="2"/>
-      <c r="X303" s="2"/>
-      <c r="Y303" s="2"/>
-      <c r="Z303" s="2"/>
-      <c r="AA303" s="2"/>
-      <c r="AB303" s="2"/>
-      <c r="AC303" s="2"/>
-      <c r="AD303" s="2"/>
-      <c r="AE303" s="2"/>
-      <c r="AF303" s="2"/>
-    </row>
-    <row r="304" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="2"/>
-      <c r="B304" s="2"/>
-      <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
-      <c r="E304" s="2"/>
-      <c r="F304" s="2"/>
-      <c r="G304" s="2"/>
-      <c r="H304" s="2"/>
-      <c r="I304" s="2"/>
-      <c r="J304" s="2"/>
-      <c r="K304" s="2"/>
-      <c r="L304" s="2"/>
-      <c r="M304" s="2"/>
-      <c r="N304" s="2"/>
-      <c r="O304" s="2"/>
-      <c r="P304" s="2"/>
-      <c r="Q304" s="2"/>
-      <c r="R304" s="2"/>
-      <c r="S304" s="2"/>
-      <c r="T304" s="2"/>
-      <c r="U304" s="2"/>
-      <c r="V304" s="2"/>
-      <c r="W304" s="2"/>
-      <c r="X304" s="2"/>
-      <c r="Y304" s="2"/>
-      <c r="Z304" s="2"/>
-      <c r="AA304" s="2"/>
-      <c r="AB304" s="2"/>
-      <c r="AC304" s="2"/>
-      <c r="AD304" s="2"/>
-      <c r="AE304" s="2"/>
-      <c r="AF304" s="2"/>
-    </row>
-    <row r="305" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="2"/>
-      <c r="B305" s="2"/>
-      <c r="C305" s="2"/>
-      <c r="D305" s="2"/>
-      <c r="E305" s="2"/>
-      <c r="F305" s="2"/>
-      <c r="G305" s="2"/>
-      <c r="H305" s="2"/>
-      <c r="I305" s="2"/>
-      <c r="J305" s="2"/>
-      <c r="K305" s="2"/>
-      <c r="L305" s="2"/>
-      <c r="M305" s="2"/>
-      <c r="N305" s="2"/>
-      <c r="O305" s="2"/>
-      <c r="P305" s="2"/>
-      <c r="Q305" s="2"/>
-      <c r="R305" s="2"/>
-      <c r="S305" s="2"/>
-      <c r="T305" s="2"/>
-      <c r="U305" s="2"/>
-      <c r="V305" s="2"/>
-      <c r="W305" s="2"/>
-      <c r="X305" s="2"/>
-      <c r="Y305" s="2"/>
-      <c r="Z305" s="2"/>
-      <c r="AA305" s="2"/>
-      <c r="AB305" s="2"/>
-      <c r="AC305" s="2"/>
-      <c r="AD305" s="2"/>
-      <c r="AE305" s="2"/>
-      <c r="AF305" s="2"/>
-    </row>
-    <row r="306" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="2"/>
-      <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
-      <c r="D306" s="2"/>
-      <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
-      <c r="G306" s="2"/>
-      <c r="H306" s="2"/>
-      <c r="I306" s="2"/>
-      <c r="J306" s="2"/>
-      <c r="K306" s="2"/>
-      <c r="L306" s="2"/>
-      <c r="M306" s="2"/>
-      <c r="N306" s="2"/>
-      <c r="O306" s="2"/>
-      <c r="P306" s="2"/>
-      <c r="Q306" s="2"/>
-      <c r="R306" s="2"/>
-      <c r="S306" s="2"/>
-      <c r="T306" s="2"/>
-      <c r="U306" s="2"/>
-      <c r="V306" s="2"/>
-      <c r="W306" s="2"/>
-      <c r="X306" s="2"/>
-      <c r="Y306" s="2"/>
-      <c r="Z306" s="2"/>
-      <c r="AA306" s="2"/>
-      <c r="AB306" s="2"/>
-      <c r="AC306" s="2"/>
-      <c r="AD306" s="2"/>
-      <c r="AE306" s="2"/>
-      <c r="AF306" s="2"/>
-    </row>
-    <row r="307" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="2"/>
-      <c r="B307" s="2"/>
-      <c r="C307" s="2"/>
-      <c r="D307" s="2"/>
-      <c r="E307" s="2"/>
-      <c r="F307" s="2"/>
-      <c r="G307" s="2"/>
-      <c r="H307" s="2"/>
-      <c r="I307" s="2"/>
-      <c r="J307" s="2"/>
-      <c r="K307" s="2"/>
-      <c r="L307" s="2"/>
-      <c r="M307" s="2"/>
-      <c r="N307" s="2"/>
-      <c r="O307" s="2"/>
-      <c r="P307" s="2"/>
-      <c r="Q307" s="2"/>
-      <c r="R307" s="2"/>
-      <c r="S307" s="2"/>
-      <c r="T307" s="2"/>
-      <c r="U307" s="2"/>
-      <c r="V307" s="2"/>
-      <c r="W307" s="2"/>
-      <c r="X307" s="2"/>
-      <c r="Y307" s="2"/>
-      <c r="Z307" s="2"/>
-      <c r="AA307" s="2"/>
-      <c r="AB307" s="2"/>
-      <c r="AC307" s="2"/>
-      <c r="AD307" s="2"/>
-      <c r="AE307" s="2"/>
-      <c r="AF307" s="2"/>
-    </row>
-    <row r="308" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="2"/>
-      <c r="B308" s="2"/>
-      <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
-      <c r="E308" s="2"/>
-      <c r="F308" s="2"/>
-      <c r="G308" s="2"/>
-      <c r="H308" s="2"/>
-      <c r="I308" s="2"/>
-      <c r="J308" s="2"/>
-      <c r="K308" s="2"/>
-      <c r="L308" s="2"/>
-      <c r="M308" s="2"/>
-      <c r="N308" s="2"/>
-      <c r="O308" s="2"/>
-      <c r="P308" s="2"/>
-      <c r="Q308" s="2"/>
-      <c r="R308" s="2"/>
-      <c r="S308" s="2"/>
-      <c r="T308" s="2"/>
-      <c r="U308" s="2"/>
-      <c r="V308" s="2"/>
-      <c r="W308" s="2"/>
-      <c r="X308" s="2"/>
-      <c r="Y308" s="2"/>
-      <c r="Z308" s="2"/>
-      <c r="AA308" s="2"/>
-      <c r="AB308" s="2"/>
-      <c r="AC308" s="2"/>
-      <c r="AD308" s="2"/>
-      <c r="AE308" s="2"/>
-      <c r="AF308" s="2"/>
-    </row>
-    <row r="309" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="2"/>
-      <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
-      <c r="D309" s="2"/>
-      <c r="E309" s="2"/>
-      <c r="F309" s="2"/>
-      <c r="G309" s="2"/>
-      <c r="H309" s="2"/>
-      <c r="I309" s="2"/>
-      <c r="J309" s="2"/>
-      <c r="K309" s="2"/>
-      <c r="L309" s="2"/>
-      <c r="M309" s="2"/>
-      <c r="N309" s="2"/>
-      <c r="O309" s="2"/>
-      <c r="P309" s="2"/>
-      <c r="Q309" s="2"/>
-      <c r="R309" s="2"/>
-      <c r="S309" s="2"/>
-      <c r="T309" s="2"/>
-      <c r="U309" s="2"/>
-      <c r="V309" s="2"/>
-      <c r="W309" s="2"/>
-      <c r="X309" s="2"/>
-      <c r="Y309" s="2"/>
-      <c r="Z309" s="2"/>
-      <c r="AA309" s="2"/>
-      <c r="AB309" s="2"/>
-      <c r="AC309" s="2"/>
-      <c r="AD309" s="2"/>
-      <c r="AE309" s="2"/>
-      <c r="AF309" s="2"/>
-    </row>
-    <row r="310" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A310" s="2"/>
-      <c r="B310" s="2"/>
-      <c r="C310" s="2"/>
-      <c r="D310" s="2"/>
-      <c r="E310" s="2"/>
-      <c r="F310" s="2"/>
-      <c r="G310" s="2"/>
-      <c r="H310" s="2"/>
-      <c r="I310" s="2"/>
-      <c r="J310" s="2"/>
-      <c r="K310" s="2"/>
-      <c r="L310" s="2"/>
-      <c r="M310" s="2"/>
-      <c r="N310" s="2"/>
-      <c r="O310" s="2"/>
-      <c r="P310" s="2"/>
-      <c r="Q310" s="2"/>
-      <c r="R310" s="2"/>
-      <c r="S310" s="2"/>
-      <c r="T310" s="2"/>
-      <c r="U310" s="2"/>
-      <c r="V310" s="2"/>
-      <c r="W310" s="2"/>
-      <c r="X310" s="2"/>
-      <c r="Y310" s="2"/>
-      <c r="Z310" s="2"/>
-      <c r="AA310" s="2"/>
-      <c r="AB310" s="2"/>
-      <c r="AC310" s="2"/>
-      <c r="AD310" s="2"/>
-      <c r="AE310" s="2"/>
-      <c r="AF310" s="2"/>
-    </row>
-    <row r="311" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="2"/>
-      <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-      <c r="F311" s="2"/>
-      <c r="G311" s="2"/>
-      <c r="H311" s="2"/>
-      <c r="I311" s="2"/>
-      <c r="J311" s="2"/>
-      <c r="K311" s="2"/>
-      <c r="L311" s="2"/>
-      <c r="M311" s="2"/>
-      <c r="N311" s="2"/>
-      <c r="O311" s="2"/>
-      <c r="P311" s="2"/>
-      <c r="Q311" s="2"/>
-      <c r="R311" s="2"/>
-      <c r="S311" s="2"/>
-      <c r="T311" s="2"/>
-      <c r="U311" s="2"/>
-      <c r="V311" s="2"/>
-      <c r="W311" s="2"/>
-      <c r="X311" s="2"/>
-      <c r="Y311" s="2"/>
-      <c r="Z311" s="2"/>
-      <c r="AA311" s="2"/>
-      <c r="AB311" s="2"/>
-      <c r="AC311" s="2"/>
-      <c r="AD311" s="2"/>
-      <c r="AE311" s="2"/>
-      <c r="AF311" s="2"/>
+      <c r="Y311" s="6">
+        <v>1436.7</v>
+      </c>
+      <c r="Z311" s="7">
+        <v>780013164</v>
+      </c>
+      <c r="AA311" s="7">
+        <v>-70010103</v>
+      </c>
+      <c r="AB311" s="7">
+        <v>-5975663</v>
+      </c>
+      <c r="AC311" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD311" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE311" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF311" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="312" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2"/>

--- a/2026_멀티.xlsx
+++ b/2026_멀티.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\다른 컴퓨터\내 Mac\Workspace\Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4606F39-853D-4100-AB2F-38A14584068B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8141873C-B491-43C5-9899-BB000DDF2160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="109">
   <si>
     <t>기준일자</t>
   </si>
@@ -345,6 +345,24 @@
   </si>
   <si>
     <t>엔비디아</t>
+  </si>
+  <si>
+    <t>US02079K1079</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>알파벳 C</t>
+  </si>
+  <si>
+    <t>US0231351067</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>아마존닷컴</t>
   </si>
 </sst>
 </file>
@@ -724,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="F317" sqref="F317"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27761,9 +27779,7 @@
       <c r="H289" s="5">
         <v>0</v>
       </c>
-      <c r="I289" s="5">
-        <v>84.6</v>
-      </c>
+      <c r="I289" s="2"/>
       <c r="J289" s="5">
         <v>0</v>
       </c>
@@ -28043,9 +28059,7 @@
       <c r="H292" s="5">
         <v>0</v>
       </c>
-      <c r="I292" s="5">
-        <v>751</v>
-      </c>
+      <c r="I292" s="2"/>
       <c r="J292" s="5">
         <v>0</v>
       </c>
@@ -28137,9 +28151,7 @@
       <c r="H293" s="5">
         <v>0</v>
       </c>
-      <c r="I293" s="5">
-        <v>32.799999999999997</v>
-      </c>
+      <c r="I293" s="2"/>
       <c r="J293" s="5">
         <v>0</v>
       </c>
@@ -28513,9 +28525,7 @@
       <c r="H297" s="5">
         <v>0</v>
       </c>
-      <c r="I297" s="6">
-        <v>18360</v>
-      </c>
+      <c r="I297" s="2"/>
       <c r="J297" s="5">
         <v>0</v>
       </c>
@@ -28796,16 +28806,16 @@
         <v>478066.6</v>
       </c>
       <c r="I300" s="5">
-        <v>11.96</v>
+        <v>12.14</v>
       </c>
       <c r="J300" s="6">
-        <v>454480</v>
+        <v>461320</v>
       </c>
       <c r="K300" s="6">
-        <v>-23586.6</v>
+        <v>-16746.599999999999</v>
       </c>
       <c r="L300" s="7">
-        <v>-49041579</v>
+        <v>-39214551</v>
       </c>
       <c r="M300" s="5">
         <v>0</v>
@@ -28845,10 +28855,10 @@
         <v>1436.7</v>
       </c>
       <c r="Z300" s="7">
-        <v>652951416</v>
+        <v>662778444</v>
       </c>
       <c r="AA300" s="7">
-        <v>-33886868</v>
+        <v>-24059840</v>
       </c>
       <c r="AB300" s="7">
         <v>-15154711</v>
@@ -28890,16 +28900,16 @@
         <v>482030</v>
       </c>
       <c r="I301" s="5">
-        <v>48.01</v>
+        <v>50.25</v>
       </c>
       <c r="J301" s="6">
-        <v>480100</v>
+        <v>502500</v>
       </c>
       <c r="K301" s="6">
-        <v>-1930</v>
+        <v>20470</v>
       </c>
       <c r="L301" s="7">
-        <v>-11931401</v>
+        <v>20250679</v>
       </c>
       <c r="M301" s="5">
         <v>0</v>
@@ -28939,10 +28949,10 @@
         <v>1436.7</v>
       </c>
       <c r="Z301" s="7">
-        <v>689759670</v>
+        <v>721941750</v>
       </c>
       <c r="AA301" s="7">
-        <v>-2772831</v>
+        <v>29409249</v>
       </c>
       <c r="AB301" s="7">
         <v>-9158570</v>
@@ -28984,16 +28994,16 @@
         <v>684800</v>
       </c>
       <c r="I302" s="5">
-        <v>34.299999999999997</v>
+        <v>33.6</v>
       </c>
       <c r="J302" s="6">
-        <v>686000</v>
+        <v>672000</v>
       </c>
       <c r="K302" s="6">
-        <v>1200</v>
+        <v>-12800</v>
       </c>
       <c r="L302" s="7">
-        <v>-25873400</v>
+        <v>-45987200</v>
       </c>
       <c r="M302" s="5">
         <v>0</v>
@@ -29033,10 +29043,10 @@
         <v>1436.7</v>
       </c>
       <c r="Z302" s="7">
-        <v>985576200</v>
+        <v>965462400</v>
       </c>
       <c r="AA302" s="7">
-        <v>1724040</v>
+        <v>-18389760</v>
       </c>
       <c r="AB302" s="7">
         <v>-27597440</v>
@@ -29078,16 +29088,16 @@
         <v>1255051.8</v>
       </c>
       <c r="I303" s="5">
-        <v>257.85000000000002</v>
+        <v>270.01</v>
       </c>
       <c r="J303" s="6">
-        <v>1289250</v>
+        <v>1350050</v>
       </c>
       <c r="K303" s="6">
-        <v>34198.199999999997</v>
+        <v>94998.2</v>
       </c>
       <c r="L303" s="7">
-        <v>12995238</v>
+        <v>100346598</v>
       </c>
       <c r="M303" s="5">
         <v>0</v>
@@ -29127,10 +29137,10 @@
         <v>1436.7</v>
       </c>
       <c r="Z303" s="7">
-        <v>1852265475</v>
+        <v>1939616835</v>
       </c>
       <c r="AA303" s="7">
-        <v>49132553</v>
+        <v>136483913</v>
       </c>
       <c r="AB303" s="7">
         <v>-36137316</v>
@@ -29171,9 +29181,7 @@
       <c r="H304" s="5">
         <v>0</v>
       </c>
-      <c r="I304" s="5">
-        <v>8.83</v>
-      </c>
+      <c r="I304" s="2"/>
       <c r="J304" s="5">
         <v>0</v>
       </c>
@@ -29266,16 +29274,16 @@
         <v>1054647.55</v>
       </c>
       <c r="I305" s="5">
-        <v>187.6</v>
+        <v>185.61</v>
       </c>
       <c r="J305" s="6">
-        <v>1031800</v>
+        <v>1020855</v>
       </c>
       <c r="K305" s="6">
-        <v>-22847.55</v>
+        <v>-33792.550000000003</v>
       </c>
       <c r="L305" s="7">
-        <v>-22594993</v>
+        <v>-38319675</v>
       </c>
       <c r="M305" s="5">
         <v>0</v>
@@ -29315,10 +29323,10 @@
         <v>1436.7</v>
       </c>
       <c r="Z305" s="7">
-        <v>1482387060</v>
+        <v>1466662378</v>
       </c>
       <c r="AA305" s="7">
-        <v>-32825075</v>
+        <v>-48549756</v>
       </c>
       <c r="AB305" s="7">
         <v>10230082</v>
@@ -29360,16 +29368,16 @@
         <v>441591</v>
       </c>
       <c r="I306" s="5">
-        <v>44.1</v>
+        <v>43.8</v>
       </c>
       <c r="J306" s="6">
-        <v>441000</v>
-      </c>
-      <c r="K306" s="5">
-        <v>-591</v>
+        <v>438000</v>
+      </c>
+      <c r="K306" s="6">
+        <v>-3591</v>
       </c>
       <c r="L306" s="7">
-        <v>-14847524</v>
+        <v>-19157624</v>
       </c>
       <c r="M306" s="5">
         <v>0</v>
@@ -29409,10 +29417,10 @@
         <v>1436.7</v>
       </c>
       <c r="Z306" s="7">
-        <v>633584700</v>
+        <v>629274600</v>
       </c>
       <c r="AA306" s="7">
-        <v>-849089</v>
+        <v>-5159189</v>
       </c>
       <c r="AB306" s="7">
         <v>-13998435</v>
@@ -29454,16 +29462,16 @@
         <v>681920</v>
       </c>
       <c r="I307" s="5">
-        <v>686.95</v>
+        <v>695.41</v>
       </c>
       <c r="J307" s="6">
-        <v>686950</v>
+        <v>695410</v>
       </c>
       <c r="K307" s="6">
-        <v>5030</v>
+        <v>13490</v>
       </c>
       <c r="L307" s="7">
-        <v>8454057</v>
+        <v>20608539</v>
       </c>
       <c r="M307" s="5">
         <v>0</v>
@@ -29503,10 +29511,10 @@
         <v>1436.7</v>
       </c>
       <c r="Z307" s="7">
-        <v>986941065</v>
+        <v>999095547</v>
       </c>
       <c r="AA307" s="7">
-        <v>7226601</v>
+        <v>19381083</v>
       </c>
       <c r="AB307" s="7">
         <v>1227456</v>
@@ -29548,16 +29556,16 @@
         <v>1664502</v>
       </c>
       <c r="I308" s="5">
-        <v>426.96</v>
+        <v>427.13</v>
       </c>
       <c r="J308" s="6">
-        <v>1793232</v>
+        <v>1793946</v>
       </c>
       <c r="K308" s="6">
-        <v>128730</v>
+        <v>129444</v>
       </c>
       <c r="L308" s="7">
-        <v>187942495</v>
+        <v>188968299</v>
       </c>
       <c r="M308" s="5">
         <v>0</v>
@@ -29597,10 +29605,10 @@
         <v>1436.7</v>
       </c>
       <c r="Z308" s="7">
-        <v>2576336414</v>
+        <v>2577362218</v>
       </c>
       <c r="AA308" s="7">
-        <v>184946391</v>
+        <v>185972194</v>
       </c>
       <c r="AB308" s="7">
         <v>2996104</v>
@@ -29642,16 +29650,16 @@
         <v>423736.8</v>
       </c>
       <c r="I309" s="5">
-        <v>16.46</v>
+        <v>16.55</v>
       </c>
       <c r="J309" s="6">
-        <v>395040</v>
+        <v>397200</v>
       </c>
       <c r="K309" s="6">
-        <v>-28696.799999999999</v>
+        <v>-26536.799999999999</v>
       </c>
       <c r="L309" s="7">
-        <v>-52839080</v>
+        <v>-49735808</v>
       </c>
       <c r="M309" s="5">
         <v>0</v>
@@ -29691,10 +29699,10 @@
         <v>1436.7</v>
       </c>
       <c r="Z309" s="7">
-        <v>567553968</v>
+        <v>570657240</v>
       </c>
       <c r="AA309" s="7">
-        <v>-41228692</v>
+        <v>-38125420</v>
       </c>
       <c r="AB309" s="7">
         <v>-11610388</v>
@@ -29736,16 +29744,16 @@
         <v>605554.04</v>
       </c>
       <c r="I310" s="5">
-        <v>422.22</v>
+        <v>421.81</v>
       </c>
       <c r="J310" s="6">
-        <v>591108</v>
+        <v>590534</v>
       </c>
       <c r="K310" s="6">
-        <v>-14446.04</v>
+        <v>-15020.04</v>
       </c>
       <c r="L310" s="7">
-        <v>-26870722</v>
+        <v>-27695388</v>
       </c>
       <c r="M310" s="5">
         <v>0</v>
@@ -29785,10 +29793,10 @@
         <v>1436.7</v>
       </c>
       <c r="Z310" s="7">
-        <v>849244863</v>
+        <v>848420197</v>
       </c>
       <c r="AA310" s="7">
-        <v>-20754625</v>
+        <v>-21579291</v>
       </c>
       <c r="AB310" s="7">
         <v>-6116096</v>
@@ -29830,16 +29838,16 @@
         <v>591649.80000000005</v>
       </c>
       <c r="I311" s="5">
-        <v>155.12</v>
+        <v>154.26</v>
       </c>
       <c r="J311" s="6">
-        <v>542920</v>
+        <v>539910</v>
       </c>
       <c r="K311" s="6">
-        <v>-48729.8</v>
+        <v>-51739.8</v>
       </c>
       <c r="L311" s="7">
-        <v>-75985766</v>
+        <v>-80310233</v>
       </c>
       <c r="M311" s="5">
         <v>0</v>
@@ -29879,10 +29887,10 @@
         <v>1436.7</v>
       </c>
       <c r="Z311" s="7">
-        <v>780013164</v>
+        <v>775688697</v>
       </c>
       <c r="AA311" s="7">
-        <v>-70010103</v>
+        <v>-74334570</v>
       </c>
       <c r="AB311" s="7">
         <v>-5975663</v>
@@ -29900,1637 +29908,4509 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A312" s="2"/>
-      <c r="B312" s="2"/>
+    <row r="312" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C312" s="2"/>
-      <c r="D312" s="2"/>
-      <c r="E312" s="2"/>
-      <c r="F312" s="2"/>
-      <c r="G312" s="2"/>
-      <c r="H312" s="2"/>
+      <c r="D312" s="5">
+        <v>6869</v>
+      </c>
+      <c r="E312" s="5">
+        <v>0</v>
+      </c>
+      <c r="F312" s="5">
+        <v>0</v>
+      </c>
+      <c r="G312" s="5">
+        <v>0</v>
+      </c>
+      <c r="H312" s="5">
+        <v>0</v>
+      </c>
       <c r="I312" s="2"/>
-      <c r="J312" s="2"/>
-      <c r="K312" s="2"/>
-      <c r="L312" s="2"/>
-      <c r="M312" s="2"/>
-      <c r="N312" s="2"/>
-      <c r="O312" s="2"/>
-      <c r="P312" s="2"/>
-      <c r="Q312" s="2"/>
-      <c r="R312" s="2"/>
-      <c r="S312" s="2"/>
+      <c r="J312" s="5">
+        <v>0</v>
+      </c>
+      <c r="K312" s="5">
+        <v>0</v>
+      </c>
+      <c r="L312" s="5">
+        <v>0</v>
+      </c>
+      <c r="M312" s="5">
+        <v>0</v>
+      </c>
+      <c r="N312" s="6">
+        <v>349976</v>
+      </c>
+      <c r="O312" s="6">
+        <v>349976</v>
+      </c>
+      <c r="P312" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q312" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R312" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S312" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="T312" s="2"/>
-      <c r="U312" s="2"/>
-      <c r="V312" s="2"/>
-      <c r="W312" s="2"/>
-      <c r="X312" s="2"/>
-      <c r="Y312" s="2"/>
-      <c r="Z312" s="2"/>
-      <c r="AA312" s="2"/>
-      <c r="AB312" s="2"/>
-      <c r="AC312" s="2"/>
-      <c r="AD312" s="2"/>
-      <c r="AE312" s="2"/>
-      <c r="AF312" s="2"/>
-    </row>
-    <row r="313" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="2"/>
-      <c r="B313" s="2"/>
+      <c r="U312" s="5">
+        <v>0</v>
+      </c>
+      <c r="V312" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W312" s="5">
+        <v>0</v>
+      </c>
+      <c r="X312" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y312" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z312" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA312" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB312" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC312" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD312" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AE312" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AF312" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C313" s="2"/>
-      <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
-      <c r="F313" s="2"/>
-      <c r="G313" s="2"/>
-      <c r="H313" s="2"/>
-      <c r="I313" s="2"/>
-      <c r="J313" s="2"/>
-      <c r="K313" s="2"/>
-      <c r="L313" s="2"/>
-      <c r="M313" s="2"/>
-      <c r="N313" s="2"/>
-      <c r="O313" s="2"/>
-      <c r="P313" s="2"/>
-      <c r="Q313" s="2"/>
-      <c r="R313" s="2"/>
-      <c r="S313" s="2"/>
+      <c r="D313" s="5">
+        <v>2359</v>
+      </c>
+      <c r="E313" s="5">
+        <v>0</v>
+      </c>
+      <c r="F313" s="6">
+        <v>25000</v>
+      </c>
+      <c r="G313" s="5">
+        <v>118.559</v>
+      </c>
+      <c r="H313" s="6">
+        <v>2963990</v>
+      </c>
+      <c r="I313" s="5">
+        <v>110.4</v>
+      </c>
+      <c r="J313" s="6">
+        <v>2760000</v>
+      </c>
+      <c r="K313" s="6">
+        <v>-203990</v>
+      </c>
+      <c r="L313" s="7">
+        <v>-45169950</v>
+      </c>
+      <c r="M313" s="5">
+        <v>0</v>
+      </c>
+      <c r="N313" s="5">
+        <v>0</v>
+      </c>
+      <c r="O313" s="5">
+        <v>0</v>
+      </c>
+      <c r="P313" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q313" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R313" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S313" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T313" s="2"/>
-      <c r="U313" s="2"/>
-      <c r="V313" s="2"/>
-      <c r="W313" s="2"/>
-      <c r="X313" s="2"/>
-      <c r="Y313" s="2"/>
-      <c r="Z313" s="2"/>
-      <c r="AA313" s="2"/>
-      <c r="AB313" s="2"/>
-      <c r="AC313" s="2"/>
-      <c r="AD313" s="2"/>
-      <c r="AE313" s="2"/>
-      <c r="AF313" s="2"/>
-    </row>
-    <row r="314" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="2"/>
-      <c r="B314" s="2"/>
+      <c r="U313" s="5">
+        <v>0</v>
+      </c>
+      <c r="V313" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W313" s="5">
+        <v>188.95</v>
+      </c>
+      <c r="X313" s="7">
+        <v>560075550</v>
+      </c>
+      <c r="Y313" s="5">
+        <v>186.56</v>
+      </c>
+      <c r="Z313" s="7">
+        <v>514905600</v>
+      </c>
+      <c r="AA313" s="7">
+        <v>-38056374</v>
+      </c>
+      <c r="AB313" s="7">
+        <v>-7113576</v>
+      </c>
+      <c r="AC313" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD313" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE313" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF313" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C314" s="2"/>
-      <c r="D314" s="2"/>
-      <c r="E314" s="2"/>
-      <c r="F314" s="2"/>
-      <c r="G314" s="2"/>
-      <c r="H314" s="2"/>
-      <c r="I314" s="2"/>
-      <c r="J314" s="2"/>
-      <c r="K314" s="2"/>
-      <c r="L314" s="2"/>
-      <c r="M314" s="2"/>
-      <c r="N314" s="2"/>
-      <c r="O314" s="2"/>
-      <c r="P314" s="2"/>
-      <c r="Q314" s="2"/>
-      <c r="R314" s="2"/>
-      <c r="S314" s="2"/>
+      <c r="D314" s="5">
+        <v>6680</v>
+      </c>
+      <c r="E314" s="5">
+        <v>0</v>
+      </c>
+      <c r="F314" s="6">
+        <v>130000</v>
+      </c>
+      <c r="G314" s="5">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H314" s="6">
+        <v>2921022</v>
+      </c>
+      <c r="I314" s="5">
+        <v>21.46</v>
+      </c>
+      <c r="J314" s="6">
+        <v>2789800</v>
+      </c>
+      <c r="K314" s="6">
+        <v>-131222</v>
+      </c>
+      <c r="L314" s="7">
+        <v>-31286757</v>
+      </c>
+      <c r="M314" s="5">
+        <v>0</v>
+      </c>
+      <c r="N314" s="5">
+        <v>0</v>
+      </c>
+      <c r="O314" s="5">
+        <v>0</v>
+      </c>
+      <c r="P314" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q314" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R314" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S314" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="T314" s="2"/>
-      <c r="U314" s="2"/>
-      <c r="V314" s="2"/>
-      <c r="W314" s="2"/>
-      <c r="X314" s="2"/>
-      <c r="Y314" s="2"/>
-      <c r="Z314" s="2"/>
-      <c r="AA314" s="2"/>
-      <c r="AB314" s="2"/>
-      <c r="AC314" s="2"/>
-      <c r="AD314" s="2"/>
-      <c r="AE314" s="2"/>
-      <c r="AF314" s="2"/>
-    </row>
-    <row r="315" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="2"/>
-      <c r="B315" s="2"/>
+      <c r="U314" s="5">
+        <v>0</v>
+      </c>
+      <c r="V314" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W314" s="5">
+        <v>188.88</v>
+      </c>
+      <c r="X314" s="7">
+        <v>551751845</v>
+      </c>
+      <c r="Y314" s="5">
+        <v>186.56</v>
+      </c>
+      <c r="Z314" s="7">
+        <v>520465088</v>
+      </c>
+      <c r="AA314" s="7">
+        <v>-24480776</v>
+      </c>
+      <c r="AB314" s="7">
+        <v>-6805981</v>
+      </c>
+      <c r="AC314" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD314" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE314" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF314" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C315" s="2"/>
-      <c r="D315" s="2"/>
-      <c r="E315" s="2"/>
-      <c r="F315" s="2"/>
-      <c r="G315" s="2"/>
-      <c r="H315" s="2"/>
+      <c r="D315" s="5">
+        <v>6181</v>
+      </c>
+      <c r="E315" s="5">
+        <v>0</v>
+      </c>
+      <c r="F315" s="5">
+        <v>0</v>
+      </c>
+      <c r="G315" s="5">
+        <v>0</v>
+      </c>
+      <c r="H315" s="5">
+        <v>0</v>
+      </c>
       <c r="I315" s="2"/>
-      <c r="J315" s="2"/>
-      <c r="K315" s="2"/>
-      <c r="L315" s="2"/>
-      <c r="M315" s="2"/>
-      <c r="N315" s="2"/>
-      <c r="O315" s="2"/>
-      <c r="P315" s="2"/>
-      <c r="Q315" s="2"/>
-      <c r="R315" s="2"/>
-      <c r="S315" s="2"/>
+      <c r="J315" s="5">
+        <v>0</v>
+      </c>
+      <c r="K315" s="5">
+        <v>0</v>
+      </c>
+      <c r="L315" s="5">
+        <v>0</v>
+      </c>
+      <c r="M315" s="5">
+        <v>0</v>
+      </c>
+      <c r="N315" s="6">
+        <v>-6374.88</v>
+      </c>
+      <c r="O315" s="5">
+        <v>0</v>
+      </c>
+      <c r="P315" s="6">
+        <v>6374.88</v>
+      </c>
+      <c r="Q315" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R315" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S315" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="T315" s="2"/>
-      <c r="U315" s="2"/>
-      <c r="V315" s="2"/>
-      <c r="W315" s="2"/>
-      <c r="X315" s="2"/>
-      <c r="Y315" s="2"/>
-      <c r="Z315" s="2"/>
-      <c r="AA315" s="2"/>
-      <c r="AB315" s="2"/>
-      <c r="AC315" s="2"/>
-      <c r="AD315" s="2"/>
-      <c r="AE315" s="2"/>
-      <c r="AF315" s="2"/>
-    </row>
-    <row r="316" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A316" s="2"/>
-      <c r="B316" s="2"/>
+      <c r="U315" s="5">
+        <v>0</v>
+      </c>
+      <c r="V315" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W315" s="5">
+        <v>0</v>
+      </c>
+      <c r="X315" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y315" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z315" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA315" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB315" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC315" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD315" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AE315" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AF315" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C316" s="2"/>
-      <c r="D316" s="2"/>
-      <c r="E316" s="2"/>
-      <c r="F316" s="2"/>
-      <c r="G316" s="2"/>
-      <c r="H316" s="2"/>
+      <c r="D316" s="5">
+        <v>6082</v>
+      </c>
+      <c r="E316" s="5">
+        <v>0</v>
+      </c>
+      <c r="F316" s="5">
+        <v>0</v>
+      </c>
+      <c r="G316" s="5">
+        <v>0</v>
+      </c>
+      <c r="H316" s="5">
+        <v>0</v>
+      </c>
       <c r="I316" s="2"/>
-      <c r="J316" s="2"/>
-      <c r="K316" s="2"/>
-      <c r="L316" s="2"/>
-      <c r="M316" s="2"/>
-      <c r="N316" s="2"/>
-      <c r="O316" s="2"/>
-      <c r="P316" s="2"/>
-      <c r="Q316" s="2"/>
-      <c r="R316" s="2"/>
-      <c r="S316" s="2"/>
+      <c r="J316" s="5">
+        <v>0</v>
+      </c>
+      <c r="K316" s="5">
+        <v>0</v>
+      </c>
+      <c r="L316" s="5">
+        <v>0</v>
+      </c>
+      <c r="M316" s="5">
+        <v>0</v>
+      </c>
+      <c r="N316" s="6">
+        <v>205980</v>
+      </c>
+      <c r="O316" s="6">
+        <v>205980</v>
+      </c>
+      <c r="P316" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q316" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R316" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S316" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="T316" s="2"/>
-      <c r="U316" s="2"/>
-      <c r="V316" s="2"/>
-      <c r="W316" s="2"/>
-      <c r="X316" s="2"/>
-      <c r="Y316" s="2"/>
-      <c r="Z316" s="2"/>
-      <c r="AA316" s="2"/>
-      <c r="AB316" s="2"/>
-      <c r="AC316" s="2"/>
-      <c r="AD316" s="2"/>
-      <c r="AE316" s="2"/>
-      <c r="AF316" s="2"/>
-    </row>
-    <row r="317" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="2"/>
-      <c r="B317" s="2"/>
+      <c r="U316" s="5">
+        <v>0</v>
+      </c>
+      <c r="V316" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W316" s="5">
+        <v>0</v>
+      </c>
+      <c r="X316" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y316" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z316" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA316" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB316" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC316" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD316" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AE316" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AF316" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="C317" s="2"/>
-      <c r="D317" s="2"/>
-      <c r="E317" s="2"/>
-      <c r="F317" s="2"/>
-      <c r="G317" s="2"/>
-      <c r="H317" s="2"/>
-      <c r="I317" s="2"/>
-      <c r="J317" s="2"/>
-      <c r="K317" s="2"/>
-      <c r="L317" s="2"/>
-      <c r="M317" s="2"/>
-      <c r="N317" s="2"/>
-      <c r="O317" s="2"/>
-      <c r="P317" s="2"/>
-      <c r="Q317" s="2"/>
-      <c r="R317" s="2"/>
-      <c r="S317" s="2"/>
+      <c r="D317" s="5">
+        <v>3033</v>
+      </c>
+      <c r="E317" s="5">
+        <v>0</v>
+      </c>
+      <c r="F317" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G317" s="5">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="H317" s="6">
+        <v>5713300</v>
+      </c>
+      <c r="I317" s="5">
+        <v>5.3449999999999998</v>
+      </c>
+      <c r="J317" s="6">
+        <v>5345000</v>
+      </c>
+      <c r="K317" s="6">
+        <v>-368300</v>
+      </c>
+      <c r="L317" s="7">
+        <v>-48999163</v>
+      </c>
+      <c r="M317" s="5">
+        <v>0</v>
+      </c>
+      <c r="N317" s="5">
+        <v>0</v>
+      </c>
+      <c r="O317" s="5">
+        <v>0</v>
+      </c>
+      <c r="P317" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q317" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R317" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S317" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T317" s="2"/>
-      <c r="U317" s="2"/>
-      <c r="V317" s="2"/>
-      <c r="W317" s="2"/>
-      <c r="X317" s="2"/>
-      <c r="Y317" s="2"/>
-      <c r="Z317" s="2"/>
-      <c r="AA317" s="2"/>
-      <c r="AB317" s="2"/>
-      <c r="AC317" s="2"/>
-      <c r="AD317" s="2"/>
-      <c r="AE317" s="2"/>
-      <c r="AF317" s="2"/>
-    </row>
-    <row r="318" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
+      <c r="U317" s="5">
+        <v>0</v>
+      </c>
+      <c r="V317" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W317" s="5">
+        <v>183.11</v>
+      </c>
+      <c r="X317" s="7">
+        <v>1046162363</v>
+      </c>
+      <c r="Y317" s="5">
+        <v>186.56</v>
+      </c>
+      <c r="Z317" s="7">
+        <v>997163200</v>
+      </c>
+      <c r="AA317" s="7">
+        <v>-68710048</v>
+      </c>
+      <c r="AB317" s="7">
+        <v>19710885</v>
+      </c>
+      <c r="AC317" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD317" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE317" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF317" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
-      <c r="E318" s="2"/>
-      <c r="F318" s="2"/>
-      <c r="G318" s="2"/>
-      <c r="H318" s="2"/>
-      <c r="I318" s="2"/>
-      <c r="J318" s="2"/>
-      <c r="K318" s="2"/>
-      <c r="L318" s="2"/>
-      <c r="M318" s="2"/>
-      <c r="N318" s="2"/>
-      <c r="O318" s="2"/>
-      <c r="P318" s="2"/>
-      <c r="Q318" s="2"/>
-      <c r="R318" s="2"/>
-      <c r="S318" s="2"/>
+      <c r="D318" s="5">
+        <v>9988</v>
+      </c>
+      <c r="E318" s="5">
+        <v>0</v>
+      </c>
+      <c r="F318" s="6">
+        <v>70500</v>
+      </c>
+      <c r="G318" s="5">
+        <v>147.79</v>
+      </c>
+      <c r="H318" s="6">
+        <v>10419200</v>
+      </c>
+      <c r="I318" s="5">
+        <v>161</v>
+      </c>
+      <c r="J318" s="6">
+        <v>11350500</v>
+      </c>
+      <c r="K318" s="6">
+        <v>931300</v>
+      </c>
+      <c r="L318" s="7">
+        <v>182750680</v>
+      </c>
+      <c r="M318" s="5">
+        <v>0</v>
+      </c>
+      <c r="N318" s="5">
+        <v>0</v>
+      </c>
+      <c r="O318" s="5">
+        <v>0</v>
+      </c>
+      <c r="P318" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q318" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R318" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S318" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="T318" s="2"/>
-      <c r="U318" s="2"/>
-      <c r="V318" s="2"/>
-      <c r="W318" s="2"/>
-      <c r="X318" s="2"/>
-      <c r="Y318" s="2"/>
-      <c r="Z318" s="2"/>
-      <c r="AA318" s="2"/>
-      <c r="AB318" s="2"/>
-      <c r="AC318" s="2"/>
-      <c r="AD318" s="2"/>
-      <c r="AE318" s="2"/>
-      <c r="AF318" s="2"/>
+      <c r="U318" s="5">
+        <v>0</v>
+      </c>
+      <c r="V318" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W318" s="5">
+        <v>185.69</v>
+      </c>
+      <c r="X318" s="7">
+        <v>1934798600</v>
+      </c>
+      <c r="Y318" s="5">
+        <v>186.56</v>
+      </c>
+      <c r="Z318" s="7">
+        <v>2117549280</v>
+      </c>
+      <c r="AA318" s="7">
+        <v>173743328</v>
+      </c>
+      <c r="AB318" s="7">
+        <v>9007352</v>
+      </c>
+      <c r="AC318" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD318" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE318" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF318" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="319" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A319" s="2"/>
-      <c r="B319" s="2"/>
+      <c r="A319" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C319" s="2"/>
-      <c r="D319" s="2"/>
-      <c r="E319" s="2"/>
-      <c r="F319" s="2"/>
-      <c r="G319" s="2"/>
-      <c r="H319" s="2"/>
-      <c r="I319" s="2"/>
-      <c r="J319" s="2"/>
-      <c r="K319" s="2"/>
-      <c r="L319" s="2"/>
-      <c r="M319" s="2"/>
-      <c r="N319" s="2"/>
-      <c r="O319" s="2"/>
-      <c r="P319" s="2"/>
-      <c r="Q319" s="2"/>
-      <c r="R319" s="2"/>
-      <c r="S319" s="2"/>
+      <c r="D319" s="5">
+        <v>6861</v>
+      </c>
+      <c r="E319" s="5">
+        <v>0</v>
+      </c>
+      <c r="F319" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G319" s="6">
+        <v>55916.79</v>
+      </c>
+      <c r="H319" s="6">
+        <v>106241900</v>
+      </c>
+      <c r="I319" s="6">
+        <v>56910</v>
+      </c>
+      <c r="J319" s="6">
+        <v>108129000</v>
+      </c>
+      <c r="K319" s="6">
+        <v>1887100</v>
+      </c>
+      <c r="L319" s="7">
+        <v>30637223</v>
+      </c>
+      <c r="M319" s="5">
+        <v>0</v>
+      </c>
+      <c r="N319" s="5">
+        <v>0</v>
+      </c>
+      <c r="O319" s="5">
+        <v>0</v>
+      </c>
+      <c r="P319" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q319" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R319" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S319" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="T319" s="2"/>
-      <c r="U319" s="2"/>
-      <c r="V319" s="2"/>
-      <c r="W319" s="2"/>
-      <c r="X319" s="2"/>
-      <c r="Y319" s="2"/>
-      <c r="Z319" s="2"/>
-      <c r="AA319" s="2"/>
-      <c r="AB319" s="2"/>
-      <c r="AC319" s="2"/>
-      <c r="AD319" s="2"/>
-      <c r="AE319" s="2"/>
-      <c r="AF319" s="2"/>
+      <c r="U319" s="5">
+        <v>0</v>
+      </c>
+      <c r="V319" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W319" s="5">
+        <v>924.45</v>
+      </c>
+      <c r="X319" s="7">
+        <v>982163868</v>
+      </c>
+      <c r="Y319" s="5">
+        <v>936.66</v>
+      </c>
+      <c r="Z319" s="7">
+        <v>1012801091</v>
+      </c>
+      <c r="AA319" s="7">
+        <v>17675710</v>
+      </c>
+      <c r="AB319" s="7">
+        <v>12961512</v>
+      </c>
+      <c r="AC319" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD319" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE319" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF319" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
+      <c r="A320" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C320" s="2"/>
-      <c r="D320" s="2"/>
-      <c r="E320" s="2"/>
-      <c r="F320" s="2"/>
-      <c r="G320" s="2"/>
-      <c r="H320" s="2"/>
-      <c r="I320" s="2"/>
-      <c r="J320" s="2"/>
-      <c r="K320" s="2"/>
-      <c r="L320" s="2"/>
-      <c r="M320" s="2"/>
-      <c r="N320" s="2"/>
-      <c r="O320" s="2"/>
-      <c r="P320" s="2"/>
-      <c r="Q320" s="2"/>
-      <c r="R320" s="2"/>
-      <c r="S320" s="2"/>
+      <c r="D320" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E320" s="5">
+        <v>0</v>
+      </c>
+      <c r="F320" s="6">
+        <v>4200</v>
+      </c>
+      <c r="G320" s="6">
+        <v>19129.990000000002</v>
+      </c>
+      <c r="H320" s="6">
+        <v>80345950</v>
+      </c>
+      <c r="I320" s="6">
+        <v>20785</v>
+      </c>
+      <c r="J320" s="6">
+        <v>87297000</v>
+      </c>
+      <c r="K320" s="6">
+        <v>6951050</v>
+      </c>
+      <c r="L320" s="7">
+        <v>75271468</v>
+      </c>
+      <c r="M320" s="5">
+        <v>0</v>
+      </c>
+      <c r="N320" s="6">
+        <v>4480700</v>
+      </c>
+      <c r="O320" s="6">
+        <v>4480700</v>
+      </c>
+      <c r="P320" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q320" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R320" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S320" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="T320" s="2"/>
-      <c r="U320" s="2"/>
-      <c r="V320" s="2"/>
-      <c r="W320" s="2"/>
-      <c r="X320" s="2"/>
-      <c r="Y320" s="2"/>
-      <c r="Z320" s="2"/>
-      <c r="AA320" s="2"/>
-      <c r="AB320" s="2"/>
-      <c r="AC320" s="2"/>
-      <c r="AD320" s="2"/>
-      <c r="AE320" s="2"/>
-      <c r="AF320" s="2"/>
+      <c r="U320" s="5">
+        <v>0</v>
+      </c>
+      <c r="V320" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W320" s="5">
+        <v>924</v>
+      </c>
+      <c r="X320" s="7">
+        <v>742404612</v>
+      </c>
+      <c r="Y320" s="5">
+        <v>936.66</v>
+      </c>
+      <c r="Z320" s="7">
+        <v>817676080</v>
+      </c>
+      <c r="AA320" s="7">
+        <v>65107704</v>
+      </c>
+      <c r="AB320" s="7">
+        <v>10163763</v>
+      </c>
+      <c r="AC320" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD320" s="7">
+        <v>37760160</v>
+      </c>
+      <c r="AE320" s="7">
+        <v>37760160</v>
+      </c>
+      <c r="AF320" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="321" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
+      <c r="A321" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C321" s="2"/>
-      <c r="D321" s="2"/>
-      <c r="E321" s="2"/>
-      <c r="F321" s="2"/>
-      <c r="G321" s="2"/>
-      <c r="H321" s="2"/>
-      <c r="I321" s="2"/>
-      <c r="J321" s="2"/>
-      <c r="K321" s="2"/>
-      <c r="L321" s="2"/>
-      <c r="M321" s="2"/>
-      <c r="N321" s="2"/>
-      <c r="O321" s="2"/>
-      <c r="P321" s="2"/>
-      <c r="Q321" s="2"/>
-      <c r="R321" s="2"/>
-      <c r="S321" s="2"/>
+      <c r="D321" s="5">
+        <v>9984</v>
+      </c>
+      <c r="E321" s="5">
+        <v>0</v>
+      </c>
+      <c r="F321" s="6">
+        <v>23000</v>
+      </c>
+      <c r="G321" s="6">
+        <v>4066.73</v>
+      </c>
+      <c r="H321" s="6">
+        <v>93534900</v>
+      </c>
+      <c r="I321" s="6">
+        <v>4300</v>
+      </c>
+      <c r="J321" s="6">
+        <v>98900000</v>
+      </c>
+      <c r="K321" s="6">
+        <v>5365100</v>
+      </c>
+      <c r="L321" s="7">
+        <v>59737185</v>
+      </c>
+      <c r="M321" s="5">
+        <v>0</v>
+      </c>
+      <c r="N321" s="5">
+        <v>0</v>
+      </c>
+      <c r="O321" s="5">
+        <v>0</v>
+      </c>
+      <c r="P321" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q321" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R321" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S321" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T321" s="2"/>
-      <c r="U321" s="2"/>
-      <c r="V321" s="2"/>
-      <c r="W321" s="2"/>
-      <c r="X321" s="2"/>
-      <c r="Y321" s="2"/>
-      <c r="Z321" s="2"/>
-      <c r="AA321" s="2"/>
-      <c r="AB321" s="2"/>
-      <c r="AC321" s="2"/>
-      <c r="AD321" s="2"/>
-      <c r="AE321" s="2"/>
-      <c r="AF321" s="2"/>
+      <c r="U321" s="5">
+        <v>0</v>
+      </c>
+      <c r="V321" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W321" s="5">
+        <v>926.51</v>
+      </c>
+      <c r="X321" s="7">
+        <v>866619555</v>
+      </c>
+      <c r="Y321" s="5">
+        <v>936.66</v>
+      </c>
+      <c r="Z321" s="7">
+        <v>926356740</v>
+      </c>
+      <c r="AA321" s="7">
+        <v>50252745</v>
+      </c>
+      <c r="AB321" s="7">
+        <v>9484439</v>
+      </c>
+      <c r="AC321" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD321" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE321" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF321" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="2"/>
-      <c r="B322" s="2"/>
+      <c r="A322" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C322" s="2"/>
-      <c r="D322" s="2"/>
-      <c r="E322" s="2"/>
-      <c r="F322" s="2"/>
-      <c r="G322" s="2"/>
-      <c r="H322" s="2"/>
-      <c r="I322" s="2"/>
-      <c r="J322" s="2"/>
-      <c r="K322" s="2"/>
-      <c r="L322" s="2"/>
-      <c r="M322" s="2"/>
-      <c r="N322" s="2"/>
-      <c r="O322" s="2"/>
-      <c r="P322" s="2"/>
-      <c r="Q322" s="2"/>
-      <c r="R322" s="2"/>
-      <c r="S322" s="2"/>
+      <c r="D322" s="5">
+        <v>6954</v>
+      </c>
+      <c r="E322" s="5">
+        <v>0</v>
+      </c>
+      <c r="F322" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G322" s="6">
+        <v>6568.27</v>
+      </c>
+      <c r="H322" s="6">
+        <v>65682650</v>
+      </c>
+      <c r="I322" s="6">
+        <v>6432</v>
+      </c>
+      <c r="J322" s="6">
+        <v>64320000</v>
+      </c>
+      <c r="K322" s="6">
+        <v>-1362650</v>
+      </c>
+      <c r="L322" s="7">
+        <v>-6431590</v>
+      </c>
+      <c r="M322" s="5">
+        <v>0</v>
+      </c>
+      <c r="N322" s="5">
+        <v>0</v>
+      </c>
+      <c r="O322" s="5">
+        <v>0</v>
+      </c>
+      <c r="P322" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q322" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R322" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S322" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="T322" s="2"/>
-      <c r="U322" s="2"/>
-      <c r="V322" s="2"/>
-      <c r="W322" s="2"/>
-      <c r="X322" s="2"/>
-      <c r="Y322" s="2"/>
-      <c r="Z322" s="2"/>
-      <c r="AA322" s="2"/>
-      <c r="AB322" s="2"/>
-      <c r="AC322" s="2"/>
-      <c r="AD322" s="2"/>
-      <c r="AE322" s="2"/>
-      <c r="AF322" s="2"/>
+      <c r="U322" s="5">
+        <v>0</v>
+      </c>
+      <c r="V322" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W322" s="5">
+        <v>927.01</v>
+      </c>
+      <c r="X322" s="7">
+        <v>608891302</v>
+      </c>
+      <c r="Y322" s="5">
+        <v>936.66</v>
+      </c>
+      <c r="Z322" s="7">
+        <v>602459712</v>
+      </c>
+      <c r="AA322" s="7">
+        <v>-12763397</v>
+      </c>
+      <c r="AB322" s="7">
+        <v>6331807</v>
+      </c>
+      <c r="AC322" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD322" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE322" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF322" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
+      <c r="A323" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C323" s="2"/>
-      <c r="D323" s="2"/>
-      <c r="E323" s="2"/>
-      <c r="F323" s="2"/>
-      <c r="G323" s="2"/>
-      <c r="H323" s="2"/>
-      <c r="I323" s="2"/>
-      <c r="J323" s="2"/>
-      <c r="K323" s="2"/>
-      <c r="L323" s="2"/>
-      <c r="M323" s="2"/>
-      <c r="N323" s="2"/>
-      <c r="O323" s="2"/>
-      <c r="P323" s="2"/>
-      <c r="Q323" s="2"/>
-      <c r="R323" s="2"/>
-      <c r="S323" s="2"/>
+      <c r="D323" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E323" s="5">
+        <v>0</v>
+      </c>
+      <c r="F323" s="6">
+        <v>38000</v>
+      </c>
+      <c r="G323" s="5">
+        <v>12.58</v>
+      </c>
+      <c r="H323" s="6">
+        <v>478066.6</v>
+      </c>
+      <c r="I323" s="5">
+        <v>12.54</v>
+      </c>
+      <c r="J323" s="6">
+        <v>476520</v>
+      </c>
+      <c r="K323" s="6">
+        <v>-1546.6</v>
+      </c>
+      <c r="L323" s="7">
+        <v>-7560399</v>
+      </c>
+      <c r="M323" s="5">
+        <v>0</v>
+      </c>
+      <c r="N323" s="5">
+        <v>0</v>
+      </c>
+      <c r="O323" s="5">
+        <v>0</v>
+      </c>
+      <c r="P323" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q323" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R323" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S323" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="T323" s="2"/>
-      <c r="U323" s="2"/>
-      <c r="V323" s="2"/>
-      <c r="W323" s="2"/>
-      <c r="X323" s="2"/>
-      <c r="Y323" s="2"/>
-      <c r="Z323" s="2"/>
-      <c r="AA323" s="2"/>
-      <c r="AB323" s="2"/>
-      <c r="AC323" s="2"/>
-      <c r="AD323" s="2"/>
-      <c r="AE323" s="2"/>
-      <c r="AF323" s="2"/>
+      <c r="U323" s="5">
+        <v>0</v>
+      </c>
+      <c r="V323" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W323" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X323" s="7">
+        <v>701992995</v>
+      </c>
+      <c r="Y323" s="6">
+        <v>1457.3</v>
+      </c>
+      <c r="Z323" s="7">
+        <v>694432596</v>
+      </c>
+      <c r="AA323" s="7">
+        <v>-2253860</v>
+      </c>
+      <c r="AB323" s="7">
+        <v>-5306539</v>
+      </c>
+      <c r="AC323" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD323" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE323" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF323" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="324" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="2"/>
-      <c r="B324" s="2"/>
+      <c r="A324" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2"/>
-      <c r="F324" s="2"/>
-      <c r="G324" s="2"/>
-      <c r="H324" s="2"/>
-      <c r="I324" s="2"/>
-      <c r="J324" s="2"/>
-      <c r="K324" s="2"/>
-      <c r="L324" s="2"/>
-      <c r="M324" s="2"/>
-      <c r="N324" s="2"/>
-      <c r="O324" s="2"/>
-      <c r="P324" s="2"/>
-      <c r="Q324" s="2"/>
-      <c r="R324" s="2"/>
-      <c r="S324" s="2"/>
+      <c r="D324" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E324" s="5">
+        <v>0</v>
+      </c>
+      <c r="F324" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G324" s="5">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H324" s="6">
+        <v>482030</v>
+      </c>
+      <c r="I324" s="5">
+        <v>53.45</v>
+      </c>
+      <c r="J324" s="6">
+        <v>534500</v>
+      </c>
+      <c r="K324" s="6">
+        <v>52470</v>
+      </c>
+      <c r="L324" s="7">
+        <v>77235779</v>
+      </c>
+      <c r="M324" s="5">
+        <v>0</v>
+      </c>
+      <c r="N324" s="5">
+        <v>0</v>
+      </c>
+      <c r="O324" s="5">
+        <v>0</v>
+      </c>
+      <c r="P324" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q324" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R324" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S324" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="T324" s="2"/>
-      <c r="U324" s="2"/>
-      <c r="V324" s="2"/>
-      <c r="W324" s="2"/>
-      <c r="X324" s="2"/>
-      <c r="Y324" s="2"/>
-      <c r="Z324" s="2"/>
-      <c r="AA324" s="2"/>
-      <c r="AB324" s="2"/>
-      <c r="AC324" s="2"/>
-      <c r="AD324" s="2"/>
-      <c r="AE324" s="2"/>
-      <c r="AF324" s="2"/>
+      <c r="U324" s="5">
+        <v>0</v>
+      </c>
+      <c r="V324" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W324" s="6">
+        <v>1455.7</v>
+      </c>
+      <c r="X324" s="7">
+        <v>701691071</v>
+      </c>
+      <c r="Y324" s="6">
+        <v>1457.3</v>
+      </c>
+      <c r="Z324" s="7">
+        <v>778926850</v>
+      </c>
+      <c r="AA324" s="7">
+        <v>76464531</v>
+      </c>
+      <c r="AB324" s="7">
+        <v>771248</v>
+      </c>
+      <c r="AC324" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD324" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE324" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF324" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="325" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="2"/>
-      <c r="B325" s="2"/>
+      <c r="A325" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C325" s="2"/>
-      <c r="D325" s="2"/>
-      <c r="E325" s="2"/>
-      <c r="F325" s="2"/>
-      <c r="G325" s="2"/>
-      <c r="H325" s="2"/>
-      <c r="I325" s="2"/>
-      <c r="J325" s="2"/>
-      <c r="K325" s="2"/>
-      <c r="L325" s="2"/>
-      <c r="M325" s="2"/>
-      <c r="N325" s="2"/>
-      <c r="O325" s="2"/>
-      <c r="P325" s="2"/>
-      <c r="Q325" s="2"/>
-      <c r="R325" s="2"/>
-      <c r="S325" s="2"/>
+      <c r="D325" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E325" s="5">
+        <v>0</v>
+      </c>
+      <c r="F325" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G325" s="5">
+        <v>34.24</v>
+      </c>
+      <c r="H325" s="6">
+        <v>684800</v>
+      </c>
+      <c r="I325" s="5">
+        <v>33.97</v>
+      </c>
+      <c r="J325" s="6">
+        <v>679400</v>
+      </c>
+      <c r="K325" s="6">
+        <v>-5400</v>
+      </c>
+      <c r="L325" s="7">
+        <v>-21359980</v>
+      </c>
+      <c r="M325" s="5">
+        <v>0</v>
+      </c>
+      <c r="N325" s="5">
+        <v>0</v>
+      </c>
+      <c r="O325" s="5">
+        <v>0</v>
+      </c>
+      <c r="P325" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q325" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R325" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S325" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="T325" s="2"/>
-      <c r="U325" s="2"/>
-      <c r="V325" s="2"/>
-      <c r="W325" s="2"/>
-      <c r="X325" s="2"/>
-      <c r="Y325" s="2"/>
-      <c r="Z325" s="2"/>
-      <c r="AA325" s="2"/>
-      <c r="AB325" s="2"/>
-      <c r="AC325" s="2"/>
-      <c r="AD325" s="2"/>
-      <c r="AE325" s="2"/>
-      <c r="AF325" s="2"/>
+      <c r="U325" s="5">
+        <v>0</v>
+      </c>
+      <c r="V325" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W325" s="6">
+        <v>1477</v>
+      </c>
+      <c r="X325" s="7">
+        <v>1011449600</v>
+      </c>
+      <c r="Y325" s="6">
+        <v>1457.3</v>
+      </c>
+      <c r="Z325" s="7">
+        <v>990089620</v>
+      </c>
+      <c r="AA325" s="7">
+        <v>-7869420</v>
+      </c>
+      <c r="AB325" s="7">
+        <v>-13490560</v>
+      </c>
+      <c r="AC325" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD325" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE325" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF325" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="326" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
+      <c r="A326" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C326" s="2"/>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2"/>
-      <c r="F326" s="2"/>
-      <c r="G326" s="2"/>
-      <c r="H326" s="2"/>
-      <c r="I326" s="2"/>
-      <c r="J326" s="2"/>
-      <c r="K326" s="2"/>
-      <c r="L326" s="2"/>
-      <c r="M326" s="2"/>
-      <c r="N326" s="2"/>
-      <c r="O326" s="2"/>
-      <c r="P326" s="2"/>
-      <c r="Q326" s="2"/>
-      <c r="R326" s="2"/>
-      <c r="S326" s="2"/>
+      <c r="D326" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E326" s="5">
+        <v>0</v>
+      </c>
+      <c r="F326" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G326" s="5">
+        <v>251.01</v>
+      </c>
+      <c r="H326" s="6">
+        <v>1255051.8</v>
+      </c>
+      <c r="I326" s="5">
+        <v>269.48</v>
+      </c>
+      <c r="J326" s="6">
+        <v>1347400</v>
+      </c>
+      <c r="K326" s="6">
+        <v>92348.2</v>
+      </c>
+      <c r="L326" s="7">
+        <v>124295783</v>
+      </c>
+      <c r="M326" s="5">
+        <v>0</v>
+      </c>
+      <c r="N326" s="5">
+        <v>0</v>
+      </c>
+      <c r="O326" s="5">
+        <v>0</v>
+      </c>
+      <c r="P326" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q326" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R326" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S326" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T326" s="2"/>
-      <c r="U326" s="2"/>
-      <c r="V326" s="2"/>
-      <c r="W326" s="2"/>
-      <c r="X326" s="2"/>
-      <c r="Y326" s="2"/>
-      <c r="Z326" s="2"/>
-      <c r="AA326" s="2"/>
-      <c r="AB326" s="2"/>
-      <c r="AC326" s="2"/>
-      <c r="AD326" s="2"/>
-      <c r="AE326" s="2"/>
-      <c r="AF326" s="2"/>
+      <c r="U326" s="5">
+        <v>0</v>
+      </c>
+      <c r="V326" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W326" s="6">
+        <v>1465.49</v>
+      </c>
+      <c r="X326" s="7">
+        <v>1839270237</v>
+      </c>
+      <c r="Y326" s="6">
+        <v>1457.3</v>
+      </c>
+      <c r="Z326" s="7">
+        <v>1963566020</v>
+      </c>
+      <c r="AA326" s="7">
+        <v>134579031</v>
+      </c>
+      <c r="AB326" s="7">
+        <v>-10283249</v>
+      </c>
+      <c r="AC326" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD326" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE326" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF326" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
+      <c r="A327" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2"/>
-      <c r="F327" s="2"/>
-      <c r="G327" s="2"/>
-      <c r="H327" s="2"/>
+      <c r="D327" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E327" s="5">
+        <v>0</v>
+      </c>
+      <c r="F327" s="5">
+        <v>0</v>
+      </c>
+      <c r="G327" s="5">
+        <v>0</v>
+      </c>
+      <c r="H327" s="5">
+        <v>0</v>
+      </c>
       <c r="I327" s="2"/>
-      <c r="J327" s="2"/>
-      <c r="K327" s="2"/>
-      <c r="L327" s="2"/>
-      <c r="M327" s="2"/>
-      <c r="N327" s="2"/>
-      <c r="O327" s="2"/>
-      <c r="P327" s="2"/>
-      <c r="Q327" s="2"/>
-      <c r="R327" s="2"/>
-      <c r="S327" s="2"/>
+      <c r="J327" s="5">
+        <v>0</v>
+      </c>
+      <c r="K327" s="5">
+        <v>0</v>
+      </c>
+      <c r="L327" s="5">
+        <v>0</v>
+      </c>
+      <c r="M327" s="5">
+        <v>0</v>
+      </c>
+      <c r="N327" s="6">
+        <v>-276165.90000000002</v>
+      </c>
+      <c r="O327" s="5">
+        <v>0</v>
+      </c>
+      <c r="P327" s="6">
+        <v>276165.90000000002</v>
+      </c>
+      <c r="Q327" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R327" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S327" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="T327" s="2"/>
-      <c r="U327" s="2"/>
-      <c r="V327" s="2"/>
-      <c r="W327" s="2"/>
-      <c r="X327" s="2"/>
-      <c r="Y327" s="2"/>
-      <c r="Z327" s="2"/>
-      <c r="AA327" s="2"/>
-      <c r="AB327" s="2"/>
-      <c r="AC327" s="2"/>
-      <c r="AD327" s="2"/>
-      <c r="AE327" s="2"/>
-      <c r="AF327" s="2"/>
+      <c r="U327" s="5">
+        <v>0</v>
+      </c>
+      <c r="V327" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W327" s="5">
+        <v>0</v>
+      </c>
+      <c r="X327" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y327" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z327" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA327" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB327" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC327" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD327" s="7">
+        <v>-413294425</v>
+      </c>
+      <c r="AE327" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF327" s="7">
+        <v>413294425</v>
+      </c>
     </row>
     <row r="328" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
+      <c r="A328" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C328" s="2"/>
-      <c r="D328" s="2"/>
-      <c r="E328" s="2"/>
-      <c r="F328" s="2"/>
-      <c r="G328" s="2"/>
-      <c r="H328" s="2"/>
-      <c r="I328" s="2"/>
-      <c r="J328" s="2"/>
-      <c r="K328" s="2"/>
-      <c r="L328" s="2"/>
-      <c r="M328" s="2"/>
-      <c r="N328" s="2"/>
-      <c r="O328" s="2"/>
-      <c r="P328" s="2"/>
-      <c r="Q328" s="2"/>
-      <c r="R328" s="2"/>
-      <c r="S328" s="2"/>
+      <c r="D328" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E328" s="5">
+        <v>0</v>
+      </c>
+      <c r="F328" s="6">
+        <v>5500</v>
+      </c>
+      <c r="G328" s="5">
+        <v>191.75399999999999</v>
+      </c>
+      <c r="H328" s="6">
+        <v>1054647.55</v>
+      </c>
+      <c r="I328" s="5">
+        <v>180.34</v>
+      </c>
+      <c r="J328" s="6">
+        <v>991870</v>
+      </c>
+      <c r="K328" s="6">
+        <v>-62777.55</v>
+      </c>
+      <c r="L328" s="7">
+        <v>-59529902</v>
+      </c>
+      <c r="M328" s="5">
+        <v>0</v>
+      </c>
+      <c r="N328" s="5">
+        <v>0</v>
+      </c>
+      <c r="O328" s="5">
+        <v>0</v>
+      </c>
+      <c r="P328" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q328" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R328" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S328" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="T328" s="2"/>
-      <c r="U328" s="2"/>
-      <c r="V328" s="2"/>
-      <c r="W328" s="2"/>
-      <c r="X328" s="2"/>
-      <c r="Y328" s="2"/>
-      <c r="Z328" s="2"/>
-      <c r="AA328" s="2"/>
-      <c r="AB328" s="2"/>
-      <c r="AC328" s="2"/>
-      <c r="AD328" s="2"/>
-      <c r="AE328" s="2"/>
-      <c r="AF328" s="2"/>
+      <c r="U328" s="5">
+        <v>0</v>
+      </c>
+      <c r="V328" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W328" s="6">
+        <v>1426.99</v>
+      </c>
+      <c r="X328" s="7">
+        <v>1504982053</v>
+      </c>
+      <c r="Y328" s="6">
+        <v>1457.3</v>
+      </c>
+      <c r="Z328" s="7">
+        <v>1445452151</v>
+      </c>
+      <c r="AA328" s="7">
+        <v>-91485723</v>
+      </c>
+      <c r="AB328" s="7">
+        <v>31955821</v>
+      </c>
+      <c r="AC328" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD328" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE328" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF328" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="329" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="2"/>
-      <c r="B329" s="2"/>
+      <c r="A329" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="C329" s="2"/>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2"/>
-      <c r="F329" s="2"/>
-      <c r="G329" s="2"/>
-      <c r="H329" s="2"/>
-      <c r="I329" s="2"/>
-      <c r="J329" s="2"/>
-      <c r="K329" s="2"/>
-      <c r="L329" s="2"/>
-      <c r="M329" s="2"/>
-      <c r="N329" s="2"/>
-      <c r="O329" s="2"/>
-      <c r="P329" s="2"/>
-      <c r="Q329" s="2"/>
-      <c r="R329" s="2"/>
-      <c r="S329" s="2"/>
+      <c r="D329" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E329" s="5">
+        <v>0</v>
+      </c>
+      <c r="F329" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G329" s="5">
+        <v>44.158999999999999</v>
+      </c>
+      <c r="H329" s="6">
+        <v>441591</v>
+      </c>
+      <c r="I329" s="5">
+        <v>45.26</v>
+      </c>
+      <c r="J329" s="6">
+        <v>452600</v>
+      </c>
+      <c r="K329" s="6">
+        <v>11009</v>
+      </c>
+      <c r="L329" s="7">
+        <v>11141756</v>
+      </c>
+      <c r="M329" s="5">
+        <v>0</v>
+      </c>
+      <c r="N329" s="5">
+        <v>0</v>
+      </c>
+      <c r="O329" s="5">
+        <v>0</v>
+      </c>
+      <c r="P329" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q329" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R329" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S329" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="T329" s="2"/>
-      <c r="U329" s="2"/>
-      <c r="V329" s="2"/>
-      <c r="W329" s="2"/>
-      <c r="X329" s="2"/>
-      <c r="Y329" s="2"/>
-      <c r="Z329" s="2"/>
-      <c r="AA329" s="2"/>
-      <c r="AB329" s="2"/>
-      <c r="AC329" s="2"/>
-      <c r="AD329" s="2"/>
-      <c r="AE329" s="2"/>
-      <c r="AF329" s="2"/>
+      <c r="U329" s="5">
+        <v>0</v>
+      </c>
+      <c r="V329" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W329" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X329" s="7">
+        <v>648432224</v>
+      </c>
+      <c r="Y329" s="6">
+        <v>1457.3</v>
+      </c>
+      <c r="Z329" s="7">
+        <v>659573980</v>
+      </c>
+      <c r="AA329" s="7">
+        <v>16043415</v>
+      </c>
+      <c r="AB329" s="7">
+        <v>-4901660</v>
+      </c>
+      <c r="AC329" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD329" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE329" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF329" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="330" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
+      <c r="A330" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C330" s="2"/>
-      <c r="D330" s="2"/>
-      <c r="E330" s="2"/>
-      <c r="F330" s="2"/>
-      <c r="G330" s="2"/>
-      <c r="H330" s="2"/>
-      <c r="I330" s="2"/>
-      <c r="J330" s="2"/>
-      <c r="K330" s="2"/>
-      <c r="L330" s="2"/>
-      <c r="M330" s="2"/>
-      <c r="N330" s="2"/>
-      <c r="O330" s="2"/>
-      <c r="P330" s="2"/>
-      <c r="Q330" s="2"/>
-      <c r="R330" s="2"/>
-      <c r="S330" s="2"/>
+      <c r="D330" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E330" s="5">
+        <v>0</v>
+      </c>
+      <c r="F330" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G330" s="5">
+        <v>681.92</v>
+      </c>
+      <c r="H330" s="6">
+        <v>681920</v>
+      </c>
+      <c r="I330" s="5">
+        <v>689.53</v>
+      </c>
+      <c r="J330" s="6">
+        <v>689530</v>
+      </c>
+      <c r="K330" s="6">
+        <v>7610</v>
+      </c>
+      <c r="L330" s="7">
+        <v>26365061</v>
+      </c>
+      <c r="M330" s="5">
+        <v>0</v>
+      </c>
+      <c r="N330" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="O330" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="P330" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q330" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R330" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S330" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T330" s="2"/>
-      <c r="U330" s="2"/>
-      <c r="V330" s="2"/>
-      <c r="W330" s="2"/>
-      <c r="X330" s="2"/>
-      <c r="Y330" s="2"/>
-      <c r="Z330" s="2"/>
-      <c r="AA330" s="2"/>
-      <c r="AB330" s="2"/>
-      <c r="AC330" s="2"/>
-      <c r="AD330" s="2"/>
-      <c r="AE330" s="2"/>
-      <c r="AF330" s="2"/>
+      <c r="U330" s="5">
+        <v>0</v>
+      </c>
+      <c r="V330" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W330" s="6">
+        <v>1434.9</v>
+      </c>
+      <c r="X330" s="7">
+        <v>978487008</v>
+      </c>
+      <c r="Y330" s="6">
+        <v>1457.3</v>
+      </c>
+      <c r="Z330" s="7">
+        <v>1004852069</v>
+      </c>
+      <c r="AA330" s="7">
+        <v>11090053</v>
+      </c>
+      <c r="AB330" s="7">
+        <v>15275008</v>
+      </c>
+      <c r="AC330" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD330" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AE330" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AF330" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="331" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
+      <c r="A331" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C331" s="2"/>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2"/>
-      <c r="F331" s="2"/>
-      <c r="G331" s="2"/>
-      <c r="H331" s="2"/>
-      <c r="I331" s="2"/>
-      <c r="J331" s="2"/>
-      <c r="K331" s="2"/>
-      <c r="L331" s="2"/>
-      <c r="M331" s="2"/>
-      <c r="N331" s="2"/>
-      <c r="O331" s="2"/>
-      <c r="P331" s="2"/>
-      <c r="Q331" s="2"/>
-      <c r="R331" s="2"/>
-      <c r="S331" s="2"/>
+      <c r="D331" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E331" s="5">
+        <v>0</v>
+      </c>
+      <c r="F331" s="6">
+        <v>4200</v>
+      </c>
+      <c r="G331" s="5">
+        <v>396.31</v>
+      </c>
+      <c r="H331" s="6">
+        <v>1664502</v>
+      </c>
+      <c r="I331" s="5">
+        <v>454.29</v>
+      </c>
+      <c r="J331" s="6">
+        <v>1908018</v>
+      </c>
+      <c r="K331" s="6">
+        <v>243516</v>
+      </c>
+      <c r="L331" s="7">
+        <v>392160712</v>
+      </c>
+      <c r="M331" s="5">
+        <v>0</v>
+      </c>
+      <c r="N331" s="5">
+        <v>0</v>
+      </c>
+      <c r="O331" s="5">
+        <v>0</v>
+      </c>
+      <c r="P331" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q331" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R331" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S331" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="T331" s="2"/>
-      <c r="U331" s="2"/>
-      <c r="V331" s="2"/>
-      <c r="W331" s="2"/>
-      <c r="X331" s="2"/>
-      <c r="Y331" s="2"/>
-      <c r="Z331" s="2"/>
-      <c r="AA331" s="2"/>
-      <c r="AB331" s="2"/>
-      <c r="AC331" s="2"/>
-      <c r="AD331" s="2"/>
-      <c r="AE331" s="2"/>
-      <c r="AF331" s="2"/>
+      <c r="U331" s="5">
+        <v>0</v>
+      </c>
+      <c r="V331" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W331" s="6">
+        <v>1434.89</v>
+      </c>
+      <c r="X331" s="7">
+        <v>2388393919</v>
+      </c>
+      <c r="Y331" s="6">
+        <v>1457.3</v>
+      </c>
+      <c r="Z331" s="7">
+        <v>2780554631</v>
+      </c>
+      <c r="AA331" s="7">
+        <v>354875866</v>
+      </c>
+      <c r="AB331" s="7">
+        <v>37284845</v>
+      </c>
+      <c r="AC331" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD331" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE331" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF331" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="332" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A332" s="2"/>
-      <c r="B332" s="2"/>
+      <c r="A332" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C332" s="2"/>
-      <c r="D332" s="2"/>
-      <c r="E332" s="2"/>
-      <c r="F332" s="2"/>
-      <c r="G332" s="2"/>
-      <c r="H332" s="2"/>
-      <c r="I332" s="2"/>
-      <c r="J332" s="2"/>
-      <c r="K332" s="2"/>
-      <c r="L332" s="2"/>
-      <c r="M332" s="2"/>
-      <c r="N332" s="2"/>
-      <c r="O332" s="2"/>
-      <c r="P332" s="2"/>
-      <c r="Q332" s="2"/>
-      <c r="R332" s="2"/>
-      <c r="S332" s="2"/>
+      <c r="D332" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E332" s="5">
+        <v>0</v>
+      </c>
+      <c r="F332" s="6">
+        <v>24000</v>
+      </c>
+      <c r="G332" s="5">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H332" s="6">
+        <v>423736.8</v>
+      </c>
+      <c r="I332" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J332" s="6">
+        <v>393600</v>
+      </c>
+      <c r="K332" s="6">
+        <v>-30136.799999999999</v>
+      </c>
+      <c r="L332" s="7">
+        <v>-46799768</v>
+      </c>
+      <c r="M332" s="5">
+        <v>0</v>
+      </c>
+      <c r="N332" s="5">
+        <v>0</v>
+      </c>
+      <c r="O332" s="5">
+        <v>0</v>
+      </c>
+      <c r="P332" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q332" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R332" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S332" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="T332" s="2"/>
-      <c r="U332" s="2"/>
-      <c r="V332" s="2"/>
-      <c r="W332" s="2"/>
-      <c r="X332" s="2"/>
-      <c r="Y332" s="2"/>
-      <c r="Z332" s="2"/>
-      <c r="AA332" s="2"/>
-      <c r="AB332" s="2"/>
-      <c r="AC332" s="2"/>
-      <c r="AD332" s="2"/>
-      <c r="AE332" s="2"/>
-      <c r="AF332" s="2"/>
+      <c r="U332" s="5">
+        <v>0</v>
+      </c>
+      <c r="V332" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W332" s="6">
+        <v>1464.09</v>
+      </c>
+      <c r="X332" s="7">
+        <v>620393048</v>
+      </c>
+      <c r="Y332" s="6">
+        <v>1457.3</v>
+      </c>
+      <c r="Z332" s="7">
+        <v>573593280</v>
+      </c>
+      <c r="AA332" s="7">
+        <v>-43918358</v>
+      </c>
+      <c r="AB332" s="7">
+        <v>-2881410</v>
+      </c>
+      <c r="AC332" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD332" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE332" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF332" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="333" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="2"/>
-      <c r="B333" s="2"/>
+      <c r="A333" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="C333" s="2"/>
-      <c r="D333" s="2"/>
-      <c r="E333" s="2"/>
-      <c r="F333" s="2"/>
-      <c r="G333" s="2"/>
-      <c r="H333" s="2"/>
-      <c r="I333" s="2"/>
-      <c r="J333" s="2"/>
-      <c r="K333" s="2"/>
-      <c r="L333" s="2"/>
-      <c r="M333" s="2"/>
-      <c r="N333" s="2"/>
-      <c r="O333" s="2"/>
-      <c r="P333" s="2"/>
-      <c r="Q333" s="2"/>
-      <c r="R333" s="2"/>
-      <c r="S333" s="2"/>
+      <c r="D333" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E333" s="5">
+        <v>0</v>
+      </c>
+      <c r="F333" s="6">
+        <v>1400</v>
+      </c>
+      <c r="G333" s="5">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H333" s="6">
+        <v>605554.04</v>
+      </c>
+      <c r="I333" s="5">
+        <v>421.96</v>
+      </c>
+      <c r="J333" s="6">
+        <v>590744</v>
+      </c>
+      <c r="K333" s="6">
+        <v>-14810.04</v>
+      </c>
+      <c r="L333" s="7">
+        <v>-15224354</v>
+      </c>
+      <c r="M333" s="5">
+        <v>0</v>
+      </c>
+      <c r="N333" s="5">
+        <v>0</v>
+      </c>
+      <c r="O333" s="5">
+        <v>0</v>
+      </c>
+      <c r="P333" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q333" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R333" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S333" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="T333" s="2"/>
-      <c r="U333" s="2"/>
-      <c r="V333" s="2"/>
-      <c r="W333" s="2"/>
-      <c r="X333" s="2"/>
-      <c r="Y333" s="2"/>
-      <c r="Z333" s="2"/>
-      <c r="AA333" s="2"/>
-      <c r="AB333" s="2"/>
-      <c r="AC333" s="2"/>
-      <c r="AD333" s="2"/>
-      <c r="AE333" s="2"/>
-      <c r="AF333" s="2"/>
+      <c r="U333" s="5">
+        <v>0</v>
+      </c>
+      <c r="V333" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W333" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X333" s="7">
+        <v>876115585</v>
+      </c>
+      <c r="Y333" s="6">
+        <v>1457.3</v>
+      </c>
+      <c r="Z333" s="7">
+        <v>860891231</v>
+      </c>
+      <c r="AA333" s="7">
+        <v>-21582671</v>
+      </c>
+      <c r="AB333" s="7">
+        <v>6358317</v>
+      </c>
+      <c r="AC333" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD333" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE333" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF333" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="334" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A334" s="2"/>
-      <c r="B334" s="2"/>
+      <c r="A334" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C334" s="2"/>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2"/>
-      <c r="F334" s="2"/>
-      <c r="G334" s="2"/>
-      <c r="H334" s="2"/>
-      <c r="I334" s="2"/>
-      <c r="J334" s="2"/>
-      <c r="K334" s="2"/>
-      <c r="L334" s="2"/>
-      <c r="M334" s="2"/>
-      <c r="N334" s="2"/>
-      <c r="O334" s="2"/>
-      <c r="P334" s="2"/>
-      <c r="Q334" s="2"/>
-      <c r="R334" s="2"/>
-      <c r="S334" s="2"/>
+      <c r="D334" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E334" s="5">
+        <v>0</v>
+      </c>
+      <c r="F334" s="6">
+        <v>3500</v>
+      </c>
+      <c r="G334" s="5">
+        <v>169.042</v>
+      </c>
+      <c r="H334" s="6">
+        <v>591649.80000000005</v>
+      </c>
+      <c r="I334" s="5">
+        <v>153</v>
+      </c>
+      <c r="J334" s="6">
+        <v>535500</v>
+      </c>
+      <c r="K334" s="6">
+        <v>-56149.8</v>
+      </c>
+      <c r="L334" s="7">
+        <v>-75614780</v>
+      </c>
+      <c r="M334" s="5">
+        <v>0</v>
+      </c>
+      <c r="N334" s="5">
+        <v>0</v>
+      </c>
+      <c r="O334" s="5">
+        <v>0</v>
+      </c>
+      <c r="P334" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q334" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R334" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S334" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="T334" s="2"/>
-      <c r="U334" s="2"/>
-      <c r="V334" s="2"/>
-      <c r="W334" s="2"/>
-      <c r="X334" s="2"/>
-      <c r="Y334" s="2"/>
-      <c r="Z334" s="2"/>
-      <c r="AA334" s="2"/>
-      <c r="AB334" s="2"/>
-      <c r="AC334" s="2"/>
-      <c r="AD334" s="2"/>
-      <c r="AE334" s="2"/>
-      <c r="AF334" s="2"/>
-    </row>
-    <row r="335" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
+      <c r="U334" s="5">
+        <v>0</v>
+      </c>
+      <c r="V334" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W334" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X334" s="7">
+        <v>855998930</v>
+      </c>
+      <c r="Y334" s="6">
+        <v>1457.3</v>
+      </c>
+      <c r="Z334" s="7">
+        <v>780384150</v>
+      </c>
+      <c r="AA334" s="7">
+        <v>-81827103</v>
+      </c>
+      <c r="AB334" s="7">
+        <v>6212323</v>
+      </c>
+      <c r="AC334" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD334" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE334" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF334" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C335" s="2"/>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2"/>
-      <c r="F335" s="2"/>
-      <c r="G335" s="2"/>
-      <c r="H335" s="2"/>
-      <c r="I335" s="2"/>
-      <c r="J335" s="2"/>
-      <c r="K335" s="2"/>
-      <c r="L335" s="2"/>
-      <c r="M335" s="2"/>
-      <c r="N335" s="2"/>
-      <c r="O335" s="2"/>
-      <c r="P335" s="2"/>
-      <c r="Q335" s="2"/>
-      <c r="R335" s="2"/>
-      <c r="S335" s="2"/>
+      <c r="D335" s="5">
+        <v>6869</v>
+      </c>
+      <c r="E335" s="5">
+        <v>0</v>
+      </c>
+      <c r="F335" s="5">
+        <v>0</v>
+      </c>
+      <c r="G335" s="5">
+        <v>0</v>
+      </c>
+      <c r="H335" s="5">
+        <v>0</v>
+      </c>
+      <c r="I335" s="5">
+        <v>92.55</v>
+      </c>
+      <c r="J335" s="5">
+        <v>0</v>
+      </c>
+      <c r="K335" s="5">
+        <v>0</v>
+      </c>
+      <c r="L335" s="5">
+        <v>0</v>
+      </c>
+      <c r="M335" s="5">
+        <v>0</v>
+      </c>
+      <c r="N335" s="6">
+        <v>349976</v>
+      </c>
+      <c r="O335" s="6">
+        <v>349976</v>
+      </c>
+      <c r="P335" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q335" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R335" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S335" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="T335" s="2"/>
-      <c r="U335" s="2"/>
-      <c r="V335" s="2"/>
-      <c r="W335" s="2"/>
-      <c r="X335" s="2"/>
-      <c r="Y335" s="2"/>
-      <c r="Z335" s="2"/>
-      <c r="AA335" s="2"/>
-      <c r="AB335" s="2"/>
-      <c r="AC335" s="2"/>
-      <c r="AD335" s="2"/>
-      <c r="AE335" s="2"/>
-      <c r="AF335" s="2"/>
-    </row>
-    <row r="336" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
+      <c r="U335" s="5">
+        <v>0</v>
+      </c>
+      <c r="V335" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W335" s="5">
+        <v>0</v>
+      </c>
+      <c r="X335" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y335" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z335" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA335" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB335" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC335" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD335" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AE335" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AF335" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
-      <c r="E336" s="2"/>
-      <c r="F336" s="2"/>
-      <c r="G336" s="2"/>
-      <c r="H336" s="2"/>
-      <c r="I336" s="2"/>
-      <c r="J336" s="2"/>
-      <c r="K336" s="2"/>
-      <c r="L336" s="2"/>
-      <c r="M336" s="2"/>
-      <c r="N336" s="2"/>
-      <c r="O336" s="2"/>
-      <c r="P336" s="2"/>
-      <c r="Q336" s="2"/>
-      <c r="R336" s="2"/>
-      <c r="S336" s="2"/>
+      <c r="D336" s="5">
+        <v>2359</v>
+      </c>
+      <c r="E336" s="5">
+        <v>0</v>
+      </c>
+      <c r="F336" s="6">
+        <v>25000</v>
+      </c>
+      <c r="G336" s="5">
+        <v>118.559</v>
+      </c>
+      <c r="H336" s="6">
+        <v>2963990</v>
+      </c>
+      <c r="I336" s="5">
+        <v>110.2</v>
+      </c>
+      <c r="J336" s="6">
+        <v>2755000</v>
+      </c>
+      <c r="K336" s="6">
+        <v>-208990</v>
+      </c>
+      <c r="L336" s="7">
+        <v>-49133250</v>
+      </c>
+      <c r="M336" s="5">
+        <v>0</v>
+      </c>
+      <c r="N336" s="5">
+        <v>0</v>
+      </c>
+      <c r="O336" s="5">
+        <v>0</v>
+      </c>
+      <c r="P336" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q336" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R336" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S336" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T336" s="2"/>
-      <c r="U336" s="2"/>
-      <c r="V336" s="2"/>
-      <c r="W336" s="2"/>
-      <c r="X336" s="2"/>
-      <c r="Y336" s="2"/>
-      <c r="Z336" s="2"/>
-      <c r="AA336" s="2"/>
-      <c r="AB336" s="2"/>
-      <c r="AC336" s="2"/>
-      <c r="AD336" s="2"/>
-      <c r="AE336" s="2"/>
-      <c r="AF336" s="2"/>
-    </row>
-    <row r="337" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
+      <c r="U336" s="5">
+        <v>0</v>
+      </c>
+      <c r="V336" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W336" s="5">
+        <v>188.95</v>
+      </c>
+      <c r="X336" s="7">
+        <v>560075550</v>
+      </c>
+      <c r="Y336" s="5">
+        <v>185.46</v>
+      </c>
+      <c r="Z336" s="7">
+        <v>510942300</v>
+      </c>
+      <c r="AA336" s="7">
+        <v>-38759285</v>
+      </c>
+      <c r="AB336" s="7">
+        <v>-10373965</v>
+      </c>
+      <c r="AC336" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD336" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE336" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF336" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C337" s="2"/>
-      <c r="D337" s="2"/>
-      <c r="E337" s="2"/>
-      <c r="F337" s="2"/>
-      <c r="G337" s="2"/>
-      <c r="H337" s="2"/>
-      <c r="I337" s="2"/>
-      <c r="J337" s="2"/>
-      <c r="K337" s="2"/>
-      <c r="L337" s="2"/>
-      <c r="M337" s="2"/>
-      <c r="N337" s="2"/>
-      <c r="O337" s="2"/>
-      <c r="P337" s="2"/>
-      <c r="Q337" s="2"/>
-      <c r="R337" s="2"/>
-      <c r="S337" s="2"/>
+      <c r="D337" s="5">
+        <v>6680</v>
+      </c>
+      <c r="E337" s="5">
+        <v>0</v>
+      </c>
+      <c r="F337" s="6">
+        <v>130000</v>
+      </c>
+      <c r="G337" s="5">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H337" s="6">
+        <v>2921022</v>
+      </c>
+      <c r="I337" s="5">
+        <v>21.32</v>
+      </c>
+      <c r="J337" s="6">
+        <v>2771600</v>
+      </c>
+      <c r="K337" s="6">
+        <v>-149422</v>
+      </c>
+      <c r="L337" s="7">
+        <v>-37730909</v>
+      </c>
+      <c r="M337" s="5">
+        <v>0</v>
+      </c>
+      <c r="N337" s="5">
+        <v>0</v>
+      </c>
+      <c r="O337" s="5">
+        <v>0</v>
+      </c>
+      <c r="P337" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q337" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R337" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S337" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="T337" s="2"/>
-      <c r="U337" s="2"/>
-      <c r="V337" s="2"/>
-      <c r="W337" s="2"/>
-      <c r="X337" s="2"/>
-      <c r="Y337" s="2"/>
-      <c r="Z337" s="2"/>
-      <c r="AA337" s="2"/>
-      <c r="AB337" s="2"/>
-      <c r="AC337" s="2"/>
-      <c r="AD337" s="2"/>
-      <c r="AE337" s="2"/>
-      <c r="AF337" s="2"/>
-    </row>
-    <row r="338" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
+      <c r="U337" s="5">
+        <v>0</v>
+      </c>
+      <c r="V337" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W337" s="5">
+        <v>188.88</v>
+      </c>
+      <c r="X337" s="7">
+        <v>551751845</v>
+      </c>
+      <c r="Y337" s="5">
+        <v>185.46</v>
+      </c>
+      <c r="Z337" s="7">
+        <v>514020936</v>
+      </c>
+      <c r="AA337" s="7">
+        <v>-27711804</v>
+      </c>
+      <c r="AB337" s="7">
+        <v>-10019105</v>
+      </c>
+      <c r="AC337" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD337" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE337" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF337" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C338" s="2"/>
-      <c r="D338" s="2"/>
-      <c r="E338" s="2"/>
-      <c r="F338" s="2"/>
-      <c r="G338" s="2"/>
-      <c r="H338" s="2"/>
-      <c r="I338" s="2"/>
-      <c r="J338" s="2"/>
-      <c r="K338" s="2"/>
-      <c r="L338" s="2"/>
-      <c r="M338" s="2"/>
-      <c r="N338" s="2"/>
-      <c r="O338" s="2"/>
-      <c r="P338" s="2"/>
-      <c r="Q338" s="2"/>
-      <c r="R338" s="2"/>
-      <c r="S338" s="2"/>
+      <c r="D338" s="5">
+        <v>6181</v>
+      </c>
+      <c r="E338" s="5">
+        <v>0</v>
+      </c>
+      <c r="F338" s="5">
+        <v>0</v>
+      </c>
+      <c r="G338" s="5">
+        <v>0</v>
+      </c>
+      <c r="H338" s="5">
+        <v>0</v>
+      </c>
+      <c r="I338" s="5">
+        <v>741</v>
+      </c>
+      <c r="J338" s="5">
+        <v>0</v>
+      </c>
+      <c r="K338" s="5">
+        <v>0</v>
+      </c>
+      <c r="L338" s="5">
+        <v>0</v>
+      </c>
+      <c r="M338" s="5">
+        <v>0</v>
+      </c>
+      <c r="N338" s="6">
+        <v>-6374.88</v>
+      </c>
+      <c r="O338" s="5">
+        <v>0</v>
+      </c>
+      <c r="P338" s="6">
+        <v>6374.88</v>
+      </c>
+      <c r="Q338" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R338" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S338" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="T338" s="2"/>
-      <c r="U338" s="2"/>
-      <c r="V338" s="2"/>
-      <c r="W338" s="2"/>
-      <c r="X338" s="2"/>
-      <c r="Y338" s="2"/>
-      <c r="Z338" s="2"/>
-      <c r="AA338" s="2"/>
-      <c r="AB338" s="2"/>
-      <c r="AC338" s="2"/>
-      <c r="AD338" s="2"/>
-      <c r="AE338" s="2"/>
-      <c r="AF338" s="2"/>
-    </row>
-    <row r="339" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
+      <c r="U338" s="5">
+        <v>0</v>
+      </c>
+      <c r="V338" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W338" s="5">
+        <v>0</v>
+      </c>
+      <c r="X338" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y338" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z338" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA338" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB338" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC338" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD338" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AE338" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AF338" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C339" s="2"/>
-      <c r="D339" s="2"/>
-      <c r="E339" s="2"/>
-      <c r="F339" s="2"/>
-      <c r="G339" s="2"/>
-      <c r="H339" s="2"/>
-      <c r="I339" s="2"/>
-      <c r="J339" s="2"/>
-      <c r="K339" s="2"/>
-      <c r="L339" s="2"/>
-      <c r="M339" s="2"/>
-      <c r="N339" s="2"/>
-      <c r="O339" s="2"/>
-      <c r="P339" s="2"/>
-      <c r="Q339" s="2"/>
-      <c r="R339" s="2"/>
-      <c r="S339" s="2"/>
+      <c r="D339" s="5">
+        <v>6082</v>
+      </c>
+      <c r="E339" s="5">
+        <v>0</v>
+      </c>
+      <c r="F339" s="5">
+        <v>0</v>
+      </c>
+      <c r="G339" s="5">
+        <v>0</v>
+      </c>
+      <c r="H339" s="5">
+        <v>0</v>
+      </c>
+      <c r="I339" s="5">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="J339" s="5">
+        <v>0</v>
+      </c>
+      <c r="K339" s="5">
+        <v>0</v>
+      </c>
+      <c r="L339" s="5">
+        <v>0</v>
+      </c>
+      <c r="M339" s="5">
+        <v>0</v>
+      </c>
+      <c r="N339" s="6">
+        <v>205980</v>
+      </c>
+      <c r="O339" s="6">
+        <v>205980</v>
+      </c>
+      <c r="P339" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q339" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R339" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S339" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="T339" s="2"/>
-      <c r="U339" s="2"/>
-      <c r="V339" s="2"/>
-      <c r="W339" s="2"/>
-      <c r="X339" s="2"/>
-      <c r="Y339" s="2"/>
-      <c r="Z339" s="2"/>
-      <c r="AA339" s="2"/>
-      <c r="AB339" s="2"/>
-      <c r="AC339" s="2"/>
-      <c r="AD339" s="2"/>
-      <c r="AE339" s="2"/>
-      <c r="AF339" s="2"/>
-    </row>
-    <row r="340" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
+      <c r="U339" s="5">
+        <v>0</v>
+      </c>
+      <c r="V339" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W339" s="5">
+        <v>0</v>
+      </c>
+      <c r="X339" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y339" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z339" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA339" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB339" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC339" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD339" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AE339" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AF339" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="C340" s="2"/>
-      <c r="D340" s="2"/>
-      <c r="E340" s="2"/>
-      <c r="F340" s="2"/>
-      <c r="G340" s="2"/>
-      <c r="H340" s="2"/>
-      <c r="I340" s="2"/>
-      <c r="J340" s="2"/>
-      <c r="K340" s="2"/>
-      <c r="L340" s="2"/>
-      <c r="M340" s="2"/>
-      <c r="N340" s="2"/>
-      <c r="O340" s="2"/>
-      <c r="P340" s="2"/>
-      <c r="Q340" s="2"/>
-      <c r="R340" s="2"/>
-      <c r="S340" s="2"/>
+      <c r="D340" s="5">
+        <v>3033</v>
+      </c>
+      <c r="E340" s="5">
+        <v>0</v>
+      </c>
+      <c r="F340" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G340" s="5">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="H340" s="6">
+        <v>5713300</v>
+      </c>
+      <c r="I340" s="5">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="J340" s="6">
+        <v>5285000</v>
+      </c>
+      <c r="K340" s="6">
+        <v>-428300</v>
+      </c>
+      <c r="L340" s="7">
+        <v>-66006263</v>
+      </c>
+      <c r="M340" s="5">
+        <v>0</v>
+      </c>
+      <c r="N340" s="5">
+        <v>0</v>
+      </c>
+      <c r="O340" s="5">
+        <v>0</v>
+      </c>
+      <c r="P340" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q340" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R340" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S340" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T340" s="2"/>
-      <c r="U340" s="2"/>
-      <c r="V340" s="2"/>
-      <c r="W340" s="2"/>
-      <c r="X340" s="2"/>
-      <c r="Y340" s="2"/>
-      <c r="Z340" s="2"/>
-      <c r="AA340" s="2"/>
-      <c r="AB340" s="2"/>
-      <c r="AC340" s="2"/>
-      <c r="AD340" s="2"/>
-      <c r="AE340" s="2"/>
-      <c r="AF340" s="2"/>
-    </row>
-    <row r="341" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
+      <c r="U340" s="5">
+        <v>0</v>
+      </c>
+      <c r="V340" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W340" s="5">
+        <v>183.11</v>
+      </c>
+      <c r="X340" s="7">
+        <v>1046162363</v>
+      </c>
+      <c r="Y340" s="5">
+        <v>185.46</v>
+      </c>
+      <c r="Z340" s="7">
+        <v>980156100</v>
+      </c>
+      <c r="AA340" s="7">
+        <v>-79432518</v>
+      </c>
+      <c r="AB340" s="7">
+        <v>13426255</v>
+      </c>
+      <c r="AC340" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD340" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE340" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF340" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
-      <c r="E341" s="2"/>
-      <c r="F341" s="2"/>
-      <c r="G341" s="2"/>
-      <c r="H341" s="2"/>
-      <c r="I341" s="2"/>
-      <c r="J341" s="2"/>
-      <c r="K341" s="2"/>
-      <c r="L341" s="2"/>
-      <c r="M341" s="2"/>
-      <c r="N341" s="2"/>
-      <c r="O341" s="2"/>
-      <c r="P341" s="2"/>
-      <c r="Q341" s="2"/>
-      <c r="R341" s="2"/>
-      <c r="S341" s="2"/>
+      <c r="D341" s="5">
+        <v>9988</v>
+      </c>
+      <c r="E341" s="5">
+        <v>0</v>
+      </c>
+      <c r="F341" s="6">
+        <v>70500</v>
+      </c>
+      <c r="G341" s="5">
+        <v>147.79</v>
+      </c>
+      <c r="H341" s="6">
+        <v>10419200</v>
+      </c>
+      <c r="I341" s="5">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="J341" s="6">
+        <v>11265900</v>
+      </c>
+      <c r="K341" s="6">
+        <v>846700</v>
+      </c>
+      <c r="L341" s="7">
+        <v>154575214</v>
+      </c>
+      <c r="M341" s="5">
+        <v>0</v>
+      </c>
+      <c r="N341" s="5">
+        <v>0</v>
+      </c>
+      <c r="O341" s="5">
+        <v>0</v>
+      </c>
+      <c r="P341" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R341" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S341" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="T341" s="2"/>
-      <c r="U341" s="2"/>
-      <c r="V341" s="2"/>
-      <c r="W341" s="2"/>
-      <c r="X341" s="2"/>
-      <c r="Y341" s="2"/>
-      <c r="Z341" s="2"/>
-      <c r="AA341" s="2"/>
-      <c r="AB341" s="2"/>
-      <c r="AC341" s="2"/>
-      <c r="AD341" s="2"/>
-      <c r="AE341" s="2"/>
-      <c r="AF341" s="2"/>
+      <c r="U341" s="5">
+        <v>0</v>
+      </c>
+      <c r="V341" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W341" s="5">
+        <v>185.69</v>
+      </c>
+      <c r="X341" s="7">
+        <v>1934798600</v>
+      </c>
+      <c r="Y341" s="5">
+        <v>185.46</v>
+      </c>
+      <c r="Z341" s="7">
+        <v>2089373814</v>
+      </c>
+      <c r="AA341" s="7">
+        <v>157028982</v>
+      </c>
+      <c r="AB341" s="7">
+        <v>-2453768</v>
+      </c>
+      <c r="AC341" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD341" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE341" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF341" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="342" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
+      <c r="A342" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
-      <c r="E342" s="2"/>
-      <c r="F342" s="2"/>
-      <c r="G342" s="2"/>
-      <c r="H342" s="2"/>
-      <c r="I342" s="2"/>
-      <c r="J342" s="2"/>
-      <c r="K342" s="2"/>
-      <c r="L342" s="2"/>
-      <c r="M342" s="2"/>
-      <c r="N342" s="2"/>
-      <c r="O342" s="2"/>
-      <c r="P342" s="2"/>
-      <c r="Q342" s="2"/>
-      <c r="R342" s="2"/>
-      <c r="S342" s="2"/>
+      <c r="D342" s="5">
+        <v>6861</v>
+      </c>
+      <c r="E342" s="5">
+        <v>0</v>
+      </c>
+      <c r="F342" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G342" s="6">
+        <v>55916.79</v>
+      </c>
+      <c r="H342" s="6">
+        <v>106241900</v>
+      </c>
+      <c r="I342" s="6">
+        <v>54550</v>
+      </c>
+      <c r="J342" s="6">
+        <v>103645000</v>
+      </c>
+      <c r="K342" s="6">
+        <v>-2596900</v>
+      </c>
+      <c r="L342" s="7">
+        <v>-18068443</v>
+      </c>
+      <c r="M342" s="5">
+        <v>0</v>
+      </c>
+      <c r="N342" s="5">
+        <v>0</v>
+      </c>
+      <c r="O342" s="5">
+        <v>0</v>
+      </c>
+      <c r="P342" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q342" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R342" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S342" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="T342" s="2"/>
-      <c r="U342" s="2"/>
-      <c r="V342" s="2"/>
-      <c r="W342" s="2"/>
-      <c r="X342" s="2"/>
-      <c r="Y342" s="2"/>
-      <c r="Z342" s="2"/>
-      <c r="AA342" s="2"/>
-      <c r="AB342" s="2"/>
-      <c r="AC342" s="2"/>
-      <c r="AD342" s="2"/>
-      <c r="AE342" s="2"/>
-      <c r="AF342" s="2"/>
+      <c r="U342" s="5">
+        <v>0</v>
+      </c>
+      <c r="V342" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W342" s="5">
+        <v>924.45</v>
+      </c>
+      <c r="X342" s="7">
+        <v>982163868</v>
+      </c>
+      <c r="Y342" s="5">
+        <v>930.19</v>
+      </c>
+      <c r="Z342" s="7">
+        <v>964095425</v>
+      </c>
+      <c r="AA342" s="7">
+        <v>-24156104</v>
+      </c>
+      <c r="AB342" s="7">
+        <v>6087661</v>
+      </c>
+      <c r="AC342" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD342" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE342" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF342" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="343" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
+      <c r="A343" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C343" s="2"/>
-      <c r="D343" s="2"/>
-      <c r="E343" s="2"/>
-      <c r="F343" s="2"/>
-      <c r="G343" s="2"/>
-      <c r="H343" s="2"/>
-      <c r="I343" s="2"/>
-      <c r="J343" s="2"/>
-      <c r="K343" s="2"/>
-      <c r="L343" s="2"/>
-      <c r="M343" s="2"/>
-      <c r="N343" s="2"/>
-      <c r="O343" s="2"/>
-      <c r="P343" s="2"/>
-      <c r="Q343" s="2"/>
-      <c r="R343" s="2"/>
-      <c r="S343" s="2"/>
+      <c r="D343" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E343" s="5">
+        <v>0</v>
+      </c>
+      <c r="F343" s="6">
+        <v>4200</v>
+      </c>
+      <c r="G343" s="6">
+        <v>19129.990000000002</v>
+      </c>
+      <c r="H343" s="6">
+        <v>80345950</v>
+      </c>
+      <c r="I343" s="6">
+        <v>20900</v>
+      </c>
+      <c r="J343" s="6">
+        <v>87780000</v>
+      </c>
+      <c r="K343" s="6">
+        <v>7434050</v>
+      </c>
+      <c r="L343" s="7">
+        <v>74116170</v>
+      </c>
+      <c r="M343" s="5">
+        <v>0</v>
+      </c>
+      <c r="N343" s="6">
+        <v>4480700</v>
+      </c>
+      <c r="O343" s="6">
+        <v>4480700</v>
+      </c>
+      <c r="P343" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q343" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R343" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S343" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="T343" s="2"/>
-      <c r="U343" s="2"/>
-      <c r="V343" s="2"/>
-      <c r="W343" s="2"/>
-      <c r="X343" s="2"/>
-      <c r="Y343" s="2"/>
-      <c r="Z343" s="2"/>
-      <c r="AA343" s="2"/>
-      <c r="AB343" s="2"/>
-      <c r="AC343" s="2"/>
-      <c r="AD343" s="2"/>
-      <c r="AE343" s="2"/>
-      <c r="AF343" s="2"/>
+      <c r="U343" s="5">
+        <v>0</v>
+      </c>
+      <c r="V343" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W343" s="5">
+        <v>924</v>
+      </c>
+      <c r="X343" s="7">
+        <v>742404612</v>
+      </c>
+      <c r="Y343" s="5">
+        <v>930.19</v>
+      </c>
+      <c r="Z343" s="7">
+        <v>816520782</v>
+      </c>
+      <c r="AA343" s="7">
+        <v>69150789</v>
+      </c>
+      <c r="AB343" s="7">
+        <v>4965380</v>
+      </c>
+      <c r="AC343" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD343" s="7">
+        <v>37760160</v>
+      </c>
+      <c r="AE343" s="7">
+        <v>37760160</v>
+      </c>
+      <c r="AF343" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="344" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="2"/>
-      <c r="B344" s="2"/>
+      <c r="A344" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-      <c r="F344" s="2"/>
-      <c r="G344" s="2"/>
-      <c r="H344" s="2"/>
-      <c r="I344" s="2"/>
-      <c r="J344" s="2"/>
-      <c r="K344" s="2"/>
-      <c r="L344" s="2"/>
-      <c r="M344" s="2"/>
-      <c r="N344" s="2"/>
-      <c r="O344" s="2"/>
-      <c r="P344" s="2"/>
-      <c r="Q344" s="2"/>
-      <c r="R344" s="2"/>
-      <c r="S344" s="2"/>
+      <c r="D344" s="5">
+        <v>9984</v>
+      </c>
+      <c r="E344" s="5">
+        <v>0</v>
+      </c>
+      <c r="F344" s="6">
+        <v>23000</v>
+      </c>
+      <c r="G344" s="6">
+        <v>4066.73</v>
+      </c>
+      <c r="H344" s="6">
+        <v>93534900</v>
+      </c>
+      <c r="I344" s="6">
+        <v>4207</v>
+      </c>
+      <c r="J344" s="6">
+        <v>96761000</v>
+      </c>
+      <c r="K344" s="6">
+        <v>3226100</v>
+      </c>
+      <c r="L344" s="7">
+        <v>33441590</v>
+      </c>
+      <c r="M344" s="5">
+        <v>0</v>
+      </c>
+      <c r="N344" s="5">
+        <v>0</v>
+      </c>
+      <c r="O344" s="5">
+        <v>0</v>
+      </c>
+      <c r="P344" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q344" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R344" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S344" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T344" s="2"/>
-      <c r="U344" s="2"/>
-      <c r="V344" s="2"/>
-      <c r="W344" s="2"/>
-      <c r="X344" s="2"/>
-      <c r="Y344" s="2"/>
-      <c r="Z344" s="2"/>
-      <c r="AA344" s="2"/>
-      <c r="AB344" s="2"/>
-      <c r="AC344" s="2"/>
-      <c r="AD344" s="2"/>
-      <c r="AE344" s="2"/>
-      <c r="AF344" s="2"/>
+      <c r="U344" s="5">
+        <v>0</v>
+      </c>
+      <c r="V344" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W344" s="5">
+        <v>926.51</v>
+      </c>
+      <c r="X344" s="7">
+        <v>866619555</v>
+      </c>
+      <c r="Y344" s="5">
+        <v>930.19</v>
+      </c>
+      <c r="Z344" s="7">
+        <v>900061145</v>
+      </c>
+      <c r="AA344" s="7">
+        <v>30008859</v>
+      </c>
+      <c r="AB344" s="7">
+        <v>3432731</v>
+      </c>
+      <c r="AC344" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD344" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE344" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF344" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="345" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
+      <c r="A345" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
-      <c r="E345" s="2"/>
-      <c r="F345" s="2"/>
-      <c r="G345" s="2"/>
-      <c r="H345" s="2"/>
-      <c r="I345" s="2"/>
-      <c r="J345" s="2"/>
-      <c r="K345" s="2"/>
-      <c r="L345" s="2"/>
-      <c r="M345" s="2"/>
-      <c r="N345" s="2"/>
-      <c r="O345" s="2"/>
-      <c r="P345" s="2"/>
-      <c r="Q345" s="2"/>
-      <c r="R345" s="2"/>
-      <c r="S345" s="2"/>
+      <c r="D345" s="5">
+        <v>6954</v>
+      </c>
+      <c r="E345" s="5">
+        <v>0</v>
+      </c>
+      <c r="F345" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G345" s="6">
+        <v>6568.27</v>
+      </c>
+      <c r="H345" s="6">
+        <v>65682650</v>
+      </c>
+      <c r="I345" s="6">
+        <v>6690</v>
+      </c>
+      <c r="J345" s="6">
+        <v>66900000</v>
+      </c>
+      <c r="K345" s="6">
+        <v>1217350</v>
+      </c>
+      <c r="L345" s="7">
+        <v>13405808</v>
+      </c>
+      <c r="M345" s="5">
+        <v>0</v>
+      </c>
+      <c r="N345" s="5">
+        <v>0</v>
+      </c>
+      <c r="O345" s="5">
+        <v>0</v>
+      </c>
+      <c r="P345" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q345" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R345" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S345" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="T345" s="2"/>
-      <c r="U345" s="2"/>
-      <c r="V345" s="2"/>
-      <c r="W345" s="2"/>
-      <c r="X345" s="2"/>
-      <c r="Y345" s="2"/>
-      <c r="Z345" s="2"/>
-      <c r="AA345" s="2"/>
-      <c r="AB345" s="2"/>
-      <c r="AC345" s="2"/>
-      <c r="AD345" s="2"/>
-      <c r="AE345" s="2"/>
-      <c r="AF345" s="2"/>
+      <c r="U345" s="5">
+        <v>0</v>
+      </c>
+      <c r="V345" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W345" s="5">
+        <v>927.01</v>
+      </c>
+      <c r="X345" s="7">
+        <v>608891302</v>
+      </c>
+      <c r="Y345" s="5">
+        <v>930.19</v>
+      </c>
+      <c r="Z345" s="7">
+        <v>622297110</v>
+      </c>
+      <c r="AA345" s="7">
+        <v>11323667</v>
+      </c>
+      <c r="AB345" s="7">
+        <v>2082140</v>
+      </c>
+      <c r="AC345" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD345" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE345" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF345" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="346" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
+      <c r="A346" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
-      <c r="E346" s="2"/>
-      <c r="F346" s="2"/>
-      <c r="G346" s="2"/>
-      <c r="H346" s="2"/>
-      <c r="I346" s="2"/>
-      <c r="J346" s="2"/>
-      <c r="K346" s="2"/>
-      <c r="L346" s="2"/>
-      <c r="M346" s="2"/>
-      <c r="N346" s="2"/>
-      <c r="O346" s="2"/>
-      <c r="P346" s="2"/>
-      <c r="Q346" s="2"/>
-      <c r="R346" s="2"/>
-      <c r="S346" s="2"/>
+      <c r="D346" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E346" s="5">
+        <v>0</v>
+      </c>
+      <c r="F346" s="6">
+        <v>38000</v>
+      </c>
+      <c r="G346" s="5">
+        <v>12.58</v>
+      </c>
+      <c r="H346" s="6">
+        <v>478066.6</v>
+      </c>
+      <c r="I346" s="5">
+        <v>12.75</v>
+      </c>
+      <c r="J346" s="6">
+        <v>484500</v>
+      </c>
+      <c r="K346" s="6">
+        <v>6433.4</v>
+      </c>
+      <c r="L346" s="7">
+        <v>47505</v>
+      </c>
+      <c r="M346" s="5">
+        <v>0</v>
+      </c>
+      <c r="N346" s="5">
+        <v>0</v>
+      </c>
+      <c r="O346" s="5">
+        <v>0</v>
+      </c>
+      <c r="P346" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q346" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R346" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S346" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="T346" s="2"/>
-      <c r="U346" s="2"/>
-      <c r="V346" s="2"/>
-      <c r="W346" s="2"/>
-      <c r="X346" s="2"/>
-      <c r="Y346" s="2"/>
-      <c r="Z346" s="2"/>
-      <c r="AA346" s="2"/>
-      <c r="AB346" s="2"/>
-      <c r="AC346" s="2"/>
-      <c r="AD346" s="2"/>
-      <c r="AE346" s="2"/>
-      <c r="AF346" s="2"/>
+      <c r="U346" s="5">
+        <v>0</v>
+      </c>
+      <c r="V346" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W346" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X346" s="7">
+        <v>701992995</v>
+      </c>
+      <c r="Y346" s="6">
+        <v>1449</v>
+      </c>
+      <c r="Z346" s="7">
+        <v>702040500</v>
+      </c>
+      <c r="AA346" s="7">
+        <v>9321996</v>
+      </c>
+      <c r="AB346" s="7">
+        <v>-9274492</v>
+      </c>
+      <c r="AC346" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD346" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE346" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF346" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="347" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
+      <c r="A347" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C347" s="2"/>
-      <c r="D347" s="2"/>
-      <c r="E347" s="2"/>
-      <c r="F347" s="2"/>
-      <c r="G347" s="2"/>
-      <c r="H347" s="2"/>
-      <c r="I347" s="2"/>
-      <c r="J347" s="2"/>
-      <c r="K347" s="2"/>
-      <c r="L347" s="2"/>
-      <c r="M347" s="2"/>
-      <c r="N347" s="2"/>
-      <c r="O347" s="2"/>
-      <c r="P347" s="2"/>
-      <c r="Q347" s="2"/>
-      <c r="R347" s="2"/>
-      <c r="S347" s="2"/>
+      <c r="D347" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E347" s="5">
+        <v>0</v>
+      </c>
+      <c r="F347" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G347" s="5">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H347" s="6">
+        <v>482030</v>
+      </c>
+      <c r="I347" s="5">
+        <v>53.23</v>
+      </c>
+      <c r="J347" s="6">
+        <v>532300</v>
+      </c>
+      <c r="K347" s="6">
+        <v>50270</v>
+      </c>
+      <c r="L347" s="7">
+        <v>69611629</v>
+      </c>
+      <c r="M347" s="5">
+        <v>0</v>
+      </c>
+      <c r="N347" s="5">
+        <v>0</v>
+      </c>
+      <c r="O347" s="5">
+        <v>0</v>
+      </c>
+      <c r="P347" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q347" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R347" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S347" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="T347" s="2"/>
-      <c r="U347" s="2"/>
-      <c r="V347" s="2"/>
-      <c r="W347" s="2"/>
-      <c r="X347" s="2"/>
-      <c r="Y347" s="2"/>
-      <c r="Z347" s="2"/>
-      <c r="AA347" s="2"/>
-      <c r="AB347" s="2"/>
-      <c r="AC347" s="2"/>
-      <c r="AD347" s="2"/>
-      <c r="AE347" s="2"/>
-      <c r="AF347" s="2"/>
-    </row>
-    <row r="348" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
+      <c r="U347" s="5">
+        <v>0</v>
+      </c>
+      <c r="V347" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W347" s="6">
+        <v>1455.7</v>
+      </c>
+      <c r="X347" s="7">
+        <v>701691071</v>
+      </c>
+      <c r="Y347" s="6">
+        <v>1449</v>
+      </c>
+      <c r="Z347" s="7">
+        <v>771302700</v>
+      </c>
+      <c r="AA347" s="7">
+        <v>72841230</v>
+      </c>
+      <c r="AB347" s="7">
+        <v>-3229601</v>
+      </c>
+      <c r="AC347" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD347" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE347" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF347" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
-      <c r="E348" s="2"/>
-      <c r="F348" s="2"/>
-      <c r="G348" s="2"/>
-      <c r="H348" s="2"/>
-      <c r="I348" s="2"/>
-      <c r="J348" s="2"/>
-      <c r="K348" s="2"/>
-      <c r="L348" s="2"/>
-      <c r="M348" s="2"/>
-      <c r="N348" s="2"/>
-      <c r="O348" s="2"/>
-      <c r="P348" s="2"/>
-      <c r="Q348" s="2"/>
-      <c r="R348" s="2"/>
-      <c r="S348" s="2"/>
+      <c r="D348" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E348" s="5">
+        <v>0</v>
+      </c>
+      <c r="F348" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G348" s="5">
+        <v>342.964</v>
+      </c>
+      <c r="H348" s="6">
+        <v>1028892.6</v>
+      </c>
+      <c r="I348" s="5">
+        <v>343.15</v>
+      </c>
+      <c r="J348" s="6">
+        <v>1029450</v>
+      </c>
+      <c r="K348" s="5">
+        <v>557.4</v>
+      </c>
+      <c r="L348" s="7">
+        <v>-7732135</v>
+      </c>
+      <c r="M348" s="5">
+        <v>0</v>
+      </c>
+      <c r="N348" s="5">
+        <v>0</v>
+      </c>
+      <c r="O348" s="5">
+        <v>0</v>
+      </c>
+      <c r="P348" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q348" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R348" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S348" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="T348" s="2"/>
-      <c r="U348" s="2"/>
-      <c r="V348" s="2"/>
-      <c r="W348" s="2"/>
-      <c r="X348" s="2"/>
-      <c r="Y348" s="2"/>
-      <c r="Z348" s="2"/>
-      <c r="AA348" s="2"/>
-      <c r="AB348" s="2"/>
-      <c r="AC348" s="2"/>
-      <c r="AD348" s="2"/>
-      <c r="AE348" s="2"/>
-      <c r="AF348" s="2"/>
+      <c r="U348" s="5">
+        <v>0</v>
+      </c>
+      <c r="V348" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W348" s="6">
+        <v>1457.29</v>
+      </c>
+      <c r="X348" s="7">
+        <v>1499405185</v>
+      </c>
+      <c r="Y348" s="6">
+        <v>1449</v>
+      </c>
+      <c r="Z348" s="7">
+        <v>1491673050</v>
+      </c>
+      <c r="AA348" s="7">
+        <v>807672</v>
+      </c>
+      <c r="AB348" s="7">
+        <v>-8539808</v>
+      </c>
+      <c r="AC348" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD348" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE348" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF348" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="349" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
+      <c r="A349" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C349" s="2"/>
-      <c r="D349" s="2"/>
-      <c r="E349" s="2"/>
-      <c r="F349" s="2"/>
-      <c r="G349" s="2"/>
-      <c r="H349" s="2"/>
-      <c r="I349" s="2"/>
-      <c r="J349" s="2"/>
-      <c r="K349" s="2"/>
-      <c r="L349" s="2"/>
-      <c r="M349" s="2"/>
-      <c r="N349" s="2"/>
-      <c r="O349" s="2"/>
-      <c r="P349" s="2"/>
-      <c r="Q349" s="2"/>
-      <c r="R349" s="2"/>
-      <c r="S349" s="2"/>
+      <c r="D349" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E349" s="5">
+        <v>0</v>
+      </c>
+      <c r="F349" s="6">
+        <v>4500</v>
+      </c>
+      <c r="G349" s="5">
+        <v>238.76400000000001</v>
+      </c>
+      <c r="H349" s="6">
+        <v>1074441.6000000001</v>
+      </c>
+      <c r="I349" s="5">
+        <v>239.76</v>
+      </c>
+      <c r="J349" s="6">
+        <v>1078920</v>
+      </c>
+      <c r="K349" s="6">
+        <v>4478.3999999999996</v>
+      </c>
+      <c r="L349" s="7">
+        <v>-2428663</v>
+      </c>
+      <c r="M349" s="5">
+        <v>0</v>
+      </c>
+      <c r="N349" s="5">
+        <v>0</v>
+      </c>
+      <c r="O349" s="5">
+        <v>0</v>
+      </c>
+      <c r="P349" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q349" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R349" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S349" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="T349" s="2"/>
-      <c r="U349" s="2"/>
-      <c r="V349" s="2"/>
-      <c r="W349" s="2"/>
-      <c r="X349" s="2"/>
-      <c r="Y349" s="2"/>
-      <c r="Z349" s="2"/>
-      <c r="AA349" s="2"/>
-      <c r="AB349" s="2"/>
-      <c r="AC349" s="2"/>
-      <c r="AD349" s="2"/>
-      <c r="AE349" s="2"/>
-      <c r="AF349" s="2"/>
+      <c r="U349" s="5">
+        <v>0</v>
+      </c>
+      <c r="V349" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W349" s="6">
+        <v>1457.29</v>
+      </c>
+      <c r="X349" s="7">
+        <v>1565783743</v>
+      </c>
+      <c r="Y349" s="6">
+        <v>1449</v>
+      </c>
+      <c r="Z349" s="7">
+        <v>1563355080</v>
+      </c>
+      <c r="AA349" s="7">
+        <v>6489201</v>
+      </c>
+      <c r="AB349" s="7">
+        <v>-8917865</v>
+      </c>
+      <c r="AC349" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD349" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE349" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF349" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="350" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
+      <c r="A350" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C350" s="2"/>
-      <c r="D350" s="2"/>
-      <c r="E350" s="2"/>
-      <c r="F350" s="2"/>
-      <c r="G350" s="2"/>
-      <c r="H350" s="2"/>
-      <c r="I350" s="2"/>
-      <c r="J350" s="2"/>
-      <c r="K350" s="2"/>
-      <c r="L350" s="2"/>
-      <c r="M350" s="2"/>
-      <c r="N350" s="2"/>
-      <c r="O350" s="2"/>
-      <c r="P350" s="2"/>
-      <c r="Q350" s="2"/>
-      <c r="R350" s="2"/>
-      <c r="S350" s="2"/>
+      <c r="D350" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E350" s="5">
+        <v>0</v>
+      </c>
+      <c r="F350" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G350" s="5">
+        <v>34.24</v>
+      </c>
+      <c r="H350" s="6">
+        <v>684800</v>
+      </c>
+      <c r="I350" s="5">
+        <v>34</v>
+      </c>
+      <c r="J350" s="6">
+        <v>680000</v>
+      </c>
+      <c r="K350" s="6">
+        <v>-4800</v>
+      </c>
+      <c r="L350" s="7">
+        <v>-26129600</v>
+      </c>
+      <c r="M350" s="5">
+        <v>0</v>
+      </c>
+      <c r="N350" s="5">
+        <v>0</v>
+      </c>
+      <c r="O350" s="5">
+        <v>0</v>
+      </c>
+      <c r="P350" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q350" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R350" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S350" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="T350" s="2"/>
-      <c r="U350" s="2"/>
-      <c r="V350" s="2"/>
-      <c r="W350" s="2"/>
-      <c r="X350" s="2"/>
-      <c r="Y350" s="2"/>
-      <c r="Z350" s="2"/>
-      <c r="AA350" s="2"/>
-      <c r="AB350" s="2"/>
-      <c r="AC350" s="2"/>
-      <c r="AD350" s="2"/>
-      <c r="AE350" s="2"/>
-      <c r="AF350" s="2"/>
+      <c r="U350" s="5">
+        <v>0</v>
+      </c>
+      <c r="V350" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W350" s="6">
+        <v>1477</v>
+      </c>
+      <c r="X350" s="7">
+        <v>1011449600</v>
+      </c>
+      <c r="Y350" s="6">
+        <v>1449</v>
+      </c>
+      <c r="Z350" s="7">
+        <v>985320000</v>
+      </c>
+      <c r="AA350" s="7">
+        <v>-6955200</v>
+      </c>
+      <c r="AB350" s="7">
+        <v>-19174400</v>
+      </c>
+      <c r="AC350" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD350" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE350" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF350" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="351" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
+      <c r="A351" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C351" s="2"/>
-      <c r="D351" s="2"/>
-      <c r="E351" s="2"/>
-      <c r="F351" s="2"/>
-      <c r="G351" s="2"/>
-      <c r="H351" s="2"/>
-      <c r="I351" s="2"/>
-      <c r="J351" s="2"/>
-      <c r="K351" s="2"/>
-      <c r="L351" s="2"/>
-      <c r="M351" s="2"/>
-      <c r="N351" s="2"/>
-      <c r="O351" s="2"/>
-      <c r="P351" s="2"/>
-      <c r="Q351" s="2"/>
-      <c r="R351" s="2"/>
-      <c r="S351" s="2"/>
+      <c r="D351" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E351" s="5">
+        <v>0</v>
+      </c>
+      <c r="F351" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G351" s="5">
+        <v>251.01</v>
+      </c>
+      <c r="H351" s="6">
+        <v>1255051.8</v>
+      </c>
+      <c r="I351" s="5">
+        <v>269.18</v>
+      </c>
+      <c r="J351" s="6">
+        <v>1345900</v>
+      </c>
+      <c r="K351" s="6">
+        <v>90848.2</v>
+      </c>
+      <c r="L351" s="7">
+        <v>110938863</v>
+      </c>
+      <c r="M351" s="5">
+        <v>0</v>
+      </c>
+      <c r="N351" s="5">
+        <v>0</v>
+      </c>
+      <c r="O351" s="5">
+        <v>0</v>
+      </c>
+      <c r="P351" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q351" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R351" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S351" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T351" s="2"/>
-      <c r="U351" s="2"/>
-      <c r="V351" s="2"/>
-      <c r="W351" s="2"/>
-      <c r="X351" s="2"/>
-      <c r="Y351" s="2"/>
-      <c r="Z351" s="2"/>
-      <c r="AA351" s="2"/>
-      <c r="AB351" s="2"/>
-      <c r="AC351" s="2"/>
-      <c r="AD351" s="2"/>
-      <c r="AE351" s="2"/>
-      <c r="AF351" s="2"/>
+      <c r="U351" s="5">
+        <v>0</v>
+      </c>
+      <c r="V351" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W351" s="6">
+        <v>1465.49</v>
+      </c>
+      <c r="X351" s="7">
+        <v>1839270237</v>
+      </c>
+      <c r="Y351" s="6">
+        <v>1449</v>
+      </c>
+      <c r="Z351" s="7">
+        <v>1950209100</v>
+      </c>
+      <c r="AA351" s="7">
+        <v>131639041</v>
+      </c>
+      <c r="AB351" s="7">
+        <v>-20700179</v>
+      </c>
+      <c r="AC351" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD351" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE351" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF351" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="352" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2"/>
+      <c r="A352" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="C352" s="2"/>
-      <c r="D352" s="2"/>
-      <c r="E352" s="2"/>
-      <c r="F352" s="2"/>
-      <c r="G352" s="2"/>
-      <c r="H352" s="2"/>
-      <c r="I352" s="2"/>
-      <c r="J352" s="2"/>
-      <c r="K352" s="2"/>
-      <c r="L352" s="2"/>
-      <c r="M352" s="2"/>
-      <c r="N352" s="2"/>
-      <c r="O352" s="2"/>
-      <c r="P352" s="2"/>
-      <c r="Q352" s="2"/>
-      <c r="R352" s="2"/>
-      <c r="S352" s="2"/>
+      <c r="D352" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E352" s="5">
+        <v>0</v>
+      </c>
+      <c r="F352" s="5">
+        <v>0</v>
+      </c>
+      <c r="G352" s="5">
+        <v>0</v>
+      </c>
+      <c r="H352" s="5">
+        <v>0</v>
+      </c>
+      <c r="I352" s="5">
+        <v>8.81</v>
+      </c>
+      <c r="J352" s="5">
+        <v>0</v>
+      </c>
+      <c r="K352" s="5">
+        <v>0</v>
+      </c>
+      <c r="L352" s="5">
+        <v>0</v>
+      </c>
+      <c r="M352" s="5">
+        <v>0</v>
+      </c>
+      <c r="N352" s="6">
+        <v>-276165.90000000002</v>
+      </c>
+      <c r="O352" s="5">
+        <v>0</v>
+      </c>
+      <c r="P352" s="6">
+        <v>276165.90000000002</v>
+      </c>
+      <c r="Q352" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R352" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S352" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="T352" s="2"/>
-      <c r="U352" s="2"/>
-      <c r="V352" s="2"/>
-      <c r="W352" s="2"/>
-      <c r="X352" s="2"/>
-      <c r="Y352" s="2"/>
-      <c r="Z352" s="2"/>
-      <c r="AA352" s="2"/>
-      <c r="AB352" s="2"/>
-      <c r="AC352" s="2"/>
-      <c r="AD352" s="2"/>
-      <c r="AE352" s="2"/>
-      <c r="AF352" s="2"/>
+      <c r="U352" s="5">
+        <v>0</v>
+      </c>
+      <c r="V352" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W352" s="5">
+        <v>0</v>
+      </c>
+      <c r="X352" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y352" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z352" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA352" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB352" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC352" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD352" s="7">
+        <v>-413294425</v>
+      </c>
+      <c r="AE352" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF352" s="7">
+        <v>413294425</v>
+      </c>
     </row>
     <row r="353" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
+      <c r="A353" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
-      <c r="E353" s="2"/>
-      <c r="F353" s="2"/>
-      <c r="G353" s="2"/>
-      <c r="H353" s="2"/>
-      <c r="I353" s="2"/>
-      <c r="J353" s="2"/>
-      <c r="K353" s="2"/>
-      <c r="L353" s="2"/>
-      <c r="M353" s="2"/>
-      <c r="N353" s="2"/>
-      <c r="O353" s="2"/>
-      <c r="P353" s="2"/>
-      <c r="Q353" s="2"/>
-      <c r="R353" s="2"/>
-      <c r="S353" s="2"/>
+      <c r="D353" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E353" s="5">
+        <v>0</v>
+      </c>
+      <c r="F353" s="6">
+        <v>5500</v>
+      </c>
+      <c r="G353" s="5">
+        <v>191.75399999999999</v>
+      </c>
+      <c r="H353" s="6">
+        <v>1054647.55</v>
+      </c>
+      <c r="I353" s="5">
+        <v>179.74</v>
+      </c>
+      <c r="J353" s="6">
+        <v>988570</v>
+      </c>
+      <c r="K353" s="6">
+        <v>-66077.55</v>
+      </c>
+      <c r="L353" s="7">
+        <v>-72544123</v>
+      </c>
+      <c r="M353" s="5">
+        <v>0</v>
+      </c>
+      <c r="N353" s="5">
+        <v>0</v>
+      </c>
+      <c r="O353" s="5">
+        <v>0</v>
+      </c>
+      <c r="P353" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q353" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R353" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S353" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="T353" s="2"/>
-      <c r="U353" s="2"/>
-      <c r="V353" s="2"/>
-      <c r="W353" s="2"/>
-      <c r="X353" s="2"/>
-      <c r="Y353" s="2"/>
-      <c r="Z353" s="2"/>
-      <c r="AA353" s="2"/>
-      <c r="AB353" s="2"/>
-      <c r="AC353" s="2"/>
-      <c r="AD353" s="2"/>
-      <c r="AE353" s="2"/>
-      <c r="AF353" s="2"/>
+      <c r="U353" s="5">
+        <v>0</v>
+      </c>
+      <c r="V353" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W353" s="6">
+        <v>1426.99</v>
+      </c>
+      <c r="X353" s="7">
+        <v>1504982053</v>
+      </c>
+      <c r="Y353" s="6">
+        <v>1449</v>
+      </c>
+      <c r="Z353" s="7">
+        <v>1432437930</v>
+      </c>
+      <c r="AA353" s="7">
+        <v>-95746369</v>
+      </c>
+      <c r="AB353" s="7">
+        <v>23202246</v>
+      </c>
+      <c r="AC353" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD353" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE353" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF353" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="354" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
+      <c r="A354" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
-      <c r="E354" s="2"/>
-      <c r="F354" s="2"/>
-      <c r="G354" s="2"/>
-      <c r="H354" s="2"/>
-      <c r="I354" s="2"/>
-      <c r="J354" s="2"/>
-      <c r="K354" s="2"/>
-      <c r="L354" s="2"/>
-      <c r="M354" s="2"/>
-      <c r="N354" s="2"/>
-      <c r="O354" s="2"/>
-      <c r="P354" s="2"/>
-      <c r="Q354" s="2"/>
-      <c r="R354" s="2"/>
-      <c r="S354" s="2"/>
+      <c r="D354" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E354" s="5">
+        <v>0</v>
+      </c>
+      <c r="F354" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G354" s="5">
+        <v>44.158999999999999</v>
+      </c>
+      <c r="H354" s="6">
+        <v>441591</v>
+      </c>
+      <c r="I354" s="5">
+        <v>45.23</v>
+      </c>
+      <c r="J354" s="6">
+        <v>452300</v>
+      </c>
+      <c r="K354" s="6">
+        <v>10709</v>
+      </c>
+      <c r="L354" s="7">
+        <v>6950476</v>
+      </c>
+      <c r="M354" s="5">
+        <v>0</v>
+      </c>
+      <c r="N354" s="5">
+        <v>0</v>
+      </c>
+      <c r="O354" s="5">
+        <v>0</v>
+      </c>
+      <c r="P354" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q354" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R354" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S354" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="T354" s="2"/>
-      <c r="U354" s="2"/>
-      <c r="V354" s="2"/>
-      <c r="W354" s="2"/>
-      <c r="X354" s="2"/>
-      <c r="Y354" s="2"/>
-      <c r="Z354" s="2"/>
-      <c r="AA354" s="2"/>
-      <c r="AB354" s="2"/>
-      <c r="AC354" s="2"/>
-      <c r="AD354" s="2"/>
-      <c r="AE354" s="2"/>
-      <c r="AF354" s="2"/>
+      <c r="U354" s="5">
+        <v>0</v>
+      </c>
+      <c r="V354" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W354" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X354" s="7">
+        <v>648432224</v>
+      </c>
+      <c r="Y354" s="6">
+        <v>1449</v>
+      </c>
+      <c r="Z354" s="7">
+        <v>655382700</v>
+      </c>
+      <c r="AA354" s="7">
+        <v>15517341</v>
+      </c>
+      <c r="AB354" s="7">
+        <v>-8566865</v>
+      </c>
+      <c r="AC354" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD354" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE354" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF354" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="355" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
+      <c r="A355" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C355" s="2"/>
-      <c r="D355" s="2"/>
-      <c r="E355" s="2"/>
-      <c r="F355" s="2"/>
-      <c r="G355" s="2"/>
-      <c r="H355" s="2"/>
-      <c r="I355" s="2"/>
-      <c r="J355" s="2"/>
-      <c r="K355" s="2"/>
-      <c r="L355" s="2"/>
-      <c r="M355" s="2"/>
-      <c r="N355" s="2"/>
-      <c r="O355" s="2"/>
-      <c r="P355" s="2"/>
-      <c r="Q355" s="2"/>
-      <c r="R355" s="2"/>
-      <c r="S355" s="2"/>
+      <c r="D355" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E355" s="5">
+        <v>0</v>
+      </c>
+      <c r="F355" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G355" s="5">
+        <v>681.92</v>
+      </c>
+      <c r="H355" s="6">
+        <v>681920</v>
+      </c>
+      <c r="I355" s="5">
+        <v>690.88</v>
+      </c>
+      <c r="J355" s="6">
+        <v>690880</v>
+      </c>
+      <c r="K355" s="6">
+        <v>8960</v>
+      </c>
+      <c r="L355" s="7">
+        <v>22598112</v>
+      </c>
+      <c r="M355" s="5">
+        <v>0</v>
+      </c>
+      <c r="N355" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="O355" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="P355" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q355" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R355" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S355" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T355" s="2"/>
-      <c r="U355" s="2"/>
-      <c r="V355" s="2"/>
-      <c r="W355" s="2"/>
-      <c r="X355" s="2"/>
-      <c r="Y355" s="2"/>
-      <c r="Z355" s="2"/>
-      <c r="AA355" s="2"/>
-      <c r="AB355" s="2"/>
-      <c r="AC355" s="2"/>
-      <c r="AD355" s="2"/>
-      <c r="AE355" s="2"/>
-      <c r="AF355" s="2"/>
+      <c r="U355" s="5">
+        <v>0</v>
+      </c>
+      <c r="V355" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W355" s="6">
+        <v>1434.9</v>
+      </c>
+      <c r="X355" s="7">
+        <v>978487008</v>
+      </c>
+      <c r="Y355" s="6">
+        <v>1449</v>
+      </c>
+      <c r="Z355" s="7">
+        <v>1001085120</v>
+      </c>
+      <c r="AA355" s="7">
+        <v>12983040</v>
+      </c>
+      <c r="AB355" s="7">
+        <v>9615072</v>
+      </c>
+      <c r="AC355" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD355" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AE355" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AF355" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="356" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
+      <c r="A356" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C356" s="2"/>
-      <c r="D356" s="2"/>
-      <c r="E356" s="2"/>
-      <c r="F356" s="2"/>
-      <c r="G356" s="2"/>
-      <c r="H356" s="2"/>
-      <c r="I356" s="2"/>
-      <c r="J356" s="2"/>
-      <c r="K356" s="2"/>
-      <c r="L356" s="2"/>
-      <c r="M356" s="2"/>
-      <c r="N356" s="2"/>
-      <c r="O356" s="2"/>
-      <c r="P356" s="2"/>
-      <c r="Q356" s="2"/>
-      <c r="R356" s="2"/>
-      <c r="S356" s="2"/>
+      <c r="D356" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E356" s="5">
+        <v>0</v>
+      </c>
+      <c r="F356" s="6">
+        <v>4200</v>
+      </c>
+      <c r="G356" s="5">
+        <v>396.31</v>
+      </c>
+      <c r="H356" s="6">
+        <v>1664502</v>
+      </c>
+      <c r="I356" s="5">
+        <v>465.56</v>
+      </c>
+      <c r="J356" s="6">
+        <v>1955352</v>
+      </c>
+      <c r="K356" s="6">
+        <v>290850</v>
+      </c>
+      <c r="L356" s="7">
+        <v>444911129</v>
+      </c>
+      <c r="M356" s="5">
+        <v>0</v>
+      </c>
+      <c r="N356" s="5">
+        <v>0</v>
+      </c>
+      <c r="O356" s="5">
+        <v>0</v>
+      </c>
+      <c r="P356" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q356" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R356" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S356" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="T356" s="2"/>
-      <c r="U356" s="2"/>
-      <c r="V356" s="2"/>
-      <c r="W356" s="2"/>
-      <c r="X356" s="2"/>
-      <c r="Y356" s="2"/>
-      <c r="Z356" s="2"/>
-      <c r="AA356" s="2"/>
-      <c r="AB356" s="2"/>
-      <c r="AC356" s="2"/>
-      <c r="AD356" s="2"/>
-      <c r="AE356" s="2"/>
-      <c r="AF356" s="2"/>
+      <c r="U356" s="5">
+        <v>0</v>
+      </c>
+      <c r="V356" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W356" s="6">
+        <v>1434.89</v>
+      </c>
+      <c r="X356" s="7">
+        <v>2388393919</v>
+      </c>
+      <c r="Y356" s="6">
+        <v>1449</v>
+      </c>
+      <c r="Z356" s="7">
+        <v>2833305048</v>
+      </c>
+      <c r="AA356" s="7">
+        <v>421441650</v>
+      </c>
+      <c r="AB356" s="7">
+        <v>23469479</v>
+      </c>
+      <c r="AC356" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD356" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE356" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF356" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="357" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
+      <c r="A357" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C357" s="2"/>
-      <c r="D357" s="2"/>
-      <c r="E357" s="2"/>
-      <c r="F357" s="2"/>
-      <c r="G357" s="2"/>
-      <c r="H357" s="2"/>
-      <c r="I357" s="2"/>
-      <c r="J357" s="2"/>
-      <c r="K357" s="2"/>
-      <c r="L357" s="2"/>
-      <c r="M357" s="2"/>
-      <c r="N357" s="2"/>
-      <c r="O357" s="2"/>
-      <c r="P357" s="2"/>
-      <c r="Q357" s="2"/>
-      <c r="R357" s="2"/>
-      <c r="S357" s="2"/>
+      <c r="D357" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E357" s="5">
+        <v>0</v>
+      </c>
+      <c r="F357" s="6">
+        <v>24000</v>
+      </c>
+      <c r="G357" s="5">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H357" s="6">
+        <v>423736.8</v>
+      </c>
+      <c r="I357" s="5">
+        <v>16.57</v>
+      </c>
+      <c r="J357" s="6">
+        <v>397680</v>
+      </c>
+      <c r="K357" s="6">
+        <v>-26056.799999999999</v>
+      </c>
+      <c r="L357" s="7">
+        <v>-44154728</v>
+      </c>
+      <c r="M357" s="5">
+        <v>0</v>
+      </c>
+      <c r="N357" s="5">
+        <v>0</v>
+      </c>
+      <c r="O357" s="5">
+        <v>0</v>
+      </c>
+      <c r="P357" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q357" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R357" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S357" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="T357" s="2"/>
-      <c r="U357" s="2"/>
-      <c r="V357" s="2"/>
-      <c r="W357" s="2"/>
-      <c r="X357" s="2"/>
-      <c r="Y357" s="2"/>
-      <c r="Z357" s="2"/>
-      <c r="AA357" s="2"/>
-      <c r="AB357" s="2"/>
-      <c r="AC357" s="2"/>
-      <c r="AD357" s="2"/>
-      <c r="AE357" s="2"/>
-      <c r="AF357" s="2"/>
+      <c r="U357" s="5">
+        <v>0</v>
+      </c>
+      <c r="V357" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W357" s="6">
+        <v>1464.09</v>
+      </c>
+      <c r="X357" s="7">
+        <v>620393048</v>
+      </c>
+      <c r="Y357" s="6">
+        <v>1449</v>
+      </c>
+      <c r="Z357" s="7">
+        <v>576238320</v>
+      </c>
+      <c r="AA357" s="7">
+        <v>-37756303</v>
+      </c>
+      <c r="AB357" s="7">
+        <v>-6398425</v>
+      </c>
+      <c r="AC357" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD357" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE357" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF357" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="358" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
+      <c r="A358" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="C358" s="2"/>
-      <c r="D358" s="2"/>
-      <c r="E358" s="2"/>
-      <c r="F358" s="2"/>
-      <c r="G358" s="2"/>
-      <c r="H358" s="2"/>
-      <c r="I358" s="2"/>
-      <c r="J358" s="2"/>
-      <c r="K358" s="2"/>
-      <c r="L358" s="2"/>
-      <c r="M358" s="2"/>
-      <c r="N358" s="2"/>
-      <c r="O358" s="2"/>
-      <c r="P358" s="2"/>
-      <c r="Q358" s="2"/>
-      <c r="R358" s="2"/>
-      <c r="S358" s="2"/>
+      <c r="D358" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E358" s="5">
+        <v>0</v>
+      </c>
+      <c r="F358" s="6">
+        <v>1400</v>
+      </c>
+      <c r="G358" s="5">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H358" s="6">
+        <v>605554.04</v>
+      </c>
+      <c r="I358" s="5">
+        <v>421.03</v>
+      </c>
+      <c r="J358" s="6">
+        <v>589442</v>
+      </c>
+      <c r="K358" s="6">
+        <v>-16112.04</v>
+      </c>
+      <c r="L358" s="7">
+        <v>-22014127</v>
+      </c>
+      <c r="M358" s="5">
+        <v>0</v>
+      </c>
+      <c r="N358" s="5">
+        <v>0</v>
+      </c>
+      <c r="O358" s="5">
+        <v>0</v>
+      </c>
+      <c r="P358" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q358" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R358" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S358" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="T358" s="2"/>
-      <c r="U358" s="2"/>
-      <c r="V358" s="2"/>
-      <c r="W358" s="2"/>
-      <c r="X358" s="2"/>
-      <c r="Y358" s="2"/>
-      <c r="Z358" s="2"/>
-      <c r="AA358" s="2"/>
-      <c r="AB358" s="2"/>
-      <c r="AC358" s="2"/>
-      <c r="AD358" s="2"/>
-      <c r="AE358" s="2"/>
-      <c r="AF358" s="2"/>
+      <c r="U358" s="5">
+        <v>0</v>
+      </c>
+      <c r="V358" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W358" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X358" s="7">
+        <v>876115585</v>
+      </c>
+      <c r="Y358" s="6">
+        <v>1449</v>
+      </c>
+      <c r="Z358" s="7">
+        <v>854101458</v>
+      </c>
+      <c r="AA358" s="7">
+        <v>-23346345</v>
+      </c>
+      <c r="AB358" s="7">
+        <v>1332218</v>
+      </c>
+      <c r="AC358" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD358" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE358" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF358" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="359" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
+      <c r="A359" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
-      <c r="F359" s="2"/>
-      <c r="G359" s="2"/>
-      <c r="H359" s="2"/>
-      <c r="I359" s="2"/>
-      <c r="J359" s="2"/>
-      <c r="K359" s="2"/>
-      <c r="L359" s="2"/>
-      <c r="M359" s="2"/>
-      <c r="N359" s="2"/>
-      <c r="O359" s="2"/>
-      <c r="P359" s="2"/>
-      <c r="Q359" s="2"/>
-      <c r="R359" s="2"/>
-      <c r="S359" s="2"/>
+      <c r="D359" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E359" s="5">
+        <v>0</v>
+      </c>
+      <c r="F359" s="6">
+        <v>3500</v>
+      </c>
+      <c r="G359" s="5">
+        <v>169.042</v>
+      </c>
+      <c r="H359" s="6">
+        <v>591649.80000000005</v>
+      </c>
+      <c r="I359" s="5">
+        <v>154.19</v>
+      </c>
+      <c r="J359" s="6">
+        <v>539665</v>
+      </c>
+      <c r="K359" s="6">
+        <v>-51984.800000000003</v>
+      </c>
+      <c r="L359" s="7">
+        <v>-74024345</v>
+      </c>
+      <c r="M359" s="5">
+        <v>0</v>
+      </c>
+      <c r="N359" s="5">
+        <v>0</v>
+      </c>
+      <c r="O359" s="5">
+        <v>0</v>
+      </c>
+      <c r="P359" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q359" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R359" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S359" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="T359" s="2"/>
-      <c r="U359" s="2"/>
-      <c r="V359" s="2"/>
-      <c r="W359" s="2"/>
-      <c r="X359" s="2"/>
-      <c r="Y359" s="2"/>
-      <c r="Z359" s="2"/>
-      <c r="AA359" s="2"/>
-      <c r="AB359" s="2"/>
-      <c r="AC359" s="2"/>
-      <c r="AD359" s="2"/>
-      <c r="AE359" s="2"/>
-      <c r="AF359" s="2"/>
+      <c r="U359" s="5">
+        <v>0</v>
+      </c>
+      <c r="V359" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W359" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X359" s="7">
+        <v>855998930</v>
+      </c>
+      <c r="Y359" s="6">
+        <v>1449</v>
+      </c>
+      <c r="Z359" s="7">
+        <v>781974585</v>
+      </c>
+      <c r="AA359" s="7">
+        <v>-75325975</v>
+      </c>
+      <c r="AB359" s="7">
+        <v>1301630</v>
+      </c>
+      <c r="AC359" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD359" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE359" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF359" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="360" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2"/>

--- a/2026_멀티.xlsx
+++ b/2026_멀티.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\다른 컴퓨터\내 Mac\Workspace\Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8141873C-B491-43C5-9899-BB000DDF2160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D312B161-C1F4-4890-97E0-42E7E6AE3952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="109">
   <si>
     <t>기준일자</t>
   </si>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="B290" sqref="B290"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="C387" sqref="C387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -758,7 +758,9 @@
     <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="30" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.375" bestFit="1" customWidth="1"/>
@@ -34413,1704 +34415,4686 @@
       </c>
     </row>
     <row r="360" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
+      <c r="A360" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
-      <c r="E360" s="2"/>
-      <c r="F360" s="2"/>
-      <c r="G360" s="2"/>
-      <c r="H360" s="2"/>
-      <c r="I360" s="2"/>
-      <c r="J360" s="2"/>
-      <c r="K360" s="2"/>
-      <c r="L360" s="2"/>
-      <c r="M360" s="2"/>
-      <c r="N360" s="2"/>
-      <c r="O360" s="2"/>
-      <c r="P360" s="2"/>
-      <c r="Q360" s="2"/>
-      <c r="R360" s="2"/>
-      <c r="S360" s="2"/>
+      <c r="D360" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E360" s="5">
+        <v>0</v>
+      </c>
+      <c r="F360" s="6">
+        <v>38000</v>
+      </c>
+      <c r="G360" s="5">
+        <v>12.58</v>
+      </c>
+      <c r="H360" s="6">
+        <v>478066.6</v>
+      </c>
+      <c r="I360" s="5">
+        <v>11.08</v>
+      </c>
+      <c r="J360" s="6">
+        <v>421040</v>
+      </c>
+      <c r="K360" s="6">
+        <v>-57026.6</v>
+      </c>
+      <c r="L360" s="7">
+        <v>-90979747</v>
+      </c>
+      <c r="M360" s="5">
+        <v>0</v>
+      </c>
+      <c r="N360" s="5">
+        <v>0</v>
+      </c>
+      <c r="O360" s="5">
+        <v>0</v>
+      </c>
+      <c r="P360" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q360" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R360" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S360" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="T360" s="2"/>
-      <c r="U360" s="2"/>
-      <c r="V360" s="2"/>
-      <c r="W360" s="2"/>
-      <c r="X360" s="2"/>
-      <c r="Y360" s="2"/>
-      <c r="Z360" s="2"/>
-      <c r="AA360" s="2"/>
-      <c r="AB360" s="2"/>
-      <c r="AC360" s="2"/>
-      <c r="AD360" s="2"/>
-      <c r="AE360" s="2"/>
-      <c r="AF360" s="2"/>
+      <c r="U360" s="5">
+        <v>0</v>
+      </c>
+      <c r="V360" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W360" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X360" s="7">
+        <v>701992995</v>
+      </c>
+      <c r="Y360" s="6">
+        <v>1451.2</v>
+      </c>
+      <c r="Z360" s="7">
+        <v>611013248</v>
+      </c>
+      <c r="AA360" s="7">
+        <v>-82757001</v>
+      </c>
+      <c r="AB360" s="7">
+        <v>-8222746</v>
+      </c>
+      <c r="AC360" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD360" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE360" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF360" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="361" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
+      <c r="A361" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
-      <c r="E361" s="2"/>
-      <c r="F361" s="2"/>
-      <c r="G361" s="2"/>
-      <c r="H361" s="2"/>
-      <c r="I361" s="2"/>
-      <c r="J361" s="2"/>
-      <c r="K361" s="2"/>
-      <c r="L361" s="2"/>
-      <c r="M361" s="2"/>
-      <c r="N361" s="2"/>
-      <c r="O361" s="2"/>
-      <c r="P361" s="2"/>
-      <c r="Q361" s="2"/>
-      <c r="R361" s="2"/>
-      <c r="S361" s="2"/>
+      <c r="D361" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E361" s="5">
+        <v>0</v>
+      </c>
+      <c r="F361" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G361" s="5">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H361" s="6">
+        <v>482030</v>
+      </c>
+      <c r="I361" s="5">
+        <v>53.88</v>
+      </c>
+      <c r="J361" s="6">
+        <v>538800</v>
+      </c>
+      <c r="K361" s="6">
+        <v>56770</v>
+      </c>
+      <c r="L361" s="7">
+        <v>80215489</v>
+      </c>
+      <c r="M361" s="5">
+        <v>0</v>
+      </c>
+      <c r="N361" s="5">
+        <v>0</v>
+      </c>
+      <c r="O361" s="5">
+        <v>0</v>
+      </c>
+      <c r="P361" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q361" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R361" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S361" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="T361" s="2"/>
-      <c r="U361" s="2"/>
-      <c r="V361" s="2"/>
-      <c r="W361" s="2"/>
-      <c r="X361" s="2"/>
-      <c r="Y361" s="2"/>
-      <c r="Z361" s="2"/>
-      <c r="AA361" s="2"/>
-      <c r="AB361" s="2"/>
-      <c r="AC361" s="2"/>
-      <c r="AD361" s="2"/>
-      <c r="AE361" s="2"/>
-      <c r="AF361" s="2"/>
-    </row>
-    <row r="362" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A362" s="2"/>
-      <c r="B362" s="2"/>
+      <c r="U361" s="5">
+        <v>0</v>
+      </c>
+      <c r="V361" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W361" s="6">
+        <v>1455.7</v>
+      </c>
+      <c r="X361" s="7">
+        <v>701691071</v>
+      </c>
+      <c r="Y361" s="6">
+        <v>1451.2</v>
+      </c>
+      <c r="Z361" s="7">
+        <v>781906560</v>
+      </c>
+      <c r="AA361" s="7">
+        <v>82384624</v>
+      </c>
+      <c r="AB361" s="7">
+        <v>-2169135</v>
+      </c>
+      <c r="AC361" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD361" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE361" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF361" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
-      <c r="F362" s="2"/>
-      <c r="G362" s="2"/>
-      <c r="H362" s="2"/>
-      <c r="I362" s="2"/>
-      <c r="J362" s="2"/>
-      <c r="K362" s="2"/>
-      <c r="L362" s="2"/>
-      <c r="M362" s="2"/>
-      <c r="N362" s="2"/>
-      <c r="O362" s="2"/>
-      <c r="P362" s="2"/>
-      <c r="Q362" s="2"/>
-      <c r="R362" s="2"/>
-      <c r="S362" s="2"/>
+      <c r="D362" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E362" s="5">
+        <v>0</v>
+      </c>
+      <c r="F362" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G362" s="5">
+        <v>342.964</v>
+      </c>
+      <c r="H362" s="6">
+        <v>1028892.6</v>
+      </c>
+      <c r="I362" s="5">
+        <v>331.33</v>
+      </c>
+      <c r="J362" s="6">
+        <v>993990</v>
+      </c>
+      <c r="K362" s="6">
+        <v>-34902.6</v>
+      </c>
+      <c r="L362" s="7">
+        <v>-56926897</v>
+      </c>
+      <c r="M362" s="5">
+        <v>0</v>
+      </c>
+      <c r="N362" s="5">
+        <v>0</v>
+      </c>
+      <c r="O362" s="5">
+        <v>0</v>
+      </c>
+      <c r="P362" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q362" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R362" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S362" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="T362" s="2"/>
-      <c r="U362" s="2"/>
-      <c r="V362" s="2"/>
-      <c r="W362" s="2"/>
-      <c r="X362" s="2"/>
-      <c r="Y362" s="2"/>
-      <c r="Z362" s="2"/>
-      <c r="AA362" s="2"/>
-      <c r="AB362" s="2"/>
-      <c r="AC362" s="2"/>
-      <c r="AD362" s="2"/>
-      <c r="AE362" s="2"/>
-      <c r="AF362" s="2"/>
+      <c r="U362" s="5">
+        <v>0</v>
+      </c>
+      <c r="V362" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W362" s="6">
+        <v>1457.29</v>
+      </c>
+      <c r="X362" s="7">
+        <v>1499405185</v>
+      </c>
+      <c r="Y362" s="6">
+        <v>1451.2</v>
+      </c>
+      <c r="Z362" s="7">
+        <v>1442478288</v>
+      </c>
+      <c r="AA362" s="7">
+        <v>-50650653</v>
+      </c>
+      <c r="AB362" s="7">
+        <v>-6276244</v>
+      </c>
+      <c r="AC362" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD362" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE362" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF362" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="363" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
+      <c r="A363" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
-      <c r="E363" s="2"/>
-      <c r="F363" s="2"/>
-      <c r="G363" s="2"/>
-      <c r="H363" s="2"/>
-      <c r="I363" s="2"/>
-      <c r="J363" s="2"/>
-      <c r="K363" s="2"/>
-      <c r="L363" s="2"/>
-      <c r="M363" s="2"/>
-      <c r="N363" s="2"/>
-      <c r="O363" s="2"/>
-      <c r="P363" s="2"/>
-      <c r="Q363" s="2"/>
-      <c r="R363" s="2"/>
-      <c r="S363" s="2"/>
+      <c r="D363" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E363" s="5">
+        <v>0</v>
+      </c>
+      <c r="F363" s="6">
+        <v>4500</v>
+      </c>
+      <c r="G363" s="5">
+        <v>238.76400000000001</v>
+      </c>
+      <c r="H363" s="6">
+        <v>1074441.6000000001</v>
+      </c>
+      <c r="I363" s="5">
+        <v>222.69</v>
+      </c>
+      <c r="J363" s="6">
+        <v>1002105</v>
+      </c>
+      <c r="K363" s="6">
+        <v>-72336.600000000006</v>
+      </c>
+      <c r="L363" s="7">
+        <v>-111528967</v>
+      </c>
+      <c r="M363" s="5">
+        <v>0</v>
+      </c>
+      <c r="N363" s="5">
+        <v>0</v>
+      </c>
+      <c r="O363" s="5">
+        <v>0</v>
+      </c>
+      <c r="P363" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q363" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R363" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S363" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="T363" s="2"/>
-      <c r="U363" s="2"/>
-      <c r="V363" s="2"/>
-      <c r="W363" s="2"/>
-      <c r="X363" s="2"/>
-      <c r="Y363" s="2"/>
-      <c r="Z363" s="2"/>
-      <c r="AA363" s="2"/>
-      <c r="AB363" s="2"/>
-      <c r="AC363" s="2"/>
-      <c r="AD363" s="2"/>
-      <c r="AE363" s="2"/>
-      <c r="AF363" s="2"/>
+      <c r="U363" s="5">
+        <v>0</v>
+      </c>
+      <c r="V363" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W363" s="6">
+        <v>1457.29</v>
+      </c>
+      <c r="X363" s="7">
+        <v>1565783743</v>
+      </c>
+      <c r="Y363" s="6">
+        <v>1451.2</v>
+      </c>
+      <c r="Z363" s="7">
+        <v>1454254776</v>
+      </c>
+      <c r="AA363" s="7">
+        <v>-104974873</v>
+      </c>
+      <c r="AB363" s="7">
+        <v>-6554094</v>
+      </c>
+      <c r="AC363" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD363" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE363" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF363" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="364" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A364" s="2"/>
-      <c r="B364" s="2"/>
+      <c r="A364" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C364" s="2"/>
-      <c r="D364" s="2"/>
-      <c r="E364" s="2"/>
-      <c r="F364" s="2"/>
-      <c r="G364" s="2"/>
-      <c r="H364" s="2"/>
-      <c r="I364" s="2"/>
-      <c r="J364" s="2"/>
-      <c r="K364" s="2"/>
-      <c r="L364" s="2"/>
-      <c r="M364" s="2"/>
-      <c r="N364" s="2"/>
-      <c r="O364" s="2"/>
-      <c r="P364" s="2"/>
-      <c r="Q364" s="2"/>
-      <c r="R364" s="2"/>
-      <c r="S364" s="2"/>
+      <c r="D364" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E364" s="5">
+        <v>0</v>
+      </c>
+      <c r="F364" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G364" s="5">
+        <v>34.24</v>
+      </c>
+      <c r="H364" s="6">
+        <v>684800</v>
+      </c>
+      <c r="I364" s="5">
+        <v>33.85</v>
+      </c>
+      <c r="J364" s="6">
+        <v>677000</v>
+      </c>
+      <c r="K364" s="6">
+        <v>-7800</v>
+      </c>
+      <c r="L364" s="7">
+        <v>-28987200</v>
+      </c>
+      <c r="M364" s="5">
+        <v>0</v>
+      </c>
+      <c r="N364" s="5">
+        <v>0</v>
+      </c>
+      <c r="O364" s="5">
+        <v>0</v>
+      </c>
+      <c r="P364" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q364" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R364" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S364" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="T364" s="2"/>
-      <c r="U364" s="2"/>
-      <c r="V364" s="2"/>
-      <c r="W364" s="2"/>
-      <c r="X364" s="2"/>
-      <c r="Y364" s="2"/>
-      <c r="Z364" s="2"/>
-      <c r="AA364" s="2"/>
-      <c r="AB364" s="2"/>
-      <c r="AC364" s="2"/>
-      <c r="AD364" s="2"/>
-      <c r="AE364" s="2"/>
-      <c r="AF364" s="2"/>
+      <c r="U364" s="5">
+        <v>0</v>
+      </c>
+      <c r="V364" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W364" s="6">
+        <v>1477</v>
+      </c>
+      <c r="X364" s="7">
+        <v>1011449600</v>
+      </c>
+      <c r="Y364" s="6">
+        <v>1451.2</v>
+      </c>
+      <c r="Z364" s="7">
+        <v>982462400</v>
+      </c>
+      <c r="AA364" s="7">
+        <v>-11319360</v>
+      </c>
+      <c r="AB364" s="7">
+        <v>-17667840</v>
+      </c>
+      <c r="AC364" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD364" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE364" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF364" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="365" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
+      <c r="A365" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C365" s="2"/>
-      <c r="D365" s="2"/>
-      <c r="E365" s="2"/>
-      <c r="F365" s="2"/>
-      <c r="G365" s="2"/>
-      <c r="H365" s="2"/>
-      <c r="I365" s="2"/>
-      <c r="J365" s="2"/>
-      <c r="K365" s="2"/>
-      <c r="L365" s="2"/>
-      <c r="M365" s="2"/>
-      <c r="N365" s="2"/>
-      <c r="O365" s="2"/>
-      <c r="P365" s="2"/>
-      <c r="Q365" s="2"/>
-      <c r="R365" s="2"/>
-      <c r="S365" s="2"/>
+      <c r="D365" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E365" s="5">
+        <v>0</v>
+      </c>
+      <c r="F365" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G365" s="5">
+        <v>251.01</v>
+      </c>
+      <c r="H365" s="6">
+        <v>1255051.8</v>
+      </c>
+      <c r="I365" s="5">
+        <v>275.91000000000003</v>
+      </c>
+      <c r="J365" s="6">
+        <v>1379550</v>
+      </c>
+      <c r="K365" s="6">
+        <v>124498.2</v>
+      </c>
+      <c r="L365" s="7">
+        <v>162732723</v>
+      </c>
+      <c r="M365" s="5">
+        <v>0</v>
+      </c>
+      <c r="N365" s="5">
+        <v>0</v>
+      </c>
+      <c r="O365" s="5">
+        <v>0</v>
+      </c>
+      <c r="P365" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q365" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R365" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S365" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T365" s="2"/>
-      <c r="U365" s="2"/>
-      <c r="V365" s="2"/>
-      <c r="W365" s="2"/>
-      <c r="X365" s="2"/>
-      <c r="Y365" s="2"/>
-      <c r="Z365" s="2"/>
-      <c r="AA365" s="2"/>
-      <c r="AB365" s="2"/>
-      <c r="AC365" s="2"/>
-      <c r="AD365" s="2"/>
-      <c r="AE365" s="2"/>
-      <c r="AF365" s="2"/>
+      <c r="U365" s="5">
+        <v>0</v>
+      </c>
+      <c r="V365" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W365" s="6">
+        <v>1465.49</v>
+      </c>
+      <c r="X365" s="7">
+        <v>1839270237</v>
+      </c>
+      <c r="Y365" s="6">
+        <v>1451.2</v>
+      </c>
+      <c r="Z365" s="7">
+        <v>2002002960</v>
+      </c>
+      <c r="AA365" s="7">
+        <v>180671787</v>
+      </c>
+      <c r="AB365" s="7">
+        <v>-17939065</v>
+      </c>
+      <c r="AC365" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD365" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE365" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF365" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="366" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
+      <c r="A366" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="C366" s="2"/>
-      <c r="D366" s="2"/>
-      <c r="E366" s="2"/>
-      <c r="F366" s="2"/>
-      <c r="G366" s="2"/>
-      <c r="H366" s="2"/>
+      <c r="D366" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E366" s="5">
+        <v>0</v>
+      </c>
+      <c r="F366" s="5">
+        <v>0</v>
+      </c>
+      <c r="G366" s="5">
+        <v>0</v>
+      </c>
+      <c r="H366" s="5">
+        <v>0</v>
+      </c>
       <c r="I366" s="2"/>
-      <c r="J366" s="2"/>
-      <c r="K366" s="2"/>
-      <c r="L366" s="2"/>
-      <c r="M366" s="2"/>
-      <c r="N366" s="2"/>
-      <c r="O366" s="2"/>
-      <c r="P366" s="2"/>
-      <c r="Q366" s="2"/>
-      <c r="R366" s="2"/>
-      <c r="S366" s="2"/>
+      <c r="J366" s="5">
+        <v>0</v>
+      </c>
+      <c r="K366" s="5">
+        <v>0</v>
+      </c>
+      <c r="L366" s="5">
+        <v>0</v>
+      </c>
+      <c r="M366" s="5">
+        <v>0</v>
+      </c>
+      <c r="N366" s="6">
+        <v>-276165.90000000002</v>
+      </c>
+      <c r="O366" s="5">
+        <v>0</v>
+      </c>
+      <c r="P366" s="6">
+        <v>276165.90000000002</v>
+      </c>
+      <c r="Q366" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R366" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S366" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="T366" s="2"/>
-      <c r="U366" s="2"/>
-      <c r="V366" s="2"/>
-      <c r="W366" s="2"/>
-      <c r="X366" s="2"/>
-      <c r="Y366" s="2"/>
-      <c r="Z366" s="2"/>
-      <c r="AA366" s="2"/>
-      <c r="AB366" s="2"/>
-      <c r="AC366" s="2"/>
-      <c r="AD366" s="2"/>
-      <c r="AE366" s="2"/>
-      <c r="AF366" s="2"/>
+      <c r="U366" s="5">
+        <v>0</v>
+      </c>
+      <c r="V366" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W366" s="5">
+        <v>0</v>
+      </c>
+      <c r="X366" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y366" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z366" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA366" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB366" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC366" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD366" s="7">
+        <v>-413294425</v>
+      </c>
+      <c r="AE366" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF366" s="7">
+        <v>413294425</v>
+      </c>
     </row>
     <row r="367" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
+      <c r="A367" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
-      <c r="E367" s="2"/>
-      <c r="F367" s="2"/>
-      <c r="G367" s="2"/>
-      <c r="H367" s="2"/>
-      <c r="I367" s="2"/>
-      <c r="J367" s="2"/>
-      <c r="K367" s="2"/>
-      <c r="L367" s="2"/>
-      <c r="M367" s="2"/>
-      <c r="N367" s="2"/>
-      <c r="O367" s="2"/>
-      <c r="P367" s="2"/>
-      <c r="Q367" s="2"/>
-      <c r="R367" s="2"/>
-      <c r="S367" s="2"/>
+      <c r="D367" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E367" s="5">
+        <v>0</v>
+      </c>
+      <c r="F367" s="6">
+        <v>5500</v>
+      </c>
+      <c r="G367" s="5">
+        <v>191.75399999999999</v>
+      </c>
+      <c r="H367" s="6">
+        <v>1054647.55</v>
+      </c>
+      <c r="I367" s="5">
+        <v>171.88</v>
+      </c>
+      <c r="J367" s="6">
+        <v>945340</v>
+      </c>
+      <c r="K367" s="6">
+        <v>-109307.55</v>
+      </c>
+      <c r="L367" s="7">
+        <v>-133104645</v>
+      </c>
+      <c r="M367" s="5">
+        <v>0</v>
+      </c>
+      <c r="N367" s="5">
+        <v>0</v>
+      </c>
+      <c r="O367" s="5">
+        <v>0</v>
+      </c>
+      <c r="P367" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q367" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R367" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S367" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="T367" s="2"/>
-      <c r="U367" s="2"/>
-      <c r="V367" s="2"/>
-      <c r="W367" s="2"/>
-      <c r="X367" s="2"/>
-      <c r="Y367" s="2"/>
-      <c r="Z367" s="2"/>
-      <c r="AA367" s="2"/>
-      <c r="AB367" s="2"/>
-      <c r="AC367" s="2"/>
-      <c r="AD367" s="2"/>
-      <c r="AE367" s="2"/>
-      <c r="AF367" s="2"/>
+      <c r="U367" s="5">
+        <v>0</v>
+      </c>
+      <c r="V367" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W367" s="6">
+        <v>1426.99</v>
+      </c>
+      <c r="X367" s="7">
+        <v>1504982053</v>
+      </c>
+      <c r="Y367" s="6">
+        <v>1451.2</v>
+      </c>
+      <c r="Z367" s="7">
+        <v>1371877408</v>
+      </c>
+      <c r="AA367" s="7">
+        <v>-158627116</v>
+      </c>
+      <c r="AB367" s="7">
+        <v>25522471</v>
+      </c>
+      <c r="AC367" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD367" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE367" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF367" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="368" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
+      <c r="A368" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="C368" s="2"/>
-      <c r="D368" s="2"/>
-      <c r="E368" s="2"/>
-      <c r="F368" s="2"/>
-      <c r="G368" s="2"/>
-      <c r="H368" s="2"/>
-      <c r="I368" s="2"/>
-      <c r="J368" s="2"/>
-      <c r="K368" s="2"/>
-      <c r="L368" s="2"/>
-      <c r="M368" s="2"/>
-      <c r="N368" s="2"/>
-      <c r="O368" s="2"/>
-      <c r="P368" s="2"/>
-      <c r="Q368" s="2"/>
-      <c r="R368" s="2"/>
-      <c r="S368" s="2"/>
+      <c r="D368" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E368" s="5">
+        <v>0</v>
+      </c>
+      <c r="F368" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G368" s="5">
+        <v>44.158999999999999</v>
+      </c>
+      <c r="H368" s="6">
+        <v>441591</v>
+      </c>
+      <c r="I368" s="5">
+        <v>45.09</v>
+      </c>
+      <c r="J368" s="6">
+        <v>450900</v>
+      </c>
+      <c r="K368" s="6">
+        <v>9309</v>
+      </c>
+      <c r="L368" s="7">
+        <v>5913856</v>
+      </c>
+      <c r="M368" s="5">
+        <v>0</v>
+      </c>
+      <c r="N368" s="5">
+        <v>0</v>
+      </c>
+      <c r="O368" s="5">
+        <v>0</v>
+      </c>
+      <c r="P368" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q368" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R368" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S368" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="T368" s="2"/>
-      <c r="U368" s="2"/>
-      <c r="V368" s="2"/>
-      <c r="W368" s="2"/>
-      <c r="X368" s="2"/>
-      <c r="Y368" s="2"/>
-      <c r="Z368" s="2"/>
-      <c r="AA368" s="2"/>
-      <c r="AB368" s="2"/>
-      <c r="AC368" s="2"/>
-      <c r="AD368" s="2"/>
-      <c r="AE368" s="2"/>
-      <c r="AF368" s="2"/>
+      <c r="U368" s="5">
+        <v>0</v>
+      </c>
+      <c r="V368" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W368" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X368" s="7">
+        <v>648432224</v>
+      </c>
+      <c r="Y368" s="6">
+        <v>1451.2</v>
+      </c>
+      <c r="Z368" s="7">
+        <v>654346080</v>
+      </c>
+      <c r="AA368" s="7">
+        <v>13509220</v>
+      </c>
+      <c r="AB368" s="7">
+        <v>-7595365</v>
+      </c>
+      <c r="AC368" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD368" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE368" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF368" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="369" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A369" s="2"/>
-      <c r="B369" s="2"/>
+      <c r="A369" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C369" s="2"/>
-      <c r="D369" s="2"/>
-      <c r="E369" s="2"/>
-      <c r="F369" s="2"/>
-      <c r="G369" s="2"/>
-      <c r="H369" s="2"/>
-      <c r="I369" s="2"/>
-      <c r="J369" s="2"/>
-      <c r="K369" s="2"/>
-      <c r="L369" s="2"/>
-      <c r="M369" s="2"/>
-      <c r="N369" s="2"/>
-      <c r="O369" s="2"/>
-      <c r="P369" s="2"/>
-      <c r="Q369" s="2"/>
-      <c r="R369" s="2"/>
-      <c r="S369" s="2"/>
+      <c r="D369" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E369" s="5">
+        <v>0</v>
+      </c>
+      <c r="F369" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G369" s="5">
+        <v>681.92</v>
+      </c>
+      <c r="H369" s="6">
+        <v>681920</v>
+      </c>
+      <c r="I369" s="5">
+        <v>677.62</v>
+      </c>
+      <c r="J369" s="6">
+        <v>677620</v>
+      </c>
+      <c r="K369" s="6">
+        <v>-4300</v>
+      </c>
+      <c r="L369" s="7">
+        <v>4875136</v>
+      </c>
+      <c r="M369" s="5">
+        <v>0</v>
+      </c>
+      <c r="N369" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="O369" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="P369" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q369" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R369" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S369" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T369" s="2"/>
-      <c r="U369" s="2"/>
-      <c r="V369" s="2"/>
-      <c r="W369" s="2"/>
-      <c r="X369" s="2"/>
-      <c r="Y369" s="2"/>
-      <c r="Z369" s="2"/>
-      <c r="AA369" s="2"/>
-      <c r="AB369" s="2"/>
-      <c r="AC369" s="2"/>
-      <c r="AD369" s="2"/>
-      <c r="AE369" s="2"/>
-      <c r="AF369" s="2"/>
+      <c r="U369" s="5">
+        <v>0</v>
+      </c>
+      <c r="V369" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W369" s="6">
+        <v>1434.9</v>
+      </c>
+      <c r="X369" s="7">
+        <v>978487008</v>
+      </c>
+      <c r="Y369" s="6">
+        <v>1451.2</v>
+      </c>
+      <c r="Z369" s="7">
+        <v>983362144</v>
+      </c>
+      <c r="AA369" s="7">
+        <v>-6240160</v>
+      </c>
+      <c r="AB369" s="7">
+        <v>11115296</v>
+      </c>
+      <c r="AC369" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD369" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AE369" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AF369" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="370" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
+      <c r="A370" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C370" s="2"/>
-      <c r="D370" s="2"/>
-      <c r="E370" s="2"/>
-      <c r="F370" s="2"/>
-      <c r="G370" s="2"/>
-      <c r="H370" s="2"/>
-      <c r="I370" s="2"/>
-      <c r="J370" s="2"/>
-      <c r="K370" s="2"/>
-      <c r="L370" s="2"/>
-      <c r="M370" s="2"/>
-      <c r="N370" s="2"/>
-      <c r="O370" s="2"/>
-      <c r="P370" s="2"/>
-      <c r="Q370" s="2"/>
-      <c r="R370" s="2"/>
-      <c r="S370" s="2"/>
+      <c r="D370" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E370" s="5">
+        <v>0</v>
+      </c>
+      <c r="F370" s="6">
+        <v>4200</v>
+      </c>
+      <c r="G370" s="5">
+        <v>396.31</v>
+      </c>
+      <c r="H370" s="6">
+        <v>1664502</v>
+      </c>
+      <c r="I370" s="5">
+        <v>441.88</v>
+      </c>
+      <c r="J370" s="6">
+        <v>1855896</v>
+      </c>
+      <c r="K370" s="6">
+        <v>191394</v>
+      </c>
+      <c r="L370" s="7">
+        <v>304882356</v>
+      </c>
+      <c r="M370" s="5">
+        <v>0</v>
+      </c>
+      <c r="N370" s="5">
+        <v>0</v>
+      </c>
+      <c r="O370" s="5">
+        <v>0</v>
+      </c>
+      <c r="P370" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q370" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R370" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S370" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="T370" s="2"/>
-      <c r="U370" s="2"/>
-      <c r="V370" s="2"/>
-      <c r="W370" s="2"/>
-      <c r="X370" s="2"/>
-      <c r="Y370" s="2"/>
-      <c r="Z370" s="2"/>
-      <c r="AA370" s="2"/>
-      <c r="AB370" s="2"/>
-      <c r="AC370" s="2"/>
-      <c r="AD370" s="2"/>
-      <c r="AE370" s="2"/>
-      <c r="AF370" s="2"/>
+      <c r="U370" s="5">
+        <v>0</v>
+      </c>
+      <c r="V370" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W370" s="6">
+        <v>1434.89</v>
+      </c>
+      <c r="X370" s="7">
+        <v>2388393919</v>
+      </c>
+      <c r="Y370" s="6">
+        <v>1451.2</v>
+      </c>
+      <c r="Z370" s="7">
+        <v>2693276275</v>
+      </c>
+      <c r="AA370" s="7">
+        <v>277750972</v>
+      </c>
+      <c r="AB370" s="7">
+        <v>27131383</v>
+      </c>
+      <c r="AC370" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD370" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE370" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF370" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="371" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
+      <c r="A371" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C371" s="2"/>
-      <c r="D371" s="2"/>
-      <c r="E371" s="2"/>
-      <c r="F371" s="2"/>
-      <c r="G371" s="2"/>
-      <c r="H371" s="2"/>
-      <c r="I371" s="2"/>
-      <c r="J371" s="2"/>
-      <c r="K371" s="2"/>
-      <c r="L371" s="2"/>
-      <c r="M371" s="2"/>
-      <c r="N371" s="2"/>
-      <c r="O371" s="2"/>
-      <c r="P371" s="2"/>
-      <c r="Q371" s="2"/>
-      <c r="R371" s="2"/>
-      <c r="S371" s="2"/>
+      <c r="D371" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E371" s="5">
+        <v>0</v>
+      </c>
+      <c r="F371" s="6">
+        <v>24000</v>
+      </c>
+      <c r="G371" s="5">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H371" s="6">
+        <v>423736.8</v>
+      </c>
+      <c r="I371" s="5">
+        <v>15.93</v>
+      </c>
+      <c r="J371" s="6">
+        <v>382320</v>
+      </c>
+      <c r="K371" s="6">
+        <v>-41416.800000000003</v>
+      </c>
+      <c r="L371" s="7">
+        <v>-65570264</v>
+      </c>
+      <c r="M371" s="5">
+        <v>0</v>
+      </c>
+      <c r="N371" s="5">
+        <v>0</v>
+      </c>
+      <c r="O371" s="5">
+        <v>0</v>
+      </c>
+      <c r="P371" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q371" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R371" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S371" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="T371" s="2"/>
-      <c r="U371" s="2"/>
-      <c r="V371" s="2"/>
-      <c r="W371" s="2"/>
-      <c r="X371" s="2"/>
-      <c r="Y371" s="2"/>
-      <c r="Z371" s="2"/>
-      <c r="AA371" s="2"/>
-      <c r="AB371" s="2"/>
-      <c r="AC371" s="2"/>
-      <c r="AD371" s="2"/>
-      <c r="AE371" s="2"/>
-      <c r="AF371" s="2"/>
+      <c r="U371" s="5">
+        <v>0</v>
+      </c>
+      <c r="V371" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W371" s="6">
+        <v>1464.09</v>
+      </c>
+      <c r="X371" s="7">
+        <v>620393048</v>
+      </c>
+      <c r="Y371" s="6">
+        <v>1451.2</v>
+      </c>
+      <c r="Z371" s="7">
+        <v>554822784</v>
+      </c>
+      <c r="AA371" s="7">
+        <v>-60104060</v>
+      </c>
+      <c r="AB371" s="7">
+        <v>-5466204</v>
+      </c>
+      <c r="AC371" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD371" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE371" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF371" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="372" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
+      <c r="A372" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="C372" s="2"/>
-      <c r="D372" s="2"/>
-      <c r="E372" s="2"/>
-      <c r="F372" s="2"/>
-      <c r="G372" s="2"/>
-      <c r="H372" s="2"/>
-      <c r="I372" s="2"/>
-      <c r="J372" s="2"/>
-      <c r="K372" s="2"/>
-      <c r="L372" s="2"/>
-      <c r="M372" s="2"/>
-      <c r="N372" s="2"/>
-      <c r="O372" s="2"/>
-      <c r="P372" s="2"/>
-      <c r="Q372" s="2"/>
-      <c r="R372" s="2"/>
-      <c r="S372" s="2"/>
+      <c r="D372" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E372" s="5">
+        <v>0</v>
+      </c>
+      <c r="F372" s="6">
+        <v>1400</v>
+      </c>
+      <c r="G372" s="5">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H372" s="6">
+        <v>605554.04</v>
+      </c>
+      <c r="I372" s="5">
+        <v>397.21</v>
+      </c>
+      <c r="J372" s="6">
+        <v>556094</v>
+      </c>
+      <c r="K372" s="6">
+        <v>-49460.04</v>
+      </c>
+      <c r="L372" s="7">
+        <v>-69111973</v>
+      </c>
+      <c r="M372" s="5">
+        <v>0</v>
+      </c>
+      <c r="N372" s="5">
+        <v>0</v>
+      </c>
+      <c r="O372" s="5">
+        <v>0</v>
+      </c>
+      <c r="P372" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q372" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R372" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S372" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="T372" s="2"/>
-      <c r="U372" s="2"/>
-      <c r="V372" s="2"/>
-      <c r="W372" s="2"/>
-      <c r="X372" s="2"/>
-      <c r="Y372" s="2"/>
-      <c r="Z372" s="2"/>
-      <c r="AA372" s="2"/>
-      <c r="AB372" s="2"/>
-      <c r="AC372" s="2"/>
-      <c r="AD372" s="2"/>
-      <c r="AE372" s="2"/>
-      <c r="AF372" s="2"/>
+      <c r="U372" s="5">
+        <v>0</v>
+      </c>
+      <c r="V372" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W372" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X372" s="7">
+        <v>876115585</v>
+      </c>
+      <c r="Y372" s="6">
+        <v>1451.2</v>
+      </c>
+      <c r="Z372" s="7">
+        <v>807003612</v>
+      </c>
+      <c r="AA372" s="7">
+        <v>-71776410</v>
+      </c>
+      <c r="AB372" s="7">
+        <v>2664437</v>
+      </c>
+      <c r="AC372" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD372" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE372" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF372" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="373" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
+      <c r="A373" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C373" s="2"/>
-      <c r="D373" s="2"/>
-      <c r="E373" s="2"/>
-      <c r="F373" s="2"/>
-      <c r="G373" s="2"/>
-      <c r="H373" s="2"/>
-      <c r="I373" s="2"/>
-      <c r="J373" s="2"/>
-      <c r="K373" s="2"/>
-      <c r="L373" s="2"/>
-      <c r="M373" s="2"/>
-      <c r="N373" s="2"/>
-      <c r="O373" s="2"/>
-      <c r="P373" s="2"/>
-      <c r="Q373" s="2"/>
-      <c r="R373" s="2"/>
-      <c r="S373" s="2"/>
+      <c r="D373" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E373" s="5">
+        <v>0</v>
+      </c>
+      <c r="F373" s="6">
+        <v>3500</v>
+      </c>
+      <c r="G373" s="5">
+        <v>169.042</v>
+      </c>
+      <c r="H373" s="6">
+        <v>591649.80000000005</v>
+      </c>
+      <c r="I373" s="5">
+        <v>143.07</v>
+      </c>
+      <c r="J373" s="6">
+        <v>500745</v>
+      </c>
+      <c r="K373" s="6">
+        <v>-90904.8</v>
+      </c>
+      <c r="L373" s="7">
+        <v>-129317786</v>
+      </c>
+      <c r="M373" s="5">
+        <v>0</v>
+      </c>
+      <c r="N373" s="5">
+        <v>0</v>
+      </c>
+      <c r="O373" s="5">
+        <v>0</v>
+      </c>
+      <c r="P373" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q373" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R373" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S373" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="T373" s="2"/>
-      <c r="U373" s="2"/>
-      <c r="V373" s="2"/>
-      <c r="W373" s="2"/>
-      <c r="X373" s="2"/>
-      <c r="Y373" s="2"/>
-      <c r="Z373" s="2"/>
-      <c r="AA373" s="2"/>
-      <c r="AB373" s="2"/>
-      <c r="AC373" s="2"/>
-      <c r="AD373" s="2"/>
-      <c r="AE373" s="2"/>
-      <c r="AF373" s="2"/>
-    </row>
-    <row r="374" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
+      <c r="U373" s="5">
+        <v>0</v>
+      </c>
+      <c r="V373" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W373" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X373" s="7">
+        <v>855998930</v>
+      </c>
+      <c r="Y373" s="6">
+        <v>1451.2</v>
+      </c>
+      <c r="Z373" s="7">
+        <v>726681144</v>
+      </c>
+      <c r="AA373" s="7">
+        <v>-131921045</v>
+      </c>
+      <c r="AB373" s="7">
+        <v>2603259</v>
+      </c>
+      <c r="AC373" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD373" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE373" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF373" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C374" s="2"/>
-      <c r="D374" s="2"/>
-      <c r="E374" s="2"/>
-      <c r="F374" s="2"/>
-      <c r="G374" s="2"/>
-      <c r="H374" s="2"/>
+      <c r="D374" s="5">
+        <v>6869</v>
+      </c>
+      <c r="E374" s="5">
+        <v>0</v>
+      </c>
+      <c r="F374" s="5">
+        <v>0</v>
+      </c>
+      <c r="G374" s="5">
+        <v>0</v>
+      </c>
+      <c r="H374" s="5">
+        <v>0</v>
+      </c>
       <c r="I374" s="2"/>
-      <c r="J374" s="2"/>
-      <c r="K374" s="2"/>
-      <c r="L374" s="2"/>
-      <c r="M374" s="2"/>
-      <c r="N374" s="2"/>
-      <c r="O374" s="2"/>
-      <c r="P374" s="2"/>
-      <c r="Q374" s="2"/>
-      <c r="R374" s="2"/>
-      <c r="S374" s="2"/>
+      <c r="J374" s="5">
+        <v>0</v>
+      </c>
+      <c r="K374" s="5">
+        <v>0</v>
+      </c>
+      <c r="L374" s="5">
+        <v>0</v>
+      </c>
+      <c r="M374" s="5">
+        <v>0</v>
+      </c>
+      <c r="N374" s="6">
+        <v>349976</v>
+      </c>
+      <c r="O374" s="6">
+        <v>349976</v>
+      </c>
+      <c r="P374" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q374" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R374" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S374" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="T374" s="2"/>
-      <c r="U374" s="2"/>
-      <c r="V374" s="2"/>
-      <c r="W374" s="2"/>
-      <c r="X374" s="2"/>
-      <c r="Y374" s="2"/>
-      <c r="Z374" s="2"/>
-      <c r="AA374" s="2"/>
-      <c r="AB374" s="2"/>
-      <c r="AC374" s="2"/>
-      <c r="AD374" s="2"/>
-      <c r="AE374" s="2"/>
-      <c r="AF374" s="2"/>
-    </row>
-    <row r="375" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
+      <c r="U374" s="5">
+        <v>0</v>
+      </c>
+      <c r="V374" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W374" s="5">
+        <v>0</v>
+      </c>
+      <c r="X374" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y374" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z374" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA374" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB374" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC374" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD374" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AE374" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AF374" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C375" s="2"/>
-      <c r="D375" s="2"/>
-      <c r="E375" s="2"/>
-      <c r="F375" s="2"/>
-      <c r="G375" s="2"/>
-      <c r="H375" s="2"/>
-      <c r="I375" s="2"/>
-      <c r="J375" s="2"/>
-      <c r="K375" s="2"/>
-      <c r="L375" s="2"/>
-      <c r="M375" s="2"/>
-      <c r="N375" s="2"/>
-      <c r="O375" s="2"/>
-      <c r="P375" s="2"/>
-      <c r="Q375" s="2"/>
-      <c r="R375" s="2"/>
-      <c r="S375" s="2"/>
+      <c r="D375" s="5">
+        <v>2359</v>
+      </c>
+      <c r="E375" s="5">
+        <v>0</v>
+      </c>
+      <c r="F375" s="6">
+        <v>25000</v>
+      </c>
+      <c r="G375" s="5">
+        <v>118.559</v>
+      </c>
+      <c r="H375" s="6">
+        <v>2963990</v>
+      </c>
+      <c r="I375" s="5">
+        <v>113.3</v>
+      </c>
+      <c r="J375" s="6">
+        <v>2832500</v>
+      </c>
+      <c r="K375" s="6">
+        <v>-131490</v>
+      </c>
+      <c r="L375" s="7">
+        <v>-33910350</v>
+      </c>
+      <c r="M375" s="5">
+        <v>0</v>
+      </c>
+      <c r="N375" s="5">
+        <v>0</v>
+      </c>
+      <c r="O375" s="5">
+        <v>0</v>
+      </c>
+      <c r="P375" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q375" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R375" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S375" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T375" s="2"/>
-      <c r="U375" s="2"/>
-      <c r="V375" s="2"/>
-      <c r="W375" s="2"/>
-      <c r="X375" s="2"/>
-      <c r="Y375" s="2"/>
-      <c r="Z375" s="2"/>
-      <c r="AA375" s="2"/>
-      <c r="AB375" s="2"/>
-      <c r="AC375" s="2"/>
-      <c r="AD375" s="2"/>
-      <c r="AE375" s="2"/>
-      <c r="AF375" s="2"/>
-    </row>
-    <row r="376" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
+      <c r="U375" s="5">
+        <v>0</v>
+      </c>
+      <c r="V375" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W375" s="5">
+        <v>188.95</v>
+      </c>
+      <c r="X375" s="7">
+        <v>560075550</v>
+      </c>
+      <c r="Y375" s="5">
+        <v>185.76</v>
+      </c>
+      <c r="Z375" s="7">
+        <v>526165200</v>
+      </c>
+      <c r="AA375" s="7">
+        <v>-24425582</v>
+      </c>
+      <c r="AB375" s="7">
+        <v>-9484768</v>
+      </c>
+      <c r="AC375" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD375" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE375" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF375" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C376" s="2"/>
-      <c r="D376" s="2"/>
-      <c r="E376" s="2"/>
-      <c r="F376" s="2"/>
-      <c r="G376" s="2"/>
-      <c r="H376" s="2"/>
-      <c r="I376" s="2"/>
-      <c r="J376" s="2"/>
-      <c r="K376" s="2"/>
-      <c r="L376" s="2"/>
-      <c r="M376" s="2"/>
-      <c r="N376" s="2"/>
-      <c r="O376" s="2"/>
-      <c r="P376" s="2"/>
-      <c r="Q376" s="2"/>
-      <c r="R376" s="2"/>
-      <c r="S376" s="2"/>
+      <c r="D376" s="5">
+        <v>6680</v>
+      </c>
+      <c r="E376" s="5">
+        <v>0</v>
+      </c>
+      <c r="F376" s="6">
+        <v>130000</v>
+      </c>
+      <c r="G376" s="5">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H376" s="6">
+        <v>2921022</v>
+      </c>
+      <c r="I376" s="5">
+        <v>20.28</v>
+      </c>
+      <c r="J376" s="6">
+        <v>2636400</v>
+      </c>
+      <c r="K376" s="6">
+        <v>-284622</v>
+      </c>
+      <c r="L376" s="7">
+        <v>-62014181</v>
+      </c>
+      <c r="M376" s="5">
+        <v>0</v>
+      </c>
+      <c r="N376" s="5">
+        <v>0</v>
+      </c>
+      <c r="O376" s="5">
+        <v>0</v>
+      </c>
+      <c r="P376" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q376" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R376" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S376" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="T376" s="2"/>
-      <c r="U376" s="2"/>
-      <c r="V376" s="2"/>
-      <c r="W376" s="2"/>
-      <c r="X376" s="2"/>
-      <c r="Y376" s="2"/>
-      <c r="Z376" s="2"/>
-      <c r="AA376" s="2"/>
-      <c r="AB376" s="2"/>
-      <c r="AC376" s="2"/>
-      <c r="AD376" s="2"/>
-      <c r="AE376" s="2"/>
-      <c r="AF376" s="2"/>
-    </row>
-    <row r="377" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A377" s="2"/>
-      <c r="B377" s="2"/>
+      <c r="U376" s="5">
+        <v>0</v>
+      </c>
+      <c r="V376" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W376" s="5">
+        <v>188.88</v>
+      </c>
+      <c r="X376" s="7">
+        <v>551751845</v>
+      </c>
+      <c r="Y376" s="5">
+        <v>185.76</v>
+      </c>
+      <c r="Z376" s="7">
+        <v>489737664</v>
+      </c>
+      <c r="AA376" s="7">
+        <v>-52871382</v>
+      </c>
+      <c r="AB376" s="7">
+        <v>-9142799</v>
+      </c>
+      <c r="AC376" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD376" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE376" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF376" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C377" s="2"/>
-      <c r="D377" s="2"/>
-      <c r="E377" s="2"/>
-      <c r="F377" s="2"/>
-      <c r="G377" s="2"/>
-      <c r="H377" s="2"/>
+      <c r="D377" s="5">
+        <v>6181</v>
+      </c>
+      <c r="E377" s="5">
+        <v>0</v>
+      </c>
+      <c r="F377" s="5">
+        <v>0</v>
+      </c>
+      <c r="G377" s="5">
+        <v>0</v>
+      </c>
+      <c r="H377" s="5">
+        <v>0</v>
+      </c>
       <c r="I377" s="2"/>
-      <c r="J377" s="2"/>
-      <c r="K377" s="2"/>
-      <c r="L377" s="2"/>
-      <c r="M377" s="2"/>
-      <c r="N377" s="2"/>
-      <c r="O377" s="2"/>
-      <c r="P377" s="2"/>
-      <c r="Q377" s="2"/>
-      <c r="R377" s="2"/>
-      <c r="S377" s="2"/>
+      <c r="J377" s="5">
+        <v>0</v>
+      </c>
+      <c r="K377" s="5">
+        <v>0</v>
+      </c>
+      <c r="L377" s="5">
+        <v>0</v>
+      </c>
+      <c r="M377" s="5">
+        <v>0</v>
+      </c>
+      <c r="N377" s="6">
+        <v>-6374.88</v>
+      </c>
+      <c r="O377" s="5">
+        <v>0</v>
+      </c>
+      <c r="P377" s="6">
+        <v>6374.88</v>
+      </c>
+      <c r="Q377" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R377" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S377" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="T377" s="2"/>
-      <c r="U377" s="2"/>
-      <c r="V377" s="2"/>
-      <c r="W377" s="2"/>
-      <c r="X377" s="2"/>
-      <c r="Y377" s="2"/>
-      <c r="Z377" s="2"/>
-      <c r="AA377" s="2"/>
-      <c r="AB377" s="2"/>
-      <c r="AC377" s="2"/>
-      <c r="AD377" s="2"/>
-      <c r="AE377" s="2"/>
-      <c r="AF377" s="2"/>
-    </row>
-    <row r="378" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A378" s="2"/>
-      <c r="B378" s="2"/>
+      <c r="U377" s="5">
+        <v>0</v>
+      </c>
+      <c r="V377" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W377" s="5">
+        <v>0</v>
+      </c>
+      <c r="X377" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y377" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z377" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA377" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB377" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC377" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD377" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AE377" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AF377" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C378" s="2"/>
-      <c r="D378" s="2"/>
-      <c r="E378" s="2"/>
-      <c r="F378" s="2"/>
-      <c r="G378" s="2"/>
-      <c r="H378" s="2"/>
+      <c r="D378" s="5">
+        <v>6082</v>
+      </c>
+      <c r="E378" s="5">
+        <v>0</v>
+      </c>
+      <c r="F378" s="5">
+        <v>0</v>
+      </c>
+      <c r="G378" s="5">
+        <v>0</v>
+      </c>
+      <c r="H378" s="5">
+        <v>0</v>
+      </c>
       <c r="I378" s="2"/>
-      <c r="J378" s="2"/>
-      <c r="K378" s="2"/>
-      <c r="L378" s="2"/>
-      <c r="M378" s="2"/>
-      <c r="N378" s="2"/>
-      <c r="O378" s="2"/>
-      <c r="P378" s="2"/>
-      <c r="Q378" s="2"/>
-      <c r="R378" s="2"/>
-      <c r="S378" s="2"/>
+      <c r="J378" s="5">
+        <v>0</v>
+      </c>
+      <c r="K378" s="5">
+        <v>0</v>
+      </c>
+      <c r="L378" s="5">
+        <v>0</v>
+      </c>
+      <c r="M378" s="5">
+        <v>0</v>
+      </c>
+      <c r="N378" s="6">
+        <v>205980</v>
+      </c>
+      <c r="O378" s="6">
+        <v>205980</v>
+      </c>
+      <c r="P378" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q378" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R378" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S378" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="T378" s="2"/>
-      <c r="U378" s="2"/>
-      <c r="V378" s="2"/>
-      <c r="W378" s="2"/>
-      <c r="X378" s="2"/>
-      <c r="Y378" s="2"/>
-      <c r="Z378" s="2"/>
-      <c r="AA378" s="2"/>
-      <c r="AB378" s="2"/>
-      <c r="AC378" s="2"/>
-      <c r="AD378" s="2"/>
-      <c r="AE378" s="2"/>
-      <c r="AF378" s="2"/>
-    </row>
-    <row r="379" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A379" s="2"/>
-      <c r="B379" s="2"/>
+      <c r="U378" s="5">
+        <v>0</v>
+      </c>
+      <c r="V378" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W378" s="5">
+        <v>0</v>
+      </c>
+      <c r="X378" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y378" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z378" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA378" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB378" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC378" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD378" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AE378" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AF378" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="C379" s="2"/>
-      <c r="D379" s="2"/>
-      <c r="E379" s="2"/>
-      <c r="F379" s="2"/>
-      <c r="G379" s="2"/>
-      <c r="H379" s="2"/>
-      <c r="I379" s="2"/>
-      <c r="J379" s="2"/>
-      <c r="K379" s="2"/>
-      <c r="L379" s="2"/>
-      <c r="M379" s="2"/>
-      <c r="N379" s="2"/>
-      <c r="O379" s="2"/>
-      <c r="P379" s="2"/>
-      <c r="Q379" s="2"/>
-      <c r="R379" s="2"/>
-      <c r="S379" s="2"/>
+      <c r="D379" s="5">
+        <v>3033</v>
+      </c>
+      <c r="E379" s="5">
+        <v>0</v>
+      </c>
+      <c r="F379" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G379" s="5">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="H379" s="6">
+        <v>5713300</v>
+      </c>
+      <c r="I379" s="5">
+        <v>5.28</v>
+      </c>
+      <c r="J379" s="6">
+        <v>5280000</v>
+      </c>
+      <c r="K379" s="6">
+        <v>-433300</v>
+      </c>
+      <c r="L379" s="7">
+        <v>-65349563</v>
+      </c>
+      <c r="M379" s="5">
+        <v>0</v>
+      </c>
+      <c r="N379" s="5">
+        <v>0</v>
+      </c>
+      <c r="O379" s="5">
+        <v>0</v>
+      </c>
+      <c r="P379" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q379" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R379" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S379" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T379" s="2"/>
-      <c r="U379" s="2"/>
-      <c r="V379" s="2"/>
-      <c r="W379" s="2"/>
-      <c r="X379" s="2"/>
-      <c r="Y379" s="2"/>
-      <c r="Z379" s="2"/>
-      <c r="AA379" s="2"/>
-      <c r="AB379" s="2"/>
-      <c r="AC379" s="2"/>
-      <c r="AD379" s="2"/>
-      <c r="AE379" s="2"/>
-      <c r="AF379" s="2"/>
-    </row>
-    <row r="380" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A380" s="2"/>
-      <c r="B380" s="2"/>
+      <c r="U379" s="5">
+        <v>0</v>
+      </c>
+      <c r="V379" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W379" s="5">
+        <v>183.11</v>
+      </c>
+      <c r="X379" s="7">
+        <v>1046162363</v>
+      </c>
+      <c r="Y379" s="5">
+        <v>185.76</v>
+      </c>
+      <c r="Z379" s="7">
+        <v>980812800</v>
+      </c>
+      <c r="AA379" s="7">
+        <v>-80489808</v>
+      </c>
+      <c r="AB379" s="7">
+        <v>15140245</v>
+      </c>
+      <c r="AC379" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD379" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE379" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF379" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C380" s="2"/>
-      <c r="D380" s="2"/>
-      <c r="E380" s="2"/>
-      <c r="F380" s="2"/>
-      <c r="G380" s="2"/>
-      <c r="H380" s="2"/>
-      <c r="I380" s="2"/>
-      <c r="J380" s="2"/>
-      <c r="K380" s="2"/>
-      <c r="L380" s="2"/>
-      <c r="M380" s="2"/>
-      <c r="N380" s="2"/>
-      <c r="O380" s="2"/>
-      <c r="P380" s="2"/>
-      <c r="Q380" s="2"/>
-      <c r="R380" s="2"/>
-      <c r="S380" s="2"/>
+      <c r="D380" s="5">
+        <v>9988</v>
+      </c>
+      <c r="E380" s="5">
+        <v>0</v>
+      </c>
+      <c r="F380" s="6">
+        <v>70500</v>
+      </c>
+      <c r="G380" s="5">
+        <v>147.79</v>
+      </c>
+      <c r="H380" s="6">
+        <v>10419200</v>
+      </c>
+      <c r="I380" s="5">
+        <v>159.6</v>
+      </c>
+      <c r="J380" s="6">
+        <v>11251800</v>
+      </c>
+      <c r="K380" s="6">
+        <v>832600</v>
+      </c>
+      <c r="L380" s="7">
+        <v>155335768</v>
+      </c>
+      <c r="M380" s="5">
+        <v>0</v>
+      </c>
+      <c r="N380" s="5">
+        <v>0</v>
+      </c>
+      <c r="O380" s="5">
+        <v>0</v>
+      </c>
+      <c r="P380" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q380" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R380" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S380" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="T380" s="2"/>
-      <c r="U380" s="2"/>
-      <c r="V380" s="2"/>
-      <c r="W380" s="2"/>
-      <c r="X380" s="2"/>
-      <c r="Y380" s="2"/>
-      <c r="Z380" s="2"/>
-      <c r="AA380" s="2"/>
-      <c r="AB380" s="2"/>
-      <c r="AC380" s="2"/>
-      <c r="AD380" s="2"/>
-      <c r="AE380" s="2"/>
-      <c r="AF380" s="2"/>
+      <c r="U380" s="5">
+        <v>0</v>
+      </c>
+      <c r="V380" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W380" s="5">
+        <v>185.69</v>
+      </c>
+      <c r="X380" s="7">
+        <v>1934798600</v>
+      </c>
+      <c r="Y380" s="5">
+        <v>185.76</v>
+      </c>
+      <c r="Z380" s="7">
+        <v>2090134368</v>
+      </c>
+      <c r="AA380" s="7">
+        <v>154663776</v>
+      </c>
+      <c r="AB380" s="7">
+        <v>671992</v>
+      </c>
+      <c r="AC380" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD380" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE380" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF380" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="381" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A381" s="2"/>
-      <c r="B381" s="2"/>
+      <c r="A381" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C381" s="2"/>
-      <c r="D381" s="2"/>
-      <c r="E381" s="2"/>
-      <c r="F381" s="2"/>
-      <c r="G381" s="2"/>
-      <c r="H381" s="2"/>
-      <c r="I381" s="2"/>
-      <c r="J381" s="2"/>
-      <c r="K381" s="2"/>
-      <c r="L381" s="2"/>
-      <c r="M381" s="2"/>
-      <c r="N381" s="2"/>
-      <c r="O381" s="2"/>
-      <c r="P381" s="2"/>
-      <c r="Q381" s="2"/>
-      <c r="R381" s="2"/>
-      <c r="S381" s="2"/>
+      <c r="D381" s="5">
+        <v>6861</v>
+      </c>
+      <c r="E381" s="5">
+        <v>0</v>
+      </c>
+      <c r="F381" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G381" s="6">
+        <v>55916.79</v>
+      </c>
+      <c r="H381" s="6">
+        <v>106241900</v>
+      </c>
+      <c r="I381" s="6">
+        <v>53350</v>
+      </c>
+      <c r="J381" s="6">
+        <v>101365000</v>
+      </c>
+      <c r="K381" s="6">
+        <v>-4876900</v>
+      </c>
+      <c r="L381" s="7">
+        <v>-44142295</v>
+      </c>
+      <c r="M381" s="5">
+        <v>0</v>
+      </c>
+      <c r="N381" s="5">
+        <v>0</v>
+      </c>
+      <c r="O381" s="5">
+        <v>0</v>
+      </c>
+      <c r="P381" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q381" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R381" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S381" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="T381" s="2"/>
-      <c r="U381" s="2"/>
-      <c r="V381" s="2"/>
-      <c r="W381" s="2"/>
-      <c r="X381" s="2"/>
-      <c r="Y381" s="2"/>
-      <c r="Z381" s="2"/>
-      <c r="AA381" s="2"/>
-      <c r="AB381" s="2"/>
-      <c r="AC381" s="2"/>
-      <c r="AD381" s="2"/>
-      <c r="AE381" s="2"/>
-      <c r="AF381" s="2"/>
+      <c r="U381" s="5">
+        <v>0</v>
+      </c>
+      <c r="V381" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W381" s="5">
+        <v>924.45</v>
+      </c>
+      <c r="X381" s="7">
+        <v>982163868</v>
+      </c>
+      <c r="Y381" s="5">
+        <v>925.39</v>
+      </c>
+      <c r="Z381" s="7">
+        <v>938021573</v>
+      </c>
+      <c r="AA381" s="7">
+        <v>-45130344</v>
+      </c>
+      <c r="AB381" s="7">
+        <v>988050</v>
+      </c>
+      <c r="AC381" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD381" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE381" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF381" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="382" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A382" s="2"/>
-      <c r="B382" s="2"/>
+      <c r="A382" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C382" s="2"/>
-      <c r="D382" s="2"/>
-      <c r="E382" s="2"/>
-      <c r="F382" s="2"/>
-      <c r="G382" s="2"/>
-      <c r="H382" s="2"/>
-      <c r="I382" s="2"/>
-      <c r="J382" s="2"/>
-      <c r="K382" s="2"/>
-      <c r="L382" s="2"/>
-      <c r="M382" s="2"/>
-      <c r="N382" s="2"/>
-      <c r="O382" s="2"/>
-      <c r="P382" s="2"/>
-      <c r="Q382" s="2"/>
-      <c r="R382" s="2"/>
-      <c r="S382" s="2"/>
+      <c r="D382" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E382" s="5">
+        <v>0</v>
+      </c>
+      <c r="F382" s="6">
+        <v>4200</v>
+      </c>
+      <c r="G382" s="6">
+        <v>19129.990000000002</v>
+      </c>
+      <c r="H382" s="6">
+        <v>80345950</v>
+      </c>
+      <c r="I382" s="6">
+        <v>19530</v>
+      </c>
+      <c r="J382" s="6">
+        <v>82026000</v>
+      </c>
+      <c r="K382" s="6">
+        <v>1680050</v>
+      </c>
+      <c r="L382" s="7">
+        <v>16655789</v>
+      </c>
+      <c r="M382" s="5">
+        <v>0</v>
+      </c>
+      <c r="N382" s="6">
+        <v>4480700</v>
+      </c>
+      <c r="O382" s="6">
+        <v>4480700</v>
+      </c>
+      <c r="P382" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q382" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R382" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S382" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="T382" s="2"/>
-      <c r="U382" s="2"/>
-      <c r="V382" s="2"/>
-      <c r="W382" s="2"/>
-      <c r="X382" s="2"/>
-      <c r="Y382" s="2"/>
-      <c r="Z382" s="2"/>
-      <c r="AA382" s="2"/>
-      <c r="AB382" s="2"/>
-      <c r="AC382" s="2"/>
-      <c r="AD382" s="2"/>
-      <c r="AE382" s="2"/>
-      <c r="AF382" s="2"/>
+      <c r="U382" s="5">
+        <v>0</v>
+      </c>
+      <c r="V382" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W382" s="5">
+        <v>924</v>
+      </c>
+      <c r="X382" s="7">
+        <v>742404612</v>
+      </c>
+      <c r="Y382" s="5">
+        <v>925.39</v>
+      </c>
+      <c r="Z382" s="7">
+        <v>759060401</v>
+      </c>
+      <c r="AA382" s="7">
+        <v>15547014</v>
+      </c>
+      <c r="AB382" s="7">
+        <v>1108774</v>
+      </c>
+      <c r="AC382" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD382" s="7">
+        <v>37760160</v>
+      </c>
+      <c r="AE382" s="7">
+        <v>37760160</v>
+      </c>
+      <c r="AF382" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="383" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A383" s="2"/>
-      <c r="B383" s="2"/>
+      <c r="A383" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C383" s="2"/>
-      <c r="D383" s="2"/>
-      <c r="E383" s="2"/>
-      <c r="F383" s="2"/>
-      <c r="G383" s="2"/>
-      <c r="H383" s="2"/>
-      <c r="I383" s="2"/>
-      <c r="J383" s="2"/>
-      <c r="K383" s="2"/>
-      <c r="L383" s="2"/>
-      <c r="M383" s="2"/>
-      <c r="N383" s="2"/>
-      <c r="O383" s="2"/>
-      <c r="P383" s="2"/>
-      <c r="Q383" s="2"/>
-      <c r="R383" s="2"/>
-      <c r="S383" s="2"/>
+      <c r="D383" s="5">
+        <v>9984</v>
+      </c>
+      <c r="E383" s="5">
+        <v>0</v>
+      </c>
+      <c r="F383" s="6">
+        <v>23000</v>
+      </c>
+      <c r="G383" s="6">
+        <v>4066.73</v>
+      </c>
+      <c r="H383" s="6">
+        <v>93534900</v>
+      </c>
+      <c r="I383" s="6">
+        <v>3912</v>
+      </c>
+      <c r="J383" s="6">
+        <v>89976000</v>
+      </c>
+      <c r="K383" s="6">
+        <v>-3558900</v>
+      </c>
+      <c r="L383" s="7">
+        <v>-33990649</v>
+      </c>
+      <c r="M383" s="5">
+        <v>0</v>
+      </c>
+      <c r="N383" s="5">
+        <v>0</v>
+      </c>
+      <c r="O383" s="5">
+        <v>0</v>
+      </c>
+      <c r="P383" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q383" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R383" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S383" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T383" s="2"/>
-      <c r="U383" s="2"/>
-      <c r="V383" s="2"/>
-      <c r="W383" s="2"/>
-      <c r="X383" s="2"/>
-      <c r="Y383" s="2"/>
-      <c r="Z383" s="2"/>
-      <c r="AA383" s="2"/>
-      <c r="AB383" s="2"/>
-      <c r="AC383" s="2"/>
-      <c r="AD383" s="2"/>
-      <c r="AE383" s="2"/>
-      <c r="AF383" s="2"/>
+      <c r="U383" s="5">
+        <v>0</v>
+      </c>
+      <c r="V383" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W383" s="5">
+        <v>926.51</v>
+      </c>
+      <c r="X383" s="7">
+        <v>866619555</v>
+      </c>
+      <c r="Y383" s="5">
+        <v>925.39</v>
+      </c>
+      <c r="Z383" s="7">
+        <v>832628906</v>
+      </c>
+      <c r="AA383" s="7">
+        <v>-32933704</v>
+      </c>
+      <c r="AB383" s="7">
+        <v>-1056944</v>
+      </c>
+      <c r="AC383" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD383" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE383" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF383" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="384" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A384" s="2"/>
-      <c r="B384" s="2"/>
+      <c r="A384" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C384" s="2"/>
-      <c r="D384" s="2"/>
-      <c r="E384" s="2"/>
-      <c r="F384" s="2"/>
-      <c r="G384" s="2"/>
-      <c r="H384" s="2"/>
-      <c r="I384" s="2"/>
-      <c r="J384" s="2"/>
-      <c r="K384" s="2"/>
-      <c r="L384" s="2"/>
-      <c r="M384" s="2"/>
-      <c r="N384" s="2"/>
-      <c r="O384" s="2"/>
-      <c r="P384" s="2"/>
-      <c r="Q384" s="2"/>
-      <c r="R384" s="2"/>
-      <c r="S384" s="2"/>
+      <c r="D384" s="5">
+        <v>6954</v>
+      </c>
+      <c r="E384" s="5">
+        <v>0</v>
+      </c>
+      <c r="F384" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G384" s="6">
+        <v>6568.27</v>
+      </c>
+      <c r="H384" s="6">
+        <v>65682650</v>
+      </c>
+      <c r="I384" s="6">
+        <v>6562</v>
+      </c>
+      <c r="J384" s="6">
+        <v>65620000</v>
+      </c>
+      <c r="K384" s="6">
+        <v>-62650</v>
+      </c>
+      <c r="L384" s="7">
+        <v>-1650384</v>
+      </c>
+      <c r="M384" s="5">
+        <v>0</v>
+      </c>
+      <c r="N384" s="5">
+        <v>0</v>
+      </c>
+      <c r="O384" s="5">
+        <v>0</v>
+      </c>
+      <c r="P384" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q384" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R384" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S384" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="T384" s="2"/>
-      <c r="U384" s="2"/>
-      <c r="V384" s="2"/>
-      <c r="W384" s="2"/>
-      <c r="X384" s="2"/>
-      <c r="Y384" s="2"/>
-      <c r="Z384" s="2"/>
-      <c r="AA384" s="2"/>
-      <c r="AB384" s="2"/>
-      <c r="AC384" s="2"/>
-      <c r="AD384" s="2"/>
-      <c r="AE384" s="2"/>
-      <c r="AF384" s="2"/>
+      <c r="U384" s="5">
+        <v>0</v>
+      </c>
+      <c r="V384" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W384" s="5">
+        <v>927.01</v>
+      </c>
+      <c r="X384" s="7">
+        <v>608891302</v>
+      </c>
+      <c r="Y384" s="5">
+        <v>925.39</v>
+      </c>
+      <c r="Z384" s="7">
+        <v>607240918</v>
+      </c>
+      <c r="AA384" s="7">
+        <v>-579756</v>
+      </c>
+      <c r="AB384" s="7">
+        <v>-1070628</v>
+      </c>
+      <c r="AC384" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD384" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE384" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF384" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="385" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A385" s="2"/>
-      <c r="B385" s="2"/>
+      <c r="A385" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C385" s="2"/>
-      <c r="D385" s="2"/>
-      <c r="E385" s="2"/>
-      <c r="F385" s="2"/>
-      <c r="G385" s="2"/>
-      <c r="H385" s="2"/>
-      <c r="I385" s="2"/>
-      <c r="J385" s="2"/>
-      <c r="K385" s="2"/>
-      <c r="L385" s="2"/>
-      <c r="M385" s="2"/>
-      <c r="N385" s="2"/>
-      <c r="O385" s="2"/>
-      <c r="P385" s="2"/>
-      <c r="Q385" s="2"/>
-      <c r="R385" s="2"/>
-      <c r="S385" s="2"/>
+      <c r="D385" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E385" s="5">
+        <v>0</v>
+      </c>
+      <c r="F385" s="6">
+        <v>38000</v>
+      </c>
+      <c r="G385" s="5">
+        <v>12.58</v>
+      </c>
+      <c r="H385" s="6">
+        <v>478066.6</v>
+      </c>
+      <c r="I385" s="5">
+        <v>11.04</v>
+      </c>
+      <c r="J385" s="6">
+        <v>419520</v>
+      </c>
+      <c r="K385" s="6">
+        <v>-58546.6</v>
+      </c>
+      <c r="L385" s="7">
+        <v>-87773763</v>
+      </c>
+      <c r="M385" s="5">
+        <v>0</v>
+      </c>
+      <c r="N385" s="5">
+        <v>0</v>
+      </c>
+      <c r="O385" s="5">
+        <v>0</v>
+      </c>
+      <c r="P385" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q385" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R385" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S385" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="T385" s="2"/>
-      <c r="U385" s="2"/>
-      <c r="V385" s="2"/>
-      <c r="W385" s="2"/>
-      <c r="X385" s="2"/>
-      <c r="Y385" s="2"/>
-      <c r="Z385" s="2"/>
-      <c r="AA385" s="2"/>
-      <c r="AB385" s="2"/>
-      <c r="AC385" s="2"/>
-      <c r="AD385" s="2"/>
-      <c r="AE385" s="2"/>
-      <c r="AF385" s="2"/>
+      <c r="U385" s="5">
+        <v>0</v>
+      </c>
+      <c r="V385" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W385" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X385" s="7">
+        <v>701992995</v>
+      </c>
+      <c r="Y385" s="6">
+        <v>1464.1</v>
+      </c>
+      <c r="Z385" s="7">
+        <v>614219232</v>
+      </c>
+      <c r="AA385" s="7">
+        <v>-85718077</v>
+      </c>
+      <c r="AB385" s="7">
+        <v>-2055686</v>
+      </c>
+      <c r="AC385" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD385" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE385" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF385" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="386" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A386" s="2"/>
-      <c r="B386" s="2"/>
+      <c r="A386" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C386" s="2"/>
-      <c r="D386" s="2"/>
-      <c r="E386" s="2"/>
-      <c r="F386" s="2"/>
-      <c r="G386" s="2"/>
-      <c r="H386" s="2"/>
-      <c r="I386" s="2"/>
-      <c r="J386" s="2"/>
-      <c r="K386" s="2"/>
-      <c r="L386" s="2"/>
-      <c r="M386" s="2"/>
-      <c r="N386" s="2"/>
-      <c r="O386" s="2"/>
-      <c r="P386" s="2"/>
-      <c r="Q386" s="2"/>
-      <c r="R386" s="2"/>
-      <c r="S386" s="2"/>
+      <c r="D386" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E386" s="5">
+        <v>0</v>
+      </c>
+      <c r="F386" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G386" s="5">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H386" s="6">
+        <v>482030</v>
+      </c>
+      <c r="I386" s="5">
+        <v>55.1</v>
+      </c>
+      <c r="J386" s="6">
+        <v>551000</v>
+      </c>
+      <c r="K386" s="6">
+        <v>68970</v>
+      </c>
+      <c r="L386" s="7">
+        <v>105028029</v>
+      </c>
+      <c r="M386" s="5">
+        <v>0</v>
+      </c>
+      <c r="N386" s="5">
+        <v>0</v>
+      </c>
+      <c r="O386" s="5">
+        <v>0</v>
+      </c>
+      <c r="P386" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q386" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R386" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S386" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="T386" s="2"/>
-      <c r="U386" s="2"/>
-      <c r="V386" s="2"/>
-      <c r="W386" s="2"/>
-      <c r="X386" s="2"/>
-      <c r="Y386" s="2"/>
-      <c r="Z386" s="2"/>
-      <c r="AA386" s="2"/>
-      <c r="AB386" s="2"/>
-      <c r="AC386" s="2"/>
-      <c r="AD386" s="2"/>
-      <c r="AE386" s="2"/>
-      <c r="AF386" s="2"/>
-    </row>
-    <row r="387" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A387" s="2"/>
-      <c r="B387" s="2"/>
+      <c r="U386" s="5">
+        <v>0</v>
+      </c>
+      <c r="V386" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W386" s="6">
+        <v>1455.7</v>
+      </c>
+      <c r="X386" s="7">
+        <v>701691071</v>
+      </c>
+      <c r="Y386" s="6">
+        <v>1464.1</v>
+      </c>
+      <c r="Z386" s="7">
+        <v>806719100</v>
+      </c>
+      <c r="AA386" s="7">
+        <v>100978977</v>
+      </c>
+      <c r="AB386" s="7">
+        <v>4049052</v>
+      </c>
+      <c r="AC386" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD386" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE386" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF386" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C387" s="2"/>
-      <c r="D387" s="2"/>
-      <c r="E387" s="2"/>
-      <c r="F387" s="2"/>
-      <c r="G387" s="2"/>
-      <c r="H387" s="2"/>
-      <c r="I387" s="2"/>
-      <c r="J387" s="2"/>
-      <c r="K387" s="2"/>
-      <c r="L387" s="2"/>
-      <c r="M387" s="2"/>
-      <c r="N387" s="2"/>
-      <c r="O387" s="2"/>
-      <c r="P387" s="2"/>
-      <c r="Q387" s="2"/>
-      <c r="R387" s="2"/>
-      <c r="S387" s="2"/>
+      <c r="D387" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E387" s="5">
+        <v>0</v>
+      </c>
+      <c r="F387" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G387" s="5">
+        <v>342.964</v>
+      </c>
+      <c r="H387" s="6">
+        <v>1028892.6</v>
+      </c>
+      <c r="I387" s="5">
+        <v>323.10000000000002</v>
+      </c>
+      <c r="J387" s="6">
+        <v>969300</v>
+      </c>
+      <c r="K387" s="6">
+        <v>-59592.6</v>
+      </c>
+      <c r="L387" s="7">
+        <v>-80253055</v>
+      </c>
+      <c r="M387" s="5">
+        <v>0</v>
+      </c>
+      <c r="N387" s="5">
+        <v>0</v>
+      </c>
+      <c r="O387" s="5">
+        <v>0</v>
+      </c>
+      <c r="P387" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q387" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R387" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S387" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="T387" s="2"/>
-      <c r="U387" s="2"/>
-      <c r="V387" s="2"/>
-      <c r="W387" s="2"/>
-      <c r="X387" s="2"/>
-      <c r="Y387" s="2"/>
-      <c r="Z387" s="2"/>
-      <c r="AA387" s="2"/>
-      <c r="AB387" s="2"/>
-      <c r="AC387" s="2"/>
-      <c r="AD387" s="2"/>
-      <c r="AE387" s="2"/>
-      <c r="AF387" s="2"/>
+      <c r="U387" s="5">
+        <v>0</v>
+      </c>
+      <c r="V387" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W387" s="6">
+        <v>1457.29</v>
+      </c>
+      <c r="X387" s="7">
+        <v>1499405185</v>
+      </c>
+      <c r="Y387" s="6">
+        <v>1464.1</v>
+      </c>
+      <c r="Z387" s="7">
+        <v>1419152130</v>
+      </c>
+      <c r="AA387" s="7">
+        <v>-87249525</v>
+      </c>
+      <c r="AB387" s="7">
+        <v>6996470</v>
+      </c>
+      <c r="AC387" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD387" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE387" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF387" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="388" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A388" s="2"/>
-      <c r="B388" s="2"/>
+      <c r="A388" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C388" s="2"/>
-      <c r="D388" s="2"/>
-      <c r="E388" s="2"/>
-      <c r="F388" s="2"/>
-      <c r="G388" s="2"/>
-      <c r="H388" s="2"/>
-      <c r="I388" s="2"/>
-      <c r="J388" s="2"/>
-      <c r="K388" s="2"/>
-      <c r="L388" s="2"/>
-      <c r="M388" s="2"/>
-      <c r="N388" s="2"/>
-      <c r="O388" s="2"/>
-      <c r="P388" s="2"/>
-      <c r="Q388" s="2"/>
-      <c r="R388" s="2"/>
-      <c r="S388" s="2"/>
+      <c r="D388" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E388" s="5">
+        <v>0</v>
+      </c>
+      <c r="F388" s="6">
+        <v>4500</v>
+      </c>
+      <c r="G388" s="5">
+        <v>238.76400000000001</v>
+      </c>
+      <c r="H388" s="6">
+        <v>1074441.6000000001</v>
+      </c>
+      <c r="I388" s="5">
+        <v>210.32</v>
+      </c>
+      <c r="J388" s="6">
+        <v>946440</v>
+      </c>
+      <c r="K388" s="6">
+        <v>-128001.60000000001</v>
+      </c>
+      <c r="L388" s="7">
+        <v>-180100939</v>
+      </c>
+      <c r="M388" s="5">
+        <v>0</v>
+      </c>
+      <c r="N388" s="5">
+        <v>0</v>
+      </c>
+      <c r="O388" s="5">
+        <v>0</v>
+      </c>
+      <c r="P388" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q388" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R388" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S388" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="T388" s="2"/>
-      <c r="U388" s="2"/>
-      <c r="V388" s="2"/>
-      <c r="W388" s="2"/>
-      <c r="X388" s="2"/>
-      <c r="Y388" s="2"/>
-      <c r="Z388" s="2"/>
-      <c r="AA388" s="2"/>
-      <c r="AB388" s="2"/>
-      <c r="AC388" s="2"/>
-      <c r="AD388" s="2"/>
-      <c r="AE388" s="2"/>
-      <c r="AF388" s="2"/>
+      <c r="U388" s="5">
+        <v>0</v>
+      </c>
+      <c r="V388" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W388" s="6">
+        <v>1457.29</v>
+      </c>
+      <c r="X388" s="7">
+        <v>1565783743</v>
+      </c>
+      <c r="Y388" s="6">
+        <v>1464.1</v>
+      </c>
+      <c r="Z388" s="7">
+        <v>1385682804</v>
+      </c>
+      <c r="AA388" s="7">
+        <v>-187407142</v>
+      </c>
+      <c r="AB388" s="7">
+        <v>7306203</v>
+      </c>
+      <c r="AC388" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD388" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE388" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF388" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="389" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A389" s="2"/>
-      <c r="B389" s="2"/>
+      <c r="A389" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C389" s="2"/>
-      <c r="D389" s="2"/>
-      <c r="E389" s="2"/>
-      <c r="F389" s="2"/>
-      <c r="G389" s="2"/>
-      <c r="H389" s="2"/>
-      <c r="I389" s="2"/>
-      <c r="J389" s="2"/>
-      <c r="K389" s="2"/>
-      <c r="L389" s="2"/>
-      <c r="M389" s="2"/>
-      <c r="N389" s="2"/>
-      <c r="O389" s="2"/>
-      <c r="P389" s="2"/>
-      <c r="Q389" s="2"/>
-      <c r="R389" s="2"/>
-      <c r="S389" s="2"/>
+      <c r="D389" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E389" s="5">
+        <v>0</v>
+      </c>
+      <c r="F389" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G389" s="5">
+        <v>34.24</v>
+      </c>
+      <c r="H389" s="6">
+        <v>684800</v>
+      </c>
+      <c r="I389" s="5">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="J389" s="6">
+        <v>687400</v>
+      </c>
+      <c r="K389" s="6">
+        <v>2600</v>
+      </c>
+      <c r="L389" s="7">
+        <v>-5027260</v>
+      </c>
+      <c r="M389" s="5">
+        <v>0</v>
+      </c>
+      <c r="N389" s="5">
+        <v>0</v>
+      </c>
+      <c r="O389" s="5">
+        <v>0</v>
+      </c>
+      <c r="P389" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q389" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R389" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S389" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="T389" s="2"/>
-      <c r="U389" s="2"/>
-      <c r="V389" s="2"/>
-      <c r="W389" s="2"/>
-      <c r="X389" s="2"/>
-      <c r="Y389" s="2"/>
-      <c r="Z389" s="2"/>
-      <c r="AA389" s="2"/>
-      <c r="AB389" s="2"/>
-      <c r="AC389" s="2"/>
-      <c r="AD389" s="2"/>
-      <c r="AE389" s="2"/>
-      <c r="AF389" s="2"/>
+      <c r="U389" s="5">
+        <v>0</v>
+      </c>
+      <c r="V389" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W389" s="6">
+        <v>1477</v>
+      </c>
+      <c r="X389" s="7">
+        <v>1011449600</v>
+      </c>
+      <c r="Y389" s="6">
+        <v>1464.1</v>
+      </c>
+      <c r="Z389" s="7">
+        <v>1006422340</v>
+      </c>
+      <c r="AA389" s="7">
+        <v>3806660</v>
+      </c>
+      <c r="AB389" s="7">
+        <v>-8833920</v>
+      </c>
+      <c r="AC389" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD389" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE389" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF389" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="390" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A390" s="2"/>
-      <c r="B390" s="2"/>
+      <c r="A390" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
-      <c r="E390" s="2"/>
-      <c r="F390" s="2"/>
-      <c r="G390" s="2"/>
-      <c r="H390" s="2"/>
-      <c r="I390" s="2"/>
-      <c r="J390" s="2"/>
-      <c r="K390" s="2"/>
-      <c r="L390" s="2"/>
-      <c r="M390" s="2"/>
-      <c r="N390" s="2"/>
-      <c r="O390" s="2"/>
-      <c r="P390" s="2"/>
-      <c r="Q390" s="2"/>
-      <c r="R390" s="2"/>
-      <c r="S390" s="2"/>
+      <c r="D390" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E390" s="5">
+        <v>0</v>
+      </c>
+      <c r="F390" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G390" s="5">
+        <v>251.01</v>
+      </c>
+      <c r="H390" s="6">
+        <v>1255051.8</v>
+      </c>
+      <c r="I390" s="5">
+        <v>278.12</v>
+      </c>
+      <c r="J390" s="6">
+        <v>1390600</v>
+      </c>
+      <c r="K390" s="6">
+        <v>135548.20000000001</v>
+      </c>
+      <c r="L390" s="7">
+        <v>196707223</v>
+      </c>
+      <c r="M390" s="5">
+        <v>0</v>
+      </c>
+      <c r="N390" s="5">
+        <v>0</v>
+      </c>
+      <c r="O390" s="5">
+        <v>0</v>
+      </c>
+      <c r="P390" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q390" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R390" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S390" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T390" s="2"/>
-      <c r="U390" s="2"/>
-      <c r="V390" s="2"/>
-      <c r="W390" s="2"/>
-      <c r="X390" s="2"/>
-      <c r="Y390" s="2"/>
-      <c r="Z390" s="2"/>
-      <c r="AA390" s="2"/>
-      <c r="AB390" s="2"/>
-      <c r="AC390" s="2"/>
-      <c r="AD390" s="2"/>
-      <c r="AE390" s="2"/>
-      <c r="AF390" s="2"/>
+      <c r="U390" s="5">
+        <v>0</v>
+      </c>
+      <c r="V390" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W390" s="6">
+        <v>1465.49</v>
+      </c>
+      <c r="X390" s="7">
+        <v>1839270237</v>
+      </c>
+      <c r="Y390" s="6">
+        <v>1464.1</v>
+      </c>
+      <c r="Z390" s="7">
+        <v>2035977460</v>
+      </c>
+      <c r="AA390" s="7">
+        <v>198456119</v>
+      </c>
+      <c r="AB390" s="7">
+        <v>-1748897</v>
+      </c>
+      <c r="AC390" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD390" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE390" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF390" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="391" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A391" s="2"/>
-      <c r="B391" s="2"/>
+      <c r="A391" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
-      <c r="E391" s="2"/>
-      <c r="F391" s="2"/>
-      <c r="G391" s="2"/>
-      <c r="H391" s="2"/>
+      <c r="D391" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E391" s="5">
+        <v>0</v>
+      </c>
+      <c r="F391" s="5">
+        <v>0</v>
+      </c>
+      <c r="G391" s="5">
+        <v>0</v>
+      </c>
+      <c r="H391" s="5">
+        <v>0</v>
+      </c>
       <c r="I391" s="2"/>
-      <c r="J391" s="2"/>
-      <c r="K391" s="2"/>
-      <c r="L391" s="2"/>
-      <c r="M391" s="2"/>
-      <c r="N391" s="2"/>
-      <c r="O391" s="2"/>
-      <c r="P391" s="2"/>
-      <c r="Q391" s="2"/>
-      <c r="R391" s="2"/>
-      <c r="S391" s="2"/>
+      <c r="J391" s="5">
+        <v>0</v>
+      </c>
+      <c r="K391" s="5">
+        <v>0</v>
+      </c>
+      <c r="L391" s="5">
+        <v>0</v>
+      </c>
+      <c r="M391" s="5">
+        <v>0</v>
+      </c>
+      <c r="N391" s="6">
+        <v>-276165.90000000002</v>
+      </c>
+      <c r="O391" s="5">
+        <v>0</v>
+      </c>
+      <c r="P391" s="6">
+        <v>276165.90000000002</v>
+      </c>
+      <c r="Q391" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R391" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S391" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="T391" s="2"/>
-      <c r="U391" s="2"/>
-      <c r="V391" s="2"/>
-      <c r="W391" s="2"/>
-      <c r="X391" s="2"/>
-      <c r="Y391" s="2"/>
-      <c r="Z391" s="2"/>
-      <c r="AA391" s="2"/>
-      <c r="AB391" s="2"/>
-      <c r="AC391" s="2"/>
-      <c r="AD391" s="2"/>
-      <c r="AE391" s="2"/>
-      <c r="AF391" s="2"/>
+      <c r="U391" s="5">
+        <v>0</v>
+      </c>
+      <c r="V391" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W391" s="5">
+        <v>0</v>
+      </c>
+      <c r="X391" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y391" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z391" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA391" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB391" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC391" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD391" s="7">
+        <v>-413294425</v>
+      </c>
+      <c r="AE391" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF391" s="7">
+        <v>413294425</v>
+      </c>
     </row>
     <row r="392" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A392" s="2"/>
-      <c r="B392" s="2"/>
+      <c r="A392" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C392" s="2"/>
-      <c r="D392" s="2"/>
-      <c r="E392" s="2"/>
-      <c r="F392" s="2"/>
-      <c r="G392" s="2"/>
-      <c r="H392" s="2"/>
-      <c r="I392" s="2"/>
-      <c r="J392" s="2"/>
-      <c r="K392" s="2"/>
-      <c r="L392" s="2"/>
-      <c r="M392" s="2"/>
-      <c r="N392" s="2"/>
-      <c r="O392" s="2"/>
-      <c r="P392" s="2"/>
-      <c r="Q392" s="2"/>
-      <c r="R392" s="2"/>
-      <c r="S392" s="2"/>
+      <c r="D392" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E392" s="5">
+        <v>0</v>
+      </c>
+      <c r="F392" s="6">
+        <v>5500</v>
+      </c>
+      <c r="G392" s="5">
+        <v>191.75399999999999</v>
+      </c>
+      <c r="H392" s="6">
+        <v>1054647.55</v>
+      </c>
+      <c r="I392" s="5">
+        <v>185.41</v>
+      </c>
+      <c r="J392" s="6">
+        <v>1019755</v>
+      </c>
+      <c r="K392" s="6">
+        <v>-34892.550000000003</v>
+      </c>
+      <c r="L392" s="7">
+        <v>-11958758</v>
+      </c>
+      <c r="M392" s="5">
+        <v>0</v>
+      </c>
+      <c r="N392" s="5">
+        <v>0</v>
+      </c>
+      <c r="O392" s="5">
+        <v>0</v>
+      </c>
+      <c r="P392" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q392" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R392" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S392" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="T392" s="2"/>
-      <c r="U392" s="2"/>
-      <c r="V392" s="2"/>
-      <c r="W392" s="2"/>
-      <c r="X392" s="2"/>
-      <c r="Y392" s="2"/>
-      <c r="Z392" s="2"/>
-      <c r="AA392" s="2"/>
-      <c r="AB392" s="2"/>
-      <c r="AC392" s="2"/>
-      <c r="AD392" s="2"/>
-      <c r="AE392" s="2"/>
-      <c r="AF392" s="2"/>
+      <c r="U392" s="5">
+        <v>0</v>
+      </c>
+      <c r="V392" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W392" s="6">
+        <v>1426.99</v>
+      </c>
+      <c r="X392" s="7">
+        <v>1504982053</v>
+      </c>
+      <c r="Y392" s="6">
+        <v>1464.1</v>
+      </c>
+      <c r="Z392" s="7">
+        <v>1493023295</v>
+      </c>
+      <c r="AA392" s="7">
+        <v>-51086182</v>
+      </c>
+      <c r="AB392" s="7">
+        <v>39127424</v>
+      </c>
+      <c r="AC392" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD392" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE392" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF392" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="393" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A393" s="2"/>
-      <c r="B393" s="2"/>
+      <c r="A393" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="C393" s="2"/>
-      <c r="D393" s="2"/>
-      <c r="E393" s="2"/>
-      <c r="F393" s="2"/>
-      <c r="G393" s="2"/>
-      <c r="H393" s="2"/>
-      <c r="I393" s="2"/>
-      <c r="J393" s="2"/>
-      <c r="K393" s="2"/>
-      <c r="L393" s="2"/>
-      <c r="M393" s="2"/>
-      <c r="N393" s="2"/>
-      <c r="O393" s="2"/>
-      <c r="P393" s="2"/>
-      <c r="Q393" s="2"/>
-      <c r="R393" s="2"/>
-      <c r="S393" s="2"/>
+      <c r="D393" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E393" s="5">
+        <v>0</v>
+      </c>
+      <c r="F393" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G393" s="5">
+        <v>44.158999999999999</v>
+      </c>
+      <c r="H393" s="6">
+        <v>441591</v>
+      </c>
+      <c r="I393" s="5">
+        <v>46.31</v>
+      </c>
+      <c r="J393" s="6">
+        <v>463100</v>
+      </c>
+      <c r="K393" s="6">
+        <v>21509</v>
+      </c>
+      <c r="L393" s="7">
+        <v>29592486</v>
+      </c>
+      <c r="M393" s="5">
+        <v>0</v>
+      </c>
+      <c r="N393" s="5">
+        <v>0</v>
+      </c>
+      <c r="O393" s="5">
+        <v>0</v>
+      </c>
+      <c r="P393" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q393" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R393" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S393" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="T393" s="2"/>
-      <c r="U393" s="2"/>
-      <c r="V393" s="2"/>
-      <c r="W393" s="2"/>
-      <c r="X393" s="2"/>
-      <c r="Y393" s="2"/>
-      <c r="Z393" s="2"/>
-      <c r="AA393" s="2"/>
-      <c r="AB393" s="2"/>
-      <c r="AC393" s="2"/>
-      <c r="AD393" s="2"/>
-      <c r="AE393" s="2"/>
-      <c r="AF393" s="2"/>
+      <c r="U393" s="5">
+        <v>0</v>
+      </c>
+      <c r="V393" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W393" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X393" s="7">
+        <v>648432224</v>
+      </c>
+      <c r="Y393" s="6">
+        <v>1464.1</v>
+      </c>
+      <c r="Z393" s="7">
+        <v>678024710</v>
+      </c>
+      <c r="AA393" s="7">
+        <v>31491326</v>
+      </c>
+      <c r="AB393" s="7">
+        <v>-1898841</v>
+      </c>
+      <c r="AC393" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD393" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE393" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF393" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="394" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A394" s="2"/>
-      <c r="B394" s="2"/>
+      <c r="A394" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C394" s="2"/>
-      <c r="D394" s="2"/>
-      <c r="E394" s="2"/>
-      <c r="F394" s="2"/>
-      <c r="G394" s="2"/>
-      <c r="H394" s="2"/>
-      <c r="I394" s="2"/>
-      <c r="J394" s="2"/>
-      <c r="K394" s="2"/>
-      <c r="L394" s="2"/>
-      <c r="M394" s="2"/>
-      <c r="N394" s="2"/>
-      <c r="O394" s="2"/>
-      <c r="P394" s="2"/>
-      <c r="Q394" s="2"/>
-      <c r="R394" s="2"/>
-      <c r="S394" s="2"/>
+      <c r="D394" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E394" s="5">
+        <v>0</v>
+      </c>
+      <c r="F394" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G394" s="5">
+        <v>681.92</v>
+      </c>
+      <c r="H394" s="6">
+        <v>681920</v>
+      </c>
+      <c r="I394" s="5">
+        <v>690.62</v>
+      </c>
+      <c r="J394" s="6">
+        <v>690620</v>
+      </c>
+      <c r="K394" s="6">
+        <v>8700</v>
+      </c>
+      <c r="L394" s="7">
+        <v>32649734</v>
+      </c>
+      <c r="M394" s="5">
+        <v>0</v>
+      </c>
+      <c r="N394" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="O394" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="P394" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q394" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R394" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S394" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T394" s="2"/>
-      <c r="U394" s="2"/>
-      <c r="V394" s="2"/>
-      <c r="W394" s="2"/>
-      <c r="X394" s="2"/>
-      <c r="Y394" s="2"/>
-      <c r="Z394" s="2"/>
-      <c r="AA394" s="2"/>
-      <c r="AB394" s="2"/>
-      <c r="AC394" s="2"/>
-      <c r="AD394" s="2"/>
-      <c r="AE394" s="2"/>
-      <c r="AF394" s="2"/>
+      <c r="U394" s="5">
+        <v>0</v>
+      </c>
+      <c r="V394" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W394" s="6">
+        <v>1434.9</v>
+      </c>
+      <c r="X394" s="7">
+        <v>978487008</v>
+      </c>
+      <c r="Y394" s="6">
+        <v>1464.1</v>
+      </c>
+      <c r="Z394" s="7">
+        <v>1011136742</v>
+      </c>
+      <c r="AA394" s="7">
+        <v>12737670</v>
+      </c>
+      <c r="AB394" s="7">
+        <v>19912064</v>
+      </c>
+      <c r="AC394" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD394" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AE394" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AF394" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="395" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A395" s="2"/>
-      <c r="B395" s="2"/>
+      <c r="A395" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C395" s="2"/>
-      <c r="D395" s="2"/>
-      <c r="E395" s="2"/>
-      <c r="F395" s="2"/>
-      <c r="G395" s="2"/>
-      <c r="H395" s="2"/>
-      <c r="I395" s="2"/>
-      <c r="J395" s="2"/>
-      <c r="K395" s="2"/>
-      <c r="L395" s="2"/>
-      <c r="M395" s="2"/>
-      <c r="N395" s="2"/>
-      <c r="O395" s="2"/>
-      <c r="P395" s="2"/>
-      <c r="Q395" s="2"/>
-      <c r="R395" s="2"/>
-      <c r="S395" s="2"/>
+      <c r="D395" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E395" s="5">
+        <v>0</v>
+      </c>
+      <c r="F395" s="6">
+        <v>4200</v>
+      </c>
+      <c r="G395" s="5">
+        <v>396.31</v>
+      </c>
+      <c r="H395" s="6">
+        <v>1664502</v>
+      </c>
+      <c r="I395" s="5">
+        <v>455.46</v>
+      </c>
+      <c r="J395" s="6">
+        <v>1912932</v>
+      </c>
+      <c r="K395" s="6">
+        <v>248430</v>
+      </c>
+      <c r="L395" s="7">
+        <v>412329822</v>
+      </c>
+      <c r="M395" s="5">
+        <v>0</v>
+      </c>
+      <c r="N395" s="5">
+        <v>0</v>
+      </c>
+      <c r="O395" s="5">
+        <v>0</v>
+      </c>
+      <c r="P395" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q395" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R395" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S395" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="T395" s="2"/>
-      <c r="U395" s="2"/>
-      <c r="V395" s="2"/>
-      <c r="W395" s="2"/>
-      <c r="X395" s="2"/>
-      <c r="Y395" s="2"/>
-      <c r="Z395" s="2"/>
-      <c r="AA395" s="2"/>
-      <c r="AB395" s="2"/>
-      <c r="AC395" s="2"/>
-      <c r="AD395" s="2"/>
-      <c r="AE395" s="2"/>
-      <c r="AF395" s="2"/>
+      <c r="U395" s="5">
+        <v>0</v>
+      </c>
+      <c r="V395" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W395" s="6">
+        <v>1434.89</v>
+      </c>
+      <c r="X395" s="7">
+        <v>2388393919</v>
+      </c>
+      <c r="Y395" s="6">
+        <v>1464.1</v>
+      </c>
+      <c r="Z395" s="7">
+        <v>2800723741</v>
+      </c>
+      <c r="AA395" s="7">
+        <v>363726363</v>
+      </c>
+      <c r="AB395" s="7">
+        <v>48603459</v>
+      </c>
+      <c r="AC395" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD395" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE395" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF395" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="396" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A396" s="2"/>
-      <c r="B396" s="2"/>
+      <c r="A396" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C396" s="2"/>
-      <c r="D396" s="2"/>
-      <c r="E396" s="2"/>
-      <c r="F396" s="2"/>
-      <c r="G396" s="2"/>
-      <c r="H396" s="2"/>
-      <c r="I396" s="2"/>
-      <c r="J396" s="2"/>
-      <c r="K396" s="2"/>
-      <c r="L396" s="2"/>
-      <c r="M396" s="2"/>
-      <c r="N396" s="2"/>
-      <c r="O396" s="2"/>
-      <c r="P396" s="2"/>
-      <c r="Q396" s="2"/>
-      <c r="R396" s="2"/>
-      <c r="S396" s="2"/>
+      <c r="D396" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E396" s="5">
+        <v>0</v>
+      </c>
+      <c r="F396" s="6">
+        <v>24000</v>
+      </c>
+      <c r="G396" s="5">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H396" s="6">
+        <v>423736.8</v>
+      </c>
+      <c r="I396" s="5">
+        <v>16.34</v>
+      </c>
+      <c r="J396" s="6">
+        <v>392160</v>
+      </c>
+      <c r="K396" s="6">
+        <v>-31576.799999999999</v>
+      </c>
+      <c r="L396" s="7">
+        <v>-46231592</v>
+      </c>
+      <c r="M396" s="5">
+        <v>0</v>
+      </c>
+      <c r="N396" s="5">
+        <v>0</v>
+      </c>
+      <c r="O396" s="5">
+        <v>0</v>
+      </c>
+      <c r="P396" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q396" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R396" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S396" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="T396" s="2"/>
-      <c r="U396" s="2"/>
-      <c r="V396" s="2"/>
-      <c r="W396" s="2"/>
-      <c r="X396" s="2"/>
-      <c r="Y396" s="2"/>
-      <c r="Z396" s="2"/>
-      <c r="AA396" s="2"/>
-      <c r="AB396" s="2"/>
-      <c r="AC396" s="2"/>
-      <c r="AD396" s="2"/>
-      <c r="AE396" s="2"/>
-      <c r="AF396" s="2"/>
+      <c r="U396" s="5">
+        <v>0</v>
+      </c>
+      <c r="V396" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W396" s="6">
+        <v>1464.09</v>
+      </c>
+      <c r="X396" s="7">
+        <v>620393048</v>
+      </c>
+      <c r="Y396" s="6">
+        <v>1464.1</v>
+      </c>
+      <c r="Z396" s="7">
+        <v>574161456</v>
+      </c>
+      <c r="AA396" s="7">
+        <v>-46231592</v>
+      </c>
+      <c r="AB396" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC396" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD396" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE396" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF396" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="397" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A397" s="2"/>
-      <c r="B397" s="2"/>
+      <c r="A397" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="C397" s="2"/>
-      <c r="D397" s="2"/>
-      <c r="E397" s="2"/>
-      <c r="F397" s="2"/>
-      <c r="G397" s="2"/>
-      <c r="H397" s="2"/>
-      <c r="I397" s="2"/>
-      <c r="J397" s="2"/>
-      <c r="K397" s="2"/>
-      <c r="L397" s="2"/>
-      <c r="M397" s="2"/>
-      <c r="N397" s="2"/>
-      <c r="O397" s="2"/>
-      <c r="P397" s="2"/>
-      <c r="Q397" s="2"/>
-      <c r="R397" s="2"/>
-      <c r="S397" s="2"/>
+      <c r="D397" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E397" s="5">
+        <v>0</v>
+      </c>
+      <c r="F397" s="6">
+        <v>1400</v>
+      </c>
+      <c r="G397" s="5">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H397" s="6">
+        <v>605554.04</v>
+      </c>
+      <c r="I397" s="5">
+        <v>411.11</v>
+      </c>
+      <c r="J397" s="6">
+        <v>575554</v>
+      </c>
+      <c r="K397" s="6">
+        <v>-30000.04</v>
+      </c>
+      <c r="L397" s="7">
+        <v>-33446974</v>
+      </c>
+      <c r="M397" s="5">
+        <v>0</v>
+      </c>
+      <c r="N397" s="5">
+        <v>0</v>
+      </c>
+      <c r="O397" s="5">
+        <v>0</v>
+      </c>
+      <c r="P397" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q397" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R397" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S397" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="T397" s="2"/>
-      <c r="U397" s="2"/>
-      <c r="V397" s="2"/>
-      <c r="W397" s="2"/>
-      <c r="X397" s="2"/>
-      <c r="Y397" s="2"/>
-      <c r="Z397" s="2"/>
-      <c r="AA397" s="2"/>
-      <c r="AB397" s="2"/>
-      <c r="AC397" s="2"/>
-      <c r="AD397" s="2"/>
-      <c r="AE397" s="2"/>
-      <c r="AF397" s="2"/>
+      <c r="U397" s="5">
+        <v>0</v>
+      </c>
+      <c r="V397" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W397" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X397" s="7">
+        <v>876115585</v>
+      </c>
+      <c r="Y397" s="6">
+        <v>1464.1</v>
+      </c>
+      <c r="Z397" s="7">
+        <v>842668611</v>
+      </c>
+      <c r="AA397" s="7">
+        <v>-43923058</v>
+      </c>
+      <c r="AB397" s="7">
+        <v>10476084</v>
+      </c>
+      <c r="AC397" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD397" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE397" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF397" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="398" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A398" s="2"/>
-      <c r="B398" s="2"/>
+      <c r="A398" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
-      <c r="E398" s="2"/>
-      <c r="F398" s="2"/>
-      <c r="G398" s="2"/>
-      <c r="H398" s="2"/>
-      <c r="I398" s="2"/>
-      <c r="J398" s="2"/>
-      <c r="K398" s="2"/>
-      <c r="L398" s="2"/>
-      <c r="M398" s="2"/>
-      <c r="N398" s="2"/>
-      <c r="O398" s="2"/>
-      <c r="P398" s="2"/>
-      <c r="Q398" s="2"/>
-      <c r="R398" s="2"/>
-      <c r="S398" s="2"/>
+      <c r="D398" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E398" s="5">
+        <v>0</v>
+      </c>
+      <c r="F398" s="6">
+        <v>3500</v>
+      </c>
+      <c r="G398" s="5">
+        <v>169.042</v>
+      </c>
+      <c r="H398" s="6">
+        <v>591649.80000000005</v>
+      </c>
+      <c r="I398" s="5">
+        <v>149.65</v>
+      </c>
+      <c r="J398" s="6">
+        <v>523775</v>
+      </c>
+      <c r="K398" s="6">
+        <v>-67874.8</v>
+      </c>
+      <c r="L398" s="7">
+        <v>-89139953</v>
+      </c>
+      <c r="M398" s="5">
+        <v>0</v>
+      </c>
+      <c r="N398" s="5">
+        <v>0</v>
+      </c>
+      <c r="O398" s="5">
+        <v>0</v>
+      </c>
+      <c r="P398" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q398" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R398" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S398" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="T398" s="2"/>
-      <c r="U398" s="2"/>
-      <c r="V398" s="2"/>
-      <c r="W398" s="2"/>
-      <c r="X398" s="2"/>
-      <c r="Y398" s="2"/>
-      <c r="Z398" s="2"/>
-      <c r="AA398" s="2"/>
-      <c r="AB398" s="2"/>
-      <c r="AC398" s="2"/>
-      <c r="AD398" s="2"/>
-      <c r="AE398" s="2"/>
-      <c r="AF398" s="2"/>
-    </row>
-    <row r="399" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A399" s="2"/>
-      <c r="B399" s="2"/>
+      <c r="U398" s="5">
+        <v>0</v>
+      </c>
+      <c r="V398" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W398" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X398" s="7">
+        <v>855998930</v>
+      </c>
+      <c r="Y398" s="6">
+        <v>1464.1</v>
+      </c>
+      <c r="Z398" s="7">
+        <v>766858977</v>
+      </c>
+      <c r="AA398" s="7">
+        <v>-99375494</v>
+      </c>
+      <c r="AB398" s="7">
+        <v>10235542</v>
+      </c>
+      <c r="AC398" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD398" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE398" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF398" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C399" s="2"/>
-      <c r="D399" s="2"/>
-      <c r="E399" s="2"/>
-      <c r="F399" s="2"/>
-      <c r="G399" s="2"/>
-      <c r="H399" s="2"/>
+      <c r="D399" s="5">
+        <v>6869</v>
+      </c>
+      <c r="E399" s="5">
+        <v>0</v>
+      </c>
+      <c r="F399" s="5">
+        <v>0</v>
+      </c>
+      <c r="G399" s="5">
+        <v>0</v>
+      </c>
+      <c r="H399" s="5">
+        <v>0</v>
+      </c>
       <c r="I399" s="2"/>
-      <c r="J399" s="2"/>
-      <c r="K399" s="2"/>
-      <c r="L399" s="2"/>
-      <c r="M399" s="2"/>
-      <c r="N399" s="2"/>
-      <c r="O399" s="2"/>
-      <c r="P399" s="2"/>
-      <c r="Q399" s="2"/>
-      <c r="R399" s="2"/>
-      <c r="S399" s="2"/>
+      <c r="J399" s="5">
+        <v>0</v>
+      </c>
+      <c r="K399" s="5">
+        <v>0</v>
+      </c>
+      <c r="L399" s="5">
+        <v>0</v>
+      </c>
+      <c r="M399" s="5">
+        <v>0</v>
+      </c>
+      <c r="N399" s="6">
+        <v>349976</v>
+      </c>
+      <c r="O399" s="6">
+        <v>349976</v>
+      </c>
+      <c r="P399" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q399" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R399" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S399" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="T399" s="2"/>
-      <c r="U399" s="2"/>
-      <c r="V399" s="2"/>
-      <c r="W399" s="2"/>
-      <c r="X399" s="2"/>
-      <c r="Y399" s="2"/>
-      <c r="Z399" s="2"/>
-      <c r="AA399" s="2"/>
-      <c r="AB399" s="2"/>
-      <c r="AC399" s="2"/>
-      <c r="AD399" s="2"/>
-      <c r="AE399" s="2"/>
-      <c r="AF399" s="2"/>
-    </row>
-    <row r="400" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A400" s="2"/>
-      <c r="B400" s="2"/>
+      <c r="U399" s="5">
+        <v>0</v>
+      </c>
+      <c r="V399" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W399" s="5">
+        <v>0</v>
+      </c>
+      <c r="X399" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y399" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z399" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA399" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB399" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC399" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD399" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AE399" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AF399" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C400" s="2"/>
-      <c r="D400" s="2"/>
-      <c r="E400" s="2"/>
-      <c r="F400" s="2"/>
-      <c r="G400" s="2"/>
-      <c r="H400" s="2"/>
-      <c r="I400" s="2"/>
-      <c r="J400" s="2"/>
-      <c r="K400" s="2"/>
-      <c r="L400" s="2"/>
-      <c r="M400" s="2"/>
-      <c r="N400" s="2"/>
-      <c r="O400" s="2"/>
-      <c r="P400" s="2"/>
-      <c r="Q400" s="2"/>
-      <c r="R400" s="2"/>
-      <c r="S400" s="2"/>
+      <c r="D400" s="5">
+        <v>2359</v>
+      </c>
+      <c r="E400" s="5">
+        <v>0</v>
+      </c>
+      <c r="F400" s="6">
+        <v>25000</v>
+      </c>
+      <c r="G400" s="5">
+        <v>118.559</v>
+      </c>
+      <c r="H400" s="6">
+        <v>2963990</v>
+      </c>
+      <c r="I400" s="5">
+        <v>115.2</v>
+      </c>
+      <c r="J400" s="6">
+        <v>2880000</v>
+      </c>
+      <c r="K400" s="6">
+        <v>-83990</v>
+      </c>
+      <c r="L400" s="7">
+        <v>-20449950</v>
+      </c>
+      <c r="M400" s="5">
+        <v>0</v>
+      </c>
+      <c r="N400" s="5">
+        <v>0</v>
+      </c>
+      <c r="O400" s="5">
+        <v>0</v>
+      </c>
+      <c r="P400" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q400" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R400" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S400" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T400" s="2"/>
-      <c r="U400" s="2"/>
-      <c r="V400" s="2"/>
-      <c r="W400" s="2"/>
-      <c r="X400" s="2"/>
-      <c r="Y400" s="2"/>
-      <c r="Z400" s="2"/>
-      <c r="AA400" s="2"/>
-      <c r="AB400" s="2"/>
-      <c r="AC400" s="2"/>
-      <c r="AD400" s="2"/>
-      <c r="AE400" s="2"/>
-      <c r="AF400" s="2"/>
-    </row>
-    <row r="401" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A401" s="2"/>
-      <c r="B401" s="2"/>
+      <c r="U400" s="5">
+        <v>0</v>
+      </c>
+      <c r="V400" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W400" s="5">
+        <v>188.95</v>
+      </c>
+      <c r="X400" s="7">
+        <v>560075550</v>
+      </c>
+      <c r="Y400" s="5">
+        <v>187.37</v>
+      </c>
+      <c r="Z400" s="7">
+        <v>539625600</v>
+      </c>
+      <c r="AA400" s="7">
+        <v>-15737206</v>
+      </c>
+      <c r="AB400" s="7">
+        <v>-4712744</v>
+      </c>
+      <c r="AC400" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD400" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE400" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF400" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C401" s="2"/>
-      <c r="D401" s="2"/>
-      <c r="E401" s="2"/>
-      <c r="F401" s="2"/>
-      <c r="G401" s="2"/>
-      <c r="H401" s="2"/>
-      <c r="I401" s="2"/>
-      <c r="J401" s="2"/>
-      <c r="K401" s="2"/>
-      <c r="L401" s="2"/>
-      <c r="M401" s="2"/>
-      <c r="N401" s="2"/>
-      <c r="O401" s="2"/>
-      <c r="P401" s="2"/>
-      <c r="Q401" s="2"/>
-      <c r="R401" s="2"/>
-      <c r="S401" s="2"/>
+      <c r="D401" s="5">
+        <v>6680</v>
+      </c>
+      <c r="E401" s="5">
+        <v>0</v>
+      </c>
+      <c r="F401" s="6">
+        <v>130000</v>
+      </c>
+      <c r="G401" s="5">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H401" s="6">
+        <v>2921022</v>
+      </c>
+      <c r="I401" s="5">
+        <v>20.2</v>
+      </c>
+      <c r="J401" s="6">
+        <v>2626000</v>
+      </c>
+      <c r="K401" s="6">
+        <v>-295022</v>
+      </c>
+      <c r="L401" s="7">
+        <v>-59718225</v>
+      </c>
+      <c r="M401" s="5">
+        <v>0</v>
+      </c>
+      <c r="N401" s="5">
+        <v>0</v>
+      </c>
+      <c r="O401" s="5">
+        <v>0</v>
+      </c>
+      <c r="P401" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q401" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R401" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S401" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="T401" s="2"/>
-      <c r="U401" s="2"/>
-      <c r="V401" s="2"/>
-      <c r="W401" s="2"/>
-      <c r="X401" s="2"/>
-      <c r="Y401" s="2"/>
-      <c r="Z401" s="2"/>
-      <c r="AA401" s="2"/>
-      <c r="AB401" s="2"/>
-      <c r="AC401" s="2"/>
-      <c r="AD401" s="2"/>
-      <c r="AE401" s="2"/>
-      <c r="AF401" s="2"/>
-    </row>
-    <row r="402" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A402" s="2"/>
-      <c r="B402" s="2"/>
+      <c r="U401" s="5">
+        <v>0</v>
+      </c>
+      <c r="V401" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W401" s="5">
+        <v>188.88</v>
+      </c>
+      <c r="X401" s="7">
+        <v>551751845</v>
+      </c>
+      <c r="Y401" s="5">
+        <v>187.37</v>
+      </c>
+      <c r="Z401" s="7">
+        <v>492033620</v>
+      </c>
+      <c r="AA401" s="7">
+        <v>-55278272</v>
+      </c>
+      <c r="AB401" s="7">
+        <v>-4439953</v>
+      </c>
+      <c r="AC401" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD401" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE401" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF401" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C402" s="2"/>
-      <c r="D402" s="2"/>
-      <c r="E402" s="2"/>
-      <c r="F402" s="2"/>
-      <c r="G402" s="2"/>
-      <c r="H402" s="2"/>
+      <c r="D402" s="5">
+        <v>6181</v>
+      </c>
+      <c r="E402" s="5">
+        <v>0</v>
+      </c>
+      <c r="F402" s="5">
+        <v>0</v>
+      </c>
+      <c r="G402" s="5">
+        <v>0</v>
+      </c>
+      <c r="H402" s="5">
+        <v>0</v>
+      </c>
       <c r="I402" s="2"/>
-      <c r="J402" s="2"/>
-      <c r="K402" s="2"/>
-      <c r="L402" s="2"/>
-      <c r="M402" s="2"/>
-      <c r="N402" s="2"/>
-      <c r="O402" s="2"/>
-      <c r="P402" s="2"/>
-      <c r="Q402" s="2"/>
-      <c r="R402" s="2"/>
-      <c r="S402" s="2"/>
+      <c r="J402" s="5">
+        <v>0</v>
+      </c>
+      <c r="K402" s="5">
+        <v>0</v>
+      </c>
+      <c r="L402" s="5">
+        <v>0</v>
+      </c>
+      <c r="M402" s="5">
+        <v>0</v>
+      </c>
+      <c r="N402" s="6">
+        <v>-6374.88</v>
+      </c>
+      <c r="O402" s="5">
+        <v>0</v>
+      </c>
+      <c r="P402" s="6">
+        <v>6374.88</v>
+      </c>
+      <c r="Q402" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R402" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S402" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="T402" s="2"/>
-      <c r="U402" s="2"/>
-      <c r="V402" s="2"/>
-      <c r="W402" s="2"/>
-      <c r="X402" s="2"/>
-      <c r="Y402" s="2"/>
-      <c r="Z402" s="2"/>
-      <c r="AA402" s="2"/>
-      <c r="AB402" s="2"/>
-      <c r="AC402" s="2"/>
-      <c r="AD402" s="2"/>
-      <c r="AE402" s="2"/>
-      <c r="AF402" s="2"/>
-    </row>
-    <row r="403" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="2"/>
-      <c r="B403" s="2"/>
+      <c r="U402" s="5">
+        <v>0</v>
+      </c>
+      <c r="V402" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W402" s="5">
+        <v>0</v>
+      </c>
+      <c r="X402" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y402" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z402" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA402" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB402" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC402" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD402" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AE402" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AF402" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C403" s="2"/>
-      <c r="D403" s="2"/>
-      <c r="E403" s="2"/>
-      <c r="F403" s="2"/>
-      <c r="G403" s="2"/>
-      <c r="H403" s="2"/>
+      <c r="D403" s="5">
+        <v>6082</v>
+      </c>
+      <c r="E403" s="5">
+        <v>0</v>
+      </c>
+      <c r="F403" s="5">
+        <v>0</v>
+      </c>
+      <c r="G403" s="5">
+        <v>0</v>
+      </c>
+      <c r="H403" s="5">
+        <v>0</v>
+      </c>
       <c r="I403" s="2"/>
-      <c r="J403" s="2"/>
-      <c r="K403" s="2"/>
-      <c r="L403" s="2"/>
-      <c r="M403" s="2"/>
-      <c r="N403" s="2"/>
-      <c r="O403" s="2"/>
-      <c r="P403" s="2"/>
-      <c r="Q403" s="2"/>
-      <c r="R403" s="2"/>
-      <c r="S403" s="2"/>
+      <c r="J403" s="5">
+        <v>0</v>
+      </c>
+      <c r="K403" s="5">
+        <v>0</v>
+      </c>
+      <c r="L403" s="5">
+        <v>0</v>
+      </c>
+      <c r="M403" s="5">
+        <v>0</v>
+      </c>
+      <c r="N403" s="6">
+        <v>205980</v>
+      </c>
+      <c r="O403" s="6">
+        <v>205980</v>
+      </c>
+      <c r="P403" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q403" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R403" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S403" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="T403" s="2"/>
-      <c r="U403" s="2"/>
-      <c r="V403" s="2"/>
-      <c r="W403" s="2"/>
-      <c r="X403" s="2"/>
-      <c r="Y403" s="2"/>
-      <c r="Z403" s="2"/>
-      <c r="AA403" s="2"/>
-      <c r="AB403" s="2"/>
-      <c r="AC403" s="2"/>
-      <c r="AD403" s="2"/>
-      <c r="AE403" s="2"/>
-      <c r="AF403" s="2"/>
-    </row>
-    <row r="404" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A404" s="2"/>
-      <c r="B404" s="2"/>
+      <c r="U403" s="5">
+        <v>0</v>
+      </c>
+      <c r="V403" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W403" s="5">
+        <v>0</v>
+      </c>
+      <c r="X403" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y403" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z403" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA403" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB403" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC403" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD403" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AE403" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AF403" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="C404" s="2"/>
-      <c r="D404" s="2"/>
-      <c r="E404" s="2"/>
-      <c r="F404" s="2"/>
-      <c r="G404" s="2"/>
-      <c r="H404" s="2"/>
-      <c r="I404" s="2"/>
-      <c r="J404" s="2"/>
-      <c r="K404" s="2"/>
-      <c r="L404" s="2"/>
-      <c r="M404" s="2"/>
-      <c r="N404" s="2"/>
-      <c r="O404" s="2"/>
-      <c r="P404" s="2"/>
-      <c r="Q404" s="2"/>
-      <c r="R404" s="2"/>
-      <c r="S404" s="2"/>
+      <c r="D404" s="5">
+        <v>3033</v>
+      </c>
+      <c r="E404" s="5">
+        <v>0</v>
+      </c>
+      <c r="F404" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G404" s="5">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="H404" s="6">
+        <v>5713300</v>
+      </c>
+      <c r="I404" s="5">
+        <v>5.23</v>
+      </c>
+      <c r="J404" s="6">
+        <v>5230000</v>
+      </c>
+      <c r="K404" s="6">
+        <v>-483300</v>
+      </c>
+      <c r="L404" s="7">
+        <v>-66217263</v>
+      </c>
+      <c r="M404" s="5">
+        <v>0</v>
+      </c>
+      <c r="N404" s="5">
+        <v>0</v>
+      </c>
+      <c r="O404" s="5">
+        <v>0</v>
+      </c>
+      <c r="P404" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q404" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R404" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S404" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T404" s="2"/>
-      <c r="U404" s="2"/>
-      <c r="V404" s="2"/>
-      <c r="W404" s="2"/>
-      <c r="X404" s="2"/>
-      <c r="Y404" s="2"/>
-      <c r="Z404" s="2"/>
-      <c r="AA404" s="2"/>
-      <c r="AB404" s="2"/>
-      <c r="AC404" s="2"/>
-      <c r="AD404" s="2"/>
-      <c r="AE404" s="2"/>
-      <c r="AF404" s="2"/>
-    </row>
-    <row r="405" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A405" s="2"/>
-      <c r="B405" s="2"/>
+      <c r="U404" s="5">
+        <v>0</v>
+      </c>
+      <c r="V404" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W404" s="5">
+        <v>183.11</v>
+      </c>
+      <c r="X404" s="7">
+        <v>1046162363</v>
+      </c>
+      <c r="Y404" s="5">
+        <v>187.37</v>
+      </c>
+      <c r="Z404" s="7">
+        <v>979945100</v>
+      </c>
+      <c r="AA404" s="7">
+        <v>-90555921</v>
+      </c>
+      <c r="AB404" s="7">
+        <v>24338658</v>
+      </c>
+      <c r="AC404" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD404" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE404" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF404" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C405" s="2"/>
-      <c r="D405" s="2"/>
-      <c r="E405" s="2"/>
-      <c r="F405" s="2"/>
-      <c r="G405" s="2"/>
-      <c r="H405" s="2"/>
-      <c r="I405" s="2"/>
-      <c r="J405" s="2"/>
-      <c r="K405" s="2"/>
-      <c r="L405" s="2"/>
-      <c r="M405" s="2"/>
-      <c r="N405" s="2"/>
-      <c r="O405" s="2"/>
-      <c r="P405" s="2"/>
-      <c r="Q405" s="2"/>
-      <c r="R405" s="2"/>
-      <c r="S405" s="2"/>
+      <c r="D405" s="5">
+        <v>9988</v>
+      </c>
+      <c r="E405" s="5">
+        <v>0</v>
+      </c>
+      <c r="F405" s="6">
+        <v>70500</v>
+      </c>
+      <c r="G405" s="5">
+        <v>147.79</v>
+      </c>
+      <c r="H405" s="6">
+        <v>10419200</v>
+      </c>
+      <c r="I405" s="5">
+        <v>155</v>
+      </c>
+      <c r="J405" s="6">
+        <v>10927500</v>
+      </c>
+      <c r="K405" s="6">
+        <v>508300</v>
+      </c>
+      <c r="L405" s="7">
+        <v>112687075</v>
+      </c>
+      <c r="M405" s="5">
+        <v>0</v>
+      </c>
+      <c r="N405" s="5">
+        <v>0</v>
+      </c>
+      <c r="O405" s="5">
+        <v>0</v>
+      </c>
+      <c r="P405" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q405" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R405" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S405" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="T405" s="2"/>
-      <c r="U405" s="2"/>
-      <c r="V405" s="2"/>
-      <c r="W405" s="2"/>
-      <c r="X405" s="2"/>
-      <c r="Y405" s="2"/>
-      <c r="Z405" s="2"/>
-      <c r="AA405" s="2"/>
-      <c r="AB405" s="2"/>
-      <c r="AC405" s="2"/>
-      <c r="AD405" s="2"/>
-      <c r="AE405" s="2"/>
-      <c r="AF405" s="2"/>
+      <c r="U405" s="5">
+        <v>0</v>
+      </c>
+      <c r="V405" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W405" s="5">
+        <v>185.69</v>
+      </c>
+      <c r="X405" s="7">
+        <v>1934798600</v>
+      </c>
+      <c r="Y405" s="5">
+        <v>187.37</v>
+      </c>
+      <c r="Z405" s="7">
+        <v>2047485675</v>
+      </c>
+      <c r="AA405" s="7">
+        <v>95240171</v>
+      </c>
+      <c r="AB405" s="7">
+        <v>17446904</v>
+      </c>
+      <c r="AC405" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD405" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE405" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF405" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="406" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A406" s="2"/>
-      <c r="B406" s="2"/>
+      <c r="A406" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C406" s="2"/>
-      <c r="D406" s="2"/>
-      <c r="E406" s="2"/>
-      <c r="F406" s="2"/>
-      <c r="G406" s="2"/>
-      <c r="H406" s="2"/>
-      <c r="I406" s="2"/>
-      <c r="J406" s="2"/>
-      <c r="K406" s="2"/>
-      <c r="L406" s="2"/>
-      <c r="M406" s="2"/>
-      <c r="N406" s="2"/>
-      <c r="O406" s="2"/>
-      <c r="P406" s="2"/>
-      <c r="Q406" s="2"/>
-      <c r="R406" s="2"/>
-      <c r="S406" s="2"/>
+      <c r="D406" s="5">
+        <v>6861</v>
+      </c>
+      <c r="E406" s="5">
+        <v>0</v>
+      </c>
+      <c r="F406" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G406" s="6">
+        <v>55916.79</v>
+      </c>
+      <c r="H406" s="6">
+        <v>106241900</v>
+      </c>
+      <c r="I406" s="6">
+        <v>53260</v>
+      </c>
+      <c r="J406" s="6">
+        <v>101194000</v>
+      </c>
+      <c r="K406" s="6">
+        <v>-5047900</v>
+      </c>
+      <c r="L406" s="7">
+        <v>-38570296</v>
+      </c>
+      <c r="M406" s="5">
+        <v>0</v>
+      </c>
+      <c r="N406" s="5">
+        <v>0</v>
+      </c>
+      <c r="O406" s="5">
+        <v>0</v>
+      </c>
+      <c r="P406" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q406" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R406" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S406" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="T406" s="2"/>
-      <c r="U406" s="2"/>
-      <c r="V406" s="2"/>
-      <c r="W406" s="2"/>
-      <c r="X406" s="2"/>
-      <c r="Y406" s="2"/>
-      <c r="Z406" s="2"/>
-      <c r="AA406" s="2"/>
-      <c r="AB406" s="2"/>
-      <c r="AC406" s="2"/>
-      <c r="AD406" s="2"/>
-      <c r="AE406" s="2"/>
-      <c r="AF406" s="2"/>
+      <c r="U406" s="5">
+        <v>0</v>
+      </c>
+      <c r="V406" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W406" s="5">
+        <v>924.45</v>
+      </c>
+      <c r="X406" s="7">
+        <v>982163868</v>
+      </c>
+      <c r="Y406" s="5">
+        <v>932.46</v>
+      </c>
+      <c r="Z406" s="7">
+        <v>943593572</v>
+      </c>
+      <c r="AA406" s="7">
+        <v>-47069648</v>
+      </c>
+      <c r="AB406" s="7">
+        <v>8499352</v>
+      </c>
+      <c r="AC406" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD406" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE406" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF406" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="407" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A407" s="2"/>
-      <c r="B407" s="2"/>
+      <c r="A407" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C407" s="2"/>
-      <c r="D407" s="2"/>
-      <c r="E407" s="2"/>
-      <c r="F407" s="2"/>
-      <c r="G407" s="2"/>
-      <c r="H407" s="2"/>
+      <c r="D407" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E407" s="5">
+        <v>0</v>
+      </c>
+      <c r="F407" s="5">
+        <v>0</v>
+      </c>
+      <c r="G407" s="5">
+        <v>0</v>
+      </c>
+      <c r="H407" s="5">
+        <v>0</v>
+      </c>
       <c r="I407" s="2"/>
-      <c r="J407" s="2"/>
-      <c r="K407" s="2"/>
-      <c r="L407" s="2"/>
-      <c r="M407" s="2"/>
-      <c r="N407" s="2"/>
-      <c r="O407" s="2"/>
-      <c r="P407" s="2"/>
-      <c r="Q407" s="2"/>
-      <c r="R407" s="2"/>
-      <c r="S407" s="2"/>
+      <c r="J407" s="5">
+        <v>0</v>
+      </c>
+      <c r="K407" s="5">
+        <v>0</v>
+      </c>
+      <c r="L407" s="5">
+        <v>0</v>
+      </c>
+      <c r="M407" s="6">
+        <v>430799</v>
+      </c>
+      <c r="N407" s="6">
+        <v>4911499</v>
+      </c>
+      <c r="O407" s="6">
+        <v>4911499</v>
+      </c>
+      <c r="P407" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q407" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R407" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S407" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="T407" s="2"/>
-      <c r="U407" s="2"/>
-      <c r="V407" s="2"/>
-      <c r="W407" s="2"/>
-      <c r="X407" s="2"/>
-      <c r="Y407" s="2"/>
-      <c r="Z407" s="2"/>
-      <c r="AA407" s="2"/>
-      <c r="AB407" s="2"/>
-      <c r="AC407" s="2"/>
-      <c r="AD407" s="2"/>
-      <c r="AE407" s="2"/>
-      <c r="AF407" s="2"/>
+      <c r="U407" s="5">
+        <v>0</v>
+      </c>
+      <c r="V407" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W407" s="5">
+        <v>0</v>
+      </c>
+      <c r="X407" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y407" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z407" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA407" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB407" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC407" s="7">
+        <v>5095345</v>
+      </c>
+      <c r="AD407" s="7">
+        <v>42855505</v>
+      </c>
+      <c r="AE407" s="7">
+        <v>42855505</v>
+      </c>
+      <c r="AF407" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="408" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A408" s="2"/>
-      <c r="B408" s="2"/>
+      <c r="A408" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C408" s="2"/>
-      <c r="D408" s="2"/>
-      <c r="E408" s="2"/>
-      <c r="F408" s="2"/>
-      <c r="G408" s="2"/>
-      <c r="H408" s="2"/>
-      <c r="I408" s="2"/>
-      <c r="J408" s="2"/>
-      <c r="K408" s="2"/>
-      <c r="L408" s="2"/>
-      <c r="M408" s="2"/>
-      <c r="N408" s="2"/>
-      <c r="O408" s="2"/>
-      <c r="P408" s="2"/>
-      <c r="Q408" s="2"/>
-      <c r="R408" s="2"/>
-      <c r="S408" s="2"/>
+      <c r="D408" s="5">
+        <v>9984</v>
+      </c>
+      <c r="E408" s="5">
+        <v>0</v>
+      </c>
+      <c r="F408" s="6">
+        <v>23000</v>
+      </c>
+      <c r="G408" s="6">
+        <v>4066.73</v>
+      </c>
+      <c r="H408" s="6">
+        <v>93534900</v>
+      </c>
+      <c r="I408" s="6">
+        <v>3999</v>
+      </c>
+      <c r="J408" s="6">
+        <v>91977000</v>
+      </c>
+      <c r="K408" s="6">
+        <v>-1557900</v>
+      </c>
+      <c r="L408" s="7">
+        <v>-8970821</v>
+      </c>
+      <c r="M408" s="5">
+        <v>0</v>
+      </c>
+      <c r="N408" s="5">
+        <v>0</v>
+      </c>
+      <c r="O408" s="5">
+        <v>0</v>
+      </c>
+      <c r="P408" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q408" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R408" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S408" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T408" s="2"/>
-      <c r="U408" s="2"/>
-      <c r="V408" s="2"/>
-      <c r="W408" s="2"/>
-      <c r="X408" s="2"/>
-      <c r="Y408" s="2"/>
-      <c r="Z408" s="2"/>
-      <c r="AA408" s="2"/>
-      <c r="AB408" s="2"/>
-      <c r="AC408" s="2"/>
-      <c r="AD408" s="2"/>
-      <c r="AE408" s="2"/>
-      <c r="AF408" s="2"/>
+      <c r="U408" s="5">
+        <v>0</v>
+      </c>
+      <c r="V408" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W408" s="5">
+        <v>926.51</v>
+      </c>
+      <c r="X408" s="7">
+        <v>866619555</v>
+      </c>
+      <c r="Y408" s="5">
+        <v>932.46</v>
+      </c>
+      <c r="Z408" s="7">
+        <v>857648734</v>
+      </c>
+      <c r="AA408" s="7">
+        <v>-14526794</v>
+      </c>
+      <c r="AB408" s="7">
+        <v>5555973</v>
+      </c>
+      <c r="AC408" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD408" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE408" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF408" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="409" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A409" s="2"/>
-      <c r="B409" s="2"/>
+      <c r="A409" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C409" s="2"/>
-      <c r="D409" s="2"/>
-      <c r="E409" s="2"/>
-      <c r="F409" s="2"/>
-      <c r="G409" s="2"/>
-      <c r="H409" s="2"/>
-      <c r="I409" s="2"/>
-      <c r="J409" s="2"/>
-      <c r="K409" s="2"/>
-      <c r="L409" s="2"/>
-      <c r="M409" s="2"/>
-      <c r="N409" s="2"/>
-      <c r="O409" s="2"/>
-      <c r="P409" s="2"/>
-      <c r="Q409" s="2"/>
-      <c r="R409" s="2"/>
-      <c r="S409" s="2"/>
+      <c r="D409" s="5">
+        <v>6954</v>
+      </c>
+      <c r="E409" s="5">
+        <v>0</v>
+      </c>
+      <c r="F409" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G409" s="6">
+        <v>6568.27</v>
+      </c>
+      <c r="H409" s="6">
+        <v>65682650</v>
+      </c>
+      <c r="I409" s="6">
+        <v>6571</v>
+      </c>
+      <c r="J409" s="6">
+        <v>65710000</v>
+      </c>
+      <c r="K409" s="6">
+        <v>27350</v>
+      </c>
+      <c r="L409" s="7">
+        <v>3828164</v>
+      </c>
+      <c r="M409" s="5">
+        <v>0</v>
+      </c>
+      <c r="N409" s="5">
+        <v>0</v>
+      </c>
+      <c r="O409" s="5">
+        <v>0</v>
+      </c>
+      <c r="P409" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q409" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R409" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S409" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="T409" s="2"/>
-      <c r="U409" s="2"/>
-      <c r="V409" s="2"/>
-      <c r="W409" s="2"/>
-      <c r="X409" s="2"/>
-      <c r="Y409" s="2"/>
-      <c r="Z409" s="2"/>
-      <c r="AA409" s="2"/>
-      <c r="AB409" s="2"/>
-      <c r="AC409" s="2"/>
-      <c r="AD409" s="2"/>
-      <c r="AE409" s="2"/>
-      <c r="AF409" s="2"/>
+      <c r="U409" s="5">
+        <v>0</v>
+      </c>
+      <c r="V409" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W409" s="5">
+        <v>927.01</v>
+      </c>
+      <c r="X409" s="7">
+        <v>608891302</v>
+      </c>
+      <c r="Y409" s="5">
+        <v>932.46</v>
+      </c>
+      <c r="Z409" s="7">
+        <v>612719466</v>
+      </c>
+      <c r="AA409" s="7">
+        <v>255027</v>
+      </c>
+      <c r="AB409" s="7">
+        <v>3573136</v>
+      </c>
+      <c r="AC409" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD409" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE409" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF409" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="410" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A410" s="2"/>

--- a/2026_멀티.xlsx
+++ b/2026_멀티.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\다른 컴퓨터\내 Mac\Workspace\Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D312B161-C1F4-4890-97E0-42E7E6AE3952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F75351C-CF67-4184-839F-E10F677949EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="113">
   <si>
     <t>기준일자</t>
   </si>
@@ -363,6 +363,18 @@
   </si>
   <si>
     <t>아마존닷컴</t>
+  </si>
+  <si>
+    <t>CSOPHSTECH</t>
+  </si>
+  <si>
+    <t>US81369Y3080</t>
+  </si>
+  <si>
+    <t>XLP</t>
+  </si>
+  <si>
+    <t>미국 필수 소비재 SPDR ETF</t>
   </si>
 </sst>
 </file>
@@ -742,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="C387" sqref="C387"/>
+    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="B431" sqref="B431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -751,7 +763,7 @@
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
@@ -39097,1738 +39109,4788 @@
       </c>
     </row>
     <row r="410" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A410" s="2"/>
-      <c r="B410" s="2"/>
+      <c r="A410" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C410" s="2"/>
-      <c r="D410" s="2"/>
-      <c r="E410" s="2"/>
-      <c r="F410" s="2"/>
-      <c r="G410" s="2"/>
-      <c r="H410" s="2"/>
-      <c r="I410" s="2"/>
-      <c r="J410" s="2"/>
-      <c r="K410" s="2"/>
-      <c r="L410" s="2"/>
-      <c r="M410" s="2"/>
-      <c r="N410" s="2"/>
-      <c r="O410" s="2"/>
-      <c r="P410" s="2"/>
-      <c r="Q410" s="2"/>
-      <c r="R410" s="2"/>
-      <c r="S410" s="2"/>
+      <c r="D410" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E410" s="5">
+        <v>0</v>
+      </c>
+      <c r="F410" s="6">
+        <v>38000</v>
+      </c>
+      <c r="G410" s="5">
+        <v>12.58</v>
+      </c>
+      <c r="H410" s="6">
+        <v>478066.6</v>
+      </c>
+      <c r="I410" s="5">
+        <v>11.68</v>
+      </c>
+      <c r="J410" s="6">
+        <v>443840</v>
+      </c>
+      <c r="K410" s="6">
+        <v>-34226.6</v>
+      </c>
+      <c r="L410" s="7">
+        <v>-49415043</v>
+      </c>
+      <c r="M410" s="5">
+        <v>0</v>
+      </c>
+      <c r="N410" s="5">
+        <v>0</v>
+      </c>
+      <c r="O410" s="5">
+        <v>0</v>
+      </c>
+      <c r="P410" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q410" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R410" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S410" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="T410" s="2"/>
-      <c r="U410" s="2"/>
-      <c r="V410" s="2"/>
-      <c r="W410" s="2"/>
-      <c r="X410" s="2"/>
-      <c r="Y410" s="2"/>
-      <c r="Z410" s="2"/>
-      <c r="AA410" s="2"/>
-      <c r="AB410" s="2"/>
-      <c r="AC410" s="2"/>
-      <c r="AD410" s="2"/>
-      <c r="AE410" s="2"/>
-      <c r="AF410" s="2"/>
+      <c r="U410" s="5">
+        <v>0</v>
+      </c>
+      <c r="V410" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W410" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X410" s="7">
+        <v>701992995</v>
+      </c>
+      <c r="Y410" s="6">
+        <v>1470.3</v>
+      </c>
+      <c r="Z410" s="7">
+        <v>652577952</v>
+      </c>
+      <c r="AA410" s="7">
+        <v>-50323369</v>
+      </c>
+      <c r="AB410" s="7">
+        <v>908326</v>
+      </c>
+      <c r="AC410" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD410" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE410" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF410" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="411" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A411" s="2"/>
-      <c r="B411" s="2"/>
+      <c r="A411" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C411" s="2"/>
-      <c r="D411" s="2"/>
-      <c r="E411" s="2"/>
-      <c r="F411" s="2"/>
-      <c r="G411" s="2"/>
-      <c r="H411" s="2"/>
-      <c r="I411" s="2"/>
-      <c r="J411" s="2"/>
-      <c r="K411" s="2"/>
-      <c r="L411" s="2"/>
-      <c r="M411" s="2"/>
-      <c r="N411" s="2"/>
-      <c r="O411" s="2"/>
-      <c r="P411" s="2"/>
-      <c r="Q411" s="2"/>
-      <c r="R411" s="2"/>
-      <c r="S411" s="2"/>
+      <c r="D411" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E411" s="5">
+        <v>0</v>
+      </c>
+      <c r="F411" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G411" s="5">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H411" s="6">
+        <v>482030</v>
+      </c>
+      <c r="I411" s="5">
+        <v>55.47</v>
+      </c>
+      <c r="J411" s="6">
+        <v>554700</v>
+      </c>
+      <c r="K411" s="6">
+        <v>72670</v>
+      </c>
+      <c r="L411" s="7">
+        <v>113884339</v>
+      </c>
+      <c r="M411" s="5">
+        <v>0</v>
+      </c>
+      <c r="N411" s="5">
+        <v>0</v>
+      </c>
+      <c r="O411" s="5">
+        <v>0</v>
+      </c>
+      <c r="P411" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q411" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R411" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S411" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="T411" s="2"/>
-      <c r="U411" s="2"/>
-      <c r="V411" s="2"/>
-      <c r="W411" s="2"/>
-      <c r="X411" s="2"/>
-      <c r="Y411" s="2"/>
-      <c r="Z411" s="2"/>
-      <c r="AA411" s="2"/>
-      <c r="AB411" s="2"/>
-      <c r="AC411" s="2"/>
-      <c r="AD411" s="2"/>
-      <c r="AE411" s="2"/>
-      <c r="AF411" s="2"/>
-    </row>
-    <row r="412" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A412" s="2"/>
-      <c r="B412" s="2"/>
+      <c r="U411" s="5">
+        <v>0</v>
+      </c>
+      <c r="V411" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W411" s="6">
+        <v>1455.7</v>
+      </c>
+      <c r="X411" s="7">
+        <v>701691071</v>
+      </c>
+      <c r="Y411" s="6">
+        <v>1470.3</v>
+      </c>
+      <c r="Z411" s="7">
+        <v>815575410</v>
+      </c>
+      <c r="AA411" s="7">
+        <v>106846701</v>
+      </c>
+      <c r="AB411" s="7">
+        <v>7037638</v>
+      </c>
+      <c r="AC411" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD411" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE411" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF411" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C412" s="2"/>
-      <c r="D412" s="2"/>
-      <c r="E412" s="2"/>
-      <c r="F412" s="2"/>
-      <c r="G412" s="2"/>
-      <c r="H412" s="2"/>
-      <c r="I412" s="2"/>
-      <c r="J412" s="2"/>
-      <c r="K412" s="2"/>
-      <c r="L412" s="2"/>
-      <c r="M412" s="2"/>
-      <c r="N412" s="2"/>
-      <c r="O412" s="2"/>
-      <c r="P412" s="2"/>
-      <c r="Q412" s="2"/>
-      <c r="R412" s="2"/>
-      <c r="S412" s="2"/>
+      <c r="D412" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E412" s="5">
+        <v>0</v>
+      </c>
+      <c r="F412" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G412" s="5">
+        <v>342.964</v>
+      </c>
+      <c r="H412" s="6">
+        <v>1028892.6</v>
+      </c>
+      <c r="I412" s="5">
+        <v>324.39999999999998</v>
+      </c>
+      <c r="J412" s="6">
+        <v>973200</v>
+      </c>
+      <c r="K412" s="6">
+        <v>-55692.6</v>
+      </c>
+      <c r="L412" s="7">
+        <v>-68509225</v>
+      </c>
+      <c r="M412" s="5">
+        <v>0</v>
+      </c>
+      <c r="N412" s="5">
+        <v>0</v>
+      </c>
+      <c r="O412" s="5">
+        <v>0</v>
+      </c>
+      <c r="P412" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q412" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R412" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S412" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="T412" s="2"/>
-      <c r="U412" s="2"/>
-      <c r="V412" s="2"/>
-      <c r="W412" s="2"/>
-      <c r="X412" s="2"/>
-      <c r="Y412" s="2"/>
-      <c r="Z412" s="2"/>
-      <c r="AA412" s="2"/>
-      <c r="AB412" s="2"/>
-      <c r="AC412" s="2"/>
-      <c r="AD412" s="2"/>
-      <c r="AE412" s="2"/>
-      <c r="AF412" s="2"/>
+      <c r="U412" s="5">
+        <v>0</v>
+      </c>
+      <c r="V412" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W412" s="6">
+        <v>1457.29</v>
+      </c>
+      <c r="X412" s="7">
+        <v>1499405185</v>
+      </c>
+      <c r="Y412" s="6">
+        <v>1470.3</v>
+      </c>
+      <c r="Z412" s="7">
+        <v>1430895960</v>
+      </c>
+      <c r="AA412" s="7">
+        <v>-81884829</v>
+      </c>
+      <c r="AB412" s="7">
+        <v>13375604</v>
+      </c>
+      <c r="AC412" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD412" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE412" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF412" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="413" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A413" s="2"/>
-      <c r="B413" s="2"/>
+      <c r="A413" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C413" s="2"/>
-      <c r="D413" s="2"/>
-      <c r="E413" s="2"/>
-      <c r="F413" s="2"/>
-      <c r="G413" s="2"/>
-      <c r="H413" s="2"/>
-      <c r="I413" s="2"/>
-      <c r="J413" s="2"/>
-      <c r="K413" s="2"/>
-      <c r="L413" s="2"/>
-      <c r="M413" s="2"/>
-      <c r="N413" s="2"/>
-      <c r="O413" s="2"/>
-      <c r="P413" s="2"/>
-      <c r="Q413" s="2"/>
-      <c r="R413" s="2"/>
-      <c r="S413" s="2"/>
+      <c r="D413" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E413" s="5">
+        <v>0</v>
+      </c>
+      <c r="F413" s="6">
+        <v>4500</v>
+      </c>
+      <c r="G413" s="5">
+        <v>238.76400000000001</v>
+      </c>
+      <c r="H413" s="6">
+        <v>1074441.6000000001</v>
+      </c>
+      <c r="I413" s="5">
+        <v>208.72</v>
+      </c>
+      <c r="J413" s="6">
+        <v>939240</v>
+      </c>
+      <c r="K413" s="6">
+        <v>-135201.60000000001</v>
+      </c>
+      <c r="L413" s="7">
+        <v>-184819171</v>
+      </c>
+      <c r="M413" s="5">
+        <v>0</v>
+      </c>
+      <c r="N413" s="5">
+        <v>0</v>
+      </c>
+      <c r="O413" s="5">
+        <v>0</v>
+      </c>
+      <c r="P413" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q413" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R413" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S413" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="T413" s="2"/>
-      <c r="U413" s="2"/>
-      <c r="V413" s="2"/>
-      <c r="W413" s="2"/>
-      <c r="X413" s="2"/>
-      <c r="Y413" s="2"/>
-      <c r="Z413" s="2"/>
-      <c r="AA413" s="2"/>
-      <c r="AB413" s="2"/>
-      <c r="AC413" s="2"/>
-      <c r="AD413" s="2"/>
-      <c r="AE413" s="2"/>
-      <c r="AF413" s="2"/>
+      <c r="U413" s="5">
+        <v>0</v>
+      </c>
+      <c r="V413" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W413" s="6">
+        <v>1457.29</v>
+      </c>
+      <c r="X413" s="7">
+        <v>1565783743</v>
+      </c>
+      <c r="Y413" s="6">
+        <v>1470.3</v>
+      </c>
+      <c r="Z413" s="7">
+        <v>1380964572</v>
+      </c>
+      <c r="AA413" s="7">
+        <v>-198786912</v>
+      </c>
+      <c r="AB413" s="7">
+        <v>13967741</v>
+      </c>
+      <c r="AC413" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD413" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE413" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF413" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="414" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A414" s="2"/>
-      <c r="B414" s="2"/>
+      <c r="A414" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C414" s="2"/>
-      <c r="D414" s="2"/>
-      <c r="E414" s="2"/>
-      <c r="F414" s="2"/>
-      <c r="G414" s="2"/>
-      <c r="H414" s="2"/>
-      <c r="I414" s="2"/>
-      <c r="J414" s="2"/>
-      <c r="K414" s="2"/>
-      <c r="L414" s="2"/>
-      <c r="M414" s="2"/>
-      <c r="N414" s="2"/>
-      <c r="O414" s="2"/>
-      <c r="P414" s="2"/>
-      <c r="Q414" s="2"/>
-      <c r="R414" s="2"/>
-      <c r="S414" s="2"/>
+      <c r="D414" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E414" s="5">
+        <v>0</v>
+      </c>
+      <c r="F414" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G414" s="5">
+        <v>34.24</v>
+      </c>
+      <c r="H414" s="6">
+        <v>684800</v>
+      </c>
+      <c r="I414" s="5">
+        <v>34.24</v>
+      </c>
+      <c r="J414" s="6">
+        <v>684800</v>
+      </c>
+      <c r="K414" s="5">
+        <v>0</v>
+      </c>
+      <c r="L414" s="7">
+        <v>-4588160</v>
+      </c>
+      <c r="M414" s="5">
+        <v>0</v>
+      </c>
+      <c r="N414" s="5">
+        <v>0</v>
+      </c>
+      <c r="O414" s="5">
+        <v>0</v>
+      </c>
+      <c r="P414" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q414" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R414" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S414" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="T414" s="2"/>
-      <c r="U414" s="2"/>
-      <c r="V414" s="2"/>
-      <c r="W414" s="2"/>
-      <c r="X414" s="2"/>
-      <c r="Y414" s="2"/>
-      <c r="Z414" s="2"/>
-      <c r="AA414" s="2"/>
-      <c r="AB414" s="2"/>
-      <c r="AC414" s="2"/>
-      <c r="AD414" s="2"/>
-      <c r="AE414" s="2"/>
-      <c r="AF414" s="2"/>
+      <c r="U414" s="5">
+        <v>0</v>
+      </c>
+      <c r="V414" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W414" s="6">
+        <v>1477</v>
+      </c>
+      <c r="X414" s="7">
+        <v>1011449600</v>
+      </c>
+      <c r="Y414" s="6">
+        <v>1470.3</v>
+      </c>
+      <c r="Z414" s="7">
+        <v>1006861440</v>
+      </c>
+      <c r="AA414" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB414" s="7">
+        <v>-4588160</v>
+      </c>
+      <c r="AC414" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD414" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE414" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF414" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="415" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A415" s="2"/>
-      <c r="B415" s="2"/>
+      <c r="A415" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C415" s="2"/>
-      <c r="D415" s="2"/>
-      <c r="E415" s="2"/>
-      <c r="F415" s="2"/>
-      <c r="G415" s="2"/>
-      <c r="H415" s="2"/>
-      <c r="I415" s="2"/>
-      <c r="J415" s="2"/>
-      <c r="K415" s="2"/>
-      <c r="L415" s="2"/>
-      <c r="M415" s="2"/>
-      <c r="N415" s="2"/>
-      <c r="O415" s="2"/>
-      <c r="P415" s="2"/>
-      <c r="Q415" s="2"/>
-      <c r="R415" s="2"/>
-      <c r="S415" s="2"/>
+      <c r="D415" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E415" s="5">
+        <v>0</v>
+      </c>
+      <c r="F415" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G415" s="5">
+        <v>251.01</v>
+      </c>
+      <c r="H415" s="6">
+        <v>1255051.8</v>
+      </c>
+      <c r="I415" s="5">
+        <v>274.62</v>
+      </c>
+      <c r="J415" s="6">
+        <v>1373100</v>
+      </c>
+      <c r="K415" s="6">
+        <v>118048.2</v>
+      </c>
+      <c r="L415" s="7">
+        <v>179598693</v>
+      </c>
+      <c r="M415" s="5">
+        <v>0</v>
+      </c>
+      <c r="N415" s="5">
+        <v>0</v>
+      </c>
+      <c r="O415" s="5">
+        <v>0</v>
+      </c>
+      <c r="P415" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q415" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R415" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S415" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T415" s="2"/>
-      <c r="U415" s="2"/>
-      <c r="V415" s="2"/>
-      <c r="W415" s="2"/>
-      <c r="X415" s="2"/>
-      <c r="Y415" s="2"/>
-      <c r="Z415" s="2"/>
-      <c r="AA415" s="2"/>
-      <c r="AB415" s="2"/>
-      <c r="AC415" s="2"/>
-      <c r="AD415" s="2"/>
-      <c r="AE415" s="2"/>
-      <c r="AF415" s="2"/>
+      <c r="U415" s="5">
+        <v>0</v>
+      </c>
+      <c r="V415" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W415" s="6">
+        <v>1465.49</v>
+      </c>
+      <c r="X415" s="7">
+        <v>1839270237</v>
+      </c>
+      <c r="Y415" s="6">
+        <v>1470.3</v>
+      </c>
+      <c r="Z415" s="7">
+        <v>2018868930</v>
+      </c>
+      <c r="AA415" s="7">
+        <v>173566268</v>
+      </c>
+      <c r="AB415" s="7">
+        <v>6032424</v>
+      </c>
+      <c r="AC415" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD415" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE415" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF415" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="416" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A416" s="2"/>
-      <c r="B416" s="2"/>
+      <c r="A416" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
-      <c r="E416" s="2"/>
-      <c r="F416" s="2"/>
-      <c r="G416" s="2"/>
-      <c r="H416" s="2"/>
+      <c r="D416" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E416" s="5">
+        <v>0</v>
+      </c>
+      <c r="F416" s="5">
+        <v>0</v>
+      </c>
+      <c r="G416" s="5">
+        <v>0</v>
+      </c>
+      <c r="H416" s="5">
+        <v>0</v>
+      </c>
       <c r="I416" s="2"/>
-      <c r="J416" s="2"/>
-      <c r="K416" s="2"/>
-      <c r="L416" s="2"/>
-      <c r="M416" s="2"/>
-      <c r="N416" s="2"/>
-      <c r="O416" s="2"/>
-      <c r="P416" s="2"/>
-      <c r="Q416" s="2"/>
-      <c r="R416" s="2"/>
-      <c r="S416" s="2"/>
+      <c r="J416" s="5">
+        <v>0</v>
+      </c>
+      <c r="K416" s="5">
+        <v>0</v>
+      </c>
+      <c r="L416" s="5">
+        <v>0</v>
+      </c>
+      <c r="M416" s="5">
+        <v>0</v>
+      </c>
+      <c r="N416" s="6">
+        <v>-276165.90000000002</v>
+      </c>
+      <c r="O416" s="5">
+        <v>0</v>
+      </c>
+      <c r="P416" s="6">
+        <v>276165.90000000002</v>
+      </c>
+      <c r="Q416" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R416" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S416" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="T416" s="2"/>
-      <c r="U416" s="2"/>
-      <c r="V416" s="2"/>
-      <c r="W416" s="2"/>
-      <c r="X416" s="2"/>
-      <c r="Y416" s="2"/>
-      <c r="Z416" s="2"/>
-      <c r="AA416" s="2"/>
-      <c r="AB416" s="2"/>
-      <c r="AC416" s="2"/>
-      <c r="AD416" s="2"/>
-      <c r="AE416" s="2"/>
-      <c r="AF416" s="2"/>
+      <c r="U416" s="5">
+        <v>0</v>
+      </c>
+      <c r="V416" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W416" s="5">
+        <v>0</v>
+      </c>
+      <c r="X416" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y416" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z416" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA416" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB416" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC416" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD416" s="7">
+        <v>-413294425</v>
+      </c>
+      <c r="AE416" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF416" s="7">
+        <v>413294425</v>
+      </c>
     </row>
     <row r="417" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A417" s="2"/>
-      <c r="B417" s="2"/>
+      <c r="A417" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
-      <c r="E417" s="2"/>
-      <c r="F417" s="2"/>
-      <c r="G417" s="2"/>
-      <c r="H417" s="2"/>
-      <c r="I417" s="2"/>
-      <c r="J417" s="2"/>
-      <c r="K417" s="2"/>
-      <c r="L417" s="2"/>
-      <c r="M417" s="2"/>
-      <c r="N417" s="2"/>
-      <c r="O417" s="2"/>
-      <c r="P417" s="2"/>
-      <c r="Q417" s="2"/>
-      <c r="R417" s="2"/>
-      <c r="S417" s="2"/>
+      <c r="D417" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E417" s="5">
+        <v>0</v>
+      </c>
+      <c r="F417" s="6">
+        <v>5500</v>
+      </c>
+      <c r="G417" s="5">
+        <v>191.75399999999999</v>
+      </c>
+      <c r="H417" s="6">
+        <v>1054647.55</v>
+      </c>
+      <c r="I417" s="5">
+        <v>190.04</v>
+      </c>
+      <c r="J417" s="6">
+        <v>1045220</v>
+      </c>
+      <c r="K417" s="6">
+        <v>-9427.5499999999993</v>
+      </c>
+      <c r="L417" s="7">
+        <v>31804913</v>
+      </c>
+      <c r="M417" s="5">
+        <v>0</v>
+      </c>
+      <c r="N417" s="5">
+        <v>0</v>
+      </c>
+      <c r="O417" s="5">
+        <v>0</v>
+      </c>
+      <c r="P417" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q417" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R417" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S417" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="T417" s="2"/>
-      <c r="U417" s="2"/>
-      <c r="V417" s="2"/>
-      <c r="W417" s="2"/>
-      <c r="X417" s="2"/>
-      <c r="Y417" s="2"/>
-      <c r="Z417" s="2"/>
-      <c r="AA417" s="2"/>
-      <c r="AB417" s="2"/>
-      <c r="AC417" s="2"/>
-      <c r="AD417" s="2"/>
-      <c r="AE417" s="2"/>
-      <c r="AF417" s="2"/>
+      <c r="U417" s="5">
+        <v>0</v>
+      </c>
+      <c r="V417" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W417" s="6">
+        <v>1426.99</v>
+      </c>
+      <c r="X417" s="7">
+        <v>1504982053</v>
+      </c>
+      <c r="Y417" s="6">
+        <v>1470.3</v>
+      </c>
+      <c r="Z417" s="7">
+        <v>1536786966</v>
+      </c>
+      <c r="AA417" s="7">
+        <v>-13861326</v>
+      </c>
+      <c r="AB417" s="7">
+        <v>45666239</v>
+      </c>
+      <c r="AC417" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD417" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE417" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF417" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="418" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
+      <c r="A418" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
-      <c r="G418" s="2"/>
-      <c r="H418" s="2"/>
-      <c r="I418" s="2"/>
-      <c r="J418" s="2"/>
-      <c r="K418" s="2"/>
-      <c r="L418" s="2"/>
-      <c r="M418" s="2"/>
-      <c r="N418" s="2"/>
-      <c r="O418" s="2"/>
-      <c r="P418" s="2"/>
-      <c r="Q418" s="2"/>
-      <c r="R418" s="2"/>
-      <c r="S418" s="2"/>
+      <c r="D418" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E418" s="5">
+        <v>0</v>
+      </c>
+      <c r="F418" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G418" s="5">
+        <v>44.158999999999999</v>
+      </c>
+      <c r="H418" s="6">
+        <v>441591</v>
+      </c>
+      <c r="I418" s="5">
+        <v>46.66</v>
+      </c>
+      <c r="J418" s="6">
+        <v>466600</v>
+      </c>
+      <c r="K418" s="6">
+        <v>25009</v>
+      </c>
+      <c r="L418" s="7">
+        <v>37609756</v>
+      </c>
+      <c r="M418" s="5">
+        <v>0</v>
+      </c>
+      <c r="N418" s="5">
+        <v>0</v>
+      </c>
+      <c r="O418" s="5">
+        <v>0</v>
+      </c>
+      <c r="P418" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q418" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R418" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S418" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="T418" s="2"/>
-      <c r="U418" s="2"/>
-      <c r="V418" s="2"/>
-      <c r="W418" s="2"/>
-      <c r="X418" s="2"/>
-      <c r="Y418" s="2"/>
-      <c r="Z418" s="2"/>
-      <c r="AA418" s="2"/>
-      <c r="AB418" s="2"/>
-      <c r="AC418" s="2"/>
-      <c r="AD418" s="2"/>
-      <c r="AE418" s="2"/>
-      <c r="AF418" s="2"/>
+      <c r="U418" s="5">
+        <v>0</v>
+      </c>
+      <c r="V418" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W418" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X418" s="7">
+        <v>648432224</v>
+      </c>
+      <c r="Y418" s="6">
+        <v>1470.3</v>
+      </c>
+      <c r="Z418" s="7">
+        <v>686041980</v>
+      </c>
+      <c r="AA418" s="7">
+        <v>36770732</v>
+      </c>
+      <c r="AB418" s="7">
+        <v>839023</v>
+      </c>
+      <c r="AC418" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD418" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE418" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF418" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="419" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A419" s="2"/>
-      <c r="B419" s="2"/>
+      <c r="A419" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
-      <c r="F419" s="2"/>
-      <c r="G419" s="2"/>
-      <c r="H419" s="2"/>
-      <c r="I419" s="2"/>
-      <c r="J419" s="2"/>
-      <c r="K419" s="2"/>
-      <c r="L419" s="2"/>
-      <c r="M419" s="2"/>
-      <c r="N419" s="2"/>
-      <c r="O419" s="2"/>
-      <c r="P419" s="2"/>
-      <c r="Q419" s="2"/>
-      <c r="R419" s="2"/>
-      <c r="S419" s="2"/>
+      <c r="D419" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E419" s="5">
+        <v>0</v>
+      </c>
+      <c r="F419" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G419" s="5">
+        <v>681.92</v>
+      </c>
+      <c r="H419" s="6">
+        <v>681920</v>
+      </c>
+      <c r="I419" s="5">
+        <v>693.95</v>
+      </c>
+      <c r="J419" s="6">
+        <v>693950</v>
+      </c>
+      <c r="K419" s="6">
+        <v>12030</v>
+      </c>
+      <c r="L419" s="7">
+        <v>41827677</v>
+      </c>
+      <c r="M419" s="5">
+        <v>0</v>
+      </c>
+      <c r="N419" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="O419" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="P419" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q419" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R419" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S419" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T419" s="2"/>
-      <c r="U419" s="2"/>
-      <c r="V419" s="2"/>
-      <c r="W419" s="2"/>
-      <c r="X419" s="2"/>
-      <c r="Y419" s="2"/>
-      <c r="Z419" s="2"/>
-      <c r="AA419" s="2"/>
-      <c r="AB419" s="2"/>
-      <c r="AC419" s="2"/>
-      <c r="AD419" s="2"/>
-      <c r="AE419" s="2"/>
-      <c r="AF419" s="2"/>
+      <c r="U419" s="5">
+        <v>0</v>
+      </c>
+      <c r="V419" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W419" s="6">
+        <v>1434.9</v>
+      </c>
+      <c r="X419" s="7">
+        <v>978487008</v>
+      </c>
+      <c r="Y419" s="6">
+        <v>1470.3</v>
+      </c>
+      <c r="Z419" s="7">
+        <v>1020314685</v>
+      </c>
+      <c r="AA419" s="7">
+        <v>17687709</v>
+      </c>
+      <c r="AB419" s="7">
+        <v>24139968</v>
+      </c>
+      <c r="AC419" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD419" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AE419" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AF419" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="420" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A420" s="2"/>
-      <c r="B420" s="2"/>
+      <c r="A420" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C420" s="2"/>
-      <c r="D420" s="2"/>
-      <c r="E420" s="2"/>
-      <c r="F420" s="2"/>
-      <c r="G420" s="2"/>
-      <c r="H420" s="2"/>
-      <c r="I420" s="2"/>
-      <c r="J420" s="2"/>
-      <c r="K420" s="2"/>
-      <c r="L420" s="2"/>
-      <c r="M420" s="2"/>
-      <c r="N420" s="2"/>
-      <c r="O420" s="2"/>
-      <c r="P420" s="2"/>
-      <c r="Q420" s="2"/>
-      <c r="R420" s="2"/>
-      <c r="S420" s="2"/>
+      <c r="D420" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E420" s="5">
+        <v>0</v>
+      </c>
+      <c r="F420" s="6">
+        <v>4200</v>
+      </c>
+      <c r="G420" s="5">
+        <v>396.31</v>
+      </c>
+      <c r="H420" s="6">
+        <v>1664502</v>
+      </c>
+      <c r="I420" s="5">
+        <v>467.03</v>
+      </c>
+      <c r="J420" s="6">
+        <v>1961526</v>
+      </c>
+      <c r="K420" s="6">
+        <v>297024</v>
+      </c>
+      <c r="L420" s="7">
+        <v>495637758</v>
+      </c>
+      <c r="M420" s="5">
+        <v>0</v>
+      </c>
+      <c r="N420" s="5">
+        <v>0</v>
+      </c>
+      <c r="O420" s="5">
+        <v>0</v>
+      </c>
+      <c r="P420" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q420" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R420" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S420" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="T420" s="2"/>
-      <c r="U420" s="2"/>
-      <c r="V420" s="2"/>
-      <c r="W420" s="2"/>
-      <c r="X420" s="2"/>
-      <c r="Y420" s="2"/>
-      <c r="Z420" s="2"/>
-      <c r="AA420" s="2"/>
-      <c r="AB420" s="2"/>
-      <c r="AC420" s="2"/>
-      <c r="AD420" s="2"/>
-      <c r="AE420" s="2"/>
-      <c r="AF420" s="2"/>
+      <c r="U420" s="5">
+        <v>0</v>
+      </c>
+      <c r="V420" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W420" s="6">
+        <v>1434.89</v>
+      </c>
+      <c r="X420" s="7">
+        <v>2388393919</v>
+      </c>
+      <c r="Y420" s="6">
+        <v>1470.3</v>
+      </c>
+      <c r="Z420" s="7">
+        <v>2884031677</v>
+      </c>
+      <c r="AA420" s="7">
+        <v>436714387</v>
+      </c>
+      <c r="AB420" s="7">
+        <v>58923371</v>
+      </c>
+      <c r="AC420" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD420" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE420" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF420" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="421" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
+      <c r="A421" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
-      <c r="E421" s="2"/>
-      <c r="F421" s="2"/>
-      <c r="G421" s="2"/>
-      <c r="H421" s="2"/>
-      <c r="I421" s="2"/>
-      <c r="J421" s="2"/>
-      <c r="K421" s="2"/>
-      <c r="L421" s="2"/>
-      <c r="M421" s="2"/>
-      <c r="N421" s="2"/>
-      <c r="O421" s="2"/>
-      <c r="P421" s="2"/>
-      <c r="Q421" s="2"/>
-      <c r="R421" s="2"/>
-      <c r="S421" s="2"/>
+      <c r="D421" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E421" s="5">
+        <v>0</v>
+      </c>
+      <c r="F421" s="6">
+        <v>24000</v>
+      </c>
+      <c r="G421" s="5">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H421" s="6">
+        <v>423736.8</v>
+      </c>
+      <c r="I421" s="5">
+        <v>16.27</v>
+      </c>
+      <c r="J421" s="6">
+        <v>390480</v>
+      </c>
+      <c r="K421" s="6">
+        <v>-33256.800000000003</v>
+      </c>
+      <c r="L421" s="7">
+        <v>-46270304</v>
+      </c>
+      <c r="M421" s="5">
+        <v>0</v>
+      </c>
+      <c r="N421" s="5">
+        <v>0</v>
+      </c>
+      <c r="O421" s="5">
+        <v>0</v>
+      </c>
+      <c r="P421" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q421" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R421" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S421" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="T421" s="2"/>
-      <c r="U421" s="2"/>
-      <c r="V421" s="2"/>
-      <c r="W421" s="2"/>
-      <c r="X421" s="2"/>
-      <c r="Y421" s="2"/>
-      <c r="Z421" s="2"/>
-      <c r="AA421" s="2"/>
-      <c r="AB421" s="2"/>
-      <c r="AC421" s="2"/>
-      <c r="AD421" s="2"/>
-      <c r="AE421" s="2"/>
-      <c r="AF421" s="2"/>
+      <c r="U421" s="5">
+        <v>0</v>
+      </c>
+      <c r="V421" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W421" s="6">
+        <v>1464.09</v>
+      </c>
+      <c r="X421" s="7">
+        <v>620393048</v>
+      </c>
+      <c r="Y421" s="6">
+        <v>1470.3</v>
+      </c>
+      <c r="Z421" s="7">
+        <v>574122744</v>
+      </c>
+      <c r="AA421" s="7">
+        <v>-48897473</v>
+      </c>
+      <c r="AB421" s="7">
+        <v>2627169</v>
+      </c>
+      <c r="AC421" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD421" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE421" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF421" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="422" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
+      <c r="A422" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
-      <c r="E422" s="2"/>
-      <c r="F422" s="2"/>
-      <c r="G422" s="2"/>
-      <c r="H422" s="2"/>
-      <c r="I422" s="2"/>
-      <c r="J422" s="2"/>
-      <c r="K422" s="2"/>
-      <c r="L422" s="2"/>
-      <c r="M422" s="2"/>
-      <c r="N422" s="2"/>
-      <c r="O422" s="2"/>
-      <c r="P422" s="2"/>
-      <c r="Q422" s="2"/>
-      <c r="R422" s="2"/>
-      <c r="S422" s="2"/>
+      <c r="D422" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E422" s="5">
+        <v>0</v>
+      </c>
+      <c r="F422" s="6">
+        <v>1400</v>
+      </c>
+      <c r="G422" s="5">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H422" s="6">
+        <v>605554.04</v>
+      </c>
+      <c r="I422" s="5">
+        <v>417.32</v>
+      </c>
+      <c r="J422" s="6">
+        <v>584248</v>
+      </c>
+      <c r="K422" s="6">
+        <v>-21306.04</v>
+      </c>
+      <c r="L422" s="7">
+        <v>-17095751</v>
+      </c>
+      <c r="M422" s="5">
+        <v>0</v>
+      </c>
+      <c r="N422" s="5">
+        <v>0</v>
+      </c>
+      <c r="O422" s="5">
+        <v>0</v>
+      </c>
+      <c r="P422" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q422" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R422" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S422" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="T422" s="2"/>
-      <c r="U422" s="2"/>
-      <c r="V422" s="2"/>
-      <c r="W422" s="2"/>
-      <c r="X422" s="2"/>
-      <c r="Y422" s="2"/>
-      <c r="Z422" s="2"/>
-      <c r="AA422" s="2"/>
-      <c r="AB422" s="2"/>
-      <c r="AC422" s="2"/>
-      <c r="AD422" s="2"/>
-      <c r="AE422" s="2"/>
-      <c r="AF422" s="2"/>
+      <c r="U422" s="5">
+        <v>0</v>
+      </c>
+      <c r="V422" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W422" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X422" s="7">
+        <v>876115585</v>
+      </c>
+      <c r="Y422" s="6">
+        <v>1470.3</v>
+      </c>
+      <c r="Z422" s="7">
+        <v>859019834</v>
+      </c>
+      <c r="AA422" s="7">
+        <v>-31326270</v>
+      </c>
+      <c r="AB422" s="7">
+        <v>14230520</v>
+      </c>
+      <c r="AC422" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD422" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE422" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF422" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="423" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
+      <c r="A423" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
-      <c r="E423" s="2"/>
-      <c r="F423" s="2"/>
-      <c r="G423" s="2"/>
-      <c r="H423" s="2"/>
-      <c r="I423" s="2"/>
-      <c r="J423" s="2"/>
-      <c r="K423" s="2"/>
-      <c r="L423" s="2"/>
-      <c r="M423" s="2"/>
-      <c r="N423" s="2"/>
-      <c r="O423" s="2"/>
-      <c r="P423" s="2"/>
-      <c r="Q423" s="2"/>
-      <c r="R423" s="2"/>
-      <c r="S423" s="2"/>
+      <c r="D423" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E423" s="5">
+        <v>0</v>
+      </c>
+      <c r="F423" s="6">
+        <v>3500</v>
+      </c>
+      <c r="G423" s="5">
+        <v>169.042</v>
+      </c>
+      <c r="H423" s="6">
+        <v>591649.80000000005</v>
+      </c>
+      <c r="I423" s="5">
+        <v>152.97</v>
+      </c>
+      <c r="J423" s="6">
+        <v>535395</v>
+      </c>
+      <c r="K423" s="6">
+        <v>-56254.8</v>
+      </c>
+      <c r="L423" s="7">
+        <v>-68807662</v>
+      </c>
+      <c r="M423" s="5">
+        <v>0</v>
+      </c>
+      <c r="N423" s="5">
+        <v>0</v>
+      </c>
+      <c r="O423" s="5">
+        <v>0</v>
+      </c>
+      <c r="P423" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q423" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R423" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S423" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="T423" s="2"/>
-      <c r="U423" s="2"/>
-      <c r="V423" s="2"/>
-      <c r="W423" s="2"/>
-      <c r="X423" s="2"/>
-      <c r="Y423" s="2"/>
-      <c r="Z423" s="2"/>
-      <c r="AA423" s="2"/>
-      <c r="AB423" s="2"/>
-      <c r="AC423" s="2"/>
-      <c r="AD423" s="2"/>
-      <c r="AE423" s="2"/>
-      <c r="AF423" s="2"/>
-    </row>
-    <row r="424" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
+      <c r="U423" s="5">
+        <v>0</v>
+      </c>
+      <c r="V423" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W423" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X423" s="7">
+        <v>855998930</v>
+      </c>
+      <c r="Y423" s="6">
+        <v>1470.3</v>
+      </c>
+      <c r="Z423" s="7">
+        <v>787191268</v>
+      </c>
+      <c r="AA423" s="7">
+        <v>-82711432</v>
+      </c>
+      <c r="AB423" s="7">
+        <v>13903770</v>
+      </c>
+      <c r="AC423" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD423" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE423" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF423" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
-      <c r="H424" s="2"/>
+      <c r="D424" s="5">
+        <v>6869</v>
+      </c>
+      <c r="E424" s="5">
+        <v>0</v>
+      </c>
+      <c r="F424" s="5">
+        <v>0</v>
+      </c>
+      <c r="G424" s="5">
+        <v>0</v>
+      </c>
+      <c r="H424" s="5">
+        <v>0</v>
+      </c>
       <c r="I424" s="2"/>
-      <c r="J424" s="2"/>
-      <c r="K424" s="2"/>
-      <c r="L424" s="2"/>
-      <c r="M424" s="2"/>
-      <c r="N424" s="2"/>
-      <c r="O424" s="2"/>
-      <c r="P424" s="2"/>
-      <c r="Q424" s="2"/>
-      <c r="R424" s="2"/>
-      <c r="S424" s="2"/>
+      <c r="J424" s="5">
+        <v>0</v>
+      </c>
+      <c r="K424" s="5">
+        <v>0</v>
+      </c>
+      <c r="L424" s="5">
+        <v>0</v>
+      </c>
+      <c r="M424" s="5">
+        <v>0</v>
+      </c>
+      <c r="N424" s="6">
+        <v>349976</v>
+      </c>
+      <c r="O424" s="6">
+        <v>349976</v>
+      </c>
+      <c r="P424" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q424" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R424" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S424" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="T424" s="2"/>
-      <c r="U424" s="2"/>
-      <c r="V424" s="2"/>
-      <c r="W424" s="2"/>
-      <c r="X424" s="2"/>
-      <c r="Y424" s="2"/>
-      <c r="Z424" s="2"/>
-      <c r="AA424" s="2"/>
-      <c r="AB424" s="2"/>
-      <c r="AC424" s="2"/>
-      <c r="AD424" s="2"/>
-      <c r="AE424" s="2"/>
-      <c r="AF424" s="2"/>
-    </row>
-    <row r="425" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
+      <c r="U424" s="5">
+        <v>0</v>
+      </c>
+      <c r="V424" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W424" s="5">
+        <v>0</v>
+      </c>
+      <c r="X424" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y424" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z424" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA424" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB424" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC424" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD424" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AE424" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AF424" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
-      <c r="F425" s="2"/>
-      <c r="G425" s="2"/>
-      <c r="H425" s="2"/>
-      <c r="I425" s="2"/>
-      <c r="J425" s="2"/>
-      <c r="K425" s="2"/>
-      <c r="L425" s="2"/>
-      <c r="M425" s="2"/>
-      <c r="N425" s="2"/>
-      <c r="O425" s="2"/>
-      <c r="P425" s="2"/>
-      <c r="Q425" s="2"/>
-      <c r="R425" s="2"/>
-      <c r="S425" s="2"/>
+      <c r="D425" s="5">
+        <v>2359</v>
+      </c>
+      <c r="E425" s="5">
+        <v>0</v>
+      </c>
+      <c r="F425" s="6">
+        <v>25000</v>
+      </c>
+      <c r="G425" s="5">
+        <v>118.559</v>
+      </c>
+      <c r="H425" s="6">
+        <v>2963990</v>
+      </c>
+      <c r="I425" s="5">
+        <v>116</v>
+      </c>
+      <c r="J425" s="6">
+        <v>2900000</v>
+      </c>
+      <c r="K425" s="6">
+        <v>-63990</v>
+      </c>
+      <c r="L425" s="7">
+        <v>-14353550</v>
+      </c>
+      <c r="M425" s="5">
+        <v>0</v>
+      </c>
+      <c r="N425" s="5">
+        <v>0</v>
+      </c>
+      <c r="O425" s="5">
+        <v>0</v>
+      </c>
+      <c r="P425" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q425" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R425" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S425" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="T425" s="2"/>
-      <c r="U425" s="2"/>
-      <c r="V425" s="2"/>
-      <c r="W425" s="2"/>
-      <c r="X425" s="2"/>
-      <c r="Y425" s="2"/>
-      <c r="Z425" s="2"/>
-      <c r="AA425" s="2"/>
-      <c r="AB425" s="2"/>
-      <c r="AC425" s="2"/>
-      <c r="AD425" s="2"/>
-      <c r="AE425" s="2"/>
-      <c r="AF425" s="2"/>
-    </row>
-    <row r="426" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
+      <c r="U425" s="5">
+        <v>0</v>
+      </c>
+      <c r="V425" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W425" s="5">
+        <v>188.95</v>
+      </c>
+      <c r="X425" s="7">
+        <v>560075550</v>
+      </c>
+      <c r="Y425" s="5">
+        <v>188.18</v>
+      </c>
+      <c r="Z425" s="7">
+        <v>545722000</v>
+      </c>
+      <c r="AA425" s="7">
+        <v>-12041638</v>
+      </c>
+      <c r="AB425" s="7">
+        <v>-2311912</v>
+      </c>
+      <c r="AC425" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD425" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE425" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF425" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
-      <c r="E426" s="2"/>
-      <c r="F426" s="2"/>
-      <c r="G426" s="2"/>
-      <c r="H426" s="2"/>
-      <c r="I426" s="2"/>
-      <c r="J426" s="2"/>
-      <c r="K426" s="2"/>
-      <c r="L426" s="2"/>
-      <c r="M426" s="2"/>
-      <c r="N426" s="2"/>
-      <c r="O426" s="2"/>
-      <c r="P426" s="2"/>
-      <c r="Q426" s="2"/>
-      <c r="R426" s="2"/>
-      <c r="S426" s="2"/>
+      <c r="D426" s="5">
+        <v>6680</v>
+      </c>
+      <c r="E426" s="5">
+        <v>0</v>
+      </c>
+      <c r="F426" s="6">
+        <v>130000</v>
+      </c>
+      <c r="G426" s="5">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H426" s="6">
+        <v>2921022</v>
+      </c>
+      <c r="I426" s="5">
+        <v>21.5</v>
+      </c>
+      <c r="J426" s="6">
+        <v>2795000</v>
+      </c>
+      <c r="K426" s="6">
+        <v>-126022</v>
+      </c>
+      <c r="L426" s="7">
+        <v>-25788745</v>
+      </c>
+      <c r="M426" s="5">
+        <v>0</v>
+      </c>
+      <c r="N426" s="5">
+        <v>0</v>
+      </c>
+      <c r="O426" s="5">
+        <v>0</v>
+      </c>
+      <c r="P426" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q426" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R426" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S426" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="T426" s="2"/>
-      <c r="U426" s="2"/>
-      <c r="V426" s="2"/>
-      <c r="W426" s="2"/>
-      <c r="X426" s="2"/>
-      <c r="Y426" s="2"/>
-      <c r="Z426" s="2"/>
-      <c r="AA426" s="2"/>
-      <c r="AB426" s="2"/>
-      <c r="AC426" s="2"/>
-      <c r="AD426" s="2"/>
-      <c r="AE426" s="2"/>
-      <c r="AF426" s="2"/>
-    </row>
-    <row r="427" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
+      <c r="U426" s="5">
+        <v>0</v>
+      </c>
+      <c r="V426" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W426" s="5">
+        <v>188.88</v>
+      </c>
+      <c r="X426" s="7">
+        <v>551751845</v>
+      </c>
+      <c r="Y426" s="5">
+        <v>188.18</v>
+      </c>
+      <c r="Z426" s="7">
+        <v>525963100</v>
+      </c>
+      <c r="AA426" s="7">
+        <v>-23714819</v>
+      </c>
+      <c r="AB426" s="7">
+        <v>-2073926</v>
+      </c>
+      <c r="AC426" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD426" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE426" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF426" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
-      <c r="E427" s="2"/>
-      <c r="F427" s="2"/>
-      <c r="G427" s="2"/>
-      <c r="H427" s="2"/>
+      <c r="D427" s="5">
+        <v>6181</v>
+      </c>
+      <c r="E427" s="5">
+        <v>0</v>
+      </c>
+      <c r="F427" s="5">
+        <v>0</v>
+      </c>
+      <c r="G427" s="5">
+        <v>0</v>
+      </c>
+      <c r="H427" s="5">
+        <v>0</v>
+      </c>
       <c r="I427" s="2"/>
-      <c r="J427" s="2"/>
-      <c r="K427" s="2"/>
-      <c r="L427" s="2"/>
-      <c r="M427" s="2"/>
-      <c r="N427" s="2"/>
-      <c r="O427" s="2"/>
-      <c r="P427" s="2"/>
-      <c r="Q427" s="2"/>
-      <c r="R427" s="2"/>
-      <c r="S427" s="2"/>
+      <c r="J427" s="5">
+        <v>0</v>
+      </c>
+      <c r="K427" s="5">
+        <v>0</v>
+      </c>
+      <c r="L427" s="5">
+        <v>0</v>
+      </c>
+      <c r="M427" s="5">
+        <v>0</v>
+      </c>
+      <c r="N427" s="6">
+        <v>-6374.88</v>
+      </c>
+      <c r="O427" s="5">
+        <v>0</v>
+      </c>
+      <c r="P427" s="6">
+        <v>6374.88</v>
+      </c>
+      <c r="Q427" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R427" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S427" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="T427" s="2"/>
-      <c r="U427" s="2"/>
-      <c r="V427" s="2"/>
-      <c r="W427" s="2"/>
-      <c r="X427" s="2"/>
-      <c r="Y427" s="2"/>
-      <c r="Z427" s="2"/>
-      <c r="AA427" s="2"/>
-      <c r="AB427" s="2"/>
-      <c r="AC427" s="2"/>
-      <c r="AD427" s="2"/>
-      <c r="AE427" s="2"/>
-      <c r="AF427" s="2"/>
-    </row>
-    <row r="428" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
+      <c r="U427" s="5">
+        <v>0</v>
+      </c>
+      <c r="V427" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W427" s="5">
+        <v>0</v>
+      </c>
+      <c r="X427" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y427" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z427" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA427" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB427" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC427" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD427" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AE427" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AF427" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
-      <c r="E428" s="2"/>
-      <c r="F428" s="2"/>
-      <c r="G428" s="2"/>
-      <c r="H428" s="2"/>
+      <c r="D428" s="5">
+        <v>6082</v>
+      </c>
+      <c r="E428" s="5">
+        <v>0</v>
+      </c>
+      <c r="F428" s="5">
+        <v>0</v>
+      </c>
+      <c r="G428" s="5">
+        <v>0</v>
+      </c>
+      <c r="H428" s="5">
+        <v>0</v>
+      </c>
       <c r="I428" s="2"/>
-      <c r="J428" s="2"/>
-      <c r="K428" s="2"/>
-      <c r="L428" s="2"/>
-      <c r="M428" s="2"/>
-      <c r="N428" s="2"/>
-      <c r="O428" s="2"/>
-      <c r="P428" s="2"/>
-      <c r="Q428" s="2"/>
-      <c r="R428" s="2"/>
-      <c r="S428" s="2"/>
+      <c r="J428" s="5">
+        <v>0</v>
+      </c>
+      <c r="K428" s="5">
+        <v>0</v>
+      </c>
+      <c r="L428" s="5">
+        <v>0</v>
+      </c>
+      <c r="M428" s="5">
+        <v>0</v>
+      </c>
+      <c r="N428" s="6">
+        <v>205980</v>
+      </c>
+      <c r="O428" s="6">
+        <v>205980</v>
+      </c>
+      <c r="P428" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q428" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R428" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S428" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="T428" s="2"/>
-      <c r="U428" s="2"/>
-      <c r="V428" s="2"/>
-      <c r="W428" s="2"/>
-      <c r="X428" s="2"/>
-      <c r="Y428" s="2"/>
-      <c r="Z428" s="2"/>
-      <c r="AA428" s="2"/>
-      <c r="AB428" s="2"/>
-      <c r="AC428" s="2"/>
-      <c r="AD428" s="2"/>
-      <c r="AE428" s="2"/>
-      <c r="AF428" s="2"/>
-    </row>
-    <row r="429" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
+      <c r="U428" s="5">
+        <v>0</v>
+      </c>
+      <c r="V428" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W428" s="5">
+        <v>0</v>
+      </c>
+      <c r="X428" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y428" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z428" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA428" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB428" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC428" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD428" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AE428" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AF428" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
-      <c r="E429" s="2"/>
-      <c r="F429" s="2"/>
-      <c r="G429" s="2"/>
-      <c r="H429" s="2"/>
-      <c r="I429" s="2"/>
-      <c r="J429" s="2"/>
-      <c r="K429" s="2"/>
-      <c r="L429" s="2"/>
-      <c r="M429" s="2"/>
-      <c r="N429" s="2"/>
-      <c r="O429" s="2"/>
-      <c r="P429" s="2"/>
-      <c r="Q429" s="2"/>
-      <c r="R429" s="2"/>
-      <c r="S429" s="2"/>
+      <c r="D429" s="5">
+        <v>3033</v>
+      </c>
+      <c r="E429" s="5">
+        <v>0</v>
+      </c>
+      <c r="F429" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G429" s="5">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="H429" s="6">
+        <v>5713300</v>
+      </c>
+      <c r="I429" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="J429" s="6">
+        <v>5300000</v>
+      </c>
+      <c r="K429" s="6">
+        <v>-413300</v>
+      </c>
+      <c r="L429" s="7">
+        <v>-48808363</v>
+      </c>
+      <c r="M429" s="5">
+        <v>0</v>
+      </c>
+      <c r="N429" s="5">
+        <v>0</v>
+      </c>
+      <c r="O429" s="5">
+        <v>0</v>
+      </c>
+      <c r="P429" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q429" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R429" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S429" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="T429" s="2"/>
-      <c r="U429" s="2"/>
-      <c r="V429" s="2"/>
-      <c r="W429" s="2"/>
-      <c r="X429" s="2"/>
-      <c r="Y429" s="2"/>
-      <c r="Z429" s="2"/>
-      <c r="AA429" s="2"/>
-      <c r="AB429" s="2"/>
-      <c r="AC429" s="2"/>
-      <c r="AD429" s="2"/>
-      <c r="AE429" s="2"/>
-      <c r="AF429" s="2"/>
-    </row>
-    <row r="430" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
+      <c r="U429" s="5">
+        <v>0</v>
+      </c>
+      <c r="V429" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W429" s="5">
+        <v>183.11</v>
+      </c>
+      <c r="X429" s="7">
+        <v>1046162363</v>
+      </c>
+      <c r="Y429" s="5">
+        <v>188.18</v>
+      </c>
+      <c r="Z429" s="7">
+        <v>997354000</v>
+      </c>
+      <c r="AA429" s="7">
+        <v>-77774794</v>
+      </c>
+      <c r="AB429" s="7">
+        <v>28966431</v>
+      </c>
+      <c r="AC429" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD429" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE429" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF429" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
-      <c r="E430" s="2"/>
-      <c r="F430" s="2"/>
-      <c r="G430" s="2"/>
-      <c r="H430" s="2"/>
-      <c r="I430" s="2"/>
-      <c r="J430" s="2"/>
-      <c r="K430" s="2"/>
-      <c r="L430" s="2"/>
-      <c r="M430" s="2"/>
-      <c r="N430" s="2"/>
-      <c r="O430" s="2"/>
-      <c r="P430" s="2"/>
-      <c r="Q430" s="2"/>
-      <c r="R430" s="2"/>
-      <c r="S430" s="2"/>
+      <c r="D430" s="5">
+        <v>9988</v>
+      </c>
+      <c r="E430" s="5">
+        <v>0</v>
+      </c>
+      <c r="F430" s="6">
+        <v>70500</v>
+      </c>
+      <c r="G430" s="5">
+        <v>147.79</v>
+      </c>
+      <c r="H430" s="6">
+        <v>10419200</v>
+      </c>
+      <c r="I430" s="5">
+        <v>157.9</v>
+      </c>
+      <c r="J430" s="6">
+        <v>11131950</v>
+      </c>
+      <c r="K430" s="6">
+        <v>712750</v>
+      </c>
+      <c r="L430" s="7">
+        <v>160011751</v>
+      </c>
+      <c r="M430" s="5">
+        <v>0</v>
+      </c>
+      <c r="N430" s="5">
+        <v>0</v>
+      </c>
+      <c r="O430" s="5">
+        <v>0</v>
+      </c>
+      <c r="P430" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q430" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R430" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S430" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="T430" s="2"/>
-      <c r="U430" s="2"/>
-      <c r="V430" s="2"/>
-      <c r="W430" s="2"/>
-      <c r="X430" s="2"/>
-      <c r="Y430" s="2"/>
-      <c r="Z430" s="2"/>
-      <c r="AA430" s="2"/>
-      <c r="AB430" s="2"/>
-      <c r="AC430" s="2"/>
-      <c r="AD430" s="2"/>
-      <c r="AE430" s="2"/>
-      <c r="AF430" s="2"/>
+      <c r="U430" s="5">
+        <v>0</v>
+      </c>
+      <c r="V430" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W430" s="5">
+        <v>185.69</v>
+      </c>
+      <c r="X430" s="7">
+        <v>1934798600</v>
+      </c>
+      <c r="Y430" s="5">
+        <v>188.18</v>
+      </c>
+      <c r="Z430" s="7">
+        <v>2094810351</v>
+      </c>
+      <c r="AA430" s="7">
+        <v>134125295</v>
+      </c>
+      <c r="AB430" s="7">
+        <v>25886456</v>
+      </c>
+      <c r="AC430" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD430" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE430" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF430" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="431" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
+      <c r="A431" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C431" s="2"/>
-      <c r="D431" s="2"/>
-      <c r="E431" s="2"/>
-      <c r="F431" s="2"/>
-      <c r="G431" s="2"/>
-      <c r="H431" s="2"/>
-      <c r="I431" s="2"/>
-      <c r="J431" s="2"/>
-      <c r="K431" s="2"/>
-      <c r="L431" s="2"/>
-      <c r="M431" s="2"/>
-      <c r="N431" s="2"/>
-      <c r="O431" s="2"/>
-      <c r="P431" s="2"/>
-      <c r="Q431" s="2"/>
-      <c r="R431" s="2"/>
-      <c r="S431" s="2"/>
+      <c r="D431" s="5">
+        <v>6861</v>
+      </c>
+      <c r="E431" s="5">
+        <v>0</v>
+      </c>
+      <c r="F431" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G431" s="6">
+        <v>55916.79</v>
+      </c>
+      <c r="H431" s="6">
+        <v>106241900</v>
+      </c>
+      <c r="I431" s="6">
+        <v>55320</v>
+      </c>
+      <c r="J431" s="6">
+        <v>105108000</v>
+      </c>
+      <c r="K431" s="6">
+        <v>-1133900</v>
+      </c>
+      <c r="L431" s="7">
+        <v>-1705934</v>
+      </c>
+      <c r="M431" s="5">
+        <v>0</v>
+      </c>
+      <c r="N431" s="5">
+        <v>0</v>
+      </c>
+      <c r="O431" s="5">
+        <v>0</v>
+      </c>
+      <c r="P431" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q431" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R431" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S431" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="T431" s="2"/>
-      <c r="U431" s="2"/>
-      <c r="V431" s="2"/>
-      <c r="W431" s="2"/>
-      <c r="X431" s="2"/>
-      <c r="Y431" s="2"/>
-      <c r="Z431" s="2"/>
-      <c r="AA431" s="2"/>
-      <c r="AB431" s="2"/>
-      <c r="AC431" s="2"/>
-      <c r="AD431" s="2"/>
-      <c r="AE431" s="2"/>
-      <c r="AF431" s="2"/>
+      <c r="U431" s="5">
+        <v>0</v>
+      </c>
+      <c r="V431" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W431" s="5">
+        <v>924.45</v>
+      </c>
+      <c r="X431" s="7">
+        <v>982163868</v>
+      </c>
+      <c r="Y431" s="5">
+        <v>932.81</v>
+      </c>
+      <c r="Z431" s="7">
+        <v>980457934</v>
+      </c>
+      <c r="AA431" s="7">
+        <v>-10577132</v>
+      </c>
+      <c r="AB431" s="7">
+        <v>8871199</v>
+      </c>
+      <c r="AC431" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD431" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE431" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF431" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="432" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
+      <c r="A432" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
-      <c r="E432" s="2"/>
-      <c r="F432" s="2"/>
-      <c r="G432" s="2"/>
-      <c r="H432" s="2"/>
+      <c r="D432" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E432" s="5">
+        <v>0</v>
+      </c>
+      <c r="F432" s="5">
+        <v>0</v>
+      </c>
+      <c r="G432" s="5">
+        <v>0</v>
+      </c>
+      <c r="H432" s="5">
+        <v>0</v>
+      </c>
       <c r="I432" s="2"/>
-      <c r="J432" s="2"/>
-      <c r="K432" s="2"/>
-      <c r="L432" s="2"/>
-      <c r="M432" s="2"/>
-      <c r="N432" s="2"/>
-      <c r="O432" s="2"/>
-      <c r="P432" s="2"/>
-      <c r="Q432" s="2"/>
-      <c r="R432" s="2"/>
-      <c r="S432" s="2"/>
+      <c r="J432" s="5">
+        <v>0</v>
+      </c>
+      <c r="K432" s="5">
+        <v>0</v>
+      </c>
+      <c r="L432" s="5">
+        <v>0</v>
+      </c>
+      <c r="M432" s="5">
+        <v>0</v>
+      </c>
+      <c r="N432" s="6">
+        <v>4911499</v>
+      </c>
+      <c r="O432" s="6">
+        <v>4911499</v>
+      </c>
+      <c r="P432" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q432" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R432" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S432" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="T432" s="2"/>
-      <c r="U432" s="2"/>
-      <c r="V432" s="2"/>
-      <c r="W432" s="2"/>
-      <c r="X432" s="2"/>
-      <c r="Y432" s="2"/>
-      <c r="Z432" s="2"/>
-      <c r="AA432" s="2"/>
-      <c r="AB432" s="2"/>
-      <c r="AC432" s="2"/>
-      <c r="AD432" s="2"/>
-      <c r="AE432" s="2"/>
-      <c r="AF432" s="2"/>
+      <c r="U432" s="5">
+        <v>0</v>
+      </c>
+      <c r="V432" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W432" s="5">
+        <v>0</v>
+      </c>
+      <c r="X432" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y432" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z432" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA432" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB432" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC432" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD432" s="7">
+        <v>42855505</v>
+      </c>
+      <c r="AE432" s="7">
+        <v>42855505</v>
+      </c>
+      <c r="AF432" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="433" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A433" s="2"/>
-      <c r="B433" s="2"/>
+      <c r="A433" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C433" s="2"/>
-      <c r="D433" s="2"/>
-      <c r="E433" s="2"/>
-      <c r="F433" s="2"/>
-      <c r="G433" s="2"/>
-      <c r="H433" s="2"/>
-      <c r="I433" s="2"/>
-      <c r="J433" s="2"/>
-      <c r="K433" s="2"/>
-      <c r="L433" s="2"/>
-      <c r="M433" s="2"/>
-      <c r="N433" s="2"/>
-      <c r="O433" s="2"/>
-      <c r="P433" s="2"/>
-      <c r="Q433" s="2"/>
-      <c r="R433" s="2"/>
-      <c r="S433" s="2"/>
+      <c r="D433" s="5">
+        <v>9984</v>
+      </c>
+      <c r="E433" s="5">
+        <v>0</v>
+      </c>
+      <c r="F433" s="6">
+        <v>23000</v>
+      </c>
+      <c r="G433" s="6">
+        <v>4066.73</v>
+      </c>
+      <c r="H433" s="6">
+        <v>93534900</v>
+      </c>
+      <c r="I433" s="6">
+        <v>4251</v>
+      </c>
+      <c r="J433" s="6">
+        <v>97773000</v>
+      </c>
+      <c r="K433" s="6">
+        <v>4238100</v>
+      </c>
+      <c r="L433" s="7">
+        <v>45416766</v>
+      </c>
+      <c r="M433" s="5">
+        <v>0</v>
+      </c>
+      <c r="N433" s="5">
+        <v>0</v>
+      </c>
+      <c r="O433" s="5">
+        <v>0</v>
+      </c>
+      <c r="P433" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q433" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R433" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S433" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T433" s="2"/>
-      <c r="U433" s="2"/>
-      <c r="V433" s="2"/>
-      <c r="W433" s="2"/>
-      <c r="X433" s="2"/>
-      <c r="Y433" s="2"/>
-      <c r="Z433" s="2"/>
-      <c r="AA433" s="2"/>
-      <c r="AB433" s="2"/>
-      <c r="AC433" s="2"/>
-      <c r="AD433" s="2"/>
-      <c r="AE433" s="2"/>
-      <c r="AF433" s="2"/>
+      <c r="U433" s="5">
+        <v>0</v>
+      </c>
+      <c r="V433" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W433" s="5">
+        <v>926.51</v>
+      </c>
+      <c r="X433" s="7">
+        <v>866619555</v>
+      </c>
+      <c r="Y433" s="5">
+        <v>932.81</v>
+      </c>
+      <c r="Z433" s="7">
+        <v>912036321</v>
+      </c>
+      <c r="AA433" s="7">
+        <v>39533420</v>
+      </c>
+      <c r="AB433" s="7">
+        <v>5883345</v>
+      </c>
+      <c r="AC433" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD433" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE433" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF433" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="434" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
+      <c r="A434" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
-      <c r="E434" s="2"/>
-      <c r="F434" s="2"/>
-      <c r="G434" s="2"/>
-      <c r="H434" s="2"/>
-      <c r="I434" s="2"/>
-      <c r="J434" s="2"/>
-      <c r="K434" s="2"/>
-      <c r="L434" s="2"/>
-      <c r="M434" s="2"/>
-      <c r="N434" s="2"/>
-      <c r="O434" s="2"/>
-      <c r="P434" s="2"/>
-      <c r="Q434" s="2"/>
-      <c r="R434" s="2"/>
-      <c r="S434" s="2"/>
+      <c r="D434" s="5">
+        <v>6954</v>
+      </c>
+      <c r="E434" s="5">
+        <v>0</v>
+      </c>
+      <c r="F434" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G434" s="6">
+        <v>6568.27</v>
+      </c>
+      <c r="H434" s="6">
+        <v>65682650</v>
+      </c>
+      <c r="I434" s="6">
+        <v>6728</v>
+      </c>
+      <c r="J434" s="6">
+        <v>67280000</v>
+      </c>
+      <c r="K434" s="6">
+        <v>1597350</v>
+      </c>
+      <c r="L434" s="7">
+        <v>18703266</v>
+      </c>
+      <c r="M434" s="5">
+        <v>0</v>
+      </c>
+      <c r="N434" s="5">
+        <v>0</v>
+      </c>
+      <c r="O434" s="5">
+        <v>0</v>
+      </c>
+      <c r="P434" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q434" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R434" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S434" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="T434" s="2"/>
-      <c r="U434" s="2"/>
-      <c r="V434" s="2"/>
-      <c r="W434" s="2"/>
-      <c r="X434" s="2"/>
-      <c r="Y434" s="2"/>
-      <c r="Z434" s="2"/>
-      <c r="AA434" s="2"/>
-      <c r="AB434" s="2"/>
-      <c r="AC434" s="2"/>
-      <c r="AD434" s="2"/>
-      <c r="AE434" s="2"/>
-      <c r="AF434" s="2"/>
-    </row>
-    <row r="435" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
+      <c r="U434" s="5">
+        <v>0</v>
+      </c>
+      <c r="V434" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W434" s="5">
+        <v>927.01</v>
+      </c>
+      <c r="X434" s="7">
+        <v>608891302</v>
+      </c>
+      <c r="Y434" s="5">
+        <v>932.81</v>
+      </c>
+      <c r="Z434" s="7">
+        <v>627594568</v>
+      </c>
+      <c r="AA434" s="7">
+        <v>14900240</v>
+      </c>
+      <c r="AB434" s="7">
+        <v>3803025</v>
+      </c>
+      <c r="AC434" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD434" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE434" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF434" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
-      <c r="E435" s="2"/>
-      <c r="F435" s="2"/>
-      <c r="G435" s="2"/>
-      <c r="H435" s="2"/>
-      <c r="I435" s="2"/>
-      <c r="J435" s="2"/>
-      <c r="K435" s="2"/>
-      <c r="L435" s="2"/>
-      <c r="M435" s="2"/>
-      <c r="N435" s="2"/>
-      <c r="O435" s="2"/>
-      <c r="P435" s="2"/>
-      <c r="Q435" s="2"/>
-      <c r="R435" s="2"/>
-      <c r="S435" s="2"/>
+      <c r="D435" s="5">
+        <v>6869</v>
+      </c>
+      <c r="E435" s="5">
+        <v>0</v>
+      </c>
+      <c r="F435" s="5">
+        <v>0</v>
+      </c>
+      <c r="G435" s="5">
+        <v>0</v>
+      </c>
+      <c r="H435" s="5">
+        <v>0</v>
+      </c>
+      <c r="I435" s="5">
+        <v>112.6</v>
+      </c>
+      <c r="J435" s="5">
+        <v>0</v>
+      </c>
+      <c r="K435" s="5">
+        <v>0</v>
+      </c>
+      <c r="L435" s="5">
+        <v>0</v>
+      </c>
+      <c r="M435" s="5">
+        <v>0</v>
+      </c>
+      <c r="N435" s="6">
+        <v>349976</v>
+      </c>
+      <c r="O435" s="6">
+        <v>349976</v>
+      </c>
+      <c r="P435" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q435" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R435" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S435" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="T435" s="2"/>
-      <c r="U435" s="2"/>
-      <c r="V435" s="2"/>
-      <c r="W435" s="2"/>
-      <c r="X435" s="2"/>
-      <c r="Y435" s="2"/>
-      <c r="Z435" s="2"/>
-      <c r="AA435" s="2"/>
-      <c r="AB435" s="2"/>
-      <c r="AC435" s="2"/>
-      <c r="AD435" s="2"/>
-      <c r="AE435" s="2"/>
-      <c r="AF435" s="2"/>
-    </row>
-    <row r="436" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
+      <c r="U435" s="5">
+        <v>0</v>
+      </c>
+      <c r="V435" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W435" s="5">
+        <v>0</v>
+      </c>
+      <c r="X435" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y435" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z435" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA435" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB435" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC435" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD435" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AE435" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AF435" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
-      <c r="E436" s="2"/>
-      <c r="F436" s="2"/>
-      <c r="G436" s="2"/>
-      <c r="H436" s="2"/>
-      <c r="I436" s="2"/>
-      <c r="J436" s="2"/>
-      <c r="K436" s="2"/>
-      <c r="L436" s="2"/>
-      <c r="M436" s="2"/>
-      <c r="N436" s="2"/>
-      <c r="O436" s="2"/>
-      <c r="P436" s="2"/>
-      <c r="Q436" s="2"/>
-      <c r="R436" s="2"/>
-      <c r="S436" s="2"/>
+      <c r="D436" s="5">
+        <v>2359</v>
+      </c>
+      <c r="E436" s="5">
+        <v>0</v>
+      </c>
+      <c r="F436" s="6">
+        <v>25000</v>
+      </c>
+      <c r="G436" s="5">
+        <v>118.559</v>
+      </c>
+      <c r="H436" s="6">
+        <v>2963990</v>
+      </c>
+      <c r="I436" s="5">
+        <v>120.8</v>
+      </c>
+      <c r="J436" s="6">
+        <v>3020000</v>
+      </c>
+      <c r="K436" s="6">
+        <v>56010</v>
+      </c>
+      <c r="L436" s="7">
+        <v>5751650</v>
+      </c>
+      <c r="M436" s="5">
+        <v>0</v>
+      </c>
+      <c r="N436" s="5">
+        <v>0</v>
+      </c>
+      <c r="O436" s="5">
+        <v>0</v>
+      </c>
+      <c r="P436" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q436" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R436" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S436" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T436" s="2"/>
-      <c r="U436" s="2"/>
-      <c r="V436" s="2"/>
-      <c r="W436" s="2"/>
-      <c r="X436" s="2"/>
-      <c r="Y436" s="2"/>
-      <c r="Z436" s="2"/>
-      <c r="AA436" s="2"/>
-      <c r="AB436" s="2"/>
-      <c r="AC436" s="2"/>
-      <c r="AD436" s="2"/>
-      <c r="AE436" s="2"/>
-      <c r="AF436" s="2"/>
-    </row>
-    <row r="437" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A437" s="2"/>
-      <c r="B437" s="2"/>
+      <c r="U436" s="5">
+        <v>0</v>
+      </c>
+      <c r="V436" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W436" s="5">
+        <v>188.95</v>
+      </c>
+      <c r="X436" s="7">
+        <v>560075550</v>
+      </c>
+      <c r="Y436" s="5">
+        <v>187.36</v>
+      </c>
+      <c r="Z436" s="7">
+        <v>565827200</v>
+      </c>
+      <c r="AA436" s="7">
+        <v>10494033</v>
+      </c>
+      <c r="AB436" s="7">
+        <v>-4742384</v>
+      </c>
+      <c r="AC436" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD436" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE436" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF436" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C437" s="2"/>
-      <c r="D437" s="2"/>
-      <c r="E437" s="2"/>
-      <c r="F437" s="2"/>
-      <c r="G437" s="2"/>
-      <c r="H437" s="2"/>
-      <c r="I437" s="2"/>
-      <c r="J437" s="2"/>
-      <c r="K437" s="2"/>
-      <c r="L437" s="2"/>
-      <c r="M437" s="2"/>
-      <c r="N437" s="2"/>
-      <c r="O437" s="2"/>
-      <c r="P437" s="2"/>
-      <c r="Q437" s="2"/>
-      <c r="R437" s="2"/>
-      <c r="S437" s="2"/>
+      <c r="D437" s="5">
+        <v>6680</v>
+      </c>
+      <c r="E437" s="5">
+        <v>0</v>
+      </c>
+      <c r="F437" s="6">
+        <v>130000</v>
+      </c>
+      <c r="G437" s="5">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H437" s="6">
+        <v>2921022</v>
+      </c>
+      <c r="I437" s="5">
+        <v>21.7</v>
+      </c>
+      <c r="J437" s="6">
+        <v>2821000</v>
+      </c>
+      <c r="K437" s="6">
+        <v>-100022</v>
+      </c>
+      <c r="L437" s="7">
+        <v>-23209285</v>
+      </c>
+      <c r="M437" s="5">
+        <v>0</v>
+      </c>
+      <c r="N437" s="5">
+        <v>0</v>
+      </c>
+      <c r="O437" s="5">
+        <v>0</v>
+      </c>
+      <c r="P437" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q437" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R437" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S437" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="T437" s="2"/>
-      <c r="U437" s="2"/>
-      <c r="V437" s="2"/>
-      <c r="W437" s="2"/>
-      <c r="X437" s="2"/>
-      <c r="Y437" s="2"/>
-      <c r="Z437" s="2"/>
-      <c r="AA437" s="2"/>
-      <c r="AB437" s="2"/>
-      <c r="AC437" s="2"/>
-      <c r="AD437" s="2"/>
-      <c r="AE437" s="2"/>
-      <c r="AF437" s="2"/>
-    </row>
-    <row r="438" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A438" s="2"/>
-      <c r="B438" s="2"/>
+      <c r="U437" s="5">
+        <v>0</v>
+      </c>
+      <c r="V437" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W437" s="5">
+        <v>188.88</v>
+      </c>
+      <c r="X437" s="7">
+        <v>551751845</v>
+      </c>
+      <c r="Y437" s="5">
+        <v>187.36</v>
+      </c>
+      <c r="Z437" s="7">
+        <v>528542560</v>
+      </c>
+      <c r="AA437" s="7">
+        <v>-18740121</v>
+      </c>
+      <c r="AB437" s="7">
+        <v>-4469164</v>
+      </c>
+      <c r="AC437" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD437" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE437" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF437" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C438" s="2"/>
-      <c r="D438" s="2"/>
-      <c r="E438" s="2"/>
-      <c r="F438" s="2"/>
-      <c r="G438" s="2"/>
-      <c r="H438" s="2"/>
-      <c r="I438" s="2"/>
-      <c r="J438" s="2"/>
-      <c r="K438" s="2"/>
-      <c r="L438" s="2"/>
-      <c r="M438" s="2"/>
-      <c r="N438" s="2"/>
-      <c r="O438" s="2"/>
-      <c r="P438" s="2"/>
-      <c r="Q438" s="2"/>
-      <c r="R438" s="2"/>
-      <c r="S438" s="2"/>
+      <c r="D438" s="5">
+        <v>6181</v>
+      </c>
+      <c r="E438" s="5">
+        <v>0</v>
+      </c>
+      <c r="F438" s="5">
+        <v>0</v>
+      </c>
+      <c r="G438" s="5">
+        <v>0</v>
+      </c>
+      <c r="H438" s="5">
+        <v>0</v>
+      </c>
+      <c r="I438" s="5">
+        <v>769</v>
+      </c>
+      <c r="J438" s="5">
+        <v>0</v>
+      </c>
+      <c r="K438" s="5">
+        <v>0</v>
+      </c>
+      <c r="L438" s="5">
+        <v>0</v>
+      </c>
+      <c r="M438" s="5">
+        <v>0</v>
+      </c>
+      <c r="N438" s="6">
+        <v>-6374.88</v>
+      </c>
+      <c r="O438" s="5">
+        <v>0</v>
+      </c>
+      <c r="P438" s="6">
+        <v>6374.88</v>
+      </c>
+      <c r="Q438" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R438" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S438" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="T438" s="2"/>
-      <c r="U438" s="2"/>
-      <c r="V438" s="2"/>
-      <c r="W438" s="2"/>
-      <c r="X438" s="2"/>
-      <c r="Y438" s="2"/>
-      <c r="Z438" s="2"/>
-      <c r="AA438" s="2"/>
-      <c r="AB438" s="2"/>
-      <c r="AC438" s="2"/>
-      <c r="AD438" s="2"/>
-      <c r="AE438" s="2"/>
-      <c r="AF438" s="2"/>
-    </row>
-    <row r="439" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A439" s="2"/>
-      <c r="B439" s="2"/>
+      <c r="U438" s="5">
+        <v>0</v>
+      </c>
+      <c r="V438" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W438" s="5">
+        <v>0</v>
+      </c>
+      <c r="X438" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y438" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z438" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA438" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB438" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC438" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD438" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AE438" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AF438" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C439" s="2"/>
-      <c r="D439" s="2"/>
-      <c r="E439" s="2"/>
-      <c r="F439" s="2"/>
-      <c r="G439" s="2"/>
-      <c r="H439" s="2"/>
-      <c r="I439" s="2"/>
-      <c r="J439" s="2"/>
-      <c r="K439" s="2"/>
-      <c r="L439" s="2"/>
-      <c r="M439" s="2"/>
-      <c r="N439" s="2"/>
-      <c r="O439" s="2"/>
-      <c r="P439" s="2"/>
-      <c r="Q439" s="2"/>
-      <c r="R439" s="2"/>
-      <c r="S439" s="2"/>
+      <c r="D439" s="5">
+        <v>6082</v>
+      </c>
+      <c r="E439" s="5">
+        <v>0</v>
+      </c>
+      <c r="F439" s="5">
+        <v>0</v>
+      </c>
+      <c r="G439" s="5">
+        <v>0</v>
+      </c>
+      <c r="H439" s="5">
+        <v>0</v>
+      </c>
+      <c r="I439" s="5">
+        <v>35</v>
+      </c>
+      <c r="J439" s="5">
+        <v>0</v>
+      </c>
+      <c r="K439" s="5">
+        <v>0</v>
+      </c>
+      <c r="L439" s="5">
+        <v>0</v>
+      </c>
+      <c r="M439" s="5">
+        <v>0</v>
+      </c>
+      <c r="N439" s="6">
+        <v>205980</v>
+      </c>
+      <c r="O439" s="6">
+        <v>205980</v>
+      </c>
+      <c r="P439" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q439" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R439" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S439" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="T439" s="2"/>
-      <c r="U439" s="2"/>
-      <c r="V439" s="2"/>
-      <c r="W439" s="2"/>
-      <c r="X439" s="2"/>
-      <c r="Y439" s="2"/>
-      <c r="Z439" s="2"/>
-      <c r="AA439" s="2"/>
-      <c r="AB439" s="2"/>
-      <c r="AC439" s="2"/>
-      <c r="AD439" s="2"/>
-      <c r="AE439" s="2"/>
-      <c r="AF439" s="2"/>
-    </row>
-    <row r="440" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
+      <c r="U439" s="5">
+        <v>0</v>
+      </c>
+      <c r="V439" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W439" s="5">
+        <v>0</v>
+      </c>
+      <c r="X439" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y439" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z439" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA439" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB439" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC439" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD439" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AE439" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AF439" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A440" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="C440" s="2"/>
-      <c r="D440" s="2"/>
-      <c r="E440" s="2"/>
-      <c r="F440" s="2"/>
-      <c r="G440" s="2"/>
-      <c r="H440" s="2"/>
-      <c r="I440" s="2"/>
-      <c r="J440" s="2"/>
-      <c r="K440" s="2"/>
-      <c r="L440" s="2"/>
-      <c r="M440" s="2"/>
-      <c r="N440" s="2"/>
-      <c r="O440" s="2"/>
-      <c r="P440" s="2"/>
-      <c r="Q440" s="2"/>
-      <c r="R440" s="2"/>
-      <c r="S440" s="2"/>
+      <c r="D440" s="5">
+        <v>3033</v>
+      </c>
+      <c r="E440" s="5">
+        <v>0</v>
+      </c>
+      <c r="F440" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G440" s="5">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="H440" s="6">
+        <v>5713300</v>
+      </c>
+      <c r="I440" s="5">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="J440" s="6">
+        <v>5325000</v>
+      </c>
+      <c r="K440" s="6">
+        <v>-388300</v>
+      </c>
+      <c r="L440" s="7">
+        <v>-48470363</v>
+      </c>
+      <c r="M440" s="5">
+        <v>0</v>
+      </c>
+      <c r="N440" s="5">
+        <v>0</v>
+      </c>
+      <c r="O440" s="5">
+        <v>0</v>
+      </c>
+      <c r="P440" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q440" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R440" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S440" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T440" s="2"/>
-      <c r="U440" s="2"/>
-      <c r="V440" s="2"/>
-      <c r="W440" s="2"/>
-      <c r="X440" s="2"/>
-      <c r="Y440" s="2"/>
-      <c r="Z440" s="2"/>
-      <c r="AA440" s="2"/>
-      <c r="AB440" s="2"/>
-      <c r="AC440" s="2"/>
-      <c r="AD440" s="2"/>
-      <c r="AE440" s="2"/>
-      <c r="AF440" s="2"/>
-    </row>
-    <row r="441" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A441" s="2"/>
-      <c r="B441" s="2"/>
+      <c r="U440" s="5">
+        <v>0</v>
+      </c>
+      <c r="V440" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W440" s="5">
+        <v>183.11</v>
+      </c>
+      <c r="X440" s="7">
+        <v>1046162363</v>
+      </c>
+      <c r="Y440" s="5">
+        <v>187.36</v>
+      </c>
+      <c r="Z440" s="7">
+        <v>997692000</v>
+      </c>
+      <c r="AA440" s="7">
+        <v>-72751888</v>
+      </c>
+      <c r="AB440" s="7">
+        <v>24281525</v>
+      </c>
+      <c r="AC440" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD440" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE440" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF440" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C441" s="2"/>
-      <c r="D441" s="2"/>
-      <c r="E441" s="2"/>
-      <c r="F441" s="2"/>
-      <c r="G441" s="2"/>
-      <c r="H441" s="2"/>
-      <c r="I441" s="2"/>
-      <c r="J441" s="2"/>
-      <c r="K441" s="2"/>
-      <c r="L441" s="2"/>
-      <c r="M441" s="2"/>
-      <c r="N441" s="2"/>
-      <c r="O441" s="2"/>
-      <c r="P441" s="2"/>
-      <c r="Q441" s="2"/>
-      <c r="R441" s="2"/>
-      <c r="S441" s="2"/>
+      <c r="D441" s="5">
+        <v>9988</v>
+      </c>
+      <c r="E441" s="5">
+        <v>0</v>
+      </c>
+      <c r="F441" s="6">
+        <v>70500</v>
+      </c>
+      <c r="G441" s="5">
+        <v>147.79</v>
+      </c>
+      <c r="H441" s="6">
+        <v>10419200</v>
+      </c>
+      <c r="I441" s="5">
+        <v>160</v>
+      </c>
+      <c r="J441" s="6">
+        <v>11280000</v>
+      </c>
+      <c r="K441" s="6">
+        <v>860800</v>
+      </c>
+      <c r="L441" s="7">
+        <v>178622200</v>
+      </c>
+      <c r="M441" s="5">
+        <v>0</v>
+      </c>
+      <c r="N441" s="5">
+        <v>0</v>
+      </c>
+      <c r="O441" s="5">
+        <v>0</v>
+      </c>
+      <c r="P441" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q441" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R441" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S441" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="T441" s="2"/>
-      <c r="U441" s="2"/>
-      <c r="V441" s="2"/>
-      <c r="W441" s="2"/>
-      <c r="X441" s="2"/>
-      <c r="Y441" s="2"/>
-      <c r="Z441" s="2"/>
-      <c r="AA441" s="2"/>
-      <c r="AB441" s="2"/>
-      <c r="AC441" s="2"/>
-      <c r="AD441" s="2"/>
-      <c r="AE441" s="2"/>
-      <c r="AF441" s="2"/>
+      <c r="U441" s="5">
+        <v>0</v>
+      </c>
+      <c r="V441" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W441" s="5">
+        <v>185.69</v>
+      </c>
+      <c r="X441" s="7">
+        <v>1934798600</v>
+      </c>
+      <c r="Y441" s="5">
+        <v>187.36</v>
+      </c>
+      <c r="Z441" s="7">
+        <v>2113420800</v>
+      </c>
+      <c r="AA441" s="7">
+        <v>161279488</v>
+      </c>
+      <c r="AB441" s="7">
+        <v>17342712</v>
+      </c>
+      <c r="AC441" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD441" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE441" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF441" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="442" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A442" s="2"/>
-      <c r="B442" s="2"/>
+      <c r="A442" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C442" s="2"/>
-      <c r="D442" s="2"/>
-      <c r="E442" s="2"/>
-      <c r="F442" s="2"/>
-      <c r="G442" s="2"/>
-      <c r="H442" s="2"/>
-      <c r="I442" s="2"/>
-      <c r="J442" s="2"/>
-      <c r="K442" s="2"/>
-      <c r="L442" s="2"/>
-      <c r="M442" s="2"/>
-      <c r="N442" s="2"/>
-      <c r="O442" s="2"/>
-      <c r="P442" s="2"/>
-      <c r="Q442" s="2"/>
-      <c r="R442" s="2"/>
-      <c r="S442" s="2"/>
+      <c r="D442" s="5">
+        <v>6861</v>
+      </c>
+      <c r="E442" s="5">
+        <v>0</v>
+      </c>
+      <c r="F442" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G442" s="6">
+        <v>55916.79</v>
+      </c>
+      <c r="H442" s="6">
+        <v>106241900</v>
+      </c>
+      <c r="I442" s="6">
+        <v>56490</v>
+      </c>
+      <c r="J442" s="6">
+        <v>107331000</v>
+      </c>
+      <c r="K442" s="6">
+        <v>1089100</v>
+      </c>
+      <c r="L442" s="7">
+        <v>25556157</v>
+      </c>
+      <c r="M442" s="5">
+        <v>0</v>
+      </c>
+      <c r="N442" s="5">
+        <v>0</v>
+      </c>
+      <c r="O442" s="5">
+        <v>0</v>
+      </c>
+      <c r="P442" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q442" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R442" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S442" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="T442" s="2"/>
-      <c r="U442" s="2"/>
-      <c r="V442" s="2"/>
-      <c r="W442" s="2"/>
-      <c r="X442" s="2"/>
-      <c r="Y442" s="2"/>
-      <c r="Z442" s="2"/>
-      <c r="AA442" s="2"/>
-      <c r="AB442" s="2"/>
-      <c r="AC442" s="2"/>
-      <c r="AD442" s="2"/>
-      <c r="AE442" s="2"/>
-      <c r="AF442" s="2"/>
+      <c r="U442" s="5">
+        <v>0</v>
+      </c>
+      <c r="V442" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W442" s="5">
+        <v>924.45</v>
+      </c>
+      <c r="X442" s="7">
+        <v>982163868</v>
+      </c>
+      <c r="Y442" s="5">
+        <v>938.89</v>
+      </c>
+      <c r="Z442" s="7">
+        <v>1007720025</v>
+      </c>
+      <c r="AA442" s="7">
+        <v>10225450</v>
+      </c>
+      <c r="AB442" s="7">
+        <v>15330706</v>
+      </c>
+      <c r="AC442" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD442" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE442" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF442" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="443" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A443" s="2"/>
-      <c r="B443" s="2"/>
+      <c r="A443" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C443" s="2"/>
-      <c r="D443" s="2"/>
-      <c r="E443" s="2"/>
-      <c r="F443" s="2"/>
-      <c r="G443" s="2"/>
-      <c r="H443" s="2"/>
-      <c r="I443" s="2"/>
-      <c r="J443" s="2"/>
-      <c r="K443" s="2"/>
-      <c r="L443" s="2"/>
-      <c r="M443" s="2"/>
-      <c r="N443" s="2"/>
-      <c r="O443" s="2"/>
-      <c r="P443" s="2"/>
-      <c r="Q443" s="2"/>
-      <c r="R443" s="2"/>
-      <c r="S443" s="2"/>
+      <c r="D443" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E443" s="5">
+        <v>0</v>
+      </c>
+      <c r="F443" s="5">
+        <v>0</v>
+      </c>
+      <c r="G443" s="5">
+        <v>0</v>
+      </c>
+      <c r="H443" s="5">
+        <v>0</v>
+      </c>
+      <c r="I443" s="6">
+        <v>18770</v>
+      </c>
+      <c r="J443" s="5">
+        <v>0</v>
+      </c>
+      <c r="K443" s="5">
+        <v>0</v>
+      </c>
+      <c r="L443" s="5">
+        <v>0</v>
+      </c>
+      <c r="M443" s="5">
+        <v>0</v>
+      </c>
+      <c r="N443" s="6">
+        <v>4911499</v>
+      </c>
+      <c r="O443" s="6">
+        <v>4911499</v>
+      </c>
+      <c r="P443" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q443" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R443" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S443" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="T443" s="2"/>
-      <c r="U443" s="2"/>
-      <c r="V443" s="2"/>
-      <c r="W443" s="2"/>
-      <c r="X443" s="2"/>
-      <c r="Y443" s="2"/>
-      <c r="Z443" s="2"/>
-      <c r="AA443" s="2"/>
-      <c r="AB443" s="2"/>
-      <c r="AC443" s="2"/>
-      <c r="AD443" s="2"/>
-      <c r="AE443" s="2"/>
-      <c r="AF443" s="2"/>
+      <c r="U443" s="5">
+        <v>0</v>
+      </c>
+      <c r="V443" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W443" s="5">
+        <v>0</v>
+      </c>
+      <c r="X443" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y443" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z443" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA443" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB443" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC443" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD443" s="7">
+        <v>42855505</v>
+      </c>
+      <c r="AE443" s="7">
+        <v>42855505</v>
+      </c>
+      <c r="AF443" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="444" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A444" s="2"/>
-      <c r="B444" s="2"/>
+      <c r="A444" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C444" s="2"/>
-      <c r="D444" s="2"/>
-      <c r="E444" s="2"/>
-      <c r="F444" s="2"/>
-      <c r="G444" s="2"/>
-      <c r="H444" s="2"/>
-      <c r="I444" s="2"/>
-      <c r="J444" s="2"/>
-      <c r="K444" s="2"/>
-      <c r="L444" s="2"/>
-      <c r="M444" s="2"/>
-      <c r="N444" s="2"/>
-      <c r="O444" s="2"/>
-      <c r="P444" s="2"/>
-      <c r="Q444" s="2"/>
-      <c r="R444" s="2"/>
-      <c r="S444" s="2"/>
+      <c r="D444" s="5">
+        <v>9984</v>
+      </c>
+      <c r="E444" s="5">
+        <v>0</v>
+      </c>
+      <c r="F444" s="6">
+        <v>23000</v>
+      </c>
+      <c r="G444" s="6">
+        <v>4066.73</v>
+      </c>
+      <c r="H444" s="6">
+        <v>93534900</v>
+      </c>
+      <c r="I444" s="6">
+        <v>4704</v>
+      </c>
+      <c r="J444" s="6">
+        <v>108192000</v>
+      </c>
+      <c r="K444" s="6">
+        <v>14657100</v>
+      </c>
+      <c r="L444" s="7">
+        <v>149184313</v>
+      </c>
+      <c r="M444" s="5">
+        <v>0</v>
+      </c>
+      <c r="N444" s="5">
+        <v>0</v>
+      </c>
+      <c r="O444" s="5">
+        <v>0</v>
+      </c>
+      <c r="P444" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q444" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R444" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S444" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T444" s="2"/>
-      <c r="U444" s="2"/>
-      <c r="V444" s="2"/>
-      <c r="W444" s="2"/>
-      <c r="X444" s="2"/>
-      <c r="Y444" s="2"/>
-      <c r="Z444" s="2"/>
-      <c r="AA444" s="2"/>
-      <c r="AB444" s="2"/>
-      <c r="AC444" s="2"/>
-      <c r="AD444" s="2"/>
-      <c r="AE444" s="2"/>
-      <c r="AF444" s="2"/>
+      <c r="U444" s="5">
+        <v>0</v>
+      </c>
+      <c r="V444" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W444" s="5">
+        <v>926.51</v>
+      </c>
+      <c r="X444" s="7">
+        <v>866619555</v>
+      </c>
+      <c r="Y444" s="5">
+        <v>938.89</v>
+      </c>
+      <c r="Z444" s="7">
+        <v>1015803868</v>
+      </c>
+      <c r="AA444" s="7">
+        <v>137614046</v>
+      </c>
+      <c r="AB444" s="7">
+        <v>11570267</v>
+      </c>
+      <c r="AC444" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD444" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE444" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF444" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="445" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A445" s="2"/>
-      <c r="B445" s="2"/>
+      <c r="A445" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C445" s="2"/>
-      <c r="D445" s="2"/>
-      <c r="E445" s="2"/>
-      <c r="F445" s="2"/>
-      <c r="G445" s="2"/>
-      <c r="H445" s="2"/>
-      <c r="I445" s="2"/>
-      <c r="J445" s="2"/>
-      <c r="K445" s="2"/>
-      <c r="L445" s="2"/>
-      <c r="M445" s="2"/>
-      <c r="N445" s="2"/>
-      <c r="O445" s="2"/>
-      <c r="P445" s="2"/>
-      <c r="Q445" s="2"/>
-      <c r="R445" s="2"/>
-      <c r="S445" s="2"/>
+      <c r="D445" s="5">
+        <v>6954</v>
+      </c>
+      <c r="E445" s="5">
+        <v>0</v>
+      </c>
+      <c r="F445" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G445" s="6">
+        <v>6568.27</v>
+      </c>
+      <c r="H445" s="6">
+        <v>65682650</v>
+      </c>
+      <c r="I445" s="6">
+        <v>6812</v>
+      </c>
+      <c r="J445" s="6">
+        <v>68120000</v>
+      </c>
+      <c r="K445" s="6">
+        <v>2437350</v>
+      </c>
+      <c r="L445" s="7">
+        <v>30680566</v>
+      </c>
+      <c r="M445" s="5">
+        <v>0</v>
+      </c>
+      <c r="N445" s="5">
+        <v>0</v>
+      </c>
+      <c r="O445" s="5">
+        <v>0</v>
+      </c>
+      <c r="P445" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q445" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R445" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S445" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="T445" s="2"/>
-      <c r="U445" s="2"/>
-      <c r="V445" s="2"/>
-      <c r="W445" s="2"/>
-      <c r="X445" s="2"/>
-      <c r="Y445" s="2"/>
-      <c r="Z445" s="2"/>
-      <c r="AA445" s="2"/>
-      <c r="AB445" s="2"/>
-      <c r="AC445" s="2"/>
-      <c r="AD445" s="2"/>
-      <c r="AE445" s="2"/>
-      <c r="AF445" s="2"/>
+      <c r="U445" s="5">
+        <v>0</v>
+      </c>
+      <c r="V445" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W445" s="5">
+        <v>927.01</v>
+      </c>
+      <c r="X445" s="7">
+        <v>608891302</v>
+      </c>
+      <c r="Y445" s="5">
+        <v>938.89</v>
+      </c>
+      <c r="Z445" s="7">
+        <v>639571868</v>
+      </c>
+      <c r="AA445" s="7">
+        <v>22884035</v>
+      </c>
+      <c r="AB445" s="7">
+        <v>7796530</v>
+      </c>
+      <c r="AC445" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD445" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE445" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF445" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="446" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A446" s="2"/>
-      <c r="B446" s="2"/>
+      <c r="A446" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C446" s="2"/>
-      <c r="D446" s="2"/>
-      <c r="E446" s="2"/>
-      <c r="F446" s="2"/>
-      <c r="G446" s="2"/>
-      <c r="H446" s="2"/>
-      <c r="I446" s="2"/>
-      <c r="J446" s="2"/>
-      <c r="K446" s="2"/>
-      <c r="L446" s="2"/>
-      <c r="M446" s="2"/>
-      <c r="N446" s="2"/>
-      <c r="O446" s="2"/>
-      <c r="P446" s="2"/>
-      <c r="Q446" s="2"/>
-      <c r="R446" s="2"/>
-      <c r="S446" s="2"/>
+      <c r="D446" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E446" s="5">
+        <v>0</v>
+      </c>
+      <c r="F446" s="6">
+        <v>38000</v>
+      </c>
+      <c r="G446" s="5">
+        <v>12.58</v>
+      </c>
+      <c r="H446" s="6">
+        <v>478066.6</v>
+      </c>
+      <c r="I446" s="5">
+        <v>11.79</v>
+      </c>
+      <c r="J446" s="6">
+        <v>448020</v>
+      </c>
+      <c r="K446" s="6">
+        <v>-30046.6</v>
+      </c>
+      <c r="L446" s="7">
+        <v>-45957309</v>
+      </c>
+      <c r="M446" s="5">
+        <v>0</v>
+      </c>
+      <c r="N446" s="5">
+        <v>0</v>
+      </c>
+      <c r="O446" s="5">
+        <v>0</v>
+      </c>
+      <c r="P446" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q446" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R446" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S446" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="T446" s="2"/>
-      <c r="U446" s="2"/>
-      <c r="V446" s="2"/>
-      <c r="W446" s="2"/>
-      <c r="X446" s="2"/>
-      <c r="Y446" s="2"/>
-      <c r="Z446" s="2"/>
-      <c r="AA446" s="2"/>
-      <c r="AB446" s="2"/>
-      <c r="AC446" s="2"/>
-      <c r="AD446" s="2"/>
-      <c r="AE446" s="2"/>
-      <c r="AF446" s="2"/>
+      <c r="U446" s="5">
+        <v>0</v>
+      </c>
+      <c r="V446" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W446" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X446" s="7">
+        <v>701992995</v>
+      </c>
+      <c r="Y446" s="6">
+        <v>1464.3</v>
+      </c>
+      <c r="Z446" s="7">
+        <v>656035686</v>
+      </c>
+      <c r="AA446" s="7">
+        <v>-43997236</v>
+      </c>
+      <c r="AB446" s="7">
+        <v>-1960073</v>
+      </c>
+      <c r="AC446" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD446" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE446" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF446" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="447" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A447" s="2"/>
-      <c r="B447" s="2"/>
+      <c r="A447" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C447" s="2"/>
-      <c r="D447" s="2"/>
-      <c r="E447" s="2"/>
-      <c r="F447" s="2"/>
-      <c r="G447" s="2"/>
-      <c r="H447" s="2"/>
-      <c r="I447" s="2"/>
-      <c r="J447" s="2"/>
-      <c r="K447" s="2"/>
-      <c r="L447" s="2"/>
-      <c r="M447" s="2"/>
-      <c r="N447" s="2"/>
-      <c r="O447" s="2"/>
-      <c r="P447" s="2"/>
-      <c r="Q447" s="2"/>
-      <c r="R447" s="2"/>
-      <c r="S447" s="2"/>
+      <c r="D447" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E447" s="5">
+        <v>0</v>
+      </c>
+      <c r="F447" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G447" s="5">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H447" s="6">
+        <v>482030</v>
+      </c>
+      <c r="I447" s="5">
+        <v>55.73</v>
+      </c>
+      <c r="J447" s="6">
+        <v>557300</v>
+      </c>
+      <c r="K447" s="6">
+        <v>75270</v>
+      </c>
+      <c r="L447" s="7">
+        <v>114363319</v>
+      </c>
+      <c r="M447" s="5">
+        <v>0</v>
+      </c>
+      <c r="N447" s="5">
+        <v>0</v>
+      </c>
+      <c r="O447" s="5">
+        <v>0</v>
+      </c>
+      <c r="P447" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q447" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R447" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S447" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="T447" s="2"/>
-      <c r="U447" s="2"/>
-      <c r="V447" s="2"/>
-      <c r="W447" s="2"/>
-      <c r="X447" s="2"/>
-      <c r="Y447" s="2"/>
-      <c r="Z447" s="2"/>
-      <c r="AA447" s="2"/>
-      <c r="AB447" s="2"/>
-      <c r="AC447" s="2"/>
-      <c r="AD447" s="2"/>
-      <c r="AE447" s="2"/>
-      <c r="AF447" s="2"/>
-    </row>
-    <row r="448" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A448" s="2"/>
-      <c r="B448" s="2"/>
+      <c r="U447" s="5">
+        <v>0</v>
+      </c>
+      <c r="V447" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W447" s="6">
+        <v>1455.7</v>
+      </c>
+      <c r="X447" s="7">
+        <v>701691071</v>
+      </c>
+      <c r="Y447" s="6">
+        <v>1464.3</v>
+      </c>
+      <c r="Z447" s="7">
+        <v>816054390</v>
+      </c>
+      <c r="AA447" s="7">
+        <v>110217861</v>
+      </c>
+      <c r="AB447" s="7">
+        <v>4145458</v>
+      </c>
+      <c r="AC447" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD447" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE447" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF447" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C448" s="2"/>
-      <c r="D448" s="2"/>
-      <c r="E448" s="2"/>
-      <c r="F448" s="2"/>
-      <c r="G448" s="2"/>
-      <c r="H448" s="2"/>
-      <c r="I448" s="2"/>
-      <c r="J448" s="2"/>
-      <c r="K448" s="2"/>
-      <c r="L448" s="2"/>
-      <c r="M448" s="2"/>
-      <c r="N448" s="2"/>
-      <c r="O448" s="2"/>
-      <c r="P448" s="2"/>
-      <c r="Q448" s="2"/>
-      <c r="R448" s="2"/>
-      <c r="S448" s="2"/>
+      <c r="D448" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E448" s="5">
+        <v>0</v>
+      </c>
+      <c r="F448" s="5">
+        <v>0</v>
+      </c>
+      <c r="G448" s="5">
+        <v>0</v>
+      </c>
+      <c r="H448" s="5">
+        <v>0</v>
+      </c>
+      <c r="I448" s="5">
+        <v>324.42</v>
+      </c>
+      <c r="J448" s="5">
+        <v>0</v>
+      </c>
+      <c r="K448" s="5">
+        <v>0</v>
+      </c>
+      <c r="L448" s="5">
+        <v>0</v>
+      </c>
+      <c r="M448" s="6">
+        <v>-57372.9</v>
+      </c>
+      <c r="N448" s="6">
+        <v>-57372.9</v>
+      </c>
+      <c r="O448" s="5">
+        <v>0</v>
+      </c>
+      <c r="P448" s="6">
+        <v>57372.9</v>
+      </c>
+      <c r="Q448" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R448" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S448" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="T448" s="2"/>
-      <c r="U448" s="2"/>
-      <c r="V448" s="2"/>
-      <c r="W448" s="2"/>
-      <c r="X448" s="2"/>
-      <c r="Y448" s="2"/>
-      <c r="Z448" s="2"/>
-      <c r="AA448" s="2"/>
-      <c r="AB448" s="2"/>
-      <c r="AC448" s="2"/>
-      <c r="AD448" s="2"/>
-      <c r="AE448" s="2"/>
-      <c r="AF448" s="2"/>
+      <c r="U448" s="5">
+        <v>0</v>
+      </c>
+      <c r="V448" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W448" s="5">
+        <v>0</v>
+      </c>
+      <c r="X448" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y448" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z448" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA448" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB448" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC448" s="7">
+        <v>-70979771</v>
+      </c>
+      <c r="AD448" s="7">
+        <v>-70979771</v>
+      </c>
+      <c r="AE448" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF448" s="7">
+        <v>70979771</v>
+      </c>
     </row>
     <row r="449" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A449" s="2"/>
-      <c r="B449" s="2"/>
+      <c r="A449" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C449" s="2"/>
-      <c r="D449" s="2"/>
-      <c r="E449" s="2"/>
-      <c r="F449" s="2"/>
-      <c r="G449" s="2"/>
-      <c r="H449" s="2"/>
-      <c r="I449" s="2"/>
-      <c r="J449" s="2"/>
-      <c r="K449" s="2"/>
-      <c r="L449" s="2"/>
-      <c r="M449" s="2"/>
-      <c r="N449" s="2"/>
-      <c r="O449" s="2"/>
-      <c r="P449" s="2"/>
-      <c r="Q449" s="2"/>
-      <c r="R449" s="2"/>
-      <c r="S449" s="2"/>
+      <c r="D449" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E449" s="5">
+        <v>0</v>
+      </c>
+      <c r="F449" s="5">
+        <v>0</v>
+      </c>
+      <c r="G449" s="5">
+        <v>0</v>
+      </c>
+      <c r="H449" s="5">
+        <v>0</v>
+      </c>
+      <c r="I449" s="5">
+        <v>209.3</v>
+      </c>
+      <c r="J449" s="5">
+        <v>0</v>
+      </c>
+      <c r="K449" s="5">
+        <v>0</v>
+      </c>
+      <c r="L449" s="5">
+        <v>0</v>
+      </c>
+      <c r="M449" s="6">
+        <v>-136827</v>
+      </c>
+      <c r="N449" s="6">
+        <v>-136827</v>
+      </c>
+      <c r="O449" s="5">
+        <v>0</v>
+      </c>
+      <c r="P449" s="6">
+        <v>136827</v>
+      </c>
+      <c r="Q449" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R449" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S449" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="T449" s="2"/>
-      <c r="U449" s="2"/>
-      <c r="V449" s="2"/>
-      <c r="W449" s="2"/>
-      <c r="X449" s="2"/>
-      <c r="Y449" s="2"/>
-      <c r="Z449" s="2"/>
-      <c r="AA449" s="2"/>
-      <c r="AB449" s="2"/>
-      <c r="AC449" s="2"/>
-      <c r="AD449" s="2"/>
-      <c r="AE449" s="2"/>
-      <c r="AF449" s="2"/>
+      <c r="U449" s="5">
+        <v>0</v>
+      </c>
+      <c r="V449" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W449" s="5">
+        <v>0</v>
+      </c>
+      <c r="X449" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y449" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z449" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA449" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB449" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC449" s="7">
+        <v>-187208997</v>
+      </c>
+      <c r="AD449" s="7">
+        <v>-187208997</v>
+      </c>
+      <c r="AE449" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF449" s="7">
+        <v>187208997</v>
+      </c>
     </row>
     <row r="450" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
+      <c r="A450" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C450" s="2"/>
-      <c r="D450" s="2"/>
-      <c r="E450" s="2"/>
-      <c r="F450" s="2"/>
-      <c r="G450" s="2"/>
-      <c r="H450" s="2"/>
-      <c r="I450" s="2"/>
-      <c r="J450" s="2"/>
-      <c r="K450" s="2"/>
-      <c r="L450" s="2"/>
-      <c r="M450" s="2"/>
-      <c r="N450" s="2"/>
-      <c r="O450" s="2"/>
-      <c r="P450" s="2"/>
-      <c r="Q450" s="2"/>
-      <c r="R450" s="2"/>
-      <c r="S450" s="2"/>
+      <c r="D450" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E450" s="5">
+        <v>0</v>
+      </c>
+      <c r="F450" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G450" s="5">
+        <v>34.24</v>
+      </c>
+      <c r="H450" s="6">
+        <v>684800</v>
+      </c>
+      <c r="I450" s="5">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="J450" s="6">
+        <v>680400</v>
+      </c>
+      <c r="K450" s="6">
+        <v>-4400</v>
+      </c>
+      <c r="L450" s="7">
+        <v>-15139880</v>
+      </c>
+      <c r="M450" s="5">
+        <v>0</v>
+      </c>
+      <c r="N450" s="5">
+        <v>0</v>
+      </c>
+      <c r="O450" s="5">
+        <v>0</v>
+      </c>
+      <c r="P450" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q450" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R450" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S450" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="T450" s="2"/>
-      <c r="U450" s="2"/>
-      <c r="V450" s="2"/>
-      <c r="W450" s="2"/>
-      <c r="X450" s="2"/>
-      <c r="Y450" s="2"/>
-      <c r="Z450" s="2"/>
-      <c r="AA450" s="2"/>
-      <c r="AB450" s="2"/>
-      <c r="AC450" s="2"/>
-      <c r="AD450" s="2"/>
-      <c r="AE450" s="2"/>
-      <c r="AF450" s="2"/>
+      <c r="U450" s="5">
+        <v>0</v>
+      </c>
+      <c r="V450" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W450" s="6">
+        <v>1477</v>
+      </c>
+      <c r="X450" s="7">
+        <v>1011449600</v>
+      </c>
+      <c r="Y450" s="6">
+        <v>1464.3</v>
+      </c>
+      <c r="Z450" s="7">
+        <v>996309720</v>
+      </c>
+      <c r="AA450" s="7">
+        <v>-6442920</v>
+      </c>
+      <c r="AB450" s="7">
+        <v>-8696960</v>
+      </c>
+      <c r="AC450" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD450" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE450" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF450" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="451" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A451" s="2"/>
-      <c r="B451" s="2"/>
+      <c r="A451" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C451" s="2"/>
-      <c r="D451" s="2"/>
-      <c r="E451" s="2"/>
-      <c r="F451" s="2"/>
-      <c r="G451" s="2"/>
-      <c r="H451" s="2"/>
-      <c r="I451" s="2"/>
-      <c r="J451" s="2"/>
-      <c r="K451" s="2"/>
-      <c r="L451" s="2"/>
-      <c r="M451" s="2"/>
-      <c r="N451" s="2"/>
-      <c r="O451" s="2"/>
-      <c r="P451" s="2"/>
-      <c r="Q451" s="2"/>
-      <c r="R451" s="2"/>
-      <c r="S451" s="2"/>
+      <c r="D451" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E451" s="5">
+        <v>0</v>
+      </c>
+      <c r="F451" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G451" s="5">
+        <v>251.01</v>
+      </c>
+      <c r="H451" s="6">
+        <v>1255051.8</v>
+      </c>
+      <c r="I451" s="5">
+        <v>273.32</v>
+      </c>
+      <c r="J451" s="6">
+        <v>1366600</v>
+      </c>
+      <c r="K451" s="6">
+        <v>111548.2</v>
+      </c>
+      <c r="L451" s="7">
+        <v>161842143</v>
+      </c>
+      <c r="M451" s="5">
+        <v>0</v>
+      </c>
+      <c r="N451" s="5">
+        <v>0</v>
+      </c>
+      <c r="O451" s="5">
+        <v>0</v>
+      </c>
+      <c r="P451" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q451" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R451" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S451" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T451" s="2"/>
-      <c r="U451" s="2"/>
-      <c r="V451" s="2"/>
-      <c r="W451" s="2"/>
-      <c r="X451" s="2"/>
-      <c r="Y451" s="2"/>
-      <c r="Z451" s="2"/>
-      <c r="AA451" s="2"/>
-      <c r="AB451" s="2"/>
-      <c r="AC451" s="2"/>
-      <c r="AD451" s="2"/>
-      <c r="AE451" s="2"/>
-      <c r="AF451" s="2"/>
+      <c r="U451" s="5">
+        <v>0</v>
+      </c>
+      <c r="V451" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W451" s="6">
+        <v>1465.49</v>
+      </c>
+      <c r="X451" s="7">
+        <v>1839270237</v>
+      </c>
+      <c r="Y451" s="6">
+        <v>1464.3</v>
+      </c>
+      <c r="Z451" s="7">
+        <v>2001112380</v>
+      </c>
+      <c r="AA451" s="7">
+        <v>163340029</v>
+      </c>
+      <c r="AB451" s="7">
+        <v>-1497887</v>
+      </c>
+      <c r="AC451" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD451" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE451" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF451" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="452" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A452" s="2"/>
-      <c r="B452" s="2"/>
+      <c r="A452" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="C452" s="2"/>
-      <c r="D452" s="2"/>
-      <c r="E452" s="2"/>
-      <c r="F452" s="2"/>
-      <c r="G452" s="2"/>
-      <c r="H452" s="2"/>
-      <c r="I452" s="2"/>
-      <c r="J452" s="2"/>
-      <c r="K452" s="2"/>
-      <c r="L452" s="2"/>
-      <c r="M452" s="2"/>
-      <c r="N452" s="2"/>
-      <c r="O452" s="2"/>
-      <c r="P452" s="2"/>
-      <c r="Q452" s="2"/>
-      <c r="R452" s="2"/>
-      <c r="S452" s="2"/>
+      <c r="D452" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E452" s="5">
+        <v>0</v>
+      </c>
+      <c r="F452" s="5">
+        <v>0</v>
+      </c>
+      <c r="G452" s="5">
+        <v>0</v>
+      </c>
+      <c r="H452" s="5">
+        <v>0</v>
+      </c>
+      <c r="I452" s="5">
+        <v>9.06</v>
+      </c>
+      <c r="J452" s="5">
+        <v>0</v>
+      </c>
+      <c r="K452" s="5">
+        <v>0</v>
+      </c>
+      <c r="L452" s="5">
+        <v>0</v>
+      </c>
+      <c r="M452" s="5">
+        <v>0</v>
+      </c>
+      <c r="N452" s="6">
+        <v>-276165.90000000002</v>
+      </c>
+      <c r="O452" s="5">
+        <v>0</v>
+      </c>
+      <c r="P452" s="6">
+        <v>276165.90000000002</v>
+      </c>
+      <c r="Q452" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R452" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S452" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="T452" s="2"/>
-      <c r="U452" s="2"/>
-      <c r="V452" s="2"/>
-      <c r="W452" s="2"/>
-      <c r="X452" s="2"/>
-      <c r="Y452" s="2"/>
-      <c r="Z452" s="2"/>
-      <c r="AA452" s="2"/>
-      <c r="AB452" s="2"/>
-      <c r="AC452" s="2"/>
-      <c r="AD452" s="2"/>
-      <c r="AE452" s="2"/>
-      <c r="AF452" s="2"/>
+      <c r="U452" s="5">
+        <v>0</v>
+      </c>
+      <c r="V452" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W452" s="5">
+        <v>0</v>
+      </c>
+      <c r="X452" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y452" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z452" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA452" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB452" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC452" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD452" s="7">
+        <v>-413294425</v>
+      </c>
+      <c r="AE452" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF452" s="7">
+        <v>413294425</v>
+      </c>
     </row>
     <row r="453" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A453" s="2"/>
-      <c r="B453" s="2"/>
+      <c r="A453" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C453" s="2"/>
-      <c r="D453" s="2"/>
-      <c r="E453" s="2"/>
-      <c r="F453" s="2"/>
-      <c r="G453" s="2"/>
-      <c r="H453" s="2"/>
-      <c r="I453" s="2"/>
-      <c r="J453" s="2"/>
-      <c r="K453" s="2"/>
-      <c r="L453" s="2"/>
-      <c r="M453" s="2"/>
-      <c r="N453" s="2"/>
-      <c r="O453" s="2"/>
-      <c r="P453" s="2"/>
-      <c r="Q453" s="2"/>
-      <c r="R453" s="2"/>
-      <c r="S453" s="2"/>
+      <c r="D453" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E453" s="5">
+        <v>0</v>
+      </c>
+      <c r="F453" s="6">
+        <v>5500</v>
+      </c>
+      <c r="G453" s="5">
+        <v>191.75399999999999</v>
+      </c>
+      <c r="H453" s="6">
+        <v>1054647.55</v>
+      </c>
+      <c r="I453" s="5">
+        <v>190.91</v>
+      </c>
+      <c r="J453" s="6">
+        <v>1050005</v>
+      </c>
+      <c r="K453" s="6">
+        <v>-4642.55</v>
+      </c>
+      <c r="L453" s="7">
+        <v>32540268</v>
+      </c>
+      <c r="M453" s="5">
+        <v>0</v>
+      </c>
+      <c r="N453" s="5">
+        <v>0</v>
+      </c>
+      <c r="O453" s="5">
+        <v>0</v>
+      </c>
+      <c r="P453" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q453" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R453" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S453" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="T453" s="2"/>
-      <c r="U453" s="2"/>
-      <c r="V453" s="2"/>
-      <c r="W453" s="2"/>
-      <c r="X453" s="2"/>
-      <c r="Y453" s="2"/>
-      <c r="Z453" s="2"/>
-      <c r="AA453" s="2"/>
-      <c r="AB453" s="2"/>
-      <c r="AC453" s="2"/>
-      <c r="AD453" s="2"/>
-      <c r="AE453" s="2"/>
-      <c r="AF453" s="2"/>
+      <c r="U453" s="5">
+        <v>0</v>
+      </c>
+      <c r="V453" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W453" s="6">
+        <v>1426.99</v>
+      </c>
+      <c r="X453" s="7">
+        <v>1504982053</v>
+      </c>
+      <c r="Y453" s="6">
+        <v>1464.3</v>
+      </c>
+      <c r="Z453" s="7">
+        <v>1537522321</v>
+      </c>
+      <c r="AA453" s="7">
+        <v>-6798085</v>
+      </c>
+      <c r="AB453" s="7">
+        <v>39338354</v>
+      </c>
+      <c r="AC453" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD453" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE453" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF453" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="454" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A454" s="2"/>
-      <c r="B454" s="2"/>
+      <c r="A454" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="C454" s="2"/>
-      <c r="D454" s="2"/>
-      <c r="E454" s="2"/>
-      <c r="F454" s="2"/>
-      <c r="G454" s="2"/>
-      <c r="H454" s="2"/>
-      <c r="I454" s="2"/>
-      <c r="J454" s="2"/>
-      <c r="K454" s="2"/>
-      <c r="L454" s="2"/>
-      <c r="M454" s="2"/>
-      <c r="N454" s="2"/>
-      <c r="O454" s="2"/>
-      <c r="P454" s="2"/>
-      <c r="Q454" s="2"/>
-      <c r="R454" s="2"/>
-      <c r="S454" s="2"/>
+      <c r="D454" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E454" s="5">
+        <v>0</v>
+      </c>
+      <c r="F454" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G454" s="5">
+        <v>45.33</v>
+      </c>
+      <c r="H454" s="6">
+        <v>906615</v>
+      </c>
+      <c r="I454" s="5">
+        <v>46.64</v>
+      </c>
+      <c r="J454" s="6">
+        <v>932800</v>
+      </c>
+      <c r="K454" s="6">
+        <v>26185</v>
+      </c>
+      <c r="L454" s="7">
+        <v>33742029</v>
+      </c>
+      <c r="M454" s="5">
+        <v>0</v>
+      </c>
+      <c r="N454" s="5">
+        <v>0</v>
+      </c>
+      <c r="O454" s="5">
+        <v>0</v>
+      </c>
+      <c r="P454" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q454" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R454" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S454" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="T454" s="2"/>
-      <c r="U454" s="2"/>
-      <c r="V454" s="2"/>
-      <c r="W454" s="2"/>
-      <c r="X454" s="2"/>
-      <c r="Y454" s="2"/>
-      <c r="Z454" s="2"/>
-      <c r="AA454" s="2"/>
-      <c r="AB454" s="2"/>
-      <c r="AC454" s="2"/>
-      <c r="AD454" s="2"/>
-      <c r="AE454" s="2"/>
-      <c r="AF454" s="2"/>
+      <c r="U454" s="5">
+        <v>0</v>
+      </c>
+      <c r="V454" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W454" s="6">
+        <v>1469.37</v>
+      </c>
+      <c r="X454" s="7">
+        <v>1332157011</v>
+      </c>
+      <c r="Y454" s="6">
+        <v>1464.3</v>
+      </c>
+      <c r="Z454" s="7">
+        <v>1365899040</v>
+      </c>
+      <c r="AA454" s="7">
+        <v>38342695</v>
+      </c>
+      <c r="AB454" s="7">
+        <v>-4600667</v>
+      </c>
+      <c r="AC454" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD454" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE454" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF454" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="455" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A455" s="2"/>
-      <c r="B455" s="2"/>
+      <c r="A455" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C455" s="2"/>
-      <c r="D455" s="2"/>
-      <c r="E455" s="2"/>
-      <c r="F455" s="2"/>
-      <c r="G455" s="2"/>
-      <c r="H455" s="2"/>
-      <c r="I455" s="2"/>
-      <c r="J455" s="2"/>
-      <c r="K455" s="2"/>
-      <c r="L455" s="2"/>
-      <c r="M455" s="2"/>
-      <c r="N455" s="2"/>
-      <c r="O455" s="2"/>
-      <c r="P455" s="2"/>
-      <c r="Q455" s="2"/>
-      <c r="R455" s="2"/>
-      <c r="S455" s="2"/>
+      <c r="D455" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E455" s="5">
+        <v>0</v>
+      </c>
+      <c r="F455" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G455" s="5">
+        <v>681.92</v>
+      </c>
+      <c r="H455" s="6">
+        <v>681920</v>
+      </c>
+      <c r="I455" s="5">
+        <v>694.06</v>
+      </c>
+      <c r="J455" s="6">
+        <v>694060</v>
+      </c>
+      <c r="K455" s="6">
+        <v>12140</v>
+      </c>
+      <c r="L455" s="7">
+        <v>37825050</v>
+      </c>
+      <c r="M455" s="5">
+        <v>0</v>
+      </c>
+      <c r="N455" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="O455" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="P455" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q455" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R455" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S455" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T455" s="2"/>
-      <c r="U455" s="2"/>
-      <c r="V455" s="2"/>
-      <c r="W455" s="2"/>
-      <c r="X455" s="2"/>
-      <c r="Y455" s="2"/>
-      <c r="Z455" s="2"/>
-      <c r="AA455" s="2"/>
-      <c r="AB455" s="2"/>
-      <c r="AC455" s="2"/>
-      <c r="AD455" s="2"/>
-      <c r="AE455" s="2"/>
-      <c r="AF455" s="2"/>
+      <c r="U455" s="5">
+        <v>0</v>
+      </c>
+      <c r="V455" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W455" s="6">
+        <v>1434.9</v>
+      </c>
+      <c r="X455" s="7">
+        <v>978487008</v>
+      </c>
+      <c r="Y455" s="6">
+        <v>1464.3</v>
+      </c>
+      <c r="Z455" s="7">
+        <v>1016312058</v>
+      </c>
+      <c r="AA455" s="7">
+        <v>17776602</v>
+      </c>
+      <c r="AB455" s="7">
+        <v>20048448</v>
+      </c>
+      <c r="AC455" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD455" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AE455" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AF455" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="456" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A456" s="2"/>
-      <c r="B456" s="2"/>
+      <c r="A456" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C456" s="2"/>
-      <c r="D456" s="2"/>
-      <c r="E456" s="2"/>
-      <c r="F456" s="2"/>
-      <c r="G456" s="2"/>
-      <c r="H456" s="2"/>
-      <c r="I456" s="2"/>
-      <c r="J456" s="2"/>
-      <c r="K456" s="2"/>
-      <c r="L456" s="2"/>
-      <c r="M456" s="2"/>
-      <c r="N456" s="2"/>
-      <c r="O456" s="2"/>
-      <c r="P456" s="2"/>
-      <c r="Q456" s="2"/>
-      <c r="R456" s="2"/>
-      <c r="S456" s="2"/>
+      <c r="D456" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E456" s="5">
+        <v>0</v>
+      </c>
+      <c r="F456" s="6">
+        <v>3200</v>
+      </c>
+      <c r="G456" s="5">
+        <v>396.31</v>
+      </c>
+      <c r="H456" s="6">
+        <v>1268192</v>
+      </c>
+      <c r="I456" s="5">
+        <v>462.85</v>
+      </c>
+      <c r="J456" s="6">
+        <v>1481120</v>
+      </c>
+      <c r="K456" s="6">
+        <v>212928</v>
+      </c>
+      <c r="L456" s="7">
+        <v>349075316</v>
+      </c>
+      <c r="M456" s="6">
+        <v>68472.5</v>
+      </c>
+      <c r="N456" s="6">
+        <v>68472.5</v>
+      </c>
+      <c r="O456" s="6">
+        <v>68472.5</v>
+      </c>
+      <c r="P456" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q456" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R456" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S456" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="T456" s="2"/>
-      <c r="U456" s="2"/>
-      <c r="V456" s="2"/>
-      <c r="W456" s="2"/>
-      <c r="X456" s="2"/>
-      <c r="Y456" s="2"/>
-      <c r="Z456" s="2"/>
-      <c r="AA456" s="2"/>
-      <c r="AB456" s="2"/>
-      <c r="AC456" s="2"/>
-      <c r="AD456" s="2"/>
-      <c r="AE456" s="2"/>
-      <c r="AF456" s="2"/>
+      <c r="U456" s="5">
+        <v>0</v>
+      </c>
+      <c r="V456" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W456" s="6">
+        <v>1434.89</v>
+      </c>
+      <c r="X456" s="7">
+        <v>1819728700</v>
+      </c>
+      <c r="Y456" s="6">
+        <v>1464.3</v>
+      </c>
+      <c r="Z456" s="7">
+        <v>2168804016</v>
+      </c>
+      <c r="AA456" s="7">
+        <v>311790470</v>
+      </c>
+      <c r="AB456" s="7">
+        <v>37284845</v>
+      </c>
+      <c r="AC456" s="7">
+        <v>114704490</v>
+      </c>
+      <c r="AD456" s="7">
+        <v>114704490</v>
+      </c>
+      <c r="AE456" s="7">
+        <v>114704490</v>
+      </c>
+      <c r="AF456" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="457" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A457" s="2"/>
-      <c r="B457" s="2"/>
+      <c r="A457" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="C457" s="2"/>
-      <c r="D457" s="2"/>
-      <c r="E457" s="2"/>
-      <c r="F457" s="2"/>
-      <c r="G457" s="2"/>
-      <c r="H457" s="2"/>
-      <c r="I457" s="2"/>
-      <c r="J457" s="2"/>
-      <c r="K457" s="2"/>
-      <c r="L457" s="2"/>
-      <c r="M457" s="2"/>
-      <c r="N457" s="2"/>
-      <c r="O457" s="2"/>
-      <c r="P457" s="2"/>
-      <c r="Q457" s="2"/>
-      <c r="R457" s="2"/>
-      <c r="S457" s="2"/>
+      <c r="D457" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E457" s="5">
+        <v>0</v>
+      </c>
+      <c r="F457" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G457" s="5">
+        <v>87.436000000000007</v>
+      </c>
+      <c r="H457" s="6">
+        <v>437184.5</v>
+      </c>
+      <c r="I457" s="5">
+        <v>87.04</v>
+      </c>
+      <c r="J457" s="6">
+        <v>435200</v>
+      </c>
+      <c r="K457" s="6">
+        <v>-1984.5</v>
+      </c>
+      <c r="L457" s="7">
+        <v>-5529010</v>
+      </c>
+      <c r="M457" s="5">
+        <v>0</v>
+      </c>
+      <c r="N457" s="5">
+        <v>0</v>
+      </c>
+      <c r="O457" s="5">
+        <v>0</v>
+      </c>
+      <c r="P457" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q457" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R457" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S457" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="T457" s="2"/>
-      <c r="U457" s="2"/>
-      <c r="V457" s="2"/>
-      <c r="W457" s="2"/>
-      <c r="X457" s="2"/>
-      <c r="Y457" s="2"/>
-      <c r="Z457" s="2"/>
-      <c r="AA457" s="2"/>
-      <c r="AB457" s="2"/>
-      <c r="AC457" s="2"/>
-      <c r="AD457" s="2"/>
-      <c r="AE457" s="2"/>
-      <c r="AF457" s="2"/>
+      <c r="U457" s="5">
+        <v>0</v>
+      </c>
+      <c r="V457" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W457" s="6">
+        <v>1470.29</v>
+      </c>
+      <c r="X457" s="7">
+        <v>642792370</v>
+      </c>
+      <c r="Y457" s="6">
+        <v>1464.3</v>
+      </c>
+      <c r="Z457" s="7">
+        <v>637263360</v>
+      </c>
+      <c r="AA457" s="7">
+        <v>-2905903</v>
+      </c>
+      <c r="AB457" s="7">
+        <v>-2623107</v>
+      </c>
+      <c r="AC457" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD457" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE457" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF457" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="458" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A458" s="2"/>
-      <c r="B458" s="2"/>
+      <c r="A458" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C458" s="2"/>
-      <c r="D458" s="2"/>
-      <c r="E458" s="2"/>
-      <c r="F458" s="2"/>
-      <c r="G458" s="2"/>
-      <c r="H458" s="2"/>
-      <c r="I458" s="2"/>
-      <c r="J458" s="2"/>
-      <c r="K458" s="2"/>
-      <c r="L458" s="2"/>
-      <c r="M458" s="2"/>
-      <c r="N458" s="2"/>
-      <c r="O458" s="2"/>
-      <c r="P458" s="2"/>
-      <c r="Q458" s="2"/>
-      <c r="R458" s="2"/>
-      <c r="S458" s="2"/>
+      <c r="D458" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E458" s="5">
+        <v>0</v>
+      </c>
+      <c r="F458" s="6">
+        <v>24000</v>
+      </c>
+      <c r="G458" s="5">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H458" s="6">
+        <v>423736.8</v>
+      </c>
+      <c r="I458" s="5">
+        <v>16.46</v>
+      </c>
+      <c r="J458" s="6">
+        <v>395040</v>
+      </c>
+      <c r="K458" s="6">
+        <v>-28696.799999999999</v>
+      </c>
+      <c r="L458" s="7">
+        <v>-41935976</v>
+      </c>
+      <c r="M458" s="5">
+        <v>0</v>
+      </c>
+      <c r="N458" s="5">
+        <v>0</v>
+      </c>
+      <c r="O458" s="5">
+        <v>0</v>
+      </c>
+      <c r="P458" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q458" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R458" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S458" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="T458" s="2"/>
-      <c r="U458" s="2"/>
-      <c r="V458" s="2"/>
-      <c r="W458" s="2"/>
-      <c r="X458" s="2"/>
-      <c r="Y458" s="2"/>
-      <c r="Z458" s="2"/>
-      <c r="AA458" s="2"/>
-      <c r="AB458" s="2"/>
-      <c r="AC458" s="2"/>
-      <c r="AD458" s="2"/>
-      <c r="AE458" s="2"/>
-      <c r="AF458" s="2"/>
+      <c r="U458" s="5">
+        <v>0</v>
+      </c>
+      <c r="V458" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W458" s="6">
+        <v>1464.09</v>
+      </c>
+      <c r="X458" s="7">
+        <v>620393048</v>
+      </c>
+      <c r="Y458" s="6">
+        <v>1464.3</v>
+      </c>
+      <c r="Z458" s="7">
+        <v>578457072</v>
+      </c>
+      <c r="AA458" s="7">
+        <v>-42020724</v>
+      </c>
+      <c r="AB458" s="7">
+        <v>84748</v>
+      </c>
+      <c r="AC458" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD458" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE458" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF458" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="459" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A459" s="2"/>
-      <c r="B459" s="2"/>
+      <c r="A459" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="C459" s="2"/>
-      <c r="D459" s="2"/>
-      <c r="E459" s="2"/>
-      <c r="F459" s="2"/>
-      <c r="G459" s="2"/>
-      <c r="H459" s="2"/>
-      <c r="I459" s="2"/>
-      <c r="J459" s="2"/>
-      <c r="K459" s="2"/>
-      <c r="L459" s="2"/>
-      <c r="M459" s="2"/>
-      <c r="N459" s="2"/>
-      <c r="O459" s="2"/>
-      <c r="P459" s="2"/>
-      <c r="Q459" s="2"/>
-      <c r="R459" s="2"/>
-      <c r="S459" s="2"/>
+      <c r="D459" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E459" s="5">
+        <v>0</v>
+      </c>
+      <c r="F459" s="6">
+        <v>1400</v>
+      </c>
+      <c r="G459" s="5">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H459" s="6">
+        <v>605554.04</v>
+      </c>
+      <c r="I459" s="5">
+        <v>417.08</v>
+      </c>
+      <c r="J459" s="6">
+        <v>583912</v>
+      </c>
+      <c r="K459" s="6">
+        <v>-21642.04</v>
+      </c>
+      <c r="L459" s="7">
+        <v>-21093244</v>
+      </c>
+      <c r="M459" s="5">
+        <v>0</v>
+      </c>
+      <c r="N459" s="5">
+        <v>0</v>
+      </c>
+      <c r="O459" s="5">
+        <v>0</v>
+      </c>
+      <c r="P459" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q459" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R459" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S459" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="T459" s="2"/>
-      <c r="U459" s="2"/>
-      <c r="V459" s="2"/>
-      <c r="W459" s="2"/>
-      <c r="X459" s="2"/>
-      <c r="Y459" s="2"/>
-      <c r="Z459" s="2"/>
-      <c r="AA459" s="2"/>
-      <c r="AB459" s="2"/>
-      <c r="AC459" s="2"/>
-      <c r="AD459" s="2"/>
-      <c r="AE459" s="2"/>
-      <c r="AF459" s="2"/>
+      <c r="U459" s="5">
+        <v>0</v>
+      </c>
+      <c r="V459" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W459" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X459" s="7">
+        <v>876115585</v>
+      </c>
+      <c r="Y459" s="6">
+        <v>1464.3</v>
+      </c>
+      <c r="Z459" s="7">
+        <v>855022341</v>
+      </c>
+      <c r="AA459" s="7">
+        <v>-31690439</v>
+      </c>
+      <c r="AB459" s="7">
+        <v>10597195</v>
+      </c>
+      <c r="AC459" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD459" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE459" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF459" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="460" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A460" s="2"/>
-      <c r="B460" s="2"/>
+      <c r="A460" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C460" s="2"/>
-      <c r="D460" s="2"/>
-      <c r="E460" s="2"/>
-      <c r="F460" s="2"/>
-      <c r="G460" s="2"/>
-      <c r="H460" s="2"/>
-      <c r="I460" s="2"/>
-      <c r="J460" s="2"/>
-      <c r="K460" s="2"/>
-      <c r="L460" s="2"/>
-      <c r="M460" s="2"/>
-      <c r="N460" s="2"/>
-      <c r="O460" s="2"/>
-      <c r="P460" s="2"/>
-      <c r="Q460" s="2"/>
-      <c r="R460" s="2"/>
-      <c r="S460" s="2"/>
+      <c r="D460" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E460" s="5">
+        <v>0</v>
+      </c>
+      <c r="F460" s="6">
+        <v>3500</v>
+      </c>
+      <c r="G460" s="5">
+        <v>169.042</v>
+      </c>
+      <c r="H460" s="6">
+        <v>591649.80000000005</v>
+      </c>
+      <c r="I460" s="5">
+        <v>154.41999999999999</v>
+      </c>
+      <c r="J460" s="6">
+        <v>540470</v>
+      </c>
+      <c r="K460" s="6">
+        <v>-51179.8</v>
+      </c>
+      <c r="L460" s="7">
+        <v>-64588709</v>
+      </c>
+      <c r="M460" s="5">
+        <v>0</v>
+      </c>
+      <c r="N460" s="5">
+        <v>0</v>
+      </c>
+      <c r="O460" s="5">
+        <v>0</v>
+      </c>
+      <c r="P460" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q460" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R460" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S460" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="T460" s="2"/>
-      <c r="U460" s="2"/>
-      <c r="V460" s="2"/>
-      <c r="W460" s="2"/>
-      <c r="X460" s="2"/>
-      <c r="Y460" s="2"/>
-      <c r="Z460" s="2"/>
-      <c r="AA460" s="2"/>
-      <c r="AB460" s="2"/>
-      <c r="AC460" s="2"/>
-      <c r="AD460" s="2"/>
-      <c r="AE460" s="2"/>
-      <c r="AF460" s="2"/>
+      <c r="U460" s="5">
+        <v>0</v>
+      </c>
+      <c r="V460" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W460" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X460" s="7">
+        <v>855998930</v>
+      </c>
+      <c r="Y460" s="6">
+        <v>1464.3</v>
+      </c>
+      <c r="Z460" s="7">
+        <v>791410221</v>
+      </c>
+      <c r="AA460" s="7">
+        <v>-74942581</v>
+      </c>
+      <c r="AB460" s="7">
+        <v>10353872</v>
+      </c>
+      <c r="AC460" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD460" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE460" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF460" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="461" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A461" s="2"/>

--- a/2026_멀티.xlsx
+++ b/2026_멀티.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\다른 컴퓨터\내 Mac\Workspace\Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F75351C-CF67-4184-839F-E10F677949EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04407D0A-BB98-4D6F-A946-019AA0968C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="123">
   <si>
     <t>기준일자</t>
   </si>
@@ -375,6 +375,36 @@
   </si>
   <si>
     <t>미국 필수 소비재 SPDR ETF</t>
+  </si>
+  <si>
+    <t>US25461A4296</t>
+  </si>
+  <si>
+    <t>PLTD</t>
+  </si>
+  <si>
+    <t>팔란티어 데일리 1배 숏 디렉시</t>
+  </si>
+  <si>
+    <t>CNE100006WS8</t>
+  </si>
+  <si>
+    <t>CATL</t>
+  </si>
+  <si>
+    <t>HK2800008867</t>
+  </si>
+  <si>
+    <t>TRACKER FUND OF HONG KONG HKD</t>
+  </si>
+  <si>
+    <t>US18915M1071</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>클라우드플레어</t>
   </si>
 </sst>
 </file>
@@ -754,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="B431" sqref="B431"/>
+    <sheetView tabSelected="1" topLeftCell="A503" workbookViewId="0">
+      <selection activeCell="H517" sqref="H517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -43893,1976 +43923,5442 @@
       </c>
     </row>
     <row r="461" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A461" s="2"/>
-      <c r="B461" s="2"/>
+      <c r="A461" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C461" s="2"/>
-      <c r="D461" s="2"/>
-      <c r="E461" s="2"/>
-      <c r="F461" s="2"/>
-      <c r="G461" s="2"/>
-      <c r="H461" s="2"/>
-      <c r="I461" s="2"/>
-      <c r="J461" s="2"/>
-      <c r="K461" s="2"/>
-      <c r="L461" s="2"/>
-      <c r="M461" s="2"/>
-      <c r="N461" s="2"/>
-      <c r="O461" s="2"/>
-      <c r="P461" s="2"/>
-      <c r="Q461" s="2"/>
-      <c r="R461" s="2"/>
-      <c r="S461" s="2"/>
+      <c r="D461" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E461" s="5">
+        <v>0</v>
+      </c>
+      <c r="F461" s="6">
+        <v>38000</v>
+      </c>
+      <c r="G461" s="5">
+        <v>12.58</v>
+      </c>
+      <c r="H461" s="6">
+        <v>478066.6</v>
+      </c>
+      <c r="I461" s="5">
+        <v>11.95</v>
+      </c>
+      <c r="J461" s="6">
+        <v>454100</v>
+      </c>
+      <c r="K461" s="6">
+        <v>-23966.6</v>
+      </c>
+      <c r="L461" s="7">
+        <v>-40051425</v>
+      </c>
+      <c r="M461" s="5">
+        <v>0</v>
+      </c>
+      <c r="N461" s="5">
+        <v>0</v>
+      </c>
+      <c r="O461" s="5">
+        <v>0</v>
+      </c>
+      <c r="P461" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q461" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R461" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S461" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="T461" s="2"/>
-      <c r="U461" s="2"/>
-      <c r="V461" s="2"/>
-      <c r="W461" s="2"/>
-      <c r="X461" s="2"/>
-      <c r="Y461" s="2"/>
-      <c r="Z461" s="2"/>
-      <c r="AA461" s="2"/>
-      <c r="AB461" s="2"/>
-      <c r="AC461" s="2"/>
-      <c r="AD461" s="2"/>
-      <c r="AE461" s="2"/>
-      <c r="AF461" s="2"/>
+      <c r="U461" s="5">
+        <v>0</v>
+      </c>
+      <c r="V461" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W461" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X461" s="7">
+        <v>701992995</v>
+      </c>
+      <c r="Y461" s="6">
+        <v>1457.7</v>
+      </c>
+      <c r="Z461" s="7">
+        <v>661941570</v>
+      </c>
+      <c r="AA461" s="7">
+        <v>-34936112</v>
+      </c>
+      <c r="AB461" s="7">
+        <v>-5115313</v>
+      </c>
+      <c r="AC461" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD461" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE461" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF461" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="462" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A462" s="2"/>
-      <c r="B462" s="2"/>
+      <c r="A462" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C462" s="2"/>
-      <c r="D462" s="2"/>
-      <c r="E462" s="2"/>
-      <c r="F462" s="2"/>
-      <c r="G462" s="2"/>
-      <c r="H462" s="2"/>
-      <c r="I462" s="2"/>
-      <c r="J462" s="2"/>
-      <c r="K462" s="2"/>
-      <c r="L462" s="2"/>
-      <c r="M462" s="2"/>
-      <c r="N462" s="2"/>
-      <c r="O462" s="2"/>
-      <c r="P462" s="2"/>
-      <c r="Q462" s="2"/>
-      <c r="R462" s="2"/>
-      <c r="S462" s="2"/>
+      <c r="D462" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E462" s="5">
+        <v>0</v>
+      </c>
+      <c r="F462" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G462" s="5">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H462" s="6">
+        <v>482030</v>
+      </c>
+      <c r="I462" s="5">
+        <v>59.47</v>
+      </c>
+      <c r="J462" s="6">
+        <v>594700</v>
+      </c>
+      <c r="K462" s="6">
+        <v>112670</v>
+      </c>
+      <c r="L462" s="7">
+        <v>165203119</v>
+      </c>
+      <c r="M462" s="5">
+        <v>0</v>
+      </c>
+      <c r="N462" s="5">
+        <v>0</v>
+      </c>
+      <c r="O462" s="5">
+        <v>0</v>
+      </c>
+      <c r="P462" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q462" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R462" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S462" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="T462" s="2"/>
-      <c r="U462" s="2"/>
-      <c r="V462" s="2"/>
-      <c r="W462" s="2"/>
-      <c r="X462" s="2"/>
-      <c r="Y462" s="2"/>
-      <c r="Z462" s="2"/>
-      <c r="AA462" s="2"/>
-      <c r="AB462" s="2"/>
-      <c r="AC462" s="2"/>
-      <c r="AD462" s="2"/>
-      <c r="AE462" s="2"/>
-      <c r="AF462" s="2"/>
-    </row>
-    <row r="463" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A463" s="2"/>
-      <c r="B463" s="2"/>
+      <c r="U462" s="5">
+        <v>0</v>
+      </c>
+      <c r="V462" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W462" s="6">
+        <v>1455.7</v>
+      </c>
+      <c r="X462" s="7">
+        <v>701691071</v>
+      </c>
+      <c r="Y462" s="6">
+        <v>1457.7</v>
+      </c>
+      <c r="Z462" s="7">
+        <v>866894190</v>
+      </c>
+      <c r="AA462" s="7">
+        <v>164239059</v>
+      </c>
+      <c r="AB462" s="7">
+        <v>964060</v>
+      </c>
+      <c r="AC462" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD462" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE462" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF462" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A463" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C463" s="2"/>
-      <c r="D463" s="2"/>
-      <c r="E463" s="2"/>
-      <c r="F463" s="2"/>
-      <c r="G463" s="2"/>
-      <c r="H463" s="2"/>
+      <c r="D463" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E463" s="5">
+        <v>0</v>
+      </c>
+      <c r="F463" s="5">
+        <v>0</v>
+      </c>
+      <c r="G463" s="5">
+        <v>0</v>
+      </c>
+      <c r="H463" s="5">
+        <v>0</v>
+      </c>
       <c r="I463" s="2"/>
-      <c r="J463" s="2"/>
-      <c r="K463" s="2"/>
-      <c r="L463" s="2"/>
-      <c r="M463" s="2"/>
-      <c r="N463" s="2"/>
-      <c r="O463" s="2"/>
-      <c r="P463" s="2"/>
-      <c r="Q463" s="2"/>
-      <c r="R463" s="2"/>
-      <c r="S463" s="2"/>
+      <c r="J463" s="5">
+        <v>0</v>
+      </c>
+      <c r="K463" s="5">
+        <v>0</v>
+      </c>
+      <c r="L463" s="5">
+        <v>0</v>
+      </c>
+      <c r="M463" s="5">
+        <v>0</v>
+      </c>
+      <c r="N463" s="6">
+        <v>-57372.9</v>
+      </c>
+      <c r="O463" s="5">
+        <v>0</v>
+      </c>
+      <c r="P463" s="6">
+        <v>57372.9</v>
+      </c>
+      <c r="Q463" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R463" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S463" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="T463" s="2"/>
-      <c r="U463" s="2"/>
-      <c r="V463" s="2"/>
-      <c r="W463" s="2"/>
-      <c r="X463" s="2"/>
-      <c r="Y463" s="2"/>
-      <c r="Z463" s="2"/>
-      <c r="AA463" s="2"/>
-      <c r="AB463" s="2"/>
-      <c r="AC463" s="2"/>
-      <c r="AD463" s="2"/>
-      <c r="AE463" s="2"/>
-      <c r="AF463" s="2"/>
+      <c r="U463" s="5">
+        <v>0</v>
+      </c>
+      <c r="V463" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W463" s="5">
+        <v>0</v>
+      </c>
+      <c r="X463" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y463" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z463" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA463" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB463" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC463" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD463" s="7">
+        <v>-70979771</v>
+      </c>
+      <c r="AE463" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF463" s="7">
+        <v>70979771</v>
+      </c>
     </row>
     <row r="464" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A464" s="2"/>
-      <c r="B464" s="2"/>
+      <c r="A464" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C464" s="2"/>
-      <c r="D464" s="2"/>
-      <c r="E464" s="2"/>
-      <c r="F464" s="2"/>
-      <c r="G464" s="2"/>
-      <c r="H464" s="2"/>
+      <c r="D464" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E464" s="5">
+        <v>0</v>
+      </c>
+      <c r="F464" s="5">
+        <v>0</v>
+      </c>
+      <c r="G464" s="5">
+        <v>0</v>
+      </c>
+      <c r="H464" s="5">
+        <v>0</v>
+      </c>
       <c r="I464" s="2"/>
-      <c r="J464" s="2"/>
-      <c r="K464" s="2"/>
-      <c r="L464" s="2"/>
-      <c r="M464" s="2"/>
-      <c r="N464" s="2"/>
-      <c r="O464" s="2"/>
-      <c r="P464" s="2"/>
-      <c r="Q464" s="2"/>
-      <c r="R464" s="2"/>
-      <c r="S464" s="2"/>
+      <c r="J464" s="5">
+        <v>0</v>
+      </c>
+      <c r="K464" s="5">
+        <v>0</v>
+      </c>
+      <c r="L464" s="5">
+        <v>0</v>
+      </c>
+      <c r="M464" s="5">
+        <v>0</v>
+      </c>
+      <c r="N464" s="6">
+        <v>-136827</v>
+      </c>
+      <c r="O464" s="5">
+        <v>0</v>
+      </c>
+      <c r="P464" s="6">
+        <v>136827</v>
+      </c>
+      <c r="Q464" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R464" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S464" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="T464" s="2"/>
-      <c r="U464" s="2"/>
-      <c r="V464" s="2"/>
-      <c r="W464" s="2"/>
-      <c r="X464" s="2"/>
-      <c r="Y464" s="2"/>
-      <c r="Z464" s="2"/>
-      <c r="AA464" s="2"/>
-      <c r="AB464" s="2"/>
-      <c r="AC464" s="2"/>
-      <c r="AD464" s="2"/>
-      <c r="AE464" s="2"/>
-      <c r="AF464" s="2"/>
+      <c r="U464" s="5">
+        <v>0</v>
+      </c>
+      <c r="V464" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W464" s="5">
+        <v>0</v>
+      </c>
+      <c r="X464" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y464" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z464" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA464" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB464" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC464" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD464" s="7">
+        <v>-187208997</v>
+      </c>
+      <c r="AE464" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF464" s="7">
+        <v>187208997</v>
+      </c>
     </row>
     <row r="465" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A465" s="2"/>
-      <c r="B465" s="2"/>
+      <c r="A465" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C465" s="2"/>
-      <c r="D465" s="2"/>
-      <c r="E465" s="2"/>
-      <c r="F465" s="2"/>
-      <c r="G465" s="2"/>
-      <c r="H465" s="2"/>
-      <c r="I465" s="2"/>
-      <c r="J465" s="2"/>
-      <c r="K465" s="2"/>
-      <c r="L465" s="2"/>
-      <c r="M465" s="2"/>
-      <c r="N465" s="2"/>
-      <c r="O465" s="2"/>
-      <c r="P465" s="2"/>
-      <c r="Q465" s="2"/>
-      <c r="R465" s="2"/>
-      <c r="S465" s="2"/>
+      <c r="D465" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E465" s="5">
+        <v>0</v>
+      </c>
+      <c r="F465" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G465" s="5">
+        <v>34.24</v>
+      </c>
+      <c r="H465" s="6">
+        <v>684800</v>
+      </c>
+      <c r="I465" s="5">
+        <v>35.11</v>
+      </c>
+      <c r="J465" s="6">
+        <v>702200</v>
+      </c>
+      <c r="K465" s="6">
+        <v>17400</v>
+      </c>
+      <c r="L465" s="7">
+        <v>12147340</v>
+      </c>
+      <c r="M465" s="5">
+        <v>0</v>
+      </c>
+      <c r="N465" s="5">
+        <v>0</v>
+      </c>
+      <c r="O465" s="5">
+        <v>0</v>
+      </c>
+      <c r="P465" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q465" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R465" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S465" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="T465" s="2"/>
-      <c r="U465" s="2"/>
-      <c r="V465" s="2"/>
-      <c r="W465" s="2"/>
-      <c r="X465" s="2"/>
-      <c r="Y465" s="2"/>
-      <c r="Z465" s="2"/>
-      <c r="AA465" s="2"/>
-      <c r="AB465" s="2"/>
-      <c r="AC465" s="2"/>
-      <c r="AD465" s="2"/>
-      <c r="AE465" s="2"/>
-      <c r="AF465" s="2"/>
+      <c r="U465" s="5">
+        <v>0</v>
+      </c>
+      <c r="V465" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W465" s="6">
+        <v>1477</v>
+      </c>
+      <c r="X465" s="7">
+        <v>1011449600</v>
+      </c>
+      <c r="Y465" s="6">
+        <v>1457.7</v>
+      </c>
+      <c r="Z465" s="7">
+        <v>1023596940</v>
+      </c>
+      <c r="AA465" s="7">
+        <v>25363980</v>
+      </c>
+      <c r="AB465" s="7">
+        <v>-13216640</v>
+      </c>
+      <c r="AC465" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD465" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE465" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF465" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="466" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A466" s="2"/>
-      <c r="B466" s="2"/>
+      <c r="A466" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C466" s="2"/>
-      <c r="D466" s="2"/>
-      <c r="E466" s="2"/>
-      <c r="F466" s="2"/>
-      <c r="G466" s="2"/>
-      <c r="H466" s="2"/>
-      <c r="I466" s="2"/>
-      <c r="J466" s="2"/>
-      <c r="K466" s="2"/>
-      <c r="L466" s="2"/>
-      <c r="M466" s="2"/>
-      <c r="N466" s="2"/>
-      <c r="O466" s="2"/>
-      <c r="P466" s="2"/>
-      <c r="Q466" s="2"/>
-      <c r="R466" s="2"/>
-      <c r="S466" s="2"/>
+      <c r="D466" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E466" s="5">
+        <v>0</v>
+      </c>
+      <c r="F466" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G466" s="5">
+        <v>251.01</v>
+      </c>
+      <c r="H466" s="6">
+        <v>1255051.8</v>
+      </c>
+      <c r="I466" s="5">
+        <v>275.5</v>
+      </c>
+      <c r="J466" s="6">
+        <v>1377500</v>
+      </c>
+      <c r="K466" s="6">
+        <v>122448.2</v>
+      </c>
+      <c r="L466" s="7">
+        <v>168711513</v>
+      </c>
+      <c r="M466" s="5">
+        <v>0</v>
+      </c>
+      <c r="N466" s="5">
+        <v>0</v>
+      </c>
+      <c r="O466" s="5">
+        <v>0</v>
+      </c>
+      <c r="P466" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q466" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R466" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S466" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T466" s="2"/>
-      <c r="U466" s="2"/>
-      <c r="V466" s="2"/>
-      <c r="W466" s="2"/>
-      <c r="X466" s="2"/>
-      <c r="Y466" s="2"/>
-      <c r="Z466" s="2"/>
-      <c r="AA466" s="2"/>
-      <c r="AB466" s="2"/>
-      <c r="AC466" s="2"/>
-      <c r="AD466" s="2"/>
-      <c r="AE466" s="2"/>
-      <c r="AF466" s="2"/>
+      <c r="U466" s="5">
+        <v>0</v>
+      </c>
+      <c r="V466" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W466" s="6">
+        <v>1465.49</v>
+      </c>
+      <c r="X466" s="7">
+        <v>1839270237</v>
+      </c>
+      <c r="Y466" s="6">
+        <v>1457.7</v>
+      </c>
+      <c r="Z466" s="7">
+        <v>2007981750</v>
+      </c>
+      <c r="AA466" s="7">
+        <v>178492741</v>
+      </c>
+      <c r="AB466" s="7">
+        <v>-9781229</v>
+      </c>
+      <c r="AC466" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD466" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE466" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF466" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="467" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A467" s="2"/>
-      <c r="B467" s="2"/>
+      <c r="A467" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="C467" s="2"/>
-      <c r="D467" s="2"/>
-      <c r="E467" s="2"/>
-      <c r="F467" s="2"/>
-      <c r="G467" s="2"/>
-      <c r="H467" s="2"/>
-      <c r="I467" s="2"/>
-      <c r="J467" s="2"/>
-      <c r="K467" s="2"/>
-      <c r="L467" s="2"/>
-      <c r="M467" s="2"/>
-      <c r="N467" s="2"/>
-      <c r="O467" s="2"/>
-      <c r="P467" s="2"/>
-      <c r="Q467" s="2"/>
-      <c r="R467" s="2"/>
-      <c r="S467" s="2"/>
+      <c r="D467" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E467" s="5">
+        <v>0</v>
+      </c>
+      <c r="F467" s="6">
+        <v>35000</v>
+      </c>
+      <c r="G467" s="5">
+        <v>8.0350000000000001</v>
+      </c>
+      <c r="H467" s="6">
+        <v>281256.5</v>
+      </c>
+      <c r="I467" s="5">
+        <v>8.35</v>
+      </c>
+      <c r="J467" s="6">
+        <v>292250</v>
+      </c>
+      <c r="K467" s="6">
+        <v>10993.5</v>
+      </c>
+      <c r="L467" s="7">
+        <v>14168933</v>
+      </c>
+      <c r="M467" s="5">
+        <v>0</v>
+      </c>
+      <c r="N467" s="5">
+        <v>0</v>
+      </c>
+      <c r="O467" s="5">
+        <v>0</v>
+      </c>
+      <c r="P467" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q467" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R467" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S467" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="T467" s="2"/>
-      <c r="U467" s="2"/>
-      <c r="V467" s="2"/>
-      <c r="W467" s="2"/>
-      <c r="X467" s="2"/>
-      <c r="Y467" s="2"/>
-      <c r="Z467" s="2"/>
-      <c r="AA467" s="2"/>
-      <c r="AB467" s="2"/>
-      <c r="AC467" s="2"/>
-      <c r="AD467" s="2"/>
-      <c r="AE467" s="2"/>
-      <c r="AF467" s="2"/>
+      <c r="U467" s="5">
+        <v>0</v>
+      </c>
+      <c r="V467" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W467" s="6">
+        <v>1464.29</v>
+      </c>
+      <c r="X467" s="7">
+        <v>411843892</v>
+      </c>
+      <c r="Y467" s="6">
+        <v>1457.7</v>
+      </c>
+      <c r="Z467" s="7">
+        <v>426012825</v>
+      </c>
+      <c r="AA467" s="7">
+        <v>16025224</v>
+      </c>
+      <c r="AB467" s="7">
+        <v>-1856292</v>
+      </c>
+      <c r="AC467" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD467" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE467" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF467" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="468" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A468" s="2"/>
-      <c r="B468" s="2"/>
+      <c r="A468" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="C468" s="2"/>
-      <c r="D468" s="2"/>
-      <c r="E468" s="2"/>
-      <c r="F468" s="2"/>
-      <c r="G468" s="2"/>
-      <c r="H468" s="2"/>
+      <c r="D468" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E468" s="5">
+        <v>0</v>
+      </c>
+      <c r="F468" s="5">
+        <v>0</v>
+      </c>
+      <c r="G468" s="5">
+        <v>0</v>
+      </c>
+      <c r="H468" s="5">
+        <v>0</v>
+      </c>
       <c r="I468" s="2"/>
-      <c r="J468" s="2"/>
-      <c r="K468" s="2"/>
-      <c r="L468" s="2"/>
-      <c r="M468" s="2"/>
-      <c r="N468" s="2"/>
-      <c r="O468" s="2"/>
-      <c r="P468" s="2"/>
-      <c r="Q468" s="2"/>
-      <c r="R468" s="2"/>
-      <c r="S468" s="2"/>
+      <c r="J468" s="5">
+        <v>0</v>
+      </c>
+      <c r="K468" s="5">
+        <v>0</v>
+      </c>
+      <c r="L468" s="5">
+        <v>0</v>
+      </c>
+      <c r="M468" s="5">
+        <v>0</v>
+      </c>
+      <c r="N468" s="6">
+        <v>-276165.90000000002</v>
+      </c>
+      <c r="O468" s="5">
+        <v>0</v>
+      </c>
+      <c r="P468" s="6">
+        <v>276165.90000000002</v>
+      </c>
+      <c r="Q468" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R468" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S468" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="T468" s="2"/>
-      <c r="U468" s="2"/>
-      <c r="V468" s="2"/>
-      <c r="W468" s="2"/>
-      <c r="X468" s="2"/>
-      <c r="Y468" s="2"/>
-      <c r="Z468" s="2"/>
-      <c r="AA468" s="2"/>
-      <c r="AB468" s="2"/>
-      <c r="AC468" s="2"/>
-      <c r="AD468" s="2"/>
-      <c r="AE468" s="2"/>
-      <c r="AF468" s="2"/>
+      <c r="U468" s="5">
+        <v>0</v>
+      </c>
+      <c r="V468" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W468" s="5">
+        <v>0</v>
+      </c>
+      <c r="X468" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y468" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z468" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA468" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB468" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC468" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD468" s="7">
+        <v>-413294425</v>
+      </c>
+      <c r="AE468" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF468" s="7">
+        <v>413294425</v>
+      </c>
     </row>
     <row r="469" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A469" s="2"/>
-      <c r="B469" s="2"/>
+      <c r="A469" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C469" s="2"/>
-      <c r="D469" s="2"/>
-      <c r="E469" s="2"/>
-      <c r="F469" s="2"/>
-      <c r="G469" s="2"/>
-      <c r="H469" s="2"/>
-      <c r="I469" s="2"/>
-      <c r="J469" s="2"/>
-      <c r="K469" s="2"/>
-      <c r="L469" s="2"/>
-      <c r="M469" s="2"/>
-      <c r="N469" s="2"/>
-      <c r="O469" s="2"/>
-      <c r="P469" s="2"/>
-      <c r="Q469" s="2"/>
-      <c r="R469" s="2"/>
-      <c r="S469" s="2"/>
+      <c r="D469" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E469" s="5">
+        <v>0</v>
+      </c>
+      <c r="F469" s="6">
+        <v>5500</v>
+      </c>
+      <c r="G469" s="5">
+        <v>191.75399999999999</v>
+      </c>
+      <c r="H469" s="6">
+        <v>1054647.55</v>
+      </c>
+      <c r="I469" s="5">
+        <v>190.05</v>
+      </c>
+      <c r="J469" s="6">
+        <v>1045275</v>
+      </c>
+      <c r="K469" s="6">
+        <v>-9372.5499999999993</v>
+      </c>
+      <c r="L469" s="7">
+        <v>18715314</v>
+      </c>
+      <c r="M469" s="5">
+        <v>0</v>
+      </c>
+      <c r="N469" s="5">
+        <v>0</v>
+      </c>
+      <c r="O469" s="5">
+        <v>0</v>
+      </c>
+      <c r="P469" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q469" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R469" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S469" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="T469" s="2"/>
-      <c r="U469" s="2"/>
-      <c r="V469" s="2"/>
-      <c r="W469" s="2"/>
-      <c r="X469" s="2"/>
-      <c r="Y469" s="2"/>
-      <c r="Z469" s="2"/>
-      <c r="AA469" s="2"/>
-      <c r="AB469" s="2"/>
-      <c r="AC469" s="2"/>
-      <c r="AD469" s="2"/>
-      <c r="AE469" s="2"/>
-      <c r="AF469" s="2"/>
+      <c r="U469" s="5">
+        <v>0</v>
+      </c>
+      <c r="V469" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W469" s="6">
+        <v>1426.99</v>
+      </c>
+      <c r="X469" s="7">
+        <v>1504982053</v>
+      </c>
+      <c r="Y469" s="6">
+        <v>1457.7</v>
+      </c>
+      <c r="Z469" s="7">
+        <v>1523697367</v>
+      </c>
+      <c r="AA469" s="7">
+        <v>-13662366</v>
+      </c>
+      <c r="AB469" s="7">
+        <v>32377680</v>
+      </c>
+      <c r="AC469" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD469" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE469" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF469" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="470" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A470" s="2"/>
-      <c r="B470" s="2"/>
+      <c r="A470" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="C470" s="2"/>
-      <c r="D470" s="2"/>
-      <c r="E470" s="2"/>
-      <c r="F470" s="2"/>
-      <c r="G470" s="2"/>
-      <c r="H470" s="2"/>
-      <c r="I470" s="2"/>
-      <c r="J470" s="2"/>
-      <c r="K470" s="2"/>
-      <c r="L470" s="2"/>
-      <c r="M470" s="2"/>
-      <c r="N470" s="2"/>
-      <c r="O470" s="2"/>
-      <c r="P470" s="2"/>
-      <c r="Q470" s="2"/>
-      <c r="R470" s="2"/>
-      <c r="S470" s="2"/>
+      <c r="D470" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E470" s="5">
+        <v>0</v>
+      </c>
+      <c r="F470" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G470" s="5">
+        <v>45.33</v>
+      </c>
+      <c r="H470" s="6">
+        <v>906615</v>
+      </c>
+      <c r="I470" s="5">
+        <v>47.24</v>
+      </c>
+      <c r="J470" s="6">
+        <v>944800</v>
+      </c>
+      <c r="K470" s="6">
+        <v>38185</v>
+      </c>
+      <c r="L470" s="7">
+        <v>45077949</v>
+      </c>
+      <c r="M470" s="5">
+        <v>0</v>
+      </c>
+      <c r="N470" s="5">
+        <v>0</v>
+      </c>
+      <c r="O470" s="5">
+        <v>0</v>
+      </c>
+      <c r="P470" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q470" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R470" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S470" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="T470" s="2"/>
-      <c r="U470" s="2"/>
-      <c r="V470" s="2"/>
-      <c r="W470" s="2"/>
-      <c r="X470" s="2"/>
-      <c r="Y470" s="2"/>
-      <c r="Z470" s="2"/>
-      <c r="AA470" s="2"/>
-      <c r="AB470" s="2"/>
-      <c r="AC470" s="2"/>
-      <c r="AD470" s="2"/>
-      <c r="AE470" s="2"/>
-      <c r="AF470" s="2"/>
+      <c r="U470" s="5">
+        <v>0</v>
+      </c>
+      <c r="V470" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W470" s="6">
+        <v>1469.37</v>
+      </c>
+      <c r="X470" s="7">
+        <v>1332157011</v>
+      </c>
+      <c r="Y470" s="6">
+        <v>1457.7</v>
+      </c>
+      <c r="Z470" s="7">
+        <v>1377234960</v>
+      </c>
+      <c r="AA470" s="7">
+        <v>55662274</v>
+      </c>
+      <c r="AB470" s="7">
+        <v>-10584326</v>
+      </c>
+      <c r="AC470" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD470" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE470" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF470" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="471" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A471" s="2"/>
-      <c r="B471" s="2"/>
+      <c r="A471" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C471" s="2"/>
-      <c r="D471" s="2"/>
-      <c r="E471" s="2"/>
-      <c r="F471" s="2"/>
-      <c r="G471" s="2"/>
-      <c r="H471" s="2"/>
-      <c r="I471" s="2"/>
-      <c r="J471" s="2"/>
-      <c r="K471" s="2"/>
-      <c r="L471" s="2"/>
-      <c r="M471" s="2"/>
-      <c r="N471" s="2"/>
-      <c r="O471" s="2"/>
-      <c r="P471" s="2"/>
-      <c r="Q471" s="2"/>
-      <c r="R471" s="2"/>
-      <c r="S471" s="2"/>
+      <c r="D471" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E471" s="5">
+        <v>0</v>
+      </c>
+      <c r="F471" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G471" s="5">
+        <v>681.92</v>
+      </c>
+      <c r="H471" s="6">
+        <v>681920</v>
+      </c>
+      <c r="I471" s="5">
+        <v>691.96</v>
+      </c>
+      <c r="J471" s="6">
+        <v>691960</v>
+      </c>
+      <c r="K471" s="6">
+        <v>10040</v>
+      </c>
+      <c r="L471" s="7">
+        <v>30183084</v>
+      </c>
+      <c r="M471" s="5">
+        <v>0</v>
+      </c>
+      <c r="N471" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="O471" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="P471" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q471" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R471" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S471" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T471" s="2"/>
-      <c r="U471" s="2"/>
-      <c r="V471" s="2"/>
-      <c r="W471" s="2"/>
-      <c r="X471" s="2"/>
-      <c r="Y471" s="2"/>
-      <c r="Z471" s="2"/>
-      <c r="AA471" s="2"/>
-      <c r="AB471" s="2"/>
-      <c r="AC471" s="2"/>
-      <c r="AD471" s="2"/>
-      <c r="AE471" s="2"/>
-      <c r="AF471" s="2"/>
+      <c r="U471" s="5">
+        <v>0</v>
+      </c>
+      <c r="V471" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W471" s="6">
+        <v>1434.9</v>
+      </c>
+      <c r="X471" s="7">
+        <v>978487008</v>
+      </c>
+      <c r="Y471" s="6">
+        <v>1457.7</v>
+      </c>
+      <c r="Z471" s="7">
+        <v>1008670092</v>
+      </c>
+      <c r="AA471" s="7">
+        <v>14635308</v>
+      </c>
+      <c r="AB471" s="7">
+        <v>15547776</v>
+      </c>
+      <c r="AC471" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD471" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AE471" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AF471" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="472" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A472" s="2"/>
-      <c r="B472" s="2"/>
+      <c r="A472" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C472" s="2"/>
-      <c r="D472" s="2"/>
-      <c r="E472" s="2"/>
-      <c r="F472" s="2"/>
-      <c r="G472" s="2"/>
-      <c r="H472" s="2"/>
-      <c r="I472" s="2"/>
-      <c r="J472" s="2"/>
-      <c r="K472" s="2"/>
-      <c r="L472" s="2"/>
-      <c r="M472" s="2"/>
-      <c r="N472" s="2"/>
-      <c r="O472" s="2"/>
-      <c r="P472" s="2"/>
-      <c r="Q472" s="2"/>
-      <c r="R472" s="2"/>
-      <c r="S472" s="2"/>
+      <c r="D472" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E472" s="5">
+        <v>0</v>
+      </c>
+      <c r="F472" s="6">
+        <v>3200</v>
+      </c>
+      <c r="G472" s="5">
+        <v>396.31</v>
+      </c>
+      <c r="H472" s="6">
+        <v>1268192</v>
+      </c>
+      <c r="I472" s="5">
+        <v>467.63</v>
+      </c>
+      <c r="J472" s="6">
+        <v>1496416</v>
+      </c>
+      <c r="K472" s="6">
+        <v>228224</v>
+      </c>
+      <c r="L472" s="7">
+        <v>361596903</v>
+      </c>
+      <c r="M472" s="5">
+        <v>0</v>
+      </c>
+      <c r="N472" s="6">
+        <v>68472.5</v>
+      </c>
+      <c r="O472" s="6">
+        <v>68472.5</v>
+      </c>
+      <c r="P472" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q472" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R472" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S472" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="T472" s="2"/>
-      <c r="U472" s="2"/>
-      <c r="V472" s="2"/>
-      <c r="W472" s="2"/>
-      <c r="X472" s="2"/>
-      <c r="Y472" s="2"/>
-      <c r="Z472" s="2"/>
-      <c r="AA472" s="2"/>
-      <c r="AB472" s="2"/>
-      <c r="AC472" s="2"/>
-      <c r="AD472" s="2"/>
-      <c r="AE472" s="2"/>
-      <c r="AF472" s="2"/>
+      <c r="U472" s="5">
+        <v>0</v>
+      </c>
+      <c r="V472" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W472" s="6">
+        <v>1434.89</v>
+      </c>
+      <c r="X472" s="7">
+        <v>1819728700</v>
+      </c>
+      <c r="Y472" s="6">
+        <v>1457.7</v>
+      </c>
+      <c r="Z472" s="7">
+        <v>2181325603</v>
+      </c>
+      <c r="AA472" s="7">
+        <v>332682124</v>
+      </c>
+      <c r="AB472" s="7">
+        <v>28914778</v>
+      </c>
+      <c r="AC472" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD472" s="7">
+        <v>114704490</v>
+      </c>
+      <c r="AE472" s="7">
+        <v>114704490</v>
+      </c>
+      <c r="AF472" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="473" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A473" s="2"/>
-      <c r="B473" s="2"/>
+      <c r="A473" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="C473" s="2"/>
-      <c r="D473" s="2"/>
-      <c r="E473" s="2"/>
-      <c r="F473" s="2"/>
-      <c r="G473" s="2"/>
-      <c r="H473" s="2"/>
-      <c r="I473" s="2"/>
-      <c r="J473" s="2"/>
-      <c r="K473" s="2"/>
-      <c r="L473" s="2"/>
-      <c r="M473" s="2"/>
-      <c r="N473" s="2"/>
-      <c r="O473" s="2"/>
-      <c r="P473" s="2"/>
-      <c r="Q473" s="2"/>
-      <c r="R473" s="2"/>
-      <c r="S473" s="2"/>
+      <c r="D473" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E473" s="5">
+        <v>0</v>
+      </c>
+      <c r="F473" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G473" s="5">
+        <v>87.436000000000007</v>
+      </c>
+      <c r="H473" s="6">
+        <v>437184.5</v>
+      </c>
+      <c r="I473" s="5">
+        <v>88.4</v>
+      </c>
+      <c r="J473" s="6">
+        <v>442000</v>
+      </c>
+      <c r="K473" s="6">
+        <v>4815.5</v>
+      </c>
+      <c r="L473" s="7">
+        <v>1511030</v>
+      </c>
+      <c r="M473" s="5">
+        <v>0</v>
+      </c>
+      <c r="N473" s="5">
+        <v>0</v>
+      </c>
+      <c r="O473" s="5">
+        <v>0</v>
+      </c>
+      <c r="P473" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q473" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R473" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S473" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="T473" s="2"/>
-      <c r="U473" s="2"/>
-      <c r="V473" s="2"/>
-      <c r="W473" s="2"/>
-      <c r="X473" s="2"/>
-      <c r="Y473" s="2"/>
-      <c r="Z473" s="2"/>
-      <c r="AA473" s="2"/>
-      <c r="AB473" s="2"/>
-      <c r="AC473" s="2"/>
-      <c r="AD473" s="2"/>
-      <c r="AE473" s="2"/>
-      <c r="AF473" s="2"/>
+      <c r="U473" s="5">
+        <v>0</v>
+      </c>
+      <c r="V473" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W473" s="6">
+        <v>1470.29</v>
+      </c>
+      <c r="X473" s="7">
+        <v>642792370</v>
+      </c>
+      <c r="Y473" s="6">
+        <v>1457.7</v>
+      </c>
+      <c r="Z473" s="7">
+        <v>644303400</v>
+      </c>
+      <c r="AA473" s="7">
+        <v>7019554</v>
+      </c>
+      <c r="AB473" s="7">
+        <v>-5508525</v>
+      </c>
+      <c r="AC473" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD473" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE473" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF473" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="474" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A474" s="2"/>
-      <c r="B474" s="2"/>
+      <c r="A474" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C474" s="2"/>
-      <c r="D474" s="2"/>
-      <c r="E474" s="2"/>
-      <c r="F474" s="2"/>
-      <c r="G474" s="2"/>
-      <c r="H474" s="2"/>
-      <c r="I474" s="2"/>
-      <c r="J474" s="2"/>
-      <c r="K474" s="2"/>
-      <c r="L474" s="2"/>
-      <c r="M474" s="2"/>
-      <c r="N474" s="2"/>
-      <c r="O474" s="2"/>
-      <c r="P474" s="2"/>
-      <c r="Q474" s="2"/>
-      <c r="R474" s="2"/>
-      <c r="S474" s="2"/>
+      <c r="D474" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E474" s="5">
+        <v>0</v>
+      </c>
+      <c r="F474" s="6">
+        <v>24000</v>
+      </c>
+      <c r="G474" s="5">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H474" s="6">
+        <v>423736.8</v>
+      </c>
+      <c r="I474" s="5">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="J474" s="6">
+        <v>406560</v>
+      </c>
+      <c r="K474" s="6">
+        <v>-17176.8</v>
+      </c>
+      <c r="L474" s="7">
+        <v>-27750536</v>
+      </c>
+      <c r="M474" s="5">
+        <v>0</v>
+      </c>
+      <c r="N474" s="5">
+        <v>0</v>
+      </c>
+      <c r="O474" s="5">
+        <v>0</v>
+      </c>
+      <c r="P474" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q474" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R474" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S474" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="T474" s="2"/>
-      <c r="U474" s="2"/>
-      <c r="V474" s="2"/>
-      <c r="W474" s="2"/>
-      <c r="X474" s="2"/>
-      <c r="Y474" s="2"/>
-      <c r="Z474" s="2"/>
-      <c r="AA474" s="2"/>
-      <c r="AB474" s="2"/>
-      <c r="AC474" s="2"/>
-      <c r="AD474" s="2"/>
-      <c r="AE474" s="2"/>
-      <c r="AF474" s="2"/>
+      <c r="U474" s="5">
+        <v>0</v>
+      </c>
+      <c r="V474" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W474" s="6">
+        <v>1464.09</v>
+      </c>
+      <c r="X474" s="7">
+        <v>620393048</v>
+      </c>
+      <c r="Y474" s="6">
+        <v>1457.7</v>
+      </c>
+      <c r="Z474" s="7">
+        <v>592642512</v>
+      </c>
+      <c r="AA474" s="7">
+        <v>-25038621</v>
+      </c>
+      <c r="AB474" s="7">
+        <v>-2711915</v>
+      </c>
+      <c r="AC474" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD474" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE474" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF474" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="475" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A475" s="2"/>
-      <c r="B475" s="2"/>
+      <c r="A475" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="C475" s="2"/>
-      <c r="D475" s="2"/>
-      <c r="E475" s="2"/>
-      <c r="F475" s="2"/>
-      <c r="G475" s="2"/>
-      <c r="H475" s="2"/>
-      <c r="I475" s="2"/>
-      <c r="J475" s="2"/>
-      <c r="K475" s="2"/>
-      <c r="L475" s="2"/>
-      <c r="M475" s="2"/>
-      <c r="N475" s="2"/>
-      <c r="O475" s="2"/>
-      <c r="P475" s="2"/>
-      <c r="Q475" s="2"/>
-      <c r="R475" s="2"/>
-      <c r="S475" s="2"/>
+      <c r="D475" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E475" s="5">
+        <v>0</v>
+      </c>
+      <c r="F475" s="6">
+        <v>1400</v>
+      </c>
+      <c r="G475" s="5">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H475" s="6">
+        <v>605554.04</v>
+      </c>
+      <c r="I475" s="5">
+        <v>428.27</v>
+      </c>
+      <c r="J475" s="6">
+        <v>599578</v>
+      </c>
+      <c r="K475" s="6">
+        <v>-5976.04</v>
+      </c>
+      <c r="L475" s="7">
+        <v>-2110735</v>
+      </c>
+      <c r="M475" s="5">
+        <v>0</v>
+      </c>
+      <c r="N475" s="5">
+        <v>0</v>
+      </c>
+      <c r="O475" s="5">
+        <v>0</v>
+      </c>
+      <c r="P475" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q475" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R475" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S475" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="T475" s="2"/>
-      <c r="U475" s="2"/>
-      <c r="V475" s="2"/>
-      <c r="W475" s="2"/>
-      <c r="X475" s="2"/>
-      <c r="Y475" s="2"/>
-      <c r="Z475" s="2"/>
-      <c r="AA475" s="2"/>
-      <c r="AB475" s="2"/>
-      <c r="AC475" s="2"/>
-      <c r="AD475" s="2"/>
-      <c r="AE475" s="2"/>
-      <c r="AF475" s="2"/>
+      <c r="U475" s="5">
+        <v>0</v>
+      </c>
+      <c r="V475" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W475" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X475" s="7">
+        <v>876115585</v>
+      </c>
+      <c r="Y475" s="6">
+        <v>1457.7</v>
+      </c>
+      <c r="Z475" s="7">
+        <v>874004850</v>
+      </c>
+      <c r="AA475" s="7">
+        <v>-8711273</v>
+      </c>
+      <c r="AB475" s="7">
+        <v>6600539</v>
+      </c>
+      <c r="AC475" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD475" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE475" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF475" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="476" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A476" s="2"/>
-      <c r="B476" s="2"/>
+      <c r="A476" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C476" s="2"/>
-      <c r="D476" s="2"/>
-      <c r="E476" s="2"/>
-      <c r="F476" s="2"/>
-      <c r="G476" s="2"/>
-      <c r="H476" s="2"/>
-      <c r="I476" s="2"/>
-      <c r="J476" s="2"/>
-      <c r="K476" s="2"/>
-      <c r="L476" s="2"/>
-      <c r="M476" s="2"/>
-      <c r="N476" s="2"/>
-      <c r="O476" s="2"/>
-      <c r="P476" s="2"/>
-      <c r="Q476" s="2"/>
-      <c r="R476" s="2"/>
-      <c r="S476" s="2"/>
+      <c r="D476" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E476" s="5">
+        <v>0</v>
+      </c>
+      <c r="F476" s="6">
+        <v>3500</v>
+      </c>
+      <c r="G476" s="5">
+        <v>169.042</v>
+      </c>
+      <c r="H476" s="6">
+        <v>591649.80000000005</v>
+      </c>
+      <c r="I476" s="5">
+        <v>160.15</v>
+      </c>
+      <c r="J476" s="6">
+        <v>560525</v>
+      </c>
+      <c r="K476" s="6">
+        <v>-31124.799999999999</v>
+      </c>
+      <c r="L476" s="7">
+        <v>-38921638</v>
+      </c>
+      <c r="M476" s="5">
+        <v>0</v>
+      </c>
+      <c r="N476" s="5">
+        <v>0</v>
+      </c>
+      <c r="O476" s="5">
+        <v>0</v>
+      </c>
+      <c r="P476" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q476" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R476" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S476" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="T476" s="2"/>
-      <c r="U476" s="2"/>
-      <c r="V476" s="2"/>
-      <c r="W476" s="2"/>
-      <c r="X476" s="2"/>
-      <c r="Y476" s="2"/>
-      <c r="Z476" s="2"/>
-      <c r="AA476" s="2"/>
-      <c r="AB476" s="2"/>
-      <c r="AC476" s="2"/>
-      <c r="AD476" s="2"/>
-      <c r="AE476" s="2"/>
-      <c r="AF476" s="2"/>
-    </row>
-    <row r="477" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A477" s="2"/>
-      <c r="B477" s="2"/>
+      <c r="U476" s="5">
+        <v>0</v>
+      </c>
+      <c r="V476" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W476" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X476" s="7">
+        <v>855998930</v>
+      </c>
+      <c r="Y476" s="6">
+        <v>1457.7</v>
+      </c>
+      <c r="Z476" s="7">
+        <v>817077292</v>
+      </c>
+      <c r="AA476" s="7">
+        <v>-45370620</v>
+      </c>
+      <c r="AB476" s="7">
+        <v>6448983</v>
+      </c>
+      <c r="AC476" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD476" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE476" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF476" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A477" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C477" s="2"/>
-      <c r="D477" s="2"/>
-      <c r="E477" s="2"/>
-      <c r="F477" s="2"/>
-      <c r="G477" s="2"/>
-      <c r="H477" s="2"/>
+      <c r="D477" s="5">
+        <v>6869</v>
+      </c>
+      <c r="E477" s="5">
+        <v>0</v>
+      </c>
+      <c r="F477" s="5">
+        <v>0</v>
+      </c>
+      <c r="G477" s="5">
+        <v>0</v>
+      </c>
+      <c r="H477" s="5">
+        <v>0</v>
+      </c>
       <c r="I477" s="2"/>
-      <c r="J477" s="2"/>
-      <c r="K477" s="2"/>
-      <c r="L477" s="2"/>
-      <c r="M477" s="2"/>
-      <c r="N477" s="2"/>
-      <c r="O477" s="2"/>
-      <c r="P477" s="2"/>
-      <c r="Q477" s="2"/>
-      <c r="R477" s="2"/>
-      <c r="S477" s="2"/>
+      <c r="J477" s="5">
+        <v>0</v>
+      </c>
+      <c r="K477" s="5">
+        <v>0</v>
+      </c>
+      <c r="L477" s="5">
+        <v>0</v>
+      </c>
+      <c r="M477" s="5">
+        <v>0</v>
+      </c>
+      <c r="N477" s="6">
+        <v>349976</v>
+      </c>
+      <c r="O477" s="6">
+        <v>349976</v>
+      </c>
+      <c r="P477" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q477" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R477" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S477" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="T477" s="2"/>
-      <c r="U477" s="2"/>
-      <c r="V477" s="2"/>
-      <c r="W477" s="2"/>
-      <c r="X477" s="2"/>
-      <c r="Y477" s="2"/>
-      <c r="Z477" s="2"/>
-      <c r="AA477" s="2"/>
-      <c r="AB477" s="2"/>
-      <c r="AC477" s="2"/>
-      <c r="AD477" s="2"/>
-      <c r="AE477" s="2"/>
-      <c r="AF477" s="2"/>
-    </row>
-    <row r="478" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A478" s="2"/>
-      <c r="B478" s="2"/>
+      <c r="U477" s="5">
+        <v>0</v>
+      </c>
+      <c r="V477" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W477" s="5">
+        <v>0</v>
+      </c>
+      <c r="X477" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y477" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z477" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA477" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB477" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC477" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD477" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AE477" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AF477" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A478" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C478" s="2"/>
-      <c r="D478" s="2"/>
-      <c r="E478" s="2"/>
-      <c r="F478" s="2"/>
-      <c r="G478" s="2"/>
-      <c r="H478" s="2"/>
-      <c r="I478" s="2"/>
-      <c r="J478" s="2"/>
-      <c r="K478" s="2"/>
-      <c r="L478" s="2"/>
-      <c r="M478" s="2"/>
-      <c r="N478" s="2"/>
-      <c r="O478" s="2"/>
-      <c r="P478" s="2"/>
-      <c r="Q478" s="2"/>
-      <c r="R478" s="2"/>
-      <c r="S478" s="2"/>
+      <c r="D478" s="5">
+        <v>2359</v>
+      </c>
+      <c r="E478" s="5">
+        <v>0</v>
+      </c>
+      <c r="F478" s="6">
+        <v>25000</v>
+      </c>
+      <c r="G478" s="5">
+        <v>118.559</v>
+      </c>
+      <c r="H478" s="6">
+        <v>2963990</v>
+      </c>
+      <c r="I478" s="5">
+        <v>123.9</v>
+      </c>
+      <c r="J478" s="6">
+        <v>3097500</v>
+      </c>
+      <c r="K478" s="6">
+        <v>133510</v>
+      </c>
+      <c r="L478" s="7">
+        <v>17453325</v>
+      </c>
+      <c r="M478" s="5">
+        <v>0</v>
+      </c>
+      <c r="N478" s="5">
+        <v>0</v>
+      </c>
+      <c r="O478" s="5">
+        <v>0</v>
+      </c>
+      <c r="P478" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q478" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R478" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S478" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T478" s="2"/>
-      <c r="U478" s="2"/>
-      <c r="V478" s="2"/>
-      <c r="W478" s="2"/>
-      <c r="X478" s="2"/>
-      <c r="Y478" s="2"/>
-      <c r="Z478" s="2"/>
-      <c r="AA478" s="2"/>
-      <c r="AB478" s="2"/>
-      <c r="AC478" s="2"/>
-      <c r="AD478" s="2"/>
-      <c r="AE478" s="2"/>
-      <c r="AF478" s="2"/>
-    </row>
-    <row r="479" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A479" s="2"/>
-      <c r="B479" s="2"/>
+      <c r="U478" s="5">
+        <v>0</v>
+      </c>
+      <c r="V478" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W478" s="5">
+        <v>188.95</v>
+      </c>
+      <c r="X478" s="7">
+        <v>560075550</v>
+      </c>
+      <c r="Y478" s="5">
+        <v>186.45</v>
+      </c>
+      <c r="Z478" s="7">
+        <v>577528875</v>
+      </c>
+      <c r="AA478" s="7">
+        <v>24892939</v>
+      </c>
+      <c r="AB478" s="7">
+        <v>-7439615</v>
+      </c>
+      <c r="AC478" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD478" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE478" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF478" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A479" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C479" s="2"/>
-      <c r="D479" s="2"/>
-      <c r="E479" s="2"/>
-      <c r="F479" s="2"/>
-      <c r="G479" s="2"/>
-      <c r="H479" s="2"/>
-      <c r="I479" s="2"/>
-      <c r="J479" s="2"/>
-      <c r="K479" s="2"/>
-      <c r="L479" s="2"/>
-      <c r="M479" s="2"/>
-      <c r="N479" s="2"/>
-      <c r="O479" s="2"/>
-      <c r="P479" s="2"/>
-      <c r="Q479" s="2"/>
-      <c r="R479" s="2"/>
-      <c r="S479" s="2"/>
+      <c r="D479" s="5">
+        <v>6680</v>
+      </c>
+      <c r="E479" s="5">
+        <v>0</v>
+      </c>
+      <c r="F479" s="6">
+        <v>130000</v>
+      </c>
+      <c r="G479" s="5">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H479" s="6">
+        <v>2921022</v>
+      </c>
+      <c r="I479" s="5">
+        <v>22.48</v>
+      </c>
+      <c r="J479" s="6">
+        <v>2922400</v>
+      </c>
+      <c r="K479" s="6">
+        <v>1378</v>
+      </c>
+      <c r="L479" s="7">
+        <v>-6870365</v>
+      </c>
+      <c r="M479" s="5">
+        <v>0</v>
+      </c>
+      <c r="N479" s="5">
+        <v>0</v>
+      </c>
+      <c r="O479" s="5">
+        <v>0</v>
+      </c>
+      <c r="P479" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q479" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R479" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S479" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="T479" s="2"/>
-      <c r="U479" s="2"/>
-      <c r="V479" s="2"/>
-      <c r="W479" s="2"/>
-      <c r="X479" s="2"/>
-      <c r="Y479" s="2"/>
-      <c r="Z479" s="2"/>
-      <c r="AA479" s="2"/>
-      <c r="AB479" s="2"/>
-      <c r="AC479" s="2"/>
-      <c r="AD479" s="2"/>
-      <c r="AE479" s="2"/>
-      <c r="AF479" s="2"/>
-    </row>
-    <row r="480" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A480" s="2"/>
-      <c r="B480" s="2"/>
+      <c r="U479" s="5">
+        <v>0</v>
+      </c>
+      <c r="V479" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W479" s="5">
+        <v>188.88</v>
+      </c>
+      <c r="X479" s="7">
+        <v>551751845</v>
+      </c>
+      <c r="Y479" s="5">
+        <v>186.45</v>
+      </c>
+      <c r="Z479" s="7">
+        <v>544881480</v>
+      </c>
+      <c r="AA479" s="7">
+        <v>256928</v>
+      </c>
+      <c r="AB479" s="7">
+        <v>-7127294</v>
+      </c>
+      <c r="AC479" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD479" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE479" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF479" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A480" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C480" s="2"/>
-      <c r="D480" s="2"/>
-      <c r="E480" s="2"/>
-      <c r="F480" s="2"/>
-      <c r="G480" s="2"/>
-      <c r="H480" s="2"/>
+      <c r="D480" s="5">
+        <v>6181</v>
+      </c>
+      <c r="E480" s="5">
+        <v>0</v>
+      </c>
+      <c r="F480" s="5">
+        <v>0</v>
+      </c>
+      <c r="G480" s="5">
+        <v>0</v>
+      </c>
+      <c r="H480" s="5">
+        <v>0</v>
+      </c>
       <c r="I480" s="2"/>
-      <c r="J480" s="2"/>
-      <c r="K480" s="2"/>
-      <c r="L480" s="2"/>
-      <c r="M480" s="2"/>
-      <c r="N480" s="2"/>
-      <c r="O480" s="2"/>
-      <c r="P480" s="2"/>
-      <c r="Q480" s="2"/>
-      <c r="R480" s="2"/>
-      <c r="S480" s="2"/>
+      <c r="J480" s="5">
+        <v>0</v>
+      </c>
+      <c r="K480" s="5">
+        <v>0</v>
+      </c>
+      <c r="L480" s="5">
+        <v>0</v>
+      </c>
+      <c r="M480" s="5">
+        <v>0</v>
+      </c>
+      <c r="N480" s="6">
+        <v>-6374.88</v>
+      </c>
+      <c r="O480" s="5">
+        <v>0</v>
+      </c>
+      <c r="P480" s="6">
+        <v>6374.88</v>
+      </c>
+      <c r="Q480" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R480" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S480" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="T480" s="2"/>
-      <c r="U480" s="2"/>
-      <c r="V480" s="2"/>
-      <c r="W480" s="2"/>
-      <c r="X480" s="2"/>
-      <c r="Y480" s="2"/>
-      <c r="Z480" s="2"/>
-      <c r="AA480" s="2"/>
-      <c r="AB480" s="2"/>
-      <c r="AC480" s="2"/>
-      <c r="AD480" s="2"/>
-      <c r="AE480" s="2"/>
-      <c r="AF480" s="2"/>
-    </row>
-    <row r="481" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A481" s="2"/>
-      <c r="B481" s="2"/>
+      <c r="U480" s="5">
+        <v>0</v>
+      </c>
+      <c r="V480" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W480" s="5">
+        <v>0</v>
+      </c>
+      <c r="X480" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y480" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z480" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA480" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB480" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC480" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD480" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AE480" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AF480" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A481" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="C481" s="2"/>
-      <c r="D481" s="2"/>
-      <c r="E481" s="2"/>
-      <c r="F481" s="2"/>
-      <c r="G481" s="2"/>
-      <c r="H481" s="2"/>
-      <c r="I481" s="2"/>
-      <c r="J481" s="2"/>
-      <c r="K481" s="2"/>
-      <c r="L481" s="2"/>
-      <c r="M481" s="2"/>
-      <c r="N481" s="2"/>
-      <c r="O481" s="2"/>
-      <c r="P481" s="2"/>
-      <c r="Q481" s="2"/>
-      <c r="R481" s="2"/>
-      <c r="S481" s="2"/>
+      <c r="D481" s="5">
+        <v>3750</v>
+      </c>
+      <c r="E481" s="5">
+        <v>0</v>
+      </c>
+      <c r="F481" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G481" s="5">
+        <v>511.88299999999998</v>
+      </c>
+      <c r="H481" s="6">
+        <v>3071299.8</v>
+      </c>
+      <c r="I481" s="5">
+        <v>507</v>
+      </c>
+      <c r="J481" s="6">
+        <v>3042000</v>
+      </c>
+      <c r="K481" s="6">
+        <v>-29299.8</v>
+      </c>
+      <c r="L481" s="7">
+        <v>-8257830</v>
+      </c>
+      <c r="M481" s="5">
+        <v>0</v>
+      </c>
+      <c r="N481" s="5">
+        <v>0</v>
+      </c>
+      <c r="O481" s="5">
+        <v>0</v>
+      </c>
+      <c r="P481" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q481" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R481" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S481" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="T481" s="2"/>
-      <c r="U481" s="2"/>
-      <c r="V481" s="2"/>
-      <c r="W481" s="2"/>
-      <c r="X481" s="2"/>
-      <c r="Y481" s="2"/>
-      <c r="Z481" s="2"/>
-      <c r="AA481" s="2"/>
-      <c r="AB481" s="2"/>
-      <c r="AC481" s="2"/>
-      <c r="AD481" s="2"/>
-      <c r="AE481" s="2"/>
-      <c r="AF481" s="2"/>
-    </row>
-    <row r="482" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A482" s="2"/>
-      <c r="B482" s="2"/>
+      <c r="U481" s="5">
+        <v>0</v>
+      </c>
+      <c r="V481" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W481" s="5">
+        <v>187.35</v>
+      </c>
+      <c r="X481" s="7">
+        <v>575438730</v>
+      </c>
+      <c r="Y481" s="5">
+        <v>186.45</v>
+      </c>
+      <c r="Z481" s="7">
+        <v>567180900</v>
+      </c>
+      <c r="AA481" s="7">
+        <v>-5462947</v>
+      </c>
+      <c r="AB481" s="7">
+        <v>-2794883</v>
+      </c>
+      <c r="AC481" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD481" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE481" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF481" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A482" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C482" s="2"/>
-      <c r="D482" s="2"/>
-      <c r="E482" s="2"/>
-      <c r="F482" s="2"/>
-      <c r="G482" s="2"/>
-      <c r="H482" s="2"/>
+      <c r="D482" s="5">
+        <v>6082</v>
+      </c>
+      <c r="E482" s="5">
+        <v>0</v>
+      </c>
+      <c r="F482" s="5">
+        <v>0</v>
+      </c>
+      <c r="G482" s="5">
+        <v>0</v>
+      </c>
+      <c r="H482" s="5">
+        <v>0</v>
+      </c>
       <c r="I482" s="2"/>
-      <c r="J482" s="2"/>
-      <c r="K482" s="2"/>
-      <c r="L482" s="2"/>
-      <c r="M482" s="2"/>
-      <c r="N482" s="2"/>
-      <c r="O482" s="2"/>
-      <c r="P482" s="2"/>
-      <c r="Q482" s="2"/>
-      <c r="R482" s="2"/>
-      <c r="S482" s="2"/>
+      <c r="J482" s="5">
+        <v>0</v>
+      </c>
+      <c r="K482" s="5">
+        <v>0</v>
+      </c>
+      <c r="L482" s="5">
+        <v>0</v>
+      </c>
+      <c r="M482" s="5">
+        <v>0</v>
+      </c>
+      <c r="N482" s="6">
+        <v>205980</v>
+      </c>
+      <c r="O482" s="6">
+        <v>205980</v>
+      </c>
+      <c r="P482" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q482" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R482" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S482" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="T482" s="2"/>
-      <c r="U482" s="2"/>
-      <c r="V482" s="2"/>
-      <c r="W482" s="2"/>
-      <c r="X482" s="2"/>
-      <c r="Y482" s="2"/>
-      <c r="Z482" s="2"/>
-      <c r="AA482" s="2"/>
-      <c r="AB482" s="2"/>
-      <c r="AC482" s="2"/>
-      <c r="AD482" s="2"/>
-      <c r="AE482" s="2"/>
-      <c r="AF482" s="2"/>
-    </row>
-    <row r="483" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A483" s="2"/>
-      <c r="B483" s="2"/>
+      <c r="U482" s="5">
+        <v>0</v>
+      </c>
+      <c r="V482" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W482" s="5">
+        <v>0</v>
+      </c>
+      <c r="X482" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y482" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z482" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA482" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB482" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC482" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD482" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AE482" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AF482" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A483" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="C483" s="2"/>
-      <c r="D483" s="2"/>
-      <c r="E483" s="2"/>
-      <c r="F483" s="2"/>
-      <c r="G483" s="2"/>
-      <c r="H483" s="2"/>
-      <c r="I483" s="2"/>
-      <c r="J483" s="2"/>
-      <c r="K483" s="2"/>
-      <c r="L483" s="2"/>
-      <c r="M483" s="2"/>
-      <c r="N483" s="2"/>
-      <c r="O483" s="2"/>
-      <c r="P483" s="2"/>
-      <c r="Q483" s="2"/>
-      <c r="R483" s="2"/>
-      <c r="S483" s="2"/>
+      <c r="D483" s="5">
+        <v>3033</v>
+      </c>
+      <c r="E483" s="5">
+        <v>0</v>
+      </c>
+      <c r="F483" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G483" s="5">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="H483" s="6">
+        <v>5713300</v>
+      </c>
+      <c r="I483" s="5">
+        <v>5.38</v>
+      </c>
+      <c r="J483" s="6">
+        <v>5380000</v>
+      </c>
+      <c r="K483" s="6">
+        <v>-333300</v>
+      </c>
+      <c r="L483" s="7">
+        <v>-43061363</v>
+      </c>
+      <c r="M483" s="5">
+        <v>0</v>
+      </c>
+      <c r="N483" s="5">
+        <v>0</v>
+      </c>
+      <c r="O483" s="5">
+        <v>0</v>
+      </c>
+      <c r="P483" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q483" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R483" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S483" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T483" s="2"/>
-      <c r="U483" s="2"/>
-      <c r="V483" s="2"/>
-      <c r="W483" s="2"/>
-      <c r="X483" s="2"/>
-      <c r="Y483" s="2"/>
-      <c r="Z483" s="2"/>
-      <c r="AA483" s="2"/>
-      <c r="AB483" s="2"/>
-      <c r="AC483" s="2"/>
-      <c r="AD483" s="2"/>
-      <c r="AE483" s="2"/>
-      <c r="AF483" s="2"/>
-    </row>
-    <row r="484" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A484" s="2"/>
-      <c r="B484" s="2"/>
+      <c r="U483" s="5">
+        <v>0</v>
+      </c>
+      <c r="V483" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W483" s="5">
+        <v>183.11</v>
+      </c>
+      <c r="X483" s="7">
+        <v>1046162363</v>
+      </c>
+      <c r="Y483" s="5">
+        <v>186.45</v>
+      </c>
+      <c r="Z483" s="7">
+        <v>1003101000</v>
+      </c>
+      <c r="AA483" s="7">
+        <v>-62143785</v>
+      </c>
+      <c r="AB483" s="7">
+        <v>19082422</v>
+      </c>
+      <c r="AC483" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD483" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE483" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF483" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A484" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C484" s="2"/>
-      <c r="D484" s="2"/>
-      <c r="E484" s="2"/>
-      <c r="F484" s="2"/>
-      <c r="G484" s="2"/>
-      <c r="H484" s="2"/>
-      <c r="I484" s="2"/>
-      <c r="J484" s="2"/>
-      <c r="K484" s="2"/>
-      <c r="L484" s="2"/>
-      <c r="M484" s="2"/>
-      <c r="N484" s="2"/>
-      <c r="O484" s="2"/>
-      <c r="P484" s="2"/>
-      <c r="Q484" s="2"/>
-      <c r="R484" s="2"/>
-      <c r="S484" s="2"/>
+      <c r="D484" s="5">
+        <v>9988</v>
+      </c>
+      <c r="E484" s="5">
+        <v>0</v>
+      </c>
+      <c r="F484" s="6">
+        <v>70500</v>
+      </c>
+      <c r="G484" s="5">
+        <v>147.79</v>
+      </c>
+      <c r="H484" s="6">
+        <v>10419200</v>
+      </c>
+      <c r="I484" s="5">
+        <v>160.1</v>
+      </c>
+      <c r="J484" s="6">
+        <v>11287050</v>
+      </c>
+      <c r="K484" s="6">
+        <v>867850</v>
+      </c>
+      <c r="L484" s="7">
+        <v>169671872</v>
+      </c>
+      <c r="M484" s="5">
+        <v>0</v>
+      </c>
+      <c r="N484" s="5">
+        <v>0</v>
+      </c>
+      <c r="O484" s="5">
+        <v>0</v>
+      </c>
+      <c r="P484" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q484" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R484" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S484" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="T484" s="2"/>
-      <c r="U484" s="2"/>
-      <c r="V484" s="2"/>
-      <c r="W484" s="2"/>
-      <c r="X484" s="2"/>
-      <c r="Y484" s="2"/>
-      <c r="Z484" s="2"/>
-      <c r="AA484" s="2"/>
-      <c r="AB484" s="2"/>
-      <c r="AC484" s="2"/>
-      <c r="AD484" s="2"/>
-      <c r="AE484" s="2"/>
-      <c r="AF484" s="2"/>
+      <c r="U484" s="5">
+        <v>0</v>
+      </c>
+      <c r="V484" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W484" s="5">
+        <v>185.69</v>
+      </c>
+      <c r="X484" s="7">
+        <v>1934798600</v>
+      </c>
+      <c r="Y484" s="5">
+        <v>186.45</v>
+      </c>
+      <c r="Z484" s="7">
+        <v>2104470472</v>
+      </c>
+      <c r="AA484" s="7">
+        <v>161810632</v>
+      </c>
+      <c r="AB484" s="7">
+        <v>7861240</v>
+      </c>
+      <c r="AC484" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD484" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE484" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF484" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="485" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A485" s="2"/>
-      <c r="B485" s="2"/>
+      <c r="A485" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C485" s="2"/>
-      <c r="D485" s="2"/>
-      <c r="E485" s="2"/>
-      <c r="F485" s="2"/>
-      <c r="G485" s="2"/>
-      <c r="H485" s="2"/>
-      <c r="I485" s="2"/>
-      <c r="J485" s="2"/>
-      <c r="K485" s="2"/>
-      <c r="L485" s="2"/>
-      <c r="M485" s="2"/>
-      <c r="N485" s="2"/>
-      <c r="O485" s="2"/>
-      <c r="P485" s="2"/>
-      <c r="Q485" s="2"/>
-      <c r="R485" s="2"/>
-      <c r="S485" s="2"/>
+      <c r="D485" s="5">
+        <v>6861</v>
+      </c>
+      <c r="E485" s="5">
+        <v>0</v>
+      </c>
+      <c r="F485" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G485" s="6">
+        <v>55916.79</v>
+      </c>
+      <c r="H485" s="6">
+        <v>106241900</v>
+      </c>
+      <c r="I485" s="6">
+        <v>56630</v>
+      </c>
+      <c r="J485" s="6">
+        <v>107597000</v>
+      </c>
+      <c r="K485" s="6">
+        <v>1355100</v>
+      </c>
+      <c r="L485" s="7">
+        <v>33142943</v>
+      </c>
+      <c r="M485" s="5">
+        <v>0</v>
+      </c>
+      <c r="N485" s="5">
+        <v>0</v>
+      </c>
+      <c r="O485" s="5">
+        <v>0</v>
+      </c>
+      <c r="P485" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q485" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R485" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S485" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="T485" s="2"/>
-      <c r="U485" s="2"/>
-      <c r="V485" s="2"/>
-      <c r="W485" s="2"/>
-      <c r="X485" s="2"/>
-      <c r="Y485" s="2"/>
-      <c r="Z485" s="2"/>
-      <c r="AA485" s="2"/>
-      <c r="AB485" s="2"/>
-      <c r="AC485" s="2"/>
-      <c r="AD485" s="2"/>
-      <c r="AE485" s="2"/>
-      <c r="AF485" s="2"/>
+      <c r="U485" s="5">
+        <v>0</v>
+      </c>
+      <c r="V485" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W485" s="5">
+        <v>924.45</v>
+      </c>
+      <c r="X485" s="7">
+        <v>982163868</v>
+      </c>
+      <c r="Y485" s="5">
+        <v>943.62</v>
+      </c>
+      <c r="Z485" s="7">
+        <v>1015306811</v>
+      </c>
+      <c r="AA485" s="7">
+        <v>12786994</v>
+      </c>
+      <c r="AB485" s="7">
+        <v>20355948</v>
+      </c>
+      <c r="AC485" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD485" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE485" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF485" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="486" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A486" s="2"/>
-      <c r="B486" s="2"/>
+      <c r="A486" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C486" s="2"/>
-      <c r="D486" s="2"/>
-      <c r="E486" s="2"/>
-      <c r="F486" s="2"/>
-      <c r="G486" s="2"/>
-      <c r="H486" s="2"/>
+      <c r="D486" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E486" s="5">
+        <v>0</v>
+      </c>
+      <c r="F486" s="5">
+        <v>0</v>
+      </c>
+      <c r="G486" s="5">
+        <v>0</v>
+      </c>
+      <c r="H486" s="5">
+        <v>0</v>
+      </c>
       <c r="I486" s="2"/>
-      <c r="J486" s="2"/>
-      <c r="K486" s="2"/>
-      <c r="L486" s="2"/>
-      <c r="M486" s="2"/>
-      <c r="N486" s="2"/>
-      <c r="O486" s="2"/>
-      <c r="P486" s="2"/>
-      <c r="Q486" s="2"/>
-      <c r="R486" s="2"/>
-      <c r="S486" s="2"/>
+      <c r="J486" s="5">
+        <v>0</v>
+      </c>
+      <c r="K486" s="5">
+        <v>0</v>
+      </c>
+      <c r="L486" s="5">
+        <v>0</v>
+      </c>
+      <c r="M486" s="5">
+        <v>0</v>
+      </c>
+      <c r="N486" s="6">
+        <v>4911499</v>
+      </c>
+      <c r="O486" s="6">
+        <v>4911499</v>
+      </c>
+      <c r="P486" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q486" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R486" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S486" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="T486" s="2"/>
-      <c r="U486" s="2"/>
-      <c r="V486" s="2"/>
-      <c r="W486" s="2"/>
-      <c r="X486" s="2"/>
-      <c r="Y486" s="2"/>
-      <c r="Z486" s="2"/>
-      <c r="AA486" s="2"/>
-      <c r="AB486" s="2"/>
-      <c r="AC486" s="2"/>
-      <c r="AD486" s="2"/>
-      <c r="AE486" s="2"/>
-      <c r="AF486" s="2"/>
+      <c r="U486" s="5">
+        <v>0</v>
+      </c>
+      <c r="V486" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W486" s="5">
+        <v>0</v>
+      </c>
+      <c r="X486" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y486" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z486" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA486" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB486" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC486" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD486" s="7">
+        <v>42855505</v>
+      </c>
+      <c r="AE486" s="7">
+        <v>42855505</v>
+      </c>
+      <c r="AF486" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="487" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A487" s="2"/>
-      <c r="B487" s="2"/>
+      <c r="A487" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B487" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C487" s="2"/>
-      <c r="D487" s="2"/>
-      <c r="E487" s="2"/>
-      <c r="F487" s="2"/>
-      <c r="G487" s="2"/>
-      <c r="H487" s="2"/>
-      <c r="I487" s="2"/>
-      <c r="J487" s="2"/>
-      <c r="K487" s="2"/>
-      <c r="L487" s="2"/>
-      <c r="M487" s="2"/>
-      <c r="N487" s="2"/>
-      <c r="O487" s="2"/>
-      <c r="P487" s="2"/>
-      <c r="Q487" s="2"/>
-      <c r="R487" s="2"/>
-      <c r="S487" s="2"/>
+      <c r="D487" s="5">
+        <v>9984</v>
+      </c>
+      <c r="E487" s="5">
+        <v>0</v>
+      </c>
+      <c r="F487" s="6">
+        <v>13000</v>
+      </c>
+      <c r="G487" s="6">
+        <v>4066.73</v>
+      </c>
+      <c r="H487" s="6">
+        <v>52867552.170000002</v>
+      </c>
+      <c r="I487" s="6">
+        <v>4705</v>
+      </c>
+      <c r="J487" s="6">
+        <v>61165000</v>
+      </c>
+      <c r="K487" s="6">
+        <v>8297447.8300000001</v>
+      </c>
+      <c r="L487" s="7">
+        <v>87336729</v>
+      </c>
+      <c r="M487" s="6">
+        <v>4615632.17</v>
+      </c>
+      <c r="N487" s="6">
+        <v>4615632.17</v>
+      </c>
+      <c r="O487" s="6">
+        <v>4615632.17</v>
+      </c>
+      <c r="P487" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q487" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R487" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S487" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T487" s="2"/>
-      <c r="U487" s="2"/>
-      <c r="V487" s="2"/>
-      <c r="W487" s="2"/>
-      <c r="X487" s="2"/>
-      <c r="Y487" s="2"/>
-      <c r="Z487" s="2"/>
-      <c r="AA487" s="2"/>
-      <c r="AB487" s="2"/>
-      <c r="AC487" s="2"/>
-      <c r="AD487" s="2"/>
-      <c r="AE487" s="2"/>
-      <c r="AF487" s="2"/>
+      <c r="U487" s="5">
+        <v>0</v>
+      </c>
+      <c r="V487" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W487" s="5">
+        <v>926.51</v>
+      </c>
+      <c r="X487" s="7">
+        <v>489828444</v>
+      </c>
+      <c r="Y487" s="5">
+        <v>943.62</v>
+      </c>
+      <c r="Z487" s="7">
+        <v>577165173</v>
+      </c>
+      <c r="AA487" s="7">
+        <v>78296377</v>
+      </c>
+      <c r="AB487" s="7">
+        <v>9040351</v>
+      </c>
+      <c r="AC487" s="7">
+        <v>48366259</v>
+      </c>
+      <c r="AD487" s="7">
+        <v>48366259</v>
+      </c>
+      <c r="AE487" s="7">
+        <v>48366259</v>
+      </c>
+      <c r="AF487" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="488" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A488" s="2"/>
-      <c r="B488" s="2"/>
+      <c r="A488" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C488" s="2"/>
-      <c r="D488" s="2"/>
-      <c r="E488" s="2"/>
-      <c r="F488" s="2"/>
-      <c r="G488" s="2"/>
-      <c r="H488" s="2"/>
-      <c r="I488" s="2"/>
-      <c r="J488" s="2"/>
-      <c r="K488" s="2"/>
-      <c r="L488" s="2"/>
-      <c r="M488" s="2"/>
-      <c r="N488" s="2"/>
-      <c r="O488" s="2"/>
-      <c r="P488" s="2"/>
-      <c r="Q488" s="2"/>
-      <c r="R488" s="2"/>
-      <c r="S488" s="2"/>
+      <c r="D488" s="5">
+        <v>6954</v>
+      </c>
+      <c r="E488" s="5">
+        <v>0</v>
+      </c>
+      <c r="F488" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G488" s="6">
+        <v>6568.27</v>
+      </c>
+      <c r="H488" s="6">
+        <v>65682650</v>
+      </c>
+      <c r="I488" s="6">
+        <v>6800</v>
+      </c>
+      <c r="J488" s="6">
+        <v>68000000</v>
+      </c>
+      <c r="K488" s="6">
+        <v>2317350</v>
+      </c>
+      <c r="L488" s="7">
+        <v>32770298</v>
+      </c>
+      <c r="M488" s="5">
+        <v>0</v>
+      </c>
+      <c r="N488" s="5">
+        <v>0</v>
+      </c>
+      <c r="O488" s="5">
+        <v>0</v>
+      </c>
+      <c r="P488" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q488" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R488" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S488" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="T488" s="2"/>
-      <c r="U488" s="2"/>
-      <c r="V488" s="2"/>
-      <c r="W488" s="2"/>
-      <c r="X488" s="2"/>
-      <c r="Y488" s="2"/>
-      <c r="Z488" s="2"/>
-      <c r="AA488" s="2"/>
-      <c r="AB488" s="2"/>
-      <c r="AC488" s="2"/>
-      <c r="AD488" s="2"/>
-      <c r="AE488" s="2"/>
-      <c r="AF488" s="2"/>
-    </row>
-    <row r="489" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A489" s="2"/>
-      <c r="B489" s="2"/>
+      <c r="U488" s="5">
+        <v>0</v>
+      </c>
+      <c r="V488" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W488" s="5">
+        <v>927.01</v>
+      </c>
+      <c r="X488" s="7">
+        <v>608891302</v>
+      </c>
+      <c r="Y488" s="5">
+        <v>943.62</v>
+      </c>
+      <c r="Z488" s="7">
+        <v>641661600</v>
+      </c>
+      <c r="AA488" s="7">
+        <v>21866978</v>
+      </c>
+      <c r="AB488" s="7">
+        <v>10903319</v>
+      </c>
+      <c r="AC488" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD488" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE488" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF488" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A489" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C489" s="2"/>
-      <c r="D489" s="2"/>
-      <c r="E489" s="2"/>
-      <c r="F489" s="2"/>
-      <c r="G489" s="2"/>
-      <c r="H489" s="2"/>
-      <c r="I489" s="2"/>
-      <c r="J489" s="2"/>
-      <c r="K489" s="2"/>
-      <c r="L489" s="2"/>
-      <c r="M489" s="2"/>
-      <c r="N489" s="2"/>
-      <c r="O489" s="2"/>
-      <c r="P489" s="2"/>
-      <c r="Q489" s="2"/>
-      <c r="R489" s="2"/>
-      <c r="S489" s="2"/>
+      <c r="D489" s="5">
+        <v>6869</v>
+      </c>
+      <c r="E489" s="5">
+        <v>0</v>
+      </c>
+      <c r="F489" s="5">
+        <v>0</v>
+      </c>
+      <c r="G489" s="5">
+        <v>0</v>
+      </c>
+      <c r="H489" s="5">
+        <v>0</v>
+      </c>
+      <c r="I489" s="5">
+        <v>119.7</v>
+      </c>
+      <c r="J489" s="5">
+        <v>0</v>
+      </c>
+      <c r="K489" s="5">
+        <v>0</v>
+      </c>
+      <c r="L489" s="5">
+        <v>0</v>
+      </c>
+      <c r="M489" s="5">
+        <v>0</v>
+      </c>
+      <c r="N489" s="6">
+        <v>349976</v>
+      </c>
+      <c r="O489" s="6">
+        <v>349976</v>
+      </c>
+      <c r="P489" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q489" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R489" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S489" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="T489" s="2"/>
-      <c r="U489" s="2"/>
-      <c r="V489" s="2"/>
-      <c r="W489" s="2"/>
-      <c r="X489" s="2"/>
-      <c r="Y489" s="2"/>
-      <c r="Z489" s="2"/>
-      <c r="AA489" s="2"/>
-      <c r="AB489" s="2"/>
-      <c r="AC489" s="2"/>
-      <c r="AD489" s="2"/>
-      <c r="AE489" s="2"/>
-      <c r="AF489" s="2"/>
-    </row>
-    <row r="490" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A490" s="2"/>
-      <c r="B490" s="2"/>
+      <c r="U489" s="5">
+        <v>0</v>
+      </c>
+      <c r="V489" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W489" s="5">
+        <v>0</v>
+      </c>
+      <c r="X489" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y489" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z489" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA489" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB489" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC489" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD489" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AE489" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AF489" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A490" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C490" s="2"/>
-      <c r="D490" s="2"/>
-      <c r="E490" s="2"/>
-      <c r="F490" s="2"/>
-      <c r="G490" s="2"/>
-      <c r="H490" s="2"/>
-      <c r="I490" s="2"/>
-      <c r="J490" s="2"/>
-      <c r="K490" s="2"/>
-      <c r="L490" s="2"/>
-      <c r="M490" s="2"/>
-      <c r="N490" s="2"/>
-      <c r="O490" s="2"/>
-      <c r="P490" s="2"/>
-      <c r="Q490" s="2"/>
-      <c r="R490" s="2"/>
-      <c r="S490" s="2"/>
+      <c r="D490" s="5">
+        <v>2359</v>
+      </c>
+      <c r="E490" s="5">
+        <v>0</v>
+      </c>
+      <c r="F490" s="5">
+        <v>0</v>
+      </c>
+      <c r="G490" s="5">
+        <v>0</v>
+      </c>
+      <c r="H490" s="5">
+        <v>0</v>
+      </c>
+      <c r="I490" s="5">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="J490" s="5">
+        <v>0</v>
+      </c>
+      <c r="K490" s="5">
+        <v>0</v>
+      </c>
+      <c r="L490" s="5">
+        <v>0</v>
+      </c>
+      <c r="M490" s="6">
+        <v>127080</v>
+      </c>
+      <c r="N490" s="6">
+        <v>127080</v>
+      </c>
+      <c r="O490" s="6">
+        <v>127080</v>
+      </c>
+      <c r="P490" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q490" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R490" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S490" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T490" s="2"/>
-      <c r="U490" s="2"/>
-      <c r="V490" s="2"/>
-      <c r="W490" s="2"/>
-      <c r="X490" s="2"/>
-      <c r="Y490" s="2"/>
-      <c r="Z490" s="2"/>
-      <c r="AA490" s="2"/>
-      <c r="AB490" s="2"/>
-      <c r="AC490" s="2"/>
-      <c r="AD490" s="2"/>
-      <c r="AE490" s="2"/>
-      <c r="AF490" s="2"/>
-    </row>
-    <row r="491" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A491" s="2"/>
-      <c r="B491" s="2"/>
+      <c r="U490" s="5">
+        <v>0</v>
+      </c>
+      <c r="V490" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W490" s="5">
+        <v>0</v>
+      </c>
+      <c r="X490" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y490" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z490" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA490" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB490" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC490" s="7">
+        <v>16254451</v>
+      </c>
+      <c r="AD490" s="7">
+        <v>16254451</v>
+      </c>
+      <c r="AE490" s="7">
+        <v>16254451</v>
+      </c>
+      <c r="AF490" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A491" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B491" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C491" s="2"/>
-      <c r="D491" s="2"/>
-      <c r="E491" s="2"/>
-      <c r="F491" s="2"/>
-      <c r="G491" s="2"/>
-      <c r="H491" s="2"/>
-      <c r="I491" s="2"/>
-      <c r="J491" s="2"/>
-      <c r="K491" s="2"/>
-      <c r="L491" s="2"/>
-      <c r="M491" s="2"/>
-      <c r="N491" s="2"/>
-      <c r="O491" s="2"/>
-      <c r="P491" s="2"/>
-      <c r="Q491" s="2"/>
-      <c r="R491" s="2"/>
-      <c r="S491" s="2"/>
+      <c r="D491" s="5">
+        <v>6680</v>
+      </c>
+      <c r="E491" s="5">
+        <v>0</v>
+      </c>
+      <c r="F491" s="6">
+        <v>130000</v>
+      </c>
+      <c r="G491" s="5">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H491" s="6">
+        <v>2921022</v>
+      </c>
+      <c r="I491" s="5">
+        <v>23.04</v>
+      </c>
+      <c r="J491" s="6">
+        <v>2995200</v>
+      </c>
+      <c r="K491" s="6">
+        <v>74178</v>
+      </c>
+      <c r="L491" s="7">
+        <v>5594971</v>
+      </c>
+      <c r="M491" s="5">
+        <v>0</v>
+      </c>
+      <c r="N491" s="5">
+        <v>0</v>
+      </c>
+      <c r="O491" s="5">
+        <v>0</v>
+      </c>
+      <c r="P491" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q491" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R491" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S491" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="T491" s="2"/>
-      <c r="U491" s="2"/>
-      <c r="V491" s="2"/>
-      <c r="W491" s="2"/>
-      <c r="X491" s="2"/>
-      <c r="Y491" s="2"/>
-      <c r="Z491" s="2"/>
-      <c r="AA491" s="2"/>
-      <c r="AB491" s="2"/>
-      <c r="AC491" s="2"/>
-      <c r="AD491" s="2"/>
-      <c r="AE491" s="2"/>
-      <c r="AF491" s="2"/>
-    </row>
-    <row r="492" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A492" s="2"/>
-      <c r="B492" s="2"/>
+      <c r="U491" s="5">
+        <v>0</v>
+      </c>
+      <c r="V491" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W491" s="5">
+        <v>188.88</v>
+      </c>
+      <c r="X491" s="7">
+        <v>551751845</v>
+      </c>
+      <c r="Y491" s="5">
+        <v>186.08</v>
+      </c>
+      <c r="Z491" s="7">
+        <v>557346816</v>
+      </c>
+      <c r="AA491" s="7">
+        <v>13803042</v>
+      </c>
+      <c r="AB491" s="7">
+        <v>-8208072</v>
+      </c>
+      <c r="AC491" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD491" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE491" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF491" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A492" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C492" s="2"/>
-      <c r="D492" s="2"/>
-      <c r="E492" s="2"/>
-      <c r="F492" s="2"/>
-      <c r="G492" s="2"/>
-      <c r="H492" s="2"/>
-      <c r="I492" s="2"/>
-      <c r="J492" s="2"/>
-      <c r="K492" s="2"/>
-      <c r="L492" s="2"/>
-      <c r="M492" s="2"/>
-      <c r="N492" s="2"/>
-      <c r="O492" s="2"/>
-      <c r="P492" s="2"/>
-      <c r="Q492" s="2"/>
-      <c r="R492" s="2"/>
-      <c r="S492" s="2"/>
+      <c r="D492" s="5">
+        <v>6181</v>
+      </c>
+      <c r="E492" s="5">
+        <v>0</v>
+      </c>
+      <c r="F492" s="5">
+        <v>0</v>
+      </c>
+      <c r="G492" s="5">
+        <v>0</v>
+      </c>
+      <c r="H492" s="5">
+        <v>0</v>
+      </c>
+      <c r="I492" s="5">
+        <v>767.5</v>
+      </c>
+      <c r="J492" s="5">
+        <v>0</v>
+      </c>
+      <c r="K492" s="5">
+        <v>0</v>
+      </c>
+      <c r="L492" s="5">
+        <v>0</v>
+      </c>
+      <c r="M492" s="5">
+        <v>0</v>
+      </c>
+      <c r="N492" s="6">
+        <v>-6374.88</v>
+      </c>
+      <c r="O492" s="5">
+        <v>0</v>
+      </c>
+      <c r="P492" s="6">
+        <v>6374.88</v>
+      </c>
+      <c r="Q492" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R492" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S492" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="T492" s="2"/>
-      <c r="U492" s="2"/>
-      <c r="V492" s="2"/>
-      <c r="W492" s="2"/>
-      <c r="X492" s="2"/>
-      <c r="Y492" s="2"/>
-      <c r="Z492" s="2"/>
-      <c r="AA492" s="2"/>
-      <c r="AB492" s="2"/>
-      <c r="AC492" s="2"/>
-      <c r="AD492" s="2"/>
-      <c r="AE492" s="2"/>
-      <c r="AF492" s="2"/>
-    </row>
-    <row r="493" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A493" s="2"/>
-      <c r="B493" s="2"/>
+      <c r="U492" s="5">
+        <v>0</v>
+      </c>
+      <c r="V492" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W492" s="5">
+        <v>0</v>
+      </c>
+      <c r="X492" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y492" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z492" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA492" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB492" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC492" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD492" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AE492" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AF492" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A493" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="C493" s="2"/>
-      <c r="D493" s="2"/>
-      <c r="E493" s="2"/>
-      <c r="F493" s="2"/>
-      <c r="G493" s="2"/>
-      <c r="H493" s="2"/>
-      <c r="I493" s="2"/>
-      <c r="J493" s="2"/>
-      <c r="K493" s="2"/>
-      <c r="L493" s="2"/>
-      <c r="M493" s="2"/>
-      <c r="N493" s="2"/>
-      <c r="O493" s="2"/>
-      <c r="P493" s="2"/>
-      <c r="Q493" s="2"/>
-      <c r="R493" s="2"/>
-      <c r="S493" s="2"/>
+      <c r="D493" s="5">
+        <v>3750</v>
+      </c>
+      <c r="E493" s="5">
+        <v>0</v>
+      </c>
+      <c r="F493" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G493" s="5">
+        <v>511.88299999999998</v>
+      </c>
+      <c r="H493" s="6">
+        <v>3071299.8</v>
+      </c>
+      <c r="I493" s="5">
+        <v>527</v>
+      </c>
+      <c r="J493" s="6">
+        <v>3162000</v>
+      </c>
+      <c r="K493" s="6">
+        <v>90700.2</v>
+      </c>
+      <c r="L493" s="7">
+        <v>12946230</v>
+      </c>
+      <c r="M493" s="5">
+        <v>0</v>
+      </c>
+      <c r="N493" s="5">
+        <v>0</v>
+      </c>
+      <c r="O493" s="5">
+        <v>0</v>
+      </c>
+      <c r="P493" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q493" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R493" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S493" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="T493" s="2"/>
-      <c r="U493" s="2"/>
-      <c r="V493" s="2"/>
-      <c r="W493" s="2"/>
-      <c r="X493" s="2"/>
-      <c r="Y493" s="2"/>
-      <c r="Z493" s="2"/>
-      <c r="AA493" s="2"/>
-      <c r="AB493" s="2"/>
-      <c r="AC493" s="2"/>
-      <c r="AD493" s="2"/>
-      <c r="AE493" s="2"/>
-      <c r="AF493" s="2"/>
-    </row>
-    <row r="494" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A494" s="2"/>
-      <c r="B494" s="2"/>
+      <c r="U493" s="5">
+        <v>0</v>
+      </c>
+      <c r="V493" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W493" s="5">
+        <v>187.35</v>
+      </c>
+      <c r="X493" s="7">
+        <v>575438730</v>
+      </c>
+      <c r="Y493" s="5">
+        <v>186.08</v>
+      </c>
+      <c r="Z493" s="7">
+        <v>588384960</v>
+      </c>
+      <c r="AA493" s="7">
+        <v>16877493</v>
+      </c>
+      <c r="AB493" s="7">
+        <v>-3931264</v>
+      </c>
+      <c r="AC493" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD493" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE493" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF493" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A494" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C494" s="2"/>
-      <c r="D494" s="2"/>
-      <c r="E494" s="2"/>
-      <c r="F494" s="2"/>
-      <c r="G494" s="2"/>
-      <c r="H494" s="2"/>
-      <c r="I494" s="2"/>
-      <c r="J494" s="2"/>
-      <c r="K494" s="2"/>
-      <c r="L494" s="2"/>
-      <c r="M494" s="2"/>
-      <c r="N494" s="2"/>
-      <c r="O494" s="2"/>
-      <c r="P494" s="2"/>
-      <c r="Q494" s="2"/>
-      <c r="R494" s="2"/>
-      <c r="S494" s="2"/>
+      <c r="D494" s="5">
+        <v>6082</v>
+      </c>
+      <c r="E494" s="5">
+        <v>0</v>
+      </c>
+      <c r="F494" s="5">
+        <v>0</v>
+      </c>
+      <c r="G494" s="5">
+        <v>0</v>
+      </c>
+      <c r="H494" s="5">
+        <v>0</v>
+      </c>
+      <c r="I494" s="5">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="J494" s="5">
+        <v>0</v>
+      </c>
+      <c r="K494" s="5">
+        <v>0</v>
+      </c>
+      <c r="L494" s="5">
+        <v>0</v>
+      </c>
+      <c r="M494" s="5">
+        <v>0</v>
+      </c>
+      <c r="N494" s="6">
+        <v>205980</v>
+      </c>
+      <c r="O494" s="6">
+        <v>205980</v>
+      </c>
+      <c r="P494" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q494" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R494" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S494" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="T494" s="2"/>
-      <c r="U494" s="2"/>
-      <c r="V494" s="2"/>
-      <c r="W494" s="2"/>
-      <c r="X494" s="2"/>
-      <c r="Y494" s="2"/>
-      <c r="Z494" s="2"/>
-      <c r="AA494" s="2"/>
-      <c r="AB494" s="2"/>
-      <c r="AC494" s="2"/>
-      <c r="AD494" s="2"/>
-      <c r="AE494" s="2"/>
-      <c r="AF494" s="2"/>
-    </row>
-    <row r="495" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A495" s="2"/>
-      <c r="B495" s="2"/>
+      <c r="U494" s="5">
+        <v>0</v>
+      </c>
+      <c r="V494" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W494" s="5">
+        <v>0</v>
+      </c>
+      <c r="X494" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y494" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z494" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA494" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB494" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC494" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD494" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AE494" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AF494" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A495" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="C495" s="2"/>
-      <c r="D495" s="2"/>
-      <c r="E495" s="2"/>
-      <c r="F495" s="2"/>
-      <c r="G495" s="2"/>
-      <c r="H495" s="2"/>
-      <c r="I495" s="2"/>
-      <c r="J495" s="2"/>
-      <c r="K495" s="2"/>
-      <c r="L495" s="2"/>
-      <c r="M495" s="2"/>
-      <c r="N495" s="2"/>
-      <c r="O495" s="2"/>
-      <c r="P495" s="2"/>
-      <c r="Q495" s="2"/>
-      <c r="R495" s="2"/>
-      <c r="S495" s="2"/>
+      <c r="D495" s="5">
+        <v>3033</v>
+      </c>
+      <c r="E495" s="5">
+        <v>0</v>
+      </c>
+      <c r="F495" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G495" s="5">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="H495" s="6">
+        <v>5713300</v>
+      </c>
+      <c r="I495" s="5">
+        <v>5.29</v>
+      </c>
+      <c r="J495" s="6">
+        <v>5290000</v>
+      </c>
+      <c r="K495" s="6">
+        <v>-423300</v>
+      </c>
+      <c r="L495" s="7">
+        <v>-61799163</v>
+      </c>
+      <c r="M495" s="5">
+        <v>0</v>
+      </c>
+      <c r="N495" s="5">
+        <v>0</v>
+      </c>
+      <c r="O495" s="5">
+        <v>0</v>
+      </c>
+      <c r="P495" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q495" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R495" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S495" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T495" s="2"/>
-      <c r="U495" s="2"/>
-      <c r="V495" s="2"/>
-      <c r="W495" s="2"/>
-      <c r="X495" s="2"/>
-      <c r="Y495" s="2"/>
-      <c r="Z495" s="2"/>
-      <c r="AA495" s="2"/>
-      <c r="AB495" s="2"/>
-      <c r="AC495" s="2"/>
-      <c r="AD495" s="2"/>
-      <c r="AE495" s="2"/>
-      <c r="AF495" s="2"/>
-    </row>
-    <row r="496" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A496" s="2"/>
-      <c r="B496" s="2"/>
+      <c r="U495" s="5">
+        <v>0</v>
+      </c>
+      <c r="V495" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W495" s="5">
+        <v>183.11</v>
+      </c>
+      <c r="X495" s="7">
+        <v>1046162363</v>
+      </c>
+      <c r="Y495" s="5">
+        <v>186.08</v>
+      </c>
+      <c r="Z495" s="7">
+        <v>984363200</v>
+      </c>
+      <c r="AA495" s="7">
+        <v>-78767664</v>
+      </c>
+      <c r="AB495" s="7">
+        <v>16968501</v>
+      </c>
+      <c r="AC495" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD495" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE495" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF495" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A496" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="C496" s="2"/>
-      <c r="D496" s="2"/>
-      <c r="E496" s="2"/>
-      <c r="F496" s="2"/>
-      <c r="G496" s="2"/>
-      <c r="H496" s="2"/>
-      <c r="I496" s="2"/>
-      <c r="J496" s="2"/>
-      <c r="K496" s="2"/>
-      <c r="L496" s="2"/>
-      <c r="M496" s="2"/>
-      <c r="N496" s="2"/>
-      <c r="O496" s="2"/>
-      <c r="P496" s="2"/>
-      <c r="Q496" s="2"/>
-      <c r="R496" s="2"/>
-      <c r="S496" s="2"/>
+      <c r="D496" s="5">
+        <v>2800</v>
+      </c>
+      <c r="E496" s="5">
+        <v>0</v>
+      </c>
+      <c r="F496" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G496" s="5">
+        <v>27.495000000000001</v>
+      </c>
+      <c r="H496" s="6">
+        <v>2749550</v>
+      </c>
+      <c r="I496" s="5">
+        <v>27.24</v>
+      </c>
+      <c r="J496" s="6">
+        <v>2724000</v>
+      </c>
+      <c r="K496" s="6">
+        <v>-25550</v>
+      </c>
+      <c r="L496" s="7">
+        <v>-5771677</v>
+      </c>
+      <c r="M496" s="5">
+        <v>0</v>
+      </c>
+      <c r="N496" s="5">
+        <v>0</v>
+      </c>
+      <c r="O496" s="5">
+        <v>0</v>
+      </c>
+      <c r="P496" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q496" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R496" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S496" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="T496" s="2"/>
-      <c r="U496" s="2"/>
-      <c r="V496" s="2"/>
-      <c r="W496" s="2"/>
-      <c r="X496" s="2"/>
-      <c r="Y496" s="2"/>
-      <c r="Z496" s="2"/>
-      <c r="AA496" s="2"/>
-      <c r="AB496" s="2"/>
-      <c r="AC496" s="2"/>
-      <c r="AD496" s="2"/>
-      <c r="AE496" s="2"/>
-      <c r="AF496" s="2"/>
-    </row>
-    <row r="497" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A497" s="2"/>
-      <c r="B497" s="2"/>
+      <c r="U496" s="5">
+        <v>0</v>
+      </c>
+      <c r="V496" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W496" s="5">
+        <v>186.44</v>
+      </c>
+      <c r="X496" s="7">
+        <v>512653597</v>
+      </c>
+      <c r="Y496" s="5">
+        <v>186.08</v>
+      </c>
+      <c r="Z496" s="7">
+        <v>506881920</v>
+      </c>
+      <c r="AA496" s="7">
+        <v>-4754344</v>
+      </c>
+      <c r="AB496" s="7">
+        <v>-1017333</v>
+      </c>
+      <c r="AC496" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD496" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE496" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF496" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A497" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C497" s="2"/>
-      <c r="D497" s="2"/>
-      <c r="E497" s="2"/>
-      <c r="F497" s="2"/>
-      <c r="G497" s="2"/>
-      <c r="H497" s="2"/>
-      <c r="I497" s="2"/>
-      <c r="J497" s="2"/>
-      <c r="K497" s="2"/>
-      <c r="L497" s="2"/>
-      <c r="M497" s="2"/>
-      <c r="N497" s="2"/>
-      <c r="O497" s="2"/>
-      <c r="P497" s="2"/>
-      <c r="Q497" s="2"/>
-      <c r="R497" s="2"/>
-      <c r="S497" s="2"/>
+      <c r="D497" s="5">
+        <v>9988</v>
+      </c>
+      <c r="E497" s="5">
+        <v>0</v>
+      </c>
+      <c r="F497" s="6">
+        <v>35500</v>
+      </c>
+      <c r="G497" s="5">
+        <v>147.79</v>
+      </c>
+      <c r="H497" s="6">
+        <v>5246547.5199999996</v>
+      </c>
+      <c r="I497" s="5">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="J497" s="6">
+        <v>5562850</v>
+      </c>
+      <c r="K497" s="6">
+        <v>316302.49</v>
+      </c>
+      <c r="L497" s="7">
+        <v>60874840</v>
+      </c>
+      <c r="M497" s="6">
+        <v>431288.52</v>
+      </c>
+      <c r="N497" s="6">
+        <v>431288.52</v>
+      </c>
+      <c r="O497" s="6">
+        <v>431288.52</v>
+      </c>
+      <c r="P497" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q497" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R497" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S497" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="T497" s="2"/>
-      <c r="U497" s="2"/>
-      <c r="V497" s="2"/>
-      <c r="W497" s="2"/>
-      <c r="X497" s="2"/>
-      <c r="Y497" s="2"/>
-      <c r="Z497" s="2"/>
-      <c r="AA497" s="2"/>
-      <c r="AB497" s="2"/>
-      <c r="AC497" s="2"/>
-      <c r="AD497" s="2"/>
-      <c r="AE497" s="2"/>
-      <c r="AF497" s="2"/>
+      <c r="U497" s="5">
+        <v>0</v>
+      </c>
+      <c r="V497" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W497" s="5">
+        <v>185.69</v>
+      </c>
+      <c r="X497" s="7">
+        <v>974260288</v>
+      </c>
+      <c r="Y497" s="5">
+        <v>186.08</v>
+      </c>
+      <c r="Z497" s="7">
+        <v>1035135128</v>
+      </c>
+      <c r="AA497" s="7">
+        <v>58857566</v>
+      </c>
+      <c r="AB497" s="7">
+        <v>2017273</v>
+      </c>
+      <c r="AC497" s="7">
+        <v>84316487</v>
+      </c>
+      <c r="AD497" s="7">
+        <v>84316487</v>
+      </c>
+      <c r="AE497" s="7">
+        <v>84316487</v>
+      </c>
+      <c r="AF497" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="498" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A498" s="2"/>
-      <c r="B498" s="2"/>
+      <c r="A498" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C498" s="2"/>
-      <c r="D498" s="2"/>
-      <c r="E498" s="2"/>
-      <c r="F498" s="2"/>
-      <c r="G498" s="2"/>
-      <c r="H498" s="2"/>
-      <c r="I498" s="2"/>
-      <c r="J498" s="2"/>
-      <c r="K498" s="2"/>
-      <c r="L498" s="2"/>
-      <c r="M498" s="2"/>
-      <c r="N498" s="2"/>
-      <c r="O498" s="2"/>
-      <c r="P498" s="2"/>
-      <c r="Q498" s="2"/>
-      <c r="R498" s="2"/>
-      <c r="S498" s="2"/>
+      <c r="D498" s="5">
+        <v>6861</v>
+      </c>
+      <c r="E498" s="5">
+        <v>0</v>
+      </c>
+      <c r="F498" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G498" s="6">
+        <v>55916.79</v>
+      </c>
+      <c r="H498" s="6">
+        <v>106241900</v>
+      </c>
+      <c r="I498" s="6">
+        <v>57080</v>
+      </c>
+      <c r="J498" s="6">
+        <v>108452000</v>
+      </c>
+      <c r="K498" s="6">
+        <v>2210100</v>
+      </c>
+      <c r="L498" s="7">
+        <v>47360122</v>
+      </c>
+      <c r="M498" s="5">
+        <v>0</v>
+      </c>
+      <c r="N498" s="5">
+        <v>0</v>
+      </c>
+      <c r="O498" s="5">
+        <v>0</v>
+      </c>
+      <c r="P498" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q498" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R498" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S498" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="T498" s="2"/>
-      <c r="U498" s="2"/>
-      <c r="V498" s="2"/>
-      <c r="W498" s="2"/>
-      <c r="X498" s="2"/>
-      <c r="Y498" s="2"/>
-      <c r="Z498" s="2"/>
-      <c r="AA498" s="2"/>
-      <c r="AB498" s="2"/>
-      <c r="AC498" s="2"/>
-      <c r="AD498" s="2"/>
-      <c r="AE498" s="2"/>
-      <c r="AF498" s="2"/>
+      <c r="U498" s="5">
+        <v>0</v>
+      </c>
+      <c r="V498" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W498" s="5">
+        <v>924.45</v>
+      </c>
+      <c r="X498" s="7">
+        <v>982163868</v>
+      </c>
+      <c r="Y498" s="5">
+        <v>949.29</v>
+      </c>
+      <c r="Z498" s="7">
+        <v>1029523990</v>
+      </c>
+      <c r="AA498" s="7">
+        <v>20980258</v>
+      </c>
+      <c r="AB498" s="7">
+        <v>26379864</v>
+      </c>
+      <c r="AC498" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD498" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE498" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF498" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="499" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A499" s="2"/>
-      <c r="B499" s="2"/>
+      <c r="A499" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C499" s="2"/>
-      <c r="D499" s="2"/>
-      <c r="E499" s="2"/>
-      <c r="F499" s="2"/>
-      <c r="G499" s="2"/>
-      <c r="H499" s="2"/>
-      <c r="I499" s="2"/>
-      <c r="J499" s="2"/>
-      <c r="K499" s="2"/>
-      <c r="L499" s="2"/>
-      <c r="M499" s="2"/>
-      <c r="N499" s="2"/>
-      <c r="O499" s="2"/>
-      <c r="P499" s="2"/>
-      <c r="Q499" s="2"/>
-      <c r="R499" s="2"/>
-      <c r="S499" s="2"/>
+      <c r="D499" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E499" s="5">
+        <v>0</v>
+      </c>
+      <c r="F499" s="5">
+        <v>0</v>
+      </c>
+      <c r="G499" s="5">
+        <v>0</v>
+      </c>
+      <c r="H499" s="5">
+        <v>0</v>
+      </c>
+      <c r="I499" s="6">
+        <v>20770</v>
+      </c>
+      <c r="J499" s="5">
+        <v>0</v>
+      </c>
+      <c r="K499" s="5">
+        <v>0</v>
+      </c>
+      <c r="L499" s="5">
+        <v>0</v>
+      </c>
+      <c r="M499" s="5">
+        <v>0</v>
+      </c>
+      <c r="N499" s="6">
+        <v>4911499</v>
+      </c>
+      <c r="O499" s="6">
+        <v>4911499</v>
+      </c>
+      <c r="P499" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q499" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R499" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S499" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="T499" s="2"/>
-      <c r="U499" s="2"/>
-      <c r="V499" s="2"/>
-      <c r="W499" s="2"/>
-      <c r="X499" s="2"/>
-      <c r="Y499" s="2"/>
-      <c r="Z499" s="2"/>
-      <c r="AA499" s="2"/>
-      <c r="AB499" s="2"/>
-      <c r="AC499" s="2"/>
-      <c r="AD499" s="2"/>
-      <c r="AE499" s="2"/>
-      <c r="AF499" s="2"/>
+      <c r="U499" s="5">
+        <v>0</v>
+      </c>
+      <c r="V499" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W499" s="5">
+        <v>0</v>
+      </c>
+      <c r="X499" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y499" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z499" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA499" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB499" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC499" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD499" s="7">
+        <v>42855505</v>
+      </c>
+      <c r="AE499" s="7">
+        <v>42855505</v>
+      </c>
+      <c r="AF499" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="500" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A500" s="2"/>
-      <c r="B500" s="2"/>
+      <c r="A500" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C500" s="2"/>
-      <c r="D500" s="2"/>
-      <c r="E500" s="2"/>
-      <c r="F500" s="2"/>
-      <c r="G500" s="2"/>
-      <c r="H500" s="2"/>
-      <c r="I500" s="2"/>
-      <c r="J500" s="2"/>
-      <c r="K500" s="2"/>
-      <c r="L500" s="2"/>
-      <c r="M500" s="2"/>
-      <c r="N500" s="2"/>
-      <c r="O500" s="2"/>
-      <c r="P500" s="2"/>
-      <c r="Q500" s="2"/>
-      <c r="R500" s="2"/>
-      <c r="S500" s="2"/>
+      <c r="D500" s="5">
+        <v>9984</v>
+      </c>
+      <c r="E500" s="5">
+        <v>0</v>
+      </c>
+      <c r="F500" s="6">
+        <v>13000</v>
+      </c>
+      <c r="G500" s="6">
+        <v>4066.73</v>
+      </c>
+      <c r="H500" s="6">
+        <v>52867552.170000002</v>
+      </c>
+      <c r="I500" s="6">
+        <v>4849</v>
+      </c>
+      <c r="J500" s="6">
+        <v>63037000</v>
+      </c>
+      <c r="K500" s="6">
+        <v>10169447.83</v>
+      </c>
+      <c r="L500" s="7">
+        <v>108575493</v>
+      </c>
+      <c r="M500" s="5">
+        <v>0</v>
+      </c>
+      <c r="N500" s="6">
+        <v>4615632.17</v>
+      </c>
+      <c r="O500" s="6">
+        <v>4615632.17</v>
+      </c>
+      <c r="P500" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q500" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R500" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S500" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T500" s="2"/>
-      <c r="U500" s="2"/>
-      <c r="V500" s="2"/>
-      <c r="W500" s="2"/>
-      <c r="X500" s="2"/>
-      <c r="Y500" s="2"/>
-      <c r="Z500" s="2"/>
-      <c r="AA500" s="2"/>
-      <c r="AB500" s="2"/>
-      <c r="AC500" s="2"/>
-      <c r="AD500" s="2"/>
-      <c r="AE500" s="2"/>
-      <c r="AF500" s="2"/>
+      <c r="U500" s="5">
+        <v>0</v>
+      </c>
+      <c r="V500" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W500" s="5">
+        <v>926.51</v>
+      </c>
+      <c r="X500" s="7">
+        <v>489828444</v>
+      </c>
+      <c r="Y500" s="5">
+        <v>949.29</v>
+      </c>
+      <c r="Z500" s="7">
+        <v>598403937</v>
+      </c>
+      <c r="AA500" s="7">
+        <v>96537551</v>
+      </c>
+      <c r="AB500" s="7">
+        <v>12037941</v>
+      </c>
+      <c r="AC500" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD500" s="7">
+        <v>48366259</v>
+      </c>
+      <c r="AE500" s="7">
+        <v>48366259</v>
+      </c>
+      <c r="AF500" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="501" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A501" s="2"/>
-      <c r="B501" s="2"/>
+      <c r="A501" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C501" s="2"/>
-      <c r="D501" s="2"/>
-      <c r="E501" s="2"/>
-      <c r="F501" s="2"/>
-      <c r="G501" s="2"/>
-      <c r="H501" s="2"/>
-      <c r="I501" s="2"/>
-      <c r="J501" s="2"/>
-      <c r="K501" s="2"/>
-      <c r="L501" s="2"/>
-      <c r="M501" s="2"/>
-      <c r="N501" s="2"/>
-      <c r="O501" s="2"/>
-      <c r="P501" s="2"/>
-      <c r="Q501" s="2"/>
-      <c r="R501" s="2"/>
-      <c r="S501" s="2"/>
+      <c r="D501" s="5">
+        <v>6954</v>
+      </c>
+      <c r="E501" s="5">
+        <v>0</v>
+      </c>
+      <c r="F501" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G501" s="6">
+        <v>6568.27</v>
+      </c>
+      <c r="H501" s="6">
+        <v>65682650</v>
+      </c>
+      <c r="I501" s="6">
+        <v>6730</v>
+      </c>
+      <c r="J501" s="6">
+        <v>67300000</v>
+      </c>
+      <c r="K501" s="6">
+        <v>1617350</v>
+      </c>
+      <c r="L501" s="7">
+        <v>29980868</v>
+      </c>
+      <c r="M501" s="5">
+        <v>0</v>
+      </c>
+      <c r="N501" s="5">
+        <v>0</v>
+      </c>
+      <c r="O501" s="5">
+        <v>0</v>
+      </c>
+      <c r="P501" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q501" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R501" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S501" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="T501" s="2"/>
-      <c r="U501" s="2"/>
-      <c r="V501" s="2"/>
-      <c r="W501" s="2"/>
-      <c r="X501" s="2"/>
-      <c r="Y501" s="2"/>
-      <c r="Z501" s="2"/>
-      <c r="AA501" s="2"/>
-      <c r="AB501" s="2"/>
-      <c r="AC501" s="2"/>
-      <c r="AD501" s="2"/>
-      <c r="AE501" s="2"/>
-      <c r="AF501" s="2"/>
+      <c r="U501" s="5">
+        <v>0</v>
+      </c>
+      <c r="V501" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W501" s="5">
+        <v>927.01</v>
+      </c>
+      <c r="X501" s="7">
+        <v>608891302</v>
+      </c>
+      <c r="Y501" s="5">
+        <v>949.29</v>
+      </c>
+      <c r="Z501" s="7">
+        <v>638872170</v>
+      </c>
+      <c r="AA501" s="7">
+        <v>15353341</v>
+      </c>
+      <c r="AB501" s="7">
+        <v>14627526</v>
+      </c>
+      <c r="AC501" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD501" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE501" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF501" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="502" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A502" s="2"/>
-      <c r="B502" s="2"/>
+      <c r="A502" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C502" s="2"/>
-      <c r="D502" s="2"/>
-      <c r="E502" s="2"/>
-      <c r="F502" s="2"/>
-      <c r="G502" s="2"/>
-      <c r="H502" s="2"/>
-      <c r="I502" s="2"/>
-      <c r="J502" s="2"/>
-      <c r="K502" s="2"/>
-      <c r="L502" s="2"/>
-      <c r="M502" s="2"/>
-      <c r="N502" s="2"/>
-      <c r="O502" s="2"/>
-      <c r="P502" s="2"/>
-      <c r="Q502" s="2"/>
-      <c r="R502" s="2"/>
-      <c r="S502" s="2"/>
+      <c r="D502" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E502" s="5">
+        <v>0</v>
+      </c>
+      <c r="F502" s="6">
+        <v>38000</v>
+      </c>
+      <c r="G502" s="5">
+        <v>12.58</v>
+      </c>
+      <c r="H502" s="6">
+        <v>478066.6</v>
+      </c>
+      <c r="I502" s="5">
+        <v>11.95</v>
+      </c>
+      <c r="J502" s="6">
+        <v>454100</v>
+      </c>
+      <c r="K502" s="6">
+        <v>-23966.6</v>
+      </c>
+      <c r="L502" s="7">
+        <v>-41549955</v>
+      </c>
+      <c r="M502" s="5">
+        <v>0</v>
+      </c>
+      <c r="N502" s="5">
+        <v>0</v>
+      </c>
+      <c r="O502" s="5">
+        <v>0</v>
+      </c>
+      <c r="P502" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q502" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R502" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S502" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="T502" s="2"/>
-      <c r="U502" s="2"/>
-      <c r="V502" s="2"/>
-      <c r="W502" s="2"/>
-      <c r="X502" s="2"/>
-      <c r="Y502" s="2"/>
-      <c r="Z502" s="2"/>
-      <c r="AA502" s="2"/>
-      <c r="AB502" s="2"/>
-      <c r="AC502" s="2"/>
-      <c r="AD502" s="2"/>
-      <c r="AE502" s="2"/>
-      <c r="AF502" s="2"/>
+      <c r="U502" s="5">
+        <v>0</v>
+      </c>
+      <c r="V502" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W502" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X502" s="7">
+        <v>701992995</v>
+      </c>
+      <c r="Y502" s="6">
+        <v>1454.4</v>
+      </c>
+      <c r="Z502" s="7">
+        <v>660443040</v>
+      </c>
+      <c r="AA502" s="7">
+        <v>-34857023</v>
+      </c>
+      <c r="AB502" s="7">
+        <v>-6692932</v>
+      </c>
+      <c r="AC502" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD502" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE502" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF502" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="503" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A503" s="2"/>
-      <c r="B503" s="2"/>
+      <c r="A503" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C503" s="2"/>
-      <c r="D503" s="2"/>
-      <c r="E503" s="2"/>
-      <c r="F503" s="2"/>
-      <c r="G503" s="2"/>
-      <c r="H503" s="2"/>
-      <c r="I503" s="2"/>
-      <c r="J503" s="2"/>
-      <c r="K503" s="2"/>
-      <c r="L503" s="2"/>
-      <c r="M503" s="2"/>
-      <c r="N503" s="2"/>
-      <c r="O503" s="2"/>
-      <c r="P503" s="2"/>
-      <c r="Q503" s="2"/>
-      <c r="R503" s="2"/>
-      <c r="S503" s="2"/>
+      <c r="D503" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E503" s="5">
+        <v>0</v>
+      </c>
+      <c r="F503" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G503" s="5">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H503" s="6">
+        <v>482030</v>
+      </c>
+      <c r="I503" s="5">
+        <v>59.6</v>
+      </c>
+      <c r="J503" s="6">
+        <v>596000</v>
+      </c>
+      <c r="K503" s="6">
+        <v>113970</v>
+      </c>
+      <c r="L503" s="7">
+        <v>165131329</v>
+      </c>
+      <c r="M503" s="5">
+        <v>0</v>
+      </c>
+      <c r="N503" s="5">
+        <v>0</v>
+      </c>
+      <c r="O503" s="5">
+        <v>0</v>
+      </c>
+      <c r="P503" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q503" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R503" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S503" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="T503" s="2"/>
-      <c r="U503" s="2"/>
-      <c r="V503" s="2"/>
-      <c r="W503" s="2"/>
-      <c r="X503" s="2"/>
-      <c r="Y503" s="2"/>
-      <c r="Z503" s="2"/>
-      <c r="AA503" s="2"/>
-      <c r="AB503" s="2"/>
-      <c r="AC503" s="2"/>
-      <c r="AD503" s="2"/>
-      <c r="AE503" s="2"/>
-      <c r="AF503" s="2"/>
-    </row>
-    <row r="504" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A504" s="2"/>
-      <c r="B504" s="2"/>
+      <c r="U503" s="5">
+        <v>0</v>
+      </c>
+      <c r="V503" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W503" s="6">
+        <v>1455.7</v>
+      </c>
+      <c r="X503" s="7">
+        <v>701691071</v>
+      </c>
+      <c r="Y503" s="6">
+        <v>1454.4</v>
+      </c>
+      <c r="Z503" s="7">
+        <v>866822400</v>
+      </c>
+      <c r="AA503" s="7">
+        <v>165757968</v>
+      </c>
+      <c r="AB503" s="7">
+        <v>-626639</v>
+      </c>
+      <c r="AC503" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD503" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE503" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF503" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A504" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C504" s="2"/>
-      <c r="D504" s="2"/>
-      <c r="E504" s="2"/>
-      <c r="F504" s="2"/>
-      <c r="G504" s="2"/>
-      <c r="H504" s="2"/>
-      <c r="I504" s="2"/>
-      <c r="J504" s="2"/>
-      <c r="K504" s="2"/>
-      <c r="L504" s="2"/>
-      <c r="M504" s="2"/>
-      <c r="N504" s="2"/>
-      <c r="O504" s="2"/>
-      <c r="P504" s="2"/>
-      <c r="Q504" s="2"/>
-      <c r="R504" s="2"/>
-      <c r="S504" s="2"/>
+      <c r="D504" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E504" s="5">
+        <v>0</v>
+      </c>
+      <c r="F504" s="5">
+        <v>0</v>
+      </c>
+      <c r="G504" s="5">
+        <v>0</v>
+      </c>
+      <c r="H504" s="5">
+        <v>0</v>
+      </c>
+      <c r="I504" s="5">
+        <v>312.2</v>
+      </c>
+      <c r="J504" s="5">
+        <v>0</v>
+      </c>
+      <c r="K504" s="5">
+        <v>0</v>
+      </c>
+      <c r="L504" s="5">
+        <v>0</v>
+      </c>
+      <c r="M504" s="5">
+        <v>0</v>
+      </c>
+      <c r="N504" s="6">
+        <v>-57372.9</v>
+      </c>
+      <c r="O504" s="5">
+        <v>0</v>
+      </c>
+      <c r="P504" s="6">
+        <v>57372.9</v>
+      </c>
+      <c r="Q504" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R504" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S504" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="T504" s="2"/>
-      <c r="U504" s="2"/>
-      <c r="V504" s="2"/>
-      <c r="W504" s="2"/>
-      <c r="X504" s="2"/>
-      <c r="Y504" s="2"/>
-      <c r="Z504" s="2"/>
-      <c r="AA504" s="2"/>
-      <c r="AB504" s="2"/>
-      <c r="AC504" s="2"/>
-      <c r="AD504" s="2"/>
-      <c r="AE504" s="2"/>
-      <c r="AF504" s="2"/>
+      <c r="U504" s="5">
+        <v>0</v>
+      </c>
+      <c r="V504" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W504" s="5">
+        <v>0</v>
+      </c>
+      <c r="X504" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y504" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z504" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA504" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB504" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC504" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD504" s="7">
+        <v>-70979771</v>
+      </c>
+      <c r="AE504" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF504" s="7">
+        <v>70979771</v>
+      </c>
     </row>
     <row r="505" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A505" s="2"/>
-      <c r="B505" s="2"/>
+      <c r="A505" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B505" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C505" s="2"/>
-      <c r="D505" s="2"/>
-      <c r="E505" s="2"/>
-      <c r="F505" s="2"/>
-      <c r="G505" s="2"/>
-      <c r="H505" s="2"/>
-      <c r="I505" s="2"/>
-      <c r="J505" s="2"/>
-      <c r="K505" s="2"/>
-      <c r="L505" s="2"/>
-      <c r="M505" s="2"/>
-      <c r="N505" s="2"/>
-      <c r="O505" s="2"/>
-      <c r="P505" s="2"/>
-      <c r="Q505" s="2"/>
-      <c r="R505" s="2"/>
-      <c r="S505" s="2"/>
+      <c r="D505" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E505" s="5">
+        <v>0</v>
+      </c>
+      <c r="F505" s="5">
+        <v>0</v>
+      </c>
+      <c r="G505" s="5">
+        <v>0</v>
+      </c>
+      <c r="H505" s="5">
+        <v>0</v>
+      </c>
+      <c r="I505" s="5">
+        <v>204.9</v>
+      </c>
+      <c r="J505" s="5">
+        <v>0</v>
+      </c>
+      <c r="K505" s="5">
+        <v>0</v>
+      </c>
+      <c r="L505" s="5">
+        <v>0</v>
+      </c>
+      <c r="M505" s="5">
+        <v>0</v>
+      </c>
+      <c r="N505" s="6">
+        <v>-136827</v>
+      </c>
+      <c r="O505" s="5">
+        <v>0</v>
+      </c>
+      <c r="P505" s="6">
+        <v>136827</v>
+      </c>
+      <c r="Q505" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R505" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S505" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="T505" s="2"/>
-      <c r="U505" s="2"/>
-      <c r="V505" s="2"/>
-      <c r="W505" s="2"/>
-      <c r="X505" s="2"/>
-      <c r="Y505" s="2"/>
-      <c r="Z505" s="2"/>
-      <c r="AA505" s="2"/>
-      <c r="AB505" s="2"/>
-      <c r="AC505" s="2"/>
-      <c r="AD505" s="2"/>
-      <c r="AE505" s="2"/>
-      <c r="AF505" s="2"/>
+      <c r="U505" s="5">
+        <v>0</v>
+      </c>
+      <c r="V505" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W505" s="5">
+        <v>0</v>
+      </c>
+      <c r="X505" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y505" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z505" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA505" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB505" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC505" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD505" s="7">
+        <v>-187208997</v>
+      </c>
+      <c r="AE505" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF505" s="7">
+        <v>187208997</v>
+      </c>
     </row>
     <row r="506" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A506" s="2"/>
-      <c r="B506" s="2"/>
+      <c r="A506" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C506" s="2"/>
-      <c r="D506" s="2"/>
-      <c r="E506" s="2"/>
-      <c r="F506" s="2"/>
-      <c r="G506" s="2"/>
-      <c r="H506" s="2"/>
-      <c r="I506" s="2"/>
-      <c r="J506" s="2"/>
-      <c r="K506" s="2"/>
-      <c r="L506" s="2"/>
-      <c r="M506" s="2"/>
-      <c r="N506" s="2"/>
-      <c r="O506" s="2"/>
-      <c r="P506" s="2"/>
-      <c r="Q506" s="2"/>
-      <c r="R506" s="2"/>
-      <c r="S506" s="2"/>
+      <c r="D506" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E506" s="5">
+        <v>0</v>
+      </c>
+      <c r="F506" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G506" s="5">
+        <v>34.24</v>
+      </c>
+      <c r="H506" s="6">
+        <v>684800</v>
+      </c>
+      <c r="I506" s="5">
+        <v>35.76</v>
+      </c>
+      <c r="J506" s="6">
+        <v>715200</v>
+      </c>
+      <c r="K506" s="6">
+        <v>30400</v>
+      </c>
+      <c r="L506" s="7">
+        <v>28737280</v>
+      </c>
+      <c r="M506" s="5">
+        <v>0</v>
+      </c>
+      <c r="N506" s="5">
+        <v>0</v>
+      </c>
+      <c r="O506" s="5">
+        <v>0</v>
+      </c>
+      <c r="P506" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q506" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R506" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S506" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="T506" s="2"/>
-      <c r="U506" s="2"/>
-      <c r="V506" s="2"/>
-      <c r="W506" s="2"/>
-      <c r="X506" s="2"/>
-      <c r="Y506" s="2"/>
-      <c r="Z506" s="2"/>
-      <c r="AA506" s="2"/>
-      <c r="AB506" s="2"/>
-      <c r="AC506" s="2"/>
-      <c r="AD506" s="2"/>
-      <c r="AE506" s="2"/>
-      <c r="AF506" s="2"/>
+      <c r="U506" s="5">
+        <v>0</v>
+      </c>
+      <c r="V506" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W506" s="6">
+        <v>1477</v>
+      </c>
+      <c r="X506" s="7">
+        <v>1011449600</v>
+      </c>
+      <c r="Y506" s="6">
+        <v>1454.4</v>
+      </c>
+      <c r="Z506" s="7">
+        <v>1040186880</v>
+      </c>
+      <c r="AA506" s="7">
+        <v>44213760</v>
+      </c>
+      <c r="AB506" s="7">
+        <v>-15476480</v>
+      </c>
+      <c r="AC506" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD506" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE506" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF506" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="507" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A507" s="2"/>
-      <c r="B507" s="2"/>
+      <c r="A507" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C507" s="2"/>
-      <c r="D507" s="2"/>
-      <c r="E507" s="2"/>
-      <c r="F507" s="2"/>
-      <c r="G507" s="2"/>
-      <c r="H507" s="2"/>
-      <c r="I507" s="2"/>
-      <c r="J507" s="2"/>
-      <c r="K507" s="2"/>
-      <c r="L507" s="2"/>
-      <c r="M507" s="2"/>
-      <c r="N507" s="2"/>
-      <c r="O507" s="2"/>
-      <c r="P507" s="2"/>
-      <c r="Q507" s="2"/>
-      <c r="R507" s="2"/>
-      <c r="S507" s="2"/>
+      <c r="D507" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E507" s="5">
+        <v>0</v>
+      </c>
+      <c r="F507" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G507" s="5">
+        <v>251.01</v>
+      </c>
+      <c r="H507" s="6">
+        <v>1255051.8</v>
+      </c>
+      <c r="I507" s="5">
+        <v>276.10000000000002</v>
+      </c>
+      <c r="J507" s="6">
+        <v>1380500</v>
+      </c>
+      <c r="K507" s="6">
+        <v>125448.2</v>
+      </c>
+      <c r="L507" s="7">
+        <v>168528963</v>
+      </c>
+      <c r="M507" s="5">
+        <v>0</v>
+      </c>
+      <c r="N507" s="5">
+        <v>0</v>
+      </c>
+      <c r="O507" s="5">
+        <v>0</v>
+      </c>
+      <c r="P507" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q507" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R507" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S507" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T507" s="2"/>
-      <c r="U507" s="2"/>
-      <c r="V507" s="2"/>
-      <c r="W507" s="2"/>
-      <c r="X507" s="2"/>
-      <c r="Y507" s="2"/>
-      <c r="Z507" s="2"/>
-      <c r="AA507" s="2"/>
-      <c r="AB507" s="2"/>
-      <c r="AC507" s="2"/>
-      <c r="AD507" s="2"/>
-      <c r="AE507" s="2"/>
-      <c r="AF507" s="2"/>
+      <c r="U507" s="5">
+        <v>0</v>
+      </c>
+      <c r="V507" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W507" s="6">
+        <v>1465.49</v>
+      </c>
+      <c r="X507" s="7">
+        <v>1839270237</v>
+      </c>
+      <c r="Y507" s="6">
+        <v>1454.4</v>
+      </c>
+      <c r="Z507" s="7">
+        <v>2007799200</v>
+      </c>
+      <c r="AA507" s="7">
+        <v>182451862</v>
+      </c>
+      <c r="AB507" s="7">
+        <v>-13922900</v>
+      </c>
+      <c r="AC507" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD507" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE507" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF507" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="508" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A508" s="2"/>
-      <c r="B508" s="2"/>
+      <c r="A508" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="C508" s="2"/>
-      <c r="D508" s="2"/>
-      <c r="E508" s="2"/>
-      <c r="F508" s="2"/>
-      <c r="G508" s="2"/>
-      <c r="H508" s="2"/>
-      <c r="I508" s="2"/>
-      <c r="J508" s="2"/>
-      <c r="K508" s="2"/>
-      <c r="L508" s="2"/>
-      <c r="M508" s="2"/>
-      <c r="N508" s="2"/>
-      <c r="O508" s="2"/>
-      <c r="P508" s="2"/>
-      <c r="Q508" s="2"/>
-      <c r="R508" s="2"/>
-      <c r="S508" s="2"/>
+      <c r="D508" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E508" s="5">
+        <v>0</v>
+      </c>
+      <c r="F508" s="6">
+        <v>1550</v>
+      </c>
+      <c r="G508" s="5">
+        <v>192.399</v>
+      </c>
+      <c r="H508" s="6">
+        <v>298219.38</v>
+      </c>
+      <c r="I508" s="5">
+        <v>192.04</v>
+      </c>
+      <c r="J508" s="6">
+        <v>297662</v>
+      </c>
+      <c r="K508" s="5">
+        <v>-557.38</v>
+      </c>
+      <c r="L508" s="7">
+        <v>-1794778</v>
+      </c>
+      <c r="M508" s="5">
+        <v>0</v>
+      </c>
+      <c r="N508" s="5">
+        <v>0</v>
+      </c>
+      <c r="O508" s="5">
+        <v>0</v>
+      </c>
+      <c r="P508" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q508" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R508" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S508" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="T508" s="2"/>
-      <c r="U508" s="2"/>
-      <c r="V508" s="2"/>
-      <c r="W508" s="2"/>
-      <c r="X508" s="2"/>
-      <c r="Y508" s="2"/>
-      <c r="Z508" s="2"/>
-      <c r="AA508" s="2"/>
-      <c r="AB508" s="2"/>
-      <c r="AC508" s="2"/>
-      <c r="AD508" s="2"/>
-      <c r="AE508" s="2"/>
-      <c r="AF508" s="2"/>
+      <c r="U508" s="5">
+        <v>0</v>
+      </c>
+      <c r="V508" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W508" s="6">
+        <v>1457.69</v>
+      </c>
+      <c r="X508" s="7">
+        <v>434714390</v>
+      </c>
+      <c r="Y508" s="6">
+        <v>1454.4</v>
+      </c>
+      <c r="Z508" s="7">
+        <v>432919612</v>
+      </c>
+      <c r="AA508" s="7">
+        <v>-810653</v>
+      </c>
+      <c r="AB508" s="7">
+        <v>-984124</v>
+      </c>
+      <c r="AC508" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD508" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE508" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF508" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="509" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A509" s="2"/>
-      <c r="B509" s="2"/>
+      <c r="A509" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="C509" s="2"/>
-      <c r="D509" s="2"/>
-      <c r="E509" s="2"/>
-      <c r="F509" s="2"/>
-      <c r="G509" s="2"/>
-      <c r="H509" s="2"/>
-      <c r="I509" s="2"/>
-      <c r="J509" s="2"/>
-      <c r="K509" s="2"/>
-      <c r="L509" s="2"/>
-      <c r="M509" s="2"/>
-      <c r="N509" s="2"/>
-      <c r="O509" s="2"/>
-      <c r="P509" s="2"/>
-      <c r="Q509" s="2"/>
-      <c r="R509" s="2"/>
-      <c r="S509" s="2"/>
+      <c r="D509" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E509" s="5">
+        <v>0</v>
+      </c>
+      <c r="F509" s="6">
+        <v>35000</v>
+      </c>
+      <c r="G509" s="5">
+        <v>8.0350000000000001</v>
+      </c>
+      <c r="H509" s="6">
+        <v>281256.5</v>
+      </c>
+      <c r="I509" s="5">
+        <v>8.43</v>
+      </c>
+      <c r="J509" s="6">
+        <v>295050</v>
+      </c>
+      <c r="K509" s="6">
+        <v>13793.5</v>
+      </c>
+      <c r="L509" s="7">
+        <v>17276828</v>
+      </c>
+      <c r="M509" s="5">
+        <v>0</v>
+      </c>
+      <c r="N509" s="5">
+        <v>0</v>
+      </c>
+      <c r="O509" s="5">
+        <v>0</v>
+      </c>
+      <c r="P509" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q509" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R509" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S509" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="T509" s="2"/>
-      <c r="U509" s="2"/>
-      <c r="V509" s="2"/>
-      <c r="W509" s="2"/>
-      <c r="X509" s="2"/>
-      <c r="Y509" s="2"/>
-      <c r="Z509" s="2"/>
-      <c r="AA509" s="2"/>
-      <c r="AB509" s="2"/>
-      <c r="AC509" s="2"/>
-      <c r="AD509" s="2"/>
-      <c r="AE509" s="2"/>
-      <c r="AF509" s="2"/>
+      <c r="U509" s="5">
+        <v>0</v>
+      </c>
+      <c r="V509" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W509" s="6">
+        <v>1464.29</v>
+      </c>
+      <c r="X509" s="7">
+        <v>411843892</v>
+      </c>
+      <c r="Y509" s="6">
+        <v>1454.4</v>
+      </c>
+      <c r="Z509" s="7">
+        <v>429120720</v>
+      </c>
+      <c r="AA509" s="7">
+        <v>20061266</v>
+      </c>
+      <c r="AB509" s="7">
+        <v>-2784439</v>
+      </c>
+      <c r="AC509" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD509" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE509" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF509" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="510" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A510" s="2"/>
-      <c r="B510" s="2"/>
+      <c r="A510" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B510" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="C510" s="2"/>
-      <c r="D510" s="2"/>
-      <c r="E510" s="2"/>
-      <c r="F510" s="2"/>
-      <c r="G510" s="2"/>
-      <c r="H510" s="2"/>
-      <c r="I510" s="2"/>
-      <c r="J510" s="2"/>
-      <c r="K510" s="2"/>
-      <c r="L510" s="2"/>
-      <c r="M510" s="2"/>
-      <c r="N510" s="2"/>
-      <c r="O510" s="2"/>
-      <c r="P510" s="2"/>
-      <c r="Q510" s="2"/>
-      <c r="R510" s="2"/>
-      <c r="S510" s="2"/>
+      <c r="D510" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E510" s="5">
+        <v>0</v>
+      </c>
+      <c r="F510" s="5">
+        <v>0</v>
+      </c>
+      <c r="G510" s="5">
+        <v>0</v>
+      </c>
+      <c r="H510" s="5">
+        <v>0</v>
+      </c>
+      <c r="I510" s="5">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="J510" s="5">
+        <v>0</v>
+      </c>
+      <c r="K510" s="5">
+        <v>0</v>
+      </c>
+      <c r="L510" s="5">
+        <v>0</v>
+      </c>
+      <c r="M510" s="5">
+        <v>0</v>
+      </c>
+      <c r="N510" s="6">
+        <v>-276165.90000000002</v>
+      </c>
+      <c r="O510" s="5">
+        <v>0</v>
+      </c>
+      <c r="P510" s="6">
+        <v>276165.90000000002</v>
+      </c>
+      <c r="Q510" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R510" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S510" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="T510" s="2"/>
-      <c r="U510" s="2"/>
-      <c r="V510" s="2"/>
-      <c r="W510" s="2"/>
-      <c r="X510" s="2"/>
-      <c r="Y510" s="2"/>
-      <c r="Z510" s="2"/>
-      <c r="AA510" s="2"/>
-      <c r="AB510" s="2"/>
-      <c r="AC510" s="2"/>
-      <c r="AD510" s="2"/>
-      <c r="AE510" s="2"/>
-      <c r="AF510" s="2"/>
+      <c r="U510" s="5">
+        <v>0</v>
+      </c>
+      <c r="V510" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W510" s="5">
+        <v>0</v>
+      </c>
+      <c r="X510" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y510" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA510" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB510" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC510" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD510" s="7">
+        <v>-413294425</v>
+      </c>
+      <c r="AE510" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF510" s="7">
+        <v>413294425</v>
+      </c>
     </row>
     <row r="511" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A511" s="2"/>
-      <c r="B511" s="2"/>
+      <c r="A511" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B511" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C511" s="2"/>
-      <c r="D511" s="2"/>
-      <c r="E511" s="2"/>
-      <c r="F511" s="2"/>
-      <c r="G511" s="2"/>
-      <c r="H511" s="2"/>
-      <c r="I511" s="2"/>
-      <c r="J511" s="2"/>
-      <c r="K511" s="2"/>
-      <c r="L511" s="2"/>
-      <c r="M511" s="2"/>
-      <c r="N511" s="2"/>
-      <c r="O511" s="2"/>
-      <c r="P511" s="2"/>
-      <c r="Q511" s="2"/>
-      <c r="R511" s="2"/>
-      <c r="S511" s="2"/>
+      <c r="D511" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E511" s="5">
+        <v>0</v>
+      </c>
+      <c r="F511" s="6">
+        <v>5500</v>
+      </c>
+      <c r="G511" s="5">
+        <v>191.75399999999999</v>
+      </c>
+      <c r="H511" s="6">
+        <v>1054647.55</v>
+      </c>
+      <c r="I511" s="5">
+        <v>190.62</v>
+      </c>
+      <c r="J511" s="6">
+        <v>1048410</v>
+      </c>
+      <c r="K511" s="6">
+        <v>-6237.55</v>
+      </c>
+      <c r="L511" s="7">
+        <v>19825451</v>
+      </c>
+      <c r="M511" s="5">
+        <v>0</v>
+      </c>
+      <c r="N511" s="5">
+        <v>0</v>
+      </c>
+      <c r="O511" s="5">
+        <v>0</v>
+      </c>
+      <c r="P511" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q511" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R511" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S511" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="T511" s="2"/>
-      <c r="U511" s="2"/>
-      <c r="V511" s="2"/>
-      <c r="W511" s="2"/>
-      <c r="X511" s="2"/>
-      <c r="Y511" s="2"/>
-      <c r="Z511" s="2"/>
-      <c r="AA511" s="2"/>
-      <c r="AB511" s="2"/>
-      <c r="AC511" s="2"/>
-      <c r="AD511" s="2"/>
-      <c r="AE511" s="2"/>
-      <c r="AF511" s="2"/>
+      <c r="U511" s="5">
+        <v>0</v>
+      </c>
+      <c r="V511" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W511" s="6">
+        <v>1426.99</v>
+      </c>
+      <c r="X511" s="7">
+        <v>1504982053</v>
+      </c>
+      <c r="Y511" s="6">
+        <v>1454.4</v>
+      </c>
+      <c r="Z511" s="7">
+        <v>1524807504</v>
+      </c>
+      <c r="AA511" s="7">
+        <v>-9071892</v>
+      </c>
+      <c r="AB511" s="7">
+        <v>28897343</v>
+      </c>
+      <c r="AC511" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD511" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE511" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF511" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="512" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A512" s="2"/>
-      <c r="B512" s="2"/>
+      <c r="A512" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B512" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="C512" s="2"/>
-      <c r="D512" s="2"/>
-      <c r="E512" s="2"/>
-      <c r="F512" s="2"/>
-      <c r="G512" s="2"/>
-      <c r="H512" s="2"/>
-      <c r="I512" s="2"/>
-      <c r="J512" s="2"/>
-      <c r="K512" s="2"/>
-      <c r="L512" s="2"/>
-      <c r="M512" s="2"/>
-      <c r="N512" s="2"/>
-      <c r="O512" s="2"/>
-      <c r="P512" s="2"/>
-      <c r="Q512" s="2"/>
-      <c r="R512" s="2"/>
-      <c r="S512" s="2"/>
+      <c r="D512" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E512" s="5">
+        <v>0</v>
+      </c>
+      <c r="F512" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G512" s="5">
+        <v>45.33</v>
+      </c>
+      <c r="H512" s="6">
+        <v>906615</v>
+      </c>
+      <c r="I512" s="5">
+        <v>47.39</v>
+      </c>
+      <c r="J512" s="6">
+        <v>947800</v>
+      </c>
+      <c r="K512" s="6">
+        <v>41185</v>
+      </c>
+      <c r="L512" s="7">
+        <v>46323309</v>
+      </c>
+      <c r="M512" s="5">
+        <v>0</v>
+      </c>
+      <c r="N512" s="5">
+        <v>0</v>
+      </c>
+      <c r="O512" s="5">
+        <v>0</v>
+      </c>
+      <c r="P512" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q512" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R512" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S512" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="T512" s="2"/>
-      <c r="U512" s="2"/>
-      <c r="V512" s="2"/>
-      <c r="W512" s="2"/>
-      <c r="X512" s="2"/>
-      <c r="Y512" s="2"/>
-      <c r="Z512" s="2"/>
-      <c r="AA512" s="2"/>
-      <c r="AB512" s="2"/>
-      <c r="AC512" s="2"/>
-      <c r="AD512" s="2"/>
-      <c r="AE512" s="2"/>
-      <c r="AF512" s="2"/>
+      <c r="U512" s="5">
+        <v>0</v>
+      </c>
+      <c r="V512" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W512" s="6">
+        <v>1469.37</v>
+      </c>
+      <c r="X512" s="7">
+        <v>1332157011</v>
+      </c>
+      <c r="Y512" s="6">
+        <v>1454.4</v>
+      </c>
+      <c r="Z512" s="7">
+        <v>1378480320</v>
+      </c>
+      <c r="AA512" s="7">
+        <v>59899464</v>
+      </c>
+      <c r="AB512" s="7">
+        <v>-13576155</v>
+      </c>
+      <c r="AC512" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD512" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE512" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF512" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="513" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A513" s="2"/>
-      <c r="B513" s="2"/>
+      <c r="A513" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B513" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C513" s="2"/>
-      <c r="D513" s="2"/>
-      <c r="E513" s="2"/>
-      <c r="F513" s="2"/>
-      <c r="G513" s="2"/>
-      <c r="H513" s="2"/>
-      <c r="I513" s="2"/>
-      <c r="J513" s="2"/>
-      <c r="K513" s="2"/>
-      <c r="L513" s="2"/>
-      <c r="M513" s="2"/>
-      <c r="N513" s="2"/>
-      <c r="O513" s="2"/>
-      <c r="P513" s="2"/>
-      <c r="Q513" s="2"/>
-      <c r="R513" s="2"/>
-      <c r="S513" s="2"/>
+      <c r="D513" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E513" s="5">
+        <v>0</v>
+      </c>
+      <c r="F513" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G513" s="5">
+        <v>681.92</v>
+      </c>
+      <c r="H513" s="6">
+        <v>681920</v>
+      </c>
+      <c r="I513" s="5">
+        <v>693.83</v>
+      </c>
+      <c r="J513" s="6">
+        <v>693830</v>
+      </c>
+      <c r="K513" s="6">
+        <v>11910</v>
+      </c>
+      <c r="L513" s="7">
+        <v>30619344</v>
+      </c>
+      <c r="M513" s="5">
+        <v>0</v>
+      </c>
+      <c r="N513" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="O513" s="6">
+        <v>20010.3</v>
+      </c>
+      <c r="P513" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q513" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R513" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S513" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T513" s="2"/>
-      <c r="U513" s="2"/>
-      <c r="V513" s="2"/>
-      <c r="W513" s="2"/>
-      <c r="X513" s="2"/>
-      <c r="Y513" s="2"/>
-      <c r="Z513" s="2"/>
-      <c r="AA513" s="2"/>
-      <c r="AB513" s="2"/>
-      <c r="AC513" s="2"/>
-      <c r="AD513" s="2"/>
-      <c r="AE513" s="2"/>
-      <c r="AF513" s="2"/>
+      <c r="U513" s="5">
+        <v>0</v>
+      </c>
+      <c r="V513" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W513" s="6">
+        <v>1434.9</v>
+      </c>
+      <c r="X513" s="7">
+        <v>978487008</v>
+      </c>
+      <c r="Y513" s="6">
+        <v>1454.4</v>
+      </c>
+      <c r="Z513" s="7">
+        <v>1009106352</v>
+      </c>
+      <c r="AA513" s="7">
+        <v>17321904</v>
+      </c>
+      <c r="AB513" s="7">
+        <v>13297440</v>
+      </c>
+      <c r="AC513" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD513" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AE513" s="7">
+        <v>135496504</v>
+      </c>
+      <c r="AF513" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="514" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A514" s="2"/>
-      <c r="B514" s="2"/>
+      <c r="A514" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C514" s="2"/>
-      <c r="D514" s="2"/>
-      <c r="E514" s="2"/>
-      <c r="F514" s="2"/>
-      <c r="G514" s="2"/>
-      <c r="H514" s="2"/>
-      <c r="I514" s="2"/>
-      <c r="J514" s="2"/>
-      <c r="K514" s="2"/>
-      <c r="L514" s="2"/>
-      <c r="M514" s="2"/>
-      <c r="N514" s="2"/>
-      <c r="O514" s="2"/>
-      <c r="P514" s="2"/>
-      <c r="Q514" s="2"/>
-      <c r="R514" s="2"/>
-      <c r="S514" s="2"/>
+      <c r="D514" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E514" s="5">
+        <v>0</v>
+      </c>
+      <c r="F514" s="6">
+        <v>3200</v>
+      </c>
+      <c r="G514" s="5">
+        <v>396.31</v>
+      </c>
+      <c r="H514" s="6">
+        <v>1268192</v>
+      </c>
+      <c r="I514" s="5">
+        <v>464.58</v>
+      </c>
+      <c r="J514" s="6">
+        <v>1486656</v>
+      </c>
+      <c r="K514" s="6">
+        <v>218464</v>
+      </c>
+      <c r="L514" s="7">
+        <v>342463786</v>
+      </c>
+      <c r="M514" s="5">
+        <v>0</v>
+      </c>
+      <c r="N514" s="6">
+        <v>68472.5</v>
+      </c>
+      <c r="O514" s="6">
+        <v>68472.5</v>
+      </c>
+      <c r="P514" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q514" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R514" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S514" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="T514" s="2"/>
-      <c r="U514" s="2"/>
-      <c r="V514" s="2"/>
-      <c r="W514" s="2"/>
-      <c r="X514" s="2"/>
-      <c r="Y514" s="2"/>
-      <c r="Z514" s="2"/>
-      <c r="AA514" s="2"/>
-      <c r="AB514" s="2"/>
-      <c r="AC514" s="2"/>
-      <c r="AD514" s="2"/>
-      <c r="AE514" s="2"/>
-      <c r="AF514" s="2"/>
+      <c r="U514" s="5">
+        <v>0</v>
+      </c>
+      <c r="V514" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W514" s="6">
+        <v>1434.89</v>
+      </c>
+      <c r="X514" s="7">
+        <v>1819728700</v>
+      </c>
+      <c r="Y514" s="6">
+        <v>1454.4</v>
+      </c>
+      <c r="Z514" s="7">
+        <v>2162192486</v>
+      </c>
+      <c r="AA514" s="7">
+        <v>317734041</v>
+      </c>
+      <c r="AB514" s="7">
+        <v>24729744</v>
+      </c>
+      <c r="AC514" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD514" s="7">
+        <v>114704490</v>
+      </c>
+      <c r="AE514" s="7">
+        <v>114704490</v>
+      </c>
+      <c r="AF514" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="515" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A515" s="2"/>
-      <c r="B515" s="2"/>
+      <c r="A515" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="C515" s="2"/>
-      <c r="D515" s="2"/>
-      <c r="E515" s="2"/>
-      <c r="F515" s="2"/>
-      <c r="G515" s="2"/>
-      <c r="H515" s="2"/>
-      <c r="I515" s="2"/>
-      <c r="J515" s="2"/>
-      <c r="K515" s="2"/>
-      <c r="L515" s="2"/>
-      <c r="M515" s="2"/>
-      <c r="N515" s="2"/>
-      <c r="O515" s="2"/>
-      <c r="P515" s="2"/>
-      <c r="Q515" s="2"/>
-      <c r="R515" s="2"/>
-      <c r="S515" s="2"/>
+      <c r="D515" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E515" s="5">
+        <v>0</v>
+      </c>
+      <c r="F515" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G515" s="5">
+        <v>87.436000000000007</v>
+      </c>
+      <c r="H515" s="6">
+        <v>437184.5</v>
+      </c>
+      <c r="I515" s="5">
+        <v>88.39</v>
+      </c>
+      <c r="J515" s="6">
+        <v>441950</v>
+      </c>
+      <c r="K515" s="6">
+        <v>4765.5</v>
+      </c>
+      <c r="L515" s="7">
+        <v>-20290</v>
+      </c>
+      <c r="M515" s="5">
+        <v>0</v>
+      </c>
+      <c r="N515" s="5">
+        <v>0</v>
+      </c>
+      <c r="O515" s="5">
+        <v>0</v>
+      </c>
+      <c r="P515" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q515" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R515" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S515" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="T515" s="2"/>
-      <c r="U515" s="2"/>
-      <c r="V515" s="2"/>
-      <c r="W515" s="2"/>
-      <c r="X515" s="2"/>
-      <c r="Y515" s="2"/>
-      <c r="Z515" s="2"/>
-      <c r="AA515" s="2"/>
-      <c r="AB515" s="2"/>
-      <c r="AC515" s="2"/>
-      <c r="AD515" s="2"/>
-      <c r="AE515" s="2"/>
-      <c r="AF515" s="2"/>
+      <c r="U515" s="5">
+        <v>0</v>
+      </c>
+      <c r="V515" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W515" s="6">
+        <v>1470.29</v>
+      </c>
+      <c r="X515" s="7">
+        <v>642792370</v>
+      </c>
+      <c r="Y515" s="6">
+        <v>1454.4</v>
+      </c>
+      <c r="Z515" s="7">
+        <v>642772080</v>
+      </c>
+      <c r="AA515" s="7">
+        <v>6930943</v>
+      </c>
+      <c r="AB515" s="7">
+        <v>-6951234</v>
+      </c>
+      <c r="AC515" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD515" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE515" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF515" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="516" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A516" s="2"/>
-      <c r="B516" s="2"/>
+      <c r="A516" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C516" s="2"/>
-      <c r="D516" s="2"/>
-      <c r="E516" s="2"/>
-      <c r="F516" s="2"/>
-      <c r="G516" s="2"/>
-      <c r="H516" s="2"/>
-      <c r="I516" s="2"/>
-      <c r="J516" s="2"/>
-      <c r="K516" s="2"/>
-      <c r="L516" s="2"/>
-      <c r="M516" s="2"/>
-      <c r="N516" s="2"/>
-      <c r="O516" s="2"/>
-      <c r="P516" s="2"/>
-      <c r="Q516" s="2"/>
-      <c r="R516" s="2"/>
-      <c r="S516" s="2"/>
+      <c r="D516" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E516" s="5">
+        <v>0</v>
+      </c>
+      <c r="F516" s="6">
+        <v>24000</v>
+      </c>
+      <c r="G516" s="5">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H516" s="6">
+        <v>423736.8</v>
+      </c>
+      <c r="I516" s="5">
+        <v>16.57</v>
+      </c>
+      <c r="J516" s="6">
+        <v>397680</v>
+      </c>
+      <c r="K516" s="6">
+        <v>-26056.799999999999</v>
+      </c>
+      <c r="L516" s="7">
+        <v>-42007256</v>
+      </c>
+      <c r="M516" s="5">
+        <v>0</v>
+      </c>
+      <c r="N516" s="5">
+        <v>0</v>
+      </c>
+      <c r="O516" s="5">
+        <v>0</v>
+      </c>
+      <c r="P516" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q516" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R516" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S516" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="T516" s="2"/>
-      <c r="U516" s="2"/>
-      <c r="V516" s="2"/>
-      <c r="W516" s="2"/>
-      <c r="X516" s="2"/>
-      <c r="Y516" s="2"/>
-      <c r="Z516" s="2"/>
-      <c r="AA516" s="2"/>
-      <c r="AB516" s="2"/>
-      <c r="AC516" s="2"/>
-      <c r="AD516" s="2"/>
-      <c r="AE516" s="2"/>
-      <c r="AF516" s="2"/>
+      <c r="U516" s="5">
+        <v>0</v>
+      </c>
+      <c r="V516" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W516" s="6">
+        <v>1464.09</v>
+      </c>
+      <c r="X516" s="7">
+        <v>620393048</v>
+      </c>
+      <c r="Y516" s="6">
+        <v>1454.4</v>
+      </c>
+      <c r="Z516" s="7">
+        <v>578385792</v>
+      </c>
+      <c r="AA516" s="7">
+        <v>-37897009</v>
+      </c>
+      <c r="AB516" s="7">
+        <v>-4110247</v>
+      </c>
+      <c r="AC516" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD516" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE516" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF516" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="517" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A517" s="2"/>
-      <c r="B517" s="2"/>
+      <c r="A517" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="C517" s="2"/>
-      <c r="D517" s="2"/>
-      <c r="E517" s="2"/>
-      <c r="F517" s="2"/>
-      <c r="G517" s="2"/>
-      <c r="H517" s="2"/>
-      <c r="I517" s="2"/>
-      <c r="J517" s="2"/>
-      <c r="K517" s="2"/>
-      <c r="L517" s="2"/>
-      <c r="M517" s="2"/>
-      <c r="N517" s="2"/>
-      <c r="O517" s="2"/>
-      <c r="P517" s="2"/>
-      <c r="Q517" s="2"/>
-      <c r="R517" s="2"/>
-      <c r="S517" s="2"/>
+      <c r="D517" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E517" s="5">
+        <v>0</v>
+      </c>
+      <c r="F517" s="6">
+        <v>1400</v>
+      </c>
+      <c r="G517" s="5">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H517" s="6">
+        <v>605554.04</v>
+      </c>
+      <c r="I517" s="5">
+        <v>428.09</v>
+      </c>
+      <c r="J517" s="6">
+        <v>599326</v>
+      </c>
+      <c r="K517" s="6">
+        <v>-6228.04</v>
+      </c>
+      <c r="L517" s="7">
+        <v>-4455851</v>
+      </c>
+      <c r="M517" s="5">
+        <v>0</v>
+      </c>
+      <c r="N517" s="5">
+        <v>0</v>
+      </c>
+      <c r="O517" s="5">
+        <v>0</v>
+      </c>
+      <c r="P517" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q517" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R517" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S517" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="T517" s="2"/>
-      <c r="U517" s="2"/>
-      <c r="V517" s="2"/>
-      <c r="W517" s="2"/>
-      <c r="X517" s="2"/>
-      <c r="Y517" s="2"/>
-      <c r="Z517" s="2"/>
-      <c r="AA517" s="2"/>
-      <c r="AB517" s="2"/>
-      <c r="AC517" s="2"/>
-      <c r="AD517" s="2"/>
-      <c r="AE517" s="2"/>
-      <c r="AF517" s="2"/>
+      <c r="U517" s="5">
+        <v>0</v>
+      </c>
+      <c r="V517" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W517" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X517" s="7">
+        <v>876115585</v>
+      </c>
+      <c r="Y517" s="6">
+        <v>1454.4</v>
+      </c>
+      <c r="Z517" s="7">
+        <v>871659734</v>
+      </c>
+      <c r="AA517" s="7">
+        <v>-9058061</v>
+      </c>
+      <c r="AB517" s="7">
+        <v>4602210</v>
+      </c>
+      <c r="AC517" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD517" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE517" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF517" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="518" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A518" s="2"/>
-      <c r="B518" s="2"/>
+      <c r="A518" s="3">
+        <v>46065</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C518" s="2"/>
-      <c r="D518" s="2"/>
-      <c r="E518" s="2"/>
-      <c r="F518" s="2"/>
-      <c r="G518" s="2"/>
-      <c r="H518" s="2"/>
-      <c r="I518" s="2"/>
-      <c r="J518" s="2"/>
-      <c r="K518" s="2"/>
-      <c r="L518" s="2"/>
-      <c r="M518" s="2"/>
-      <c r="N518" s="2"/>
-      <c r="O518" s="2"/>
-      <c r="P518" s="2"/>
-      <c r="Q518" s="2"/>
-      <c r="R518" s="2"/>
-      <c r="S518" s="2"/>
+      <c r="D518" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E518" s="5">
+        <v>0</v>
+      </c>
+      <c r="F518" s="6">
+        <v>3500</v>
+      </c>
+      <c r="G518" s="5">
+        <v>169.042</v>
+      </c>
+      <c r="H518" s="6">
+        <v>591649.80000000005</v>
+      </c>
+      <c r="I518" s="5">
+        <v>161.71</v>
+      </c>
+      <c r="J518" s="6">
+        <v>565985</v>
+      </c>
+      <c r="K518" s="6">
+        <v>-25664.799999999999</v>
+      </c>
+      <c r="L518" s="7">
+        <v>-32830346</v>
+      </c>
+      <c r="M518" s="5">
+        <v>0</v>
+      </c>
+      <c r="N518" s="5">
+        <v>0</v>
+      </c>
+      <c r="O518" s="5">
+        <v>0</v>
+      </c>
+      <c r="P518" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q518" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R518" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S518" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="T518" s="2"/>
-      <c r="U518" s="2"/>
-      <c r="V518" s="2"/>
-      <c r="W518" s="2"/>
-      <c r="X518" s="2"/>
-      <c r="Y518" s="2"/>
-      <c r="Z518" s="2"/>
-      <c r="AA518" s="2"/>
-      <c r="AB518" s="2"/>
-      <c r="AC518" s="2"/>
-      <c r="AD518" s="2"/>
-      <c r="AE518" s="2"/>
-      <c r="AF518" s="2"/>
+      <c r="U518" s="5">
+        <v>0</v>
+      </c>
+      <c r="V518" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W518" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X518" s="7">
+        <v>855998930</v>
+      </c>
+      <c r="Y518" s="6">
+        <v>1454.4</v>
+      </c>
+      <c r="Z518" s="7">
+        <v>823168584</v>
+      </c>
+      <c r="AA518" s="7">
+        <v>-37326885</v>
+      </c>
+      <c r="AB518" s="7">
+        <v>4496539</v>
+      </c>
+      <c r="AC518" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD518" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE518" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF518" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="519" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A519" s="2"/>

--- a/2026_멀티.xlsx
+++ b/2026_멀티.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\다른 컴퓨터\내 Mac\Workspace\Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F19A72-92AE-4395-810F-5B3EA351731D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091DB785-CD97-4DAB-A5DE-6370372E7140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="125">
   <si>
     <t>기준일자</t>
   </si>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A530" workbookViewId="0">
-      <selection activeCell="D544" sqref="D544"/>
+    <sheetView tabSelected="1" topLeftCell="A709" workbookViewId="0">
+      <selection activeCell="F730" sqref="F730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -66129,1058 +66129,2896 @@
       </c>
     </row>
     <row r="699" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A699" s="2"/>
-      <c r="B699" s="2"/>
+      <c r="A699" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B699" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="C699" s="2"/>
-      <c r="D699" s="2"/>
-      <c r="E699" s="2"/>
-      <c r="F699" s="2"/>
-      <c r="G699" s="2"/>
-      <c r="H699" s="2"/>
-      <c r="I699" s="2"/>
-      <c r="J699" s="2"/>
-      <c r="K699" s="2"/>
-      <c r="L699" s="2"/>
-      <c r="M699" s="2"/>
-      <c r="N699" s="2"/>
-      <c r="O699" s="2"/>
-      <c r="P699" s="2"/>
-      <c r="Q699" s="2"/>
-      <c r="R699" s="2"/>
-      <c r="S699" s="2"/>
+      <c r="D699" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E699" s="5">
+        <v>0</v>
+      </c>
+      <c r="F699" s="6">
+        <v>6500</v>
+      </c>
+      <c r="G699" s="5">
+        <v>117.809</v>
+      </c>
+      <c r="H699" s="6">
+        <v>765763.05</v>
+      </c>
+      <c r="I699" s="5">
+        <v>119.03</v>
+      </c>
+      <c r="J699" s="6">
+        <v>773695</v>
+      </c>
+      <c r="K699" s="6">
+        <v>7931.95</v>
+      </c>
+      <c r="L699" s="7">
+        <v>2793475</v>
+      </c>
+      <c r="M699" s="5">
+        <v>0</v>
+      </c>
+      <c r="N699" s="5">
+        <v>0</v>
+      </c>
+      <c r="O699" s="5">
+        <v>0</v>
+      </c>
+      <c r="P699" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q699" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R699" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S699" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="T699" s="2"/>
-      <c r="U699" s="2"/>
-      <c r="V699" s="2"/>
-      <c r="W699" s="2"/>
-      <c r="X699" s="2"/>
-      <c r="Y699" s="2"/>
-      <c r="Z699" s="2"/>
-      <c r="AA699" s="2"/>
-      <c r="AB699" s="2"/>
-      <c r="AC699" s="2"/>
-      <c r="AD699" s="2"/>
-      <c r="AE699" s="2"/>
-      <c r="AF699" s="2"/>
+      <c r="U699" s="5">
+        <v>0</v>
+      </c>
+      <c r="V699" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W699" s="6">
+        <v>1454.39</v>
+      </c>
+      <c r="X699" s="7">
+        <v>1113725779</v>
+      </c>
+      <c r="Y699" s="6">
+        <v>1443.1</v>
+      </c>
+      <c r="Z699" s="7">
+        <v>1116519254</v>
+      </c>
+      <c r="AA699" s="7">
+        <v>11446597</v>
+      </c>
+      <c r="AB699" s="7">
+        <v>-8653122</v>
+      </c>
+      <c r="AC699" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD699" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE699" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF699" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="700" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A700" s="2"/>
-      <c r="B700" s="2"/>
+      <c r="A700" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C700" s="2"/>
-      <c r="D700" s="2"/>
-      <c r="E700" s="2"/>
-      <c r="F700" s="2"/>
-      <c r="G700" s="2"/>
-      <c r="H700" s="2"/>
-      <c r="I700" s="2"/>
-      <c r="J700" s="2"/>
-      <c r="K700" s="2"/>
-      <c r="L700" s="2"/>
-      <c r="M700" s="2"/>
-      <c r="N700" s="2"/>
-      <c r="O700" s="2"/>
-      <c r="P700" s="2"/>
-      <c r="Q700" s="2"/>
-      <c r="R700" s="2"/>
-      <c r="S700" s="2"/>
+      <c r="D700" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E700" s="5">
+        <v>0</v>
+      </c>
+      <c r="F700" s="6">
+        <v>38000</v>
+      </c>
+      <c r="G700" s="5">
+        <v>12.58</v>
+      </c>
+      <c r="H700" s="6">
+        <v>478066.6</v>
+      </c>
+      <c r="I700" s="5">
+        <v>12.34</v>
+      </c>
+      <c r="J700" s="6">
+        <v>468920</v>
+      </c>
+      <c r="K700" s="6">
+        <v>-9146.6</v>
+      </c>
+      <c r="L700" s="7">
+        <v>-25294543</v>
+      </c>
+      <c r="M700" s="5">
+        <v>0</v>
+      </c>
+      <c r="N700" s="5">
+        <v>0</v>
+      </c>
+      <c r="O700" s="5">
+        <v>0</v>
+      </c>
+      <c r="P700" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q700" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R700" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S700" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="T700" s="2"/>
-      <c r="U700" s="2"/>
-      <c r="V700" s="2"/>
-      <c r="W700" s="2"/>
-      <c r="X700" s="2"/>
-      <c r="Y700" s="2"/>
-      <c r="Z700" s="2"/>
-      <c r="AA700" s="2"/>
-      <c r="AB700" s="2"/>
-      <c r="AC700" s="2"/>
-      <c r="AD700" s="2"/>
-      <c r="AE700" s="2"/>
-      <c r="AF700" s="2"/>
+      <c r="U700" s="5">
+        <v>0</v>
+      </c>
+      <c r="V700" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W700" s="6">
+        <v>1468.39</v>
+      </c>
+      <c r="X700" s="7">
+        <v>701992995</v>
+      </c>
+      <c r="Y700" s="6">
+        <v>1443.1</v>
+      </c>
+      <c r="Z700" s="7">
+        <v>676698452</v>
+      </c>
+      <c r="AA700" s="7">
+        <v>-13199458</v>
+      </c>
+      <c r="AB700" s="7">
+        <v>-12095085</v>
+      </c>
+      <c r="AC700" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD700" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE700" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF700" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="701" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A701" s="2"/>
-      <c r="B701" s="2"/>
+      <c r="A701" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C701" s="2"/>
-      <c r="D701" s="2"/>
-      <c r="E701" s="2"/>
-      <c r="F701" s="2"/>
-      <c r="G701" s="2"/>
-      <c r="H701" s="2"/>
-      <c r="I701" s="2"/>
-      <c r="J701" s="2"/>
-      <c r="K701" s="2"/>
-      <c r="L701" s="2"/>
-      <c r="M701" s="2"/>
-      <c r="N701" s="2"/>
-      <c r="O701" s="2"/>
-      <c r="P701" s="2"/>
-      <c r="Q701" s="2"/>
-      <c r="R701" s="2"/>
-      <c r="S701" s="2"/>
+      <c r="D701" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E701" s="5">
+        <v>0</v>
+      </c>
+      <c r="F701" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G701" s="5">
+        <v>48.203000000000003</v>
+      </c>
+      <c r="H701" s="6">
+        <v>482030</v>
+      </c>
+      <c r="I701" s="5">
+        <v>55.33</v>
+      </c>
+      <c r="J701" s="6">
+        <v>553300</v>
+      </c>
+      <c r="K701" s="6">
+        <v>71270</v>
+      </c>
+      <c r="L701" s="7">
+        <v>96776159</v>
+      </c>
+      <c r="M701" s="5">
+        <v>0</v>
+      </c>
+      <c r="N701" s="5">
+        <v>0</v>
+      </c>
+      <c r="O701" s="5">
+        <v>0</v>
+      </c>
+      <c r="P701" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q701" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R701" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S701" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="T701" s="2"/>
-      <c r="U701" s="2"/>
-      <c r="V701" s="2"/>
-      <c r="W701" s="2"/>
-      <c r="X701" s="2"/>
-      <c r="Y701" s="2"/>
-      <c r="Z701" s="2"/>
-      <c r="AA701" s="2"/>
-      <c r="AB701" s="2"/>
-      <c r="AC701" s="2"/>
-      <c r="AD701" s="2"/>
-      <c r="AE701" s="2"/>
-      <c r="AF701" s="2"/>
-    </row>
-    <row r="702" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A702" s="2"/>
-      <c r="B702" s="2"/>
+      <c r="U701" s="5">
+        <v>0</v>
+      </c>
+      <c r="V701" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W701" s="6">
+        <v>1455.7</v>
+      </c>
+      <c r="X701" s="7">
+        <v>701691071</v>
+      </c>
+      <c r="Y701" s="6">
+        <v>1443.1</v>
+      </c>
+      <c r="Z701" s="7">
+        <v>798467230</v>
+      </c>
+      <c r="AA701" s="7">
+        <v>102849737</v>
+      </c>
+      <c r="AB701" s="7">
+        <v>-6073578</v>
+      </c>
+      <c r="AC701" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD701" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE701" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF701" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A702" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C702" s="2"/>
-      <c r="D702" s="2"/>
-      <c r="E702" s="2"/>
-      <c r="F702" s="2"/>
-      <c r="G702" s="2"/>
-      <c r="H702" s="2"/>
+      <c r="D702" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E702" s="5">
+        <v>0</v>
+      </c>
+      <c r="F702" s="5">
+        <v>0</v>
+      </c>
+      <c r="G702" s="5">
+        <v>0</v>
+      </c>
+      <c r="H702" s="5">
+        <v>0</v>
+      </c>
       <c r="I702" s="2"/>
-      <c r="J702" s="2"/>
-      <c r="K702" s="2"/>
-      <c r="L702" s="2"/>
-      <c r="M702" s="2"/>
-      <c r="N702" s="2"/>
-      <c r="O702" s="2"/>
-      <c r="P702" s="2"/>
-      <c r="Q702" s="2"/>
-      <c r="R702" s="2"/>
-      <c r="S702" s="2"/>
+      <c r="J702" s="5">
+        <v>0</v>
+      </c>
+      <c r="K702" s="5">
+        <v>0</v>
+      </c>
+      <c r="L702" s="5">
+        <v>0</v>
+      </c>
+      <c r="M702" s="5">
+        <v>0</v>
+      </c>
+      <c r="N702" s="6">
+        <v>-57372.9</v>
+      </c>
+      <c r="O702" s="5">
+        <v>0</v>
+      </c>
+      <c r="P702" s="6">
+        <v>57372.9</v>
+      </c>
+      <c r="Q702" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R702" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S702" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="T702" s="2"/>
-      <c r="U702" s="2"/>
-      <c r="V702" s="2"/>
-      <c r="W702" s="2"/>
-      <c r="X702" s="2"/>
-      <c r="Y702" s="2"/>
-      <c r="Z702" s="2"/>
-      <c r="AA702" s="2"/>
-      <c r="AB702" s="2"/>
-      <c r="AC702" s="2"/>
-      <c r="AD702" s="2"/>
-      <c r="AE702" s="2"/>
-      <c r="AF702" s="2"/>
+      <c r="U702" s="5">
+        <v>0</v>
+      </c>
+      <c r="V702" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W702" s="5">
+        <v>0</v>
+      </c>
+      <c r="X702" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y702" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z702" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA702" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB702" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC702" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD702" s="7">
+        <v>-70979771</v>
+      </c>
+      <c r="AE702" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF702" s="7">
+        <v>70979771</v>
+      </c>
     </row>
     <row r="703" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A703" s="2"/>
-      <c r="B703" s="2"/>
+      <c r="A703" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C703" s="2"/>
-      <c r="D703" s="2"/>
-      <c r="E703" s="2"/>
-      <c r="F703" s="2"/>
-      <c r="G703" s="2"/>
-      <c r="H703" s="2"/>
+      <c r="D703" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E703" s="5">
+        <v>0</v>
+      </c>
+      <c r="F703" s="5">
+        <v>0</v>
+      </c>
+      <c r="G703" s="5">
+        <v>0</v>
+      </c>
+      <c r="H703" s="5">
+        <v>0</v>
+      </c>
       <c r="I703" s="2"/>
-      <c r="J703" s="2"/>
-      <c r="K703" s="2"/>
-      <c r="L703" s="2"/>
-      <c r="M703" s="2"/>
-      <c r="N703" s="2"/>
-      <c r="O703" s="2"/>
-      <c r="P703" s="2"/>
-      <c r="Q703" s="2"/>
-      <c r="R703" s="2"/>
-      <c r="S703" s="2"/>
+      <c r="J703" s="5">
+        <v>0</v>
+      </c>
+      <c r="K703" s="5">
+        <v>0</v>
+      </c>
+      <c r="L703" s="5">
+        <v>0</v>
+      </c>
+      <c r="M703" s="5">
+        <v>0</v>
+      </c>
+      <c r="N703" s="6">
+        <v>-136827</v>
+      </c>
+      <c r="O703" s="5">
+        <v>0</v>
+      </c>
+      <c r="P703" s="6">
+        <v>136827</v>
+      </c>
+      <c r="Q703" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R703" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S703" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="T703" s="2"/>
-      <c r="U703" s="2"/>
-      <c r="V703" s="2"/>
-      <c r="W703" s="2"/>
-      <c r="X703" s="2"/>
-      <c r="Y703" s="2"/>
-      <c r="Z703" s="2"/>
-      <c r="AA703" s="2"/>
-      <c r="AB703" s="2"/>
-      <c r="AC703" s="2"/>
-      <c r="AD703" s="2"/>
-      <c r="AE703" s="2"/>
-      <c r="AF703" s="2"/>
+      <c r="U703" s="5">
+        <v>0</v>
+      </c>
+      <c r="V703" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W703" s="5">
+        <v>0</v>
+      </c>
+      <c r="X703" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y703" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z703" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA703" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB703" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC703" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD703" s="7">
+        <v>-187208997</v>
+      </c>
+      <c r="AE703" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF703" s="7">
+        <v>187208997</v>
+      </c>
     </row>
     <row r="704" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A704" s="2"/>
-      <c r="B704" s="2"/>
+      <c r="A704" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C704" s="2"/>
-      <c r="D704" s="2"/>
-      <c r="E704" s="2"/>
-      <c r="F704" s="2"/>
-      <c r="G704" s="2"/>
-      <c r="H704" s="2"/>
-      <c r="I704" s="2"/>
-      <c r="J704" s="2"/>
-      <c r="K704" s="2"/>
-      <c r="L704" s="2"/>
-      <c r="M704" s="2"/>
-      <c r="N704" s="2"/>
-      <c r="O704" s="2"/>
-      <c r="P704" s="2"/>
-      <c r="Q704" s="2"/>
-      <c r="R704" s="2"/>
-      <c r="S704" s="2"/>
+      <c r="D704" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E704" s="5">
+        <v>0</v>
+      </c>
+      <c r="F704" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G704" s="5">
+        <v>34.24</v>
+      </c>
+      <c r="H704" s="6">
+        <v>684800</v>
+      </c>
+      <c r="I704" s="5">
+        <v>35.03</v>
+      </c>
+      <c r="J704" s="6">
+        <v>700600</v>
+      </c>
+      <c r="K704" s="6">
+        <v>15800</v>
+      </c>
+      <c r="L704" s="7">
+        <v>-413740</v>
+      </c>
+      <c r="M704" s="5">
+        <v>0</v>
+      </c>
+      <c r="N704" s="5">
+        <v>0</v>
+      </c>
+      <c r="O704" s="5">
+        <v>0</v>
+      </c>
+      <c r="P704" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q704" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R704" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S704" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="T704" s="2"/>
-      <c r="U704" s="2"/>
-      <c r="V704" s="2"/>
-      <c r="W704" s="2"/>
-      <c r="X704" s="2"/>
-      <c r="Y704" s="2"/>
-      <c r="Z704" s="2"/>
-      <c r="AA704" s="2"/>
-      <c r="AB704" s="2"/>
-      <c r="AC704" s="2"/>
-      <c r="AD704" s="2"/>
-      <c r="AE704" s="2"/>
-      <c r="AF704" s="2"/>
+      <c r="U704" s="5">
+        <v>0</v>
+      </c>
+      <c r="V704" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W704" s="6">
+        <v>1477</v>
+      </c>
+      <c r="X704" s="7">
+        <v>1011449600</v>
+      </c>
+      <c r="Y704" s="6">
+        <v>1443.1</v>
+      </c>
+      <c r="Z704" s="7">
+        <v>1011035860</v>
+      </c>
+      <c r="AA704" s="7">
+        <v>22800980</v>
+      </c>
+      <c r="AB704" s="7">
+        <v>-23214720</v>
+      </c>
+      <c r="AC704" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD704" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE704" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF704" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="705" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A705" s="2"/>
-      <c r="B705" s="2"/>
+      <c r="A705" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C705" s="2"/>
-      <c r="D705" s="2"/>
-      <c r="E705" s="2"/>
-      <c r="F705" s="2"/>
-      <c r="G705" s="2"/>
-      <c r="H705" s="2"/>
-      <c r="I705" s="2"/>
-      <c r="J705" s="2"/>
-      <c r="K705" s="2"/>
-      <c r="L705" s="2"/>
-      <c r="M705" s="2"/>
-      <c r="N705" s="2"/>
-      <c r="O705" s="2"/>
-      <c r="P705" s="2"/>
-      <c r="Q705" s="2"/>
-      <c r="R705" s="2"/>
-      <c r="S705" s="2"/>
+      <c r="D705" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E705" s="5">
+        <v>0</v>
+      </c>
+      <c r="F705" s="6">
+        <v>2500</v>
+      </c>
+      <c r="G705" s="5">
+        <v>251.01</v>
+      </c>
+      <c r="H705" s="6">
+        <v>627525.9</v>
+      </c>
+      <c r="I705" s="5">
+        <v>260.58</v>
+      </c>
+      <c r="J705" s="6">
+        <v>651450</v>
+      </c>
+      <c r="K705" s="6">
+        <v>23924.1</v>
+      </c>
+      <c r="L705" s="7">
+        <v>20472377</v>
+      </c>
+      <c r="M705" s="5">
+        <v>0</v>
+      </c>
+      <c r="N705" s="6">
+        <v>26490.1</v>
+      </c>
+      <c r="O705" s="6">
+        <v>26490.1</v>
+      </c>
+      <c r="P705" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q705" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R705" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S705" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T705" s="2"/>
-      <c r="U705" s="2"/>
-      <c r="V705" s="2"/>
-      <c r="W705" s="2"/>
-      <c r="X705" s="2"/>
-      <c r="Y705" s="2"/>
-      <c r="Z705" s="2"/>
-      <c r="AA705" s="2"/>
-      <c r="AB705" s="2"/>
-      <c r="AC705" s="2"/>
-      <c r="AD705" s="2"/>
-      <c r="AE705" s="2"/>
-      <c r="AF705" s="2"/>
+      <c r="U705" s="5">
+        <v>0</v>
+      </c>
+      <c r="V705" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W705" s="6">
+        <v>1465.49</v>
+      </c>
+      <c r="X705" s="7">
+        <v>919635118</v>
+      </c>
+      <c r="Y705" s="6">
+        <v>1443.1</v>
+      </c>
+      <c r="Z705" s="7">
+        <v>940107495</v>
+      </c>
+      <c r="AA705" s="7">
+        <v>34524868</v>
+      </c>
+      <c r="AB705" s="7">
+        <v>-14052492</v>
+      </c>
+      <c r="AC705" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD705" s="7">
+        <v>31565751</v>
+      </c>
+      <c r="AE705" s="7">
+        <v>31565751</v>
+      </c>
+      <c r="AF705" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="706" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A706" s="2"/>
-      <c r="B706" s="2"/>
+      <c r="A706" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B706" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="C706" s="2"/>
-      <c r="D706" s="2"/>
-      <c r="E706" s="2"/>
-      <c r="F706" s="2"/>
-      <c r="G706" s="2"/>
-      <c r="H706" s="2"/>
-      <c r="I706" s="2"/>
-      <c r="J706" s="2"/>
-      <c r="K706" s="2"/>
-      <c r="L706" s="2"/>
-      <c r="M706" s="2"/>
-      <c r="N706" s="2"/>
-      <c r="O706" s="2"/>
-      <c r="P706" s="2"/>
-      <c r="Q706" s="2"/>
-      <c r="R706" s="2"/>
-      <c r="S706" s="2"/>
+      <c r="D706" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E706" s="5">
+        <v>0</v>
+      </c>
+      <c r="F706" s="6">
+        <v>1550</v>
+      </c>
+      <c r="G706" s="5">
+        <v>192.399</v>
+      </c>
+      <c r="H706" s="6">
+        <v>298219.38</v>
+      </c>
+      <c r="I706" s="5">
+        <v>192.64</v>
+      </c>
+      <c r="J706" s="6">
+        <v>298592</v>
+      </c>
+      <c r="K706" s="5">
+        <v>372.62</v>
+      </c>
+      <c r="L706" s="7">
+        <v>-3816275</v>
+      </c>
+      <c r="M706" s="5">
+        <v>0</v>
+      </c>
+      <c r="N706" s="5">
+        <v>0</v>
+      </c>
+      <c r="O706" s="5">
+        <v>0</v>
+      </c>
+      <c r="P706" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q706" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R706" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S706" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="T706" s="2"/>
-      <c r="U706" s="2"/>
-      <c r="V706" s="2"/>
-      <c r="W706" s="2"/>
-      <c r="X706" s="2"/>
-      <c r="Y706" s="2"/>
-      <c r="Z706" s="2"/>
-      <c r="AA706" s="2"/>
-      <c r="AB706" s="2"/>
-      <c r="AC706" s="2"/>
-      <c r="AD706" s="2"/>
-      <c r="AE706" s="2"/>
-      <c r="AF706" s="2"/>
+      <c r="U706" s="5">
+        <v>0</v>
+      </c>
+      <c r="V706" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W706" s="6">
+        <v>1457.69</v>
+      </c>
+      <c r="X706" s="7">
+        <v>434714390</v>
+      </c>
+      <c r="Y706" s="6">
+        <v>1443.1</v>
+      </c>
+      <c r="Z706" s="7">
+        <v>430898115</v>
+      </c>
+      <c r="AA706" s="7">
+        <v>537727</v>
+      </c>
+      <c r="AB706" s="7">
+        <v>-4354003</v>
+      </c>
+      <c r="AC706" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD706" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE706" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF706" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="707" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A707" s="2"/>
-      <c r="B707" s="2"/>
+      <c r="A707" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="C707" s="2"/>
-      <c r="D707" s="2"/>
-      <c r="E707" s="2"/>
-      <c r="F707" s="2"/>
-      <c r="G707" s="2"/>
-      <c r="H707" s="2"/>
-      <c r="I707" s="2"/>
-      <c r="J707" s="2"/>
-      <c r="K707" s="2"/>
-      <c r="L707" s="2"/>
-      <c r="M707" s="2"/>
-      <c r="N707" s="2"/>
-      <c r="O707" s="2"/>
-      <c r="P707" s="2"/>
-      <c r="Q707" s="2"/>
-      <c r="R707" s="2"/>
-      <c r="S707" s="2"/>
+      <c r="D707" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E707" s="5">
+        <v>0</v>
+      </c>
+      <c r="F707" s="6">
+        <v>35000</v>
+      </c>
+      <c r="G707" s="5">
+        <v>8.0350000000000001</v>
+      </c>
+      <c r="H707" s="6">
+        <v>281256.5</v>
+      </c>
+      <c r="I707" s="5">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="J707" s="6">
+        <v>292950</v>
+      </c>
+      <c r="K707" s="6">
+        <v>11693.5</v>
+      </c>
+      <c r="L707" s="7">
+        <v>10912253</v>
+      </c>
+      <c r="M707" s="5">
+        <v>0</v>
+      </c>
+      <c r="N707" s="5">
+        <v>0</v>
+      </c>
+      <c r="O707" s="5">
+        <v>0</v>
+      </c>
+      <c r="P707" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q707" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R707" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S707" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="T707" s="2"/>
-      <c r="U707" s="2"/>
-      <c r="V707" s="2"/>
-      <c r="W707" s="2"/>
-      <c r="X707" s="2"/>
-      <c r="Y707" s="2"/>
-      <c r="Z707" s="2"/>
-      <c r="AA707" s="2"/>
-      <c r="AB707" s="2"/>
-      <c r="AC707" s="2"/>
-      <c r="AD707" s="2"/>
-      <c r="AE707" s="2"/>
-      <c r="AF707" s="2"/>
+      <c r="U707" s="5">
+        <v>0</v>
+      </c>
+      <c r="V707" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W707" s="6">
+        <v>1464.29</v>
+      </c>
+      <c r="X707" s="7">
+        <v>411843892</v>
+      </c>
+      <c r="Y707" s="6">
+        <v>1443.1</v>
+      </c>
+      <c r="Z707" s="7">
+        <v>422756145</v>
+      </c>
+      <c r="AA707" s="7">
+        <v>16874889</v>
+      </c>
+      <c r="AB707" s="7">
+        <v>-5962637</v>
+      </c>
+      <c r="AC707" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD707" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE707" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF707" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="708" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A708" s="2"/>
-      <c r="B708" s="2"/>
+      <c r="A708" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="C708" s="2"/>
-      <c r="D708" s="2"/>
-      <c r="E708" s="2"/>
-      <c r="F708" s="2"/>
-      <c r="G708" s="2"/>
-      <c r="H708" s="2"/>
+      <c r="D708" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E708" s="5">
+        <v>0</v>
+      </c>
+      <c r="F708" s="5">
+        <v>0</v>
+      </c>
+      <c r="G708" s="5">
+        <v>0</v>
+      </c>
+      <c r="H708" s="5">
+        <v>0</v>
+      </c>
       <c r="I708" s="2"/>
-      <c r="J708" s="2"/>
-      <c r="K708" s="2"/>
-      <c r="L708" s="2"/>
-      <c r="M708" s="2"/>
-      <c r="N708" s="2"/>
-      <c r="O708" s="2"/>
-      <c r="P708" s="2"/>
-      <c r="Q708" s="2"/>
-      <c r="R708" s="2"/>
-      <c r="S708" s="2"/>
+      <c r="J708" s="5">
+        <v>0</v>
+      </c>
+      <c r="K708" s="5">
+        <v>0</v>
+      </c>
+      <c r="L708" s="5">
+        <v>0</v>
+      </c>
+      <c r="M708" s="5">
+        <v>0</v>
+      </c>
+      <c r="N708" s="6">
+        <v>-276165.90000000002</v>
+      </c>
+      <c r="O708" s="5">
+        <v>0</v>
+      </c>
+      <c r="P708" s="6">
+        <v>276165.90000000002</v>
+      </c>
+      <c r="Q708" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R708" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S708" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="T708" s="2"/>
-      <c r="U708" s="2"/>
-      <c r="V708" s="2"/>
-      <c r="W708" s="2"/>
-      <c r="X708" s="2"/>
-      <c r="Y708" s="2"/>
-      <c r="Z708" s="2"/>
-      <c r="AA708" s="2"/>
-      <c r="AB708" s="2"/>
-      <c r="AC708" s="2"/>
-      <c r="AD708" s="2"/>
-      <c r="AE708" s="2"/>
-      <c r="AF708" s="2"/>
+      <c r="U708" s="5">
+        <v>0</v>
+      </c>
+      <c r="V708" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W708" s="5">
+        <v>0</v>
+      </c>
+      <c r="X708" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y708" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z708" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA708" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB708" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC708" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD708" s="7">
+        <v>-413294425</v>
+      </c>
+      <c r="AE708" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF708" s="7">
+        <v>413294425</v>
+      </c>
     </row>
     <row r="709" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A709" s="2"/>
-      <c r="B709" s="2"/>
+      <c r="A709" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C709" s="2"/>
-      <c r="D709" s="2"/>
-      <c r="E709" s="2"/>
-      <c r="F709" s="2"/>
-      <c r="G709" s="2"/>
-      <c r="H709" s="2"/>
-      <c r="I709" s="2"/>
-      <c r="J709" s="2"/>
-      <c r="K709" s="2"/>
-      <c r="L709" s="2"/>
-      <c r="M709" s="2"/>
-      <c r="N709" s="2"/>
-      <c r="O709" s="2"/>
-      <c r="P709" s="2"/>
-      <c r="Q709" s="2"/>
-      <c r="R709" s="2"/>
-      <c r="S709" s="2"/>
+      <c r="D709" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E709" s="5">
+        <v>0</v>
+      </c>
+      <c r="F709" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G709" s="5">
+        <v>191.75399999999999</v>
+      </c>
+      <c r="H709" s="6">
+        <v>287631.15000000002</v>
+      </c>
+      <c r="I709" s="5">
+        <v>187.9</v>
+      </c>
+      <c r="J709" s="6">
+        <v>281850</v>
+      </c>
+      <c r="K709" s="6">
+        <v>-5781.15</v>
+      </c>
+      <c r="L709" s="7">
+        <v>-3711916</v>
+      </c>
+      <c r="M709" s="5">
+        <v>0</v>
+      </c>
+      <c r="N709" s="6">
+        <v>-17520.8</v>
+      </c>
+      <c r="O709" s="5">
+        <v>0</v>
+      </c>
+      <c r="P709" s="6">
+        <v>17520.8</v>
+      </c>
+      <c r="Q709" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R709" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S709" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="T709" s="2"/>
-      <c r="U709" s="2"/>
-      <c r="V709" s="2"/>
-      <c r="W709" s="2"/>
-      <c r="X709" s="2"/>
-      <c r="Y709" s="2"/>
-      <c r="Z709" s="2"/>
-      <c r="AA709" s="2"/>
-      <c r="AB709" s="2"/>
-      <c r="AC709" s="2"/>
-      <c r="AD709" s="2"/>
-      <c r="AE709" s="2"/>
-      <c r="AF709" s="2"/>
+      <c r="U709" s="5">
+        <v>0</v>
+      </c>
+      <c r="V709" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W709" s="6">
+        <v>1426.99</v>
+      </c>
+      <c r="X709" s="7">
+        <v>410449651</v>
+      </c>
+      <c r="Y709" s="6">
+        <v>1443.1</v>
+      </c>
+      <c r="Z709" s="7">
+        <v>406737735</v>
+      </c>
+      <c r="AA709" s="7">
+        <v>-8342777</v>
+      </c>
+      <c r="AB709" s="7">
+        <v>4630861</v>
+      </c>
+      <c r="AC709" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD709" s="7">
+        <v>-4466002</v>
+      </c>
+      <c r="AE709" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF709" s="7">
+        <v>4466002</v>
+      </c>
     </row>
     <row r="710" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A710" s="2"/>
-      <c r="B710" s="2"/>
+      <c r="A710" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B710" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="C710" s="2"/>
-      <c r="D710" s="2"/>
-      <c r="E710" s="2"/>
-      <c r="F710" s="2"/>
-      <c r="G710" s="2"/>
-      <c r="H710" s="2"/>
-      <c r="I710" s="2"/>
-      <c r="J710" s="2"/>
-      <c r="K710" s="2"/>
-      <c r="L710" s="2"/>
-      <c r="M710" s="2"/>
-      <c r="N710" s="2"/>
-      <c r="O710" s="2"/>
-      <c r="P710" s="2"/>
-      <c r="Q710" s="2"/>
-      <c r="R710" s="2"/>
-      <c r="S710" s="2"/>
+      <c r="D710" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E710" s="5">
+        <v>0</v>
+      </c>
+      <c r="F710" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G710" s="5">
+        <v>45.33</v>
+      </c>
+      <c r="H710" s="6">
+        <v>906615</v>
+      </c>
+      <c r="I710" s="5">
+        <v>51.53</v>
+      </c>
+      <c r="J710" s="6">
+        <v>1030600</v>
+      </c>
+      <c r="K710" s="6">
+        <v>123985</v>
+      </c>
+      <c r="L710" s="7">
+        <v>155101849</v>
+      </c>
+      <c r="M710" s="5">
+        <v>0</v>
+      </c>
+      <c r="N710" s="5">
+        <v>0</v>
+      </c>
+      <c r="O710" s="5">
+        <v>0</v>
+      </c>
+      <c r="P710" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q710" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R710" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S710" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="T710" s="2"/>
-      <c r="U710" s="2"/>
-      <c r="V710" s="2"/>
-      <c r="W710" s="2"/>
-      <c r="X710" s="2"/>
-      <c r="Y710" s="2"/>
-      <c r="Z710" s="2"/>
-      <c r="AA710" s="2"/>
-      <c r="AB710" s="2"/>
-      <c r="AC710" s="2"/>
-      <c r="AD710" s="2"/>
-      <c r="AE710" s="2"/>
-      <c r="AF710" s="2"/>
+      <c r="U710" s="5">
+        <v>0</v>
+      </c>
+      <c r="V710" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W710" s="6">
+        <v>1469.37</v>
+      </c>
+      <c r="X710" s="7">
+        <v>1332157011</v>
+      </c>
+      <c r="Y710" s="6">
+        <v>1443.1</v>
+      </c>
+      <c r="Z710" s="7">
+        <v>1487258860</v>
+      </c>
+      <c r="AA710" s="7">
+        <v>178922753</v>
+      </c>
+      <c r="AB710" s="7">
+        <v>-23820905</v>
+      </c>
+      <c r="AC710" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD710" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE710" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF710" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="711" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A711" s="2"/>
-      <c r="B711" s="2"/>
+      <c r="A711" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B711" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C711" s="2"/>
-      <c r="D711" s="2"/>
-      <c r="E711" s="2"/>
-      <c r="F711" s="2"/>
-      <c r="G711" s="2"/>
-      <c r="H711" s="2"/>
+      <c r="D711" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E711" s="5">
+        <v>0</v>
+      </c>
+      <c r="F711" s="5">
+        <v>0</v>
+      </c>
+      <c r="G711" s="5">
+        <v>0</v>
+      </c>
+      <c r="H711" s="5">
+        <v>0</v>
+      </c>
       <c r="I711" s="2"/>
-      <c r="J711" s="2"/>
-      <c r="K711" s="2"/>
-      <c r="L711" s="2"/>
-      <c r="M711" s="2"/>
-      <c r="N711" s="2"/>
-      <c r="O711" s="2"/>
-      <c r="P711" s="2"/>
-      <c r="Q711" s="2"/>
-      <c r="R711" s="2"/>
-      <c r="S711" s="2"/>
+      <c r="J711" s="5">
+        <v>0</v>
+      </c>
+      <c r="K711" s="5">
+        <v>0</v>
+      </c>
+      <c r="L711" s="5">
+        <v>0</v>
+      </c>
+      <c r="M711" s="5">
+        <v>0</v>
+      </c>
+      <c r="N711" s="6">
+        <v>20374.7</v>
+      </c>
+      <c r="O711" s="6">
+        <v>20374.7</v>
+      </c>
+      <c r="P711" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q711" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R711" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S711" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="T711" s="2"/>
-      <c r="U711" s="2"/>
-      <c r="V711" s="2"/>
-      <c r="W711" s="2"/>
-      <c r="X711" s="2"/>
-      <c r="Y711" s="2"/>
-      <c r="Z711" s="2"/>
-      <c r="AA711" s="2"/>
-      <c r="AB711" s="2"/>
-      <c r="AC711" s="2"/>
-      <c r="AD711" s="2"/>
-      <c r="AE711" s="2"/>
-      <c r="AF711" s="2"/>
+      <c r="U711" s="5">
+        <v>0</v>
+      </c>
+      <c r="V711" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W711" s="5">
+        <v>0</v>
+      </c>
+      <c r="X711" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y711" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z711" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA711" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB711" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC711" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD711" s="7">
+        <v>149323927</v>
+      </c>
+      <c r="AE711" s="7">
+        <v>149323927</v>
+      </c>
+      <c r="AF711" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="712" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A712" s="2"/>
-      <c r="B712" s="2"/>
+      <c r="A712" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B712" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C712" s="2"/>
-      <c r="D712" s="2"/>
-      <c r="E712" s="2"/>
-      <c r="F712" s="2"/>
-      <c r="G712" s="2"/>
-      <c r="H712" s="2"/>
-      <c r="I712" s="2"/>
-      <c r="J712" s="2"/>
-      <c r="K712" s="2"/>
-      <c r="L712" s="2"/>
-      <c r="M712" s="2"/>
-      <c r="N712" s="2"/>
-      <c r="O712" s="2"/>
-      <c r="P712" s="2"/>
-      <c r="Q712" s="2"/>
-      <c r="R712" s="2"/>
-      <c r="S712" s="2"/>
+      <c r="D712" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E712" s="5">
+        <v>0</v>
+      </c>
+      <c r="F712" s="5">
+        <v>700</v>
+      </c>
+      <c r="G712" s="5">
+        <v>396.31</v>
+      </c>
+      <c r="H712" s="6">
+        <v>277417</v>
+      </c>
+      <c r="I712" s="5">
+        <v>459.56</v>
+      </c>
+      <c r="J712" s="6">
+        <v>321692</v>
+      </c>
+      <c r="K712" s="6">
+        <v>44275</v>
+      </c>
+      <c r="L712" s="7">
+        <v>66168072</v>
+      </c>
+      <c r="M712" s="5">
+        <v>0</v>
+      </c>
+      <c r="N712" s="6">
+        <v>208082</v>
+      </c>
+      <c r="O712" s="6">
+        <v>208082</v>
+      </c>
+      <c r="P712" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q712" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R712" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S712" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="T712" s="2"/>
-      <c r="U712" s="2"/>
-      <c r="V712" s="2"/>
-      <c r="W712" s="2"/>
-      <c r="X712" s="2"/>
-      <c r="Y712" s="2"/>
-      <c r="Z712" s="2"/>
-      <c r="AA712" s="2"/>
-      <c r="AB712" s="2"/>
-      <c r="AC712" s="2"/>
-      <c r="AD712" s="2"/>
-      <c r="AE712" s="2"/>
-      <c r="AF712" s="2"/>
+      <c r="U712" s="5">
+        <v>0</v>
+      </c>
+      <c r="V712" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W712" s="6">
+        <v>1434.89</v>
+      </c>
+      <c r="X712" s="7">
+        <v>398065653</v>
+      </c>
+      <c r="Y712" s="6">
+        <v>1443.1</v>
+      </c>
+      <c r="Z712" s="7">
+        <v>464233725</v>
+      </c>
+      <c r="AA712" s="7">
+        <v>63893252</v>
+      </c>
+      <c r="AB712" s="7">
+        <v>2274819</v>
+      </c>
+      <c r="AC712" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD712" s="7">
+        <v>337072659</v>
+      </c>
+      <c r="AE712" s="7">
+        <v>337072659</v>
+      </c>
+      <c r="AF712" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="713" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A713" s="2"/>
-      <c r="B713" s="2"/>
+      <c r="A713" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C713" s="2"/>
-      <c r="D713" s="2"/>
-      <c r="E713" s="2"/>
-      <c r="F713" s="2"/>
-      <c r="G713" s="2"/>
-      <c r="H713" s="2"/>
-      <c r="I713" s="2"/>
-      <c r="J713" s="2"/>
-      <c r="K713" s="2"/>
-      <c r="L713" s="2"/>
-      <c r="M713" s="2"/>
-      <c r="N713" s="2"/>
-      <c r="O713" s="2"/>
-      <c r="P713" s="2"/>
-      <c r="Q713" s="2"/>
-      <c r="R713" s="2"/>
-      <c r="S713" s="2"/>
+      <c r="D713" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E713" s="5">
+        <v>0</v>
+      </c>
+      <c r="F713" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G713" s="5">
+        <v>87.436000000000007</v>
+      </c>
+      <c r="H713" s="6">
+        <v>437184.5</v>
+      </c>
+      <c r="I713" s="5">
+        <v>87.67</v>
+      </c>
+      <c r="J713" s="6">
+        <v>438350</v>
+      </c>
+      <c r="K713" s="6">
+        <v>1165.5</v>
+      </c>
+      <c r="L713" s="7">
+        <v>-10209485</v>
+      </c>
+      <c r="M713" s="5">
+        <v>0</v>
+      </c>
+      <c r="N713" s="5">
+        <v>0</v>
+      </c>
+      <c r="O713" s="5">
+        <v>0</v>
+      </c>
+      <c r="P713" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q713" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R713" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S713" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="T713" s="2"/>
-      <c r="U713" s="2"/>
-      <c r="V713" s="2"/>
-      <c r="W713" s="2"/>
-      <c r="X713" s="2"/>
-      <c r="Y713" s="2"/>
-      <c r="Z713" s="2"/>
-      <c r="AA713" s="2"/>
-      <c r="AB713" s="2"/>
-      <c r="AC713" s="2"/>
-      <c r="AD713" s="2"/>
-      <c r="AE713" s="2"/>
-      <c r="AF713" s="2"/>
+      <c r="U713" s="5">
+        <v>0</v>
+      </c>
+      <c r="V713" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W713" s="6">
+        <v>1470.29</v>
+      </c>
+      <c r="X713" s="7">
+        <v>642792370</v>
+      </c>
+      <c r="Y713" s="6">
+        <v>1443.1</v>
+      </c>
+      <c r="Z713" s="7">
+        <v>632582885</v>
+      </c>
+      <c r="AA713" s="7">
+        <v>1681933</v>
+      </c>
+      <c r="AB713" s="7">
+        <v>-11891419</v>
+      </c>
+      <c r="AC713" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD713" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE713" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF713" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="714" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A714" s="2"/>
-      <c r="B714" s="2"/>
+      <c r="A714" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C714" s="2"/>
-      <c r="D714" s="2"/>
-      <c r="E714" s="2"/>
-      <c r="F714" s="2"/>
-      <c r="G714" s="2"/>
-      <c r="H714" s="2"/>
+      <c r="D714" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E714" s="5">
+        <v>0</v>
+      </c>
+      <c r="F714" s="5">
+        <v>0</v>
+      </c>
+      <c r="G714" s="5">
+        <v>0</v>
+      </c>
+      <c r="H714" s="5">
+        <v>0</v>
+      </c>
       <c r="I714" s="2"/>
-      <c r="J714" s="2"/>
-      <c r="K714" s="2"/>
-      <c r="L714" s="2"/>
-      <c r="M714" s="2"/>
-      <c r="N714" s="2"/>
-      <c r="O714" s="2"/>
-      <c r="P714" s="2"/>
-      <c r="Q714" s="2"/>
-      <c r="R714" s="2"/>
-      <c r="S714" s="2"/>
+      <c r="J714" s="5">
+        <v>0</v>
+      </c>
+      <c r="K714" s="5">
+        <v>0</v>
+      </c>
+      <c r="L714" s="5">
+        <v>0</v>
+      </c>
+      <c r="M714" s="5">
+        <v>0</v>
+      </c>
+      <c r="N714" s="6">
+        <v>-59856</v>
+      </c>
+      <c r="O714" s="5">
+        <v>0</v>
+      </c>
+      <c r="P714" s="6">
+        <v>59856</v>
+      </c>
+      <c r="Q714" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R714" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S714" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="T714" s="2"/>
-      <c r="U714" s="2"/>
-      <c r="V714" s="2"/>
-      <c r="W714" s="2"/>
-      <c r="X714" s="2"/>
-      <c r="Y714" s="2"/>
-      <c r="Z714" s="2"/>
-      <c r="AA714" s="2"/>
-      <c r="AB714" s="2"/>
-      <c r="AC714" s="2"/>
-      <c r="AD714" s="2"/>
-      <c r="AE714" s="2"/>
-      <c r="AF714" s="2"/>
+      <c r="U714" s="5">
+        <v>0</v>
+      </c>
+      <c r="V714" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W714" s="5">
+        <v>0</v>
+      </c>
+      <c r="X714" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y714" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z714" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA714" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB714" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC714" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD714" s="7">
+        <v>-91164813</v>
+      </c>
+      <c r="AE714" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF714" s="7">
+        <v>91164813</v>
+      </c>
     </row>
     <row r="715" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A715" s="2"/>
-      <c r="B715" s="2"/>
+      <c r="A715" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="C715" s="2"/>
-      <c r="D715" s="2"/>
-      <c r="E715" s="2"/>
-      <c r="F715" s="2"/>
-      <c r="G715" s="2"/>
-      <c r="H715" s="2"/>
-      <c r="I715" s="2"/>
-      <c r="J715" s="2"/>
-      <c r="K715" s="2"/>
-      <c r="L715" s="2"/>
-      <c r="M715" s="2"/>
-      <c r="N715" s="2"/>
-      <c r="O715" s="2"/>
-      <c r="P715" s="2"/>
-      <c r="Q715" s="2"/>
-      <c r="R715" s="2"/>
-      <c r="S715" s="2"/>
+      <c r="D715" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E715" s="5">
+        <v>0</v>
+      </c>
+      <c r="F715" s="5">
+        <v>400</v>
+      </c>
+      <c r="G715" s="5">
+        <v>432.53800000000001</v>
+      </c>
+      <c r="H715" s="6">
+        <v>173015.44</v>
+      </c>
+      <c r="I715" s="5">
+        <v>411.71</v>
+      </c>
+      <c r="J715" s="6">
+        <v>164684</v>
+      </c>
+      <c r="K715" s="6">
+        <v>-8331.44</v>
+      </c>
+      <c r="L715" s="7">
+        <v>-12663259</v>
+      </c>
+      <c r="M715" s="5">
+        <v>0</v>
+      </c>
+      <c r="N715" s="6">
+        <v>-16338.7</v>
+      </c>
+      <c r="O715" s="5">
+        <v>0</v>
+      </c>
+      <c r="P715" s="6">
+        <v>16338.7</v>
+      </c>
+      <c r="Q715" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R715" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S715" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="T715" s="2"/>
-      <c r="U715" s="2"/>
-      <c r="V715" s="2"/>
-      <c r="W715" s="2"/>
-      <c r="X715" s="2"/>
-      <c r="Y715" s="2"/>
-      <c r="Z715" s="2"/>
-      <c r="AA715" s="2"/>
-      <c r="AB715" s="2"/>
-      <c r="AC715" s="2"/>
-      <c r="AD715" s="2"/>
-      <c r="AE715" s="2"/>
-      <c r="AF715" s="2"/>
+      <c r="U715" s="5">
+        <v>0</v>
+      </c>
+      <c r="V715" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W715" s="6">
+        <v>1446.8</v>
+      </c>
+      <c r="X715" s="7">
+        <v>250318739</v>
+      </c>
+      <c r="Y715" s="6">
+        <v>1443.1</v>
+      </c>
+      <c r="Z715" s="7">
+        <v>237655480</v>
+      </c>
+      <c r="AA715" s="7">
+        <v>-12023101</v>
+      </c>
+      <c r="AB715" s="7">
+        <v>-640158</v>
+      </c>
+      <c r="AC715" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD715" s="7">
+        <v>-20475712</v>
+      </c>
+      <c r="AE715" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF715" s="7">
+        <v>20475712</v>
+      </c>
     </row>
     <row r="716" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A716" s="2"/>
-      <c r="B716" s="2"/>
+      <c r="A716" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B716" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C716" s="2"/>
-      <c r="D716" s="2"/>
-      <c r="E716" s="2"/>
-      <c r="F716" s="2"/>
-      <c r="G716" s="2"/>
-      <c r="H716" s="2"/>
-      <c r="I716" s="2"/>
-      <c r="J716" s="2"/>
-      <c r="K716" s="2"/>
-      <c r="L716" s="2"/>
-      <c r="M716" s="2"/>
-      <c r="N716" s="2"/>
-      <c r="O716" s="2"/>
-      <c r="P716" s="2"/>
-      <c r="Q716" s="2"/>
-      <c r="R716" s="2"/>
-      <c r="S716" s="2"/>
+      <c r="D716" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E716" s="5">
+        <v>0</v>
+      </c>
+      <c r="F716" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G716" s="5">
+        <v>169.042</v>
+      </c>
+      <c r="H716" s="6">
+        <v>169042.8</v>
+      </c>
+      <c r="I716" s="5">
+        <v>172.5</v>
+      </c>
+      <c r="J716" s="6">
+        <v>172500</v>
+      </c>
+      <c r="K716" s="6">
+        <v>3457.2</v>
+      </c>
+      <c r="L716" s="7">
+        <v>4363627</v>
+      </c>
+      <c r="M716" s="5">
+        <v>0</v>
+      </c>
+      <c r="N716" s="6">
+        <v>-14080</v>
+      </c>
+      <c r="O716" s="5">
+        <v>0</v>
+      </c>
+      <c r="P716" s="6">
+        <v>14080</v>
+      </c>
+      <c r="Q716" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R716" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S716" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="T716" s="2"/>
-      <c r="U716" s="2"/>
-      <c r="V716" s="2"/>
-      <c r="W716" s="2"/>
-      <c r="X716" s="2"/>
-      <c r="Y716" s="2"/>
-      <c r="Z716" s="2"/>
-      <c r="AA716" s="2"/>
-      <c r="AB716" s="2"/>
-      <c r="AC716" s="2"/>
-      <c r="AD716" s="2"/>
-      <c r="AE716" s="2"/>
-      <c r="AF716" s="2"/>
-    </row>
-    <row r="717" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A717" s="2"/>
-      <c r="B717" s="2"/>
+      <c r="U716" s="5">
+        <v>0</v>
+      </c>
+      <c r="V716" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W716" s="6">
+        <v>1446.79</v>
+      </c>
+      <c r="X716" s="7">
+        <v>244571123</v>
+      </c>
+      <c r="Y716" s="6">
+        <v>1443.1</v>
+      </c>
+      <c r="Z716" s="7">
+        <v>248934750</v>
+      </c>
+      <c r="AA716" s="7">
+        <v>4989085</v>
+      </c>
+      <c r="AB716" s="7">
+        <v>-625459</v>
+      </c>
+      <c r="AC716" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD716" s="7">
+        <v>-17266139</v>
+      </c>
+      <c r="AE716" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF716" s="7">
+        <v>17266139</v>
+      </c>
+    </row>
+    <row r="717" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A717" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C717" s="2"/>
-      <c r="D717" s="2"/>
-      <c r="E717" s="2"/>
-      <c r="F717" s="2"/>
-      <c r="G717" s="2"/>
-      <c r="H717" s="2"/>
+      <c r="D717" s="5">
+        <v>6869</v>
+      </c>
+      <c r="E717" s="5">
+        <v>0</v>
+      </c>
+      <c r="F717" s="5">
+        <v>0</v>
+      </c>
+      <c r="G717" s="5">
+        <v>0</v>
+      </c>
+      <c r="H717" s="5">
+        <v>0</v>
+      </c>
       <c r="I717" s="2"/>
-      <c r="J717" s="2"/>
-      <c r="K717" s="2"/>
-      <c r="L717" s="2"/>
-      <c r="M717" s="2"/>
-      <c r="N717" s="2"/>
-      <c r="O717" s="2"/>
-      <c r="P717" s="2"/>
-      <c r="Q717" s="2"/>
-      <c r="R717" s="2"/>
-      <c r="S717" s="2"/>
+      <c r="J717" s="5">
+        <v>0</v>
+      </c>
+      <c r="K717" s="5">
+        <v>0</v>
+      </c>
+      <c r="L717" s="5">
+        <v>0</v>
+      </c>
+      <c r="M717" s="5">
+        <v>0</v>
+      </c>
+      <c r="N717" s="6">
+        <v>349976</v>
+      </c>
+      <c r="O717" s="6">
+        <v>349976</v>
+      </c>
+      <c r="P717" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q717" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R717" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S717" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="T717" s="2"/>
-      <c r="U717" s="2"/>
-      <c r="V717" s="2"/>
-      <c r="W717" s="2"/>
-      <c r="X717" s="2"/>
-      <c r="Y717" s="2"/>
-      <c r="Z717" s="2"/>
-      <c r="AA717" s="2"/>
-      <c r="AB717" s="2"/>
-      <c r="AC717" s="2"/>
-      <c r="AD717" s="2"/>
-      <c r="AE717" s="2"/>
-      <c r="AF717" s="2"/>
-    </row>
-    <row r="718" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A718" s="2"/>
-      <c r="B718" s="2"/>
+      <c r="U717" s="5">
+        <v>0</v>
+      </c>
+      <c r="V717" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W717" s="5">
+        <v>0</v>
+      </c>
+      <c r="X717" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y717" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z717" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA717" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB717" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC717" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD717" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AE717" s="7">
+        <v>72042766</v>
+      </c>
+      <c r="AF717" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A718" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C718" s="2"/>
-      <c r="D718" s="2"/>
-      <c r="E718" s="2"/>
-      <c r="F718" s="2"/>
-      <c r="G718" s="2"/>
-      <c r="H718" s="2"/>
+      <c r="D718" s="5">
+        <v>2359</v>
+      </c>
+      <c r="E718" s="5">
+        <v>0</v>
+      </c>
+      <c r="F718" s="5">
+        <v>0</v>
+      </c>
+      <c r="G718" s="5">
+        <v>0</v>
+      </c>
+      <c r="H718" s="5">
+        <v>0</v>
+      </c>
       <c r="I718" s="2"/>
-      <c r="J718" s="2"/>
-      <c r="K718" s="2"/>
-      <c r="L718" s="2"/>
-      <c r="M718" s="2"/>
-      <c r="N718" s="2"/>
-      <c r="O718" s="2"/>
-      <c r="P718" s="2"/>
-      <c r="Q718" s="2"/>
-      <c r="R718" s="2"/>
-      <c r="S718" s="2"/>
+      <c r="J718" s="5">
+        <v>0</v>
+      </c>
+      <c r="K718" s="5">
+        <v>0</v>
+      </c>
+      <c r="L718" s="5">
+        <v>0</v>
+      </c>
+      <c r="M718" s="5">
+        <v>0</v>
+      </c>
+      <c r="N718" s="6">
+        <v>127080</v>
+      </c>
+      <c r="O718" s="6">
+        <v>127080</v>
+      </c>
+      <c r="P718" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q718" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R718" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S718" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T718" s="2"/>
-      <c r="U718" s="2"/>
-      <c r="V718" s="2"/>
-      <c r="W718" s="2"/>
-      <c r="X718" s="2"/>
-      <c r="Y718" s="2"/>
-      <c r="Z718" s="2"/>
-      <c r="AA718" s="2"/>
-      <c r="AB718" s="2"/>
-      <c r="AC718" s="2"/>
-      <c r="AD718" s="2"/>
-      <c r="AE718" s="2"/>
-      <c r="AF718" s="2"/>
-    </row>
-    <row r="719" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A719" s="2"/>
-      <c r="B719" s="2"/>
+      <c r="U718" s="5">
+        <v>0</v>
+      </c>
+      <c r="V718" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W718" s="5">
+        <v>0</v>
+      </c>
+      <c r="X718" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y718" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z718" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA718" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB718" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC718" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD718" s="7">
+        <v>16254451</v>
+      </c>
+      <c r="AE718" s="7">
+        <v>16254451</v>
+      </c>
+      <c r="AF718" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A719" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C719" s="2"/>
-      <c r="D719" s="2"/>
-      <c r="E719" s="2"/>
-      <c r="F719" s="2"/>
-      <c r="G719" s="2"/>
-      <c r="H719" s="2"/>
-      <c r="I719" s="2"/>
-      <c r="J719" s="2"/>
-      <c r="K719" s="2"/>
-      <c r="L719" s="2"/>
-      <c r="M719" s="2"/>
-      <c r="N719" s="2"/>
-      <c r="O719" s="2"/>
-      <c r="P719" s="2"/>
-      <c r="Q719" s="2"/>
-      <c r="R719" s="2"/>
-      <c r="S719" s="2"/>
+      <c r="D719" s="5">
+        <v>6680</v>
+      </c>
+      <c r="E719" s="5">
+        <v>0</v>
+      </c>
+      <c r="F719" s="6">
+        <v>130000</v>
+      </c>
+      <c r="G719" s="5">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="H719" s="6">
+        <v>2921022</v>
+      </c>
+      <c r="I719" s="5">
+        <v>22.18</v>
+      </c>
+      <c r="J719" s="6">
+        <v>2883400</v>
+      </c>
+      <c r="K719" s="6">
+        <v>-37622</v>
+      </c>
+      <c r="L719" s="7">
+        <v>-19245533</v>
+      </c>
+      <c r="M719" s="5">
+        <v>0</v>
+      </c>
+      <c r="N719" s="5">
+        <v>0</v>
+      </c>
+      <c r="O719" s="5">
+        <v>0</v>
+      </c>
+      <c r="P719" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q719" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R719" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S719" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="T719" s="2"/>
-      <c r="U719" s="2"/>
-      <c r="V719" s="2"/>
-      <c r="W719" s="2"/>
-      <c r="X719" s="2"/>
-      <c r="Y719" s="2"/>
-      <c r="Z719" s="2"/>
-      <c r="AA719" s="2"/>
-      <c r="AB719" s="2"/>
-      <c r="AC719" s="2"/>
-      <c r="AD719" s="2"/>
-      <c r="AE719" s="2"/>
-      <c r="AF719" s="2"/>
-    </row>
-    <row r="720" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A720" s="2"/>
-      <c r="B720" s="2"/>
+      <c r="U719" s="5">
+        <v>0</v>
+      </c>
+      <c r="V719" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W719" s="5">
+        <v>188.88</v>
+      </c>
+      <c r="X719" s="7">
+        <v>551751845</v>
+      </c>
+      <c r="Y719" s="5">
+        <v>184.68</v>
+      </c>
+      <c r="Z719" s="7">
+        <v>532506312</v>
+      </c>
+      <c r="AA719" s="7">
+        <v>-6948030</v>
+      </c>
+      <c r="AB719" s="7">
+        <v>-12297503</v>
+      </c>
+      <c r="AC719" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD719" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE719" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF719" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A720" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B720" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C720" s="2"/>
-      <c r="D720" s="2"/>
-      <c r="E720" s="2"/>
-      <c r="F720" s="2"/>
-      <c r="G720" s="2"/>
-      <c r="H720" s="2"/>
+      <c r="D720" s="5">
+        <v>6181</v>
+      </c>
+      <c r="E720" s="5">
+        <v>0</v>
+      </c>
+      <c r="F720" s="5">
+        <v>0</v>
+      </c>
+      <c r="G720" s="5">
+        <v>0</v>
+      </c>
+      <c r="H720" s="5">
+        <v>0</v>
+      </c>
       <c r="I720" s="2"/>
-      <c r="J720" s="2"/>
-      <c r="K720" s="2"/>
-      <c r="L720" s="2"/>
-      <c r="M720" s="2"/>
-      <c r="N720" s="2"/>
-      <c r="O720" s="2"/>
-      <c r="P720" s="2"/>
-      <c r="Q720" s="2"/>
-      <c r="R720" s="2"/>
-      <c r="S720" s="2"/>
+      <c r="J720" s="5">
+        <v>0</v>
+      </c>
+      <c r="K720" s="5">
+        <v>0</v>
+      </c>
+      <c r="L720" s="5">
+        <v>0</v>
+      </c>
+      <c r="M720" s="5">
+        <v>0</v>
+      </c>
+      <c r="N720" s="6">
+        <v>-6374.88</v>
+      </c>
+      <c r="O720" s="5">
+        <v>0</v>
+      </c>
+      <c r="P720" s="6">
+        <v>6374.88</v>
+      </c>
+      <c r="Q720" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R720" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S720" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="T720" s="2"/>
-      <c r="U720" s="2"/>
-      <c r="V720" s="2"/>
-      <c r="W720" s="2"/>
-      <c r="X720" s="2"/>
-      <c r="Y720" s="2"/>
-      <c r="Z720" s="2"/>
-      <c r="AA720" s="2"/>
-      <c r="AB720" s="2"/>
-      <c r="AC720" s="2"/>
-      <c r="AD720" s="2"/>
-      <c r="AE720" s="2"/>
-      <c r="AF720" s="2"/>
-    </row>
-    <row r="721" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A721" s="2"/>
-      <c r="B721" s="2"/>
+      <c r="U720" s="5">
+        <v>0</v>
+      </c>
+      <c r="V720" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W720" s="5">
+        <v>0</v>
+      </c>
+      <c r="X720" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y720" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z720" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA720" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB720" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC720" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD720" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AE720" s="7">
+        <v>1362525</v>
+      </c>
+      <c r="AF720" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A721" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="C721" s="2"/>
-      <c r="D721" s="2"/>
-      <c r="E721" s="2"/>
-      <c r="F721" s="2"/>
-      <c r="G721" s="2"/>
-      <c r="H721" s="2"/>
-      <c r="I721" s="2"/>
-      <c r="J721" s="2"/>
-      <c r="K721" s="2"/>
-      <c r="L721" s="2"/>
-      <c r="M721" s="2"/>
-      <c r="N721" s="2"/>
-      <c r="O721" s="2"/>
-      <c r="P721" s="2"/>
-      <c r="Q721" s="2"/>
-      <c r="R721" s="2"/>
-      <c r="S721" s="2"/>
+      <c r="D721" s="5">
+        <v>3750</v>
+      </c>
+      <c r="E721" s="5">
+        <v>0</v>
+      </c>
+      <c r="F721" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G721" s="5">
+        <v>511.88299999999998</v>
+      </c>
+      <c r="H721" s="6">
+        <v>3071299.8</v>
+      </c>
+      <c r="I721" s="5">
+        <v>531.5</v>
+      </c>
+      <c r="J721" s="6">
+        <v>3189000</v>
+      </c>
+      <c r="K721" s="6">
+        <v>117700.2</v>
+      </c>
+      <c r="L721" s="7">
+        <v>13505790</v>
+      </c>
+      <c r="M721" s="5">
+        <v>0</v>
+      </c>
+      <c r="N721" s="5">
+        <v>0</v>
+      </c>
+      <c r="O721" s="5">
+        <v>0</v>
+      </c>
+      <c r="P721" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q721" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R721" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S721" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="T721" s="2"/>
-      <c r="U721" s="2"/>
-      <c r="V721" s="2"/>
-      <c r="W721" s="2"/>
-      <c r="X721" s="2"/>
-      <c r="Y721" s="2"/>
-      <c r="Z721" s="2"/>
-      <c r="AA721" s="2"/>
-      <c r="AB721" s="2"/>
-      <c r="AC721" s="2"/>
-      <c r="AD721" s="2"/>
-      <c r="AE721" s="2"/>
-      <c r="AF721" s="2"/>
-    </row>
-    <row r="722" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A722" s="2"/>
-      <c r="B722" s="2"/>
+      <c r="U721" s="5">
+        <v>0</v>
+      </c>
+      <c r="V721" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W721" s="5">
+        <v>187.35</v>
+      </c>
+      <c r="X721" s="7">
+        <v>575438730</v>
+      </c>
+      <c r="Y721" s="5">
+        <v>184.68</v>
+      </c>
+      <c r="Z721" s="7">
+        <v>588944520</v>
+      </c>
+      <c r="AA721" s="7">
+        <v>21736872</v>
+      </c>
+      <c r="AB721" s="7">
+        <v>-8231083</v>
+      </c>
+      <c r="AC721" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD721" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE721" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF721" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A722" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B722" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C722" s="2"/>
-      <c r="D722" s="2"/>
-      <c r="E722" s="2"/>
-      <c r="F722" s="2"/>
-      <c r="G722" s="2"/>
-      <c r="H722" s="2"/>
+      <c r="D722" s="5">
+        <v>6082</v>
+      </c>
+      <c r="E722" s="5">
+        <v>0</v>
+      </c>
+      <c r="F722" s="5">
+        <v>0</v>
+      </c>
+      <c r="G722" s="5">
+        <v>0</v>
+      </c>
+      <c r="H722" s="5">
+        <v>0</v>
+      </c>
       <c r="I722" s="2"/>
-      <c r="J722" s="2"/>
-      <c r="K722" s="2"/>
-      <c r="L722" s="2"/>
-      <c r="M722" s="2"/>
-      <c r="N722" s="2"/>
-      <c r="O722" s="2"/>
-      <c r="P722" s="2"/>
-      <c r="Q722" s="2"/>
-      <c r="R722" s="2"/>
-      <c r="S722" s="2"/>
+      <c r="J722" s="5">
+        <v>0</v>
+      </c>
+      <c r="K722" s="5">
+        <v>0</v>
+      </c>
+      <c r="L722" s="5">
+        <v>0</v>
+      </c>
+      <c r="M722" s="5">
+        <v>0</v>
+      </c>
+      <c r="N722" s="6">
+        <v>205980</v>
+      </c>
+      <c r="O722" s="6">
+        <v>205980</v>
+      </c>
+      <c r="P722" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q722" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R722" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S722" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="T722" s="2"/>
-      <c r="U722" s="2"/>
-      <c r="V722" s="2"/>
-      <c r="W722" s="2"/>
-      <c r="X722" s="2"/>
-      <c r="Y722" s="2"/>
-      <c r="Z722" s="2"/>
-      <c r="AA722" s="2"/>
-      <c r="AB722" s="2"/>
-      <c r="AC722" s="2"/>
-      <c r="AD722" s="2"/>
-      <c r="AE722" s="2"/>
-      <c r="AF722" s="2"/>
-    </row>
-    <row r="723" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A723" s="2"/>
-      <c r="B723" s="2"/>
+      <c r="U722" s="5">
+        <v>0</v>
+      </c>
+      <c r="V722" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W722" s="5">
+        <v>0</v>
+      </c>
+      <c r="X722" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y722" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z722" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA722" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB722" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC722" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD722" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AE722" s="7">
+        <v>49395681</v>
+      </c>
+      <c r="AF722" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A723" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="C723" s="2"/>
-      <c r="D723" s="2"/>
-      <c r="E723" s="2"/>
-      <c r="F723" s="2"/>
-      <c r="G723" s="2"/>
-      <c r="H723" s="2"/>
-      <c r="I723" s="2"/>
-      <c r="J723" s="2"/>
-      <c r="K723" s="2"/>
-      <c r="L723" s="2"/>
-      <c r="M723" s="2"/>
-      <c r="N723" s="2"/>
-      <c r="O723" s="2"/>
-      <c r="P723" s="2"/>
-      <c r="Q723" s="2"/>
-      <c r="R723" s="2"/>
-      <c r="S723" s="2"/>
+      <c r="D723" s="5">
+        <v>3033</v>
+      </c>
+      <c r="E723" s="5">
+        <v>0</v>
+      </c>
+      <c r="F723" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G723" s="5">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="H723" s="6">
+        <v>5713300</v>
+      </c>
+      <c r="I723" s="5">
+        <v>5.26</v>
+      </c>
+      <c r="J723" s="6">
+        <v>5260000</v>
+      </c>
+      <c r="K723" s="6">
+        <v>-453300</v>
+      </c>
+      <c r="L723" s="7">
+        <v>-74745563</v>
+      </c>
+      <c r="M723" s="5">
+        <v>0</v>
+      </c>
+      <c r="N723" s="5">
+        <v>0</v>
+      </c>
+      <c r="O723" s="5">
+        <v>0</v>
+      </c>
+      <c r="P723" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q723" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R723" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S723" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T723" s="2"/>
-      <c r="U723" s="2"/>
-      <c r="V723" s="2"/>
-      <c r="W723" s="2"/>
-      <c r="X723" s="2"/>
-      <c r="Y723" s="2"/>
-      <c r="Z723" s="2"/>
-      <c r="AA723" s="2"/>
-      <c r="AB723" s="2"/>
-      <c r="AC723" s="2"/>
-      <c r="AD723" s="2"/>
-      <c r="AE723" s="2"/>
-      <c r="AF723" s="2"/>
-    </row>
-    <row r="724" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A724" s="2"/>
-      <c r="B724" s="2"/>
+      <c r="U723" s="5">
+        <v>0</v>
+      </c>
+      <c r="V723" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W723" s="5">
+        <v>183.11</v>
+      </c>
+      <c r="X723" s="7">
+        <v>1046162363</v>
+      </c>
+      <c r="Y723" s="5">
+        <v>184.68</v>
+      </c>
+      <c r="Z723" s="7">
+        <v>971416800</v>
+      </c>
+      <c r="AA723" s="7">
+        <v>-83715444</v>
+      </c>
+      <c r="AB723" s="7">
+        <v>8969881</v>
+      </c>
+      <c r="AC723" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD723" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE723" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF723" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A724" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B724" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="C724" s="2"/>
-      <c r="D724" s="2"/>
-      <c r="E724" s="2"/>
-      <c r="F724" s="2"/>
-      <c r="G724" s="2"/>
-      <c r="H724" s="2"/>
-      <c r="I724" s="2"/>
-      <c r="J724" s="2"/>
-      <c r="K724" s="2"/>
-      <c r="L724" s="2"/>
-      <c r="M724" s="2"/>
-      <c r="N724" s="2"/>
-      <c r="O724" s="2"/>
-      <c r="P724" s="2"/>
-      <c r="Q724" s="2"/>
-      <c r="R724" s="2"/>
-      <c r="S724" s="2"/>
+      <c r="D724" s="5">
+        <v>2800</v>
+      </c>
+      <c r="E724" s="5">
+        <v>0</v>
+      </c>
+      <c r="F724" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G724" s="5">
+        <v>27.495000000000001</v>
+      </c>
+      <c r="H724" s="6">
+        <v>2749550</v>
+      </c>
+      <c r="I724" s="5">
+        <v>26.98</v>
+      </c>
+      <c r="J724" s="6">
+        <v>2698000</v>
+      </c>
+      <c r="K724" s="6">
+        <v>-51550</v>
+      </c>
+      <c r="L724" s="7">
+        <v>-14386957</v>
+      </c>
+      <c r="M724" s="5">
+        <v>0</v>
+      </c>
+      <c r="N724" s="5">
+        <v>0</v>
+      </c>
+      <c r="O724" s="5">
+        <v>0</v>
+      </c>
+      <c r="P724" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q724" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R724" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S724" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="T724" s="2"/>
-      <c r="U724" s="2"/>
-      <c r="V724" s="2"/>
-      <c r="W724" s="2"/>
-      <c r="X724" s="2"/>
-      <c r="Y724" s="2"/>
-      <c r="Z724" s="2"/>
-      <c r="AA724" s="2"/>
-      <c r="AB724" s="2"/>
-      <c r="AC724" s="2"/>
-      <c r="AD724" s="2"/>
-      <c r="AE724" s="2"/>
-      <c r="AF724" s="2"/>
-    </row>
-    <row r="725" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A725" s="2"/>
-      <c r="B725" s="2"/>
+      <c r="U724" s="5">
+        <v>0</v>
+      </c>
+      <c r="V724" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W724" s="5">
+        <v>186.44</v>
+      </c>
+      <c r="X724" s="7">
+        <v>512653597</v>
+      </c>
+      <c r="Y724" s="5">
+        <v>184.68</v>
+      </c>
+      <c r="Z724" s="7">
+        <v>498266640</v>
+      </c>
+      <c r="AA724" s="7">
+        <v>-9520254</v>
+      </c>
+      <c r="AB724" s="7">
+        <v>-4866703</v>
+      </c>
+      <c r="AC724" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD724" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE724" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF724" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A725" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B725" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C725" s="2"/>
-      <c r="D725" s="2"/>
-      <c r="E725" s="2"/>
-      <c r="F725" s="2"/>
-      <c r="G725" s="2"/>
-      <c r="H725" s="2"/>
-      <c r="I725" s="2"/>
-      <c r="J725" s="2"/>
-      <c r="K725" s="2"/>
-      <c r="L725" s="2"/>
-      <c r="M725" s="2"/>
-      <c r="N725" s="2"/>
-      <c r="O725" s="2"/>
-      <c r="P725" s="2"/>
-      <c r="Q725" s="2"/>
-      <c r="R725" s="2"/>
-      <c r="S725" s="2"/>
+      <c r="D725" s="5">
+        <v>9988</v>
+      </c>
+      <c r="E725" s="5">
+        <v>0</v>
+      </c>
+      <c r="F725" s="6">
+        <v>35500</v>
+      </c>
+      <c r="G725" s="5">
+        <v>147.79</v>
+      </c>
+      <c r="H725" s="6">
+        <v>5246547.5199999996</v>
+      </c>
+      <c r="I725" s="5">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="J725" s="6">
+        <v>5491850</v>
+      </c>
+      <c r="K725" s="6">
+        <v>245302.49</v>
+      </c>
+      <c r="L725" s="7">
+        <v>39974570</v>
+      </c>
+      <c r="M725" s="5">
+        <v>0</v>
+      </c>
+      <c r="N725" s="6">
+        <v>431288.52</v>
+      </c>
+      <c r="O725" s="6">
+        <v>431288.52</v>
+      </c>
+      <c r="P725" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q725" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R725" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S725" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="T725" s="2"/>
-      <c r="U725" s="2"/>
-      <c r="V725" s="2"/>
-      <c r="W725" s="2"/>
-      <c r="X725" s="2"/>
-      <c r="Y725" s="2"/>
-      <c r="Z725" s="2"/>
-      <c r="AA725" s="2"/>
-      <c r="AB725" s="2"/>
-      <c r="AC725" s="2"/>
-      <c r="AD725" s="2"/>
-      <c r="AE725" s="2"/>
-      <c r="AF725" s="2"/>
+      <c r="U725" s="5">
+        <v>0</v>
+      </c>
+      <c r="V725" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W725" s="5">
+        <v>185.69</v>
+      </c>
+      <c r="X725" s="7">
+        <v>974260288</v>
+      </c>
+      <c r="Y725" s="5">
+        <v>184.68</v>
+      </c>
+      <c r="Z725" s="7">
+        <v>1014234858</v>
+      </c>
+      <c r="AA725" s="7">
+        <v>45302462</v>
+      </c>
+      <c r="AB725" s="7">
+        <v>-5327893</v>
+      </c>
+      <c r="AC725" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD725" s="7">
+        <v>84316487</v>
+      </c>
+      <c r="AE725" s="7">
+        <v>84316487</v>
+      </c>
+      <c r="AF725" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="726" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A726" s="2"/>
-      <c r="B726" s="2"/>
+      <c r="A726" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B726" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C726" s="2"/>
-      <c r="D726" s="2"/>
-      <c r="E726" s="2"/>
-      <c r="F726" s="2"/>
-      <c r="G726" s="2"/>
-      <c r="H726" s="2"/>
-      <c r="I726" s="2"/>
-      <c r="J726" s="2"/>
-      <c r="K726" s="2"/>
-      <c r="L726" s="2"/>
-      <c r="M726" s="2"/>
-      <c r="N726" s="2"/>
-      <c r="O726" s="2"/>
-      <c r="P726" s="2"/>
-      <c r="Q726" s="2"/>
-      <c r="R726" s="2"/>
-      <c r="S726" s="2"/>
+      <c r="D726" s="5">
+        <v>6861</v>
+      </c>
+      <c r="E726" s="5">
+        <v>0</v>
+      </c>
+      <c r="F726" s="6">
+        <v>1100</v>
+      </c>
+      <c r="G726" s="6">
+        <v>55916.79</v>
+      </c>
+      <c r="H726" s="6">
+        <v>61508468.420000002</v>
+      </c>
+      <c r="I726" s="6">
+        <v>60220</v>
+      </c>
+      <c r="J726" s="6">
+        <v>66242000</v>
+      </c>
+      <c r="K726" s="6">
+        <v>4733531.58</v>
+      </c>
+      <c r="L726" s="7">
+        <v>49171577</v>
+      </c>
+      <c r="M726" s="5">
+        <v>0</v>
+      </c>
+      <c r="N726" s="6">
+        <v>984568.42</v>
+      </c>
+      <c r="O726" s="6">
+        <v>984568.42</v>
+      </c>
+      <c r="P726" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q726" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R726" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S726" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="T726" s="2"/>
-      <c r="U726" s="2"/>
-      <c r="V726" s="2"/>
-      <c r="W726" s="2"/>
-      <c r="X726" s="2"/>
-      <c r="Y726" s="2"/>
-      <c r="Z726" s="2"/>
-      <c r="AA726" s="2"/>
-      <c r="AB726" s="2"/>
-      <c r="AC726" s="2"/>
-      <c r="AD726" s="2"/>
-      <c r="AE726" s="2"/>
-      <c r="AF726" s="2"/>
+      <c r="U726" s="5">
+        <v>0</v>
+      </c>
+      <c r="V726" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W726" s="5">
+        <v>924.45</v>
+      </c>
+      <c r="X726" s="7">
+        <v>568621187</v>
+      </c>
+      <c r="Y726" s="5">
+        <v>932.63</v>
+      </c>
+      <c r="Z726" s="7">
+        <v>617792764</v>
+      </c>
+      <c r="AA726" s="7">
+        <v>44146335</v>
+      </c>
+      <c r="AB726" s="7">
+        <v>5025242</v>
+      </c>
+      <c r="AC726" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD726" s="7">
+        <v>20453721</v>
+      </c>
+      <c r="AE726" s="7">
+        <v>20453721</v>
+      </c>
+      <c r="AF726" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="727" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A727" s="2"/>
-      <c r="B727" s="2"/>
+      <c r="A727" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C727" s="2"/>
-      <c r="D727" s="2"/>
-      <c r="E727" s="2"/>
-      <c r="F727" s="2"/>
-      <c r="G727" s="2"/>
-      <c r="H727" s="2"/>
+      <c r="D727" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E727" s="5">
+        <v>0</v>
+      </c>
+      <c r="F727" s="5">
+        <v>0</v>
+      </c>
+      <c r="G727" s="5">
+        <v>0</v>
+      </c>
+      <c r="H727" s="5">
+        <v>0</v>
+      </c>
       <c r="I727" s="2"/>
-      <c r="J727" s="2"/>
-      <c r="K727" s="2"/>
-      <c r="L727" s="2"/>
-      <c r="M727" s="2"/>
-      <c r="N727" s="2"/>
-      <c r="O727" s="2"/>
-      <c r="P727" s="2"/>
-      <c r="Q727" s="2"/>
-      <c r="R727" s="2"/>
-      <c r="S727" s="2"/>
+      <c r="J727" s="5">
+        <v>0</v>
+      </c>
+      <c r="K727" s="5">
+        <v>0</v>
+      </c>
+      <c r="L727" s="5">
+        <v>0</v>
+      </c>
+      <c r="M727" s="5">
+        <v>0</v>
+      </c>
+      <c r="N727" s="6">
+        <v>4911499</v>
+      </c>
+      <c r="O727" s="6">
+        <v>4911499</v>
+      </c>
+      <c r="P727" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q727" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R727" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S727" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="T727" s="2"/>
-      <c r="U727" s="2"/>
-      <c r="V727" s="2"/>
-      <c r="W727" s="2"/>
-      <c r="X727" s="2"/>
-      <c r="Y727" s="2"/>
-      <c r="Z727" s="2"/>
-      <c r="AA727" s="2"/>
-      <c r="AB727" s="2"/>
-      <c r="AC727" s="2"/>
-      <c r="AD727" s="2"/>
-      <c r="AE727" s="2"/>
-      <c r="AF727" s="2"/>
+      <c r="U727" s="5">
+        <v>0</v>
+      </c>
+      <c r="V727" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W727" s="5">
+        <v>0</v>
+      </c>
+      <c r="X727" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y727" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z727" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA727" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB727" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC727" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD727" s="7">
+        <v>42855505</v>
+      </c>
+      <c r="AE727" s="7">
+        <v>42855505</v>
+      </c>
+      <c r="AF727" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="728" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A728" s="2"/>
-      <c r="B728" s="2"/>
+      <c r="A728" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C728" s="2"/>
-      <c r="D728" s="2"/>
-      <c r="E728" s="2"/>
-      <c r="F728" s="2"/>
-      <c r="G728" s="2"/>
-      <c r="H728" s="2"/>
-      <c r="I728" s="2"/>
-      <c r="J728" s="2"/>
-      <c r="K728" s="2"/>
-      <c r="L728" s="2"/>
-      <c r="M728" s="2"/>
-      <c r="N728" s="2"/>
-      <c r="O728" s="2"/>
-      <c r="P728" s="2"/>
-      <c r="Q728" s="2"/>
-      <c r="R728" s="2"/>
-      <c r="S728" s="2"/>
+      <c r="D728" s="5">
+        <v>9984</v>
+      </c>
+      <c r="E728" s="5">
+        <v>0</v>
+      </c>
+      <c r="F728" s="6">
+        <v>13000</v>
+      </c>
+      <c r="G728" s="6">
+        <v>4066.73</v>
+      </c>
+      <c r="H728" s="6">
+        <v>52867552.170000002</v>
+      </c>
+      <c r="I728" s="6">
+        <v>4440</v>
+      </c>
+      <c r="J728" s="6">
+        <v>57720000</v>
+      </c>
+      <c r="K728" s="6">
+        <v>4852447.83</v>
+      </c>
+      <c r="L728" s="7">
+        <v>48485592</v>
+      </c>
+      <c r="M728" s="5">
+        <v>0</v>
+      </c>
+      <c r="N728" s="6">
+        <v>4615632.17</v>
+      </c>
+      <c r="O728" s="6">
+        <v>4615632.17</v>
+      </c>
+      <c r="P728" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q728" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R728" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S728" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T728" s="2"/>
-      <c r="U728" s="2"/>
-      <c r="V728" s="2"/>
-      <c r="W728" s="2"/>
-      <c r="X728" s="2"/>
-      <c r="Y728" s="2"/>
-      <c r="Z728" s="2"/>
-      <c r="AA728" s="2"/>
-      <c r="AB728" s="2"/>
-      <c r="AC728" s="2"/>
-      <c r="AD728" s="2"/>
-      <c r="AE728" s="2"/>
-      <c r="AF728" s="2"/>
+      <c r="U728" s="5">
+        <v>0</v>
+      </c>
+      <c r="V728" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W728" s="5">
+        <v>926.51</v>
+      </c>
+      <c r="X728" s="7">
+        <v>489828444</v>
+      </c>
+      <c r="Y728" s="5">
+        <v>932.63</v>
+      </c>
+      <c r="Z728" s="7">
+        <v>538314036</v>
+      </c>
+      <c r="AA728" s="7">
+        <v>45255384</v>
+      </c>
+      <c r="AB728" s="7">
+        <v>3230207</v>
+      </c>
+      <c r="AC728" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD728" s="7">
+        <v>48366259</v>
+      </c>
+      <c r="AE728" s="7">
+        <v>48366259</v>
+      </c>
+      <c r="AF728" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="729" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A729" s="2"/>
-      <c r="B729" s="2"/>
+      <c r="A729" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C729" s="2"/>
-      <c r="D729" s="2"/>
-      <c r="E729" s="2"/>
-      <c r="F729" s="2"/>
-      <c r="G729" s="2"/>
-      <c r="H729" s="2"/>
+      <c r="D729" s="5">
+        <v>6954</v>
+      </c>
+      <c r="E729" s="5">
+        <v>0</v>
+      </c>
+      <c r="F729" s="5">
+        <v>0</v>
+      </c>
+      <c r="G729" s="5">
+        <v>0</v>
+      </c>
+      <c r="H729" s="5">
+        <v>0</v>
+      </c>
       <c r="I729" s="2"/>
-      <c r="J729" s="2"/>
-      <c r="K729" s="2"/>
-      <c r="L729" s="2"/>
-      <c r="M729" s="2"/>
-      <c r="N729" s="2"/>
-      <c r="O729" s="2"/>
-      <c r="P729" s="2"/>
-      <c r="Q729" s="2"/>
-      <c r="R729" s="2"/>
-      <c r="S729" s="2"/>
+      <c r="J729" s="5">
+        <v>0</v>
+      </c>
+      <c r="K729" s="5">
+        <v>0</v>
+      </c>
+      <c r="L729" s="5">
+        <v>0</v>
+      </c>
+      <c r="M729" s="5">
+        <v>0</v>
+      </c>
+      <c r="N729" s="6">
+        <v>1652400</v>
+      </c>
+      <c r="O729" s="6">
+        <v>1652400</v>
+      </c>
+      <c r="P729" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q729" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R729" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S729" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="T729" s="2"/>
-      <c r="U729" s="2"/>
-      <c r="V729" s="2"/>
-      <c r="W729" s="2"/>
-      <c r="X729" s="2"/>
-      <c r="Y729" s="2"/>
-      <c r="Z729" s="2"/>
-      <c r="AA729" s="2"/>
-      <c r="AB729" s="2"/>
-      <c r="AC729" s="2"/>
-      <c r="AD729" s="2"/>
-      <c r="AE729" s="2"/>
-      <c r="AF729" s="2"/>
+      <c r="U729" s="5">
+        <v>0</v>
+      </c>
+      <c r="V729" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W729" s="5">
+        <v>0</v>
+      </c>
+      <c r="X729" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y729" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z729" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA729" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB729" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC729" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD729" s="7">
+        <v>30313594</v>
+      </c>
+      <c r="AE729" s="7">
+        <v>30313594</v>
+      </c>
+      <c r="AF729" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="730" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A730" s="2"/>
